--- a/Gallery.xlsx
+++ b/Gallery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelaziz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63557A82-1777-4702-8254-BBFA687CA5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C96AE9A-B69C-482B-8F45-2845FC7A5CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="655">
   <si>
     <t>Number</t>
   </si>
@@ -1435,10 +1435,13 @@
     <t>Silver plated samovar</t>
   </si>
   <si>
-    <t>Coral necklaces</t>
-  </si>
-  <si>
-    <t>Raw amber necklaces</t>
+    <t>German amber rosary cut Polish</t>
+  </si>
+  <si>
+    <t>German amber rosary, large Polish cut</t>
+  </si>
+  <si>
+    <t>Black coral rosary</t>
   </si>
   <si>
     <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/179.jpeg</t>
@@ -1970,6 +1973,27 @@
   </si>
   <si>
     <t>Amber Rosary, Cut and Raw Material, Old German</t>
+  </si>
+  <si>
+    <t>Polish amber rosary, half-and-half dotted</t>
+  </si>
+  <si>
+    <t>Russian amber rosary Russian material</t>
+  </si>
+  <si>
+    <t>Polish amber rosary, half freckled</t>
+  </si>
+  <si>
+    <t>Tunisian and Moroccan red coral swimming</t>
+  </si>
+  <si>
+    <t>Rosary and turquoise necklace</t>
+  </si>
+  <si>
+    <t>Coral Contracts</t>
+  </si>
+  <si>
+    <t>Raw Amber Contracts</t>
   </si>
 </sst>
 </file>
@@ -2369,12 +2393,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98041684-60AD-4B6B-B652-1A806A9CDDBF}">
-  <dimension ref="A1:G259"/>
+  <dimension ref="A1:G264"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C176" sqref="C176"/>
+      <selection pane="bottomLeft" activeCell="F260" sqref="E260:F266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2443,7 +2467,7 @@
         <v>398</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D3">
         <v>1750.0000000000002</v>
@@ -2466,7 +2490,7 @@
         <v>399</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D4">
         <v>500</v>
@@ -2486,10 +2510,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>499</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>498</v>
       </c>
       <c r="D5">
         <v>500</v>
@@ -2501,7 +2525,7 @@
         <v>194</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2624,10 +2648,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D11">
         <v>3000</v>
@@ -2647,10 +2671,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D12">
         <v>1750.0000000000002</v>
@@ -2670,10 +2694,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D13">
         <v>1200.0000000000002</v>
@@ -2696,7 +2720,7 @@
         <v>421</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D14">
         <v>900</v>
@@ -2708,7 +2732,7 @@
         <v>208</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2719,7 +2743,7 @@
         <v>421</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D15">
         <v>500</v>
@@ -2731,7 +2755,7 @@
         <v>208</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2742,7 +2766,7 @@
         <v>410</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D16">
         <v>1500</v>
@@ -2762,10 +2786,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D17">
         <v>1200.0000000000002</v>
@@ -2788,7 +2812,7 @@
         <v>399</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D18">
         <v>1000</v>
@@ -2811,7 +2835,7 @@
         <v>412</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D19">
         <v>2000</v>
@@ -2834,7 +2858,7 @@
         <v>397</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D20">
         <v>750</v>
@@ -2857,7 +2881,7 @@
         <v>400</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D21">
         <v>1750.0000000000002</v>
@@ -2880,7 +2904,7 @@
         <v>397</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D22">
         <v>1400</v>
@@ -2903,7 +2927,7 @@
         <v>397</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D23">
         <v>700</v>
@@ -2926,7 +2950,7 @@
         <v>400</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D24">
         <v>2500.0000000000005</v>
@@ -2949,7 +2973,7 @@
         <v>413</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D25">
         <v>1500</v>
@@ -2972,7 +2996,7 @@
         <v>413</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D26">
         <v>1500</v>
@@ -2995,7 +3019,7 @@
         <v>397</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D27">
         <v>1200.0000000000002</v>
@@ -3018,7 +3042,7 @@
         <v>398</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D28">
         <v>2500.0000000000005</v>
@@ -3041,7 +3065,7 @@
         <v>400</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D29">
         <v>3000</v>
@@ -3064,7 +3088,7 @@
         <v>417</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D30">
         <v>1200.0000000000002</v>
@@ -3087,7 +3111,7 @@
         <v>399</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D31">
         <v>800</v>
@@ -3110,7 +3134,7 @@
         <v>420</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D32">
         <v>1200.0000000000002</v>
@@ -3133,7 +3157,7 @@
         <v>414</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D33">
         <v>3000</v>
@@ -3156,7 +3180,7 @@
         <v>399</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D34">
         <v>700</v>
@@ -3248,7 +3272,7 @@
         <v>413</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D38">
         <v>1500</v>
@@ -3294,7 +3318,7 @@
         <v>399</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D40">
         <v>500</v>
@@ -3306,7 +3330,7 @@
         <v>194</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3317,7 +3341,7 @@
         <v>412</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D41">
         <v>1200.0000000000002</v>
@@ -3360,7 +3384,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>448</v>
@@ -3386,7 +3410,7 @@
         <v>416</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D44">
         <v>1200.0000000000002</v>
@@ -3409,7 +3433,7 @@
         <v>397</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D45">
         <v>2000</v>
@@ -3455,7 +3479,7 @@
         <v>397</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D47">
         <v>1100</v>
@@ -3498,10 +3522,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D49">
         <v>1200.0000000000002</v>
@@ -3521,10 +3545,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D50">
         <v>2000</v>
@@ -3544,10 +3568,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D51">
         <v>400</v>
@@ -3570,7 +3594,7 @@
         <v>421</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D52">
         <v>800</v>
@@ -3593,7 +3617,7 @@
         <v>421</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D53">
         <v>800</v>
@@ -3616,7 +3640,7 @@
         <v>399</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D54">
         <v>3500</v>
@@ -3639,7 +3663,7 @@
         <v>397</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D55">
         <v>600.00000000000011</v>
@@ -3662,7 +3686,7 @@
         <v>397</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D56">
         <v>950.00000000000011</v>
@@ -3685,7 +3709,7 @@
         <v>422</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D57">
         <v>4000</v>
@@ -3705,10 +3729,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D58">
         <v>4000</v>
@@ -3720,7 +3744,7 @@
         <v>199</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3731,7 +3755,7 @@
         <v>411</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D59">
         <v>2500</v>
@@ -3754,7 +3778,7 @@
         <v>423</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D60">
         <v>4000</v>
@@ -3777,7 +3801,7 @@
         <v>423</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D61">
         <v>900.00000000000011</v>
@@ -3800,7 +3824,7 @@
         <v>423</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D62">
         <v>1200.0000000000002</v>
@@ -3823,7 +3847,7 @@
         <v>399</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D63">
         <v>1200.0000000000002</v>
@@ -3846,7 +3870,7 @@
         <v>424</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D64">
         <v>600.00000000000011</v>
@@ -3869,7 +3893,7 @@
         <v>425</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D65">
         <v>4500</v>
@@ -3892,7 +3916,7 @@
         <v>397</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D66">
         <v>850.00000000000011</v>
@@ -3915,7 +3939,7 @@
         <v>397</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D67">
         <v>1200.0000000000002</v>
@@ -3938,7 +3962,7 @@
         <v>397</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D68">
         <v>900.00000000000011</v>
@@ -3961,7 +3985,7 @@
         <v>397</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D69">
         <v>300.00000000000006</v>
@@ -3984,7 +4008,7 @@
         <v>397</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D70">
         <v>1800.0000000000002</v>
@@ -4007,7 +4031,7 @@
         <v>397</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D71">
         <v>1200.0000000000002</v>
@@ -4030,7 +4054,7 @@
         <v>397</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D72">
         <v>1600</v>
@@ -4053,7 +4077,7 @@
         <v>397</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D73">
         <v>2000</v>
@@ -4065,7 +4089,7 @@
         <v>197</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -4076,7 +4100,7 @@
         <v>426</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D74">
         <v>12500.000000000002</v>
@@ -4099,7 +4123,7 @@
         <v>421</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D75">
         <v>800</v>
@@ -4122,7 +4146,7 @@
         <v>421</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D76">
         <v>600</v>
@@ -4188,10 +4212,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D79">
         <v>2500.0000000000005</v>
@@ -4234,10 +4258,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D81">
         <v>1400</v>
@@ -4260,7 +4284,7 @@
         <v>412</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D82">
         <v>350</v>
@@ -4283,7 +4307,7 @@
         <v>397</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D83">
         <v>750</v>
@@ -4303,7 +4327,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>454</v>
@@ -4329,7 +4353,7 @@
         <v>412</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D85">
         <v>600.00000000000011</v>
@@ -4352,7 +4376,7 @@
         <v>427</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D86">
         <v>1200.0000000000002</v>
@@ -4375,7 +4399,7 @@
         <v>397</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D87">
         <v>1700.0000000000002</v>
@@ -4444,7 +4468,7 @@
         <v>421</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D90">
         <v>400</v>
@@ -4467,7 +4491,7 @@
         <v>428</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D91">
         <v>2750</v>
@@ -4513,7 +4537,7 @@
         <v>430</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D93">
         <v>3500.0000000000005</v>
@@ -4536,7 +4560,7 @@
         <v>409</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D94">
         <v>20000.000000000004</v>
@@ -4559,7 +4583,7 @@
         <v>409</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D95">
         <v>800</v>
@@ -4571,7 +4595,7 @@
         <v>200</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -4582,7 +4606,7 @@
         <v>409</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D96">
         <v>2500.0000000000005</v>
@@ -4605,7 +4629,7 @@
         <v>431</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D97">
         <v>3000</v>
@@ -4628,7 +4652,7 @@
         <v>409</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D98">
         <v>750</v>
@@ -4651,7 +4675,7 @@
         <v>432</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D99">
         <v>350</v>
@@ -4697,7 +4721,7 @@
         <v>433</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D101">
         <v>3500.0000000000005</v>
@@ -4720,7 +4744,7 @@
         <v>410</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D102">
         <v>2800</v>
@@ -4743,7 +4767,7 @@
         <v>397</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D103">
         <v>1200.0000000000002</v>
@@ -4812,7 +4836,7 @@
         <v>423</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D106">
         <v>850.00000000000011</v>
@@ -4835,7 +4859,7 @@
         <v>397</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D107">
         <v>400</v>
@@ -4904,7 +4928,7 @@
         <v>412</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D110">
         <v>400</v>
@@ -4927,7 +4951,7 @@
         <v>412</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D111">
         <v>1000</v>
@@ -4950,7 +4974,7 @@
         <v>412</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D112">
         <v>750</v>
@@ -4973,7 +4997,7 @@
         <v>426</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D113">
         <v>4000</v>
@@ -4996,7 +5020,7 @@
         <v>430</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D114">
         <v>3000</v>
@@ -5019,7 +5043,7 @@
         <v>410</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D115">
         <v>2000</v>
@@ -5065,7 +5089,7 @@
         <v>410</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D117">
         <v>1800</v>
@@ -5088,7 +5112,7 @@
         <v>410</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D118">
         <v>1200.0000000000002</v>
@@ -5111,7 +5135,7 @@
         <v>410</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D119">
         <v>800</v>
@@ -5134,7 +5158,7 @@
         <v>410</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D120">
         <v>250</v>
@@ -5157,7 +5181,7 @@
         <v>410</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D121">
         <v>2500.0000000000005</v>
@@ -5180,7 +5204,7 @@
         <v>410</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D122">
         <v>800</v>
@@ -5203,7 +5227,7 @@
         <v>410</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D123">
         <v>800</v>
@@ -5226,7 +5250,7 @@
         <v>410</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D124">
         <v>500</v>
@@ -5249,7 +5273,7 @@
         <v>433</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D125">
         <v>2000</v>
@@ -5272,7 +5296,7 @@
         <v>421</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D126">
         <v>1200.0000000000002</v>
@@ -5295,7 +5319,7 @@
         <v>420</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D127">
         <v>5000.0000000000009</v>
@@ -5318,7 +5342,7 @@
         <v>420</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D128">
         <v>2000</v>
@@ -5341,7 +5365,7 @@
         <v>436</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D129">
         <v>1500</v>
@@ -5387,7 +5411,7 @@
         <v>397</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D131">
         <v>300.00000000000006</v>
@@ -5410,7 +5434,7 @@
         <v>420</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D132">
         <v>800</v>
@@ -5433,7 +5457,7 @@
         <v>409</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D133">
         <v>2000</v>
@@ -5456,7 +5480,7 @@
         <v>409</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D134">
         <v>700</v>
@@ -5479,7 +5503,7 @@
         <v>409</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D135">
         <v>700</v>
@@ -5502,7 +5526,7 @@
         <v>409</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D136">
         <v>700</v>
@@ -5525,7 +5549,7 @@
         <v>409</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D137">
         <v>700</v>
@@ -5548,7 +5572,7 @@
         <v>409</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D138">
         <v>700</v>
@@ -5571,7 +5595,7 @@
         <v>409</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D139">
         <v>900.00000000000011</v>
@@ -5594,7 +5618,7 @@
         <v>409</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D140">
         <v>700</v>
@@ -5617,7 +5641,7 @@
         <v>409</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D141">
         <v>700</v>
@@ -5640,7 +5664,7 @@
         <v>409</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D142">
         <v>700</v>
@@ -5663,7 +5687,7 @@
         <v>409</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D143">
         <v>700</v>
@@ -5686,7 +5710,7 @@
         <v>409</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D144">
         <v>700</v>
@@ -5709,7 +5733,7 @@
         <v>409</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D145">
         <v>1400</v>
@@ -5732,7 +5756,7 @@
         <v>409</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D146">
         <v>700</v>
@@ -5755,7 +5779,7 @@
         <v>409</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D147">
         <v>700</v>
@@ -5778,7 +5802,7 @@
         <v>409</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D148">
         <v>700</v>
@@ -5801,7 +5825,7 @@
         <v>409</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D149">
         <v>700</v>
@@ -5824,7 +5848,7 @@
         <v>409</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D150">
         <v>500</v>
@@ -5847,7 +5871,7 @@
         <v>409</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D151">
         <v>800</v>
@@ -5870,7 +5894,7 @@
         <v>409</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D152">
         <v>800</v>
@@ -5893,7 +5917,7 @@
         <v>409</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D153">
         <v>350</v>
@@ -5916,7 +5940,7 @@
         <v>409</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D154">
         <v>2500.0000000000005</v>
@@ -5939,7 +5963,7 @@
         <v>409</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D155">
         <v>600.00000000000011</v>
@@ -5962,7 +5986,7 @@
         <v>409</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D156">
         <v>700</v>
@@ -5974,7 +5998,7 @@
         <v>200</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -5985,7 +6009,7 @@
         <v>409</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D157">
         <v>700</v>
@@ -5997,7 +6021,7 @@
         <v>200</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -6008,7 +6032,7 @@
         <v>431</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D158">
         <v>750</v>
@@ -6031,7 +6055,7 @@
         <v>409</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D159">
         <v>1200.0000000000002</v>
@@ -6054,7 +6078,7 @@
         <v>409</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D160" s="11">
         <v>600.00000000000011</v>
@@ -6077,7 +6101,7 @@
         <v>399</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D161">
         <v>750</v>
@@ -6100,7 +6124,7 @@
         <v>437</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D162">
         <v>800</v>
@@ -6123,7 +6147,7 @@
         <v>426</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D163">
         <v>1500</v>
@@ -6146,7 +6170,7 @@
         <v>426</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D164">
         <v>1200.0000000000002</v>
@@ -6169,7 +6193,7 @@
         <v>397</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D165">
         <v>1500</v>
@@ -6192,7 +6216,7 @@
         <v>438</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D166">
         <v>300.00000000000006</v>
@@ -6215,7 +6239,7 @@
         <v>423</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D167">
         <v>400</v>
@@ -6238,7 +6262,7 @@
         <v>423</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D168">
         <v>500</v>
@@ -6261,7 +6285,7 @@
         <v>439</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D169">
         <v>300.00000000000006</v>
@@ -6284,7 +6308,7 @@
         <v>397</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D170" s="11">
         <v>400</v>
@@ -6307,7 +6331,7 @@
         <v>397</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D171">
         <v>150.00000000000003</v>
@@ -6330,7 +6354,7 @@
         <v>439</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D172">
         <v>150.00000000000003</v>
@@ -6353,7 +6377,7 @@
         <v>424</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D173">
         <v>100</v>
@@ -6376,7 +6400,7 @@
         <v>440</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D174">
         <v>4000</v>
@@ -6399,7 +6423,7 @@
         <v>440</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D175">
         <v>1500</v>
@@ -6422,7 +6446,7 @@
         <v>440</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D176">
         <v>2500.0000000000005</v>
@@ -6445,7 +6469,7 @@
         <v>416</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D177">
         <v>500</v>
@@ -6497,13 +6521,13 @@
         <v>1200</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F179" s="15" t="s">
         <v>219</v>
       </c>
       <c r="G179" s="17" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -6520,7 +6544,7 @@
         <v>500</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F180" t="s">
         <v>232</v>
@@ -6537,13 +6561,13 @@
         <v>409</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D181">
         <v>2300</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F181" t="s">
         <v>200</v>
@@ -6560,13 +6584,13 @@
         <v>402</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D182">
         <v>1400</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F182" t="s">
         <v>199</v>
@@ -6583,13 +6607,13 @@
         <v>442</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D183">
         <v>1575.0000000000002</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F183" t="s">
         <v>233</v>
@@ -6606,13 +6630,13 @@
         <v>442</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D184">
         <v>1485</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F184" t="s">
         <v>233</v>
@@ -6629,13 +6653,13 @@
         <v>442</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D185">
         <v>1260</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F185" t="s">
         <v>233</v>
@@ -6652,13 +6676,13 @@
         <v>442</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D186" s="3">
         <v>1215</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F186" t="s">
         <v>233</v>
@@ -6675,13 +6699,13 @@
         <v>442</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D187" s="3">
         <v>1440</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F187" t="s">
         <v>233</v>
@@ -6698,13 +6722,13 @@
         <v>442</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D188" s="3">
         <v>1395.0000000000002</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F188" t="s">
         <v>233</v>
@@ -6721,13 +6745,13 @@
         <v>442</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D189" s="3">
         <v>810.00000000000011</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F189" t="s">
         <v>233</v>
@@ -6744,13 +6768,13 @@
         <v>442</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D190" s="3">
         <v>1575.0000000000002</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F190" t="s">
         <v>233</v>
@@ -6767,13 +6791,13 @@
         <v>442</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>468</v>
+        <v>647</v>
       </c>
       <c r="D191" s="3">
         <v>1170</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F191" t="s">
         <v>233</v>
@@ -6790,13 +6814,13 @@
         <v>442</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>469</v>
+        <v>647</v>
       </c>
       <c r="D192" s="3">
         <v>810.00000000000011</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F192" t="s">
         <v>233</v>
@@ -6809,8 +6833,14 @@
       <c r="B193" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C193" s="3" t="s">
+        <v>647</v>
+      </c>
       <c r="D193" s="3">
         <v>855</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>476</v>
       </c>
       <c r="F193" s="3" t="s">
         <v>233</v>
@@ -6823,8 +6853,14 @@
       <c r="B194" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C194" s="3" t="s">
+        <v>468</v>
+      </c>
       <c r="D194" s="3">
         <v>1260</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>477</v>
       </c>
       <c r="F194" s="3" t="s">
         <v>233</v>
@@ -6837,8 +6873,14 @@
       <c r="B195" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C195" s="3" t="s">
+        <v>468</v>
+      </c>
       <c r="D195" s="3">
         <v>1330.0000000000002</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>478</v>
       </c>
       <c r="F195" s="3" t="s">
         <v>233</v>
@@ -6851,8 +6893,14 @@
       <c r="B196" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C196" s="3" t="s">
+        <v>468</v>
+      </c>
       <c r="D196" s="3">
         <v>665.00000000000011</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>479</v>
       </c>
       <c r="F196" s="3" t="s">
         <v>233</v>
@@ -6865,8 +6913,14 @@
       <c r="B197" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C197" s="3" t="s">
+        <v>468</v>
+      </c>
       <c r="D197" s="3">
         <v>1085</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>480</v>
       </c>
       <c r="F197" s="3" t="s">
         <v>233</v>
@@ -6879,8 +6933,14 @@
       <c r="B198" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C198" s="3" t="s">
+        <v>468</v>
+      </c>
       <c r="D198" s="3">
         <v>875.00000000000011</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="F198" s="3" t="s">
         <v>233</v>
@@ -6893,8 +6953,14 @@
       <c r="B199" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C199" s="3" t="s">
+        <v>468</v>
+      </c>
       <c r="D199" s="3">
         <v>1645</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>482</v>
       </c>
       <c r="F199" s="3" t="s">
         <v>233</v>
@@ -6907,8 +6973,14 @@
       <c r="B200" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C200" s="3" t="s">
+        <v>468</v>
+      </c>
       <c r="D200" s="3">
         <v>980.00000000000011</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>483</v>
       </c>
       <c r="F200" s="3" t="s">
         <v>233</v>
@@ -6921,8 +6993,14 @@
       <c r="B201" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C201" s="3" t="s">
+        <v>468</v>
+      </c>
       <c r="D201" s="3">
         <v>1015.0000000000001</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>484</v>
       </c>
       <c r="F201" s="3" t="s">
         <v>233</v>
@@ -6935,8 +7013,14 @@
       <c r="B202" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C202" s="3" t="s">
+        <v>468</v>
+      </c>
       <c r="D202" s="3">
         <v>595</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>476</v>
       </c>
       <c r="F202" s="3" t="s">
         <v>233</v>
@@ -6949,9 +7033,15 @@
       <c r="B203" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C203" s="3" t="s">
+        <v>468</v>
+      </c>
       <c r="D203" s="3">
         <v>910.00000000000011</v>
       </c>
+      <c r="E203" s="1" t="s">
+        <v>477</v>
+      </c>
       <c r="F203" s="3" t="s">
         <v>233</v>
       </c>
@@ -6959,17 +7049,23 @@
         <v>183</v>
       </c>
     </row>
-    <row r="204" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B204" s="4" t="s">
+    <row r="204" spans="2:7" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B204" s="14" t="s">
         <v>442</v>
       </c>
-      <c r="D204" s="3">
+      <c r="C204" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="D204" s="13">
         <v>595</v>
       </c>
-      <c r="F204" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="G204" s="7" t="s">
+      <c r="E204" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F204" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="G204" s="17" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6977,8 +7073,14 @@
       <c r="B205" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C205" s="3" t="s">
+        <v>648</v>
+      </c>
       <c r="D205" s="3">
         <v>768</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>479</v>
       </c>
       <c r="F205" s="3" t="s">
         <v>233</v>
@@ -6991,8 +7093,14 @@
       <c r="B206" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C206" s="3" t="s">
+        <v>648</v>
+      </c>
       <c r="D206" s="3">
         <v>1120.0000000000002</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>480</v>
       </c>
       <c r="F206" s="3" t="s">
         <v>233</v>
@@ -7005,8 +7113,14 @@
       <c r="B207" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C207" s="3" t="s">
+        <v>648</v>
+      </c>
       <c r="D207" s="3">
         <v>1856</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="F207" s="3" t="s">
         <v>233</v>
@@ -7019,8 +7133,14 @@
       <c r="B208" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C208" s="3" t="s">
+        <v>648</v>
+      </c>
       <c r="D208" s="3">
         <v>864.00000000000011</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>482</v>
       </c>
       <c r="F208" s="3" t="s">
         <v>233</v>
@@ -7033,8 +7153,14 @@
       <c r="B209" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C209" s="3" t="s">
+        <v>648</v>
+      </c>
       <c r="D209" s="3">
         <v>1280</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>483</v>
       </c>
       <c r="F209" s="3" t="s">
         <v>233</v>
@@ -7047,8 +7173,14 @@
       <c r="B210" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C210" s="3" t="s">
+        <v>648</v>
+      </c>
       <c r="D210" s="3">
         <v>896.00000000000011</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>484</v>
       </c>
       <c r="F210" s="3" t="s">
         <v>233</v>
@@ -7061,8 +7193,14 @@
       <c r="B211" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C211" s="3" t="s">
+        <v>648</v>
+      </c>
       <c r="D211" s="3">
         <v>2112</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>476</v>
       </c>
       <c r="F211" s="3" t="s">
         <v>233</v>
@@ -7075,8 +7213,14 @@
       <c r="B212" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C212" s="3" t="s">
+        <v>648</v>
+      </c>
       <c r="D212" s="3">
         <v>1888.0000000000002</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>477</v>
       </c>
       <c r="F212" s="3" t="s">
         <v>233</v>
@@ -7089,8 +7233,14 @@
       <c r="B213" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C213" s="3" t="s">
+        <v>648</v>
+      </c>
       <c r="D213" s="3">
         <v>800</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>478</v>
       </c>
       <c r="F213" s="3" t="s">
         <v>233</v>
@@ -7103,8 +7253,14 @@
       <c r="B214" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C214" s="3" t="s">
+        <v>648</v>
+      </c>
       <c r="D214" s="3">
         <v>1088</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>479</v>
       </c>
       <c r="F214" s="3" t="s">
         <v>233</v>
@@ -7117,9 +7273,15 @@
       <c r="B215" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C215" s="3" t="s">
+        <v>648</v>
+      </c>
       <c r="D215" s="3">
         <v>800</v>
       </c>
+      <c r="E215" s="1" t="s">
+        <v>480</v>
+      </c>
       <c r="F215" s="3" t="s">
         <v>233</v>
       </c>
@@ -7127,17 +7289,23 @@
         <v>186</v>
       </c>
     </row>
-    <row r="216" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B216" s="4" t="s">
+    <row r="216" spans="2:7" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B216" s="14" t="s">
         <v>442</v>
       </c>
-      <c r="D216" s="3">
+      <c r="C216" s="13" t="s">
+        <v>648</v>
+      </c>
+      <c r="D216" s="13">
         <v>800</v>
       </c>
-      <c r="F216" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="G216" s="7" t="s">
+      <c r="E216" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F216" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="G216" s="17" t="s">
         <v>186</v>
       </c>
     </row>
@@ -7145,8 +7313,14 @@
       <c r="B217" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C217" s="3" t="s">
+        <v>649</v>
+      </c>
       <c r="D217" s="3">
         <v>950.00000000000011</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>482</v>
       </c>
       <c r="F217" s="3" t="s">
         <v>233</v>
@@ -7159,8 +7333,14 @@
       <c r="B218" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C218" s="3" t="s">
+        <v>649</v>
+      </c>
       <c r="D218" s="3">
         <v>576</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>483</v>
       </c>
       <c r="F218" s="3" t="s">
         <v>233</v>
@@ -7173,8 +7353,14 @@
       <c r="B219" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C219" s="3" t="s">
+        <v>649</v>
+      </c>
       <c r="D219" s="3">
         <v>925.00000000000011</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>484</v>
       </c>
       <c r="F219" s="3" t="s">
         <v>233</v>
@@ -7187,8 +7373,14 @@
       <c r="B220" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C220" s="3" t="s">
+        <v>649</v>
+      </c>
       <c r="D220" s="3">
         <v>725</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>476</v>
       </c>
       <c r="F220" s="3" t="s">
         <v>233</v>
@@ -7201,8 +7393,14 @@
       <c r="B221" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C221" s="3" t="s">
+        <v>649</v>
+      </c>
       <c r="D221" s="3">
         <v>750</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>477</v>
       </c>
       <c r="F221" s="3" t="s">
         <v>233</v>
@@ -7215,9 +7413,15 @@
       <c r="B222" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C222" s="3" t="s">
+        <v>649</v>
+      </c>
       <c r="D222" s="3">
         <v>1100</v>
       </c>
+      <c r="E222" s="1" t="s">
+        <v>478</v>
+      </c>
       <c r="F222" s="3" t="s">
         <v>233</v>
       </c>
@@ -7225,17 +7429,23 @@
         <v>185</v>
       </c>
     </row>
-    <row r="223" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B223" s="4" t="s">
+    <row r="223" spans="2:7" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B223" s="14" t="s">
         <v>442</v>
       </c>
-      <c r="D223" s="3">
+      <c r="C223" s="13" t="s">
+        <v>649</v>
+      </c>
+      <c r="D223" s="13">
         <v>1225</v>
       </c>
-      <c r="F223" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="G223" s="7" t="s">
+      <c r="E223" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F223" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="G223" s="17" t="s">
         <v>185</v>
       </c>
     </row>
@@ -7246,6 +7456,9 @@
       <c r="D224" s="3">
         <v>495.00000000000006</v>
       </c>
+      <c r="E224" s="1" t="s">
+        <v>480</v>
+      </c>
       <c r="F224" s="3" t="s">
         <v>233</v>
       </c>
@@ -7260,6 +7473,9 @@
       <c r="D225" s="3">
         <v>950.00000000000011</v>
       </c>
+      <c r="E225" s="1" t="s">
+        <v>481</v>
+      </c>
       <c r="F225" s="3" t="s">
         <v>233</v>
       </c>
@@ -7271,8 +7487,14 @@
       <c r="B226" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C226" s="3" t="s">
+        <v>469</v>
+      </c>
       <c r="D226" s="3">
         <v>2345</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>482</v>
       </c>
       <c r="F226" s="3" t="s">
         <v>233</v>
@@ -7285,8 +7507,14 @@
       <c r="B227" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C227" s="3" t="s">
+        <v>469</v>
+      </c>
       <c r="D227" s="3">
         <v>2380</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>483</v>
       </c>
       <c r="F227" s="3" t="s">
         <v>233</v>
@@ -7299,8 +7527,14 @@
       <c r="B228" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C228" s="3" t="s">
+        <v>469</v>
+      </c>
       <c r="D228" s="3">
         <v>3570.0000000000005</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>484</v>
       </c>
       <c r="F228" s="3" t="s">
         <v>233</v>
@@ -7313,8 +7547,14 @@
       <c r="B229" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C229" s="3" t="s">
+        <v>469</v>
+      </c>
       <c r="D229" s="3">
         <v>1645</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>476</v>
       </c>
       <c r="F229" s="3" t="s">
         <v>233</v>
@@ -7327,8 +7567,14 @@
       <c r="B230" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C230" s="3" t="s">
+        <v>469</v>
+      </c>
       <c r="D230" s="3">
         <v>1610</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>477</v>
       </c>
       <c r="F230" s="3" t="s">
         <v>233</v>
@@ -7341,9 +7587,15 @@
       <c r="B231" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C231" s="3" t="s">
+        <v>469</v>
+      </c>
       <c r="D231" s="3">
         <v>1120.0000000000002</v>
       </c>
+      <c r="E231" s="1" t="s">
+        <v>478</v>
+      </c>
       <c r="F231" s="3" t="s">
         <v>233</v>
       </c>
@@ -7351,17 +7603,23 @@
         <v>184</v>
       </c>
     </row>
-    <row r="232" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B232" s="4" t="s">
+    <row r="232" spans="2:7" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B232" s="14" t="s">
         <v>442</v>
       </c>
-      <c r="D232" s="3">
+      <c r="C232" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="D232" s="13">
         <v>945</v>
       </c>
-      <c r="F232" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="G232" s="7" t="s">
+      <c r="E232" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F232" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="G232" s="17" t="s">
         <v>184</v>
       </c>
     </row>
@@ -7369,8 +7627,14 @@
       <c r="B233" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C233" s="3" t="s">
+        <v>650</v>
+      </c>
       <c r="D233" s="3">
         <v>1990.0000000000002</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>480</v>
       </c>
       <c r="F233" s="3" t="s">
         <v>233</v>
@@ -7383,8 +7647,14 @@
       <c r="B234" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C234" s="3" t="s">
+        <v>651</v>
+      </c>
       <c r="D234" s="3">
         <v>770.00000000000011</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="F234" s="3" t="s">
         <v>233</v>
@@ -7397,8 +7667,14 @@
       <c r="B235" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C235" s="3" t="s">
+        <v>651</v>
+      </c>
       <c r="D235" s="3">
         <v>1190</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>482</v>
       </c>
       <c r="F235" s="3" t="s">
         <v>233</v>
@@ -7411,8 +7687,14 @@
       <c r="B236" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C236" s="3" t="s">
+        <v>651</v>
+      </c>
       <c r="D236" s="3">
         <v>940.00000000000011</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>483</v>
       </c>
       <c r="F236" s="3" t="s">
         <v>233</v>
@@ -7425,8 +7707,14 @@
       <c r="B237" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C237" s="3" t="s">
+        <v>651</v>
+      </c>
       <c r="D237" s="3">
         <v>1040</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>484</v>
       </c>
       <c r="F237" s="3" t="s">
         <v>233</v>
@@ -7439,8 +7727,14 @@
       <c r="B238" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C238" s="3" t="s">
+        <v>651</v>
+      </c>
       <c r="D238" s="3">
         <v>880</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>476</v>
       </c>
       <c r="F238" s="3" t="s">
         <v>233</v>
@@ -7453,8 +7747,14 @@
       <c r="B239" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C239" s="3" t="s">
+        <v>651</v>
+      </c>
       <c r="D239" s="3">
         <v>540</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>477</v>
       </c>
       <c r="F239" s="3" t="s">
         <v>233</v>
@@ -7467,8 +7767,14 @@
       <c r="B240" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C240" s="3" t="s">
+        <v>651</v>
+      </c>
       <c r="D240" s="3">
         <v>800</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>478</v>
       </c>
       <c r="F240" s="3" t="s">
         <v>233</v>
@@ -7481,9 +7787,15 @@
       <c r="B241" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C241" s="3" t="s">
+        <v>651</v>
+      </c>
       <c r="D241" s="3">
         <v>1670.0000000000002</v>
       </c>
+      <c r="E241" s="1" t="s">
+        <v>479</v>
+      </c>
       <c r="F241" s="3" t="s">
         <v>233</v>
       </c>
@@ -7491,17 +7803,23 @@
         <v>187</v>
       </c>
     </row>
-    <row r="242" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B242" s="4" t="s">
+    <row r="242" spans="2:7" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B242" s="14" t="s">
         <v>442</v>
       </c>
-      <c r="D242" s="3">
+      <c r="C242" s="13" t="s">
+        <v>651</v>
+      </c>
+      <c r="D242" s="13">
         <v>2550</v>
       </c>
-      <c r="F242" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="G242" s="7" t="s">
+      <c r="E242" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F242" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="G242" s="17" t="s">
         <v>187</v>
       </c>
     </row>
@@ -7509,8 +7827,14 @@
       <c r="B243" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C243" s="13" t="s">
+        <v>651</v>
+      </c>
       <c r="D243" s="3">
         <v>2400.0000000000005</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="F243" s="3" t="s">
         <v>233</v>
@@ -7523,8 +7847,14 @@
       <c r="B244" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C244" s="3" t="s">
+        <v>470</v>
+      </c>
       <c r="D244" s="3">
         <v>1410.0000000000002</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>482</v>
       </c>
       <c r="F244" s="3" t="s">
         <v>233</v>
@@ -7537,8 +7867,14 @@
       <c r="B245" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C245" s="3" t="s">
+        <v>470</v>
+      </c>
       <c r="D245" s="3">
         <v>480</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>483</v>
       </c>
       <c r="F245" s="3" t="s">
         <v>233</v>
@@ -7551,8 +7887,14 @@
       <c r="B246" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C246" s="3" t="s">
+        <v>652</v>
+      </c>
       <c r="D246" s="3">
         <v>5625</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>484</v>
       </c>
       <c r="F246" s="3" t="s">
         <v>233</v>
@@ -7565,8 +7907,14 @@
       <c r="B247" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C247" s="3" t="s">
+        <v>652</v>
+      </c>
       <c r="D247" s="3">
         <v>540</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>476</v>
       </c>
       <c r="F247" s="3" t="s">
         <v>233</v>
@@ -7579,8 +7927,14 @@
       <c r="B248" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C248" s="3" t="s">
+        <v>652</v>
+      </c>
       <c r="D248" s="3">
         <v>750</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>477</v>
       </c>
       <c r="F248" s="3" t="s">
         <v>233</v>
@@ -7593,8 +7947,14 @@
       <c r="B249" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C249" s="3" t="s">
+        <v>653</v>
+      </c>
       <c r="D249" s="3">
         <v>1200.0000000000002</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>478</v>
       </c>
       <c r="F249" s="3" t="s">
         <v>233</v>
@@ -7607,8 +7967,14 @@
       <c r="B250" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C250" s="3" t="s">
+        <v>653</v>
+      </c>
       <c r="D250" s="3">
         <v>1000</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>479</v>
       </c>
       <c r="F250" s="3" t="s">
         <v>233</v>
@@ -7621,8 +7987,14 @@
       <c r="B251" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C251" s="3" t="s">
+        <v>653</v>
+      </c>
       <c r="D251" s="3">
         <v>1800.0000000000002</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>480</v>
       </c>
       <c r="F251" s="3" t="s">
         <v>233</v>
@@ -7635,8 +8007,14 @@
       <c r="B252" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C252" s="3" t="s">
+        <v>653</v>
+      </c>
       <c r="D252" s="3">
         <v>1500</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="F252" s="3" t="s">
         <v>233</v>
@@ -7649,8 +8027,14 @@
       <c r="B253" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C253" s="3" t="s">
+        <v>653</v>
+      </c>
       <c r="D253" s="3">
         <v>700</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>482</v>
       </c>
       <c r="F253" s="3" t="s">
         <v>233</v>
@@ -7663,8 +8047,14 @@
       <c r="B254" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C254" s="3" t="s">
+        <v>653</v>
+      </c>
       <c r="D254" s="3">
         <v>940.00000000000011</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>483</v>
       </c>
       <c r="F254" s="3" t="s">
         <v>233</v>
@@ -7677,8 +8067,14 @@
       <c r="B255" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C255" s="3" t="s">
+        <v>653</v>
+      </c>
       <c r="D255" s="3">
         <v>1300.0000000000002</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>484</v>
       </c>
       <c r="F255" s="3" t="s">
         <v>233</v>
@@ -7691,8 +8087,14 @@
       <c r="B256" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C256" s="3" t="s">
+        <v>654</v>
+      </c>
       <c r="D256" s="3">
         <v>2000</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>476</v>
       </c>
       <c r="F256" s="3" t="s">
         <v>233</v>
@@ -7705,8 +8107,14 @@
       <c r="B257" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C257" s="3" t="s">
+        <v>654</v>
+      </c>
       <c r="D257" s="3">
         <v>1400</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>477</v>
       </c>
       <c r="F257" s="3" t="s">
         <v>233</v>
@@ -7719,8 +8127,14 @@
       <c r="B258" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C258" s="3" t="s">
+        <v>654</v>
+      </c>
       <c r="D258" s="3">
         <v>2560</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>478</v>
       </c>
       <c r="F258" s="3" t="s">
         <v>233</v>
@@ -7733,15 +8147,36 @@
       <c r="B259" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="C259" s="3" t="s">
+        <v>654</v>
+      </c>
       <c r="D259" s="3">
         <v>116</v>
       </c>
+      <c r="E259" s="1" t="s">
+        <v>479</v>
+      </c>
       <c r="F259" s="3" t="s">
         <v>233</v>
       </c>
       <c r="G259" s="7" t="s">
         <v>191</v>
       </c>
+    </row>
+    <row r="260" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E260" s="1"/>
+    </row>
+    <row r="261" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E261" s="1"/>
+    </row>
+    <row r="262" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E262" s="1"/>
+    </row>
+    <row r="263" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E263" s="1"/>
+    </row>
+    <row r="264" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E264" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G258" xr:uid="{98041684-60AD-4B6B-B652-1A806A9CDDBF}"/>
@@ -7849,6 +8284,73 @@
     <hyperlink ref="E190" r:id="rId100" xr:uid="{6CEDFEB8-CB83-4F0D-B2AD-21BBDD9B0F4B}"/>
     <hyperlink ref="E191" r:id="rId101" xr:uid="{702633F9-C26A-4C65-A831-34A29E588A8F}"/>
     <hyperlink ref="E192" r:id="rId102" xr:uid="{B084A9DB-733F-4574-869D-381AF6925138}"/>
+    <hyperlink ref="E193" r:id="rId103" xr:uid="{B33D162E-45C9-4281-9FFF-577408A6EDB2}"/>
+    <hyperlink ref="E194" r:id="rId104" xr:uid="{DE19B830-C7D4-4D2A-8AB1-A5668A6E03FB}"/>
+    <hyperlink ref="E195" r:id="rId105" xr:uid="{7C93EE81-C318-452E-BBC1-DCFE023FAD3F}"/>
+    <hyperlink ref="E196" r:id="rId106" xr:uid="{6300310A-48DC-488D-A1FD-23E873045355}"/>
+    <hyperlink ref="E197" r:id="rId107" xr:uid="{CA699900-3D2B-4884-875C-E9D2E47BEE3C}"/>
+    <hyperlink ref="E198" r:id="rId108" xr:uid="{376D7A2E-7E4C-4360-BF85-5168C3C685D7}"/>
+    <hyperlink ref="E199" r:id="rId109" xr:uid="{AB9D8F8B-3898-4372-B0E9-A053F1265878}"/>
+    <hyperlink ref="E200" r:id="rId110" xr:uid="{F2BCF522-1846-4815-87FA-CD83C387BD9A}"/>
+    <hyperlink ref="E201" r:id="rId111" xr:uid="{777AC7AE-6726-47C2-AA18-1FC65EC1E3FD}"/>
+    <hyperlink ref="E202" r:id="rId112" xr:uid="{F1164EA5-2F2A-4E6A-B2A2-1492B5482B98}"/>
+    <hyperlink ref="E203" r:id="rId113" xr:uid="{F02FBCD4-428A-427F-9C98-F3900F8C8FB3}"/>
+    <hyperlink ref="E204" r:id="rId114" xr:uid="{D6F29053-91E6-4208-95DF-36B129B829A4}"/>
+    <hyperlink ref="E205" r:id="rId115" xr:uid="{B4C4E458-D6F2-46B9-988B-9B7CCFE7CA77}"/>
+    <hyperlink ref="E206" r:id="rId116" xr:uid="{E42CF963-CB15-45AB-93C7-58361B5A229D}"/>
+    <hyperlink ref="E207" r:id="rId117" xr:uid="{AF0C32B5-13EE-496B-BF0D-1FEF312C7323}"/>
+    <hyperlink ref="E208" r:id="rId118" xr:uid="{1EF9D6B8-F3B5-479B-8CEC-77186651BB99}"/>
+    <hyperlink ref="E209" r:id="rId119" xr:uid="{DDA72F8C-C135-42EF-B570-5B03127B420C}"/>
+    <hyperlink ref="E210" r:id="rId120" xr:uid="{AAAFC102-9097-4960-AFD8-71B0FB1A0365}"/>
+    <hyperlink ref="E211" r:id="rId121" xr:uid="{4B320933-3CF5-47A0-8182-AF344587D7E5}"/>
+    <hyperlink ref="E212" r:id="rId122" xr:uid="{A093705E-2126-42D4-9472-BA86B757AB65}"/>
+    <hyperlink ref="E213" r:id="rId123" xr:uid="{AABBA42E-B426-405E-A049-A6941FE8C16D}"/>
+    <hyperlink ref="E214" r:id="rId124" xr:uid="{69D673EE-4F12-4F9A-A362-65786557DF51}"/>
+    <hyperlink ref="E215" r:id="rId125" xr:uid="{8AB9C893-8492-41AC-BA5D-7C59601A96DD}"/>
+    <hyperlink ref="E216" r:id="rId126" xr:uid="{4BEEA27D-FCEC-4510-9F9E-0BFCEB23E308}"/>
+    <hyperlink ref="E217" r:id="rId127" xr:uid="{4CCEA639-4833-4B73-9FD7-7D39B76548F8}"/>
+    <hyperlink ref="E218" r:id="rId128" xr:uid="{ACE6DC43-9F33-4FB2-A2FD-00FED624C823}"/>
+    <hyperlink ref="E219" r:id="rId129" xr:uid="{3178D1CD-3321-4422-9A79-8804ACECB6F2}"/>
+    <hyperlink ref="E220" r:id="rId130" xr:uid="{E763B5EE-E263-44E0-A226-09B0A56576F2}"/>
+    <hyperlink ref="E221" r:id="rId131" xr:uid="{565AEB14-1F19-478B-876F-0AA877D27033}"/>
+    <hyperlink ref="E222" r:id="rId132" xr:uid="{2BADA365-742E-4AD1-B995-43869021841D}"/>
+    <hyperlink ref="E223" r:id="rId133" xr:uid="{9EB40FC5-018C-4159-BD5F-730B636D6745}"/>
+    <hyperlink ref="E224" r:id="rId134" xr:uid="{1FB4BD7B-6230-4535-8810-3490840640E6}"/>
+    <hyperlink ref="E225" r:id="rId135" xr:uid="{C01EB9DC-D91C-4C07-8726-0EAD7AA2B77F}"/>
+    <hyperlink ref="E226" r:id="rId136" xr:uid="{D13CA7CF-6E50-4B8D-8309-7A9F14C1A86E}"/>
+    <hyperlink ref="E227" r:id="rId137" xr:uid="{CB41DC05-F064-401E-893C-316DE1E40F2B}"/>
+    <hyperlink ref="E228" r:id="rId138" xr:uid="{CB34F0A7-4118-45AA-B6FD-FD1D6BB14551}"/>
+    <hyperlink ref="E229" r:id="rId139" xr:uid="{144DD6F8-98C9-4EE1-B2A6-11C5E4FBAE67}"/>
+    <hyperlink ref="E230" r:id="rId140" xr:uid="{54956990-6A6E-4761-99AB-46DF32AE447F}"/>
+    <hyperlink ref="E231" r:id="rId141" xr:uid="{527BC068-330D-4352-927C-0EA644B38895}"/>
+    <hyperlink ref="E232" r:id="rId142" xr:uid="{398E4125-310B-4A8D-8F52-E0DCA1BE08D1}"/>
+    <hyperlink ref="E233" r:id="rId143" xr:uid="{1A499FAE-3035-4D01-AA13-5499B684B4F9}"/>
+    <hyperlink ref="E234" r:id="rId144" xr:uid="{CA280778-5C8B-4F76-8D76-B791F140BBE7}"/>
+    <hyperlink ref="E235" r:id="rId145" xr:uid="{341040F1-3B87-4F25-8AE2-080EB3EF314B}"/>
+    <hyperlink ref="E236" r:id="rId146" xr:uid="{CF540B81-AD77-459D-8132-B02BEDB98F1B}"/>
+    <hyperlink ref="E237" r:id="rId147" xr:uid="{225301F2-F5CA-4EBA-886F-69615A48B457}"/>
+    <hyperlink ref="E238" r:id="rId148" xr:uid="{0FD39196-B353-4546-9DBA-AD6D67DB4E47}"/>
+    <hyperlink ref="E239" r:id="rId149" xr:uid="{713ED13E-E73A-468D-B6B7-0E31941E1FFC}"/>
+    <hyperlink ref="E240" r:id="rId150" xr:uid="{6E27DEFF-6A1F-44DD-9AD8-CF0E868288AD}"/>
+    <hyperlink ref="E241" r:id="rId151" xr:uid="{BCC4F6D4-642E-4192-8499-BF59CDB47EBA}"/>
+    <hyperlink ref="E242" r:id="rId152" xr:uid="{CC8ADBF8-D4D4-48C6-9B61-F5318F4B06E6}"/>
+    <hyperlink ref="E243" r:id="rId153" xr:uid="{C8D9D1AD-41DA-4CF0-ACF1-88C1834FD125}"/>
+    <hyperlink ref="E244" r:id="rId154" xr:uid="{E7D62319-4140-45C3-9E90-8963C2A3090F}"/>
+    <hyperlink ref="E245" r:id="rId155" xr:uid="{D6A6D0ED-1383-44BA-A068-D7653539AAE4}"/>
+    <hyperlink ref="E246" r:id="rId156" xr:uid="{92909ED9-5378-483C-922F-BFC8A177EF27}"/>
+    <hyperlink ref="E247" r:id="rId157" xr:uid="{F0325C78-8C01-4C99-866E-4B745B83A3FF}"/>
+    <hyperlink ref="E248" r:id="rId158" xr:uid="{0BA2EB03-A645-49C2-BB67-6C4757565E82}"/>
+    <hyperlink ref="E249" r:id="rId159" xr:uid="{FDFA0613-F247-46D0-A88B-E6F6AE5E5A50}"/>
+    <hyperlink ref="E250" r:id="rId160" xr:uid="{057D666D-3772-4B27-B7ED-F4E0ABDE3AE4}"/>
+    <hyperlink ref="E251" r:id="rId161" xr:uid="{407BED3B-EF77-41A5-B8F7-E408E031242B}"/>
+    <hyperlink ref="E252" r:id="rId162" xr:uid="{73E3DE29-1EE5-4ECB-B5BC-37864B33F898}"/>
+    <hyperlink ref="E253" r:id="rId163" xr:uid="{24275325-8AE2-4899-8E48-D0717AC8CA7D}"/>
+    <hyperlink ref="E254" r:id="rId164" xr:uid="{6D928180-8AA1-4463-BBD2-97B261953C89}"/>
+    <hyperlink ref="E255" r:id="rId165" xr:uid="{26EB8266-970B-45F1-9501-63A64007C139}"/>
+    <hyperlink ref="E256" r:id="rId166" xr:uid="{678CFD0A-557C-4EE2-9ACE-9F5195ACA5A8}"/>
+    <hyperlink ref="E257" r:id="rId167" xr:uid="{D6AC0E13-2F87-48D1-A4D0-D9BAEB1E68E3}"/>
+    <hyperlink ref="E258" r:id="rId168" xr:uid="{5728F092-DAB2-476F-A11F-CC4CA7FE88BB}"/>
+    <hyperlink ref="E259" r:id="rId169" xr:uid="{451646C2-0BF4-4D56-9C47-57DAAEFDF034}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7914,7 +8416,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B5">
         <v>500</v>
@@ -8299,7 +8801,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B40">
         <v>500</v>
@@ -8497,7 +8999,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B58">
         <v>4000</v>
@@ -8662,7 +9164,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B73">
         <v>2000</v>
@@ -8904,7 +9406,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B95">
         <v>800</v>
@@ -9575,7 +10077,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B156">
         <v>700</v>
@@ -9586,7 +10088,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B157">
         <v>700</v>

--- a/Gallery.xlsx
+++ b/Gallery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelaziz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE46BD7-DFDE-4159-A99D-056EB67A694A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB44609F-E4F2-4DC6-AC01-F6C9C689E4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$258</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$259</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2063,7 +2063,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2097,15 +2097,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2389,10 +2393,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98041684-60AD-4B6B-B652-1A806A9CDDBF}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G264"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
@@ -2401,11 +2406,11 @@
   <cols>
     <col min="1" max="1" width="9.8984375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.09765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="4.8984375" style="22" customWidth="1"/>
-    <col min="5" max="5" width="33.69921875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="5.8984375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="34.69921875" customWidth="1"/>
+    <col min="3" max="3" width="84" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.3984375" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.69921875" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
@@ -2419,7 +2424,7 @@
       <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -2432,7 +2437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2455,7 +2460,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2466,7 +2471,7 @@
         <v>492</v>
       </c>
       <c r="D3" s="18">
-        <v>1750.0000000000002</v>
+        <v>1750</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -2478,7 +2483,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2501,7 +2506,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2524,7 +2529,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2547,7 +2552,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2570,7 +2575,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2593,7 +2598,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2604,7 +2609,7 @@
         <v>404</v>
       </c>
       <c r="D9" s="18">
-        <v>900.00000000000011</v>
+        <v>900</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -2616,7 +2621,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2627,7 +2632,7 @@
         <v>405</v>
       </c>
       <c r="D10" s="18">
-        <v>2500.0000000000005</v>
+        <v>2500</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
@@ -2639,7 +2644,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2662,7 +2667,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2673,7 +2678,7 @@
         <v>497</v>
       </c>
       <c r="D12" s="18">
-        <v>1750.0000000000002</v>
+        <v>1750</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
@@ -2685,7 +2690,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2696,7 +2701,7 @@
         <v>498</v>
       </c>
       <c r="D13" s="18">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
@@ -2708,7 +2713,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2731,7 +2736,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2754,7 +2759,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2777,7 +2782,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2788,7 +2793,7 @@
         <v>502</v>
       </c>
       <c r="D17" s="18">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E17" t="s">
         <v>234</v>
@@ -2800,7 +2805,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2823,7 +2828,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2846,7 +2851,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2869,7 +2874,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2880,7 +2885,7 @@
         <v>510</v>
       </c>
       <c r="D21" s="18">
-        <v>1750.0000000000002</v>
+        <v>1750</v>
       </c>
       <c r="E21" t="s">
         <v>238</v>
@@ -2892,7 +2897,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2915,7 +2920,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2938,7 +2943,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2949,7 +2954,7 @@
         <v>511</v>
       </c>
       <c r="D24" s="18">
-        <v>2500.0000000000005</v>
+        <v>2500</v>
       </c>
       <c r="E24" t="s">
         <v>241</v>
@@ -2961,7 +2966,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2984,7 +2989,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -3007,7 +3012,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -3018,7 +3023,7 @@
         <v>491</v>
       </c>
       <c r="D27" s="18">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E27" t="s">
         <v>244</v>
@@ -3030,7 +3035,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -3041,7 +3046,7 @@
         <v>513</v>
       </c>
       <c r="D28" s="18">
-        <v>2500.0000000000005</v>
+        <v>2500</v>
       </c>
       <c r="E28" t="s">
         <v>245</v>
@@ -3053,7 +3058,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -3076,7 +3081,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -3087,7 +3092,7 @@
         <v>515</v>
       </c>
       <c r="D30" s="18">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E30" t="s">
         <v>247</v>
@@ -3099,7 +3104,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -3122,7 +3127,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -3133,7 +3138,7 @@
         <v>517</v>
       </c>
       <c r="D32" s="18">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E32" t="s">
         <v>249</v>
@@ -3145,7 +3150,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -3168,7 +3173,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -3191,7 +3196,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3214,7 +3219,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -3225,7 +3230,7 @@
         <v>440</v>
       </c>
       <c r="D36" s="18">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E36" t="s">
         <v>253</v>
@@ -3237,7 +3242,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -3248,7 +3253,7 @@
         <v>441</v>
       </c>
       <c r="D37" s="18">
-        <v>900.00000000000011</v>
+        <v>900</v>
       </c>
       <c r="E37" t="s">
         <v>254</v>
@@ -3260,7 +3265,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -3283,7 +3288,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -3306,7 +3311,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -3329,7 +3334,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -3340,7 +3345,7 @@
         <v>522</v>
       </c>
       <c r="D41" s="18">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E41" t="s">
         <v>258</v>
@@ -3352,7 +3357,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3363,7 +3368,7 @@
         <v>443</v>
       </c>
       <c r="D42" s="18">
-        <v>2500.0000000000005</v>
+        <v>2500</v>
       </c>
       <c r="E42" t="s">
         <v>259</v>
@@ -3375,7 +3380,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3398,7 +3403,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3409,7 +3414,7 @@
         <v>523</v>
       </c>
       <c r="D44" s="18">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E44" t="s">
         <v>261</v>
@@ -3421,7 +3426,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3444,7 +3449,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -3467,7 +3472,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3490,7 +3495,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3501,7 +3506,7 @@
         <v>446</v>
       </c>
       <c r="D48" s="18">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E48" t="s">
         <v>265</v>
@@ -3513,7 +3518,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3524,7 +3529,7 @@
         <v>526</v>
       </c>
       <c r="D49" s="18">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E49" t="s">
         <v>266</v>
@@ -3536,7 +3541,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3559,7 +3564,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -3582,7 +3587,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -3605,7 +3610,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -3628,7 +3633,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -3651,7 +3656,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -3662,7 +3667,7 @@
         <v>534</v>
       </c>
       <c r="D55" s="18">
-        <v>600.00000000000011</v>
+        <v>600</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>272</v>
@@ -3674,7 +3679,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -3685,7 +3690,7 @@
         <v>535</v>
       </c>
       <c r="D56" s="18">
-        <v>950.00000000000011</v>
+        <v>950</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>273</v>
@@ -3697,7 +3702,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -3720,7 +3725,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -3743,7 +3748,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -3766,7 +3771,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -3789,7 +3794,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -3800,7 +3805,7 @@
         <v>542</v>
       </c>
       <c r="D61" s="18">
-        <v>900.00000000000011</v>
+        <v>900</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>278</v>
@@ -3812,7 +3817,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -3823,7 +3828,7 @@
         <v>543</v>
       </c>
       <c r="D62" s="18">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E62" t="s">
         <v>279</v>
@@ -3835,7 +3840,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -3846,7 +3851,7 @@
         <v>544</v>
       </c>
       <c r="D63" s="18">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>280</v>
@@ -3858,7 +3863,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -3869,7 +3874,7 @@
         <v>545</v>
       </c>
       <c r="D64" s="18">
-        <v>600.00000000000011</v>
+        <v>600</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>281</v>
@@ -3881,7 +3886,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -3914,8 +3919,8 @@
       <c r="C66" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="D66" s="18">
-        <v>850.00000000000011</v>
+      <c r="D66" s="24">
+        <v>850</v>
       </c>
       <c r="E66" t="s">
         <v>283</v>
@@ -3927,7 +3932,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -3938,7 +3943,7 @@
         <v>548</v>
       </c>
       <c r="D67" s="18">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>3</v>
@@ -3950,7 +3955,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -3961,7 +3966,7 @@
         <v>549</v>
       </c>
       <c r="D68" s="18">
-        <v>900.00000000000011</v>
+        <v>900</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>284</v>
@@ -3973,7 +3978,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -3984,7 +3989,7 @@
         <v>550</v>
       </c>
       <c r="D69" s="18">
-        <v>300.00000000000006</v>
+        <v>300</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>285</v>
@@ -3996,7 +4001,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -4007,7 +4012,7 @@
         <v>551</v>
       </c>
       <c r="D70" s="18">
-        <v>1800.0000000000002</v>
+        <v>1800</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>286</v>
@@ -4019,7 +4024,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -4030,7 +4035,7 @@
         <v>552</v>
       </c>
       <c r="D71" s="18">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>287</v>
@@ -4042,7 +4047,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -4065,7 +4070,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -4088,7 +4093,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -4099,7 +4104,7 @@
         <v>555</v>
       </c>
       <c r="D74" s="18">
-        <v>12500.000000000002</v>
+        <v>12500</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>290</v>
@@ -4111,7 +4116,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -4134,7 +4139,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -4157,7 +4162,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -4180,7 +4185,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -4203,7 +4208,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -4214,7 +4219,7 @@
         <v>558</v>
       </c>
       <c r="D79" s="18">
-        <v>2500.0000000000005</v>
+        <v>2500</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>295</v>
@@ -4226,7 +4231,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -4249,7 +4254,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -4272,7 +4277,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -4295,7 +4300,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -4318,7 +4323,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -4329,7 +4334,7 @@
         <v>450</v>
       </c>
       <c r="D84" s="18">
-        <v>600.00000000000011</v>
+        <v>600</v>
       </c>
       <c r="E84" t="s">
         <v>300</v>
@@ -4341,7 +4346,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -4352,7 +4357,7 @@
         <v>562</v>
       </c>
       <c r="D85" s="18">
-        <v>600.00000000000011</v>
+        <v>600</v>
       </c>
       <c r="E85" t="s">
         <v>301</v>
@@ -4364,7 +4369,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>86</v>
       </c>
@@ -4375,7 +4380,7 @@
         <v>563</v>
       </c>
       <c r="D86" s="18">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>302</v>
@@ -4387,7 +4392,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>85</v>
       </c>
@@ -4398,7 +4403,7 @@
         <v>564</v>
       </c>
       <c r="D87" s="18">
-        <v>1700.0000000000002</v>
+        <v>1700</v>
       </c>
       <c r="E87" t="s">
         <v>303</v>
@@ -4410,7 +4415,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -4421,7 +4426,7 @@
         <v>451</v>
       </c>
       <c r="D88" s="18">
-        <v>300.00000000000006</v>
+        <v>300</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>304</v>
@@ -4433,7 +4438,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -4456,7 +4461,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -4479,7 +4484,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -4502,7 +4507,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -4525,7 +4530,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -4536,7 +4541,7 @@
         <v>569</v>
       </c>
       <c r="D93" s="18">
-        <v>3500.0000000000005</v>
+        <v>3500</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>309</v>
@@ -4548,7 +4553,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -4571,7 +4576,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -4594,7 +4599,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -4605,7 +4610,7 @@
         <v>572</v>
       </c>
       <c r="D96" s="18">
-        <v>2500.0000000000005</v>
+        <v>2500</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>312</v>
@@ -4617,7 +4622,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -4640,7 +4645,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -4663,7 +4668,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -4686,7 +4691,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -4709,7 +4714,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -4720,7 +4725,7 @@
         <v>576</v>
       </c>
       <c r="D101" s="18">
-        <v>3500.0000000000005</v>
+        <v>3500</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>317</v>
@@ -4732,7 +4737,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -4755,7 +4760,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -4766,7 +4771,7 @@
         <v>578</v>
       </c>
       <c r="D103" s="18">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E103" t="s">
         <v>319</v>
@@ -4778,7 +4783,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -4789,7 +4794,7 @@
         <v>455</v>
       </c>
       <c r="D104" s="18">
-        <v>300.00000000000006</v>
+        <v>300</v>
       </c>
       <c r="E104" t="s">
         <v>320</v>
@@ -4801,7 +4806,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -4812,7 +4817,7 @@
         <v>456</v>
       </c>
       <c r="D105" s="18">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>321</v>
@@ -4834,8 +4839,8 @@
       <c r="C106" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="D106" s="18">
-        <v>850.00000000000011</v>
+      <c r="D106" s="24">
+        <v>850</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>322</v>
@@ -4847,7 +4852,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -4870,7 +4875,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -4881,7 +4886,7 @@
         <v>457</v>
       </c>
       <c r="D108" s="18">
-        <v>2500.0000000000005</v>
+        <v>2500</v>
       </c>
       <c r="E108" t="s">
         <v>324</v>
@@ -4893,7 +4898,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -4916,7 +4921,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -4939,7 +4944,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -4962,7 +4967,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -4985,7 +4990,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -5008,7 +5013,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -5031,7 +5036,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -5054,7 +5059,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -5077,7 +5082,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -5100,7 +5105,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -5111,7 +5116,7 @@
         <v>588</v>
       </c>
       <c r="D118" s="18">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E118" t="s">
         <v>334</v>
@@ -5123,7 +5128,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -5146,7 +5151,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -5169,7 +5174,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -5180,7 +5185,7 @@
         <v>591</v>
       </c>
       <c r="D121" s="18">
-        <v>2500.0000000000005</v>
+        <v>2500</v>
       </c>
       <c r="E121" t="s">
         <v>337</v>
@@ -5192,7 +5197,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -5215,7 +5220,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -5238,7 +5243,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -5261,7 +5266,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -5284,7 +5289,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -5295,7 +5300,7 @@
         <v>596</v>
       </c>
       <c r="D126" s="18">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E126" t="s">
         <v>342</v>
@@ -5307,7 +5312,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -5330,7 +5335,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -5353,7 +5358,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -5376,7 +5381,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="130" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9">
         <v>129</v>
       </c>
@@ -5386,7 +5391,7 @@
       <c r="C130" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="D130" s="20">
+      <c r="D130" s="19">
         <v>6000</v>
       </c>
       <c r="E130" s="12" t="s">
@@ -5399,7 +5404,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -5410,7 +5415,7 @@
         <v>600</v>
       </c>
       <c r="D131" s="18">
-        <v>300.00000000000006</v>
+        <v>300</v>
       </c>
       <c r="E131" s="5" t="s">
         <v>347</v>
@@ -5422,7 +5427,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -5445,7 +5450,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -5468,7 +5473,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -5491,7 +5496,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -5514,7 +5519,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -5537,7 +5542,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -5560,7 +5565,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -5583,7 +5588,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -5594,7 +5599,7 @@
         <v>603</v>
       </c>
       <c r="D139" s="18">
-        <v>900.00000000000011</v>
+        <v>900</v>
       </c>
       <c r="E139" s="5" t="s">
         <v>355</v>
@@ -5606,7 +5611,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -5629,7 +5634,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -5652,7 +5657,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -5675,7 +5680,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -5698,7 +5703,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -5721,7 +5726,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -5744,7 +5749,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -5767,7 +5772,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -5790,7 +5795,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -5813,7 +5818,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -5836,7 +5841,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -5859,7 +5864,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -5882,7 +5887,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -5905,7 +5910,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -5928,7 +5933,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -5939,7 +5944,7 @@
         <v>615</v>
       </c>
       <c r="D154" s="18">
-        <v>2500.0000000000005</v>
+        <v>2500</v>
       </c>
       <c r="E154" s="5" t="s">
         <v>370</v>
@@ -5951,7 +5956,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -5962,7 +5967,7 @@
         <v>616</v>
       </c>
       <c r="D155" s="18">
-        <v>600.00000000000011</v>
+        <v>600</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>371</v>
@@ -5974,7 +5979,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -5997,7 +6002,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -6020,7 +6025,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -6043,7 +6048,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -6054,7 +6059,7 @@
         <v>620</v>
       </c>
       <c r="D159" s="18">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E159" s="5" t="s">
         <v>374</v>
@@ -6066,7 +6071,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="9">
         <v>159</v>
       </c>
@@ -6076,8 +6081,8 @@
       <c r="C160" s="9" t="s">
         <v>621</v>
       </c>
-      <c r="D160" s="20">
-        <v>600.00000000000011</v>
+      <c r="D160" s="19">
+        <v>600</v>
       </c>
       <c r="E160" s="12" t="s">
         <v>375</v>
@@ -6089,7 +6094,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -6112,7 +6117,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -6135,7 +6140,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -6158,7 +6163,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -6169,7 +6174,7 @@
         <v>625</v>
       </c>
       <c r="D164" s="18">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>379</v>
@@ -6181,7 +6186,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -6204,7 +6209,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -6215,7 +6220,7 @@
         <v>627</v>
       </c>
       <c r="D166" s="18">
-        <v>300.00000000000006</v>
+        <v>300</v>
       </c>
       <c r="E166" s="5" t="s">
         <v>381</v>
@@ -6227,7 +6232,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -6250,7 +6255,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>167</v>
       </c>
@@ -6273,7 +6278,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -6284,7 +6289,7 @@
         <v>630</v>
       </c>
       <c r="D169" s="18">
-        <v>300.00000000000006</v>
+        <v>300</v>
       </c>
       <c r="E169" s="5" t="s">
         <v>384</v>
@@ -6296,7 +6301,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="9">
         <v>169</v>
       </c>
@@ -6306,7 +6311,7 @@
       <c r="C170" s="9" t="s">
         <v>631</v>
       </c>
-      <c r="D170" s="20">
+      <c r="D170" s="19">
         <v>400</v>
       </c>
       <c r="E170" s="12" t="s">
@@ -6319,7 +6324,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -6342,7 +6347,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -6365,7 +6370,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -6388,7 +6393,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>173</v>
       </c>
@@ -6411,7 +6416,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -6434,7 +6439,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -6445,7 +6450,7 @@
         <v>638</v>
       </c>
       <c r="D176" s="18">
-        <v>2500.0000000000005</v>
+        <v>2500</v>
       </c>
       <c r="E176" s="5" t="s">
         <v>391</v>
@@ -6457,7 +6462,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -6480,7 +6485,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>177</v>
       </c>
@@ -6491,7 +6496,7 @@
         <v>461</v>
       </c>
       <c r="D178" s="18">
-        <v>300.00000000000006</v>
+        <v>300</v>
       </c>
       <c r="E178" s="5" t="s">
         <v>393</v>
@@ -6503,7 +6508,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="13">
         <v>178</v>
       </c>
@@ -6526,7 +6531,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>179</v>
       </c>
@@ -6536,7 +6541,7 @@
       <c r="C180" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="D180" s="21">
+      <c r="D180" s="20">
         <v>500</v>
       </c>
       <c r="E180" s="1" t="s">
@@ -6549,7 +6554,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>180</v>
       </c>
@@ -6572,7 +6577,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>181</v>
       </c>
@@ -6595,7 +6600,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>182</v>
       </c>
@@ -6618,7 +6623,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>183</v>
       </c>
@@ -6641,7 +6646,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>184</v>
       </c>
@@ -6664,7 +6669,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>185</v>
       </c>
@@ -6674,7 +6679,7 @@
       <c r="C186" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="D186" s="22">
+      <c r="D186" s="21">
         <v>1215</v>
       </c>
       <c r="E186" s="1" t="s">
@@ -6687,7 +6692,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>186</v>
       </c>
@@ -6697,7 +6702,7 @@
       <c r="C187" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="D187" s="22">
+      <c r="D187" s="21">
         <v>1440</v>
       </c>
       <c r="E187" s="1" t="s">
@@ -6710,7 +6715,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>187</v>
       </c>
@@ -6720,7 +6725,7 @@
       <c r="C188" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="D188" s="22">
+      <c r="D188" s="21">
         <v>1395.0000000000002</v>
       </c>
       <c r="E188" s="1" t="s">
@@ -6733,7 +6738,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>188</v>
       </c>
@@ -6743,7 +6748,7 @@
       <c r="C189" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="D189" s="22">
+      <c r="D189" s="21">
         <v>810.00000000000011</v>
       </c>
       <c r="E189" s="1" t="s">
@@ -6756,7 +6761,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>189</v>
       </c>
@@ -6766,7 +6771,7 @@
       <c r="C190" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="D190" s="22">
+      <c r="D190" s="21">
         <v>1575.0000000000002</v>
       </c>
       <c r="E190" s="1" t="s">
@@ -6779,7 +6784,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>190</v>
       </c>
@@ -6789,7 +6794,7 @@
       <c r="C191" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="D191" s="22">
+      <c r="D191" s="21">
         <v>1170</v>
       </c>
       <c r="E191" s="1" t="s">
@@ -6802,7 +6807,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>191</v>
       </c>
@@ -6812,7 +6817,7 @@
       <c r="C192" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="D192" s="22">
+      <c r="D192" s="21">
         <v>810.00000000000011</v>
       </c>
       <c r="E192" s="1" t="s">
@@ -6825,14 +6830,17 @@
         <v>180</v>
       </c>
     </row>
-    <row r="193" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
+        <v>192</v>
+      </c>
       <c r="B193" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="D193" s="22">
+      <c r="D193" s="21">
         <v>855</v>
       </c>
       <c r="E193" s="1" t="s">
@@ -6845,14 +6853,17 @@
         <v>180</v>
       </c>
     </row>
-    <row r="194" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
+        <v>193</v>
+      </c>
       <c r="B194" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="D194" s="22">
+      <c r="D194" s="21">
         <v>1260</v>
       </c>
       <c r="E194" s="1" t="s">
@@ -6865,14 +6876,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="195" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
+        <v>194</v>
+      </c>
       <c r="B195" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="D195" s="22">
+      <c r="D195" s="21">
         <v>1330.0000000000002</v>
       </c>
       <c r="E195" s="1" t="s">
@@ -6885,14 +6899,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="196" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
+        <v>195</v>
+      </c>
       <c r="B196" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="D196" s="22">
+      <c r="D196" s="21">
         <v>665.00000000000011</v>
       </c>
       <c r="E196" s="1" t="s">
@@ -6905,14 +6922,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="197" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
+        <v>196</v>
+      </c>
       <c r="B197" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="D197" s="22">
+      <c r="D197" s="21">
         <v>1085</v>
       </c>
       <c r="E197" s="1" t="s">
@@ -6925,14 +6945,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="198" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
+        <v>197</v>
+      </c>
       <c r="B198" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="D198" s="22">
+      <c r="D198" s="21">
         <v>875.00000000000011</v>
       </c>
       <c r="E198" s="1" t="s">
@@ -6945,14 +6968,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="199" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
+        <v>198</v>
+      </c>
       <c r="B199" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="D199" s="22">
+      <c r="D199" s="21">
         <v>1645</v>
       </c>
       <c r="E199" s="1" t="s">
@@ -6965,14 +6991,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="200" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
+        <v>199</v>
+      </c>
       <c r="B200" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="D200" s="22">
+      <c r="D200" s="21">
         <v>980.00000000000011</v>
       </c>
       <c r="E200" s="1" t="s">
@@ -6985,14 +7014,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="201" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
+        <v>200</v>
+      </c>
       <c r="B201" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="D201" s="22">
+      <c r="D201" s="21">
         <v>1015.0000000000001</v>
       </c>
       <c r="E201" s="1" t="s">
@@ -7005,14 +7037,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="202" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
+        <v>201</v>
+      </c>
       <c r="B202" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="D202" s="22">
+      <c r="D202" s="21">
         <v>595</v>
       </c>
       <c r="E202" s="1" t="s">
@@ -7025,14 +7060,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="203" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
+        <v>202</v>
+      </c>
       <c r="B203" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="D203" s="22">
+      <c r="D203" s="21">
         <v>910.00000000000011</v>
       </c>
       <c r="E203" s="1" t="s">
@@ -7045,14 +7083,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="204" spans="2:7" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" s="13" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
+        <v>203</v>
+      </c>
       <c r="B204" s="14" t="s">
         <v>438</v>
       </c>
       <c r="C204" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="D204" s="23">
+      <c r="D204" s="22">
         <v>595</v>
       </c>
       <c r="E204" s="1" t="s">
@@ -7065,14 +7106,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="205" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
+        <v>204</v>
+      </c>
       <c r="B205" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="D205" s="22">
+      <c r="D205" s="21">
         <v>768</v>
       </c>
       <c r="E205" s="1" t="s">
@@ -7085,14 +7129,17 @@
         <v>184</v>
       </c>
     </row>
-    <row r="206" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="3">
+        <v>205</v>
+      </c>
       <c r="B206" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="D206" s="22">
+      <c r="D206" s="21">
         <v>1120.0000000000002</v>
       </c>
       <c r="E206" s="1" t="s">
@@ -7105,14 +7152,17 @@
         <v>184</v>
       </c>
     </row>
-    <row r="207" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
+        <v>206</v>
+      </c>
       <c r="B207" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="D207" s="22">
+      <c r="D207" s="21">
         <v>1856</v>
       </c>
       <c r="E207" s="1" t="s">
@@ -7125,14 +7175,17 @@
         <v>184</v>
       </c>
     </row>
-    <row r="208" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="3">
+        <v>207</v>
+      </c>
       <c r="B208" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="D208" s="22">
+      <c r="D208" s="21">
         <v>864.00000000000011</v>
       </c>
       <c r="E208" s="1" t="s">
@@ -7145,14 +7198,17 @@
         <v>184</v>
       </c>
     </row>
-    <row r="209" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="3">
+        <v>208</v>
+      </c>
       <c r="B209" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="D209" s="22">
+      <c r="D209" s="21">
         <v>1280</v>
       </c>
       <c r="E209" s="1" t="s">
@@ -7165,14 +7221,17 @@
         <v>184</v>
       </c>
     </row>
-    <row r="210" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="3">
+        <v>209</v>
+      </c>
       <c r="B210" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="D210" s="22">
+      <c r="D210" s="21">
         <v>896.00000000000011</v>
       </c>
       <c r="E210" s="1" t="s">
@@ -7185,14 +7244,17 @@
         <v>184</v>
       </c>
     </row>
-    <row r="211" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="3">
+        <v>210</v>
+      </c>
       <c r="B211" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="D211" s="22">
+      <c r="D211" s="21">
         <v>2112</v>
       </c>
       <c r="E211" s="1" t="s">
@@ -7205,14 +7267,17 @@
         <v>184</v>
       </c>
     </row>
-    <row r="212" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="3">
+        <v>211</v>
+      </c>
       <c r="B212" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="D212" s="22">
+      <c r="D212" s="21">
         <v>1888.0000000000002</v>
       </c>
       <c r="E212" s="1" t="s">
@@ -7225,14 +7290,17 @@
         <v>184</v>
       </c>
     </row>
-    <row r="213" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
+        <v>212</v>
+      </c>
       <c r="B213" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="D213" s="22">
+      <c r="D213" s="21">
         <v>800</v>
       </c>
       <c r="E213" s="1" t="s">
@@ -7245,14 +7313,17 @@
         <v>184</v>
       </c>
     </row>
-    <row r="214" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="3">
+        <v>213</v>
+      </c>
       <c r="B214" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="D214" s="22">
+      <c r="D214" s="21">
         <v>1088</v>
       </c>
       <c r="E214" s="1" t="s">
@@ -7265,14 +7336,17 @@
         <v>184</v>
       </c>
     </row>
-    <row r="215" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="3">
+        <v>214</v>
+      </c>
       <c r="B215" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="D215" s="22">
+      <c r="D215" s="21">
         <v>800</v>
       </c>
       <c r="E215" s="1" t="s">
@@ -7285,14 +7359,17 @@
         <v>184</v>
       </c>
     </row>
-    <row r="216" spans="2:7" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" s="13" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="3">
+        <v>215</v>
+      </c>
       <c r="B216" s="14" t="s">
         <v>438</v>
       </c>
       <c r="C216" s="13" t="s">
         <v>643</v>
       </c>
-      <c r="D216" s="23">
+      <c r="D216" s="22">
         <v>800</v>
       </c>
       <c r="E216" s="1" t="s">
@@ -7305,15 +7382,18 @@
         <v>184</v>
       </c>
     </row>
-    <row r="217" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="3">
+        <v>216</v>
+      </c>
       <c r="B217" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="D217" s="22">
-        <v>950.00000000000011</v>
+      <c r="D217" s="21">
+        <v>950</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>478</v>
@@ -7325,14 +7405,17 @@
         <v>183</v>
       </c>
     </row>
-    <row r="218" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="3">
+        <v>217</v>
+      </c>
       <c r="B218" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="D218" s="22">
+      <c r="D218" s="21">
         <v>576</v>
       </c>
       <c r="E218" s="1" t="s">
@@ -7345,14 +7428,17 @@
         <v>183</v>
       </c>
     </row>
-    <row r="219" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="3">
+        <v>218</v>
+      </c>
       <c r="B219" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="D219" s="22">
+      <c r="D219" s="21">
         <v>925.00000000000011</v>
       </c>
       <c r="E219" s="1" t="s">
@@ -7365,14 +7451,17 @@
         <v>183</v>
       </c>
     </row>
-    <row r="220" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="3">
+        <v>219</v>
+      </c>
       <c r="B220" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="D220" s="22">
+      <c r="D220" s="21">
         <v>725</v>
       </c>
       <c r="E220" s="1" t="s">
@@ -7385,14 +7474,17 @@
         <v>183</v>
       </c>
     </row>
-    <row r="221" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="3">
+        <v>220</v>
+      </c>
       <c r="B221" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="D221" s="22">
+      <c r="D221" s="21">
         <v>750</v>
       </c>
       <c r="E221" s="1" t="s">
@@ -7405,14 +7497,17 @@
         <v>183</v>
       </c>
     </row>
-    <row r="222" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="3">
+        <v>221</v>
+      </c>
       <c r="B222" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="D222" s="22">
+      <c r="D222" s="21">
         <v>1100</v>
       </c>
       <c r="E222" s="1" t="s">
@@ -7425,14 +7520,17 @@
         <v>183</v>
       </c>
     </row>
-    <row r="223" spans="2:7" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" s="13" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="3">
+        <v>222</v>
+      </c>
       <c r="B223" s="14" t="s">
         <v>438</v>
       </c>
       <c r="C223" s="13" t="s">
         <v>644</v>
       </c>
-      <c r="D223" s="23">
+      <c r="D223" s="22">
         <v>1225</v>
       </c>
       <c r="E223" s="1" t="s">
@@ -7445,11 +7543,14 @@
         <v>183</v>
       </c>
     </row>
-    <row r="224" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="3">
+        <v>223</v>
+      </c>
       <c r="B224" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="D224" s="22">
+      <c r="D224" s="21">
         <v>495.00000000000006</v>
       </c>
       <c r="E224" s="1" t="s">
@@ -7462,12 +7563,15 @@
         <v>180</v>
       </c>
     </row>
-    <row r="225" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="3">
+        <v>224</v>
+      </c>
       <c r="B225" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="D225" s="22">
-        <v>950.00000000000011</v>
+      <c r="D225" s="21">
+        <v>950</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>477</v>
@@ -7479,14 +7583,17 @@
         <v>180</v>
       </c>
     </row>
-    <row r="226" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="3">
+        <v>225</v>
+      </c>
       <c r="B226" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="D226" s="22">
+      <c r="D226" s="21">
         <v>2345</v>
       </c>
       <c r="E226" s="1" t="s">
@@ -7499,14 +7606,17 @@
         <v>182</v>
       </c>
     </row>
-    <row r="227" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
+        <v>226</v>
+      </c>
       <c r="B227" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="D227" s="22">
+      <c r="D227" s="21">
         <v>2380</v>
       </c>
       <c r="E227" s="1" t="s">
@@ -7519,14 +7629,17 @@
         <v>182</v>
       </c>
     </row>
-    <row r="228" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="3">
+        <v>227</v>
+      </c>
       <c r="B228" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="D228" s="22">
+      <c r="D228" s="21">
         <v>3570.0000000000005</v>
       </c>
       <c r="E228" s="1" t="s">
@@ -7539,14 +7652,17 @@
         <v>182</v>
       </c>
     </row>
-    <row r="229" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="3">
+        <v>228</v>
+      </c>
       <c r="B229" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="D229" s="22">
+      <c r="D229" s="21">
         <v>1645</v>
       </c>
       <c r="E229" s="1" t="s">
@@ -7559,14 +7675,17 @@
         <v>182</v>
       </c>
     </row>
-    <row r="230" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="3">
+        <v>229</v>
+      </c>
       <c r="B230" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="D230" s="22">
+      <c r="D230" s="21">
         <v>1610</v>
       </c>
       <c r="E230" s="1" t="s">
@@ -7579,14 +7698,17 @@
         <v>182</v>
       </c>
     </row>
-    <row r="231" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="3">
+        <v>230</v>
+      </c>
       <c r="B231" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="D231" s="22">
+      <c r="D231" s="21">
         <v>1120.0000000000002</v>
       </c>
       <c r="E231" s="1" t="s">
@@ -7599,14 +7721,17 @@
         <v>182</v>
       </c>
     </row>
-    <row r="232" spans="2:7" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" s="13" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="3">
+        <v>231</v>
+      </c>
       <c r="B232" s="14" t="s">
         <v>438</v>
       </c>
       <c r="C232" s="13" t="s">
         <v>465</v>
       </c>
-      <c r="D232" s="23">
+      <c r="D232" s="22">
         <v>945</v>
       </c>
       <c r="E232" s="1" t="s">
@@ -7619,14 +7744,17 @@
         <v>182</v>
       </c>
     </row>
-    <row r="233" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="3">
+        <v>232</v>
+      </c>
       <c r="B233" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="D233" s="22">
+      <c r="D233" s="21">
         <v>1990.0000000000002</v>
       </c>
       <c r="E233" s="1" t="s">
@@ -7639,14 +7767,17 @@
         <v>184</v>
       </c>
     </row>
-    <row r="234" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="3">
+        <v>233</v>
+      </c>
       <c r="B234" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="D234" s="22">
+      <c r="D234" s="21">
         <v>770.00000000000011</v>
       </c>
       <c r="E234" s="1" t="s">
@@ -7659,14 +7790,17 @@
         <v>185</v>
       </c>
     </row>
-    <row r="235" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="3">
+        <v>234</v>
+      </c>
       <c r="B235" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="D235" s="22">
+      <c r="D235" s="21">
         <v>1190</v>
       </c>
       <c r="E235" s="1" t="s">
@@ -7679,14 +7813,17 @@
         <v>185</v>
       </c>
     </row>
-    <row r="236" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="3">
+        <v>235</v>
+      </c>
       <c r="B236" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="D236" s="22">
+      <c r="D236" s="21">
         <v>940.00000000000011</v>
       </c>
       <c r="E236" s="1" t="s">
@@ -7699,14 +7836,17 @@
         <v>185</v>
       </c>
     </row>
-    <row r="237" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="3">
+        <v>236</v>
+      </c>
       <c r="B237" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="D237" s="22">
+      <c r="D237" s="21">
         <v>1040</v>
       </c>
       <c r="E237" s="1" t="s">
@@ -7719,14 +7859,17 @@
         <v>185</v>
       </c>
     </row>
-    <row r="238" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="3">
+        <v>237</v>
+      </c>
       <c r="B238" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="D238" s="22">
+      <c r="D238" s="21">
         <v>880</v>
       </c>
       <c r="E238" s="1" t="s">
@@ -7739,14 +7882,17 @@
         <v>185</v>
       </c>
     </row>
-    <row r="239" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="3">
+        <v>238</v>
+      </c>
       <c r="B239" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="D239" s="22">
+      <c r="D239" s="21">
         <v>540</v>
       </c>
       <c r="E239" s="1" t="s">
@@ -7759,14 +7905,17 @@
         <v>185</v>
       </c>
     </row>
-    <row r="240" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="3">
+        <v>239</v>
+      </c>
       <c r="B240" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="D240" s="22">
+      <c r="D240" s="21">
         <v>800</v>
       </c>
       <c r="E240" s="1" t="s">
@@ -7779,14 +7928,17 @@
         <v>185</v>
       </c>
     </row>
-    <row r="241" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="3">
+        <v>240</v>
+      </c>
       <c r="B241" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="D241" s="22">
+      <c r="D241" s="21">
         <v>1670.0000000000002</v>
       </c>
       <c r="E241" s="1" t="s">
@@ -7799,14 +7951,17 @@
         <v>185</v>
       </c>
     </row>
-    <row r="242" spans="2:7" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" s="13" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="3">
+        <v>241</v>
+      </c>
       <c r="B242" s="14" t="s">
         <v>438</v>
       </c>
       <c r="C242" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="D242" s="23">
+      <c r="D242" s="22">
         <v>2550</v>
       </c>
       <c r="E242" s="1" t="s">
@@ -7819,14 +7974,17 @@
         <v>185</v>
       </c>
     </row>
-    <row r="243" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="3">
+        <v>242</v>
+      </c>
       <c r="B243" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C243" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="D243" s="22">
+      <c r="D243" s="21">
         <v>2400.0000000000005</v>
       </c>
       <c r="E243" s="1" t="s">
@@ -7839,14 +7997,17 @@
         <v>185</v>
       </c>
     </row>
-    <row r="244" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="3">
+        <v>243</v>
+      </c>
       <c r="B244" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="D244" s="22">
+      <c r="D244" s="21">
         <v>1410.0000000000002</v>
       </c>
       <c r="E244" s="1" t="s">
@@ -7859,14 +8020,17 @@
         <v>186</v>
       </c>
     </row>
-    <row r="245" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="3">
+        <v>244</v>
+      </c>
       <c r="B245" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="D245" s="22">
+      <c r="D245" s="21">
         <v>480</v>
       </c>
       <c r="E245" s="1" t="s">
@@ -7879,14 +8043,17 @@
         <v>186</v>
       </c>
     </row>
-    <row r="246" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="3">
+        <v>245</v>
+      </c>
       <c r="B246" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="D246" s="22">
+      <c r="D246" s="21">
         <v>5625</v>
       </c>
       <c r="E246" s="1" t="s">
@@ -7899,14 +8066,17 @@
         <v>187</v>
       </c>
     </row>
-    <row r="247" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="3">
+        <v>246</v>
+      </c>
       <c r="B247" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="D247" s="22">
+      <c r="D247" s="21">
         <v>540</v>
       </c>
       <c r="E247" s="1" t="s">
@@ -7919,14 +8089,17 @@
         <v>187</v>
       </c>
     </row>
-    <row r="248" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="3">
+        <v>247</v>
+      </c>
       <c r="B248" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="D248" s="22">
+      <c r="D248" s="21">
         <v>750</v>
       </c>
       <c r="E248" s="1" t="s">
@@ -7939,15 +8112,18 @@
         <v>187</v>
       </c>
     </row>
-    <row r="249" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="3">
+        <v>248</v>
+      </c>
       <c r="B249" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="D249" s="22">
-        <v>1200.0000000000002</v>
+      <c r="D249" s="21">
+        <v>1200</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>474</v>
@@ -7959,14 +8135,17 @@
         <v>188</v>
       </c>
     </row>
-    <row r="250" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="3">
+        <v>249</v>
+      </c>
       <c r="B250" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="D250" s="22">
+      <c r="D250" s="21">
         <v>1000</v>
       </c>
       <c r="E250" s="1" t="s">
@@ -7979,15 +8158,18 @@
         <v>188</v>
       </c>
     </row>
-    <row r="251" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="3">
+        <v>250</v>
+      </c>
       <c r="B251" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="D251" s="22">
-        <v>1800.0000000000002</v>
+      <c r="D251" s="21">
+        <v>1800</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>476</v>
@@ -7999,14 +8181,17 @@
         <v>188</v>
       </c>
     </row>
-    <row r="252" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="3">
+        <v>251</v>
+      </c>
       <c r="B252" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="D252" s="22">
+      <c r="D252" s="21">
         <v>1500</v>
       </c>
       <c r="E252" s="1" t="s">
@@ -8019,14 +8204,17 @@
         <v>188</v>
       </c>
     </row>
-    <row r="253" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="3">
+        <v>252</v>
+      </c>
       <c r="B253" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="D253" s="22">
+      <c r="D253" s="21">
         <v>700</v>
       </c>
       <c r="E253" s="1" t="s">
@@ -8039,14 +8227,17 @@
         <v>188</v>
       </c>
     </row>
-    <row r="254" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="3">
+        <v>253</v>
+      </c>
       <c r="B254" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="D254" s="22">
+      <c r="D254" s="21">
         <v>940</v>
       </c>
       <c r="E254" s="1" t="s">
@@ -8059,14 +8250,17 @@
         <v>188</v>
       </c>
     </row>
-    <row r="255" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="3">
+        <v>254</v>
+      </c>
       <c r="B255" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="D255" s="22">
+      <c r="D255" s="21">
         <v>1300</v>
       </c>
       <c r="E255" s="1" t="s">
@@ -8079,14 +8273,17 @@
         <v>188</v>
       </c>
     </row>
-    <row r="256" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="3">
+        <v>255</v>
+      </c>
       <c r="B256" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="D256" s="22">
+      <c r="D256" s="21">
         <v>2000</v>
       </c>
       <c r="E256" s="1" t="s">
@@ -8099,14 +8296,17 @@
         <v>189</v>
       </c>
     </row>
-    <row r="257" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="3">
+        <v>256</v>
+      </c>
       <c r="B257" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="D257" s="22">
+      <c r="D257" s="21">
         <v>1400</v>
       </c>
       <c r="E257" s="1" t="s">
@@ -8119,14 +8319,17 @@
         <v>189</v>
       </c>
     </row>
-    <row r="258" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="3">
+        <v>257</v>
+      </c>
       <c r="B258" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="D258" s="22">
+      <c r="D258" s="21">
         <v>2560</v>
       </c>
       <c r="E258" s="1" t="s">
@@ -8139,14 +8342,17 @@
         <v>189</v>
       </c>
     </row>
-    <row r="259" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="3">
+        <v>258</v>
+      </c>
       <c r="B259" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="D259" s="22">
+      <c r="D259" s="21">
         <v>116</v>
       </c>
       <c r="E259" s="1" t="s">
@@ -8159,23 +8365,29 @@
         <v>189</v>
       </c>
     </row>
-    <row r="260" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E260" s="1"/>
     </row>
-    <row r="261" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E261" s="1"/>
     </row>
-    <row r="262" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E262" s="1"/>
     </row>
-    <row r="263" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E263" s="1"/>
     </row>
-    <row r="264" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E264" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G258" xr:uid="{98041684-60AD-4B6B-B652-1A806A9CDDBF}"/>
+  <autoFilter ref="A1:G259" xr:uid="{98041684-60AD-4B6B-B652-1A806A9CDDBF}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="850"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E115" r:id="rId1" display="https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/115.jpeg" xr:uid="{9549F0E1-BCB2-4457-9DDF-9A7137E9809C}"/>

--- a/Gallery.xlsx
+++ b/Gallery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelaziz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB44609F-E4F2-4DC6-AC01-F6C9C689E4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49CC0EC-B960-461A-B3D7-EA8496ADF793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2399,7 +2399,7 @@
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+      <selection pane="bottomLeft" activeCell="E273" sqref="E273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3909,7 +3909,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>570</v>
       </c>
       <c r="D94" s="18">
-        <v>20000.000000000004</v>
+        <v>20000</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>310</v>
@@ -4829,7 +4829,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>597</v>
       </c>
       <c r="D127" s="18">
-        <v>5000.0000000000009</v>
+        <v>5000</v>
       </c>
       <c r="E127" t="s">
         <v>343</v>
@@ -6335,7 +6335,7 @@
         <v>633</v>
       </c>
       <c r="D171" s="18">
-        <v>150.00000000000003</v>
+        <v>150</v>
       </c>
       <c r="E171" s="5" t="s">
         <v>386</v>
@@ -6358,7 +6358,7 @@
         <v>634</v>
       </c>
       <c r="D172" s="18">
-        <v>150.00000000000003</v>
+        <v>150</v>
       </c>
       <c r="E172" s="5" t="s">
         <v>387</v>
@@ -6611,7 +6611,7 @@
         <v>642</v>
       </c>
       <c r="D183" s="18">
-        <v>1575.0000000000002</v>
+        <v>1575</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>471</v>
@@ -6726,7 +6726,7 @@
         <v>642</v>
       </c>
       <c r="D188" s="21">
-        <v>1395.0000000000002</v>
+        <v>1395</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>476</v>
@@ -6749,7 +6749,7 @@
         <v>642</v>
       </c>
       <c r="D189" s="21">
-        <v>810.00000000000011</v>
+        <v>810</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>477</v>
@@ -6772,7 +6772,7 @@
         <v>642</v>
       </c>
       <c r="D190" s="21">
-        <v>1575.0000000000002</v>
+        <v>1575</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>478</v>
@@ -6818,7 +6818,7 @@
         <v>642</v>
       </c>
       <c r="D192" s="21">
-        <v>810.00000000000011</v>
+        <v>810</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>471</v>
@@ -6887,7 +6887,7 @@
         <v>464</v>
       </c>
       <c r="D195" s="21">
-        <v>1330.0000000000002</v>
+        <v>1330</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>474</v>
@@ -6910,7 +6910,7 @@
         <v>464</v>
       </c>
       <c r="D196" s="21">
-        <v>665.00000000000011</v>
+        <v>665</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>475</v>
@@ -6956,7 +6956,7 @@
         <v>464</v>
       </c>
       <c r="D198" s="21">
-        <v>875.00000000000011</v>
+        <v>875</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>477</v>
@@ -7002,7 +7002,7 @@
         <v>464</v>
       </c>
       <c r="D200" s="21">
-        <v>980.00000000000011</v>
+        <v>980</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>479</v>
@@ -7025,7 +7025,7 @@
         <v>464</v>
       </c>
       <c r="D201" s="21">
-        <v>1015.0000000000001</v>
+        <v>1015</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>471</v>
@@ -7071,7 +7071,7 @@
         <v>464</v>
       </c>
       <c r="D203" s="21">
-        <v>910.00000000000011</v>
+        <v>910</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>473</v>
@@ -7140,7 +7140,7 @@
         <v>643</v>
       </c>
       <c r="D206" s="21">
-        <v>1120.0000000000002</v>
+        <v>1120</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>476</v>
@@ -7186,7 +7186,7 @@
         <v>643</v>
       </c>
       <c r="D208" s="21">
-        <v>864.00000000000011</v>
+        <v>864</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>478</v>
@@ -7232,7 +7232,7 @@
         <v>643</v>
       </c>
       <c r="D210" s="21">
-        <v>896.00000000000011</v>
+        <v>896</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>471</v>
@@ -7278,7 +7278,7 @@
         <v>643</v>
       </c>
       <c r="D212" s="21">
-        <v>1888.0000000000002</v>
+        <v>1888</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>473</v>
@@ -7439,7 +7439,7 @@
         <v>644</v>
       </c>
       <c r="D219" s="21">
-        <v>925.00000000000011</v>
+        <v>925</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>471</v>
@@ -7551,7 +7551,7 @@
         <v>438</v>
       </c>
       <c r="D224" s="21">
-        <v>495.00000000000006</v>
+        <v>495</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>476</v>
@@ -7640,7 +7640,7 @@
         <v>465</v>
       </c>
       <c r="D228" s="21">
-        <v>3570.0000000000005</v>
+        <v>3570</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>471</v>
@@ -7709,7 +7709,7 @@
         <v>465</v>
       </c>
       <c r="D231" s="21">
-        <v>1120.0000000000002</v>
+        <v>1120</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>474</v>
@@ -7755,7 +7755,7 @@
         <v>645</v>
       </c>
       <c r="D233" s="21">
-        <v>1990.0000000000002</v>
+        <v>1990</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>476</v>
@@ -7778,7 +7778,7 @@
         <v>646</v>
       </c>
       <c r="D234" s="21">
-        <v>770.00000000000011</v>
+        <v>770</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>477</v>
@@ -7824,7 +7824,7 @@
         <v>646</v>
       </c>
       <c r="D236" s="21">
-        <v>940.00000000000011</v>
+        <v>940</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>479</v>
@@ -7939,7 +7939,7 @@
         <v>646</v>
       </c>
       <c r="D241" s="21">
-        <v>1670.0000000000002</v>
+        <v>1670</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>475</v>
@@ -7985,7 +7985,7 @@
         <v>646</v>
       </c>
       <c r="D243" s="21">
-        <v>2400.0000000000005</v>
+        <v>2400</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>477</v>
@@ -7997,7 +7997,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>243</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>466</v>
       </c>
       <c r="D244" s="21">
-        <v>1410.0000000000002</v>
+        <v>1410</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>478</v>
@@ -8384,7 +8384,7 @@
   <autoFilter ref="A1:G259" xr:uid="{98041684-60AD-4B6B-B652-1A806A9CDDBF}">
     <filterColumn colId="3">
       <filters>
-        <filter val="850"/>
+        <filter val="1410"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Gallery.xlsx
+++ b/Gallery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelaziz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49CC0EC-B960-461A-B3D7-EA8496ADF793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2C3780-4341-4951-82C4-394E54805C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="651">
   <si>
     <t>Number</t>
   </si>
@@ -1978,6 +1978,9 @@
   </si>
   <si>
     <t>Raw Amber Contracts</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/39.jpeg</t>
   </si>
 </sst>
 </file>
@@ -2393,23 +2396,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98041684-60AD-4B6B-B652-1A806A9CDDBF}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:G264"/>
+  <dimension ref="A1:G265"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E273" sqref="E273"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.09765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="84" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.3984375" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.09765625" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="84" style="3" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="7.3984375" style="25" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="68.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.69921875" style="3" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="51.69921875" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.796875" style="3"/>
   </cols>
@@ -2437,7 +2439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2460,7 +2462,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2483,7 +2485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2506,7 +2508,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2529,7 +2531,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2552,7 +2554,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2575,7 +2577,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2598,7 +2600,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2621,7 +2623,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2644,7 +2646,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2667,7 +2669,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2690,7 +2692,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2713,7 +2715,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2736,7 +2738,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2759,7 +2761,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2782,7 +2784,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2805,7 +2807,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2828,7 +2830,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2851,7 +2853,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2874,7 +2876,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2897,7 +2899,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2920,7 +2922,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2943,7 +2945,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2966,7 +2968,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2989,7 +2991,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -3012,7 +3014,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -3035,7 +3037,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -3058,7 +3060,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -3081,7 +3083,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -3104,7 +3106,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -3127,7 +3129,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -3150,7 +3152,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -3173,7 +3175,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -3196,7 +3198,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3219,7 +3221,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -3242,7 +3244,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -3265,7 +3267,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -3288,7 +3290,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -3311,7 +3313,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -3325,7 +3327,7 @@
         <v>500</v>
       </c>
       <c r="E40" t="s">
-        <v>257</v>
+        <v>650</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>192</v>
@@ -3334,7 +3336,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -3348,7 +3350,7 @@
         <v>1200</v>
       </c>
       <c r="E41" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F41" t="s">
         <v>201</v>
@@ -3357,7 +3359,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3371,7 +3373,7 @@
         <v>2500</v>
       </c>
       <c r="E42" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F42" t="s">
         <v>193</v>
@@ -3380,7 +3382,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3394,7 +3396,7 @@
         <v>2200</v>
       </c>
       <c r="E43" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F43" t="s">
         <v>431</v>
@@ -3403,7 +3405,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3417,7 +3419,7 @@
         <v>1200</v>
       </c>
       <c r="E44" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F44" t="s">
         <v>205</v>
@@ -3426,7 +3428,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3440,7 +3442,7 @@
         <v>2000</v>
       </c>
       <c r="E45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F45" t="s">
         <v>195</v>
@@ -3449,7 +3451,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -3463,7 +3465,7 @@
         <v>1000</v>
       </c>
       <c r="E46" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F46" t="s">
         <v>190</v>
@@ -3472,7 +3474,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3486,7 +3488,7 @@
         <v>1100</v>
       </c>
       <c r="E47" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F47" t="s">
         <v>190</v>
@@ -3495,7 +3497,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3509,7 +3511,7 @@
         <v>1200</v>
       </c>
       <c r="E48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F48" t="s">
         <v>193</v>
@@ -3518,7 +3520,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3532,7 +3534,7 @@
         <v>1200</v>
       </c>
       <c r="E49" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F49" t="s">
         <v>197</v>
@@ -3541,7 +3543,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3555,7 +3557,7 @@
         <v>2000</v>
       </c>
       <c r="E50" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F50" t="s">
         <v>200</v>
@@ -3564,7 +3566,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -3577,8 +3579,8 @@
       <c r="D51" s="18">
         <v>400</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>268</v>
+      <c r="E51" t="s">
+        <v>267</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>222</v>
@@ -3587,7 +3589,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -3600,8 +3602,8 @@
       <c r="D52" s="18">
         <v>800</v>
       </c>
-      <c r="E52" t="s">
-        <v>269</v>
+      <c r="E52" s="5" t="s">
+        <v>268</v>
       </c>
       <c r="F52" t="s">
         <v>206</v>
@@ -3610,7 +3612,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -3623,8 +3625,8 @@
       <c r="D53" s="18">
         <v>800</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>270</v>
+      <c r="E53" t="s">
+        <v>269</v>
       </c>
       <c r="F53" t="s">
         <v>206</v>
@@ -3633,7 +3635,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -3647,7 +3649,7 @@
         <v>3500</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F54" t="s">
         <v>192</v>
@@ -3656,7 +3658,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -3670,7 +3672,7 @@
         <v>600</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F55" t="s">
         <v>195</v>
@@ -3679,7 +3681,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -3693,7 +3695,7 @@
         <v>950</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F56" t="s">
         <v>195</v>
@@ -3702,7 +3704,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -3716,7 +3718,7 @@
         <v>4000</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F57" t="s">
         <v>207</v>
@@ -3725,7 +3727,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -3739,7 +3741,7 @@
         <v>4000</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F58" t="s">
         <v>197</v>
@@ -3748,7 +3750,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -3762,7 +3764,7 @@
         <v>2500</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F59" t="s">
         <v>200</v>
@@ -3771,7 +3773,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -3785,7 +3787,7 @@
         <v>4000</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F60" t="s">
         <v>208</v>
@@ -3794,7 +3796,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -3808,7 +3810,7 @@
         <v>900</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F61" t="s">
         <v>208</v>
@@ -3817,7 +3819,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -3830,8 +3832,8 @@
       <c r="D62" s="18">
         <v>1200</v>
       </c>
-      <c r="E62" t="s">
-        <v>279</v>
+      <c r="E62" s="5" t="s">
+        <v>278</v>
       </c>
       <c r="F62" t="s">
         <v>208</v>
@@ -3840,7 +3842,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -3853,8 +3855,8 @@
       <c r="D63" s="18">
         <v>1200</v>
       </c>
-      <c r="E63" s="5" t="s">
-        <v>280</v>
+      <c r="E63" t="s">
+        <v>279</v>
       </c>
       <c r="F63" t="s">
         <v>192</v>
@@ -3863,7 +3865,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -3877,7 +3879,7 @@
         <v>600</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F64" t="s">
         <v>209</v>
@@ -3886,7 +3888,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -3900,7 +3902,7 @@
         <v>4500</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F65" t="s">
         <v>207</v>
@@ -3909,7 +3911,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -3922,8 +3924,8 @@
       <c r="D66" s="24">
         <v>850</v>
       </c>
-      <c r="E66" t="s">
-        <v>283</v>
+      <c r="E66" s="5" t="s">
+        <v>282</v>
       </c>
       <c r="F66" t="s">
         <v>195</v>
@@ -3932,7 +3934,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -3945,8 +3947,8 @@
       <c r="D67" s="18">
         <v>1200</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>3</v>
+      <c r="E67" t="s">
+        <v>283</v>
       </c>
       <c r="F67" t="s">
         <v>195</v>
@@ -3955,7 +3957,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -3968,8 +3970,8 @@
       <c r="D68" s="18">
         <v>900</v>
       </c>
-      <c r="E68" s="5" t="s">
-        <v>284</v>
+      <c r="E68" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="F68" t="s">
         <v>195</v>
@@ -3978,7 +3980,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -3992,7 +3994,7 @@
         <v>300</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F69" t="s">
         <v>195</v>
@@ -4001,7 +4003,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -4015,7 +4017,7 @@
         <v>1800</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F70" t="s">
         <v>195</v>
@@ -4024,7 +4026,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -4038,7 +4040,7 @@
         <v>1200</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F71" t="s">
         <v>195</v>
@@ -4047,7 +4049,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -4061,7 +4063,7 @@
         <v>1600</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F72" t="s">
         <v>195</v>
@@ -4070,7 +4072,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -4084,7 +4086,7 @@
         <v>2000</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F73" t="s">
         <v>195</v>
@@ -4093,7 +4095,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -4107,7 +4109,7 @@
         <v>12500</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F74" t="s">
         <v>210</v>
@@ -4116,7 +4118,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -4130,7 +4132,7 @@
         <v>800</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F75" t="s">
         <v>206</v>
@@ -4139,7 +4141,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -4153,7 +4155,7 @@
         <v>600</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F76" t="s">
         <v>206</v>
@@ -4162,7 +4164,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -4175,8 +4177,8 @@
       <c r="D77" s="18">
         <v>750</v>
       </c>
-      <c r="E77" t="s">
-        <v>293</v>
+      <c r="E77" s="5" t="s">
+        <v>292</v>
       </c>
       <c r="F77" t="s">
         <v>211</v>
@@ -4185,7 +4187,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -4198,8 +4200,8 @@
       <c r="D78" s="18">
         <v>750</v>
       </c>
-      <c r="E78" s="5" t="s">
-        <v>294</v>
+      <c r="E78" t="s">
+        <v>293</v>
       </c>
       <c r="F78" t="s">
         <v>212</v>
@@ -4208,7 +4210,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -4222,7 +4224,7 @@
         <v>2500</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F79" t="s">
         <v>200</v>
@@ -4231,7 +4233,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -4245,7 +4247,7 @@
         <v>1500</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>195</v>
@@ -4254,7 +4256,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -4268,7 +4270,7 @@
         <v>1400</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F81" t="s">
         <v>213</v>
@@ -4277,7 +4279,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -4291,7 +4293,7 @@
         <v>350</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F82" t="s">
         <v>212</v>
@@ -4300,7 +4302,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -4314,7 +4316,7 @@
         <v>750</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F83" t="s">
         <v>195</v>
@@ -4323,7 +4325,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -4336,8 +4338,8 @@
       <c r="D84" s="18">
         <v>600</v>
       </c>
-      <c r="E84" t="s">
-        <v>300</v>
+      <c r="E84" s="5" t="s">
+        <v>299</v>
       </c>
       <c r="F84" t="s">
         <v>209</v>
@@ -4346,7 +4348,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -4360,7 +4362,7 @@
         <v>600</v>
       </c>
       <c r="E85" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F85" t="s">
         <v>212</v>
@@ -4369,7 +4371,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>86</v>
       </c>
@@ -4382,8 +4384,8 @@
       <c r="D86" s="18">
         <v>1200</v>
       </c>
-      <c r="E86" s="5" t="s">
-        <v>302</v>
+      <c r="E86" t="s">
+        <v>301</v>
       </c>
       <c r="F86" t="s">
         <v>214</v>
@@ -4392,7 +4394,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>85</v>
       </c>
@@ -4405,8 +4407,8 @@
       <c r="D87" s="18">
         <v>1700</v>
       </c>
-      <c r="E87" t="s">
-        <v>303</v>
+      <c r="E87" s="5" t="s">
+        <v>302</v>
       </c>
       <c r="F87" t="s">
         <v>195</v>
@@ -4415,7 +4417,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -4428,8 +4430,8 @@
       <c r="D88" s="18">
         <v>300</v>
       </c>
-      <c r="E88" s="5" t="s">
-        <v>304</v>
+      <c r="E88" t="s">
+        <v>303</v>
       </c>
       <c r="F88" t="s">
         <v>212</v>
@@ -4438,7 +4440,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -4452,7 +4454,7 @@
         <v>500</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F89" t="s">
         <v>215</v>
@@ -4461,7 +4463,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -4475,7 +4477,7 @@
         <v>400</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F90" t="s">
         <v>206</v>
@@ -4484,7 +4486,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -4498,7 +4500,7 @@
         <v>2750</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F91" t="s">
         <v>210</v>
@@ -4507,7 +4509,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -4521,7 +4523,7 @@
         <v>3750</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F92" t="s">
         <v>216</v>
@@ -4530,7 +4532,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -4544,7 +4546,7 @@
         <v>3500</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F93" t="s">
         <v>217</v>
@@ -4553,7 +4555,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -4567,7 +4569,7 @@
         <v>20000</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F94" t="s">
         <v>218</v>
@@ -4576,7 +4578,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -4590,7 +4592,7 @@
         <v>800</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F95" t="s">
         <v>198</v>
@@ -4599,7 +4601,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -4613,7 +4615,7 @@
         <v>2500</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F96" t="s">
         <v>198</v>
@@ -4622,7 +4624,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -4636,7 +4638,7 @@
         <v>3000</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F97" t="s">
         <v>198</v>
@@ -4645,7 +4647,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -4658,8 +4660,8 @@
       <c r="D98" s="18">
         <v>750</v>
       </c>
-      <c r="E98" t="s">
-        <v>314</v>
+      <c r="E98" s="5" t="s">
+        <v>313</v>
       </c>
       <c r="F98" t="s">
         <v>219</v>
@@ -4668,7 +4670,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -4682,7 +4684,7 @@
         <v>350</v>
       </c>
       <c r="E99" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F99" t="s">
         <v>198</v>
@@ -4691,7 +4693,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -4704,8 +4706,8 @@
       <c r="D100" s="18">
         <v>4000</v>
       </c>
-      <c r="E100" s="5" t="s">
-        <v>316</v>
+      <c r="E100" t="s">
+        <v>315</v>
       </c>
       <c r="F100" t="s">
         <v>220</v>
@@ -4714,7 +4716,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -4728,7 +4730,7 @@
         <v>3500</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F101" t="s">
         <v>221</v>
@@ -4737,7 +4739,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -4751,7 +4753,7 @@
         <v>2800</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F102" t="s">
         <v>199</v>
@@ -4760,7 +4762,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -4773,8 +4775,8 @@
       <c r="D103" s="18">
         <v>1200</v>
       </c>
-      <c r="E103" t="s">
-        <v>319</v>
+      <c r="E103" s="5" t="s">
+        <v>318</v>
       </c>
       <c r="F103" t="s">
         <v>195</v>
@@ -4783,7 +4785,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -4797,7 +4799,7 @@
         <v>300</v>
       </c>
       <c r="E104" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F104" t="s">
         <v>222</v>
@@ -4806,7 +4808,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -4819,8 +4821,8 @@
       <c r="D105" s="18">
         <v>1200</v>
       </c>
-      <c r="E105" s="5" t="s">
-        <v>321</v>
+      <c r="E105" t="s">
+        <v>320</v>
       </c>
       <c r="F105" t="s">
         <v>201</v>
@@ -4829,7 +4831,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -4843,7 +4845,7 @@
         <v>850</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F106" t="s">
         <v>208</v>
@@ -4852,7 +4854,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -4866,7 +4868,7 @@
         <v>400</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F107" t="s">
         <v>195</v>
@@ -4875,7 +4877,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -4888,8 +4890,8 @@
       <c r="D108" s="18">
         <v>2500</v>
       </c>
-      <c r="E108" t="s">
-        <v>324</v>
+      <c r="E108" s="5" t="s">
+        <v>323</v>
       </c>
       <c r="F108" t="s">
         <v>431</v>
@@ -4898,7 +4900,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -4912,7 +4914,7 @@
         <v>1000</v>
       </c>
       <c r="E109" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F109" t="s">
         <v>201</v>
@@ -4921,7 +4923,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -4935,7 +4937,7 @@
         <v>400</v>
       </c>
       <c r="E110" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F110" t="s">
         <v>201</v>
@@ -4944,7 +4946,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -4958,7 +4960,7 @@
         <v>1000</v>
       </c>
       <c r="E111" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F111" t="s">
         <v>201</v>
@@ -4967,7 +4969,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -4980,8 +4982,8 @@
       <c r="D112" s="18">
         <v>750</v>
       </c>
-      <c r="E112" s="5" t="s">
-        <v>328</v>
+      <c r="E112" t="s">
+        <v>327</v>
       </c>
       <c r="F112" t="s">
         <v>212</v>
@@ -4990,7 +4992,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -5004,7 +5006,7 @@
         <v>4000</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F113" t="s">
         <v>210</v>
@@ -5013,7 +5015,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -5027,7 +5029,7 @@
         <v>3000</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F114" t="s">
         <v>218</v>
@@ -5036,7 +5038,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -5050,7 +5052,7 @@
         <v>2000</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F115" t="s">
         <v>199</v>
@@ -5059,7 +5061,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -5072,8 +5074,8 @@
       <c r="D116" s="18">
         <v>4000</v>
       </c>
-      <c r="E116" t="s">
-        <v>332</v>
+      <c r="E116" s="5" t="s">
+        <v>331</v>
       </c>
       <c r="F116" t="s">
         <v>199</v>
@@ -5082,7 +5084,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -5096,7 +5098,7 @@
         <v>1800</v>
       </c>
       <c r="E117" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F117" t="s">
         <v>199</v>
@@ -5105,7 +5107,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -5119,7 +5121,7 @@
         <v>1200</v>
       </c>
       <c r="E118" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F118" t="s">
         <v>199</v>
@@ -5128,7 +5130,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -5142,7 +5144,7 @@
         <v>800</v>
       </c>
       <c r="E119" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F119" t="s">
         <v>199</v>
@@ -5151,7 +5153,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -5165,7 +5167,7 @@
         <v>250</v>
       </c>
       <c r="E120" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F120" t="s">
         <v>199</v>
@@ -5174,7 +5176,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -5188,7 +5190,7 @@
         <v>2500</v>
       </c>
       <c r="E121" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F121" t="s">
         <v>199</v>
@@ -5197,7 +5199,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -5211,7 +5213,7 @@
         <v>800</v>
       </c>
       <c r="E122" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F122" t="s">
         <v>199</v>
@@ -5220,7 +5222,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -5234,7 +5236,7 @@
         <v>800</v>
       </c>
       <c r="E123" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F123" t="s">
         <v>199</v>
@@ -5243,7 +5245,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -5257,7 +5259,7 @@
         <v>500</v>
       </c>
       <c r="E124" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F124" t="s">
         <v>199</v>
@@ -5266,7 +5268,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -5280,7 +5282,7 @@
         <v>2000</v>
       </c>
       <c r="E125" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F125" t="s">
         <v>223</v>
@@ -5289,7 +5291,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -5303,7 +5305,7 @@
         <v>1200</v>
       </c>
       <c r="E126" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F126" t="s">
         <v>206</v>
@@ -5312,7 +5314,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -5326,7 +5328,7 @@
         <v>5000</v>
       </c>
       <c r="E127" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F127" t="s">
         <v>197</v>
@@ -5335,7 +5337,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -5349,7 +5351,7 @@
         <v>2000</v>
       </c>
       <c r="E128" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F128" t="s">
         <v>197</v>
@@ -5358,7 +5360,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -5372,7 +5374,7 @@
         <v>1500</v>
       </c>
       <c r="E129" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F129" t="s">
         <v>224</v>
@@ -5381,7 +5383,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="130" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9">
         <v>129</v>
       </c>
@@ -5394,8 +5396,8 @@
       <c r="D130" s="19">
         <v>6000</v>
       </c>
-      <c r="E130" s="12" t="s">
-        <v>346</v>
+      <c r="E130" t="s">
+        <v>345</v>
       </c>
       <c r="F130" s="11" t="s">
         <v>201</v>
@@ -5404,7 +5406,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -5417,8 +5419,8 @@
       <c r="D131" s="18">
         <v>300</v>
       </c>
-      <c r="E131" s="5" t="s">
-        <v>347</v>
+      <c r="E131" s="12" t="s">
+        <v>346</v>
       </c>
       <c r="F131" t="s">
         <v>190</v>
@@ -5427,7 +5429,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -5440,8 +5442,8 @@
       <c r="D132" s="18">
         <v>800</v>
       </c>
-      <c r="E132" t="s">
-        <v>348</v>
+      <c r="E132" s="5" t="s">
+        <v>347</v>
       </c>
       <c r="F132" t="s">
         <v>197</v>
@@ -5450,7 +5452,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -5463,8 +5465,8 @@
       <c r="D133" s="18">
         <v>2000</v>
       </c>
-      <c r="E133" s="5" t="s">
-        <v>349</v>
+      <c r="E133" t="s">
+        <v>348</v>
       </c>
       <c r="F133" t="s">
         <v>198</v>
@@ -5473,7 +5475,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -5487,7 +5489,7 @@
         <v>700</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F134" t="s">
         <v>198</v>
@@ -5496,7 +5498,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -5510,7 +5512,7 @@
         <v>700</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F135" t="s">
         <v>198</v>
@@ -5519,7 +5521,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -5533,7 +5535,7 @@
         <v>700</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F136" t="s">
         <v>198</v>
@@ -5542,7 +5544,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -5556,7 +5558,7 @@
         <v>700</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F137" t="s">
         <v>198</v>
@@ -5565,7 +5567,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -5579,7 +5581,7 @@
         <v>700</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F138" t="s">
         <v>198</v>
@@ -5588,7 +5590,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -5602,7 +5604,7 @@
         <v>900</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F139" t="s">
         <v>198</v>
@@ -5611,7 +5613,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -5625,7 +5627,7 @@
         <v>700</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F140" t="s">
         <v>198</v>
@@ -5634,7 +5636,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -5648,7 +5650,7 @@
         <v>700</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F141" t="s">
         <v>198</v>
@@ -5657,7 +5659,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -5671,7 +5673,7 @@
         <v>700</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F142" t="s">
         <v>198</v>
@@ -5680,7 +5682,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -5694,7 +5696,7 @@
         <v>700</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F143" t="s">
         <v>198</v>
@@ -5703,7 +5705,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -5717,7 +5719,7 @@
         <v>700</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F144" t="s">
         <v>198</v>
@@ -5726,7 +5728,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -5740,7 +5742,7 @@
         <v>1400</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F145" t="s">
         <v>198</v>
@@ -5749,7 +5751,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -5763,7 +5765,7 @@
         <v>700</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F146" t="s">
         <v>198</v>
@@ -5772,7 +5774,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -5786,7 +5788,7 @@
         <v>700</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F147" t="s">
         <v>198</v>
@@ -5795,7 +5797,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -5809,7 +5811,7 @@
         <v>700</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F148" t="s">
         <v>198</v>
@@ -5818,7 +5820,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -5832,7 +5834,7 @@
         <v>700</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F149" t="s">
         <v>198</v>
@@ -5841,7 +5843,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -5855,7 +5857,7 @@
         <v>500</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F150" t="s">
         <v>198</v>
@@ -5864,7 +5866,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -5878,7 +5880,7 @@
         <v>800</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F151" t="s">
         <v>198</v>
@@ -5887,7 +5889,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -5901,7 +5903,7 @@
         <v>800</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F152" t="s">
         <v>198</v>
@@ -5910,7 +5912,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -5924,7 +5926,7 @@
         <v>350</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F153" t="s">
         <v>198</v>
@@ -5933,7 +5935,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -5947,7 +5949,7 @@
         <v>2500</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F154" t="s">
         <v>198</v>
@@ -5956,7 +5958,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -5970,7 +5972,7 @@
         <v>600</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F155" t="s">
         <v>198</v>
@@ -5979,7 +5981,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -5993,7 +5995,7 @@
         <v>700</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F156" t="s">
         <v>198</v>
@@ -6002,7 +6004,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -6016,7 +6018,7 @@
         <v>700</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F157" t="s">
         <v>198</v>
@@ -6025,7 +6027,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -6039,7 +6041,7 @@
         <v>750</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>313</v>
+        <v>373</v>
       </c>
       <c r="F158" t="s">
         <v>219</v>
@@ -6048,7 +6050,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -6062,7 +6064,7 @@
         <v>1200</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>374</v>
+        <v>313</v>
       </c>
       <c r="F159" t="s">
         <v>198</v>
@@ -6071,7 +6073,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="9">
         <v>159</v>
       </c>
@@ -6084,8 +6086,8 @@
       <c r="D160" s="19">
         <v>600</v>
       </c>
-      <c r="E160" s="12" t="s">
-        <v>375</v>
+      <c r="E160" s="5" t="s">
+        <v>374</v>
       </c>
       <c r="F160" s="11" t="s">
         <v>198</v>
@@ -6094,7 +6096,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -6107,8 +6109,8 @@
       <c r="D161" s="18">
         <v>750</v>
       </c>
-      <c r="E161" s="5" t="s">
-        <v>376</v>
+      <c r="E161" s="12" t="s">
+        <v>375</v>
       </c>
       <c r="F161" t="s">
         <v>198</v>
@@ -6117,7 +6119,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -6131,7 +6133,7 @@
         <v>800</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F162" t="s">
         <v>225</v>
@@ -6140,7 +6142,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -6154,7 +6156,7 @@
         <v>1500</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F163" t="s">
         <v>210</v>
@@ -6163,7 +6165,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -6177,7 +6179,7 @@
         <v>1200</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F164" t="s">
         <v>210</v>
@@ -6186,7 +6188,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -6200,7 +6202,7 @@
         <v>1500</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F165" t="s">
         <v>195</v>
@@ -6209,7 +6211,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -6223,7 +6225,7 @@
         <v>300</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F166" t="s">
         <v>226</v>
@@ -6232,7 +6234,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -6246,7 +6248,7 @@
         <v>400</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F167" t="s">
         <v>208</v>
@@ -6255,7 +6257,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>167</v>
       </c>
@@ -6269,7 +6271,7 @@
         <v>500</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F168" t="s">
         <v>208</v>
@@ -6278,7 +6280,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -6292,7 +6294,7 @@
         <v>300</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F169" t="s">
         <v>227</v>
@@ -6301,7 +6303,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="9">
         <v>169</v>
       </c>
@@ -6314,8 +6316,8 @@
       <c r="D170" s="19">
         <v>400</v>
       </c>
-      <c r="E170" s="12" t="s">
-        <v>385</v>
+      <c r="E170" s="5" t="s">
+        <v>384</v>
       </c>
       <c r="F170" s="11" t="s">
         <v>195</v>
@@ -6324,7 +6326,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -6337,8 +6339,8 @@
       <c r="D171" s="18">
         <v>150</v>
       </c>
-      <c r="E171" s="5" t="s">
-        <v>386</v>
+      <c r="E171" s="12" t="s">
+        <v>385</v>
       </c>
       <c r="F171" t="s">
         <v>195</v>
@@ -6347,7 +6349,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -6361,7 +6363,7 @@
         <v>150</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F172" t="s">
         <v>227</v>
@@ -6370,7 +6372,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -6384,7 +6386,7 @@
         <v>100</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F173" t="s">
         <v>209</v>
@@ -6393,7 +6395,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>173</v>
       </c>
@@ -6407,7 +6409,7 @@
         <v>4000</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F174" t="s">
         <v>228</v>
@@ -6416,7 +6418,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -6430,7 +6432,7 @@
         <v>1500</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F175" t="s">
         <v>228</v>
@@ -6439,7 +6441,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -6453,7 +6455,7 @@
         <v>2500</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F176" t="s">
         <v>228</v>
@@ -6462,7 +6464,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -6476,7 +6478,7 @@
         <v>500</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F177" t="s">
         <v>211</v>
@@ -6485,7 +6487,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>177</v>
       </c>
@@ -6499,7 +6501,7 @@
         <v>300</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F178" t="s">
         <v>211</v>
@@ -6508,7 +6510,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:7" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="13">
         <v>178</v>
       </c>
@@ -6521,8 +6523,8 @@
       <c r="D179" s="18">
         <v>1200</v>
       </c>
-      <c r="E179" s="16" t="s">
-        <v>467</v>
+      <c r="E179" s="5" t="s">
+        <v>393</v>
       </c>
       <c r="F179" s="15" t="s">
         <v>216</v>
@@ -6531,7 +6533,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>179</v>
       </c>
@@ -6544,8 +6546,8 @@
       <c r="D180" s="20">
         <v>500</v>
       </c>
-      <c r="E180" s="1" t="s">
-        <v>468</v>
+      <c r="E180" s="16" t="s">
+        <v>467</v>
       </c>
       <c r="F180" t="s">
         <v>229</v>
@@ -6554,7 +6556,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>180</v>
       </c>
@@ -6568,7 +6570,7 @@
         <v>2300</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F181" t="s">
         <v>198</v>
@@ -6577,7 +6579,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>181</v>
       </c>
@@ -6591,7 +6593,7 @@
         <v>1400</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F182" t="s">
         <v>197</v>
@@ -6600,7 +6602,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>182</v>
       </c>
@@ -6614,7 +6616,7 @@
         <v>1575</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F183" t="s">
         <v>230</v>
@@ -6623,7 +6625,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>183</v>
       </c>
@@ -6637,7 +6639,7 @@
         <v>1485</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F184" t="s">
         <v>230</v>
@@ -6646,7 +6648,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>184</v>
       </c>
@@ -6660,7 +6662,7 @@
         <v>1260</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F185" t="s">
         <v>230</v>
@@ -6669,7 +6671,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>185</v>
       </c>
@@ -6683,7 +6685,7 @@
         <v>1215</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F186" t="s">
         <v>230</v>
@@ -6692,7 +6694,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>186</v>
       </c>
@@ -6706,7 +6708,7 @@
         <v>1440</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F187" t="s">
         <v>230</v>
@@ -6715,7 +6717,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>187</v>
       </c>
@@ -6729,7 +6731,7 @@
         <v>1395</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F188" t="s">
         <v>230</v>
@@ -6738,7 +6740,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>188</v>
       </c>
@@ -6752,7 +6754,7 @@
         <v>810</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F189" t="s">
         <v>230</v>
@@ -6761,7 +6763,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>189</v>
       </c>
@@ -6775,7 +6777,7 @@
         <v>1575</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F190" t="s">
         <v>230</v>
@@ -6784,7 +6786,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>190</v>
       </c>
@@ -6798,7 +6800,7 @@
         <v>1170</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F191" t="s">
         <v>230</v>
@@ -6807,7 +6809,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>191</v>
       </c>
@@ -6821,7 +6823,7 @@
         <v>810</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F192" t="s">
         <v>230</v>
@@ -6830,7 +6832,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>192</v>
       </c>
@@ -6844,7 +6846,7 @@
         <v>855</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F193" s="3" t="s">
         <v>230</v>
@@ -6853,7 +6855,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>193</v>
       </c>
@@ -6867,7 +6869,7 @@
         <v>1260</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F194" s="3" t="s">
         <v>230</v>
@@ -6876,7 +6878,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>194</v>
       </c>
@@ -6890,7 +6892,7 @@
         <v>1330</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F195" s="3" t="s">
         <v>230</v>
@@ -6899,7 +6901,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>195</v>
       </c>
@@ -6913,7 +6915,7 @@
         <v>665</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F196" s="3" t="s">
         <v>230</v>
@@ -6922,7 +6924,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>196</v>
       </c>
@@ -6936,7 +6938,7 @@
         <v>1085</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F197" s="3" t="s">
         <v>230</v>
@@ -6945,7 +6947,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>197</v>
       </c>
@@ -6959,7 +6961,7 @@
         <v>875</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F198" s="3" t="s">
         <v>230</v>
@@ -6968,7 +6970,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>198</v>
       </c>
@@ -6982,7 +6984,7 @@
         <v>1645</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F199" s="3" t="s">
         <v>230</v>
@@ -6991,7 +6993,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>199</v>
       </c>
@@ -7005,7 +7007,7 @@
         <v>980</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F200" s="3" t="s">
         <v>230</v>
@@ -7014,7 +7016,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>200</v>
       </c>
@@ -7028,7 +7030,7 @@
         <v>1015</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F201" s="3" t="s">
         <v>230</v>
@@ -7037,7 +7039,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>201</v>
       </c>
@@ -7051,7 +7053,7 @@
         <v>595</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F202" s="3" t="s">
         <v>230</v>
@@ -7060,7 +7062,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>202</v>
       </c>
@@ -7074,7 +7076,7 @@
         <v>910</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F203" s="3" t="s">
         <v>230</v>
@@ -7083,7 +7085,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="204" spans="1:7" s="13" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>203</v>
       </c>
@@ -7097,7 +7099,7 @@
         <v>595</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F204" s="13" t="s">
         <v>230</v>
@@ -7106,7 +7108,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>204</v>
       </c>
@@ -7120,7 +7122,7 @@
         <v>768</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F205" s="3" t="s">
         <v>230</v>
@@ -7129,7 +7131,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>205</v>
       </c>
@@ -7143,7 +7145,7 @@
         <v>1120</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F206" s="3" t="s">
         <v>230</v>
@@ -7152,7 +7154,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>206</v>
       </c>
@@ -7166,7 +7168,7 @@
         <v>1856</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F207" s="3" t="s">
         <v>230</v>
@@ -7175,7 +7177,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>207</v>
       </c>
@@ -7189,7 +7191,7 @@
         <v>864</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F208" s="3" t="s">
         <v>230</v>
@@ -7198,7 +7200,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>208</v>
       </c>
@@ -7212,7 +7214,7 @@
         <v>1280</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F209" s="3" t="s">
         <v>230</v>
@@ -7221,7 +7223,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>209</v>
       </c>
@@ -7235,7 +7237,7 @@
         <v>896</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F210" s="3" t="s">
         <v>230</v>
@@ -7244,7 +7246,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>210</v>
       </c>
@@ -7258,7 +7260,7 @@
         <v>2112</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F211" s="3" t="s">
         <v>230</v>
@@ -7267,7 +7269,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>211</v>
       </c>
@@ -7281,7 +7283,7 @@
         <v>1888</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F212" s="3" t="s">
         <v>230</v>
@@ -7290,7 +7292,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>212</v>
       </c>
@@ -7304,7 +7306,7 @@
         <v>800</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F213" s="3" t="s">
         <v>230</v>
@@ -7313,7 +7315,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>213</v>
       </c>
@@ -7327,7 +7329,7 @@
         <v>1088</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F214" s="3" t="s">
         <v>230</v>
@@ -7336,7 +7338,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>214</v>
       </c>
@@ -7350,7 +7352,7 @@
         <v>800</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F215" s="3" t="s">
         <v>230</v>
@@ -7359,7 +7361,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="216" spans="1:7" s="13" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>215</v>
       </c>
@@ -7373,7 +7375,7 @@
         <v>800</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F216" s="13" t="s">
         <v>230</v>
@@ -7382,7 +7384,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>216</v>
       </c>
@@ -7396,7 +7398,7 @@
         <v>950</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F217" s="3" t="s">
         <v>230</v>
@@ -7405,7 +7407,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>217</v>
       </c>
@@ -7419,7 +7421,7 @@
         <v>576</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F218" s="3" t="s">
         <v>230</v>
@@ -7428,7 +7430,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>218</v>
       </c>
@@ -7442,7 +7444,7 @@
         <v>925</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F219" s="3" t="s">
         <v>230</v>
@@ -7451,7 +7453,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>219</v>
       </c>
@@ -7465,7 +7467,7 @@
         <v>725</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F220" s="3" t="s">
         <v>230</v>
@@ -7474,7 +7476,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>220</v>
       </c>
@@ -7488,7 +7490,7 @@
         <v>750</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F221" s="3" t="s">
         <v>230</v>
@@ -7497,7 +7499,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>221</v>
       </c>
@@ -7511,7 +7513,7 @@
         <v>1100</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F222" s="3" t="s">
         <v>230</v>
@@ -7520,7 +7522,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="223" spans="1:7" s="13" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>222</v>
       </c>
@@ -7534,7 +7536,7 @@
         <v>1225</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F223" s="13" t="s">
         <v>230</v>
@@ -7543,7 +7545,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>223</v>
       </c>
@@ -7554,7 +7556,7 @@
         <v>495</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F224" s="3" t="s">
         <v>230</v>
@@ -7563,7 +7565,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>224</v>
       </c>
@@ -7574,7 +7576,7 @@
         <v>950</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F225" s="3" t="s">
         <v>230</v>
@@ -7583,7 +7585,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>225</v>
       </c>
@@ -7597,7 +7599,7 @@
         <v>2345</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F226" s="3" t="s">
         <v>230</v>
@@ -7606,7 +7608,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>226</v>
       </c>
@@ -7620,7 +7622,7 @@
         <v>2380</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F227" s="3" t="s">
         <v>230</v>
@@ -7629,7 +7631,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>227</v>
       </c>
@@ -7643,7 +7645,7 @@
         <v>3570</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F228" s="3" t="s">
         <v>230</v>
@@ -7652,7 +7654,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>228</v>
       </c>
@@ -7666,7 +7668,7 @@
         <v>1645</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F229" s="3" t="s">
         <v>230</v>
@@ -7675,7 +7677,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>229</v>
       </c>
@@ -7689,7 +7691,7 @@
         <v>1610</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F230" s="3" t="s">
         <v>230</v>
@@ -7698,7 +7700,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>230</v>
       </c>
@@ -7712,7 +7714,7 @@
         <v>1120</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F231" s="3" t="s">
         <v>230</v>
@@ -7721,7 +7723,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="232" spans="1:7" s="13" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>231</v>
       </c>
@@ -7735,7 +7737,7 @@
         <v>945</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F232" s="13" t="s">
         <v>230</v>
@@ -7744,7 +7746,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>232</v>
       </c>
@@ -7758,7 +7760,7 @@
         <v>1990</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F233" s="3" t="s">
         <v>230</v>
@@ -7767,7 +7769,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>233</v>
       </c>
@@ -7781,7 +7783,7 @@
         <v>770</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F234" s="3" t="s">
         <v>230</v>
@@ -7790,7 +7792,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>234</v>
       </c>
@@ -7804,7 +7806,7 @@
         <v>1190</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F235" s="3" t="s">
         <v>230</v>
@@ -7813,7 +7815,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>235</v>
       </c>
@@ -7827,7 +7829,7 @@
         <v>940</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F236" s="3" t="s">
         <v>230</v>
@@ -7836,7 +7838,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>236</v>
       </c>
@@ -7850,7 +7852,7 @@
         <v>1040</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F237" s="3" t="s">
         <v>230</v>
@@ -7859,7 +7861,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>237</v>
       </c>
@@ -7873,7 +7875,7 @@
         <v>880</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F238" s="3" t="s">
         <v>230</v>
@@ -7882,7 +7884,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>238</v>
       </c>
@@ -7896,7 +7898,7 @@
         <v>540</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F239" s="3" t="s">
         <v>230</v>
@@ -7905,7 +7907,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>239</v>
       </c>
@@ -7919,7 +7921,7 @@
         <v>800</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F240" s="3" t="s">
         <v>230</v>
@@ -7928,7 +7930,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>240</v>
       </c>
@@ -7942,7 +7944,7 @@
         <v>1670</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F241" s="3" t="s">
         <v>230</v>
@@ -7951,7 +7953,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="242" spans="1:7" s="13" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>241</v>
       </c>
@@ -7965,7 +7967,7 @@
         <v>2550</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F242" s="13" t="s">
         <v>230</v>
@@ -7974,7 +7976,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>242</v>
       </c>
@@ -7988,7 +7990,7 @@
         <v>2400</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F243" s="3" t="s">
         <v>230</v>
@@ -8011,7 +8013,7 @@
         <v>1410</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F244" s="3" t="s">
         <v>230</v>
@@ -8020,7 +8022,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>244</v>
       </c>
@@ -8034,7 +8036,7 @@
         <v>480</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F245" s="3" t="s">
         <v>230</v>
@@ -8043,7 +8045,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>245</v>
       </c>
@@ -8057,7 +8059,7 @@
         <v>5625</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F246" s="3" t="s">
         <v>230</v>
@@ -8066,7 +8068,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>246</v>
       </c>
@@ -8080,7 +8082,7 @@
         <v>540</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F247" s="3" t="s">
         <v>230</v>
@@ -8089,7 +8091,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>247</v>
       </c>
@@ -8103,7 +8105,7 @@
         <v>750</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F248" s="3" t="s">
         <v>230</v>
@@ -8112,7 +8114,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>248</v>
       </c>
@@ -8126,7 +8128,7 @@
         <v>1200</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F249" s="3" t="s">
         <v>230</v>
@@ -8135,7 +8137,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>249</v>
       </c>
@@ -8149,7 +8151,7 @@
         <v>1000</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F250" s="3" t="s">
         <v>230</v>
@@ -8158,7 +8160,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>250</v>
       </c>
@@ -8172,7 +8174,7 @@
         <v>1800</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F251" s="3" t="s">
         <v>230</v>
@@ -8181,7 +8183,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>251</v>
       </c>
@@ -8195,7 +8197,7 @@
         <v>1500</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F252" s="3" t="s">
         <v>230</v>
@@ -8204,7 +8206,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>252</v>
       </c>
@@ -8218,7 +8220,7 @@
         <v>700</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F253" s="3" t="s">
         <v>230</v>
@@ -8227,7 +8229,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>253</v>
       </c>
@@ -8241,7 +8243,7 @@
         <v>940</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F254" s="3" t="s">
         <v>230</v>
@@ -8250,7 +8252,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>254</v>
       </c>
@@ -8264,7 +8266,7 @@
         <v>1300</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F255" s="3" t="s">
         <v>230</v>
@@ -8273,7 +8275,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>255</v>
       </c>
@@ -8287,7 +8289,7 @@
         <v>2000</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F256" s="3" t="s">
         <v>230</v>
@@ -8296,7 +8298,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="257" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>256</v>
       </c>
@@ -8310,7 +8312,7 @@
         <v>1400</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F257" s="3" t="s">
         <v>230</v>
@@ -8319,7 +8321,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>257</v>
       </c>
@@ -8333,7 +8335,7 @@
         <v>2560</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F258" s="3" t="s">
         <v>230</v>
@@ -8342,7 +8344,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>258</v>
       </c>
@@ -8356,7 +8358,7 @@
         <v>116</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F259" s="3" t="s">
         <v>230</v>
@@ -8366,7 +8368,9 @@
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E260" s="1"/>
+      <c r="E260" s="1" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E261" s="1"/>
@@ -8380,177 +8384,174 @@
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E264" s="1"/>
     </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E265" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G259" xr:uid="{98041684-60AD-4B6B-B652-1A806A9CDDBF}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="1410"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G259" xr:uid="{98041684-60AD-4B6B-B652-1A806A9CDDBF}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E115" r:id="rId1" display="https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/115.jpeg" xr:uid="{9549F0E1-BCB2-4457-9DDF-9A7137E9809C}"/>
-    <hyperlink ref="E114" r:id="rId2" xr:uid="{6726A824-7DA1-46E0-938D-014A614B469E}"/>
+    <hyperlink ref="E116" r:id="rId1" display="https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/115.jpeg" xr:uid="{9549F0E1-BCB2-4457-9DDF-9A7137E9809C}"/>
+    <hyperlink ref="E115" r:id="rId2" xr:uid="{6726A824-7DA1-46E0-938D-014A614B469E}"/>
     <hyperlink ref="E25" r:id="rId3" xr:uid="{8B045AB2-98E7-4B80-8440-1BC6109DF8D1}"/>
     <hyperlink ref="E26" r:id="rId4" xr:uid="{80B105DB-AAB8-4716-B55E-6704D3B1CE40}"/>
-    <hyperlink ref="E54" r:id="rId5" xr:uid="{FC7329FC-C4AB-48D7-B5F2-C67C236526A5}"/>
-    <hyperlink ref="E55" r:id="rId6" xr:uid="{35B927A0-5949-49D7-AC6E-B2087963DCE2}"/>
-    <hyperlink ref="E56" r:id="rId7" xr:uid="{92F62862-EBEF-4F01-8982-72DEF3734EFE}"/>
-    <hyperlink ref="E57" r:id="rId8" xr:uid="{12A1D307-EAE2-4294-A9D0-D05B06EF6F9A}"/>
-    <hyperlink ref="E53" r:id="rId9" xr:uid="{20C46166-09ED-4B21-94DE-09AA33FFE605}"/>
-    <hyperlink ref="E51" r:id="rId10" xr:uid="{5821F9F8-6D80-45F7-8440-019815DE6617}"/>
-    <hyperlink ref="E64" r:id="rId11" xr:uid="{D5AFE94F-76E2-4E72-A898-7F221FC0E8EE}"/>
-    <hyperlink ref="E60" r:id="rId12" xr:uid="{703245C9-5400-4323-929E-2480E26FAA8C}"/>
-    <hyperlink ref="E63" r:id="rId13" xr:uid="{714D482C-0FE5-4D9B-89C6-AA6B5DAB7E47}"/>
-    <hyperlink ref="E59" r:id="rId14" xr:uid="{E26078F6-F3E7-42BE-B257-997AB2AF08D6}"/>
-    <hyperlink ref="E65" r:id="rId15" xr:uid="{B37AABDE-11C3-4C60-9FE2-1EC22E67E1E8}"/>
-    <hyperlink ref="E74" r:id="rId16" xr:uid="{3270A205-3519-4B20-A987-3F3E35F6A2B7}"/>
-    <hyperlink ref="E76" r:id="rId17" xr:uid="{B7720EC8-F07C-44F2-A880-C3F9ABA32234}"/>
-    <hyperlink ref="E79" r:id="rId18" xr:uid="{D2EBB525-D5A6-4839-B850-4DAACEA97E8F}"/>
-    <hyperlink ref="E80" r:id="rId19" xr:uid="{CC244AAC-C80F-49E6-86C4-0DB77AE026AF}"/>
-    <hyperlink ref="E81" r:id="rId20" xr:uid="{F4536664-D2DC-40CB-8E8B-D7CF57FF552F}"/>
-    <hyperlink ref="E83" r:id="rId21" xr:uid="{2200D4DF-D7B1-4527-9E66-91C84531E8B6}"/>
-    <hyperlink ref="E86" r:id="rId22" xr:uid="{B3A357D8-6D83-493E-A741-1FAF66898F28}"/>
-    <hyperlink ref="E88" r:id="rId23" xr:uid="{3A69940E-9343-4112-9D56-B3FD68CA9AD4}"/>
-    <hyperlink ref="E91" r:id="rId24" xr:uid="{B0D3C429-1E94-4071-A35F-49646D7ACC95}"/>
-    <hyperlink ref="E89" r:id="rId25" xr:uid="{7B0ED102-5F61-4783-87FF-7960D2B8A018}"/>
-    <hyperlink ref="E90" r:id="rId26" xr:uid="{60F38D09-6BEC-4F9F-8967-7E5576E44916}"/>
-    <hyperlink ref="E95" r:id="rId27" xr:uid="{BEFA96DE-134D-4FDD-AFA9-941318AC25AC}"/>
-    <hyperlink ref="E96" r:id="rId28" xr:uid="{E45A2EF0-3976-4886-A33A-8EDF3F24DB28}"/>
-    <hyperlink ref="E97" r:id="rId29" xr:uid="{47C32F15-E095-48BF-8AC0-1DBD544DD6E8}"/>
-    <hyperlink ref="E100" r:id="rId30" xr:uid="{674B3592-1BDE-41BA-9EB9-800AF2272003}"/>
-    <hyperlink ref="E101" r:id="rId31" xr:uid="{6FD5C013-8BBD-41F4-9782-1DA65D85CD5A}"/>
-    <hyperlink ref="E102" r:id="rId32" xr:uid="{6017F4F0-F9CA-4750-958D-E7C912018777}"/>
-    <hyperlink ref="E105" r:id="rId33" xr:uid="{EF685BEA-18C4-4E8C-917B-EACD39ABA2E6}"/>
-    <hyperlink ref="E106" r:id="rId34" xr:uid="{181CB626-A3F2-438B-9CF2-0C0BCDE6F60C}"/>
-    <hyperlink ref="E107" r:id="rId35" xr:uid="{2A00C0EC-8F41-4ABB-9C79-1D946856565D}"/>
-    <hyperlink ref="E112" r:id="rId36" xr:uid="{3146DD88-73E7-436D-85FB-72D70EE4E854}"/>
-    <hyperlink ref="E113" r:id="rId37" xr:uid="{FFB62559-6F14-4F53-9A4D-0A4CAD2B1775}"/>
-    <hyperlink ref="E130" r:id="rId38" xr:uid="{F72838D9-18C1-4FF5-B725-A8AC73485B25}"/>
-    <hyperlink ref="E131" r:id="rId39" xr:uid="{4169F08E-03D6-45BF-8F64-3D02ED3BB6B2}"/>
-    <hyperlink ref="E135" r:id="rId40" xr:uid="{F95984CE-0315-4D79-878E-C01F982D7B86}"/>
-    <hyperlink ref="E133" r:id="rId41" xr:uid="{71C55BC7-D105-4979-BC1D-223D20E7D7CF}"/>
-    <hyperlink ref="E134" r:id="rId42" xr:uid="{FFB1C659-1F13-4D95-8E39-8A35B11BD7C7}"/>
-    <hyperlink ref="E136" r:id="rId43" xr:uid="{5E593A99-0C56-4223-96F2-96937B1032AE}"/>
-    <hyperlink ref="E137" r:id="rId44" xr:uid="{3C723C9F-4921-412B-8472-8CB79FBC0D5B}"/>
-    <hyperlink ref="E139" r:id="rId45" xr:uid="{95707C9D-6A21-4F29-AC8B-DDD3D57DDA91}"/>
-    <hyperlink ref="E144" r:id="rId46" xr:uid="{FA9B4B34-C2DC-4360-A01A-62DB7EB9334C}"/>
-    <hyperlink ref="E140" r:id="rId47" xr:uid="{102FEEE2-8A65-4963-AA4D-42AA66AF8A75}"/>
-    <hyperlink ref="E141" r:id="rId48" xr:uid="{ABD4FF97-C356-46C4-A3FD-8BF5990EC247}"/>
-    <hyperlink ref="E146" r:id="rId49" xr:uid="{D37BDCA5-AEC9-400D-801B-807F7FABBCEB}"/>
-    <hyperlink ref="E148" r:id="rId50" xr:uid="{E106FEF3-2A29-42A9-A98A-4B58F38E79A7}"/>
-    <hyperlink ref="E147" r:id="rId51" xr:uid="{842D0B44-EBE8-48F8-BF27-FA7170C4D3B5}"/>
-    <hyperlink ref="E145" r:id="rId52" xr:uid="{6CBB96B0-6538-4E61-85FD-D60FB95A40EF}"/>
-    <hyperlink ref="E142" r:id="rId53" xr:uid="{592B83CC-6C24-4C9A-AAB1-D25A97E2220D}"/>
-    <hyperlink ref="E138" r:id="rId54" xr:uid="{E96C3DF6-B0BA-4DD2-8401-6FE8FF78E1D8}"/>
-    <hyperlink ref="E143" r:id="rId55" xr:uid="{4DA3BC06-0E1A-4D26-A8ED-2303829FD5FB}"/>
-    <hyperlink ref="E149" r:id="rId56" xr:uid="{B5089AAC-5D5B-4354-8E4B-ACCEB292FE46}"/>
-    <hyperlink ref="E178" r:id="rId57" xr:uid="{2DC37099-0C06-406F-8A78-C69FFEA5DBB9}"/>
-    <hyperlink ref="E164" r:id="rId58" xr:uid="{1406B533-E76F-4E34-AEBE-CF214A7A4389}"/>
-    <hyperlink ref="E151" r:id="rId59" xr:uid="{38FD6989-1C7D-4B42-9239-25D8B69639B0}"/>
-    <hyperlink ref="E150" r:id="rId60" xr:uid="{356DB9E0-B914-453A-A186-895A0FB1E70D}"/>
-    <hyperlink ref="E152" r:id="rId61" xr:uid="{B5141D0C-A203-4800-98D1-A002F3131144}"/>
-    <hyperlink ref="E153" r:id="rId62" xr:uid="{D8BC583F-75DE-48E8-84D8-313520EDD275}"/>
-    <hyperlink ref="E163" r:id="rId63" xr:uid="{F22A5A62-CFCB-4E14-8ADE-F666F077FE8F}"/>
-    <hyperlink ref="E154" r:id="rId64" xr:uid="{E5A8AD74-B362-4370-9CB6-127E4FDDA652}"/>
-    <hyperlink ref="E165" r:id="rId65" xr:uid="{344A5451-1D20-4D86-B2FD-DCCBF038B68E}"/>
-    <hyperlink ref="E160" r:id="rId66" xr:uid="{0117161A-5B79-4300-A098-CCFEA61A2974}"/>
-    <hyperlink ref="E166" r:id="rId67" xr:uid="{4684B8AB-4658-45A8-8378-1FF9C9D07A91}"/>
-    <hyperlink ref="E157" r:id="rId68" xr:uid="{AB1B2CED-AE5B-4A30-9E89-BDFB6A04A5B1}"/>
-    <hyperlink ref="E168" r:id="rId69" xr:uid="{0A8E772D-D766-41DF-A561-C4B167E6CD7F}"/>
-    <hyperlink ref="E156" r:id="rId70" xr:uid="{747296A4-4012-4539-8979-FB5308AEB6A8}"/>
-    <hyperlink ref="E167" r:id="rId71" xr:uid="{07A5DA01-AA25-4321-8DEB-90F00A3DB313}"/>
-    <hyperlink ref="E169" r:id="rId72" xr:uid="{7FC9C8E6-7312-4CCE-996E-BBE18A6BBA37}"/>
-    <hyperlink ref="E170" r:id="rId73" xr:uid="{A3B6B3F2-D1A2-4B4D-9DF1-BB8FBD2AC74E}"/>
-    <hyperlink ref="E155" r:id="rId74" xr:uid="{EB35A134-34E9-49E6-ADF6-350F3A205D2D}"/>
-    <hyperlink ref="E159" r:id="rId75" xr:uid="{CB55790E-A13B-444A-8286-D3129F874D97}"/>
-    <hyperlink ref="E161" r:id="rId76" xr:uid="{A8353BE6-3E9E-40BE-A008-C194A7DD40AB}"/>
-    <hyperlink ref="E172" r:id="rId77" xr:uid="{F41D57C4-0208-4802-9E33-EB7FAC5DC42F}"/>
-    <hyperlink ref="E162" r:id="rId78" xr:uid="{A1656B3B-E843-4CFF-8457-A07FA703A871}"/>
-    <hyperlink ref="E171" r:id="rId79" xr:uid="{3BF37B87-3FCA-40E3-BAA1-26618A9AB59F}"/>
-    <hyperlink ref="E175" r:id="rId80" xr:uid="{0D273B19-2A25-4B47-BED7-1E9E42A3CC6A}"/>
-    <hyperlink ref="E174" r:id="rId81" xr:uid="{0A92071F-0FEE-40F1-AE4D-71CFAFA58AE6}"/>
-    <hyperlink ref="E177" r:id="rId82" xr:uid="{B0F7CFA9-14B3-4864-9997-B66A2327C2BE}"/>
-    <hyperlink ref="E173" r:id="rId83" xr:uid="{EF5AFCDF-E1C7-4660-8E58-CB6D5AA622CF}"/>
-    <hyperlink ref="E176" r:id="rId84" xr:uid="{1EAB560C-F888-4CFF-8D2A-3FE9E7C34344}"/>
-    <hyperlink ref="E158" r:id="rId85" xr:uid="{A465BD95-A7B8-4529-A08C-9775A484268F}"/>
-    <hyperlink ref="E58" r:id="rId86" xr:uid="{862616CF-DC50-4252-A2A5-6C2A8F0D492C}"/>
+    <hyperlink ref="E55" r:id="rId5" xr:uid="{FC7329FC-C4AB-48D7-B5F2-C67C236526A5}"/>
+    <hyperlink ref="E56" r:id="rId6" xr:uid="{35B927A0-5949-49D7-AC6E-B2087963DCE2}"/>
+    <hyperlink ref="E57" r:id="rId7" xr:uid="{92F62862-EBEF-4F01-8982-72DEF3734EFE}"/>
+    <hyperlink ref="E58" r:id="rId8" xr:uid="{12A1D307-EAE2-4294-A9D0-D05B06EF6F9A}"/>
+    <hyperlink ref="E54" r:id="rId9" xr:uid="{20C46166-09ED-4B21-94DE-09AA33FFE605}"/>
+    <hyperlink ref="E52" r:id="rId10" xr:uid="{5821F9F8-6D80-45F7-8440-019815DE6617}"/>
+    <hyperlink ref="E65" r:id="rId11" xr:uid="{D5AFE94F-76E2-4E72-A898-7F221FC0E8EE}"/>
+    <hyperlink ref="E61" r:id="rId12" xr:uid="{703245C9-5400-4323-929E-2480E26FAA8C}"/>
+    <hyperlink ref="E64" r:id="rId13" xr:uid="{714D482C-0FE5-4D9B-89C6-AA6B5DAB7E47}"/>
+    <hyperlink ref="E60" r:id="rId14" xr:uid="{E26078F6-F3E7-42BE-B257-997AB2AF08D6}"/>
+    <hyperlink ref="E66" r:id="rId15" xr:uid="{B37AABDE-11C3-4C60-9FE2-1EC22E67E1E8}"/>
+    <hyperlink ref="E75" r:id="rId16" xr:uid="{3270A205-3519-4B20-A987-3F3E35F6A2B7}"/>
+    <hyperlink ref="E77" r:id="rId17" xr:uid="{B7720EC8-F07C-44F2-A880-C3F9ABA32234}"/>
+    <hyperlink ref="E80" r:id="rId18" xr:uid="{D2EBB525-D5A6-4839-B850-4DAACEA97E8F}"/>
+    <hyperlink ref="E81" r:id="rId19" xr:uid="{CC244AAC-C80F-49E6-86C4-0DB77AE026AF}"/>
+    <hyperlink ref="E82" r:id="rId20" xr:uid="{F4536664-D2DC-40CB-8E8B-D7CF57FF552F}"/>
+    <hyperlink ref="E84" r:id="rId21" xr:uid="{2200D4DF-D7B1-4527-9E66-91C84531E8B6}"/>
+    <hyperlink ref="E87" r:id="rId22" xr:uid="{B3A357D8-6D83-493E-A741-1FAF66898F28}"/>
+    <hyperlink ref="E89" r:id="rId23" xr:uid="{3A69940E-9343-4112-9D56-B3FD68CA9AD4}"/>
+    <hyperlink ref="E92" r:id="rId24" xr:uid="{B0D3C429-1E94-4071-A35F-49646D7ACC95}"/>
+    <hyperlink ref="E90" r:id="rId25" xr:uid="{7B0ED102-5F61-4783-87FF-7960D2B8A018}"/>
+    <hyperlink ref="E91" r:id="rId26" xr:uid="{60F38D09-6BEC-4F9F-8967-7E5576E44916}"/>
+    <hyperlink ref="E96" r:id="rId27" xr:uid="{BEFA96DE-134D-4FDD-AFA9-941318AC25AC}"/>
+    <hyperlink ref="E97" r:id="rId28" xr:uid="{E45A2EF0-3976-4886-A33A-8EDF3F24DB28}"/>
+    <hyperlink ref="E98" r:id="rId29" xr:uid="{47C32F15-E095-48BF-8AC0-1DBD544DD6E8}"/>
+    <hyperlink ref="E101" r:id="rId30" xr:uid="{674B3592-1BDE-41BA-9EB9-800AF2272003}"/>
+    <hyperlink ref="E102" r:id="rId31" xr:uid="{6FD5C013-8BBD-41F4-9782-1DA65D85CD5A}"/>
+    <hyperlink ref="E103" r:id="rId32" xr:uid="{6017F4F0-F9CA-4750-958D-E7C912018777}"/>
+    <hyperlink ref="E106" r:id="rId33" xr:uid="{EF685BEA-18C4-4E8C-917B-EACD39ABA2E6}"/>
+    <hyperlink ref="E107" r:id="rId34" xr:uid="{181CB626-A3F2-438B-9CF2-0C0BCDE6F60C}"/>
+    <hyperlink ref="E108" r:id="rId35" xr:uid="{2A00C0EC-8F41-4ABB-9C79-1D946856565D}"/>
+    <hyperlink ref="E113" r:id="rId36" xr:uid="{3146DD88-73E7-436D-85FB-72D70EE4E854}"/>
+    <hyperlink ref="E114" r:id="rId37" xr:uid="{FFB62559-6F14-4F53-9A4D-0A4CAD2B1775}"/>
+    <hyperlink ref="E131" r:id="rId38" xr:uid="{F72838D9-18C1-4FF5-B725-A8AC73485B25}"/>
+    <hyperlink ref="E132" r:id="rId39" xr:uid="{4169F08E-03D6-45BF-8F64-3D02ED3BB6B2}"/>
+    <hyperlink ref="E136" r:id="rId40" xr:uid="{F95984CE-0315-4D79-878E-C01F982D7B86}"/>
+    <hyperlink ref="E134" r:id="rId41" xr:uid="{71C55BC7-D105-4979-BC1D-223D20E7D7CF}"/>
+    <hyperlink ref="E135" r:id="rId42" xr:uid="{FFB1C659-1F13-4D95-8E39-8A35B11BD7C7}"/>
+    <hyperlink ref="E137" r:id="rId43" xr:uid="{5E593A99-0C56-4223-96F2-96937B1032AE}"/>
+    <hyperlink ref="E138" r:id="rId44" xr:uid="{3C723C9F-4921-412B-8472-8CB79FBC0D5B}"/>
+    <hyperlink ref="E140" r:id="rId45" xr:uid="{95707C9D-6A21-4F29-AC8B-DDD3D57DDA91}"/>
+    <hyperlink ref="E145" r:id="rId46" xr:uid="{FA9B4B34-C2DC-4360-A01A-62DB7EB9334C}"/>
+    <hyperlink ref="E141" r:id="rId47" xr:uid="{102FEEE2-8A65-4963-AA4D-42AA66AF8A75}"/>
+    <hyperlink ref="E142" r:id="rId48" xr:uid="{ABD4FF97-C356-46C4-A3FD-8BF5990EC247}"/>
+    <hyperlink ref="E147" r:id="rId49" xr:uid="{D37BDCA5-AEC9-400D-801B-807F7FABBCEB}"/>
+    <hyperlink ref="E149" r:id="rId50" xr:uid="{E106FEF3-2A29-42A9-A98A-4B58F38E79A7}"/>
+    <hyperlink ref="E148" r:id="rId51" xr:uid="{842D0B44-EBE8-48F8-BF27-FA7170C4D3B5}"/>
+    <hyperlink ref="E146" r:id="rId52" xr:uid="{6CBB96B0-6538-4E61-85FD-D60FB95A40EF}"/>
+    <hyperlink ref="E143" r:id="rId53" xr:uid="{592B83CC-6C24-4C9A-AAB1-D25A97E2220D}"/>
+    <hyperlink ref="E139" r:id="rId54" xr:uid="{E96C3DF6-B0BA-4DD2-8401-6FE8FF78E1D8}"/>
+    <hyperlink ref="E144" r:id="rId55" xr:uid="{4DA3BC06-0E1A-4D26-A8ED-2303829FD5FB}"/>
+    <hyperlink ref="E150" r:id="rId56" xr:uid="{B5089AAC-5D5B-4354-8E4B-ACCEB292FE46}"/>
+    <hyperlink ref="E179" r:id="rId57" xr:uid="{2DC37099-0C06-406F-8A78-C69FFEA5DBB9}"/>
+    <hyperlink ref="E165" r:id="rId58" xr:uid="{1406B533-E76F-4E34-AEBE-CF214A7A4389}"/>
+    <hyperlink ref="E152" r:id="rId59" xr:uid="{38FD6989-1C7D-4B42-9239-25D8B69639B0}"/>
+    <hyperlink ref="E151" r:id="rId60" xr:uid="{356DB9E0-B914-453A-A186-895A0FB1E70D}"/>
+    <hyperlink ref="E153" r:id="rId61" xr:uid="{B5141D0C-A203-4800-98D1-A002F3131144}"/>
+    <hyperlink ref="E154" r:id="rId62" xr:uid="{D8BC583F-75DE-48E8-84D8-313520EDD275}"/>
+    <hyperlink ref="E164" r:id="rId63" xr:uid="{F22A5A62-CFCB-4E14-8ADE-F666F077FE8F}"/>
+    <hyperlink ref="E155" r:id="rId64" xr:uid="{E5A8AD74-B362-4370-9CB6-127E4FDDA652}"/>
+    <hyperlink ref="E166" r:id="rId65" xr:uid="{344A5451-1D20-4D86-B2FD-DCCBF038B68E}"/>
+    <hyperlink ref="E161" r:id="rId66" xr:uid="{0117161A-5B79-4300-A098-CCFEA61A2974}"/>
+    <hyperlink ref="E167" r:id="rId67" xr:uid="{4684B8AB-4658-45A8-8378-1FF9C9D07A91}"/>
+    <hyperlink ref="E158" r:id="rId68" xr:uid="{AB1B2CED-AE5B-4A30-9E89-BDFB6A04A5B1}"/>
+    <hyperlink ref="E169" r:id="rId69" xr:uid="{0A8E772D-D766-41DF-A561-C4B167E6CD7F}"/>
+    <hyperlink ref="E157" r:id="rId70" xr:uid="{747296A4-4012-4539-8979-FB5308AEB6A8}"/>
+    <hyperlink ref="E168" r:id="rId71" xr:uid="{07A5DA01-AA25-4321-8DEB-90F00A3DB313}"/>
+    <hyperlink ref="E170" r:id="rId72" xr:uid="{7FC9C8E6-7312-4CCE-996E-BBE18A6BBA37}"/>
+    <hyperlink ref="E171" r:id="rId73" xr:uid="{A3B6B3F2-D1A2-4B4D-9DF1-BB8FBD2AC74E}"/>
+    <hyperlink ref="E156" r:id="rId74" xr:uid="{EB35A134-34E9-49E6-ADF6-350F3A205D2D}"/>
+    <hyperlink ref="E160" r:id="rId75" xr:uid="{CB55790E-A13B-444A-8286-D3129F874D97}"/>
+    <hyperlink ref="E162" r:id="rId76" xr:uid="{A8353BE6-3E9E-40BE-A008-C194A7DD40AB}"/>
+    <hyperlink ref="E173" r:id="rId77" xr:uid="{F41D57C4-0208-4802-9E33-EB7FAC5DC42F}"/>
+    <hyperlink ref="E163" r:id="rId78" xr:uid="{A1656B3B-E843-4CFF-8457-A07FA703A871}"/>
+    <hyperlink ref="E172" r:id="rId79" xr:uid="{3BF37B87-3FCA-40E3-BAA1-26618A9AB59F}"/>
+    <hyperlink ref="E176" r:id="rId80" xr:uid="{0D273B19-2A25-4B47-BED7-1E9E42A3CC6A}"/>
+    <hyperlink ref="E175" r:id="rId81" xr:uid="{0A92071F-0FEE-40F1-AE4D-71CFAFA58AE6}"/>
+    <hyperlink ref="E178" r:id="rId82" xr:uid="{B0F7CFA9-14B3-4864-9997-B66A2327C2BE}"/>
+    <hyperlink ref="E174" r:id="rId83" xr:uid="{EF5AFCDF-E1C7-4660-8E58-CB6D5AA622CF}"/>
+    <hyperlink ref="E177" r:id="rId84" xr:uid="{1EAB560C-F888-4CFF-8D2A-3FE9E7C34344}"/>
+    <hyperlink ref="E159" r:id="rId85" xr:uid="{A465BD95-A7B8-4529-A08C-9775A484268F}"/>
+    <hyperlink ref="E59" r:id="rId86" xr:uid="{862616CF-DC50-4252-A2A5-6C2A8F0D492C}"/>
     <hyperlink ref="E2" r:id="rId87" xr:uid="{25368976-30AE-4ECC-9DB6-21DA8763251B}"/>
-    <hyperlink ref="E67" r:id="rId88" xr:uid="{81E68051-B3CA-4200-8958-B872A6170A2B}"/>
-    <hyperlink ref="E179" r:id="rId89" xr:uid="{7CF036D5-67DF-41BA-98A1-AEDBC49EB72B}"/>
-    <hyperlink ref="E180" r:id="rId90" xr:uid="{412F2EA4-2FB8-4051-885B-2F397F55D297}"/>
-    <hyperlink ref="E181" r:id="rId91" xr:uid="{12E3E6DB-3A38-482A-982A-445A23E5AFD8}"/>
-    <hyperlink ref="E182" r:id="rId92" xr:uid="{C8599419-DA6E-41D3-906B-3435D7A96A74}"/>
-    <hyperlink ref="E183" r:id="rId93" xr:uid="{502D6EEA-4D5E-4839-8A56-DEA8D357B77D}"/>
-    <hyperlink ref="E184" r:id="rId94" xr:uid="{824213CB-2ACD-4390-B1D4-D1A2A2A3835A}"/>
-    <hyperlink ref="E185" r:id="rId95" xr:uid="{40DDCF2D-C69A-405D-A087-C990A148A15C}"/>
-    <hyperlink ref="E186" r:id="rId96" xr:uid="{6E3A694F-0939-492C-8AB5-CF313A97A946}"/>
-    <hyperlink ref="E187" r:id="rId97" xr:uid="{F4F2B958-D3F8-4899-988A-67C1AB5205BC}"/>
-    <hyperlink ref="E188" r:id="rId98" xr:uid="{80782243-3334-4C34-BDB8-026447ECC239}"/>
-    <hyperlink ref="E189" r:id="rId99" xr:uid="{A452E1CF-7D32-41A6-9665-66B81DE27499}"/>
-    <hyperlink ref="E190" r:id="rId100" xr:uid="{6CEDFEB8-CB83-4F0D-B2AD-21BBDD9B0F4B}"/>
-    <hyperlink ref="E191" r:id="rId101" xr:uid="{702633F9-C26A-4C65-A831-34A29E588A8F}"/>
-    <hyperlink ref="E193" r:id="rId102" xr:uid="{B33D162E-45C9-4281-9FFF-577408A6EDB2}"/>
-    <hyperlink ref="E194" r:id="rId103" xr:uid="{DE19B830-C7D4-4D2A-8AB1-A5668A6E03FB}"/>
-    <hyperlink ref="E195" r:id="rId104" xr:uid="{7C93EE81-C318-452E-BBC1-DCFE023FAD3F}"/>
-    <hyperlink ref="E196" r:id="rId105" xr:uid="{6300310A-48DC-488D-A1FD-23E873045355}"/>
-    <hyperlink ref="E197" r:id="rId106" xr:uid="{CA699900-3D2B-4884-875C-E9D2E47BEE3C}"/>
-    <hyperlink ref="E198" r:id="rId107" xr:uid="{376D7A2E-7E4C-4360-BF85-5168C3C685D7}"/>
-    <hyperlink ref="E199" r:id="rId108" xr:uid="{AB9D8F8B-3898-4372-B0E9-A053F1265878}"/>
-    <hyperlink ref="E200" r:id="rId109" xr:uid="{F2BCF522-1846-4815-87FA-CD83C387BD9A}"/>
-    <hyperlink ref="E202" r:id="rId110" xr:uid="{F1164EA5-2F2A-4E6A-B2A2-1492B5482B98}"/>
-    <hyperlink ref="E203" r:id="rId111" xr:uid="{F02FBCD4-428A-427F-9C98-F3900F8C8FB3}"/>
-    <hyperlink ref="E204" r:id="rId112" xr:uid="{D6F29053-91E6-4208-95DF-36B129B829A4}"/>
-    <hyperlink ref="E205" r:id="rId113" xr:uid="{B4C4E458-D6F2-46B9-988B-9B7CCFE7CA77}"/>
-    <hyperlink ref="E206" r:id="rId114" xr:uid="{E42CF963-CB15-45AB-93C7-58361B5A229D}"/>
-    <hyperlink ref="E207" r:id="rId115" xr:uid="{AF0C32B5-13EE-496B-BF0D-1FEF312C7323}"/>
-    <hyperlink ref="E208" r:id="rId116" xr:uid="{1EF9D6B8-F3B5-479B-8CEC-77186651BB99}"/>
-    <hyperlink ref="E209" r:id="rId117" xr:uid="{DDA72F8C-C135-42EF-B570-5B03127B420C}"/>
-    <hyperlink ref="E211" r:id="rId118" xr:uid="{4B320933-3CF5-47A0-8182-AF344587D7E5}"/>
-    <hyperlink ref="E212" r:id="rId119" xr:uid="{A093705E-2126-42D4-9472-BA86B757AB65}"/>
-    <hyperlink ref="E213" r:id="rId120" xr:uid="{AABBA42E-B426-405E-A049-A6941FE8C16D}"/>
-    <hyperlink ref="E214" r:id="rId121" xr:uid="{69D673EE-4F12-4F9A-A362-65786557DF51}"/>
-    <hyperlink ref="E215" r:id="rId122" xr:uid="{8AB9C893-8492-41AC-BA5D-7C59601A96DD}"/>
-    <hyperlink ref="E216" r:id="rId123" xr:uid="{4BEEA27D-FCEC-4510-9F9E-0BFCEB23E308}"/>
-    <hyperlink ref="E217" r:id="rId124" xr:uid="{4CCEA639-4833-4B73-9FD7-7D39B76548F8}"/>
-    <hyperlink ref="E218" r:id="rId125" xr:uid="{ACE6DC43-9F33-4FB2-A2FD-00FED624C823}"/>
-    <hyperlink ref="E220" r:id="rId126" xr:uid="{E763B5EE-E263-44E0-A226-09B0A56576F2}"/>
-    <hyperlink ref="E221" r:id="rId127" xr:uid="{565AEB14-1F19-478B-876F-0AA877D27033}"/>
-    <hyperlink ref="E222" r:id="rId128" xr:uid="{2BADA365-742E-4AD1-B995-43869021841D}"/>
-    <hyperlink ref="E223" r:id="rId129" xr:uid="{9EB40FC5-018C-4159-BD5F-730B636D6745}"/>
-    <hyperlink ref="E224" r:id="rId130" xr:uid="{1FB4BD7B-6230-4535-8810-3490840640E6}"/>
-    <hyperlink ref="E225" r:id="rId131" xr:uid="{C01EB9DC-D91C-4C07-8726-0EAD7AA2B77F}"/>
-    <hyperlink ref="E226" r:id="rId132" xr:uid="{D13CA7CF-6E50-4B8D-8309-7A9F14C1A86E}"/>
-    <hyperlink ref="E227" r:id="rId133" xr:uid="{CB41DC05-F064-401E-893C-316DE1E40F2B}"/>
-    <hyperlink ref="E229" r:id="rId134" xr:uid="{144DD6F8-98C9-4EE1-B2A6-11C5E4FBAE67}"/>
-    <hyperlink ref="E230" r:id="rId135" xr:uid="{54956990-6A6E-4761-99AB-46DF32AE447F}"/>
-    <hyperlink ref="E231" r:id="rId136" xr:uid="{527BC068-330D-4352-927C-0EA644B38895}"/>
-    <hyperlink ref="E232" r:id="rId137" xr:uid="{398E4125-310B-4A8D-8F52-E0DCA1BE08D1}"/>
-    <hyperlink ref="E233" r:id="rId138" xr:uid="{1A499FAE-3035-4D01-AA13-5499B684B4F9}"/>
-    <hyperlink ref="E234" r:id="rId139" xr:uid="{CA280778-5C8B-4F76-8D76-B791F140BBE7}"/>
-    <hyperlink ref="E235" r:id="rId140" xr:uid="{341040F1-3B87-4F25-8AE2-080EB3EF314B}"/>
-    <hyperlink ref="E236" r:id="rId141" xr:uid="{CF540B81-AD77-459D-8132-B02BEDB98F1B}"/>
-    <hyperlink ref="E238" r:id="rId142" xr:uid="{0FD39196-B353-4546-9DBA-AD6D67DB4E47}"/>
-    <hyperlink ref="E239" r:id="rId143" xr:uid="{713ED13E-E73A-468D-B6B7-0E31941E1FFC}"/>
-    <hyperlink ref="E240" r:id="rId144" xr:uid="{6E27DEFF-6A1F-44DD-9AD8-CF0E868288AD}"/>
-    <hyperlink ref="E241" r:id="rId145" xr:uid="{BCC4F6D4-642E-4192-8499-BF59CDB47EBA}"/>
-    <hyperlink ref="E242" r:id="rId146" xr:uid="{CC8ADBF8-D4D4-48C6-9B61-F5318F4B06E6}"/>
-    <hyperlink ref="E243" r:id="rId147" xr:uid="{C8D9D1AD-41DA-4CF0-ACF1-88C1834FD125}"/>
-    <hyperlink ref="E244" r:id="rId148" xr:uid="{E7D62319-4140-45C3-9E90-8963C2A3090F}"/>
-    <hyperlink ref="E245" r:id="rId149" xr:uid="{D6A6D0ED-1383-44BA-A068-D7653539AAE4}"/>
-    <hyperlink ref="E247" r:id="rId150" xr:uid="{F0325C78-8C01-4C99-866E-4B745B83A3FF}"/>
-    <hyperlink ref="E248" r:id="rId151" xr:uid="{0BA2EB03-A645-49C2-BB67-6C4757565E82}"/>
-    <hyperlink ref="E249" r:id="rId152" xr:uid="{FDFA0613-F247-46D0-A88B-E6F6AE5E5A50}"/>
-    <hyperlink ref="E250" r:id="rId153" xr:uid="{057D666D-3772-4B27-B7ED-F4E0ABDE3AE4}"/>
-    <hyperlink ref="E251" r:id="rId154" xr:uid="{407BED3B-EF77-41A5-B8F7-E408E031242B}"/>
-    <hyperlink ref="E252" r:id="rId155" xr:uid="{73E3DE29-1EE5-4ECB-B5BC-37864B33F898}"/>
-    <hyperlink ref="E253" r:id="rId156" xr:uid="{24275325-8AE2-4899-8E48-D0717AC8CA7D}"/>
-    <hyperlink ref="E254" r:id="rId157" xr:uid="{6D928180-8AA1-4463-BBD2-97B261953C89}"/>
-    <hyperlink ref="E256" r:id="rId158" xr:uid="{678CFD0A-557C-4EE2-9ACE-9F5195ACA5A8}"/>
-    <hyperlink ref="E257" r:id="rId159" xr:uid="{D6AC0E13-2F87-48D1-A4D0-D9BAEB1E68E3}"/>
-    <hyperlink ref="E258" r:id="rId160" xr:uid="{5728F092-DAB2-476F-A11F-CC4CA7FE88BB}"/>
-    <hyperlink ref="E259" r:id="rId161" xr:uid="{451646C2-0BF4-4D56-9C47-57DAAEFDF034}"/>
+    <hyperlink ref="E68" r:id="rId88" xr:uid="{81E68051-B3CA-4200-8958-B872A6170A2B}"/>
+    <hyperlink ref="E180" r:id="rId89" xr:uid="{7CF036D5-67DF-41BA-98A1-AEDBC49EB72B}"/>
+    <hyperlink ref="E181" r:id="rId90" xr:uid="{412F2EA4-2FB8-4051-885B-2F397F55D297}"/>
+    <hyperlink ref="E182" r:id="rId91" xr:uid="{12E3E6DB-3A38-482A-982A-445A23E5AFD8}"/>
+    <hyperlink ref="E183" r:id="rId92" xr:uid="{C8599419-DA6E-41D3-906B-3435D7A96A74}"/>
+    <hyperlink ref="E184" r:id="rId93" xr:uid="{502D6EEA-4D5E-4839-8A56-DEA8D357B77D}"/>
+    <hyperlink ref="E185" r:id="rId94" xr:uid="{824213CB-2ACD-4390-B1D4-D1A2A2A3835A}"/>
+    <hyperlink ref="E186" r:id="rId95" xr:uid="{40DDCF2D-C69A-405D-A087-C990A148A15C}"/>
+    <hyperlink ref="E187" r:id="rId96" xr:uid="{6E3A694F-0939-492C-8AB5-CF313A97A946}"/>
+    <hyperlink ref="E188" r:id="rId97" xr:uid="{F4F2B958-D3F8-4899-988A-67C1AB5205BC}"/>
+    <hyperlink ref="E189" r:id="rId98" xr:uid="{80782243-3334-4C34-BDB8-026447ECC239}"/>
+    <hyperlink ref="E190" r:id="rId99" xr:uid="{A452E1CF-7D32-41A6-9665-66B81DE27499}"/>
+    <hyperlink ref="E191" r:id="rId100" xr:uid="{6CEDFEB8-CB83-4F0D-B2AD-21BBDD9B0F4B}"/>
+    <hyperlink ref="E192" r:id="rId101" xr:uid="{702633F9-C26A-4C65-A831-34A29E588A8F}"/>
+    <hyperlink ref="E194" r:id="rId102" xr:uid="{B33D162E-45C9-4281-9FFF-577408A6EDB2}"/>
+    <hyperlink ref="E195" r:id="rId103" xr:uid="{DE19B830-C7D4-4D2A-8AB1-A5668A6E03FB}"/>
+    <hyperlink ref="E196" r:id="rId104" xr:uid="{7C93EE81-C318-452E-BBC1-DCFE023FAD3F}"/>
+    <hyperlink ref="E197" r:id="rId105" xr:uid="{6300310A-48DC-488D-A1FD-23E873045355}"/>
+    <hyperlink ref="E198" r:id="rId106" xr:uid="{CA699900-3D2B-4884-875C-E9D2E47BEE3C}"/>
+    <hyperlink ref="E199" r:id="rId107" xr:uid="{376D7A2E-7E4C-4360-BF85-5168C3C685D7}"/>
+    <hyperlink ref="E200" r:id="rId108" xr:uid="{AB9D8F8B-3898-4372-B0E9-A053F1265878}"/>
+    <hyperlink ref="E201" r:id="rId109" xr:uid="{F2BCF522-1846-4815-87FA-CD83C387BD9A}"/>
+    <hyperlink ref="E203" r:id="rId110" xr:uid="{F1164EA5-2F2A-4E6A-B2A2-1492B5482B98}"/>
+    <hyperlink ref="E204" r:id="rId111" xr:uid="{F02FBCD4-428A-427F-9C98-F3900F8C8FB3}"/>
+    <hyperlink ref="E205" r:id="rId112" xr:uid="{D6F29053-91E6-4208-95DF-36B129B829A4}"/>
+    <hyperlink ref="E206" r:id="rId113" xr:uid="{B4C4E458-D6F2-46B9-988B-9B7CCFE7CA77}"/>
+    <hyperlink ref="E207" r:id="rId114" xr:uid="{E42CF963-CB15-45AB-93C7-58361B5A229D}"/>
+    <hyperlink ref="E208" r:id="rId115" xr:uid="{AF0C32B5-13EE-496B-BF0D-1FEF312C7323}"/>
+    <hyperlink ref="E209" r:id="rId116" xr:uid="{1EF9D6B8-F3B5-479B-8CEC-77186651BB99}"/>
+    <hyperlink ref="E210" r:id="rId117" xr:uid="{DDA72F8C-C135-42EF-B570-5B03127B420C}"/>
+    <hyperlink ref="E212" r:id="rId118" xr:uid="{4B320933-3CF5-47A0-8182-AF344587D7E5}"/>
+    <hyperlink ref="E213" r:id="rId119" xr:uid="{A093705E-2126-42D4-9472-BA86B757AB65}"/>
+    <hyperlink ref="E214" r:id="rId120" xr:uid="{AABBA42E-B426-405E-A049-A6941FE8C16D}"/>
+    <hyperlink ref="E215" r:id="rId121" xr:uid="{69D673EE-4F12-4F9A-A362-65786557DF51}"/>
+    <hyperlink ref="E216" r:id="rId122" xr:uid="{8AB9C893-8492-41AC-BA5D-7C59601A96DD}"/>
+    <hyperlink ref="E217" r:id="rId123" xr:uid="{4BEEA27D-FCEC-4510-9F9E-0BFCEB23E308}"/>
+    <hyperlink ref="E218" r:id="rId124" xr:uid="{4CCEA639-4833-4B73-9FD7-7D39B76548F8}"/>
+    <hyperlink ref="E219" r:id="rId125" xr:uid="{ACE6DC43-9F33-4FB2-A2FD-00FED624C823}"/>
+    <hyperlink ref="E221" r:id="rId126" xr:uid="{E763B5EE-E263-44E0-A226-09B0A56576F2}"/>
+    <hyperlink ref="E222" r:id="rId127" xr:uid="{565AEB14-1F19-478B-876F-0AA877D27033}"/>
+    <hyperlink ref="E223" r:id="rId128" xr:uid="{2BADA365-742E-4AD1-B995-43869021841D}"/>
+    <hyperlink ref="E224" r:id="rId129" xr:uid="{9EB40FC5-018C-4159-BD5F-730B636D6745}"/>
+    <hyperlink ref="E225" r:id="rId130" xr:uid="{1FB4BD7B-6230-4535-8810-3490840640E6}"/>
+    <hyperlink ref="E226" r:id="rId131" xr:uid="{C01EB9DC-D91C-4C07-8726-0EAD7AA2B77F}"/>
+    <hyperlink ref="E227" r:id="rId132" xr:uid="{D13CA7CF-6E50-4B8D-8309-7A9F14C1A86E}"/>
+    <hyperlink ref="E228" r:id="rId133" xr:uid="{CB41DC05-F064-401E-893C-316DE1E40F2B}"/>
+    <hyperlink ref="E230" r:id="rId134" xr:uid="{144DD6F8-98C9-4EE1-B2A6-11C5E4FBAE67}"/>
+    <hyperlink ref="E231" r:id="rId135" xr:uid="{54956990-6A6E-4761-99AB-46DF32AE447F}"/>
+    <hyperlink ref="E232" r:id="rId136" xr:uid="{527BC068-330D-4352-927C-0EA644B38895}"/>
+    <hyperlink ref="E233" r:id="rId137" xr:uid="{398E4125-310B-4A8D-8F52-E0DCA1BE08D1}"/>
+    <hyperlink ref="E234" r:id="rId138" xr:uid="{1A499FAE-3035-4D01-AA13-5499B684B4F9}"/>
+    <hyperlink ref="E235" r:id="rId139" xr:uid="{CA280778-5C8B-4F76-8D76-B791F140BBE7}"/>
+    <hyperlink ref="E236" r:id="rId140" xr:uid="{341040F1-3B87-4F25-8AE2-080EB3EF314B}"/>
+    <hyperlink ref="E237" r:id="rId141" xr:uid="{CF540B81-AD77-459D-8132-B02BEDB98F1B}"/>
+    <hyperlink ref="E239" r:id="rId142" xr:uid="{0FD39196-B353-4546-9DBA-AD6D67DB4E47}"/>
+    <hyperlink ref="E240" r:id="rId143" xr:uid="{713ED13E-E73A-468D-B6B7-0E31941E1FFC}"/>
+    <hyperlink ref="E241" r:id="rId144" xr:uid="{6E27DEFF-6A1F-44DD-9AD8-CF0E868288AD}"/>
+    <hyperlink ref="E242" r:id="rId145" xr:uid="{BCC4F6D4-642E-4192-8499-BF59CDB47EBA}"/>
+    <hyperlink ref="E243" r:id="rId146" xr:uid="{CC8ADBF8-D4D4-48C6-9B61-F5318F4B06E6}"/>
+    <hyperlink ref="E244" r:id="rId147" xr:uid="{C8D9D1AD-41DA-4CF0-ACF1-88C1834FD125}"/>
+    <hyperlink ref="E245" r:id="rId148" xr:uid="{E7D62319-4140-45C3-9E90-8963C2A3090F}"/>
+    <hyperlink ref="E246" r:id="rId149" xr:uid="{D6A6D0ED-1383-44BA-A068-D7653539AAE4}"/>
+    <hyperlink ref="E248" r:id="rId150" xr:uid="{F0325C78-8C01-4C99-866E-4B745B83A3FF}"/>
+    <hyperlink ref="E249" r:id="rId151" xr:uid="{0BA2EB03-A645-49C2-BB67-6C4757565E82}"/>
+    <hyperlink ref="E250" r:id="rId152" xr:uid="{FDFA0613-F247-46D0-A88B-E6F6AE5E5A50}"/>
+    <hyperlink ref="E251" r:id="rId153" xr:uid="{057D666D-3772-4B27-B7ED-F4E0ABDE3AE4}"/>
+    <hyperlink ref="E252" r:id="rId154" xr:uid="{407BED3B-EF77-41A5-B8F7-E408E031242B}"/>
+    <hyperlink ref="E253" r:id="rId155" xr:uid="{73E3DE29-1EE5-4ECB-B5BC-37864B33F898}"/>
+    <hyperlink ref="E254" r:id="rId156" xr:uid="{24275325-8AE2-4899-8E48-D0717AC8CA7D}"/>
+    <hyperlink ref="E255" r:id="rId157" xr:uid="{6D928180-8AA1-4463-BBD2-97B261953C89}"/>
+    <hyperlink ref="E257" r:id="rId158" xr:uid="{678CFD0A-557C-4EE2-9ACE-9F5195ACA5A8}"/>
+    <hyperlink ref="E258" r:id="rId159" xr:uid="{D6AC0E13-2F87-48D1-A4D0-D9BAEB1E68E3}"/>
+    <hyperlink ref="E259" r:id="rId160" xr:uid="{5728F092-DAB2-476F-A11F-CC4CA7FE88BB}"/>
+    <hyperlink ref="E260" r:id="rId161" xr:uid="{451646C2-0BF4-4D56-9C47-57DAAEFDF034}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Gallery.xlsx
+++ b/Gallery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelaziz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2C3780-4341-4951-82C4-394E54805C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA8822D-0597-40E7-9450-4552445387A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2399,17 +2399,17 @@
   <dimension ref="A1:G265"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+      <selection pane="bottomLeft" sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.09765625" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="84" style="3" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="7.3984375" style="25" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.09765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="84" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.3984375" style="25" customWidth="1"/>
     <col min="5" max="5" width="68.5" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.69921875" style="3" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="51.69921875" bestFit="1" customWidth="1"/>
@@ -3649,7 +3649,7 @@
         <v>3500</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F54" t="s">
         <v>192</v>
@@ -3672,7 +3672,7 @@
         <v>600</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F55" t="s">
         <v>195</v>
@@ -3695,7 +3695,7 @@
         <v>950</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F56" t="s">
         <v>195</v>
@@ -8395,163 +8395,160 @@
     <hyperlink ref="E115" r:id="rId2" xr:uid="{6726A824-7DA1-46E0-938D-014A614B469E}"/>
     <hyperlink ref="E25" r:id="rId3" xr:uid="{8B045AB2-98E7-4B80-8440-1BC6109DF8D1}"/>
     <hyperlink ref="E26" r:id="rId4" xr:uid="{80B105DB-AAB8-4716-B55E-6704D3B1CE40}"/>
-    <hyperlink ref="E55" r:id="rId5" xr:uid="{FC7329FC-C4AB-48D7-B5F2-C67C236526A5}"/>
-    <hyperlink ref="E56" r:id="rId6" xr:uid="{35B927A0-5949-49D7-AC6E-B2087963DCE2}"/>
-    <hyperlink ref="E57" r:id="rId7" xr:uid="{92F62862-EBEF-4F01-8982-72DEF3734EFE}"/>
-    <hyperlink ref="E58" r:id="rId8" xr:uid="{12A1D307-EAE2-4294-A9D0-D05B06EF6F9A}"/>
-    <hyperlink ref="E54" r:id="rId9" xr:uid="{20C46166-09ED-4B21-94DE-09AA33FFE605}"/>
-    <hyperlink ref="E52" r:id="rId10" xr:uid="{5821F9F8-6D80-45F7-8440-019815DE6617}"/>
-    <hyperlink ref="E65" r:id="rId11" xr:uid="{D5AFE94F-76E2-4E72-A898-7F221FC0E8EE}"/>
-    <hyperlink ref="E61" r:id="rId12" xr:uid="{703245C9-5400-4323-929E-2480E26FAA8C}"/>
-    <hyperlink ref="E64" r:id="rId13" xr:uid="{714D482C-0FE5-4D9B-89C6-AA6B5DAB7E47}"/>
-    <hyperlink ref="E60" r:id="rId14" xr:uid="{E26078F6-F3E7-42BE-B257-997AB2AF08D6}"/>
-    <hyperlink ref="E66" r:id="rId15" xr:uid="{B37AABDE-11C3-4C60-9FE2-1EC22E67E1E8}"/>
-    <hyperlink ref="E75" r:id="rId16" xr:uid="{3270A205-3519-4B20-A987-3F3E35F6A2B7}"/>
-    <hyperlink ref="E77" r:id="rId17" xr:uid="{B7720EC8-F07C-44F2-A880-C3F9ABA32234}"/>
-    <hyperlink ref="E80" r:id="rId18" xr:uid="{D2EBB525-D5A6-4839-B850-4DAACEA97E8F}"/>
-    <hyperlink ref="E81" r:id="rId19" xr:uid="{CC244AAC-C80F-49E6-86C4-0DB77AE026AF}"/>
-    <hyperlink ref="E82" r:id="rId20" xr:uid="{F4536664-D2DC-40CB-8E8B-D7CF57FF552F}"/>
-    <hyperlink ref="E84" r:id="rId21" xr:uid="{2200D4DF-D7B1-4527-9E66-91C84531E8B6}"/>
-    <hyperlink ref="E87" r:id="rId22" xr:uid="{B3A357D8-6D83-493E-A741-1FAF66898F28}"/>
-    <hyperlink ref="E89" r:id="rId23" xr:uid="{3A69940E-9343-4112-9D56-B3FD68CA9AD4}"/>
-    <hyperlink ref="E92" r:id="rId24" xr:uid="{B0D3C429-1E94-4071-A35F-49646D7ACC95}"/>
-    <hyperlink ref="E90" r:id="rId25" xr:uid="{7B0ED102-5F61-4783-87FF-7960D2B8A018}"/>
-    <hyperlink ref="E91" r:id="rId26" xr:uid="{60F38D09-6BEC-4F9F-8967-7E5576E44916}"/>
-    <hyperlink ref="E96" r:id="rId27" xr:uid="{BEFA96DE-134D-4FDD-AFA9-941318AC25AC}"/>
-    <hyperlink ref="E97" r:id="rId28" xr:uid="{E45A2EF0-3976-4886-A33A-8EDF3F24DB28}"/>
-    <hyperlink ref="E98" r:id="rId29" xr:uid="{47C32F15-E095-48BF-8AC0-1DBD544DD6E8}"/>
-    <hyperlink ref="E101" r:id="rId30" xr:uid="{674B3592-1BDE-41BA-9EB9-800AF2272003}"/>
-    <hyperlink ref="E102" r:id="rId31" xr:uid="{6FD5C013-8BBD-41F4-9782-1DA65D85CD5A}"/>
-    <hyperlink ref="E103" r:id="rId32" xr:uid="{6017F4F0-F9CA-4750-958D-E7C912018777}"/>
-    <hyperlink ref="E106" r:id="rId33" xr:uid="{EF685BEA-18C4-4E8C-917B-EACD39ABA2E6}"/>
-    <hyperlink ref="E107" r:id="rId34" xr:uid="{181CB626-A3F2-438B-9CF2-0C0BCDE6F60C}"/>
-    <hyperlink ref="E108" r:id="rId35" xr:uid="{2A00C0EC-8F41-4ABB-9C79-1D946856565D}"/>
-    <hyperlink ref="E113" r:id="rId36" xr:uid="{3146DD88-73E7-436D-85FB-72D70EE4E854}"/>
-    <hyperlink ref="E114" r:id="rId37" xr:uid="{FFB62559-6F14-4F53-9A4D-0A4CAD2B1775}"/>
-    <hyperlink ref="E131" r:id="rId38" xr:uid="{F72838D9-18C1-4FF5-B725-A8AC73485B25}"/>
-    <hyperlink ref="E132" r:id="rId39" xr:uid="{4169F08E-03D6-45BF-8F64-3D02ED3BB6B2}"/>
-    <hyperlink ref="E136" r:id="rId40" xr:uid="{F95984CE-0315-4D79-878E-C01F982D7B86}"/>
-    <hyperlink ref="E134" r:id="rId41" xr:uid="{71C55BC7-D105-4979-BC1D-223D20E7D7CF}"/>
-    <hyperlink ref="E135" r:id="rId42" xr:uid="{FFB1C659-1F13-4D95-8E39-8A35B11BD7C7}"/>
-    <hyperlink ref="E137" r:id="rId43" xr:uid="{5E593A99-0C56-4223-96F2-96937B1032AE}"/>
-    <hyperlink ref="E138" r:id="rId44" xr:uid="{3C723C9F-4921-412B-8472-8CB79FBC0D5B}"/>
-    <hyperlink ref="E140" r:id="rId45" xr:uid="{95707C9D-6A21-4F29-AC8B-DDD3D57DDA91}"/>
-    <hyperlink ref="E145" r:id="rId46" xr:uid="{FA9B4B34-C2DC-4360-A01A-62DB7EB9334C}"/>
-    <hyperlink ref="E141" r:id="rId47" xr:uid="{102FEEE2-8A65-4963-AA4D-42AA66AF8A75}"/>
-    <hyperlink ref="E142" r:id="rId48" xr:uid="{ABD4FF97-C356-46C4-A3FD-8BF5990EC247}"/>
-    <hyperlink ref="E147" r:id="rId49" xr:uid="{D37BDCA5-AEC9-400D-801B-807F7FABBCEB}"/>
-    <hyperlink ref="E149" r:id="rId50" xr:uid="{E106FEF3-2A29-42A9-A98A-4B58F38E79A7}"/>
-    <hyperlink ref="E148" r:id="rId51" xr:uid="{842D0B44-EBE8-48F8-BF27-FA7170C4D3B5}"/>
-    <hyperlink ref="E146" r:id="rId52" xr:uid="{6CBB96B0-6538-4E61-85FD-D60FB95A40EF}"/>
-    <hyperlink ref="E143" r:id="rId53" xr:uid="{592B83CC-6C24-4C9A-AAB1-D25A97E2220D}"/>
-    <hyperlink ref="E139" r:id="rId54" xr:uid="{E96C3DF6-B0BA-4DD2-8401-6FE8FF78E1D8}"/>
-    <hyperlink ref="E144" r:id="rId55" xr:uid="{4DA3BC06-0E1A-4D26-A8ED-2303829FD5FB}"/>
-    <hyperlink ref="E150" r:id="rId56" xr:uid="{B5089AAC-5D5B-4354-8E4B-ACCEB292FE46}"/>
-    <hyperlink ref="E179" r:id="rId57" xr:uid="{2DC37099-0C06-406F-8A78-C69FFEA5DBB9}"/>
-    <hyperlink ref="E165" r:id="rId58" xr:uid="{1406B533-E76F-4E34-AEBE-CF214A7A4389}"/>
-    <hyperlink ref="E152" r:id="rId59" xr:uid="{38FD6989-1C7D-4B42-9239-25D8B69639B0}"/>
-    <hyperlink ref="E151" r:id="rId60" xr:uid="{356DB9E0-B914-453A-A186-895A0FB1E70D}"/>
-    <hyperlink ref="E153" r:id="rId61" xr:uid="{B5141D0C-A203-4800-98D1-A002F3131144}"/>
-    <hyperlink ref="E154" r:id="rId62" xr:uid="{D8BC583F-75DE-48E8-84D8-313520EDD275}"/>
-    <hyperlink ref="E164" r:id="rId63" xr:uid="{F22A5A62-CFCB-4E14-8ADE-F666F077FE8F}"/>
-    <hyperlink ref="E155" r:id="rId64" xr:uid="{E5A8AD74-B362-4370-9CB6-127E4FDDA652}"/>
-    <hyperlink ref="E166" r:id="rId65" xr:uid="{344A5451-1D20-4D86-B2FD-DCCBF038B68E}"/>
-    <hyperlink ref="E161" r:id="rId66" xr:uid="{0117161A-5B79-4300-A098-CCFEA61A2974}"/>
-    <hyperlink ref="E167" r:id="rId67" xr:uid="{4684B8AB-4658-45A8-8378-1FF9C9D07A91}"/>
-    <hyperlink ref="E158" r:id="rId68" xr:uid="{AB1B2CED-AE5B-4A30-9E89-BDFB6A04A5B1}"/>
-    <hyperlink ref="E169" r:id="rId69" xr:uid="{0A8E772D-D766-41DF-A561-C4B167E6CD7F}"/>
-    <hyperlink ref="E157" r:id="rId70" xr:uid="{747296A4-4012-4539-8979-FB5308AEB6A8}"/>
-    <hyperlink ref="E168" r:id="rId71" xr:uid="{07A5DA01-AA25-4321-8DEB-90F00A3DB313}"/>
-    <hyperlink ref="E170" r:id="rId72" xr:uid="{7FC9C8E6-7312-4CCE-996E-BBE18A6BBA37}"/>
-    <hyperlink ref="E171" r:id="rId73" xr:uid="{A3B6B3F2-D1A2-4B4D-9DF1-BB8FBD2AC74E}"/>
-    <hyperlink ref="E156" r:id="rId74" xr:uid="{EB35A134-34E9-49E6-ADF6-350F3A205D2D}"/>
-    <hyperlink ref="E160" r:id="rId75" xr:uid="{CB55790E-A13B-444A-8286-D3129F874D97}"/>
-    <hyperlink ref="E162" r:id="rId76" xr:uid="{A8353BE6-3E9E-40BE-A008-C194A7DD40AB}"/>
-    <hyperlink ref="E173" r:id="rId77" xr:uid="{F41D57C4-0208-4802-9E33-EB7FAC5DC42F}"/>
-    <hyperlink ref="E163" r:id="rId78" xr:uid="{A1656B3B-E843-4CFF-8457-A07FA703A871}"/>
-    <hyperlink ref="E172" r:id="rId79" xr:uid="{3BF37B87-3FCA-40E3-BAA1-26618A9AB59F}"/>
-    <hyperlink ref="E176" r:id="rId80" xr:uid="{0D273B19-2A25-4B47-BED7-1E9E42A3CC6A}"/>
-    <hyperlink ref="E175" r:id="rId81" xr:uid="{0A92071F-0FEE-40F1-AE4D-71CFAFA58AE6}"/>
-    <hyperlink ref="E178" r:id="rId82" xr:uid="{B0F7CFA9-14B3-4864-9997-B66A2327C2BE}"/>
-    <hyperlink ref="E174" r:id="rId83" xr:uid="{EF5AFCDF-E1C7-4660-8E58-CB6D5AA622CF}"/>
-    <hyperlink ref="E177" r:id="rId84" xr:uid="{1EAB560C-F888-4CFF-8D2A-3FE9E7C34344}"/>
-    <hyperlink ref="E159" r:id="rId85" xr:uid="{A465BD95-A7B8-4529-A08C-9775A484268F}"/>
-    <hyperlink ref="E59" r:id="rId86" xr:uid="{862616CF-DC50-4252-A2A5-6C2A8F0D492C}"/>
-    <hyperlink ref="E2" r:id="rId87" xr:uid="{25368976-30AE-4ECC-9DB6-21DA8763251B}"/>
-    <hyperlink ref="E68" r:id="rId88" xr:uid="{81E68051-B3CA-4200-8958-B872A6170A2B}"/>
-    <hyperlink ref="E180" r:id="rId89" xr:uid="{7CF036D5-67DF-41BA-98A1-AEDBC49EB72B}"/>
-    <hyperlink ref="E181" r:id="rId90" xr:uid="{412F2EA4-2FB8-4051-885B-2F397F55D297}"/>
-    <hyperlink ref="E182" r:id="rId91" xr:uid="{12E3E6DB-3A38-482A-982A-445A23E5AFD8}"/>
-    <hyperlink ref="E183" r:id="rId92" xr:uid="{C8599419-DA6E-41D3-906B-3435D7A96A74}"/>
-    <hyperlink ref="E184" r:id="rId93" xr:uid="{502D6EEA-4D5E-4839-8A56-DEA8D357B77D}"/>
-    <hyperlink ref="E185" r:id="rId94" xr:uid="{824213CB-2ACD-4390-B1D4-D1A2A2A3835A}"/>
-    <hyperlink ref="E186" r:id="rId95" xr:uid="{40DDCF2D-C69A-405D-A087-C990A148A15C}"/>
-    <hyperlink ref="E187" r:id="rId96" xr:uid="{6E3A694F-0939-492C-8AB5-CF313A97A946}"/>
-    <hyperlink ref="E188" r:id="rId97" xr:uid="{F4F2B958-D3F8-4899-988A-67C1AB5205BC}"/>
-    <hyperlink ref="E189" r:id="rId98" xr:uid="{80782243-3334-4C34-BDB8-026447ECC239}"/>
-    <hyperlink ref="E190" r:id="rId99" xr:uid="{A452E1CF-7D32-41A6-9665-66B81DE27499}"/>
-    <hyperlink ref="E191" r:id="rId100" xr:uid="{6CEDFEB8-CB83-4F0D-B2AD-21BBDD9B0F4B}"/>
-    <hyperlink ref="E192" r:id="rId101" xr:uid="{702633F9-C26A-4C65-A831-34A29E588A8F}"/>
-    <hyperlink ref="E194" r:id="rId102" xr:uid="{B33D162E-45C9-4281-9FFF-577408A6EDB2}"/>
-    <hyperlink ref="E195" r:id="rId103" xr:uid="{DE19B830-C7D4-4D2A-8AB1-A5668A6E03FB}"/>
-    <hyperlink ref="E196" r:id="rId104" xr:uid="{7C93EE81-C318-452E-BBC1-DCFE023FAD3F}"/>
-    <hyperlink ref="E197" r:id="rId105" xr:uid="{6300310A-48DC-488D-A1FD-23E873045355}"/>
-    <hyperlink ref="E198" r:id="rId106" xr:uid="{CA699900-3D2B-4884-875C-E9D2E47BEE3C}"/>
-    <hyperlink ref="E199" r:id="rId107" xr:uid="{376D7A2E-7E4C-4360-BF85-5168C3C685D7}"/>
-    <hyperlink ref="E200" r:id="rId108" xr:uid="{AB9D8F8B-3898-4372-B0E9-A053F1265878}"/>
-    <hyperlink ref="E201" r:id="rId109" xr:uid="{F2BCF522-1846-4815-87FA-CD83C387BD9A}"/>
-    <hyperlink ref="E203" r:id="rId110" xr:uid="{F1164EA5-2F2A-4E6A-B2A2-1492B5482B98}"/>
-    <hyperlink ref="E204" r:id="rId111" xr:uid="{F02FBCD4-428A-427F-9C98-F3900F8C8FB3}"/>
-    <hyperlink ref="E205" r:id="rId112" xr:uid="{D6F29053-91E6-4208-95DF-36B129B829A4}"/>
-    <hyperlink ref="E206" r:id="rId113" xr:uid="{B4C4E458-D6F2-46B9-988B-9B7CCFE7CA77}"/>
-    <hyperlink ref="E207" r:id="rId114" xr:uid="{E42CF963-CB15-45AB-93C7-58361B5A229D}"/>
-    <hyperlink ref="E208" r:id="rId115" xr:uid="{AF0C32B5-13EE-496B-BF0D-1FEF312C7323}"/>
-    <hyperlink ref="E209" r:id="rId116" xr:uid="{1EF9D6B8-F3B5-479B-8CEC-77186651BB99}"/>
-    <hyperlink ref="E210" r:id="rId117" xr:uid="{DDA72F8C-C135-42EF-B570-5B03127B420C}"/>
-    <hyperlink ref="E212" r:id="rId118" xr:uid="{4B320933-3CF5-47A0-8182-AF344587D7E5}"/>
-    <hyperlink ref="E213" r:id="rId119" xr:uid="{A093705E-2126-42D4-9472-BA86B757AB65}"/>
-    <hyperlink ref="E214" r:id="rId120" xr:uid="{AABBA42E-B426-405E-A049-A6941FE8C16D}"/>
-    <hyperlink ref="E215" r:id="rId121" xr:uid="{69D673EE-4F12-4F9A-A362-65786557DF51}"/>
-    <hyperlink ref="E216" r:id="rId122" xr:uid="{8AB9C893-8492-41AC-BA5D-7C59601A96DD}"/>
-    <hyperlink ref="E217" r:id="rId123" xr:uid="{4BEEA27D-FCEC-4510-9F9E-0BFCEB23E308}"/>
-    <hyperlink ref="E218" r:id="rId124" xr:uid="{4CCEA639-4833-4B73-9FD7-7D39B76548F8}"/>
-    <hyperlink ref="E219" r:id="rId125" xr:uid="{ACE6DC43-9F33-4FB2-A2FD-00FED624C823}"/>
-    <hyperlink ref="E221" r:id="rId126" xr:uid="{E763B5EE-E263-44E0-A226-09B0A56576F2}"/>
-    <hyperlink ref="E222" r:id="rId127" xr:uid="{565AEB14-1F19-478B-876F-0AA877D27033}"/>
-    <hyperlink ref="E223" r:id="rId128" xr:uid="{2BADA365-742E-4AD1-B995-43869021841D}"/>
-    <hyperlink ref="E224" r:id="rId129" xr:uid="{9EB40FC5-018C-4159-BD5F-730B636D6745}"/>
-    <hyperlink ref="E225" r:id="rId130" xr:uid="{1FB4BD7B-6230-4535-8810-3490840640E6}"/>
-    <hyperlink ref="E226" r:id="rId131" xr:uid="{C01EB9DC-D91C-4C07-8726-0EAD7AA2B77F}"/>
-    <hyperlink ref="E227" r:id="rId132" xr:uid="{D13CA7CF-6E50-4B8D-8309-7A9F14C1A86E}"/>
-    <hyperlink ref="E228" r:id="rId133" xr:uid="{CB41DC05-F064-401E-893C-316DE1E40F2B}"/>
-    <hyperlink ref="E230" r:id="rId134" xr:uid="{144DD6F8-98C9-4EE1-B2A6-11C5E4FBAE67}"/>
-    <hyperlink ref="E231" r:id="rId135" xr:uid="{54956990-6A6E-4761-99AB-46DF32AE447F}"/>
-    <hyperlink ref="E232" r:id="rId136" xr:uid="{527BC068-330D-4352-927C-0EA644B38895}"/>
-    <hyperlink ref="E233" r:id="rId137" xr:uid="{398E4125-310B-4A8D-8F52-E0DCA1BE08D1}"/>
-    <hyperlink ref="E234" r:id="rId138" xr:uid="{1A499FAE-3035-4D01-AA13-5499B684B4F9}"/>
-    <hyperlink ref="E235" r:id="rId139" xr:uid="{CA280778-5C8B-4F76-8D76-B791F140BBE7}"/>
-    <hyperlink ref="E236" r:id="rId140" xr:uid="{341040F1-3B87-4F25-8AE2-080EB3EF314B}"/>
-    <hyperlink ref="E237" r:id="rId141" xr:uid="{CF540B81-AD77-459D-8132-B02BEDB98F1B}"/>
-    <hyperlink ref="E239" r:id="rId142" xr:uid="{0FD39196-B353-4546-9DBA-AD6D67DB4E47}"/>
-    <hyperlink ref="E240" r:id="rId143" xr:uid="{713ED13E-E73A-468D-B6B7-0E31941E1FFC}"/>
-    <hyperlink ref="E241" r:id="rId144" xr:uid="{6E27DEFF-6A1F-44DD-9AD8-CF0E868288AD}"/>
-    <hyperlink ref="E242" r:id="rId145" xr:uid="{BCC4F6D4-642E-4192-8499-BF59CDB47EBA}"/>
-    <hyperlink ref="E243" r:id="rId146" xr:uid="{CC8ADBF8-D4D4-48C6-9B61-F5318F4B06E6}"/>
-    <hyperlink ref="E244" r:id="rId147" xr:uid="{C8D9D1AD-41DA-4CF0-ACF1-88C1834FD125}"/>
-    <hyperlink ref="E245" r:id="rId148" xr:uid="{E7D62319-4140-45C3-9E90-8963C2A3090F}"/>
-    <hyperlink ref="E246" r:id="rId149" xr:uid="{D6A6D0ED-1383-44BA-A068-D7653539AAE4}"/>
-    <hyperlink ref="E248" r:id="rId150" xr:uid="{F0325C78-8C01-4C99-866E-4B745B83A3FF}"/>
-    <hyperlink ref="E249" r:id="rId151" xr:uid="{0BA2EB03-A645-49C2-BB67-6C4757565E82}"/>
-    <hyperlink ref="E250" r:id="rId152" xr:uid="{FDFA0613-F247-46D0-A88B-E6F6AE5E5A50}"/>
-    <hyperlink ref="E251" r:id="rId153" xr:uid="{057D666D-3772-4B27-B7ED-F4E0ABDE3AE4}"/>
-    <hyperlink ref="E252" r:id="rId154" xr:uid="{407BED3B-EF77-41A5-B8F7-E408E031242B}"/>
-    <hyperlink ref="E253" r:id="rId155" xr:uid="{73E3DE29-1EE5-4ECB-B5BC-37864B33F898}"/>
-    <hyperlink ref="E254" r:id="rId156" xr:uid="{24275325-8AE2-4899-8E48-D0717AC8CA7D}"/>
-    <hyperlink ref="E255" r:id="rId157" xr:uid="{6D928180-8AA1-4463-BBD2-97B261953C89}"/>
-    <hyperlink ref="E257" r:id="rId158" xr:uid="{678CFD0A-557C-4EE2-9ACE-9F5195ACA5A8}"/>
-    <hyperlink ref="E258" r:id="rId159" xr:uid="{D6AC0E13-2F87-48D1-A4D0-D9BAEB1E68E3}"/>
-    <hyperlink ref="E259" r:id="rId160" xr:uid="{5728F092-DAB2-476F-A11F-CC4CA7FE88BB}"/>
-    <hyperlink ref="E260" r:id="rId161" xr:uid="{451646C2-0BF4-4D56-9C47-57DAAEFDF034}"/>
+    <hyperlink ref="E57" r:id="rId5" xr:uid="{92F62862-EBEF-4F01-8982-72DEF3734EFE}"/>
+    <hyperlink ref="E58" r:id="rId6" xr:uid="{12A1D307-EAE2-4294-A9D0-D05B06EF6F9A}"/>
+    <hyperlink ref="E52" r:id="rId7" xr:uid="{5821F9F8-6D80-45F7-8440-019815DE6617}"/>
+    <hyperlink ref="E65" r:id="rId8" xr:uid="{D5AFE94F-76E2-4E72-A898-7F221FC0E8EE}"/>
+    <hyperlink ref="E61" r:id="rId9" xr:uid="{703245C9-5400-4323-929E-2480E26FAA8C}"/>
+    <hyperlink ref="E64" r:id="rId10" xr:uid="{714D482C-0FE5-4D9B-89C6-AA6B5DAB7E47}"/>
+    <hyperlink ref="E60" r:id="rId11" xr:uid="{E26078F6-F3E7-42BE-B257-997AB2AF08D6}"/>
+    <hyperlink ref="E66" r:id="rId12" xr:uid="{B37AABDE-11C3-4C60-9FE2-1EC22E67E1E8}"/>
+    <hyperlink ref="E75" r:id="rId13" xr:uid="{3270A205-3519-4B20-A987-3F3E35F6A2B7}"/>
+    <hyperlink ref="E77" r:id="rId14" xr:uid="{B7720EC8-F07C-44F2-A880-C3F9ABA32234}"/>
+    <hyperlink ref="E80" r:id="rId15" xr:uid="{D2EBB525-D5A6-4839-B850-4DAACEA97E8F}"/>
+    <hyperlink ref="E81" r:id="rId16" xr:uid="{CC244AAC-C80F-49E6-86C4-0DB77AE026AF}"/>
+    <hyperlink ref="E82" r:id="rId17" xr:uid="{F4536664-D2DC-40CB-8E8B-D7CF57FF552F}"/>
+    <hyperlink ref="E84" r:id="rId18" xr:uid="{2200D4DF-D7B1-4527-9E66-91C84531E8B6}"/>
+    <hyperlink ref="E87" r:id="rId19" xr:uid="{B3A357D8-6D83-493E-A741-1FAF66898F28}"/>
+    <hyperlink ref="E89" r:id="rId20" xr:uid="{3A69940E-9343-4112-9D56-B3FD68CA9AD4}"/>
+    <hyperlink ref="E92" r:id="rId21" xr:uid="{B0D3C429-1E94-4071-A35F-49646D7ACC95}"/>
+    <hyperlink ref="E90" r:id="rId22" xr:uid="{7B0ED102-5F61-4783-87FF-7960D2B8A018}"/>
+    <hyperlink ref="E91" r:id="rId23" xr:uid="{60F38D09-6BEC-4F9F-8967-7E5576E44916}"/>
+    <hyperlink ref="E96" r:id="rId24" xr:uid="{BEFA96DE-134D-4FDD-AFA9-941318AC25AC}"/>
+    <hyperlink ref="E97" r:id="rId25" xr:uid="{E45A2EF0-3976-4886-A33A-8EDF3F24DB28}"/>
+    <hyperlink ref="E98" r:id="rId26" xr:uid="{47C32F15-E095-48BF-8AC0-1DBD544DD6E8}"/>
+    <hyperlink ref="E101" r:id="rId27" xr:uid="{674B3592-1BDE-41BA-9EB9-800AF2272003}"/>
+    <hyperlink ref="E102" r:id="rId28" xr:uid="{6FD5C013-8BBD-41F4-9782-1DA65D85CD5A}"/>
+    <hyperlink ref="E103" r:id="rId29" xr:uid="{6017F4F0-F9CA-4750-958D-E7C912018777}"/>
+    <hyperlink ref="E106" r:id="rId30" xr:uid="{EF685BEA-18C4-4E8C-917B-EACD39ABA2E6}"/>
+    <hyperlink ref="E107" r:id="rId31" xr:uid="{181CB626-A3F2-438B-9CF2-0C0BCDE6F60C}"/>
+    <hyperlink ref="E108" r:id="rId32" xr:uid="{2A00C0EC-8F41-4ABB-9C79-1D946856565D}"/>
+    <hyperlink ref="E113" r:id="rId33" xr:uid="{3146DD88-73E7-436D-85FB-72D70EE4E854}"/>
+    <hyperlink ref="E114" r:id="rId34" xr:uid="{FFB62559-6F14-4F53-9A4D-0A4CAD2B1775}"/>
+    <hyperlink ref="E131" r:id="rId35" xr:uid="{F72838D9-18C1-4FF5-B725-A8AC73485B25}"/>
+    <hyperlink ref="E132" r:id="rId36" xr:uid="{4169F08E-03D6-45BF-8F64-3D02ED3BB6B2}"/>
+    <hyperlink ref="E136" r:id="rId37" xr:uid="{F95984CE-0315-4D79-878E-C01F982D7B86}"/>
+    <hyperlink ref="E134" r:id="rId38" xr:uid="{71C55BC7-D105-4979-BC1D-223D20E7D7CF}"/>
+    <hyperlink ref="E135" r:id="rId39" xr:uid="{FFB1C659-1F13-4D95-8E39-8A35B11BD7C7}"/>
+    <hyperlink ref="E137" r:id="rId40" xr:uid="{5E593A99-0C56-4223-96F2-96937B1032AE}"/>
+    <hyperlink ref="E138" r:id="rId41" xr:uid="{3C723C9F-4921-412B-8472-8CB79FBC0D5B}"/>
+    <hyperlink ref="E140" r:id="rId42" xr:uid="{95707C9D-6A21-4F29-AC8B-DDD3D57DDA91}"/>
+    <hyperlink ref="E145" r:id="rId43" xr:uid="{FA9B4B34-C2DC-4360-A01A-62DB7EB9334C}"/>
+    <hyperlink ref="E141" r:id="rId44" xr:uid="{102FEEE2-8A65-4963-AA4D-42AA66AF8A75}"/>
+    <hyperlink ref="E142" r:id="rId45" xr:uid="{ABD4FF97-C356-46C4-A3FD-8BF5990EC247}"/>
+    <hyperlink ref="E147" r:id="rId46" xr:uid="{D37BDCA5-AEC9-400D-801B-807F7FABBCEB}"/>
+    <hyperlink ref="E149" r:id="rId47" xr:uid="{E106FEF3-2A29-42A9-A98A-4B58F38E79A7}"/>
+    <hyperlink ref="E148" r:id="rId48" xr:uid="{842D0B44-EBE8-48F8-BF27-FA7170C4D3B5}"/>
+    <hyperlink ref="E146" r:id="rId49" xr:uid="{6CBB96B0-6538-4E61-85FD-D60FB95A40EF}"/>
+    <hyperlink ref="E143" r:id="rId50" xr:uid="{592B83CC-6C24-4C9A-AAB1-D25A97E2220D}"/>
+    <hyperlink ref="E139" r:id="rId51" xr:uid="{E96C3DF6-B0BA-4DD2-8401-6FE8FF78E1D8}"/>
+    <hyperlink ref="E144" r:id="rId52" xr:uid="{4DA3BC06-0E1A-4D26-A8ED-2303829FD5FB}"/>
+    <hyperlink ref="E150" r:id="rId53" xr:uid="{B5089AAC-5D5B-4354-8E4B-ACCEB292FE46}"/>
+    <hyperlink ref="E179" r:id="rId54" xr:uid="{2DC37099-0C06-406F-8A78-C69FFEA5DBB9}"/>
+    <hyperlink ref="E165" r:id="rId55" xr:uid="{1406B533-E76F-4E34-AEBE-CF214A7A4389}"/>
+    <hyperlink ref="E152" r:id="rId56" xr:uid="{38FD6989-1C7D-4B42-9239-25D8B69639B0}"/>
+    <hyperlink ref="E151" r:id="rId57" xr:uid="{356DB9E0-B914-453A-A186-895A0FB1E70D}"/>
+    <hyperlink ref="E153" r:id="rId58" xr:uid="{B5141D0C-A203-4800-98D1-A002F3131144}"/>
+    <hyperlink ref="E154" r:id="rId59" xr:uid="{D8BC583F-75DE-48E8-84D8-313520EDD275}"/>
+    <hyperlink ref="E164" r:id="rId60" xr:uid="{F22A5A62-CFCB-4E14-8ADE-F666F077FE8F}"/>
+    <hyperlink ref="E155" r:id="rId61" xr:uid="{E5A8AD74-B362-4370-9CB6-127E4FDDA652}"/>
+    <hyperlink ref="E166" r:id="rId62" xr:uid="{344A5451-1D20-4D86-B2FD-DCCBF038B68E}"/>
+    <hyperlink ref="E161" r:id="rId63" xr:uid="{0117161A-5B79-4300-A098-CCFEA61A2974}"/>
+    <hyperlink ref="E167" r:id="rId64" xr:uid="{4684B8AB-4658-45A8-8378-1FF9C9D07A91}"/>
+    <hyperlink ref="E158" r:id="rId65" xr:uid="{AB1B2CED-AE5B-4A30-9E89-BDFB6A04A5B1}"/>
+    <hyperlink ref="E169" r:id="rId66" xr:uid="{0A8E772D-D766-41DF-A561-C4B167E6CD7F}"/>
+    <hyperlink ref="E157" r:id="rId67" xr:uid="{747296A4-4012-4539-8979-FB5308AEB6A8}"/>
+    <hyperlink ref="E168" r:id="rId68" xr:uid="{07A5DA01-AA25-4321-8DEB-90F00A3DB313}"/>
+    <hyperlink ref="E170" r:id="rId69" xr:uid="{7FC9C8E6-7312-4CCE-996E-BBE18A6BBA37}"/>
+    <hyperlink ref="E171" r:id="rId70" xr:uid="{A3B6B3F2-D1A2-4B4D-9DF1-BB8FBD2AC74E}"/>
+    <hyperlink ref="E156" r:id="rId71" xr:uid="{EB35A134-34E9-49E6-ADF6-350F3A205D2D}"/>
+    <hyperlink ref="E160" r:id="rId72" xr:uid="{CB55790E-A13B-444A-8286-D3129F874D97}"/>
+    <hyperlink ref="E162" r:id="rId73" xr:uid="{A8353BE6-3E9E-40BE-A008-C194A7DD40AB}"/>
+    <hyperlink ref="E173" r:id="rId74" xr:uid="{F41D57C4-0208-4802-9E33-EB7FAC5DC42F}"/>
+    <hyperlink ref="E163" r:id="rId75" xr:uid="{A1656B3B-E843-4CFF-8457-A07FA703A871}"/>
+    <hyperlink ref="E172" r:id="rId76" xr:uid="{3BF37B87-3FCA-40E3-BAA1-26618A9AB59F}"/>
+    <hyperlink ref="E176" r:id="rId77" xr:uid="{0D273B19-2A25-4B47-BED7-1E9E42A3CC6A}"/>
+    <hyperlink ref="E175" r:id="rId78" xr:uid="{0A92071F-0FEE-40F1-AE4D-71CFAFA58AE6}"/>
+    <hyperlink ref="E178" r:id="rId79" xr:uid="{B0F7CFA9-14B3-4864-9997-B66A2327C2BE}"/>
+    <hyperlink ref="E174" r:id="rId80" xr:uid="{EF5AFCDF-E1C7-4660-8E58-CB6D5AA622CF}"/>
+    <hyperlink ref="E177" r:id="rId81" xr:uid="{1EAB560C-F888-4CFF-8D2A-3FE9E7C34344}"/>
+    <hyperlink ref="E159" r:id="rId82" xr:uid="{A465BD95-A7B8-4529-A08C-9775A484268F}"/>
+    <hyperlink ref="E59" r:id="rId83" xr:uid="{862616CF-DC50-4252-A2A5-6C2A8F0D492C}"/>
+    <hyperlink ref="E2" r:id="rId84" xr:uid="{25368976-30AE-4ECC-9DB6-21DA8763251B}"/>
+    <hyperlink ref="E68" r:id="rId85" xr:uid="{81E68051-B3CA-4200-8958-B872A6170A2B}"/>
+    <hyperlink ref="E180" r:id="rId86" xr:uid="{7CF036D5-67DF-41BA-98A1-AEDBC49EB72B}"/>
+    <hyperlink ref="E181" r:id="rId87" xr:uid="{412F2EA4-2FB8-4051-885B-2F397F55D297}"/>
+    <hyperlink ref="E182" r:id="rId88" xr:uid="{12E3E6DB-3A38-482A-982A-445A23E5AFD8}"/>
+    <hyperlink ref="E183" r:id="rId89" xr:uid="{C8599419-DA6E-41D3-906B-3435D7A96A74}"/>
+    <hyperlink ref="E184" r:id="rId90" xr:uid="{502D6EEA-4D5E-4839-8A56-DEA8D357B77D}"/>
+    <hyperlink ref="E185" r:id="rId91" xr:uid="{824213CB-2ACD-4390-B1D4-D1A2A2A3835A}"/>
+    <hyperlink ref="E186" r:id="rId92" xr:uid="{40DDCF2D-C69A-405D-A087-C990A148A15C}"/>
+    <hyperlink ref="E187" r:id="rId93" xr:uid="{6E3A694F-0939-492C-8AB5-CF313A97A946}"/>
+    <hyperlink ref="E188" r:id="rId94" xr:uid="{F4F2B958-D3F8-4899-988A-67C1AB5205BC}"/>
+    <hyperlink ref="E189" r:id="rId95" xr:uid="{80782243-3334-4C34-BDB8-026447ECC239}"/>
+    <hyperlink ref="E190" r:id="rId96" xr:uid="{A452E1CF-7D32-41A6-9665-66B81DE27499}"/>
+    <hyperlink ref="E191" r:id="rId97" xr:uid="{6CEDFEB8-CB83-4F0D-B2AD-21BBDD9B0F4B}"/>
+    <hyperlink ref="E192" r:id="rId98" xr:uid="{702633F9-C26A-4C65-A831-34A29E588A8F}"/>
+    <hyperlink ref="E194" r:id="rId99" xr:uid="{B33D162E-45C9-4281-9FFF-577408A6EDB2}"/>
+    <hyperlink ref="E195" r:id="rId100" xr:uid="{DE19B830-C7D4-4D2A-8AB1-A5668A6E03FB}"/>
+    <hyperlink ref="E196" r:id="rId101" xr:uid="{7C93EE81-C318-452E-BBC1-DCFE023FAD3F}"/>
+    <hyperlink ref="E197" r:id="rId102" xr:uid="{6300310A-48DC-488D-A1FD-23E873045355}"/>
+    <hyperlink ref="E198" r:id="rId103" xr:uid="{CA699900-3D2B-4884-875C-E9D2E47BEE3C}"/>
+    <hyperlink ref="E199" r:id="rId104" xr:uid="{376D7A2E-7E4C-4360-BF85-5168C3C685D7}"/>
+    <hyperlink ref="E200" r:id="rId105" xr:uid="{AB9D8F8B-3898-4372-B0E9-A053F1265878}"/>
+    <hyperlink ref="E201" r:id="rId106" xr:uid="{F2BCF522-1846-4815-87FA-CD83C387BD9A}"/>
+    <hyperlink ref="E203" r:id="rId107" xr:uid="{F1164EA5-2F2A-4E6A-B2A2-1492B5482B98}"/>
+    <hyperlink ref="E204" r:id="rId108" xr:uid="{F02FBCD4-428A-427F-9C98-F3900F8C8FB3}"/>
+    <hyperlink ref="E205" r:id="rId109" xr:uid="{D6F29053-91E6-4208-95DF-36B129B829A4}"/>
+    <hyperlink ref="E206" r:id="rId110" xr:uid="{B4C4E458-D6F2-46B9-988B-9B7CCFE7CA77}"/>
+    <hyperlink ref="E207" r:id="rId111" xr:uid="{E42CF963-CB15-45AB-93C7-58361B5A229D}"/>
+    <hyperlink ref="E208" r:id="rId112" xr:uid="{AF0C32B5-13EE-496B-BF0D-1FEF312C7323}"/>
+    <hyperlink ref="E209" r:id="rId113" xr:uid="{1EF9D6B8-F3B5-479B-8CEC-77186651BB99}"/>
+    <hyperlink ref="E210" r:id="rId114" xr:uid="{DDA72F8C-C135-42EF-B570-5B03127B420C}"/>
+    <hyperlink ref="E212" r:id="rId115" xr:uid="{4B320933-3CF5-47A0-8182-AF344587D7E5}"/>
+    <hyperlink ref="E213" r:id="rId116" xr:uid="{A093705E-2126-42D4-9472-BA86B757AB65}"/>
+    <hyperlink ref="E214" r:id="rId117" xr:uid="{AABBA42E-B426-405E-A049-A6941FE8C16D}"/>
+    <hyperlink ref="E215" r:id="rId118" xr:uid="{69D673EE-4F12-4F9A-A362-65786557DF51}"/>
+    <hyperlink ref="E216" r:id="rId119" xr:uid="{8AB9C893-8492-41AC-BA5D-7C59601A96DD}"/>
+    <hyperlink ref="E217" r:id="rId120" xr:uid="{4BEEA27D-FCEC-4510-9F9E-0BFCEB23E308}"/>
+    <hyperlink ref="E218" r:id="rId121" xr:uid="{4CCEA639-4833-4B73-9FD7-7D39B76548F8}"/>
+    <hyperlink ref="E219" r:id="rId122" xr:uid="{ACE6DC43-9F33-4FB2-A2FD-00FED624C823}"/>
+    <hyperlink ref="E221" r:id="rId123" xr:uid="{E763B5EE-E263-44E0-A226-09B0A56576F2}"/>
+    <hyperlink ref="E222" r:id="rId124" xr:uid="{565AEB14-1F19-478B-876F-0AA877D27033}"/>
+    <hyperlink ref="E223" r:id="rId125" xr:uid="{2BADA365-742E-4AD1-B995-43869021841D}"/>
+    <hyperlink ref="E224" r:id="rId126" xr:uid="{9EB40FC5-018C-4159-BD5F-730B636D6745}"/>
+    <hyperlink ref="E225" r:id="rId127" xr:uid="{1FB4BD7B-6230-4535-8810-3490840640E6}"/>
+    <hyperlink ref="E226" r:id="rId128" xr:uid="{C01EB9DC-D91C-4C07-8726-0EAD7AA2B77F}"/>
+    <hyperlink ref="E227" r:id="rId129" xr:uid="{D13CA7CF-6E50-4B8D-8309-7A9F14C1A86E}"/>
+    <hyperlink ref="E228" r:id="rId130" xr:uid="{CB41DC05-F064-401E-893C-316DE1E40F2B}"/>
+    <hyperlink ref="E230" r:id="rId131" xr:uid="{144DD6F8-98C9-4EE1-B2A6-11C5E4FBAE67}"/>
+    <hyperlink ref="E231" r:id="rId132" xr:uid="{54956990-6A6E-4761-99AB-46DF32AE447F}"/>
+    <hyperlink ref="E232" r:id="rId133" xr:uid="{527BC068-330D-4352-927C-0EA644B38895}"/>
+    <hyperlink ref="E233" r:id="rId134" xr:uid="{398E4125-310B-4A8D-8F52-E0DCA1BE08D1}"/>
+    <hyperlink ref="E234" r:id="rId135" xr:uid="{1A499FAE-3035-4D01-AA13-5499B684B4F9}"/>
+    <hyperlink ref="E235" r:id="rId136" xr:uid="{CA280778-5C8B-4F76-8D76-B791F140BBE7}"/>
+    <hyperlink ref="E236" r:id="rId137" xr:uid="{341040F1-3B87-4F25-8AE2-080EB3EF314B}"/>
+    <hyperlink ref="E237" r:id="rId138" xr:uid="{CF540B81-AD77-459D-8132-B02BEDB98F1B}"/>
+    <hyperlink ref="E239" r:id="rId139" xr:uid="{0FD39196-B353-4546-9DBA-AD6D67DB4E47}"/>
+    <hyperlink ref="E240" r:id="rId140" xr:uid="{713ED13E-E73A-468D-B6B7-0E31941E1FFC}"/>
+    <hyperlink ref="E241" r:id="rId141" xr:uid="{6E27DEFF-6A1F-44DD-9AD8-CF0E868288AD}"/>
+    <hyperlink ref="E242" r:id="rId142" xr:uid="{BCC4F6D4-642E-4192-8499-BF59CDB47EBA}"/>
+    <hyperlink ref="E243" r:id="rId143" xr:uid="{CC8ADBF8-D4D4-48C6-9B61-F5318F4B06E6}"/>
+    <hyperlink ref="E244" r:id="rId144" xr:uid="{C8D9D1AD-41DA-4CF0-ACF1-88C1834FD125}"/>
+    <hyperlink ref="E245" r:id="rId145" xr:uid="{E7D62319-4140-45C3-9E90-8963C2A3090F}"/>
+    <hyperlink ref="E246" r:id="rId146" xr:uid="{D6A6D0ED-1383-44BA-A068-D7653539AAE4}"/>
+    <hyperlink ref="E248" r:id="rId147" xr:uid="{F0325C78-8C01-4C99-866E-4B745B83A3FF}"/>
+    <hyperlink ref="E249" r:id="rId148" xr:uid="{0BA2EB03-A645-49C2-BB67-6C4757565E82}"/>
+    <hyperlink ref="E250" r:id="rId149" xr:uid="{FDFA0613-F247-46D0-A88B-E6F6AE5E5A50}"/>
+    <hyperlink ref="E251" r:id="rId150" xr:uid="{057D666D-3772-4B27-B7ED-F4E0ABDE3AE4}"/>
+    <hyperlink ref="E252" r:id="rId151" xr:uid="{407BED3B-EF77-41A5-B8F7-E408E031242B}"/>
+    <hyperlink ref="E253" r:id="rId152" xr:uid="{73E3DE29-1EE5-4ECB-B5BC-37864B33F898}"/>
+    <hyperlink ref="E254" r:id="rId153" xr:uid="{24275325-8AE2-4899-8E48-D0717AC8CA7D}"/>
+    <hyperlink ref="E255" r:id="rId154" xr:uid="{6D928180-8AA1-4463-BBD2-97B261953C89}"/>
+    <hyperlink ref="E257" r:id="rId155" xr:uid="{678CFD0A-557C-4EE2-9ACE-9F5195ACA5A8}"/>
+    <hyperlink ref="E258" r:id="rId156" xr:uid="{D6AC0E13-2F87-48D1-A4D0-D9BAEB1E68E3}"/>
+    <hyperlink ref="E259" r:id="rId157" xr:uid="{5728F092-DAB2-476F-A11F-CC4CA7FE88BB}"/>
+    <hyperlink ref="E260" r:id="rId158" xr:uid="{451646C2-0BF4-4D56-9C47-57DAAEFDF034}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Gallery.xlsx
+++ b/Gallery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelaziz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA8822D-0597-40E7-9450-4552445387A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB806E8-064A-4AF3-A26A-A4DC3921541E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="652">
   <si>
     <t>Number</t>
   </si>
@@ -1981,6 +1981,9 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/39.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/200.jpeg</t>
   </si>
 </sst>
 </file>
@@ -2399,16 +2402,16 @@
   <dimension ref="A1:G265"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" sqref="A1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.8984375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.09765625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="84" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" style="3" customWidth="1"/>
     <col min="4" max="4" width="7.3984375" style="25" customWidth="1"/>
     <col min="5" max="5" width="68.5" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.69921875" style="3" hidden="1" customWidth="1"/>
@@ -3971,7 +3974,7 @@
         <v>900</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>3</v>
+        <v>651</v>
       </c>
       <c r="F68" t="s">
         <v>195</v>
@@ -8475,80 +8478,79 @@
     <hyperlink ref="E159" r:id="rId82" xr:uid="{A465BD95-A7B8-4529-A08C-9775A484268F}"/>
     <hyperlink ref="E59" r:id="rId83" xr:uid="{862616CF-DC50-4252-A2A5-6C2A8F0D492C}"/>
     <hyperlink ref="E2" r:id="rId84" xr:uid="{25368976-30AE-4ECC-9DB6-21DA8763251B}"/>
-    <hyperlink ref="E68" r:id="rId85" xr:uid="{81E68051-B3CA-4200-8958-B872A6170A2B}"/>
-    <hyperlink ref="E180" r:id="rId86" xr:uid="{7CF036D5-67DF-41BA-98A1-AEDBC49EB72B}"/>
-    <hyperlink ref="E181" r:id="rId87" xr:uid="{412F2EA4-2FB8-4051-885B-2F397F55D297}"/>
-    <hyperlink ref="E182" r:id="rId88" xr:uid="{12E3E6DB-3A38-482A-982A-445A23E5AFD8}"/>
-    <hyperlink ref="E183" r:id="rId89" xr:uid="{C8599419-DA6E-41D3-906B-3435D7A96A74}"/>
-    <hyperlink ref="E184" r:id="rId90" xr:uid="{502D6EEA-4D5E-4839-8A56-DEA8D357B77D}"/>
-    <hyperlink ref="E185" r:id="rId91" xr:uid="{824213CB-2ACD-4390-B1D4-D1A2A2A3835A}"/>
-    <hyperlink ref="E186" r:id="rId92" xr:uid="{40DDCF2D-C69A-405D-A087-C990A148A15C}"/>
-    <hyperlink ref="E187" r:id="rId93" xr:uid="{6E3A694F-0939-492C-8AB5-CF313A97A946}"/>
-    <hyperlink ref="E188" r:id="rId94" xr:uid="{F4F2B958-D3F8-4899-988A-67C1AB5205BC}"/>
-    <hyperlink ref="E189" r:id="rId95" xr:uid="{80782243-3334-4C34-BDB8-026447ECC239}"/>
-    <hyperlink ref="E190" r:id="rId96" xr:uid="{A452E1CF-7D32-41A6-9665-66B81DE27499}"/>
-    <hyperlink ref="E191" r:id="rId97" xr:uid="{6CEDFEB8-CB83-4F0D-B2AD-21BBDD9B0F4B}"/>
-    <hyperlink ref="E192" r:id="rId98" xr:uid="{702633F9-C26A-4C65-A831-34A29E588A8F}"/>
-    <hyperlink ref="E194" r:id="rId99" xr:uid="{B33D162E-45C9-4281-9FFF-577408A6EDB2}"/>
-    <hyperlink ref="E195" r:id="rId100" xr:uid="{DE19B830-C7D4-4D2A-8AB1-A5668A6E03FB}"/>
-    <hyperlink ref="E196" r:id="rId101" xr:uid="{7C93EE81-C318-452E-BBC1-DCFE023FAD3F}"/>
-    <hyperlink ref="E197" r:id="rId102" xr:uid="{6300310A-48DC-488D-A1FD-23E873045355}"/>
-    <hyperlink ref="E198" r:id="rId103" xr:uid="{CA699900-3D2B-4884-875C-E9D2E47BEE3C}"/>
-    <hyperlink ref="E199" r:id="rId104" xr:uid="{376D7A2E-7E4C-4360-BF85-5168C3C685D7}"/>
-    <hyperlink ref="E200" r:id="rId105" xr:uid="{AB9D8F8B-3898-4372-B0E9-A053F1265878}"/>
-    <hyperlink ref="E201" r:id="rId106" xr:uid="{F2BCF522-1846-4815-87FA-CD83C387BD9A}"/>
-    <hyperlink ref="E203" r:id="rId107" xr:uid="{F1164EA5-2F2A-4E6A-B2A2-1492B5482B98}"/>
-    <hyperlink ref="E204" r:id="rId108" xr:uid="{F02FBCD4-428A-427F-9C98-F3900F8C8FB3}"/>
-    <hyperlink ref="E205" r:id="rId109" xr:uid="{D6F29053-91E6-4208-95DF-36B129B829A4}"/>
-    <hyperlink ref="E206" r:id="rId110" xr:uid="{B4C4E458-D6F2-46B9-988B-9B7CCFE7CA77}"/>
-    <hyperlink ref="E207" r:id="rId111" xr:uid="{E42CF963-CB15-45AB-93C7-58361B5A229D}"/>
-    <hyperlink ref="E208" r:id="rId112" xr:uid="{AF0C32B5-13EE-496B-BF0D-1FEF312C7323}"/>
-    <hyperlink ref="E209" r:id="rId113" xr:uid="{1EF9D6B8-F3B5-479B-8CEC-77186651BB99}"/>
-    <hyperlink ref="E210" r:id="rId114" xr:uid="{DDA72F8C-C135-42EF-B570-5B03127B420C}"/>
-    <hyperlink ref="E212" r:id="rId115" xr:uid="{4B320933-3CF5-47A0-8182-AF344587D7E5}"/>
-    <hyperlink ref="E213" r:id="rId116" xr:uid="{A093705E-2126-42D4-9472-BA86B757AB65}"/>
-    <hyperlink ref="E214" r:id="rId117" xr:uid="{AABBA42E-B426-405E-A049-A6941FE8C16D}"/>
-    <hyperlink ref="E215" r:id="rId118" xr:uid="{69D673EE-4F12-4F9A-A362-65786557DF51}"/>
-    <hyperlink ref="E216" r:id="rId119" xr:uid="{8AB9C893-8492-41AC-BA5D-7C59601A96DD}"/>
-    <hyperlink ref="E217" r:id="rId120" xr:uid="{4BEEA27D-FCEC-4510-9F9E-0BFCEB23E308}"/>
-    <hyperlink ref="E218" r:id="rId121" xr:uid="{4CCEA639-4833-4B73-9FD7-7D39B76548F8}"/>
-    <hyperlink ref="E219" r:id="rId122" xr:uid="{ACE6DC43-9F33-4FB2-A2FD-00FED624C823}"/>
-    <hyperlink ref="E221" r:id="rId123" xr:uid="{E763B5EE-E263-44E0-A226-09B0A56576F2}"/>
-    <hyperlink ref="E222" r:id="rId124" xr:uid="{565AEB14-1F19-478B-876F-0AA877D27033}"/>
-    <hyperlink ref="E223" r:id="rId125" xr:uid="{2BADA365-742E-4AD1-B995-43869021841D}"/>
-    <hyperlink ref="E224" r:id="rId126" xr:uid="{9EB40FC5-018C-4159-BD5F-730B636D6745}"/>
-    <hyperlink ref="E225" r:id="rId127" xr:uid="{1FB4BD7B-6230-4535-8810-3490840640E6}"/>
-    <hyperlink ref="E226" r:id="rId128" xr:uid="{C01EB9DC-D91C-4C07-8726-0EAD7AA2B77F}"/>
-    <hyperlink ref="E227" r:id="rId129" xr:uid="{D13CA7CF-6E50-4B8D-8309-7A9F14C1A86E}"/>
-    <hyperlink ref="E228" r:id="rId130" xr:uid="{CB41DC05-F064-401E-893C-316DE1E40F2B}"/>
-    <hyperlink ref="E230" r:id="rId131" xr:uid="{144DD6F8-98C9-4EE1-B2A6-11C5E4FBAE67}"/>
-    <hyperlink ref="E231" r:id="rId132" xr:uid="{54956990-6A6E-4761-99AB-46DF32AE447F}"/>
-    <hyperlink ref="E232" r:id="rId133" xr:uid="{527BC068-330D-4352-927C-0EA644B38895}"/>
-    <hyperlink ref="E233" r:id="rId134" xr:uid="{398E4125-310B-4A8D-8F52-E0DCA1BE08D1}"/>
-    <hyperlink ref="E234" r:id="rId135" xr:uid="{1A499FAE-3035-4D01-AA13-5499B684B4F9}"/>
-    <hyperlink ref="E235" r:id="rId136" xr:uid="{CA280778-5C8B-4F76-8D76-B791F140BBE7}"/>
-    <hyperlink ref="E236" r:id="rId137" xr:uid="{341040F1-3B87-4F25-8AE2-080EB3EF314B}"/>
-    <hyperlink ref="E237" r:id="rId138" xr:uid="{CF540B81-AD77-459D-8132-B02BEDB98F1B}"/>
-    <hyperlink ref="E239" r:id="rId139" xr:uid="{0FD39196-B353-4546-9DBA-AD6D67DB4E47}"/>
-    <hyperlink ref="E240" r:id="rId140" xr:uid="{713ED13E-E73A-468D-B6B7-0E31941E1FFC}"/>
-    <hyperlink ref="E241" r:id="rId141" xr:uid="{6E27DEFF-6A1F-44DD-9AD8-CF0E868288AD}"/>
-    <hyperlink ref="E242" r:id="rId142" xr:uid="{BCC4F6D4-642E-4192-8499-BF59CDB47EBA}"/>
-    <hyperlink ref="E243" r:id="rId143" xr:uid="{CC8ADBF8-D4D4-48C6-9B61-F5318F4B06E6}"/>
-    <hyperlink ref="E244" r:id="rId144" xr:uid="{C8D9D1AD-41DA-4CF0-ACF1-88C1834FD125}"/>
-    <hyperlink ref="E245" r:id="rId145" xr:uid="{E7D62319-4140-45C3-9E90-8963C2A3090F}"/>
-    <hyperlink ref="E246" r:id="rId146" xr:uid="{D6A6D0ED-1383-44BA-A068-D7653539AAE4}"/>
-    <hyperlink ref="E248" r:id="rId147" xr:uid="{F0325C78-8C01-4C99-866E-4B745B83A3FF}"/>
-    <hyperlink ref="E249" r:id="rId148" xr:uid="{0BA2EB03-A645-49C2-BB67-6C4757565E82}"/>
-    <hyperlink ref="E250" r:id="rId149" xr:uid="{FDFA0613-F247-46D0-A88B-E6F6AE5E5A50}"/>
-    <hyperlink ref="E251" r:id="rId150" xr:uid="{057D666D-3772-4B27-B7ED-F4E0ABDE3AE4}"/>
-    <hyperlink ref="E252" r:id="rId151" xr:uid="{407BED3B-EF77-41A5-B8F7-E408E031242B}"/>
-    <hyperlink ref="E253" r:id="rId152" xr:uid="{73E3DE29-1EE5-4ECB-B5BC-37864B33F898}"/>
-    <hyperlink ref="E254" r:id="rId153" xr:uid="{24275325-8AE2-4899-8E48-D0717AC8CA7D}"/>
-    <hyperlink ref="E255" r:id="rId154" xr:uid="{6D928180-8AA1-4463-BBD2-97B261953C89}"/>
-    <hyperlink ref="E257" r:id="rId155" xr:uid="{678CFD0A-557C-4EE2-9ACE-9F5195ACA5A8}"/>
-    <hyperlink ref="E258" r:id="rId156" xr:uid="{D6AC0E13-2F87-48D1-A4D0-D9BAEB1E68E3}"/>
-    <hyperlink ref="E259" r:id="rId157" xr:uid="{5728F092-DAB2-476F-A11F-CC4CA7FE88BB}"/>
-    <hyperlink ref="E260" r:id="rId158" xr:uid="{451646C2-0BF4-4D56-9C47-57DAAEFDF034}"/>
+    <hyperlink ref="E180" r:id="rId85" xr:uid="{7CF036D5-67DF-41BA-98A1-AEDBC49EB72B}"/>
+    <hyperlink ref="E181" r:id="rId86" xr:uid="{412F2EA4-2FB8-4051-885B-2F397F55D297}"/>
+    <hyperlink ref="E182" r:id="rId87" xr:uid="{12E3E6DB-3A38-482A-982A-445A23E5AFD8}"/>
+    <hyperlink ref="E183" r:id="rId88" xr:uid="{C8599419-DA6E-41D3-906B-3435D7A96A74}"/>
+    <hyperlink ref="E184" r:id="rId89" xr:uid="{502D6EEA-4D5E-4839-8A56-DEA8D357B77D}"/>
+    <hyperlink ref="E185" r:id="rId90" xr:uid="{824213CB-2ACD-4390-B1D4-D1A2A2A3835A}"/>
+    <hyperlink ref="E186" r:id="rId91" xr:uid="{40DDCF2D-C69A-405D-A087-C990A148A15C}"/>
+    <hyperlink ref="E187" r:id="rId92" xr:uid="{6E3A694F-0939-492C-8AB5-CF313A97A946}"/>
+    <hyperlink ref="E188" r:id="rId93" xr:uid="{F4F2B958-D3F8-4899-988A-67C1AB5205BC}"/>
+    <hyperlink ref="E189" r:id="rId94" xr:uid="{80782243-3334-4C34-BDB8-026447ECC239}"/>
+    <hyperlink ref="E190" r:id="rId95" xr:uid="{A452E1CF-7D32-41A6-9665-66B81DE27499}"/>
+    <hyperlink ref="E191" r:id="rId96" xr:uid="{6CEDFEB8-CB83-4F0D-B2AD-21BBDD9B0F4B}"/>
+    <hyperlink ref="E192" r:id="rId97" xr:uid="{702633F9-C26A-4C65-A831-34A29E588A8F}"/>
+    <hyperlink ref="E194" r:id="rId98" xr:uid="{B33D162E-45C9-4281-9FFF-577408A6EDB2}"/>
+    <hyperlink ref="E195" r:id="rId99" xr:uid="{DE19B830-C7D4-4D2A-8AB1-A5668A6E03FB}"/>
+    <hyperlink ref="E196" r:id="rId100" xr:uid="{7C93EE81-C318-452E-BBC1-DCFE023FAD3F}"/>
+    <hyperlink ref="E197" r:id="rId101" xr:uid="{6300310A-48DC-488D-A1FD-23E873045355}"/>
+    <hyperlink ref="E198" r:id="rId102" xr:uid="{CA699900-3D2B-4884-875C-E9D2E47BEE3C}"/>
+    <hyperlink ref="E199" r:id="rId103" xr:uid="{376D7A2E-7E4C-4360-BF85-5168C3C685D7}"/>
+    <hyperlink ref="E200" r:id="rId104" xr:uid="{AB9D8F8B-3898-4372-B0E9-A053F1265878}"/>
+    <hyperlink ref="E201" r:id="rId105" xr:uid="{F2BCF522-1846-4815-87FA-CD83C387BD9A}"/>
+    <hyperlink ref="E203" r:id="rId106" xr:uid="{F1164EA5-2F2A-4E6A-B2A2-1492B5482B98}"/>
+    <hyperlink ref="E204" r:id="rId107" xr:uid="{F02FBCD4-428A-427F-9C98-F3900F8C8FB3}"/>
+    <hyperlink ref="E205" r:id="rId108" xr:uid="{D6F29053-91E6-4208-95DF-36B129B829A4}"/>
+    <hyperlink ref="E206" r:id="rId109" xr:uid="{B4C4E458-D6F2-46B9-988B-9B7CCFE7CA77}"/>
+    <hyperlink ref="E207" r:id="rId110" xr:uid="{E42CF963-CB15-45AB-93C7-58361B5A229D}"/>
+    <hyperlink ref="E208" r:id="rId111" xr:uid="{AF0C32B5-13EE-496B-BF0D-1FEF312C7323}"/>
+    <hyperlink ref="E209" r:id="rId112" xr:uid="{1EF9D6B8-F3B5-479B-8CEC-77186651BB99}"/>
+    <hyperlink ref="E210" r:id="rId113" xr:uid="{DDA72F8C-C135-42EF-B570-5B03127B420C}"/>
+    <hyperlink ref="E212" r:id="rId114" xr:uid="{4B320933-3CF5-47A0-8182-AF344587D7E5}"/>
+    <hyperlink ref="E213" r:id="rId115" xr:uid="{A093705E-2126-42D4-9472-BA86B757AB65}"/>
+    <hyperlink ref="E214" r:id="rId116" xr:uid="{AABBA42E-B426-405E-A049-A6941FE8C16D}"/>
+    <hyperlink ref="E215" r:id="rId117" xr:uid="{69D673EE-4F12-4F9A-A362-65786557DF51}"/>
+    <hyperlink ref="E216" r:id="rId118" xr:uid="{8AB9C893-8492-41AC-BA5D-7C59601A96DD}"/>
+    <hyperlink ref="E217" r:id="rId119" xr:uid="{4BEEA27D-FCEC-4510-9F9E-0BFCEB23E308}"/>
+    <hyperlink ref="E218" r:id="rId120" xr:uid="{4CCEA639-4833-4B73-9FD7-7D39B76548F8}"/>
+    <hyperlink ref="E219" r:id="rId121" xr:uid="{ACE6DC43-9F33-4FB2-A2FD-00FED624C823}"/>
+    <hyperlink ref="E221" r:id="rId122" xr:uid="{E763B5EE-E263-44E0-A226-09B0A56576F2}"/>
+    <hyperlink ref="E222" r:id="rId123" xr:uid="{565AEB14-1F19-478B-876F-0AA877D27033}"/>
+    <hyperlink ref="E223" r:id="rId124" xr:uid="{2BADA365-742E-4AD1-B995-43869021841D}"/>
+    <hyperlink ref="E224" r:id="rId125" xr:uid="{9EB40FC5-018C-4159-BD5F-730B636D6745}"/>
+    <hyperlink ref="E225" r:id="rId126" xr:uid="{1FB4BD7B-6230-4535-8810-3490840640E6}"/>
+    <hyperlink ref="E226" r:id="rId127" xr:uid="{C01EB9DC-D91C-4C07-8726-0EAD7AA2B77F}"/>
+    <hyperlink ref="E227" r:id="rId128" xr:uid="{D13CA7CF-6E50-4B8D-8309-7A9F14C1A86E}"/>
+    <hyperlink ref="E228" r:id="rId129" xr:uid="{CB41DC05-F064-401E-893C-316DE1E40F2B}"/>
+    <hyperlink ref="E230" r:id="rId130" xr:uid="{144DD6F8-98C9-4EE1-B2A6-11C5E4FBAE67}"/>
+    <hyperlink ref="E231" r:id="rId131" xr:uid="{54956990-6A6E-4761-99AB-46DF32AE447F}"/>
+    <hyperlink ref="E232" r:id="rId132" xr:uid="{527BC068-330D-4352-927C-0EA644B38895}"/>
+    <hyperlink ref="E233" r:id="rId133" xr:uid="{398E4125-310B-4A8D-8F52-E0DCA1BE08D1}"/>
+    <hyperlink ref="E234" r:id="rId134" xr:uid="{1A499FAE-3035-4D01-AA13-5499B684B4F9}"/>
+    <hyperlink ref="E235" r:id="rId135" xr:uid="{CA280778-5C8B-4F76-8D76-B791F140BBE7}"/>
+    <hyperlink ref="E236" r:id="rId136" xr:uid="{341040F1-3B87-4F25-8AE2-080EB3EF314B}"/>
+    <hyperlink ref="E237" r:id="rId137" xr:uid="{CF540B81-AD77-459D-8132-B02BEDB98F1B}"/>
+    <hyperlink ref="E239" r:id="rId138" xr:uid="{0FD39196-B353-4546-9DBA-AD6D67DB4E47}"/>
+    <hyperlink ref="E240" r:id="rId139" xr:uid="{713ED13E-E73A-468D-B6B7-0E31941E1FFC}"/>
+    <hyperlink ref="E241" r:id="rId140" xr:uid="{6E27DEFF-6A1F-44DD-9AD8-CF0E868288AD}"/>
+    <hyperlink ref="E242" r:id="rId141" xr:uid="{BCC4F6D4-642E-4192-8499-BF59CDB47EBA}"/>
+    <hyperlink ref="E243" r:id="rId142" xr:uid="{CC8ADBF8-D4D4-48C6-9B61-F5318F4B06E6}"/>
+    <hyperlink ref="E244" r:id="rId143" xr:uid="{C8D9D1AD-41DA-4CF0-ACF1-88C1834FD125}"/>
+    <hyperlink ref="E245" r:id="rId144" xr:uid="{E7D62319-4140-45C3-9E90-8963C2A3090F}"/>
+    <hyperlink ref="E246" r:id="rId145" xr:uid="{D6A6D0ED-1383-44BA-A068-D7653539AAE4}"/>
+    <hyperlink ref="E248" r:id="rId146" xr:uid="{F0325C78-8C01-4C99-866E-4B745B83A3FF}"/>
+    <hyperlink ref="E249" r:id="rId147" xr:uid="{0BA2EB03-A645-49C2-BB67-6C4757565E82}"/>
+    <hyperlink ref="E250" r:id="rId148" xr:uid="{FDFA0613-F247-46D0-A88B-E6F6AE5E5A50}"/>
+    <hyperlink ref="E251" r:id="rId149" xr:uid="{057D666D-3772-4B27-B7ED-F4E0ABDE3AE4}"/>
+    <hyperlink ref="E252" r:id="rId150" xr:uid="{407BED3B-EF77-41A5-B8F7-E408E031242B}"/>
+    <hyperlink ref="E253" r:id="rId151" xr:uid="{73E3DE29-1EE5-4ECB-B5BC-37864B33F898}"/>
+    <hyperlink ref="E254" r:id="rId152" xr:uid="{24275325-8AE2-4899-8E48-D0717AC8CA7D}"/>
+    <hyperlink ref="E255" r:id="rId153" xr:uid="{6D928180-8AA1-4463-BBD2-97B261953C89}"/>
+    <hyperlink ref="E257" r:id="rId154" xr:uid="{678CFD0A-557C-4EE2-9ACE-9F5195ACA5A8}"/>
+    <hyperlink ref="E258" r:id="rId155" xr:uid="{D6AC0E13-2F87-48D1-A4D0-D9BAEB1E68E3}"/>
+    <hyperlink ref="E259" r:id="rId156" xr:uid="{5728F092-DAB2-476F-A11F-CC4CA7FE88BB}"/>
+    <hyperlink ref="E260" r:id="rId157" xr:uid="{451646C2-0BF4-4D56-9C47-57DAAEFDF034}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Gallery.xlsx
+++ b/Gallery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelaziz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB806E8-064A-4AF3-A26A-A4DC3921541E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A28909E-8425-4652-B9DC-E39565D36258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1485,9 +1485,6 @@
     <t xml:space="preserve">صرما عثماني خمري حجم كبير </t>
   </si>
   <si>
-    <t>فازة اوبالين حجم كبير كصور و موقع</t>
-  </si>
-  <si>
     <t xml:space="preserve">لوحة اية الكرسي مصقبة </t>
   </si>
   <si>
@@ -1984,6 +1981,9 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/200.jpeg</t>
+  </si>
+  <si>
+    <t>فازة اوبالين حجم كبير مصور و موقع</t>
   </si>
 </sst>
 </file>
@@ -2404,7 +2404,7 @@
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I62" sqref="I62"/>
+      <selection pane="bottomLeft" activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2473,7 +2473,7 @@
         <v>395</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D3" s="18">
         <v>1750</v>
@@ -2496,7 +2496,7 @@
         <v>396</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D4" s="18">
         <v>500</v>
@@ -2516,10 +2516,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D5" s="18">
         <v>500</v>
@@ -2654,10 +2654,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D11" s="18">
         <v>3000</v>
@@ -2677,10 +2677,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D12" s="18">
         <v>1750</v>
@@ -2700,10 +2700,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D13" s="18">
         <v>1200</v>
@@ -2726,7 +2726,7 @@
         <v>417</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D14" s="18">
         <v>900</v>
@@ -2749,7 +2749,7 @@
         <v>417</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D15" s="18">
         <v>500</v>
@@ -2772,7 +2772,7 @@
         <v>407</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D16" s="18">
         <v>1500</v>
@@ -2792,10 +2792,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D17" s="18">
         <v>1200</v>
@@ -2818,7 +2818,7 @@
         <v>396</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D18" s="18">
         <v>1000</v>
@@ -2841,7 +2841,7 @@
         <v>409</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D19" s="18">
         <v>2000</v>
@@ -2864,7 +2864,7 @@
         <v>394</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D20" s="18">
         <v>750</v>
@@ -2887,7 +2887,7 @@
         <v>397</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D21" s="18">
         <v>1750</v>
@@ -2910,7 +2910,7 @@
         <v>394</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D22" s="18">
         <v>1400</v>
@@ -2933,7 +2933,7 @@
         <v>394</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D23" s="18">
         <v>700</v>
@@ -2956,7 +2956,7 @@
         <v>397</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D24" s="18">
         <v>2500</v>
@@ -2979,7 +2979,7 @@
         <v>410</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D25" s="18">
         <v>1500</v>
@@ -3002,7 +3002,7 @@
         <v>410</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D26" s="18">
         <v>1500</v>
@@ -3025,7 +3025,7 @@
         <v>394</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D27" s="18">
         <v>1200</v>
@@ -3048,7 +3048,7 @@
         <v>395</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D28" s="18">
         <v>2500</v>
@@ -3071,7 +3071,7 @@
         <v>397</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D29" s="18">
         <v>3000</v>
@@ -3094,7 +3094,7 @@
         <v>414</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D30" s="18">
         <v>1200</v>
@@ -3117,7 +3117,7 @@
         <v>396</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D31" s="18">
         <v>800</v>
@@ -3140,7 +3140,7 @@
         <v>416</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D32" s="18">
         <v>1200</v>
@@ -3163,7 +3163,7 @@
         <v>411</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D33" s="18">
         <v>3000</v>
@@ -3186,7 +3186,7 @@
         <v>396</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D34" s="18">
         <v>700</v>
@@ -3278,7 +3278,7 @@
         <v>410</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D38" s="18">
         <v>1500</v>
@@ -3324,13 +3324,13 @@
         <v>396</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D40" s="18">
         <v>500</v>
       </c>
       <c r="E40" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>192</v>
@@ -3347,7 +3347,7 @@
         <v>409</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D41" s="18">
         <v>1200</v>
@@ -3390,7 +3390,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>444</v>
@@ -3416,7 +3416,7 @@
         <v>413</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D44" s="18">
         <v>1200</v>
@@ -3439,7 +3439,7 @@
         <v>394</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D45" s="18">
         <v>2000</v>
@@ -3485,7 +3485,7 @@
         <v>394</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D47" s="18">
         <v>1100</v>
@@ -3528,10 +3528,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D49" s="18">
         <v>1200</v>
@@ -3551,10 +3551,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D50" s="18">
         <v>2000</v>
@@ -3574,10 +3574,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D51" s="18">
         <v>400</v>
@@ -3600,7 +3600,7 @@
         <v>417</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D52" s="18">
         <v>800</v>
@@ -3623,7 +3623,7 @@
         <v>417</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D53" s="18">
         <v>800</v>
@@ -3646,7 +3646,7 @@
         <v>396</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D54" s="18">
         <v>3500</v>
@@ -3669,7 +3669,7 @@
         <v>394</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D55" s="18">
         <v>600</v>
@@ -3692,7 +3692,7 @@
         <v>394</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D56" s="18">
         <v>950</v>
@@ -3715,7 +3715,7 @@
         <v>418</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D57" s="18">
         <v>4000</v>
@@ -3735,10 +3735,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D58" s="18">
         <v>4000</v>
@@ -3761,7 +3761,7 @@
         <v>408</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D59" s="18">
         <v>2500</v>
@@ -3784,7 +3784,7 @@
         <v>419</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D60" s="18">
         <v>4000</v>
@@ -3807,7 +3807,7 @@
         <v>419</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D61" s="18">
         <v>900</v>
@@ -3830,7 +3830,7 @@
         <v>419</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D62" s="18">
         <v>1200</v>
@@ -3853,7 +3853,7 @@
         <v>396</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D63" s="18">
         <v>1200</v>
@@ -3876,7 +3876,7 @@
         <v>420</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D64" s="18">
         <v>600</v>
@@ -3899,7 +3899,7 @@
         <v>421</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D65" s="18">
         <v>4500</v>
@@ -3922,7 +3922,7 @@
         <v>394</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D66" s="24">
         <v>850</v>
@@ -3945,7 +3945,7 @@
         <v>394</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D67" s="18">
         <v>1200</v>
@@ -3968,13 +3968,13 @@
         <v>394</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D68" s="18">
         <v>900</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F68" t="s">
         <v>195</v>
@@ -3991,7 +3991,7 @@
         <v>394</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D69" s="18">
         <v>300</v>
@@ -4014,7 +4014,7 @@
         <v>394</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D70" s="18">
         <v>1800</v>
@@ -4037,7 +4037,7 @@
         <v>394</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D71" s="18">
         <v>1200</v>
@@ -4060,7 +4060,7 @@
         <v>394</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D72" s="18">
         <v>1600</v>
@@ -4083,7 +4083,7 @@
         <v>394</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D73" s="18">
         <v>2000</v>
@@ -4095,7 +4095,7 @@
         <v>195</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>485</v>
+        <v>651</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -4106,7 +4106,7 @@
         <v>422</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D74" s="18">
         <v>12500</v>
@@ -4129,7 +4129,7 @@
         <v>417</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D75" s="18">
         <v>800</v>
@@ -4152,7 +4152,7 @@
         <v>417</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D76" s="18">
         <v>600</v>
@@ -4218,10 +4218,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D79" s="18">
         <v>2500</v>
@@ -4264,10 +4264,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D81" s="18">
         <v>1400</v>
@@ -4290,7 +4290,7 @@
         <v>409</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D82" s="18">
         <v>350</v>
@@ -4313,7 +4313,7 @@
         <v>394</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D83" s="18">
         <v>750</v>
@@ -4333,7 +4333,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>450</v>
@@ -4359,7 +4359,7 @@
         <v>409</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D85" s="18">
         <v>600</v>
@@ -4382,7 +4382,7 @@
         <v>423</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D86" s="18">
         <v>1200</v>
@@ -4405,7 +4405,7 @@
         <v>394</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D87" s="18">
         <v>1700</v>
@@ -4474,7 +4474,7 @@
         <v>417</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D90" s="18">
         <v>400</v>
@@ -4497,7 +4497,7 @@
         <v>424</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D91" s="18">
         <v>2750</v>
@@ -4543,7 +4543,7 @@
         <v>426</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D93" s="18">
         <v>3500</v>
@@ -4566,7 +4566,7 @@
         <v>406</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D94" s="18">
         <v>20000</v>
@@ -4589,7 +4589,7 @@
         <v>406</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D95" s="18">
         <v>800</v>
@@ -4601,7 +4601,7 @@
         <v>198</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -4612,7 +4612,7 @@
         <v>406</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D96" s="18">
         <v>2500</v>
@@ -4635,7 +4635,7 @@
         <v>427</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D97" s="18">
         <v>3000</v>
@@ -4658,7 +4658,7 @@
         <v>406</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D98" s="18">
         <v>750</v>
@@ -4681,7 +4681,7 @@
         <v>428</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D99" s="18">
         <v>350</v>
@@ -4727,7 +4727,7 @@
         <v>429</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D101" s="18">
         <v>3500</v>
@@ -4750,7 +4750,7 @@
         <v>407</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D102" s="18">
         <v>2800</v>
@@ -4773,7 +4773,7 @@
         <v>394</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D103" s="18">
         <v>1200</v>
@@ -4842,7 +4842,7 @@
         <v>419</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D106" s="24">
         <v>850</v>
@@ -4865,7 +4865,7 @@
         <v>394</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D107" s="18">
         <v>400</v>
@@ -4934,7 +4934,7 @@
         <v>409</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D110" s="18">
         <v>400</v>
@@ -4957,7 +4957,7 @@
         <v>409</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D111" s="18">
         <v>1000</v>
@@ -4980,7 +4980,7 @@
         <v>409</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D112" s="18">
         <v>750</v>
@@ -5003,7 +5003,7 @@
         <v>422</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D113" s="18">
         <v>4000</v>
@@ -5026,7 +5026,7 @@
         <v>426</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D114" s="18">
         <v>3000</v>
@@ -5049,7 +5049,7 @@
         <v>407</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D115" s="18">
         <v>2000</v>
@@ -5095,7 +5095,7 @@
         <v>407</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D117" s="18">
         <v>1800</v>
@@ -5118,7 +5118,7 @@
         <v>407</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D118" s="18">
         <v>1200</v>
@@ -5141,7 +5141,7 @@
         <v>407</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D119" s="18">
         <v>800</v>
@@ -5164,7 +5164,7 @@
         <v>407</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D120" s="18">
         <v>250</v>
@@ -5187,7 +5187,7 @@
         <v>407</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D121" s="18">
         <v>2500</v>
@@ -5210,7 +5210,7 @@
         <v>407</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D122" s="18">
         <v>800</v>
@@ -5233,7 +5233,7 @@
         <v>407</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D123" s="18">
         <v>800</v>
@@ -5256,7 +5256,7 @@
         <v>407</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D124" s="18">
         <v>500</v>
@@ -5279,7 +5279,7 @@
         <v>429</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D125" s="18">
         <v>2000</v>
@@ -5302,7 +5302,7 @@
         <v>417</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D126" s="18">
         <v>1200</v>
@@ -5325,7 +5325,7 @@
         <v>416</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D127" s="18">
         <v>5000</v>
@@ -5348,7 +5348,7 @@
         <v>416</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D128" s="18">
         <v>2000</v>
@@ -5371,7 +5371,7 @@
         <v>432</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D129" s="18">
         <v>1500</v>
@@ -5417,7 +5417,7 @@
         <v>394</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D131" s="18">
         <v>300</v>
@@ -5440,7 +5440,7 @@
         <v>416</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D132" s="18">
         <v>800</v>
@@ -5463,7 +5463,7 @@
         <v>406</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D133" s="18">
         <v>2000</v>
@@ -5486,7 +5486,7 @@
         <v>406</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D134" s="18">
         <v>700</v>
@@ -5509,7 +5509,7 @@
         <v>406</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D135" s="18">
         <v>700</v>
@@ -5532,7 +5532,7 @@
         <v>406</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D136" s="18">
         <v>700</v>
@@ -5555,7 +5555,7 @@
         <v>406</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D137" s="18">
         <v>700</v>
@@ -5578,7 +5578,7 @@
         <v>406</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D138" s="18">
         <v>700</v>
@@ -5601,7 +5601,7 @@
         <v>406</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D139" s="18">
         <v>900</v>
@@ -5624,7 +5624,7 @@
         <v>406</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D140" s="18">
         <v>700</v>
@@ -5647,7 +5647,7 @@
         <v>406</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D141" s="18">
         <v>700</v>
@@ -5670,7 +5670,7 @@
         <v>406</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D142" s="18">
         <v>700</v>
@@ -5693,7 +5693,7 @@
         <v>406</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D143" s="18">
         <v>700</v>
@@ -5716,7 +5716,7 @@
         <v>406</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D144" s="18">
         <v>700</v>
@@ -5739,7 +5739,7 @@
         <v>406</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D145" s="18">
         <v>1400</v>
@@ -5762,7 +5762,7 @@
         <v>406</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D146" s="18">
         <v>700</v>
@@ -5785,7 +5785,7 @@
         <v>406</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D147" s="18">
         <v>700</v>
@@ -5808,7 +5808,7 @@
         <v>406</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D148" s="18">
         <v>700</v>
@@ -5831,7 +5831,7 @@
         <v>406</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D149" s="18">
         <v>700</v>
@@ -5854,7 +5854,7 @@
         <v>406</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D150" s="18">
         <v>500</v>
@@ -5877,7 +5877,7 @@
         <v>406</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D151" s="18">
         <v>800</v>
@@ -5900,7 +5900,7 @@
         <v>406</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D152" s="18">
         <v>800</v>
@@ -5923,7 +5923,7 @@
         <v>406</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D153" s="18">
         <v>350</v>
@@ -5946,7 +5946,7 @@
         <v>406</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D154" s="18">
         <v>2500</v>
@@ -5969,7 +5969,7 @@
         <v>406</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D155" s="18">
         <v>600</v>
@@ -5992,7 +5992,7 @@
         <v>406</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D156" s="18">
         <v>700</v>
@@ -6004,7 +6004,7 @@
         <v>198</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -6015,7 +6015,7 @@
         <v>406</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D157" s="18">
         <v>700</v>
@@ -6027,7 +6027,7 @@
         <v>198</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -6038,7 +6038,7 @@
         <v>427</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D158" s="18">
         <v>750</v>
@@ -6061,7 +6061,7 @@
         <v>406</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D159" s="18">
         <v>1200</v>
@@ -6084,7 +6084,7 @@
         <v>406</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D160" s="19">
         <v>600</v>
@@ -6107,7 +6107,7 @@
         <v>396</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D161" s="18">
         <v>750</v>
@@ -6130,7 +6130,7 @@
         <v>433</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D162" s="18">
         <v>800</v>
@@ -6153,7 +6153,7 @@
         <v>422</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D163" s="18">
         <v>1500</v>
@@ -6176,7 +6176,7 @@
         <v>422</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D164" s="18">
         <v>1200</v>
@@ -6199,7 +6199,7 @@
         <v>394</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D165" s="18">
         <v>1500</v>
@@ -6222,7 +6222,7 @@
         <v>434</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D166" s="18">
         <v>300</v>
@@ -6245,7 +6245,7 @@
         <v>419</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D167" s="18">
         <v>400</v>
@@ -6268,7 +6268,7 @@
         <v>419</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D168" s="18">
         <v>500</v>
@@ -6291,7 +6291,7 @@
         <v>435</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D169" s="18">
         <v>300</v>
@@ -6314,7 +6314,7 @@
         <v>394</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D170" s="19">
         <v>400</v>
@@ -6337,7 +6337,7 @@
         <v>394</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D171" s="18">
         <v>150</v>
@@ -6360,7 +6360,7 @@
         <v>435</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D172" s="18">
         <v>150</v>
@@ -6383,7 +6383,7 @@
         <v>420</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D173" s="18">
         <v>100</v>
@@ -6406,7 +6406,7 @@
         <v>436</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D174" s="18">
         <v>4000</v>
@@ -6429,7 +6429,7 @@
         <v>436</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D175" s="18">
         <v>1500</v>
@@ -6452,7 +6452,7 @@
         <v>436</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D176" s="18">
         <v>2500</v>
@@ -6475,7 +6475,7 @@
         <v>413</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D177" s="18">
         <v>500</v>
@@ -6533,7 +6533,7 @@
         <v>216</v>
       </c>
       <c r="G179" s="17" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -6567,7 +6567,7 @@
         <v>406</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D181" s="18">
         <v>2300</v>
@@ -6590,7 +6590,7 @@
         <v>399</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D182" s="18">
         <v>1400</v>
@@ -6613,7 +6613,7 @@
         <v>438</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D183" s="18">
         <v>1575</v>
@@ -6636,7 +6636,7 @@
         <v>438</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D184" s="18">
         <v>1485</v>
@@ -6659,7 +6659,7 @@
         <v>438</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D185" s="18">
         <v>1260</v>
@@ -6682,7 +6682,7 @@
         <v>438</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D186" s="21">
         <v>1215</v>
@@ -6705,7 +6705,7 @@
         <v>438</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D187" s="21">
         <v>1440</v>
@@ -6728,7 +6728,7 @@
         <v>438</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D188" s="21">
         <v>1395</v>
@@ -6751,7 +6751,7 @@
         <v>438</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D189" s="21">
         <v>810</v>
@@ -6774,7 +6774,7 @@
         <v>438</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D190" s="21">
         <v>1575</v>
@@ -6797,7 +6797,7 @@
         <v>438</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D191" s="21">
         <v>1170</v>
@@ -6820,7 +6820,7 @@
         <v>438</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D192" s="21">
         <v>810</v>
@@ -6843,7 +6843,7 @@
         <v>438</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D193" s="21">
         <v>855</v>
@@ -7119,7 +7119,7 @@
         <v>438</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D205" s="21">
         <v>768</v>
@@ -7142,7 +7142,7 @@
         <v>438</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D206" s="21">
         <v>1120</v>
@@ -7165,7 +7165,7 @@
         <v>438</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D207" s="21">
         <v>1856</v>
@@ -7188,7 +7188,7 @@
         <v>438</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D208" s="21">
         <v>864</v>
@@ -7211,7 +7211,7 @@
         <v>438</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D209" s="21">
         <v>1280</v>
@@ -7234,7 +7234,7 @@
         <v>438</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D210" s="21">
         <v>896</v>
@@ -7257,7 +7257,7 @@
         <v>438</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D211" s="21">
         <v>2112</v>
@@ -7280,7 +7280,7 @@
         <v>438</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D212" s="21">
         <v>1888</v>
@@ -7303,7 +7303,7 @@
         <v>438</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D213" s="21">
         <v>800</v>
@@ -7326,7 +7326,7 @@
         <v>438</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D214" s="21">
         <v>1088</v>
@@ -7349,7 +7349,7 @@
         <v>438</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D215" s="21">
         <v>800</v>
@@ -7372,7 +7372,7 @@
         <v>438</v>
       </c>
       <c r="C216" s="13" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D216" s="22">
         <v>800</v>
@@ -7395,7 +7395,7 @@
         <v>438</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D217" s="21">
         <v>950</v>
@@ -7418,7 +7418,7 @@
         <v>438</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D218" s="21">
         <v>576</v>
@@ -7441,7 +7441,7 @@
         <v>438</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D219" s="21">
         <v>925</v>
@@ -7464,7 +7464,7 @@
         <v>438</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D220" s="21">
         <v>725</v>
@@ -7487,7 +7487,7 @@
         <v>438</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D221" s="21">
         <v>750</v>
@@ -7510,7 +7510,7 @@
         <v>438</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D222" s="21">
         <v>1100</v>
@@ -7533,7 +7533,7 @@
         <v>438</v>
       </c>
       <c r="C223" s="13" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D223" s="22">
         <v>1225</v>
@@ -7757,7 +7757,7 @@
         <v>438</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D233" s="21">
         <v>1990</v>
@@ -7780,7 +7780,7 @@
         <v>438</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D234" s="21">
         <v>770</v>
@@ -7803,7 +7803,7 @@
         <v>438</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D235" s="21">
         <v>1190</v>
@@ -7826,7 +7826,7 @@
         <v>438</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D236" s="21">
         <v>940</v>
@@ -7849,7 +7849,7 @@
         <v>438</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D237" s="21">
         <v>1040</v>
@@ -7872,7 +7872,7 @@
         <v>438</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D238" s="21">
         <v>880</v>
@@ -7895,7 +7895,7 @@
         <v>438</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D239" s="21">
         <v>540</v>
@@ -7918,7 +7918,7 @@
         <v>438</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D240" s="21">
         <v>800</v>
@@ -7941,7 +7941,7 @@
         <v>438</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D241" s="21">
         <v>1670</v>
@@ -7964,7 +7964,7 @@
         <v>438</v>
       </c>
       <c r="C242" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D242" s="22">
         <v>2550</v>
@@ -7987,7 +7987,7 @@
         <v>438</v>
       </c>
       <c r="C243" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D243" s="21">
         <v>2400</v>
@@ -8056,7 +8056,7 @@
         <v>438</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D246" s="21">
         <v>5625</v>
@@ -8079,7 +8079,7 @@
         <v>438</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D247" s="21">
         <v>540</v>
@@ -8102,7 +8102,7 @@
         <v>438</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D248" s="21">
         <v>750</v>
@@ -8125,7 +8125,7 @@
         <v>438</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D249" s="21">
         <v>1200</v>
@@ -8148,7 +8148,7 @@
         <v>438</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D250" s="21">
         <v>1000</v>
@@ -8171,7 +8171,7 @@
         <v>438</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D251" s="21">
         <v>1800</v>
@@ -8194,7 +8194,7 @@
         <v>438</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D252" s="21">
         <v>1500</v>
@@ -8217,7 +8217,7 @@
         <v>438</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D253" s="21">
         <v>700</v>
@@ -8240,7 +8240,7 @@
         <v>438</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D254" s="21">
         <v>940</v>
@@ -8263,7 +8263,7 @@
         <v>438</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D255" s="21">
         <v>1300</v>
@@ -8286,7 +8286,7 @@
         <v>438</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D256" s="21">
         <v>2000</v>
@@ -8309,7 +8309,7 @@
         <v>438</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D257" s="21">
         <v>1400</v>
@@ -8332,7 +8332,7 @@
         <v>438</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D258" s="21">
         <v>2560</v>
@@ -8355,7 +8355,7 @@
         <v>438</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D259" s="21">
         <v>116</v>

--- a/Gallery.xlsx
+++ b/Gallery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelaziz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A28909E-8425-4652-B9DC-E39565D36258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F18ECFD-D8F1-4936-BDDC-EC908A6F1C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2402,9 +2402,9 @@
   <dimension ref="A1:G265"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G71" sqref="G71"/>
+      <selection pane="bottomLeft" activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4094,7 +4094,7 @@
       <c r="F73" t="s">
         <v>195</v>
       </c>
-      <c r="G73" s="7" t="s">
+      <c r="G73" s="17" t="s">
         <v>651</v>
       </c>
     </row>
@@ -4411,7 +4411,7 @@
         <v>1700</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F87" t="s">
         <v>195</v>
@@ -4434,7 +4434,7 @@
         <v>300</v>
       </c>
       <c r="E88" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F88" t="s">
         <v>212</v>
@@ -8412,145 +8412,144 @@
     <hyperlink ref="E81" r:id="rId16" xr:uid="{CC244AAC-C80F-49E6-86C4-0DB77AE026AF}"/>
     <hyperlink ref="E82" r:id="rId17" xr:uid="{F4536664-D2DC-40CB-8E8B-D7CF57FF552F}"/>
     <hyperlink ref="E84" r:id="rId18" xr:uid="{2200D4DF-D7B1-4527-9E66-91C84531E8B6}"/>
-    <hyperlink ref="E87" r:id="rId19" xr:uid="{B3A357D8-6D83-493E-A741-1FAF66898F28}"/>
-    <hyperlink ref="E89" r:id="rId20" xr:uid="{3A69940E-9343-4112-9D56-B3FD68CA9AD4}"/>
-    <hyperlink ref="E92" r:id="rId21" xr:uid="{B0D3C429-1E94-4071-A35F-49646D7ACC95}"/>
-    <hyperlink ref="E90" r:id="rId22" xr:uid="{7B0ED102-5F61-4783-87FF-7960D2B8A018}"/>
-    <hyperlink ref="E91" r:id="rId23" xr:uid="{60F38D09-6BEC-4F9F-8967-7E5576E44916}"/>
-    <hyperlink ref="E96" r:id="rId24" xr:uid="{BEFA96DE-134D-4FDD-AFA9-941318AC25AC}"/>
-    <hyperlink ref="E97" r:id="rId25" xr:uid="{E45A2EF0-3976-4886-A33A-8EDF3F24DB28}"/>
-    <hyperlink ref="E98" r:id="rId26" xr:uid="{47C32F15-E095-48BF-8AC0-1DBD544DD6E8}"/>
-    <hyperlink ref="E101" r:id="rId27" xr:uid="{674B3592-1BDE-41BA-9EB9-800AF2272003}"/>
-    <hyperlink ref="E102" r:id="rId28" xr:uid="{6FD5C013-8BBD-41F4-9782-1DA65D85CD5A}"/>
-    <hyperlink ref="E103" r:id="rId29" xr:uid="{6017F4F0-F9CA-4750-958D-E7C912018777}"/>
-    <hyperlink ref="E106" r:id="rId30" xr:uid="{EF685BEA-18C4-4E8C-917B-EACD39ABA2E6}"/>
-    <hyperlink ref="E107" r:id="rId31" xr:uid="{181CB626-A3F2-438B-9CF2-0C0BCDE6F60C}"/>
-    <hyperlink ref="E108" r:id="rId32" xr:uid="{2A00C0EC-8F41-4ABB-9C79-1D946856565D}"/>
-    <hyperlink ref="E113" r:id="rId33" xr:uid="{3146DD88-73E7-436D-85FB-72D70EE4E854}"/>
-    <hyperlink ref="E114" r:id="rId34" xr:uid="{FFB62559-6F14-4F53-9A4D-0A4CAD2B1775}"/>
-    <hyperlink ref="E131" r:id="rId35" xr:uid="{F72838D9-18C1-4FF5-B725-A8AC73485B25}"/>
-    <hyperlink ref="E132" r:id="rId36" xr:uid="{4169F08E-03D6-45BF-8F64-3D02ED3BB6B2}"/>
-    <hyperlink ref="E136" r:id="rId37" xr:uid="{F95984CE-0315-4D79-878E-C01F982D7B86}"/>
-    <hyperlink ref="E134" r:id="rId38" xr:uid="{71C55BC7-D105-4979-BC1D-223D20E7D7CF}"/>
-    <hyperlink ref="E135" r:id="rId39" xr:uid="{FFB1C659-1F13-4D95-8E39-8A35B11BD7C7}"/>
-    <hyperlink ref="E137" r:id="rId40" xr:uid="{5E593A99-0C56-4223-96F2-96937B1032AE}"/>
-    <hyperlink ref="E138" r:id="rId41" xr:uid="{3C723C9F-4921-412B-8472-8CB79FBC0D5B}"/>
-    <hyperlink ref="E140" r:id="rId42" xr:uid="{95707C9D-6A21-4F29-AC8B-DDD3D57DDA91}"/>
-    <hyperlink ref="E145" r:id="rId43" xr:uid="{FA9B4B34-C2DC-4360-A01A-62DB7EB9334C}"/>
-    <hyperlink ref="E141" r:id="rId44" xr:uid="{102FEEE2-8A65-4963-AA4D-42AA66AF8A75}"/>
-    <hyperlink ref="E142" r:id="rId45" xr:uid="{ABD4FF97-C356-46C4-A3FD-8BF5990EC247}"/>
-    <hyperlink ref="E147" r:id="rId46" xr:uid="{D37BDCA5-AEC9-400D-801B-807F7FABBCEB}"/>
-    <hyperlink ref="E149" r:id="rId47" xr:uid="{E106FEF3-2A29-42A9-A98A-4B58F38E79A7}"/>
-    <hyperlink ref="E148" r:id="rId48" xr:uid="{842D0B44-EBE8-48F8-BF27-FA7170C4D3B5}"/>
-    <hyperlink ref="E146" r:id="rId49" xr:uid="{6CBB96B0-6538-4E61-85FD-D60FB95A40EF}"/>
-    <hyperlink ref="E143" r:id="rId50" xr:uid="{592B83CC-6C24-4C9A-AAB1-D25A97E2220D}"/>
-    <hyperlink ref="E139" r:id="rId51" xr:uid="{E96C3DF6-B0BA-4DD2-8401-6FE8FF78E1D8}"/>
-    <hyperlink ref="E144" r:id="rId52" xr:uid="{4DA3BC06-0E1A-4D26-A8ED-2303829FD5FB}"/>
-    <hyperlink ref="E150" r:id="rId53" xr:uid="{B5089AAC-5D5B-4354-8E4B-ACCEB292FE46}"/>
-    <hyperlink ref="E179" r:id="rId54" xr:uid="{2DC37099-0C06-406F-8A78-C69FFEA5DBB9}"/>
-    <hyperlink ref="E165" r:id="rId55" xr:uid="{1406B533-E76F-4E34-AEBE-CF214A7A4389}"/>
-    <hyperlink ref="E152" r:id="rId56" xr:uid="{38FD6989-1C7D-4B42-9239-25D8B69639B0}"/>
-    <hyperlink ref="E151" r:id="rId57" xr:uid="{356DB9E0-B914-453A-A186-895A0FB1E70D}"/>
-    <hyperlink ref="E153" r:id="rId58" xr:uid="{B5141D0C-A203-4800-98D1-A002F3131144}"/>
-    <hyperlink ref="E154" r:id="rId59" xr:uid="{D8BC583F-75DE-48E8-84D8-313520EDD275}"/>
-    <hyperlink ref="E164" r:id="rId60" xr:uid="{F22A5A62-CFCB-4E14-8ADE-F666F077FE8F}"/>
-    <hyperlink ref="E155" r:id="rId61" xr:uid="{E5A8AD74-B362-4370-9CB6-127E4FDDA652}"/>
-    <hyperlink ref="E166" r:id="rId62" xr:uid="{344A5451-1D20-4D86-B2FD-DCCBF038B68E}"/>
-    <hyperlink ref="E161" r:id="rId63" xr:uid="{0117161A-5B79-4300-A098-CCFEA61A2974}"/>
-    <hyperlink ref="E167" r:id="rId64" xr:uid="{4684B8AB-4658-45A8-8378-1FF9C9D07A91}"/>
-    <hyperlink ref="E158" r:id="rId65" xr:uid="{AB1B2CED-AE5B-4A30-9E89-BDFB6A04A5B1}"/>
-    <hyperlink ref="E169" r:id="rId66" xr:uid="{0A8E772D-D766-41DF-A561-C4B167E6CD7F}"/>
-    <hyperlink ref="E157" r:id="rId67" xr:uid="{747296A4-4012-4539-8979-FB5308AEB6A8}"/>
-    <hyperlink ref="E168" r:id="rId68" xr:uid="{07A5DA01-AA25-4321-8DEB-90F00A3DB313}"/>
-    <hyperlink ref="E170" r:id="rId69" xr:uid="{7FC9C8E6-7312-4CCE-996E-BBE18A6BBA37}"/>
-    <hyperlink ref="E171" r:id="rId70" xr:uid="{A3B6B3F2-D1A2-4B4D-9DF1-BB8FBD2AC74E}"/>
-    <hyperlink ref="E156" r:id="rId71" xr:uid="{EB35A134-34E9-49E6-ADF6-350F3A205D2D}"/>
-    <hyperlink ref="E160" r:id="rId72" xr:uid="{CB55790E-A13B-444A-8286-D3129F874D97}"/>
-    <hyperlink ref="E162" r:id="rId73" xr:uid="{A8353BE6-3E9E-40BE-A008-C194A7DD40AB}"/>
-    <hyperlink ref="E173" r:id="rId74" xr:uid="{F41D57C4-0208-4802-9E33-EB7FAC5DC42F}"/>
-    <hyperlink ref="E163" r:id="rId75" xr:uid="{A1656B3B-E843-4CFF-8457-A07FA703A871}"/>
-    <hyperlink ref="E172" r:id="rId76" xr:uid="{3BF37B87-3FCA-40E3-BAA1-26618A9AB59F}"/>
-    <hyperlink ref="E176" r:id="rId77" xr:uid="{0D273B19-2A25-4B47-BED7-1E9E42A3CC6A}"/>
-    <hyperlink ref="E175" r:id="rId78" xr:uid="{0A92071F-0FEE-40F1-AE4D-71CFAFA58AE6}"/>
-    <hyperlink ref="E178" r:id="rId79" xr:uid="{B0F7CFA9-14B3-4864-9997-B66A2327C2BE}"/>
-    <hyperlink ref="E174" r:id="rId80" xr:uid="{EF5AFCDF-E1C7-4660-8E58-CB6D5AA622CF}"/>
-    <hyperlink ref="E177" r:id="rId81" xr:uid="{1EAB560C-F888-4CFF-8D2A-3FE9E7C34344}"/>
-    <hyperlink ref="E159" r:id="rId82" xr:uid="{A465BD95-A7B8-4529-A08C-9775A484268F}"/>
-    <hyperlink ref="E59" r:id="rId83" xr:uid="{862616CF-DC50-4252-A2A5-6C2A8F0D492C}"/>
-    <hyperlink ref="E2" r:id="rId84" xr:uid="{25368976-30AE-4ECC-9DB6-21DA8763251B}"/>
-    <hyperlink ref="E180" r:id="rId85" xr:uid="{7CF036D5-67DF-41BA-98A1-AEDBC49EB72B}"/>
-    <hyperlink ref="E181" r:id="rId86" xr:uid="{412F2EA4-2FB8-4051-885B-2F397F55D297}"/>
-    <hyperlink ref="E182" r:id="rId87" xr:uid="{12E3E6DB-3A38-482A-982A-445A23E5AFD8}"/>
-    <hyperlink ref="E183" r:id="rId88" xr:uid="{C8599419-DA6E-41D3-906B-3435D7A96A74}"/>
-    <hyperlink ref="E184" r:id="rId89" xr:uid="{502D6EEA-4D5E-4839-8A56-DEA8D357B77D}"/>
-    <hyperlink ref="E185" r:id="rId90" xr:uid="{824213CB-2ACD-4390-B1D4-D1A2A2A3835A}"/>
-    <hyperlink ref="E186" r:id="rId91" xr:uid="{40DDCF2D-C69A-405D-A087-C990A148A15C}"/>
-    <hyperlink ref="E187" r:id="rId92" xr:uid="{6E3A694F-0939-492C-8AB5-CF313A97A946}"/>
-    <hyperlink ref="E188" r:id="rId93" xr:uid="{F4F2B958-D3F8-4899-988A-67C1AB5205BC}"/>
-    <hyperlink ref="E189" r:id="rId94" xr:uid="{80782243-3334-4C34-BDB8-026447ECC239}"/>
-    <hyperlink ref="E190" r:id="rId95" xr:uid="{A452E1CF-7D32-41A6-9665-66B81DE27499}"/>
-    <hyperlink ref="E191" r:id="rId96" xr:uid="{6CEDFEB8-CB83-4F0D-B2AD-21BBDD9B0F4B}"/>
-    <hyperlink ref="E192" r:id="rId97" xr:uid="{702633F9-C26A-4C65-A831-34A29E588A8F}"/>
-    <hyperlink ref="E194" r:id="rId98" xr:uid="{B33D162E-45C9-4281-9FFF-577408A6EDB2}"/>
-    <hyperlink ref="E195" r:id="rId99" xr:uid="{DE19B830-C7D4-4D2A-8AB1-A5668A6E03FB}"/>
-    <hyperlink ref="E196" r:id="rId100" xr:uid="{7C93EE81-C318-452E-BBC1-DCFE023FAD3F}"/>
-    <hyperlink ref="E197" r:id="rId101" xr:uid="{6300310A-48DC-488D-A1FD-23E873045355}"/>
-    <hyperlink ref="E198" r:id="rId102" xr:uid="{CA699900-3D2B-4884-875C-E9D2E47BEE3C}"/>
-    <hyperlink ref="E199" r:id="rId103" xr:uid="{376D7A2E-7E4C-4360-BF85-5168C3C685D7}"/>
-    <hyperlink ref="E200" r:id="rId104" xr:uid="{AB9D8F8B-3898-4372-B0E9-A053F1265878}"/>
-    <hyperlink ref="E201" r:id="rId105" xr:uid="{F2BCF522-1846-4815-87FA-CD83C387BD9A}"/>
-    <hyperlink ref="E203" r:id="rId106" xr:uid="{F1164EA5-2F2A-4E6A-B2A2-1492B5482B98}"/>
-    <hyperlink ref="E204" r:id="rId107" xr:uid="{F02FBCD4-428A-427F-9C98-F3900F8C8FB3}"/>
-    <hyperlink ref="E205" r:id="rId108" xr:uid="{D6F29053-91E6-4208-95DF-36B129B829A4}"/>
-    <hyperlink ref="E206" r:id="rId109" xr:uid="{B4C4E458-D6F2-46B9-988B-9B7CCFE7CA77}"/>
-    <hyperlink ref="E207" r:id="rId110" xr:uid="{E42CF963-CB15-45AB-93C7-58361B5A229D}"/>
-    <hyperlink ref="E208" r:id="rId111" xr:uid="{AF0C32B5-13EE-496B-BF0D-1FEF312C7323}"/>
-    <hyperlink ref="E209" r:id="rId112" xr:uid="{1EF9D6B8-F3B5-479B-8CEC-77186651BB99}"/>
-    <hyperlink ref="E210" r:id="rId113" xr:uid="{DDA72F8C-C135-42EF-B570-5B03127B420C}"/>
-    <hyperlink ref="E212" r:id="rId114" xr:uid="{4B320933-3CF5-47A0-8182-AF344587D7E5}"/>
-    <hyperlink ref="E213" r:id="rId115" xr:uid="{A093705E-2126-42D4-9472-BA86B757AB65}"/>
-    <hyperlink ref="E214" r:id="rId116" xr:uid="{AABBA42E-B426-405E-A049-A6941FE8C16D}"/>
-    <hyperlink ref="E215" r:id="rId117" xr:uid="{69D673EE-4F12-4F9A-A362-65786557DF51}"/>
-    <hyperlink ref="E216" r:id="rId118" xr:uid="{8AB9C893-8492-41AC-BA5D-7C59601A96DD}"/>
-    <hyperlink ref="E217" r:id="rId119" xr:uid="{4BEEA27D-FCEC-4510-9F9E-0BFCEB23E308}"/>
-    <hyperlink ref="E218" r:id="rId120" xr:uid="{4CCEA639-4833-4B73-9FD7-7D39B76548F8}"/>
-    <hyperlink ref="E219" r:id="rId121" xr:uid="{ACE6DC43-9F33-4FB2-A2FD-00FED624C823}"/>
-    <hyperlink ref="E221" r:id="rId122" xr:uid="{E763B5EE-E263-44E0-A226-09B0A56576F2}"/>
-    <hyperlink ref="E222" r:id="rId123" xr:uid="{565AEB14-1F19-478B-876F-0AA877D27033}"/>
-    <hyperlink ref="E223" r:id="rId124" xr:uid="{2BADA365-742E-4AD1-B995-43869021841D}"/>
-    <hyperlink ref="E224" r:id="rId125" xr:uid="{9EB40FC5-018C-4159-BD5F-730B636D6745}"/>
-    <hyperlink ref="E225" r:id="rId126" xr:uid="{1FB4BD7B-6230-4535-8810-3490840640E6}"/>
-    <hyperlink ref="E226" r:id="rId127" xr:uid="{C01EB9DC-D91C-4C07-8726-0EAD7AA2B77F}"/>
-    <hyperlink ref="E227" r:id="rId128" xr:uid="{D13CA7CF-6E50-4B8D-8309-7A9F14C1A86E}"/>
-    <hyperlink ref="E228" r:id="rId129" xr:uid="{CB41DC05-F064-401E-893C-316DE1E40F2B}"/>
-    <hyperlink ref="E230" r:id="rId130" xr:uid="{144DD6F8-98C9-4EE1-B2A6-11C5E4FBAE67}"/>
-    <hyperlink ref="E231" r:id="rId131" xr:uid="{54956990-6A6E-4761-99AB-46DF32AE447F}"/>
-    <hyperlink ref="E232" r:id="rId132" xr:uid="{527BC068-330D-4352-927C-0EA644B38895}"/>
-    <hyperlink ref="E233" r:id="rId133" xr:uid="{398E4125-310B-4A8D-8F52-E0DCA1BE08D1}"/>
-    <hyperlink ref="E234" r:id="rId134" xr:uid="{1A499FAE-3035-4D01-AA13-5499B684B4F9}"/>
-    <hyperlink ref="E235" r:id="rId135" xr:uid="{CA280778-5C8B-4F76-8D76-B791F140BBE7}"/>
-    <hyperlink ref="E236" r:id="rId136" xr:uid="{341040F1-3B87-4F25-8AE2-080EB3EF314B}"/>
-    <hyperlink ref="E237" r:id="rId137" xr:uid="{CF540B81-AD77-459D-8132-B02BEDB98F1B}"/>
-    <hyperlink ref="E239" r:id="rId138" xr:uid="{0FD39196-B353-4546-9DBA-AD6D67DB4E47}"/>
-    <hyperlink ref="E240" r:id="rId139" xr:uid="{713ED13E-E73A-468D-B6B7-0E31941E1FFC}"/>
-    <hyperlink ref="E241" r:id="rId140" xr:uid="{6E27DEFF-6A1F-44DD-9AD8-CF0E868288AD}"/>
-    <hyperlink ref="E242" r:id="rId141" xr:uid="{BCC4F6D4-642E-4192-8499-BF59CDB47EBA}"/>
-    <hyperlink ref="E243" r:id="rId142" xr:uid="{CC8ADBF8-D4D4-48C6-9B61-F5318F4B06E6}"/>
-    <hyperlink ref="E244" r:id="rId143" xr:uid="{C8D9D1AD-41DA-4CF0-ACF1-88C1834FD125}"/>
-    <hyperlink ref="E245" r:id="rId144" xr:uid="{E7D62319-4140-45C3-9E90-8963C2A3090F}"/>
-    <hyperlink ref="E246" r:id="rId145" xr:uid="{D6A6D0ED-1383-44BA-A068-D7653539AAE4}"/>
-    <hyperlink ref="E248" r:id="rId146" xr:uid="{F0325C78-8C01-4C99-866E-4B745B83A3FF}"/>
-    <hyperlink ref="E249" r:id="rId147" xr:uid="{0BA2EB03-A645-49C2-BB67-6C4757565E82}"/>
-    <hyperlink ref="E250" r:id="rId148" xr:uid="{FDFA0613-F247-46D0-A88B-E6F6AE5E5A50}"/>
-    <hyperlink ref="E251" r:id="rId149" xr:uid="{057D666D-3772-4B27-B7ED-F4E0ABDE3AE4}"/>
-    <hyperlink ref="E252" r:id="rId150" xr:uid="{407BED3B-EF77-41A5-B8F7-E408E031242B}"/>
-    <hyperlink ref="E253" r:id="rId151" xr:uid="{73E3DE29-1EE5-4ECB-B5BC-37864B33F898}"/>
-    <hyperlink ref="E254" r:id="rId152" xr:uid="{24275325-8AE2-4899-8E48-D0717AC8CA7D}"/>
-    <hyperlink ref="E255" r:id="rId153" xr:uid="{6D928180-8AA1-4463-BBD2-97B261953C89}"/>
-    <hyperlink ref="E257" r:id="rId154" xr:uid="{678CFD0A-557C-4EE2-9ACE-9F5195ACA5A8}"/>
-    <hyperlink ref="E258" r:id="rId155" xr:uid="{D6AC0E13-2F87-48D1-A4D0-D9BAEB1E68E3}"/>
-    <hyperlink ref="E259" r:id="rId156" xr:uid="{5728F092-DAB2-476F-A11F-CC4CA7FE88BB}"/>
-    <hyperlink ref="E260" r:id="rId157" xr:uid="{451646C2-0BF4-4D56-9C47-57DAAEFDF034}"/>
+    <hyperlink ref="E89" r:id="rId19" xr:uid="{3A69940E-9343-4112-9D56-B3FD68CA9AD4}"/>
+    <hyperlink ref="E92" r:id="rId20" xr:uid="{B0D3C429-1E94-4071-A35F-49646D7ACC95}"/>
+    <hyperlink ref="E90" r:id="rId21" xr:uid="{7B0ED102-5F61-4783-87FF-7960D2B8A018}"/>
+    <hyperlink ref="E91" r:id="rId22" xr:uid="{60F38D09-6BEC-4F9F-8967-7E5576E44916}"/>
+    <hyperlink ref="E96" r:id="rId23" xr:uid="{BEFA96DE-134D-4FDD-AFA9-941318AC25AC}"/>
+    <hyperlink ref="E97" r:id="rId24" xr:uid="{E45A2EF0-3976-4886-A33A-8EDF3F24DB28}"/>
+    <hyperlink ref="E98" r:id="rId25" xr:uid="{47C32F15-E095-48BF-8AC0-1DBD544DD6E8}"/>
+    <hyperlink ref="E101" r:id="rId26" xr:uid="{674B3592-1BDE-41BA-9EB9-800AF2272003}"/>
+    <hyperlink ref="E102" r:id="rId27" xr:uid="{6FD5C013-8BBD-41F4-9782-1DA65D85CD5A}"/>
+    <hyperlink ref="E103" r:id="rId28" xr:uid="{6017F4F0-F9CA-4750-958D-E7C912018777}"/>
+    <hyperlink ref="E106" r:id="rId29" xr:uid="{EF685BEA-18C4-4E8C-917B-EACD39ABA2E6}"/>
+    <hyperlink ref="E107" r:id="rId30" xr:uid="{181CB626-A3F2-438B-9CF2-0C0BCDE6F60C}"/>
+    <hyperlink ref="E108" r:id="rId31" xr:uid="{2A00C0EC-8F41-4ABB-9C79-1D946856565D}"/>
+    <hyperlink ref="E113" r:id="rId32" xr:uid="{3146DD88-73E7-436D-85FB-72D70EE4E854}"/>
+    <hyperlink ref="E114" r:id="rId33" xr:uid="{FFB62559-6F14-4F53-9A4D-0A4CAD2B1775}"/>
+    <hyperlink ref="E131" r:id="rId34" xr:uid="{F72838D9-18C1-4FF5-B725-A8AC73485B25}"/>
+    <hyperlink ref="E132" r:id="rId35" xr:uid="{4169F08E-03D6-45BF-8F64-3D02ED3BB6B2}"/>
+    <hyperlink ref="E136" r:id="rId36" xr:uid="{F95984CE-0315-4D79-878E-C01F982D7B86}"/>
+    <hyperlink ref="E134" r:id="rId37" xr:uid="{71C55BC7-D105-4979-BC1D-223D20E7D7CF}"/>
+    <hyperlink ref="E135" r:id="rId38" xr:uid="{FFB1C659-1F13-4D95-8E39-8A35B11BD7C7}"/>
+    <hyperlink ref="E137" r:id="rId39" xr:uid="{5E593A99-0C56-4223-96F2-96937B1032AE}"/>
+    <hyperlink ref="E138" r:id="rId40" xr:uid="{3C723C9F-4921-412B-8472-8CB79FBC0D5B}"/>
+    <hyperlink ref="E140" r:id="rId41" xr:uid="{95707C9D-6A21-4F29-AC8B-DDD3D57DDA91}"/>
+    <hyperlink ref="E145" r:id="rId42" xr:uid="{FA9B4B34-C2DC-4360-A01A-62DB7EB9334C}"/>
+    <hyperlink ref="E141" r:id="rId43" xr:uid="{102FEEE2-8A65-4963-AA4D-42AA66AF8A75}"/>
+    <hyperlink ref="E142" r:id="rId44" xr:uid="{ABD4FF97-C356-46C4-A3FD-8BF5990EC247}"/>
+    <hyperlink ref="E147" r:id="rId45" xr:uid="{D37BDCA5-AEC9-400D-801B-807F7FABBCEB}"/>
+    <hyperlink ref="E149" r:id="rId46" xr:uid="{E106FEF3-2A29-42A9-A98A-4B58F38E79A7}"/>
+    <hyperlink ref="E148" r:id="rId47" xr:uid="{842D0B44-EBE8-48F8-BF27-FA7170C4D3B5}"/>
+    <hyperlink ref="E146" r:id="rId48" xr:uid="{6CBB96B0-6538-4E61-85FD-D60FB95A40EF}"/>
+    <hyperlink ref="E143" r:id="rId49" xr:uid="{592B83CC-6C24-4C9A-AAB1-D25A97E2220D}"/>
+    <hyperlink ref="E139" r:id="rId50" xr:uid="{E96C3DF6-B0BA-4DD2-8401-6FE8FF78E1D8}"/>
+    <hyperlink ref="E144" r:id="rId51" xr:uid="{4DA3BC06-0E1A-4D26-A8ED-2303829FD5FB}"/>
+    <hyperlink ref="E150" r:id="rId52" xr:uid="{B5089AAC-5D5B-4354-8E4B-ACCEB292FE46}"/>
+    <hyperlink ref="E179" r:id="rId53" xr:uid="{2DC37099-0C06-406F-8A78-C69FFEA5DBB9}"/>
+    <hyperlink ref="E165" r:id="rId54" xr:uid="{1406B533-E76F-4E34-AEBE-CF214A7A4389}"/>
+    <hyperlink ref="E152" r:id="rId55" xr:uid="{38FD6989-1C7D-4B42-9239-25D8B69639B0}"/>
+    <hyperlink ref="E151" r:id="rId56" xr:uid="{356DB9E0-B914-453A-A186-895A0FB1E70D}"/>
+    <hyperlink ref="E153" r:id="rId57" xr:uid="{B5141D0C-A203-4800-98D1-A002F3131144}"/>
+    <hyperlink ref="E154" r:id="rId58" xr:uid="{D8BC583F-75DE-48E8-84D8-313520EDD275}"/>
+    <hyperlink ref="E164" r:id="rId59" xr:uid="{F22A5A62-CFCB-4E14-8ADE-F666F077FE8F}"/>
+    <hyperlink ref="E155" r:id="rId60" xr:uid="{E5A8AD74-B362-4370-9CB6-127E4FDDA652}"/>
+    <hyperlink ref="E166" r:id="rId61" xr:uid="{344A5451-1D20-4D86-B2FD-DCCBF038B68E}"/>
+    <hyperlink ref="E161" r:id="rId62" xr:uid="{0117161A-5B79-4300-A098-CCFEA61A2974}"/>
+    <hyperlink ref="E167" r:id="rId63" xr:uid="{4684B8AB-4658-45A8-8378-1FF9C9D07A91}"/>
+    <hyperlink ref="E158" r:id="rId64" xr:uid="{AB1B2CED-AE5B-4A30-9E89-BDFB6A04A5B1}"/>
+    <hyperlink ref="E169" r:id="rId65" xr:uid="{0A8E772D-D766-41DF-A561-C4B167E6CD7F}"/>
+    <hyperlink ref="E157" r:id="rId66" xr:uid="{747296A4-4012-4539-8979-FB5308AEB6A8}"/>
+    <hyperlink ref="E168" r:id="rId67" xr:uid="{07A5DA01-AA25-4321-8DEB-90F00A3DB313}"/>
+    <hyperlink ref="E170" r:id="rId68" xr:uid="{7FC9C8E6-7312-4CCE-996E-BBE18A6BBA37}"/>
+    <hyperlink ref="E171" r:id="rId69" xr:uid="{A3B6B3F2-D1A2-4B4D-9DF1-BB8FBD2AC74E}"/>
+    <hyperlink ref="E156" r:id="rId70" xr:uid="{EB35A134-34E9-49E6-ADF6-350F3A205D2D}"/>
+    <hyperlink ref="E160" r:id="rId71" xr:uid="{CB55790E-A13B-444A-8286-D3129F874D97}"/>
+    <hyperlink ref="E162" r:id="rId72" xr:uid="{A8353BE6-3E9E-40BE-A008-C194A7DD40AB}"/>
+    <hyperlink ref="E173" r:id="rId73" xr:uid="{F41D57C4-0208-4802-9E33-EB7FAC5DC42F}"/>
+    <hyperlink ref="E163" r:id="rId74" xr:uid="{A1656B3B-E843-4CFF-8457-A07FA703A871}"/>
+    <hyperlink ref="E172" r:id="rId75" xr:uid="{3BF37B87-3FCA-40E3-BAA1-26618A9AB59F}"/>
+    <hyperlink ref="E176" r:id="rId76" xr:uid="{0D273B19-2A25-4B47-BED7-1E9E42A3CC6A}"/>
+    <hyperlink ref="E175" r:id="rId77" xr:uid="{0A92071F-0FEE-40F1-AE4D-71CFAFA58AE6}"/>
+    <hyperlink ref="E178" r:id="rId78" xr:uid="{B0F7CFA9-14B3-4864-9997-B66A2327C2BE}"/>
+    <hyperlink ref="E174" r:id="rId79" xr:uid="{EF5AFCDF-E1C7-4660-8E58-CB6D5AA622CF}"/>
+    <hyperlink ref="E177" r:id="rId80" xr:uid="{1EAB560C-F888-4CFF-8D2A-3FE9E7C34344}"/>
+    <hyperlink ref="E159" r:id="rId81" xr:uid="{A465BD95-A7B8-4529-A08C-9775A484268F}"/>
+    <hyperlink ref="E59" r:id="rId82" xr:uid="{862616CF-DC50-4252-A2A5-6C2A8F0D492C}"/>
+    <hyperlink ref="E2" r:id="rId83" xr:uid="{25368976-30AE-4ECC-9DB6-21DA8763251B}"/>
+    <hyperlink ref="E180" r:id="rId84" xr:uid="{7CF036D5-67DF-41BA-98A1-AEDBC49EB72B}"/>
+    <hyperlink ref="E181" r:id="rId85" xr:uid="{412F2EA4-2FB8-4051-885B-2F397F55D297}"/>
+    <hyperlink ref="E182" r:id="rId86" xr:uid="{12E3E6DB-3A38-482A-982A-445A23E5AFD8}"/>
+    <hyperlink ref="E183" r:id="rId87" xr:uid="{C8599419-DA6E-41D3-906B-3435D7A96A74}"/>
+    <hyperlink ref="E184" r:id="rId88" xr:uid="{502D6EEA-4D5E-4839-8A56-DEA8D357B77D}"/>
+    <hyperlink ref="E185" r:id="rId89" xr:uid="{824213CB-2ACD-4390-B1D4-D1A2A2A3835A}"/>
+    <hyperlink ref="E186" r:id="rId90" xr:uid="{40DDCF2D-C69A-405D-A087-C990A148A15C}"/>
+    <hyperlink ref="E187" r:id="rId91" xr:uid="{6E3A694F-0939-492C-8AB5-CF313A97A946}"/>
+    <hyperlink ref="E188" r:id="rId92" xr:uid="{F4F2B958-D3F8-4899-988A-67C1AB5205BC}"/>
+    <hyperlink ref="E189" r:id="rId93" xr:uid="{80782243-3334-4C34-BDB8-026447ECC239}"/>
+    <hyperlink ref="E190" r:id="rId94" xr:uid="{A452E1CF-7D32-41A6-9665-66B81DE27499}"/>
+    <hyperlink ref="E191" r:id="rId95" xr:uid="{6CEDFEB8-CB83-4F0D-B2AD-21BBDD9B0F4B}"/>
+    <hyperlink ref="E192" r:id="rId96" xr:uid="{702633F9-C26A-4C65-A831-34A29E588A8F}"/>
+    <hyperlink ref="E194" r:id="rId97" xr:uid="{B33D162E-45C9-4281-9FFF-577408A6EDB2}"/>
+    <hyperlink ref="E195" r:id="rId98" xr:uid="{DE19B830-C7D4-4D2A-8AB1-A5668A6E03FB}"/>
+    <hyperlink ref="E196" r:id="rId99" xr:uid="{7C93EE81-C318-452E-BBC1-DCFE023FAD3F}"/>
+    <hyperlink ref="E197" r:id="rId100" xr:uid="{6300310A-48DC-488D-A1FD-23E873045355}"/>
+    <hyperlink ref="E198" r:id="rId101" xr:uid="{CA699900-3D2B-4884-875C-E9D2E47BEE3C}"/>
+    <hyperlink ref="E199" r:id="rId102" xr:uid="{376D7A2E-7E4C-4360-BF85-5168C3C685D7}"/>
+    <hyperlink ref="E200" r:id="rId103" xr:uid="{AB9D8F8B-3898-4372-B0E9-A053F1265878}"/>
+    <hyperlink ref="E201" r:id="rId104" xr:uid="{F2BCF522-1846-4815-87FA-CD83C387BD9A}"/>
+    <hyperlink ref="E203" r:id="rId105" xr:uid="{F1164EA5-2F2A-4E6A-B2A2-1492B5482B98}"/>
+    <hyperlink ref="E204" r:id="rId106" xr:uid="{F02FBCD4-428A-427F-9C98-F3900F8C8FB3}"/>
+    <hyperlink ref="E205" r:id="rId107" xr:uid="{D6F29053-91E6-4208-95DF-36B129B829A4}"/>
+    <hyperlink ref="E206" r:id="rId108" xr:uid="{B4C4E458-D6F2-46B9-988B-9B7CCFE7CA77}"/>
+    <hyperlink ref="E207" r:id="rId109" xr:uid="{E42CF963-CB15-45AB-93C7-58361B5A229D}"/>
+    <hyperlink ref="E208" r:id="rId110" xr:uid="{AF0C32B5-13EE-496B-BF0D-1FEF312C7323}"/>
+    <hyperlink ref="E209" r:id="rId111" xr:uid="{1EF9D6B8-F3B5-479B-8CEC-77186651BB99}"/>
+    <hyperlink ref="E210" r:id="rId112" xr:uid="{DDA72F8C-C135-42EF-B570-5B03127B420C}"/>
+    <hyperlink ref="E212" r:id="rId113" xr:uid="{4B320933-3CF5-47A0-8182-AF344587D7E5}"/>
+    <hyperlink ref="E213" r:id="rId114" xr:uid="{A093705E-2126-42D4-9472-BA86B757AB65}"/>
+    <hyperlink ref="E214" r:id="rId115" xr:uid="{AABBA42E-B426-405E-A049-A6941FE8C16D}"/>
+    <hyperlink ref="E215" r:id="rId116" xr:uid="{69D673EE-4F12-4F9A-A362-65786557DF51}"/>
+    <hyperlink ref="E216" r:id="rId117" xr:uid="{8AB9C893-8492-41AC-BA5D-7C59601A96DD}"/>
+    <hyperlink ref="E217" r:id="rId118" xr:uid="{4BEEA27D-FCEC-4510-9F9E-0BFCEB23E308}"/>
+    <hyperlink ref="E218" r:id="rId119" xr:uid="{4CCEA639-4833-4B73-9FD7-7D39B76548F8}"/>
+    <hyperlink ref="E219" r:id="rId120" xr:uid="{ACE6DC43-9F33-4FB2-A2FD-00FED624C823}"/>
+    <hyperlink ref="E221" r:id="rId121" xr:uid="{E763B5EE-E263-44E0-A226-09B0A56576F2}"/>
+    <hyperlink ref="E222" r:id="rId122" xr:uid="{565AEB14-1F19-478B-876F-0AA877D27033}"/>
+    <hyperlink ref="E223" r:id="rId123" xr:uid="{2BADA365-742E-4AD1-B995-43869021841D}"/>
+    <hyperlink ref="E224" r:id="rId124" xr:uid="{9EB40FC5-018C-4159-BD5F-730B636D6745}"/>
+    <hyperlink ref="E225" r:id="rId125" xr:uid="{1FB4BD7B-6230-4535-8810-3490840640E6}"/>
+    <hyperlink ref="E226" r:id="rId126" xr:uid="{C01EB9DC-D91C-4C07-8726-0EAD7AA2B77F}"/>
+    <hyperlink ref="E227" r:id="rId127" xr:uid="{D13CA7CF-6E50-4B8D-8309-7A9F14C1A86E}"/>
+    <hyperlink ref="E228" r:id="rId128" xr:uid="{CB41DC05-F064-401E-893C-316DE1E40F2B}"/>
+    <hyperlink ref="E230" r:id="rId129" xr:uid="{144DD6F8-98C9-4EE1-B2A6-11C5E4FBAE67}"/>
+    <hyperlink ref="E231" r:id="rId130" xr:uid="{54956990-6A6E-4761-99AB-46DF32AE447F}"/>
+    <hyperlink ref="E232" r:id="rId131" xr:uid="{527BC068-330D-4352-927C-0EA644B38895}"/>
+    <hyperlink ref="E233" r:id="rId132" xr:uid="{398E4125-310B-4A8D-8F52-E0DCA1BE08D1}"/>
+    <hyperlink ref="E234" r:id="rId133" xr:uid="{1A499FAE-3035-4D01-AA13-5499B684B4F9}"/>
+    <hyperlink ref="E235" r:id="rId134" xr:uid="{CA280778-5C8B-4F76-8D76-B791F140BBE7}"/>
+    <hyperlink ref="E236" r:id="rId135" xr:uid="{341040F1-3B87-4F25-8AE2-080EB3EF314B}"/>
+    <hyperlink ref="E237" r:id="rId136" xr:uid="{CF540B81-AD77-459D-8132-B02BEDB98F1B}"/>
+    <hyperlink ref="E239" r:id="rId137" xr:uid="{0FD39196-B353-4546-9DBA-AD6D67DB4E47}"/>
+    <hyperlink ref="E240" r:id="rId138" xr:uid="{713ED13E-E73A-468D-B6B7-0E31941E1FFC}"/>
+    <hyperlink ref="E241" r:id="rId139" xr:uid="{6E27DEFF-6A1F-44DD-9AD8-CF0E868288AD}"/>
+    <hyperlink ref="E242" r:id="rId140" xr:uid="{BCC4F6D4-642E-4192-8499-BF59CDB47EBA}"/>
+    <hyperlink ref="E243" r:id="rId141" xr:uid="{CC8ADBF8-D4D4-48C6-9B61-F5318F4B06E6}"/>
+    <hyperlink ref="E244" r:id="rId142" xr:uid="{C8D9D1AD-41DA-4CF0-ACF1-88C1834FD125}"/>
+    <hyperlink ref="E245" r:id="rId143" xr:uid="{E7D62319-4140-45C3-9E90-8963C2A3090F}"/>
+    <hyperlink ref="E246" r:id="rId144" xr:uid="{D6A6D0ED-1383-44BA-A068-D7653539AAE4}"/>
+    <hyperlink ref="E248" r:id="rId145" xr:uid="{F0325C78-8C01-4C99-866E-4B745B83A3FF}"/>
+    <hyperlink ref="E249" r:id="rId146" xr:uid="{0BA2EB03-A645-49C2-BB67-6C4757565E82}"/>
+    <hyperlink ref="E250" r:id="rId147" xr:uid="{FDFA0613-F247-46D0-A88B-E6F6AE5E5A50}"/>
+    <hyperlink ref="E251" r:id="rId148" xr:uid="{057D666D-3772-4B27-B7ED-F4E0ABDE3AE4}"/>
+    <hyperlink ref="E252" r:id="rId149" xr:uid="{407BED3B-EF77-41A5-B8F7-E408E031242B}"/>
+    <hyperlink ref="E253" r:id="rId150" xr:uid="{73E3DE29-1EE5-4ECB-B5BC-37864B33F898}"/>
+    <hyperlink ref="E254" r:id="rId151" xr:uid="{24275325-8AE2-4899-8E48-D0717AC8CA7D}"/>
+    <hyperlink ref="E255" r:id="rId152" xr:uid="{6D928180-8AA1-4463-BBD2-97B261953C89}"/>
+    <hyperlink ref="E257" r:id="rId153" xr:uid="{678CFD0A-557C-4EE2-9ACE-9F5195ACA5A8}"/>
+    <hyperlink ref="E258" r:id="rId154" xr:uid="{D6AC0E13-2F87-48D1-A4D0-D9BAEB1E68E3}"/>
+    <hyperlink ref="E259" r:id="rId155" xr:uid="{5728F092-DAB2-476F-A11F-CC4CA7FE88BB}"/>
+    <hyperlink ref="E260" r:id="rId156" xr:uid="{451646C2-0BF4-4D56-9C47-57DAAEFDF034}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Gallery.xlsx
+++ b/Gallery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelaziz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F18ECFD-D8F1-4936-BDDC-EC908A6F1C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AD9E8B-6E6D-421E-BB61-226A4E19E008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$259</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$260</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="650">
   <si>
     <t>Number</t>
   </si>
@@ -501,6 +501,9 @@
     <t>لوحة فنية كدودل</t>
   </si>
   <si>
+    <t>لوحة فنية مغربي مربع امرأة مع جرة اطار ذهبي و احمر</t>
+  </si>
+  <si>
     <t>لوحة فنية جسم اطار اسود مع فضي</t>
   </si>
   <si>
@@ -1125,9 +1128,6 @@
     <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/144.jpeg</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/150.jpeg</t>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/154.jpeg</t>
   </si>
   <si>
@@ -1155,9 +1155,6 @@
     <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/169.jpeg</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/160.jpeg</t>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/170.jpeg</t>
   </si>
   <si>
@@ -1486,9 +1483,6 @@
   </si>
   <si>
     <t xml:space="preserve">لوحة اية الكرسي مصقبة </t>
-  </si>
-  <si>
-    <t>لوحة فنية مغربي مربع امرأة مع جرة اطار ذهبي</t>
   </si>
   <si>
     <t>لوحة فنية كغربي سوق بسكاليت</t>
@@ -2399,12 +2393,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98041684-60AD-4B6B-B652-1A806A9CDDBF}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G265"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E88" sqref="E88"/>
+      <selection pane="bottomLeft" activeCell="E158" sqref="E158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2414,7 +2409,7 @@
     <col min="3" max="3" width="10.8984375" style="3" customWidth="1"/>
     <col min="4" max="4" width="7.3984375" style="25" customWidth="1"/>
     <col min="5" max="5" width="68.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.69921875" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.69921875" style="3" customWidth="1"/>
     <col min="7" max="7" width="51.69921875" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.796875" style="3"/>
   </cols>
@@ -2442,15 +2437,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D2" s="18">
         <v>3000</v>
@@ -2459,21 +2454,21 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D3" s="18">
         <v>1750</v>
@@ -2482,21 +2477,21 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D4" s="18">
         <v>500</v>
@@ -2505,21 +2500,21 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D5" s="18">
         <v>500</v>
@@ -2528,21 +2523,21 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D6" s="18">
         <v>1500</v>
@@ -2551,21 +2546,21 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D7" s="18">
         <v>800</v>
@@ -2574,21 +2569,21 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D8" s="18">
         <v>1600</v>
@@ -2597,21 +2592,21 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D9" s="18">
         <v>900</v>
@@ -2620,21 +2615,21 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D10" s="18">
         <v>2500</v>
@@ -2643,21 +2638,21 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D11" s="18">
         <v>3000</v>
@@ -2666,21 +2661,21 @@
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D12" s="18">
         <v>1750</v>
@@ -2689,21 +2684,21 @@
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D13" s="18">
         <v>1200</v>
@@ -2712,1939 +2707,1939 @@
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D14" s="18">
         <v>900</v>
       </c>
       <c r="E14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D15" s="18">
         <v>500</v>
       </c>
       <c r="E15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D16" s="18">
         <v>1500</v>
       </c>
       <c r="E16" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D17" s="18">
         <v>1200</v>
       </c>
       <c r="E17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D18" s="18">
         <v>1000</v>
       </c>
       <c r="E18" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D19" s="18">
         <v>2000</v>
       </c>
       <c r="E19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D20" s="18">
         <v>750</v>
       </c>
       <c r="E20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D21" s="18">
         <v>1750</v>
       </c>
       <c r="E21" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D22" s="18">
         <v>1400</v>
       </c>
       <c r="E22" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D23" s="18">
         <v>700</v>
       </c>
       <c r="E23" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F23" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D24" s="18">
         <v>2500</v>
       </c>
       <c r="E24" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D25" s="18">
         <v>1500</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F25" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D26" s="18">
         <v>1500</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F26" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D27" s="18">
         <v>1200</v>
       </c>
       <c r="E27" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D28" s="18">
         <v>2500</v>
       </c>
       <c r="E28" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D29" s="18">
         <v>3000</v>
       </c>
       <c r="E29" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F29" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D30" s="18">
         <v>1200</v>
       </c>
       <c r="E30" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F30" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D31" s="18">
         <v>800</v>
       </c>
       <c r="E31" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D32" s="18">
         <v>1200</v>
       </c>
       <c r="E32" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D33" s="18">
         <v>3000</v>
       </c>
       <c r="E33" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F33" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D34" s="18">
         <v>700</v>
       </c>
       <c r="E34" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F34" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D35" s="18">
         <v>1000</v>
       </c>
       <c r="E35" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F35" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D36" s="18">
         <v>1200</v>
       </c>
       <c r="E36" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F36" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D37" s="18">
         <v>900</v>
       </c>
       <c r="E37" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F37" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D38" s="18">
         <v>1500</v>
       </c>
       <c r="E38" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F38" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D39" s="18">
         <v>1500</v>
       </c>
       <c r="E39" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F39" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D40" s="18">
         <v>500</v>
       </c>
       <c r="E40" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D41" s="18">
         <v>1200</v>
       </c>
       <c r="E41" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F41" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D42" s="18">
         <v>2500</v>
       </c>
       <c r="E42" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F42" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D43" s="18">
         <v>2200</v>
       </c>
       <c r="E43" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F43" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D44" s="18">
         <v>1200</v>
       </c>
       <c r="E44" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F44" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D45" s="18">
         <v>2000</v>
       </c>
       <c r="E45" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F45" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D46" s="18">
         <v>1000</v>
       </c>
       <c r="E46" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F46" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D47" s="18">
         <v>1100</v>
       </c>
       <c r="E47" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F47" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D48" s="18">
         <v>1200</v>
       </c>
       <c r="E48" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F48" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D49" s="18">
         <v>1200</v>
       </c>
       <c r="E49" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F49" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D50" s="18">
         <v>2000</v>
       </c>
       <c r="E50" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F50" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D51" s="18">
         <v>400</v>
       </c>
       <c r="E51" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D52" s="18">
         <v>800</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F52" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D53" s="18">
         <v>800</v>
       </c>
       <c r="E53" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F53" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D54" s="18">
         <v>3500</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F54" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D55" s="18">
         <v>600</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F55" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D56" s="18">
         <v>950</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F56" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D57" s="18">
         <v>4000</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F57" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D58" s="18">
         <v>4000</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F58" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D59" s="18">
         <v>2500</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F59" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D60" s="18">
         <v>4000</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F60" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D61" s="18">
         <v>900</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F61" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D62" s="18">
         <v>1200</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F62" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D63" s="18">
         <v>1200</v>
       </c>
       <c r="E63" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F63" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D64" s="18">
         <v>600</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F64" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D65" s="18">
         <v>4500</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F65" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D66" s="24">
         <v>850</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F66" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D67" s="18">
         <v>1200</v>
       </c>
       <c r="E67" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F67" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D68" s="18">
         <v>900</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F68" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D69" s="18">
         <v>300</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F69" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D70" s="18">
         <v>1800</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F70" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D71" s="18">
         <v>1200</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F71" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D72" s="18">
         <v>1600</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F72" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D73" s="18">
         <v>2000</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F73" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G73" s="17" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D74" s="18">
         <v>12500</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F74" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G74" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D75" s="18">
         <v>800</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F75" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D76" s="18">
         <v>600</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F76" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D77" s="18">
         <v>750</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F77" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D78" s="18">
         <v>750</v>
       </c>
       <c r="E78" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F78" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D79" s="18">
         <v>2500</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F79" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D80" s="18">
         <v>1500</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D81" s="18">
         <v>1400</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F81" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D82" s="18">
         <v>350</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F82" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D83" s="18">
         <v>750</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F83" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D84" s="18">
         <v>600</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F84" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D85" s="18">
         <v>600</v>
       </c>
       <c r="E85" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F85" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>86</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D86" s="18">
         <v>1200</v>
       </c>
       <c r="E86" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F86" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G86" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>85</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D87" s="18">
         <v>1700</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F87" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G87" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D88" s="18">
         <v>300</v>
       </c>
       <c r="E88" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F88" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D89" s="18">
         <v>500</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F89" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G89" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D90" s="18">
         <v>400</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F90" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D91" s="18">
         <v>2750</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F91" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D92" s="18">
         <v>3750</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F92" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D93" s="18">
         <v>3500</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F93" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D94" s="18">
         <v>20000</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F94" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G94" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D95" s="18">
         <v>800</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F95" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D96" s="18">
         <v>2500</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F96" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D97" s="18">
         <v>3000</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F97" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>106</v>
@@ -4655,1298 +4650,1298 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D98" s="18">
         <v>750</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F98" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D99" s="18">
         <v>350</v>
       </c>
       <c r="E99" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G99" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D100" s="18">
         <v>4000</v>
       </c>
       <c r="E100" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F100" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G100" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D101" s="18">
         <v>3500</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F101" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G101" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D102" s="18">
         <v>2800</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F102" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G102" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D103" s="18">
         <v>1200</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F103" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D104" s="18">
         <v>300</v>
       </c>
       <c r="E104" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F104" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G104" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D105" s="18">
         <v>1200</v>
       </c>
       <c r="E105" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F105" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G105" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D106" s="24">
         <v>850</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G106" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D107" s="18">
         <v>400</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F107" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G107" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D108" s="18">
         <v>2500</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F108" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G108" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D109" s="18">
         <v>1000</v>
       </c>
       <c r="E109" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F109" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G109" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D110" s="18">
         <v>400</v>
       </c>
       <c r="E110" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F110" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G110" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D111" s="18">
         <v>1000</v>
       </c>
       <c r="E111" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F111" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G111" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D112" s="18">
         <v>750</v>
       </c>
       <c r="E112" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F112" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G112" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D113" s="18">
         <v>4000</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F113" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G113" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D114" s="18">
         <v>3000</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F114" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G114" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D115" s="18">
         <v>2000</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F115" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G115" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D116" s="18">
         <v>4000</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F116" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G116" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D117" s="18">
         <v>1800</v>
       </c>
       <c r="E117" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F117" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G117" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D118" s="18">
         <v>1200</v>
       </c>
       <c r="E118" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F118" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G118" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D119" s="18">
         <v>800</v>
       </c>
       <c r="E119" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F119" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G119" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D120" s="18">
         <v>250</v>
       </c>
       <c r="E120" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F120" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G120" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D121" s="18">
         <v>2500</v>
       </c>
       <c r="E121" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F121" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G121" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D122" s="18">
         <v>800</v>
       </c>
       <c r="E122" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F122" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G122" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D123" s="18">
         <v>800</v>
       </c>
       <c r="E123" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F123" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G123" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D124" s="18">
         <v>500</v>
       </c>
       <c r="E124" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F124" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G124" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D125" s="18">
         <v>2000</v>
       </c>
       <c r="E125" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F125" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G125" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D126" s="18">
         <v>1200</v>
       </c>
       <c r="E126" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F126" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G126" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D127" s="18">
         <v>5000</v>
       </c>
       <c r="E127" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F127" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G127" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D128" s="18">
         <v>2000</v>
       </c>
       <c r="E128" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F128" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G128" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D129" s="18">
         <v>1500</v>
       </c>
       <c r="E129" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F129" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G129" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="130" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9">
         <v>129</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D130" s="19">
         <v>6000</v>
       </c>
       <c r="E130" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F130" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G130" s="8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D131" s="18">
         <v>300</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F131" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G131" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D132" s="18">
         <v>800</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F132" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G132" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D133" s="18">
         <v>2000</v>
       </c>
       <c r="E133" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F133" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G133" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D134" s="18">
         <v>700</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F134" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G134" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D135" s="18">
         <v>700</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F135" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G135" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D136" s="18">
         <v>700</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F136" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G136" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D137" s="18">
         <v>700</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F137" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G137" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D138" s="18">
         <v>700</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F138" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G138" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D139" s="18">
         <v>900</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F139" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G139" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D140" s="18">
         <v>700</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F140" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G140" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D141" s="18">
         <v>700</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F141" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G141" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D142" s="18">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F142" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G142" s="7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D143" s="18">
         <v>700</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F143" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G143" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>143</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D144" s="18">
         <v>700</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F144" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G144" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D145" s="18">
         <v>1400</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F145" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G145" s="7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D146" s="18">
         <v>700</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F146" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G146" s="7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>146</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D147" s="18">
         <v>700</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F147" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G147" s="7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>147</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D148" s="18">
         <v>700</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F148" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G148" s="7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>148</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D149" s="18">
         <v>700</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F149" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G149" s="7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>149</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D150" s="18">
         <v>500</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F150" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G150" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>150</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D151" s="18">
         <v>800</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F151" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G151" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>151</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D152" s="18">
         <v>800</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F152" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G152" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>152</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D153" s="18">
         <v>350</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F153" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G153" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>153</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D154" s="18">
         <v>2500</v>
@@ -5955,21 +5950,21 @@
         <v>369</v>
       </c>
       <c r="F154" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G154" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>154</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D155" s="18">
         <v>600</v>
@@ -5978,56 +5973,56 @@
         <v>370</v>
       </c>
       <c r="F155" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G155" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>155</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D156" s="18">
         <v>700</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F156" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>156</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D157" s="18">
         <v>700</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F157" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -6035,79 +6030,79 @@
         <v>157</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D158" s="18">
         <v>750</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>373</v>
+        <v>314</v>
       </c>
       <c r="F158" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G158" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>158</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D159" s="18">
         <v>1200</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>313</v>
+        <v>374</v>
       </c>
       <c r="F159" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="9">
         <v>159</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D160" s="19">
         <v>600</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F160" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G160" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>160</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D161" s="18">
         <v>750</v>
@@ -6116,21 +6111,21 @@
         <v>375</v>
       </c>
       <c r="F161" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D162" s="18">
         <v>800</v>
@@ -6139,2240 +6134,2240 @@
         <v>376</v>
       </c>
       <c r="F162" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>162</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D163" s="18">
         <v>1500</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F163" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>163</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D164" s="18">
         <v>1200</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F164" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>164</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D165" s="18">
         <v>1500</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F165" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>165</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D166" s="18">
         <v>300</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F166" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>166</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D167" s="18">
         <v>400</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F167" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>167</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D168" s="18">
         <v>500</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F168" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>168</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D169" s="18">
         <v>300</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F169" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="9">
         <v>169</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D170" s="19">
         <v>400</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F170" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G170" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>170</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D171" s="18">
         <v>150</v>
       </c>
       <c r="E171" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F171" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>171</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D172" s="18">
         <v>150</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F172" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>172</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D173" s="18">
         <v>100</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F173" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>173</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D174" s="18">
         <v>4000</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F174" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>174</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D175" s="18">
         <v>1500</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F175" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G175" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>175</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D176" s="18">
         <v>2500</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F176" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>176</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D177" s="18">
         <v>500</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F177" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>177</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D178" s="18">
         <v>300</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F178" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="13">
         <v>178</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C179" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D179" s="18">
         <v>1200</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F179" s="15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G179" s="17" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>179</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D180" s="20">
         <v>500</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F180" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G180" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>180</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D181" s="18">
         <v>2300</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F181" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G181" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>181</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D182" s="18">
         <v>1400</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F182" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G182" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>182</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D183" s="18">
         <v>1575</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F183" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G183" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>183</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D184" s="18">
         <v>1485</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F184" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G184" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>184</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D185" s="18">
         <v>1260</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F185" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G185" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>185</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D186" s="21">
         <v>1215</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F186" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G186" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>186</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D187" s="21">
         <v>1440</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F187" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G187" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>187</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D188" s="21">
         <v>1395</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F188" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>188</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D189" s="21">
         <v>810</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F189" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>189</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D190" s="21">
         <v>1575</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F190" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>190</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D191" s="21">
         <v>1170</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F191" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>191</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D192" s="21">
         <v>810</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F192" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G192" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>192</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D193" s="21">
         <v>855</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G193" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>193</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D194" s="21">
         <v>1260</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G194" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>194</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D195" s="21">
         <v>1330</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G195" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>195</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D196" s="21">
         <v>665</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G196" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>196</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D197" s="21">
         <v>1085</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G197" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>197</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D198" s="21">
         <v>875</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G198" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>198</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D199" s="21">
         <v>1645</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G199" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>199</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D200" s="21">
         <v>980</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G200" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>200</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D201" s="21">
         <v>1015</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G201" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>201</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D202" s="21">
         <v>595</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G202" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>202</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D203" s="21">
         <v>910</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G203" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" s="13" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>203</v>
       </c>
       <c r="B204" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C204" s="13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D204" s="22">
         <v>595</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F204" s="13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G204" s="17" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>204</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D205" s="21">
         <v>768</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G205" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>205</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D206" s="21">
         <v>1120</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G206" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>206</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D207" s="21">
         <v>1856</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G207" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>207</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D208" s="21">
         <v>864</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G208" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>208</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D209" s="21">
         <v>1280</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G209" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>209</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D210" s="21">
         <v>896</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G210" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>210</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D211" s="21">
         <v>2112</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G211" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>211</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D212" s="21">
         <v>1888</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G212" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>212</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D213" s="21">
         <v>800</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G213" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>213</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D214" s="21">
         <v>1088</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G214" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>214</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D215" s="21">
         <v>800</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G215" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" s="13" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>215</v>
       </c>
       <c r="B216" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C216" s="13" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D216" s="22">
         <v>800</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F216" s="13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G216" s="17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>216</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D217" s="21">
         <v>950</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G217" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>217</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D218" s="21">
         <v>576</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G218" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>218</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D219" s="21">
         <v>925</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G219" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>219</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D220" s="21">
         <v>725</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G220" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>220</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D221" s="21">
         <v>750</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G221" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>221</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D222" s="21">
         <v>1100</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G222" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" s="13" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>222</v>
       </c>
       <c r="B223" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C223" s="13" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D223" s="22">
         <v>1225</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F223" s="13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G223" s="17" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>223</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D224" s="21">
         <v>495</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G224" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>224</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D225" s="21">
         <v>950</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G225" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>225</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D226" s="21">
         <v>2345</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G226" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>226</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D227" s="21">
         <v>2380</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G227" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>227</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D228" s="21">
         <v>3570</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G228" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>228</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D229" s="21">
         <v>1645</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G229" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>229</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D230" s="21">
         <v>1610</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G230" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>230</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D231" s="21">
         <v>1120</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G231" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" s="13" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>231</v>
       </c>
       <c r="B232" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C232" s="13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D232" s="22">
         <v>945</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F232" s="13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G232" s="17" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>232</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D233" s="21">
         <v>1990</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G233" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>233</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D234" s="21">
         <v>770</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G234" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>234</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D235" s="21">
         <v>1190</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G235" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>235</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D236" s="21">
         <v>940</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G236" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>236</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D237" s="21">
         <v>1040</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G237" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>237</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D238" s="21">
         <v>880</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G238" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>238</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D239" s="21">
         <v>540</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G239" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>239</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D240" s="21">
         <v>800</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G240" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>240</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D241" s="21">
         <v>1670</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G241" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" s="13" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>241</v>
       </c>
       <c r="B242" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C242" s="13" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D242" s="22">
         <v>2550</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F242" s="13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G242" s="17" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>242</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C243" s="13" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D243" s="21">
         <v>2400</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G243" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>243</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D244" s="21">
         <v>1410</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G244" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>244</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D245" s="21">
         <v>480</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G245" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>245</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D246" s="21">
         <v>5625</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G246" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>246</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D247" s="21">
         <v>540</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G247" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>247</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D248" s="21">
         <v>750</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G248" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>248</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D249" s="21">
         <v>1200</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G249" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>249</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D250" s="21">
         <v>1000</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G250" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>250</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D251" s="21">
         <v>1800</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G251" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>251</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D252" s="21">
         <v>1500</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G252" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>252</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D253" s="21">
         <v>700</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G253" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>253</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D254" s="21">
         <v>940</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G254" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>254</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D255" s="21">
         <v>1300</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G255" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>255</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D256" s="21">
         <v>2000</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G256" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>256</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D257" s="21">
         <v>1400</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G257" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>257</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D258" s="21">
         <v>2560</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G258" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>258</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D259" s="21">
         <v>116</v>
       </c>
       <c r="E259" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F259" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G259" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E260" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="F259" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="G259" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E260" s="1" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -8391,7 +8386,13 @@
       <c r="E265" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G259" xr:uid="{98041684-60AD-4B6B-B652-1A806A9CDDBF}"/>
+  <autoFilter ref="A1:G260" xr:uid="{98041684-60AD-4B6B-B652-1A806A9CDDBF}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="طاولات"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E116" r:id="rId1" display="https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/115.jpeg" xr:uid="{9549F0E1-BCB2-4457-9DDF-9A7137E9809C}"/>
@@ -8445,111 +8446,100 @@
     <hyperlink ref="E143" r:id="rId49" xr:uid="{592B83CC-6C24-4C9A-AAB1-D25A97E2220D}"/>
     <hyperlink ref="E139" r:id="rId50" xr:uid="{E96C3DF6-B0BA-4DD2-8401-6FE8FF78E1D8}"/>
     <hyperlink ref="E144" r:id="rId51" xr:uid="{4DA3BC06-0E1A-4D26-A8ED-2303829FD5FB}"/>
-    <hyperlink ref="E150" r:id="rId52" xr:uid="{B5089AAC-5D5B-4354-8E4B-ACCEB292FE46}"/>
-    <hyperlink ref="E179" r:id="rId53" xr:uid="{2DC37099-0C06-406F-8A78-C69FFEA5DBB9}"/>
-    <hyperlink ref="E165" r:id="rId54" xr:uid="{1406B533-E76F-4E34-AEBE-CF214A7A4389}"/>
-    <hyperlink ref="E152" r:id="rId55" xr:uid="{38FD6989-1C7D-4B42-9239-25D8B69639B0}"/>
-    <hyperlink ref="E151" r:id="rId56" xr:uid="{356DB9E0-B914-453A-A186-895A0FB1E70D}"/>
-    <hyperlink ref="E153" r:id="rId57" xr:uid="{B5141D0C-A203-4800-98D1-A002F3131144}"/>
-    <hyperlink ref="E154" r:id="rId58" xr:uid="{D8BC583F-75DE-48E8-84D8-313520EDD275}"/>
-    <hyperlink ref="E164" r:id="rId59" xr:uid="{F22A5A62-CFCB-4E14-8ADE-F666F077FE8F}"/>
-    <hyperlink ref="E155" r:id="rId60" xr:uid="{E5A8AD74-B362-4370-9CB6-127E4FDDA652}"/>
-    <hyperlink ref="E166" r:id="rId61" xr:uid="{344A5451-1D20-4D86-B2FD-DCCBF038B68E}"/>
-    <hyperlink ref="E161" r:id="rId62" xr:uid="{0117161A-5B79-4300-A098-CCFEA61A2974}"/>
-    <hyperlink ref="E167" r:id="rId63" xr:uid="{4684B8AB-4658-45A8-8378-1FF9C9D07A91}"/>
-    <hyperlink ref="E158" r:id="rId64" xr:uid="{AB1B2CED-AE5B-4A30-9E89-BDFB6A04A5B1}"/>
-    <hyperlink ref="E169" r:id="rId65" xr:uid="{0A8E772D-D766-41DF-A561-C4B167E6CD7F}"/>
-    <hyperlink ref="E157" r:id="rId66" xr:uid="{747296A4-4012-4539-8979-FB5308AEB6A8}"/>
-    <hyperlink ref="E168" r:id="rId67" xr:uid="{07A5DA01-AA25-4321-8DEB-90F00A3DB313}"/>
-    <hyperlink ref="E170" r:id="rId68" xr:uid="{7FC9C8E6-7312-4CCE-996E-BBE18A6BBA37}"/>
-    <hyperlink ref="E171" r:id="rId69" xr:uid="{A3B6B3F2-D1A2-4B4D-9DF1-BB8FBD2AC74E}"/>
-    <hyperlink ref="E156" r:id="rId70" xr:uid="{EB35A134-34E9-49E6-ADF6-350F3A205D2D}"/>
-    <hyperlink ref="E160" r:id="rId71" xr:uid="{CB55790E-A13B-444A-8286-D3129F874D97}"/>
-    <hyperlink ref="E162" r:id="rId72" xr:uid="{A8353BE6-3E9E-40BE-A008-C194A7DD40AB}"/>
-    <hyperlink ref="E173" r:id="rId73" xr:uid="{F41D57C4-0208-4802-9E33-EB7FAC5DC42F}"/>
-    <hyperlink ref="E163" r:id="rId74" xr:uid="{A1656B3B-E843-4CFF-8457-A07FA703A871}"/>
-    <hyperlink ref="E172" r:id="rId75" xr:uid="{3BF37B87-3FCA-40E3-BAA1-26618A9AB59F}"/>
-    <hyperlink ref="E176" r:id="rId76" xr:uid="{0D273B19-2A25-4B47-BED7-1E9E42A3CC6A}"/>
-    <hyperlink ref="E175" r:id="rId77" xr:uid="{0A92071F-0FEE-40F1-AE4D-71CFAFA58AE6}"/>
-    <hyperlink ref="E178" r:id="rId78" xr:uid="{B0F7CFA9-14B3-4864-9997-B66A2327C2BE}"/>
-    <hyperlink ref="E174" r:id="rId79" xr:uid="{EF5AFCDF-E1C7-4660-8E58-CB6D5AA622CF}"/>
-    <hyperlink ref="E177" r:id="rId80" xr:uid="{1EAB560C-F888-4CFF-8D2A-3FE9E7C34344}"/>
-    <hyperlink ref="E159" r:id="rId81" xr:uid="{A465BD95-A7B8-4529-A08C-9775A484268F}"/>
-    <hyperlink ref="E59" r:id="rId82" xr:uid="{862616CF-DC50-4252-A2A5-6C2A8F0D492C}"/>
-    <hyperlink ref="E2" r:id="rId83" xr:uid="{25368976-30AE-4ECC-9DB6-21DA8763251B}"/>
-    <hyperlink ref="E180" r:id="rId84" xr:uid="{7CF036D5-67DF-41BA-98A1-AEDBC49EB72B}"/>
-    <hyperlink ref="E181" r:id="rId85" xr:uid="{412F2EA4-2FB8-4051-885B-2F397F55D297}"/>
-    <hyperlink ref="E182" r:id="rId86" xr:uid="{12E3E6DB-3A38-482A-982A-445A23E5AFD8}"/>
-    <hyperlink ref="E183" r:id="rId87" xr:uid="{C8599419-DA6E-41D3-906B-3435D7A96A74}"/>
-    <hyperlink ref="E184" r:id="rId88" xr:uid="{502D6EEA-4D5E-4839-8A56-DEA8D357B77D}"/>
-    <hyperlink ref="E185" r:id="rId89" xr:uid="{824213CB-2ACD-4390-B1D4-D1A2A2A3835A}"/>
-    <hyperlink ref="E186" r:id="rId90" xr:uid="{40DDCF2D-C69A-405D-A087-C990A148A15C}"/>
-    <hyperlink ref="E187" r:id="rId91" xr:uid="{6E3A694F-0939-492C-8AB5-CF313A97A946}"/>
-    <hyperlink ref="E188" r:id="rId92" xr:uid="{F4F2B958-D3F8-4899-988A-67C1AB5205BC}"/>
-    <hyperlink ref="E189" r:id="rId93" xr:uid="{80782243-3334-4C34-BDB8-026447ECC239}"/>
-    <hyperlink ref="E190" r:id="rId94" xr:uid="{A452E1CF-7D32-41A6-9665-66B81DE27499}"/>
-    <hyperlink ref="E191" r:id="rId95" xr:uid="{6CEDFEB8-CB83-4F0D-B2AD-21BBDD9B0F4B}"/>
-    <hyperlink ref="E192" r:id="rId96" xr:uid="{702633F9-C26A-4C65-A831-34A29E588A8F}"/>
-    <hyperlink ref="E194" r:id="rId97" xr:uid="{B33D162E-45C9-4281-9FFF-577408A6EDB2}"/>
-    <hyperlink ref="E195" r:id="rId98" xr:uid="{DE19B830-C7D4-4D2A-8AB1-A5668A6E03FB}"/>
-    <hyperlink ref="E196" r:id="rId99" xr:uid="{7C93EE81-C318-452E-BBC1-DCFE023FAD3F}"/>
-    <hyperlink ref="E197" r:id="rId100" xr:uid="{6300310A-48DC-488D-A1FD-23E873045355}"/>
-    <hyperlink ref="E198" r:id="rId101" xr:uid="{CA699900-3D2B-4884-875C-E9D2E47BEE3C}"/>
-    <hyperlink ref="E199" r:id="rId102" xr:uid="{376D7A2E-7E4C-4360-BF85-5168C3C685D7}"/>
-    <hyperlink ref="E200" r:id="rId103" xr:uid="{AB9D8F8B-3898-4372-B0E9-A053F1265878}"/>
-    <hyperlink ref="E201" r:id="rId104" xr:uid="{F2BCF522-1846-4815-87FA-CD83C387BD9A}"/>
-    <hyperlink ref="E203" r:id="rId105" xr:uid="{F1164EA5-2F2A-4E6A-B2A2-1492B5482B98}"/>
-    <hyperlink ref="E204" r:id="rId106" xr:uid="{F02FBCD4-428A-427F-9C98-F3900F8C8FB3}"/>
-    <hyperlink ref="E205" r:id="rId107" xr:uid="{D6F29053-91E6-4208-95DF-36B129B829A4}"/>
-    <hyperlink ref="E206" r:id="rId108" xr:uid="{B4C4E458-D6F2-46B9-988B-9B7CCFE7CA77}"/>
-    <hyperlink ref="E207" r:id="rId109" xr:uid="{E42CF963-CB15-45AB-93C7-58361B5A229D}"/>
-    <hyperlink ref="E208" r:id="rId110" xr:uid="{AF0C32B5-13EE-496B-BF0D-1FEF312C7323}"/>
-    <hyperlink ref="E209" r:id="rId111" xr:uid="{1EF9D6B8-F3B5-479B-8CEC-77186651BB99}"/>
-    <hyperlink ref="E210" r:id="rId112" xr:uid="{DDA72F8C-C135-42EF-B570-5B03127B420C}"/>
-    <hyperlink ref="E212" r:id="rId113" xr:uid="{4B320933-3CF5-47A0-8182-AF344587D7E5}"/>
-    <hyperlink ref="E213" r:id="rId114" xr:uid="{A093705E-2126-42D4-9472-BA86B757AB65}"/>
-    <hyperlink ref="E214" r:id="rId115" xr:uid="{AABBA42E-B426-405E-A049-A6941FE8C16D}"/>
-    <hyperlink ref="E215" r:id="rId116" xr:uid="{69D673EE-4F12-4F9A-A362-65786557DF51}"/>
-    <hyperlink ref="E216" r:id="rId117" xr:uid="{8AB9C893-8492-41AC-BA5D-7C59601A96DD}"/>
-    <hyperlink ref="E217" r:id="rId118" xr:uid="{4BEEA27D-FCEC-4510-9F9E-0BFCEB23E308}"/>
-    <hyperlink ref="E218" r:id="rId119" xr:uid="{4CCEA639-4833-4B73-9FD7-7D39B76548F8}"/>
-    <hyperlink ref="E219" r:id="rId120" xr:uid="{ACE6DC43-9F33-4FB2-A2FD-00FED624C823}"/>
-    <hyperlink ref="E221" r:id="rId121" xr:uid="{E763B5EE-E263-44E0-A226-09B0A56576F2}"/>
-    <hyperlink ref="E222" r:id="rId122" xr:uid="{565AEB14-1F19-478B-876F-0AA877D27033}"/>
-    <hyperlink ref="E223" r:id="rId123" xr:uid="{2BADA365-742E-4AD1-B995-43869021841D}"/>
-    <hyperlink ref="E224" r:id="rId124" xr:uid="{9EB40FC5-018C-4159-BD5F-730B636D6745}"/>
-    <hyperlink ref="E225" r:id="rId125" xr:uid="{1FB4BD7B-6230-4535-8810-3490840640E6}"/>
-    <hyperlink ref="E226" r:id="rId126" xr:uid="{C01EB9DC-D91C-4C07-8726-0EAD7AA2B77F}"/>
-    <hyperlink ref="E227" r:id="rId127" xr:uid="{D13CA7CF-6E50-4B8D-8309-7A9F14C1A86E}"/>
-    <hyperlink ref="E228" r:id="rId128" xr:uid="{CB41DC05-F064-401E-893C-316DE1E40F2B}"/>
-    <hyperlink ref="E230" r:id="rId129" xr:uid="{144DD6F8-98C9-4EE1-B2A6-11C5E4FBAE67}"/>
-    <hyperlink ref="E231" r:id="rId130" xr:uid="{54956990-6A6E-4761-99AB-46DF32AE447F}"/>
-    <hyperlink ref="E232" r:id="rId131" xr:uid="{527BC068-330D-4352-927C-0EA644B38895}"/>
-    <hyperlink ref="E233" r:id="rId132" xr:uid="{398E4125-310B-4A8D-8F52-E0DCA1BE08D1}"/>
-    <hyperlink ref="E234" r:id="rId133" xr:uid="{1A499FAE-3035-4D01-AA13-5499B684B4F9}"/>
-    <hyperlink ref="E235" r:id="rId134" xr:uid="{CA280778-5C8B-4F76-8D76-B791F140BBE7}"/>
-    <hyperlink ref="E236" r:id="rId135" xr:uid="{341040F1-3B87-4F25-8AE2-080EB3EF314B}"/>
-    <hyperlink ref="E237" r:id="rId136" xr:uid="{CF540B81-AD77-459D-8132-B02BEDB98F1B}"/>
-    <hyperlink ref="E239" r:id="rId137" xr:uid="{0FD39196-B353-4546-9DBA-AD6D67DB4E47}"/>
-    <hyperlink ref="E240" r:id="rId138" xr:uid="{713ED13E-E73A-468D-B6B7-0E31941E1FFC}"/>
-    <hyperlink ref="E241" r:id="rId139" xr:uid="{6E27DEFF-6A1F-44DD-9AD8-CF0E868288AD}"/>
-    <hyperlink ref="E242" r:id="rId140" xr:uid="{BCC4F6D4-642E-4192-8499-BF59CDB47EBA}"/>
-    <hyperlink ref="E243" r:id="rId141" xr:uid="{CC8ADBF8-D4D4-48C6-9B61-F5318F4B06E6}"/>
-    <hyperlink ref="E244" r:id="rId142" xr:uid="{C8D9D1AD-41DA-4CF0-ACF1-88C1834FD125}"/>
-    <hyperlink ref="E245" r:id="rId143" xr:uid="{E7D62319-4140-45C3-9E90-8963C2A3090F}"/>
-    <hyperlink ref="E246" r:id="rId144" xr:uid="{D6A6D0ED-1383-44BA-A068-D7653539AAE4}"/>
-    <hyperlink ref="E248" r:id="rId145" xr:uid="{F0325C78-8C01-4C99-866E-4B745B83A3FF}"/>
-    <hyperlink ref="E249" r:id="rId146" xr:uid="{0BA2EB03-A645-49C2-BB67-6C4757565E82}"/>
-    <hyperlink ref="E250" r:id="rId147" xr:uid="{FDFA0613-F247-46D0-A88B-E6F6AE5E5A50}"/>
-    <hyperlink ref="E251" r:id="rId148" xr:uid="{057D666D-3772-4B27-B7ED-F4E0ABDE3AE4}"/>
-    <hyperlink ref="E252" r:id="rId149" xr:uid="{407BED3B-EF77-41A5-B8F7-E408E031242B}"/>
-    <hyperlink ref="E253" r:id="rId150" xr:uid="{73E3DE29-1EE5-4ECB-B5BC-37864B33F898}"/>
-    <hyperlink ref="E254" r:id="rId151" xr:uid="{24275325-8AE2-4899-8E48-D0717AC8CA7D}"/>
-    <hyperlink ref="E255" r:id="rId152" xr:uid="{6D928180-8AA1-4463-BBD2-97B261953C89}"/>
-    <hyperlink ref="E257" r:id="rId153" xr:uid="{678CFD0A-557C-4EE2-9ACE-9F5195ACA5A8}"/>
-    <hyperlink ref="E258" r:id="rId154" xr:uid="{D6AC0E13-2F87-48D1-A4D0-D9BAEB1E68E3}"/>
-    <hyperlink ref="E259" r:id="rId155" xr:uid="{5728F092-DAB2-476F-A11F-CC4CA7FE88BB}"/>
-    <hyperlink ref="E260" r:id="rId156" xr:uid="{451646C2-0BF4-4D56-9C47-57DAAEFDF034}"/>
+    <hyperlink ref="E179" r:id="rId52" xr:uid="{2DC37099-0C06-406F-8A78-C69FFEA5DBB9}"/>
+    <hyperlink ref="E165" r:id="rId53" xr:uid="{1406B533-E76F-4E34-AEBE-CF214A7A4389}"/>
+    <hyperlink ref="E154" r:id="rId54" xr:uid="{D8BC583F-75DE-48E8-84D8-313520EDD275}"/>
+    <hyperlink ref="E164" r:id="rId55" xr:uid="{F22A5A62-CFCB-4E14-8ADE-F666F077FE8F}"/>
+    <hyperlink ref="E155" r:id="rId56" xr:uid="{E5A8AD74-B362-4370-9CB6-127E4FDDA652}"/>
+    <hyperlink ref="E166" r:id="rId57" xr:uid="{344A5451-1D20-4D86-B2FD-DCCBF038B68E}"/>
+    <hyperlink ref="E167" r:id="rId58" xr:uid="{4684B8AB-4658-45A8-8378-1FF9C9D07A91}"/>
+    <hyperlink ref="E169" r:id="rId59" xr:uid="{0A8E772D-D766-41DF-A561-C4B167E6CD7F}"/>
+    <hyperlink ref="E168" r:id="rId60" xr:uid="{07A5DA01-AA25-4321-8DEB-90F00A3DB313}"/>
+    <hyperlink ref="E170" r:id="rId61" xr:uid="{7FC9C8E6-7312-4CCE-996E-BBE18A6BBA37}"/>
+    <hyperlink ref="E171" r:id="rId62" xr:uid="{A3B6B3F2-D1A2-4B4D-9DF1-BB8FBD2AC74E}"/>
+    <hyperlink ref="E173" r:id="rId63" xr:uid="{F41D57C4-0208-4802-9E33-EB7FAC5DC42F}"/>
+    <hyperlink ref="E163" r:id="rId64" xr:uid="{A1656B3B-E843-4CFF-8457-A07FA703A871}"/>
+    <hyperlink ref="E172" r:id="rId65" xr:uid="{3BF37B87-3FCA-40E3-BAA1-26618A9AB59F}"/>
+    <hyperlink ref="E176" r:id="rId66" xr:uid="{0D273B19-2A25-4B47-BED7-1E9E42A3CC6A}"/>
+    <hyperlink ref="E175" r:id="rId67" xr:uid="{0A92071F-0FEE-40F1-AE4D-71CFAFA58AE6}"/>
+    <hyperlink ref="E178" r:id="rId68" xr:uid="{B0F7CFA9-14B3-4864-9997-B66A2327C2BE}"/>
+    <hyperlink ref="E174" r:id="rId69" xr:uid="{EF5AFCDF-E1C7-4660-8E58-CB6D5AA622CF}"/>
+    <hyperlink ref="E177" r:id="rId70" xr:uid="{1EAB560C-F888-4CFF-8D2A-3FE9E7C34344}"/>
+    <hyperlink ref="E59" r:id="rId71" xr:uid="{862616CF-DC50-4252-A2A5-6C2A8F0D492C}"/>
+    <hyperlink ref="E2" r:id="rId72" xr:uid="{25368976-30AE-4ECC-9DB6-21DA8763251B}"/>
+    <hyperlink ref="E180" r:id="rId73" xr:uid="{7CF036D5-67DF-41BA-98A1-AEDBC49EB72B}"/>
+    <hyperlink ref="E181" r:id="rId74" xr:uid="{412F2EA4-2FB8-4051-885B-2F397F55D297}"/>
+    <hyperlink ref="E182" r:id="rId75" xr:uid="{12E3E6DB-3A38-482A-982A-445A23E5AFD8}"/>
+    <hyperlink ref="E183" r:id="rId76" xr:uid="{C8599419-DA6E-41D3-906B-3435D7A96A74}"/>
+    <hyperlink ref="E184" r:id="rId77" xr:uid="{502D6EEA-4D5E-4839-8A56-DEA8D357B77D}"/>
+    <hyperlink ref="E185" r:id="rId78" xr:uid="{824213CB-2ACD-4390-B1D4-D1A2A2A3835A}"/>
+    <hyperlink ref="E186" r:id="rId79" xr:uid="{40DDCF2D-C69A-405D-A087-C990A148A15C}"/>
+    <hyperlink ref="E187" r:id="rId80" xr:uid="{6E3A694F-0939-492C-8AB5-CF313A97A946}"/>
+    <hyperlink ref="E188" r:id="rId81" xr:uid="{F4F2B958-D3F8-4899-988A-67C1AB5205BC}"/>
+    <hyperlink ref="E189" r:id="rId82" xr:uid="{80782243-3334-4C34-BDB8-026447ECC239}"/>
+    <hyperlink ref="E190" r:id="rId83" xr:uid="{A452E1CF-7D32-41A6-9665-66B81DE27499}"/>
+    <hyperlink ref="E191" r:id="rId84" xr:uid="{6CEDFEB8-CB83-4F0D-B2AD-21BBDD9B0F4B}"/>
+    <hyperlink ref="E192" r:id="rId85" xr:uid="{702633F9-C26A-4C65-A831-34A29E588A8F}"/>
+    <hyperlink ref="E194" r:id="rId86" xr:uid="{B33D162E-45C9-4281-9FFF-577408A6EDB2}"/>
+    <hyperlink ref="E195" r:id="rId87" xr:uid="{DE19B830-C7D4-4D2A-8AB1-A5668A6E03FB}"/>
+    <hyperlink ref="E196" r:id="rId88" xr:uid="{7C93EE81-C318-452E-BBC1-DCFE023FAD3F}"/>
+    <hyperlink ref="E197" r:id="rId89" xr:uid="{6300310A-48DC-488D-A1FD-23E873045355}"/>
+    <hyperlink ref="E198" r:id="rId90" xr:uid="{CA699900-3D2B-4884-875C-E9D2E47BEE3C}"/>
+    <hyperlink ref="E199" r:id="rId91" xr:uid="{376D7A2E-7E4C-4360-BF85-5168C3C685D7}"/>
+    <hyperlink ref="E200" r:id="rId92" xr:uid="{AB9D8F8B-3898-4372-B0E9-A053F1265878}"/>
+    <hyperlink ref="E201" r:id="rId93" xr:uid="{F2BCF522-1846-4815-87FA-CD83C387BD9A}"/>
+    <hyperlink ref="E203" r:id="rId94" xr:uid="{F1164EA5-2F2A-4E6A-B2A2-1492B5482B98}"/>
+    <hyperlink ref="E204" r:id="rId95" xr:uid="{F02FBCD4-428A-427F-9C98-F3900F8C8FB3}"/>
+    <hyperlink ref="E205" r:id="rId96" xr:uid="{D6F29053-91E6-4208-95DF-36B129B829A4}"/>
+    <hyperlink ref="E206" r:id="rId97" xr:uid="{B4C4E458-D6F2-46B9-988B-9B7CCFE7CA77}"/>
+    <hyperlink ref="E207" r:id="rId98" xr:uid="{E42CF963-CB15-45AB-93C7-58361B5A229D}"/>
+    <hyperlink ref="E208" r:id="rId99" xr:uid="{AF0C32B5-13EE-496B-BF0D-1FEF312C7323}"/>
+    <hyperlink ref="E209" r:id="rId100" xr:uid="{1EF9D6B8-F3B5-479B-8CEC-77186651BB99}"/>
+    <hyperlink ref="E210" r:id="rId101" xr:uid="{DDA72F8C-C135-42EF-B570-5B03127B420C}"/>
+    <hyperlink ref="E212" r:id="rId102" xr:uid="{4B320933-3CF5-47A0-8182-AF344587D7E5}"/>
+    <hyperlink ref="E213" r:id="rId103" xr:uid="{A093705E-2126-42D4-9472-BA86B757AB65}"/>
+    <hyperlink ref="E214" r:id="rId104" xr:uid="{AABBA42E-B426-405E-A049-A6941FE8C16D}"/>
+    <hyperlink ref="E215" r:id="rId105" xr:uid="{69D673EE-4F12-4F9A-A362-65786557DF51}"/>
+    <hyperlink ref="E216" r:id="rId106" xr:uid="{8AB9C893-8492-41AC-BA5D-7C59601A96DD}"/>
+    <hyperlink ref="E217" r:id="rId107" xr:uid="{4BEEA27D-FCEC-4510-9F9E-0BFCEB23E308}"/>
+    <hyperlink ref="E218" r:id="rId108" xr:uid="{4CCEA639-4833-4B73-9FD7-7D39B76548F8}"/>
+    <hyperlink ref="E219" r:id="rId109" xr:uid="{ACE6DC43-9F33-4FB2-A2FD-00FED624C823}"/>
+    <hyperlink ref="E221" r:id="rId110" xr:uid="{E763B5EE-E263-44E0-A226-09B0A56576F2}"/>
+    <hyperlink ref="E222" r:id="rId111" xr:uid="{565AEB14-1F19-478B-876F-0AA877D27033}"/>
+    <hyperlink ref="E223" r:id="rId112" xr:uid="{2BADA365-742E-4AD1-B995-43869021841D}"/>
+    <hyperlink ref="E224" r:id="rId113" xr:uid="{9EB40FC5-018C-4159-BD5F-730B636D6745}"/>
+    <hyperlink ref="E225" r:id="rId114" xr:uid="{1FB4BD7B-6230-4535-8810-3490840640E6}"/>
+    <hyperlink ref="E226" r:id="rId115" xr:uid="{C01EB9DC-D91C-4C07-8726-0EAD7AA2B77F}"/>
+    <hyperlink ref="E227" r:id="rId116" xr:uid="{D13CA7CF-6E50-4B8D-8309-7A9F14C1A86E}"/>
+    <hyperlink ref="E228" r:id="rId117" xr:uid="{CB41DC05-F064-401E-893C-316DE1E40F2B}"/>
+    <hyperlink ref="E230" r:id="rId118" xr:uid="{144DD6F8-98C9-4EE1-B2A6-11C5E4FBAE67}"/>
+    <hyperlink ref="E231" r:id="rId119" xr:uid="{54956990-6A6E-4761-99AB-46DF32AE447F}"/>
+    <hyperlink ref="E232" r:id="rId120" xr:uid="{527BC068-330D-4352-927C-0EA644B38895}"/>
+    <hyperlink ref="E233" r:id="rId121" xr:uid="{398E4125-310B-4A8D-8F52-E0DCA1BE08D1}"/>
+    <hyperlink ref="E234" r:id="rId122" xr:uid="{1A499FAE-3035-4D01-AA13-5499B684B4F9}"/>
+    <hyperlink ref="E235" r:id="rId123" xr:uid="{CA280778-5C8B-4F76-8D76-B791F140BBE7}"/>
+    <hyperlink ref="E236" r:id="rId124" xr:uid="{341040F1-3B87-4F25-8AE2-080EB3EF314B}"/>
+    <hyperlink ref="E237" r:id="rId125" xr:uid="{CF540B81-AD77-459D-8132-B02BEDB98F1B}"/>
+    <hyperlink ref="E239" r:id="rId126" xr:uid="{0FD39196-B353-4546-9DBA-AD6D67DB4E47}"/>
+    <hyperlink ref="E240" r:id="rId127" xr:uid="{713ED13E-E73A-468D-B6B7-0E31941E1FFC}"/>
+    <hyperlink ref="E241" r:id="rId128" xr:uid="{6E27DEFF-6A1F-44DD-9AD8-CF0E868288AD}"/>
+    <hyperlink ref="E242" r:id="rId129" xr:uid="{BCC4F6D4-642E-4192-8499-BF59CDB47EBA}"/>
+    <hyperlink ref="E243" r:id="rId130" xr:uid="{CC8ADBF8-D4D4-48C6-9B61-F5318F4B06E6}"/>
+    <hyperlink ref="E244" r:id="rId131" xr:uid="{C8D9D1AD-41DA-4CF0-ACF1-88C1834FD125}"/>
+    <hyperlink ref="E245" r:id="rId132" xr:uid="{E7D62319-4140-45C3-9E90-8963C2A3090F}"/>
+    <hyperlink ref="E246" r:id="rId133" xr:uid="{D6A6D0ED-1383-44BA-A068-D7653539AAE4}"/>
+    <hyperlink ref="E248" r:id="rId134" xr:uid="{F0325C78-8C01-4C99-866E-4B745B83A3FF}"/>
+    <hyperlink ref="E249" r:id="rId135" xr:uid="{0BA2EB03-A645-49C2-BB67-6C4757565E82}"/>
+    <hyperlink ref="E250" r:id="rId136" xr:uid="{FDFA0613-F247-46D0-A88B-E6F6AE5E5A50}"/>
+    <hyperlink ref="E251" r:id="rId137" xr:uid="{057D666D-3772-4B27-B7ED-F4E0ABDE3AE4}"/>
+    <hyperlink ref="E252" r:id="rId138" xr:uid="{407BED3B-EF77-41A5-B8F7-E408E031242B}"/>
+    <hyperlink ref="E253" r:id="rId139" xr:uid="{73E3DE29-1EE5-4ECB-B5BC-37864B33F898}"/>
+    <hyperlink ref="E254" r:id="rId140" xr:uid="{24275325-8AE2-4899-8E48-D0717AC8CA7D}"/>
+    <hyperlink ref="E255" r:id="rId141" xr:uid="{6D928180-8AA1-4463-BBD2-97B261953C89}"/>
+    <hyperlink ref="E257" r:id="rId142" xr:uid="{678CFD0A-557C-4EE2-9ACE-9F5195ACA5A8}"/>
+    <hyperlink ref="E258" r:id="rId143" xr:uid="{D6AC0E13-2F87-48D1-A4D0-D9BAEB1E68E3}"/>
+    <hyperlink ref="E259" r:id="rId144" xr:uid="{5728F092-DAB2-476F-A11F-CC4CA7FE88BB}"/>
+    <hyperlink ref="E260" r:id="rId145" xr:uid="{451646C2-0BF4-4D56-9C47-57DAAEFDF034}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Gallery.xlsx
+++ b/Gallery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelaziz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AD9E8B-6E6D-421E-BB61-226A4E19E008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B67F4CD-4997-4624-A51C-5A6534A5C070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="651">
   <si>
     <t>Number</t>
   </si>
@@ -1153,6 +1153,9 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/169.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/160.jpeg</t>
   </si>
   <si>
     <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/170.jpeg</t>
@@ -2393,13 +2396,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98041684-60AD-4B6B-B652-1A806A9CDDBF}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:G265"/>
+  <dimension ref="A1:G264"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E158" sqref="E158"/>
+      <selection pane="bottomLeft" activeCell="E165" sqref="E165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2437,15 +2439,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D2" s="18">
         <v>3000</v>
@@ -2460,15 +2462,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D3" s="18">
         <v>1750</v>
@@ -2483,15 +2485,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D4" s="18">
         <v>500</v>
@@ -2506,15 +2508,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>492</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>491</v>
       </c>
       <c r="D5" s="18">
         <v>500</v>
@@ -2526,18 +2528,18 @@
         <v>193</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D6" s="18">
         <v>1500</v>
@@ -2552,15 +2554,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D7" s="18">
         <v>800</v>
@@ -2575,15 +2577,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D8" s="18">
         <v>1600</v>
@@ -2598,15 +2600,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D9" s="18">
         <v>900</v>
@@ -2621,15 +2623,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D10" s="18">
         <v>2500</v>
@@ -2644,15 +2646,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D11" s="18">
         <v>3000</v>
@@ -2667,15 +2669,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D12" s="18">
         <v>1750</v>
@@ -2690,15 +2692,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D13" s="18">
         <v>1200</v>
@@ -2713,15 +2715,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D14" s="18">
         <v>900</v>
@@ -2733,18 +2735,18 @@
         <v>207</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D15" s="18">
         <v>500</v>
@@ -2756,18 +2758,18 @@
         <v>207</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D16" s="18">
         <v>1500</v>
@@ -2782,15 +2784,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D17" s="18">
         <v>1200</v>
@@ -2805,15 +2807,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D18" s="18">
         <v>1000</v>
@@ -2828,15 +2830,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D19" s="18">
         <v>2000</v>
@@ -2851,15 +2853,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D20" s="18">
         <v>750</v>
@@ -2874,15 +2876,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D21" s="18">
         <v>1750</v>
@@ -2897,15 +2899,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D22" s="18">
         <v>1400</v>
@@ -2920,15 +2922,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D23" s="18">
         <v>700</v>
@@ -2943,15 +2945,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D24" s="18">
         <v>2500</v>
@@ -2966,15 +2968,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D25" s="18">
         <v>1500</v>
@@ -2989,15 +2991,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D26" s="18">
         <v>1500</v>
@@ -3012,15 +3014,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D27" s="18">
         <v>1200</v>
@@ -3035,15 +3037,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D28" s="18">
         <v>2500</v>
@@ -3058,15 +3060,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D29" s="18">
         <v>3000</v>
@@ -3081,15 +3083,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D30" s="18">
         <v>1200</v>
@@ -3104,15 +3106,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D31" s="18">
         <v>800</v>
@@ -3127,15 +3129,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D32" s="18">
         <v>1200</v>
@@ -3150,15 +3152,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D33" s="18">
         <v>3000</v>
@@ -3173,15 +3175,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D34" s="18">
         <v>700</v>
@@ -3196,15 +3198,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D35" s="18">
         <v>1000</v>
@@ -3219,15 +3221,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D36" s="18">
         <v>1200</v>
@@ -3242,15 +3244,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D37" s="18">
         <v>900</v>
@@ -3265,15 +3267,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D38" s="18">
         <v>1500</v>
@@ -3288,15 +3290,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D39" s="18">
         <v>1500</v>
@@ -3311,38 +3313,38 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D40" s="18">
         <v>500</v>
       </c>
       <c r="E40" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>193</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D41" s="18">
         <v>1200</v>
@@ -3357,15 +3359,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D42" s="18">
         <v>2500</v>
@@ -3380,15 +3382,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D43" s="18">
         <v>2200</v>
@@ -3397,21 +3399,21 @@
         <v>260</v>
       </c>
       <c r="F43" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D44" s="18">
         <v>1200</v>
@@ -3426,15 +3428,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D45" s="18">
         <v>2000</v>
@@ -3449,15 +3451,15 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D46" s="18">
         <v>1000</v>
@@ -3472,15 +3474,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D47" s="18">
         <v>1100</v>
@@ -3495,15 +3497,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D48" s="18">
         <v>1200</v>
@@ -3518,15 +3520,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D49" s="18">
         <v>1200</v>
@@ -3541,15 +3543,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D50" s="18">
         <v>2000</v>
@@ -3564,15 +3566,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D51" s="18">
         <v>400</v>
@@ -3587,15 +3589,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D52" s="18">
         <v>800</v>
@@ -3610,15 +3612,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D53" s="18">
         <v>800</v>
@@ -3633,15 +3635,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D54" s="18">
         <v>3500</v>
@@ -3656,15 +3658,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D55" s="18">
         <v>600</v>
@@ -3679,15 +3681,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D56" s="18">
         <v>950</v>
@@ -3702,15 +3704,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D57" s="18">
         <v>4000</v>
@@ -3725,15 +3727,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D58" s="18">
         <v>4000</v>
@@ -3745,18 +3747,18 @@
         <v>198</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D59" s="18">
         <v>2500</v>
@@ -3771,15 +3773,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D60" s="18">
         <v>4000</v>
@@ -3794,15 +3796,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D61" s="18">
         <v>900</v>
@@ -3817,15 +3819,15 @@
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D62" s="18">
         <v>1200</v>
@@ -3840,15 +3842,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D63" s="18">
         <v>1200</v>
@@ -3863,15 +3865,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D64" s="18">
         <v>600</v>
@@ -3886,15 +3888,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D65" s="18">
         <v>4500</v>
@@ -3909,15 +3911,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D66" s="24">
         <v>850</v>
@@ -3932,15 +3934,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D67" s="18">
         <v>1200</v>
@@ -3955,21 +3957,21 @@
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D68" s="18">
         <v>900</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F68" t="s">
         <v>196</v>
@@ -3978,15 +3980,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D69" s="18">
         <v>300</v>
@@ -4001,15 +4003,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D70" s="18">
         <v>1800</v>
@@ -4024,15 +4026,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D71" s="18">
         <v>1200</v>
@@ -4047,15 +4049,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D72" s="18">
         <v>1600</v>
@@ -4070,15 +4072,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D73" s="18">
         <v>2000</v>
@@ -4090,18 +4092,18 @@
         <v>196</v>
       </c>
       <c r="G73" s="17" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D74" s="18">
         <v>12500</v>
@@ -4116,15 +4118,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D75" s="18">
         <v>800</v>
@@ -4139,15 +4141,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D76" s="18">
         <v>600</v>
@@ -4162,15 +4164,15 @@
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D77" s="18">
         <v>750</v>
@@ -4185,15 +4187,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D78" s="18">
         <v>750</v>
@@ -4208,15 +4210,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D79" s="18">
         <v>2500</v>
@@ -4231,15 +4233,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D80" s="18">
         <v>1500</v>
@@ -4254,15 +4256,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D81" s="18">
         <v>1400</v>
@@ -4277,15 +4279,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D82" s="18">
         <v>350</v>
@@ -4300,15 +4302,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D83" s="18">
         <v>750</v>
@@ -4323,15 +4325,15 @@
         <v>93</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D84" s="18">
         <v>600</v>
@@ -4346,15 +4348,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D85" s="18">
         <v>600</v>
@@ -4369,15 +4371,15 @@
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>86</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D86" s="18">
         <v>1200</v>
@@ -4392,15 +4394,15 @@
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>85</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D87" s="18">
         <v>1700</v>
@@ -4415,15 +4417,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D88" s="18">
         <v>300</v>
@@ -4438,15 +4440,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D89" s="18">
         <v>500</v>
@@ -4461,15 +4463,15 @@
         <v>99</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D90" s="18">
         <v>400</v>
@@ -4484,15 +4486,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D91" s="18">
         <v>2750</v>
@@ -4507,15 +4509,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D92" s="18">
         <v>3750</v>
@@ -4530,15 +4532,15 @@
         <v>102</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D93" s="18">
         <v>3500</v>
@@ -4553,15 +4555,15 @@
         <v>103</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D94" s="18">
         <v>20000</v>
@@ -4576,15 +4578,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D95" s="18">
         <v>800</v>
@@ -4596,18 +4598,18 @@
         <v>199</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D96" s="18">
         <v>2500</v>
@@ -4622,15 +4624,15 @@
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D97" s="18">
         <v>3000</v>
@@ -4650,10 +4652,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D98" s="18">
         <v>750</v>
@@ -4668,15 +4670,15 @@
         <v>107</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D99" s="18">
         <v>350</v>
@@ -4691,15 +4693,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D100" s="18">
         <v>4000</v>
@@ -4714,15 +4716,15 @@
         <v>109</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D101" s="18">
         <v>3500</v>
@@ -4737,15 +4739,15 @@
         <v>110</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D102" s="18">
         <v>2800</v>
@@ -4760,15 +4762,15 @@
         <v>111</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D103" s="18">
         <v>1200</v>
@@ -4783,15 +4785,15 @@
         <v>112</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D104" s="18">
         <v>300</v>
@@ -4806,15 +4808,15 @@
         <v>113</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D105" s="18">
         <v>1200</v>
@@ -4829,15 +4831,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D106" s="24">
         <v>850</v>
@@ -4852,15 +4854,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D107" s="18">
         <v>400</v>
@@ -4875,15 +4877,15 @@
         <v>116</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D108" s="18">
         <v>2500</v>
@@ -4892,21 +4894,21 @@
         <v>324</v>
       </c>
       <c r="F108" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G108" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D109" s="18">
         <v>1000</v>
@@ -4921,15 +4923,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D110" s="18">
         <v>400</v>
@@ -4944,15 +4946,15 @@
         <v>119</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D111" s="18">
         <v>1000</v>
@@ -4967,15 +4969,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D112" s="18">
         <v>750</v>
@@ -4990,15 +4992,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D113" s="18">
         <v>4000</v>
@@ -5013,15 +5015,15 @@
         <v>122</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D114" s="18">
         <v>3000</v>
@@ -5036,15 +5038,15 @@
         <v>123</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D115" s="18">
         <v>2000</v>
@@ -5059,15 +5061,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D116" s="18">
         <v>4000</v>
@@ -5082,15 +5084,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D117" s="18">
         <v>1800</v>
@@ -5105,15 +5107,15 @@
         <v>126</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D118" s="18">
         <v>1200</v>
@@ -5128,15 +5130,15 @@
         <v>127</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D119" s="18">
         <v>800</v>
@@ -5151,15 +5153,15 @@
         <v>128</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D120" s="18">
         <v>250</v>
@@ -5174,15 +5176,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D121" s="18">
         <v>2500</v>
@@ -5197,15 +5199,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D122" s="18">
         <v>800</v>
@@ -5220,15 +5222,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D123" s="18">
         <v>800</v>
@@ -5243,15 +5245,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D124" s="18">
         <v>500</v>
@@ -5266,15 +5268,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D125" s="18">
         <v>2000</v>
@@ -5289,15 +5291,15 @@
         <v>134</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D126" s="18">
         <v>1200</v>
@@ -5312,15 +5314,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D127" s="18">
         <v>5000</v>
@@ -5335,15 +5337,15 @@
         <v>136</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D128" s="18">
         <v>2000</v>
@@ -5358,15 +5360,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D129" s="18">
         <v>1500</v>
@@ -5381,15 +5383,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="130" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9">
         <v>129</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D130" s="19">
         <v>6000</v>
@@ -5404,15 +5406,15 @@
         <v>139</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D131" s="18">
         <v>300</v>
@@ -5427,15 +5429,15 @@
         <v>140</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D132" s="18">
         <v>800</v>
@@ -5450,15 +5452,15 @@
         <v>141</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D133" s="18">
         <v>2000</v>
@@ -5473,15 +5475,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D134" s="18">
         <v>700</v>
@@ -5496,15 +5498,15 @@
         <v>143</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D135" s="18">
         <v>700</v>
@@ -5519,15 +5521,15 @@
         <v>143</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D136" s="18">
         <v>700</v>
@@ -5542,15 +5544,15 @@
         <v>143</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D137" s="18">
         <v>700</v>
@@ -5565,15 +5567,15 @@
         <v>143</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D138" s="18">
         <v>700</v>
@@ -5588,15 +5590,15 @@
         <v>143</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D139" s="18">
         <v>900</v>
@@ -5611,15 +5613,15 @@
         <v>144</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D140" s="18">
         <v>700</v>
@@ -5634,15 +5636,15 @@
         <v>145</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D141" s="18">
         <v>700</v>
@@ -5657,15 +5659,15 @@
         <v>145</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D142" s="18">
         <v>900</v>
@@ -5680,15 +5682,15 @@
         <v>146</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D143" s="18">
         <v>700</v>
@@ -5703,15 +5705,15 @@
         <v>147</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>143</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D144" s="18">
         <v>700</v>
@@ -5726,15 +5728,15 @@
         <v>147</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D145" s="18">
         <v>1400</v>
@@ -5749,15 +5751,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D146" s="18">
         <v>700</v>
@@ -5772,15 +5774,15 @@
         <v>149</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>146</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D147" s="18">
         <v>700</v>
@@ -5795,15 +5797,15 @@
         <v>149</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>147</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D148" s="18">
         <v>700</v>
@@ -5818,15 +5820,15 @@
         <v>149</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>148</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D149" s="18">
         <v>700</v>
@@ -5841,15 +5843,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>149</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D150" s="18">
         <v>500</v>
@@ -5864,15 +5866,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>150</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D151" s="18">
         <v>800</v>
@@ -5887,15 +5889,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>151</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D152" s="18">
         <v>800</v>
@@ -5910,15 +5912,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>152</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D153" s="18">
         <v>350</v>
@@ -5933,21 +5935,21 @@
         <v>154</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>153</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D154" s="18">
         <v>2500</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F154" t="s">
         <v>199</v>
@@ -5956,21 +5958,21 @@
         <v>155</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>154</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D155" s="18">
         <v>600</v>
       </c>
-      <c r="E155" s="5" t="s">
-        <v>370</v>
+      <c r="E155" s="1" t="s">
+        <v>375</v>
       </c>
       <c r="F155" t="s">
         <v>199</v>
@@ -5979,15 +5981,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>155</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D156" s="18">
         <v>700</v>
@@ -6002,15 +6004,15 @@
         <v>157</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>156</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D157" s="18">
         <v>700</v>
@@ -6022,7 +6024,7 @@
         <v>199</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -6030,10 +6032,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D158" s="18">
         <v>750</v>
@@ -6048,15 +6050,15 @@
         <v>107</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>158</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D159" s="18">
         <v>1200</v>
@@ -6071,15 +6073,15 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="9">
         <v>159</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D160" s="19">
         <v>600</v>
@@ -6094,21 +6096,21 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>160</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D161" s="18">
         <v>750</v>
       </c>
       <c r="E161" s="12" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F161" t="s">
         <v>199</v>
@@ -6117,21 +6119,21 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D162" s="18">
         <v>800</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F162" t="s">
         <v>226</v>
@@ -6140,21 +6142,21 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>162</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D163" s="18">
         <v>1500</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F163" t="s">
         <v>211</v>
@@ -6163,21 +6165,21 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>163</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D164" s="18">
         <v>1200</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F164" t="s">
         <v>211</v>
@@ -6186,44 +6188,44 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="3">
+    <row r="165" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="13">
         <v>164</v>
       </c>
-      <c r="B165" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="D165" s="18">
+      <c r="B165" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="C165" s="13" t="s">
+        <v>624</v>
+      </c>
+      <c r="D165" s="20">
         <v>1500</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="F165" t="s">
+        <v>380</v>
+      </c>
+      <c r="F165" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="G165" s="7" t="s">
+      <c r="G165" s="17" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>165</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D166" s="18">
         <v>300</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F166" t="s">
         <v>227</v>
@@ -6232,21 +6234,21 @@
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>166</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D167" s="18">
         <v>400</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F167" t="s">
         <v>209</v>
@@ -6255,21 +6257,21 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>167</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D168" s="18">
         <v>500</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F168" t="s">
         <v>209</v>
@@ -6278,21 +6280,21 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>168</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D169" s="18">
         <v>300</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F169" t="s">
         <v>228</v>
@@ -6301,21 +6303,21 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:7" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="9">
         <v>169</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D170" s="19">
         <v>400</v>
       </c>
-      <c r="E170" s="5" t="s">
-        <v>383</v>
+      <c r="E170" s="12" t="s">
+        <v>385</v>
       </c>
       <c r="F170" s="11" t="s">
         <v>196</v>
@@ -6324,21 +6326,21 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>170</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D171" s="18">
         <v>150</v>
       </c>
-      <c r="E171" s="12" t="s">
-        <v>384</v>
+      <c r="E171" s="5" t="s">
+        <v>386</v>
       </c>
       <c r="F171" t="s">
         <v>196</v>
@@ -6347,21 +6349,21 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>171</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D172" s="18">
         <v>150</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F172" t="s">
         <v>228</v>
@@ -6370,21 +6372,21 @@
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>172</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D173" s="18">
         <v>100</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F173" t="s">
         <v>210</v>
@@ -6393,21 +6395,21 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>173</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D174" s="18">
         <v>4000</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F174" t="s">
         <v>229</v>
@@ -6416,21 +6418,21 @@
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>174</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D175" s="18">
         <v>1500</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F175" t="s">
         <v>229</v>
@@ -6439,21 +6441,21 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>175</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D176" s="18">
         <v>2500</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F176" t="s">
         <v>229</v>
@@ -6462,21 +6464,21 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>176</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D177" s="18">
         <v>500</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F177" t="s">
         <v>212</v>
@@ -6485,21 +6487,21 @@
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>177</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D178" s="18">
         <v>300</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F178" t="s">
         <v>212</v>
@@ -6508,44 +6510,44 @@
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:7" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="13">
         <v>178</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C179" s="13" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D179" s="18">
         <v>1200</v>
       </c>
-      <c r="E179" s="5" t="s">
-        <v>392</v>
+      <c r="E179" s="16" t="s">
+        <v>467</v>
       </c>
       <c r="F179" s="15" t="s">
         <v>217</v>
       </c>
       <c r="G179" s="17" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>179</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D180" s="20">
         <v>500</v>
       </c>
-      <c r="E180" s="16" t="s">
-        <v>466</v>
+      <c r="E180" s="1" t="s">
+        <v>468</v>
       </c>
       <c r="F180" t="s">
         <v>230</v>
@@ -6554,21 +6556,21 @@
         <v>178</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>180</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D181" s="18">
         <v>2300</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F181" t="s">
         <v>199</v>
@@ -6577,21 +6579,21 @@
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>181</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D182" s="18">
         <v>1400</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F182" t="s">
         <v>198</v>
@@ -6600,21 +6602,21 @@
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>182</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D183" s="18">
         <v>1575</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F183" t="s">
         <v>231</v>
@@ -6623,21 +6625,21 @@
         <v>181</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>183</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D184" s="18">
         <v>1485</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F184" t="s">
         <v>231</v>
@@ -6646,21 +6648,21 @@
         <v>181</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>184</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D185" s="18">
         <v>1260</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F185" t="s">
         <v>231</v>
@@ -6669,21 +6671,21 @@
         <v>181</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>185</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D186" s="21">
         <v>1215</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F186" t="s">
         <v>231</v>
@@ -6692,21 +6694,21 @@
         <v>181</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>186</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D187" s="21">
         <v>1440</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F187" t="s">
         <v>231</v>
@@ -6715,21 +6717,21 @@
         <v>181</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>187</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D188" s="21">
         <v>1395</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F188" t="s">
         <v>231</v>
@@ -6738,21 +6740,21 @@
         <v>181</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>188</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D189" s="21">
         <v>810</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F189" t="s">
         <v>231</v>
@@ -6761,21 +6763,21 @@
         <v>181</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>189</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D190" s="21">
         <v>1575</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F190" t="s">
         <v>231</v>
@@ -6784,21 +6786,21 @@
         <v>181</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>190</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D191" s="21">
         <v>1170</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F191" t="s">
         <v>231</v>
@@ -6807,21 +6809,21 @@
         <v>181</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>191</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D192" s="21">
         <v>810</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="F192" t="s">
         <v>231</v>
@@ -6830,21 +6832,21 @@
         <v>181</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>192</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D193" s="21">
         <v>855</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F193" s="3" t="s">
         <v>231</v>
@@ -6853,21 +6855,21 @@
         <v>181</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>193</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D194" s="21">
         <v>1260</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F194" s="3" t="s">
         <v>231</v>
@@ -6876,21 +6878,21 @@
         <v>182</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>194</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D195" s="21">
         <v>1330</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F195" s="3" t="s">
         <v>231</v>
@@ -6899,21 +6901,21 @@
         <v>182</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>195</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D196" s="21">
         <v>665</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F196" s="3" t="s">
         <v>231</v>
@@ -6922,21 +6924,21 @@
         <v>182</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>196</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D197" s="21">
         <v>1085</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F197" s="3" t="s">
         <v>231</v>
@@ -6945,21 +6947,21 @@
         <v>182</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>197</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D198" s="21">
         <v>875</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F198" s="3" t="s">
         <v>231</v>
@@ -6968,21 +6970,21 @@
         <v>182</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>198</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D199" s="21">
         <v>1645</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F199" s="3" t="s">
         <v>231</v>
@@ -6991,21 +6993,21 @@
         <v>182</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>199</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D200" s="21">
         <v>980</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F200" s="3" t="s">
         <v>231</v>
@@ -7014,21 +7016,21 @@
         <v>182</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>200</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D201" s="21">
         <v>1015</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="F201" s="3" t="s">
         <v>231</v>
@@ -7037,21 +7039,21 @@
         <v>182</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>201</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D202" s="21">
         <v>595</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F202" s="3" t="s">
         <v>231</v>
@@ -7060,21 +7062,21 @@
         <v>182</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>202</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D203" s="21">
         <v>910</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F203" s="3" t="s">
         <v>231</v>
@@ -7083,21 +7085,21 @@
         <v>182</v>
       </c>
     </row>
-    <row r="204" spans="1:7" s="13" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>203</v>
       </c>
       <c r="B204" s="14" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C204" s="13" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D204" s="22">
         <v>595</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F204" s="13" t="s">
         <v>231</v>
@@ -7106,21 +7108,21 @@
         <v>182</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>204</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D205" s="21">
         <v>768</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F205" s="3" t="s">
         <v>231</v>
@@ -7129,21 +7131,21 @@
         <v>185</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>205</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D206" s="21">
         <v>1120</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F206" s="3" t="s">
         <v>231</v>
@@ -7152,21 +7154,21 @@
         <v>185</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>206</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D207" s="21">
         <v>1856</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F207" s="3" t="s">
         <v>231</v>
@@ -7175,21 +7177,21 @@
         <v>185</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>207</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D208" s="21">
         <v>864</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F208" s="3" t="s">
         <v>231</v>
@@ -7198,21 +7200,21 @@
         <v>185</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>208</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D209" s="21">
         <v>1280</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F209" s="3" t="s">
         <v>231</v>
@@ -7221,21 +7223,21 @@
         <v>185</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>209</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D210" s="21">
         <v>896</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="F210" s="3" t="s">
         <v>231</v>
@@ -7244,21 +7246,21 @@
         <v>185</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>210</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D211" s="21">
         <v>2112</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F211" s="3" t="s">
         <v>231</v>
@@ -7267,21 +7269,21 @@
         <v>185</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>211</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D212" s="21">
         <v>1888</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F212" s="3" t="s">
         <v>231</v>
@@ -7290,21 +7292,21 @@
         <v>185</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>212</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D213" s="21">
         <v>800</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F213" s="3" t="s">
         <v>231</v>
@@ -7313,21 +7315,21 @@
         <v>185</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>213</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D214" s="21">
         <v>1088</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F214" s="3" t="s">
         <v>231</v>
@@ -7336,21 +7338,21 @@
         <v>185</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>214</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D215" s="21">
         <v>800</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F215" s="3" t="s">
         <v>231</v>
@@ -7359,21 +7361,21 @@
         <v>185</v>
       </c>
     </row>
-    <row r="216" spans="1:7" s="13" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>215</v>
       </c>
       <c r="B216" s="14" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C216" s="13" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D216" s="22">
         <v>800</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F216" s="13" t="s">
         <v>231</v>
@@ -7382,21 +7384,21 @@
         <v>185</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>216</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D217" s="21">
         <v>950</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F217" s="3" t="s">
         <v>231</v>
@@ -7405,21 +7407,21 @@
         <v>184</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>217</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D218" s="21">
         <v>576</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F218" s="3" t="s">
         <v>231</v>
@@ -7428,21 +7430,21 @@
         <v>184</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>218</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D219" s="21">
         <v>925</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="F219" s="3" t="s">
         <v>231</v>
@@ -7451,21 +7453,21 @@
         <v>184</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>219</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D220" s="21">
         <v>725</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F220" s="3" t="s">
         <v>231</v>
@@ -7474,21 +7476,21 @@
         <v>184</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>220</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D221" s="21">
         <v>750</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F221" s="3" t="s">
         <v>231</v>
@@ -7497,21 +7499,21 @@
         <v>184</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>221</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D222" s="21">
         <v>1100</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F222" s="3" t="s">
         <v>231</v>
@@ -7520,21 +7522,21 @@
         <v>184</v>
       </c>
     </row>
-    <row r="223" spans="1:7" s="13" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>222</v>
       </c>
       <c r="B223" s="14" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C223" s="13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D223" s="22">
         <v>1225</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F223" s="13" t="s">
         <v>231</v>
@@ -7543,18 +7545,18 @@
         <v>184</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>223</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D224" s="21">
         <v>495</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F224" s="3" t="s">
         <v>231</v>
@@ -7563,18 +7565,18 @@
         <v>181</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>224</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D225" s="21">
         <v>950</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F225" s="3" t="s">
         <v>231</v>
@@ -7583,21 +7585,21 @@
         <v>181</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>225</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D226" s="21">
         <v>2345</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F226" s="3" t="s">
         <v>231</v>
@@ -7606,21 +7608,21 @@
         <v>183</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>226</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D227" s="21">
         <v>2380</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F227" s="3" t="s">
         <v>231</v>
@@ -7629,21 +7631,21 @@
         <v>183</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>227</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D228" s="21">
         <v>3570</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="F228" s="3" t="s">
         <v>231</v>
@@ -7652,21 +7654,21 @@
         <v>183</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>228</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D229" s="21">
         <v>1645</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F229" s="3" t="s">
         <v>231</v>
@@ -7675,21 +7677,21 @@
         <v>183</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>229</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D230" s="21">
         <v>1610</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F230" s="3" t="s">
         <v>231</v>
@@ -7698,21 +7700,21 @@
         <v>183</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>230</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D231" s="21">
         <v>1120</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F231" s="3" t="s">
         <v>231</v>
@@ -7721,21 +7723,21 @@
         <v>183</v>
       </c>
     </row>
-    <row r="232" spans="1:7" s="13" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>231</v>
       </c>
       <c r="B232" s="14" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C232" s="13" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D232" s="22">
         <v>945</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F232" s="13" t="s">
         <v>231</v>
@@ -7744,21 +7746,21 @@
         <v>183</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>232</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D233" s="21">
         <v>1990</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F233" s="3" t="s">
         <v>231</v>
@@ -7767,21 +7769,21 @@
         <v>185</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>233</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D234" s="21">
         <v>770</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F234" s="3" t="s">
         <v>231</v>
@@ -7790,21 +7792,21 @@
         <v>186</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>234</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D235" s="21">
         <v>1190</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F235" s="3" t="s">
         <v>231</v>
@@ -7813,21 +7815,21 @@
         <v>186</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>235</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D236" s="21">
         <v>940</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F236" s="3" t="s">
         <v>231</v>
@@ -7836,21 +7838,21 @@
         <v>186</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>236</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D237" s="21">
         <v>1040</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="F237" s="3" t="s">
         <v>231</v>
@@ -7859,21 +7861,21 @@
         <v>186</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>237</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D238" s="21">
         <v>880</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F238" s="3" t="s">
         <v>231</v>
@@ -7882,21 +7884,21 @@
         <v>186</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>238</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D239" s="21">
         <v>540</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F239" s="3" t="s">
         <v>231</v>
@@ -7905,21 +7907,21 @@
         <v>186</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>239</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D240" s="21">
         <v>800</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F240" s="3" t="s">
         <v>231</v>
@@ -7928,21 +7930,21 @@
         <v>186</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>240</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D241" s="21">
         <v>1670</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F241" s="3" t="s">
         <v>231</v>
@@ -7951,21 +7953,21 @@
         <v>186</v>
       </c>
     </row>
-    <row r="242" spans="1:7" s="13" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>241</v>
       </c>
       <c r="B242" s="14" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C242" s="13" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D242" s="22">
         <v>2550</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F242" s="13" t="s">
         <v>231</v>
@@ -7974,21 +7976,21 @@
         <v>186</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>242</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C243" s="13" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D243" s="21">
         <v>2400</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F243" s="3" t="s">
         <v>231</v>
@@ -7997,21 +7999,21 @@
         <v>186</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>243</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D244" s="21">
         <v>1410</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F244" s="3" t="s">
         <v>231</v>
@@ -8020,21 +8022,21 @@
         <v>187</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>244</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D245" s="21">
         <v>480</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F245" s="3" t="s">
         <v>231</v>
@@ -8043,21 +8045,21 @@
         <v>187</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>245</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D246" s="21">
         <v>5625</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="F246" s="3" t="s">
         <v>231</v>
@@ -8066,21 +8068,21 @@
         <v>188</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>246</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D247" s="21">
         <v>540</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F247" s="3" t="s">
         <v>231</v>
@@ -8089,21 +8091,21 @@
         <v>188</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>247</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D248" s="21">
         <v>750</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F248" s="3" t="s">
         <v>231</v>
@@ -8112,21 +8114,21 @@
         <v>188</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>248</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D249" s="21">
         <v>1200</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F249" s="3" t="s">
         <v>231</v>
@@ -8135,21 +8137,21 @@
         <v>189</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>249</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D250" s="21">
         <v>1000</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F250" s="3" t="s">
         <v>231</v>
@@ -8158,21 +8160,21 @@
         <v>189</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>250</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D251" s="21">
         <v>1800</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F251" s="3" t="s">
         <v>231</v>
@@ -8181,21 +8183,21 @@
         <v>189</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>251</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D252" s="21">
         <v>1500</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F252" s="3" t="s">
         <v>231</v>
@@ -8204,21 +8206,21 @@
         <v>189</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>252</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D253" s="21">
         <v>700</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F253" s="3" t="s">
         <v>231</v>
@@ -8227,21 +8229,21 @@
         <v>189</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>253</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D254" s="21">
         <v>940</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F254" s="3" t="s">
         <v>231</v>
@@ -8250,21 +8252,21 @@
         <v>189</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>254</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D255" s="21">
         <v>1300</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="F255" s="3" t="s">
         <v>231</v>
@@ -8273,21 +8275,21 @@
         <v>189</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>255</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D256" s="21">
         <v>2000</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F256" s="3" t="s">
         <v>231</v>
@@ -8296,21 +8298,21 @@
         <v>190</v>
       </c>
     </row>
-    <row r="257" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>256</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D257" s="21">
         <v>1400</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F257" s="3" t="s">
         <v>231</v>
@@ -8319,21 +8321,21 @@
         <v>190</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>257</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D258" s="21">
         <v>2560</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F258" s="3" t="s">
         <v>231</v>
@@ -8342,21 +8344,21 @@
         <v>190</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>258</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D259" s="21">
         <v>116</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F259" s="3" t="s">
         <v>231</v>
@@ -8365,34 +8367,20 @@
         <v>190</v>
       </c>
     </row>
-    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E260" s="1" t="s">
-        <v>474</v>
-      </c>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E260" s="1"/>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E261" s="1"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E262" s="1"/>
-    </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E263" s="1"/>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E264" s="1"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E265" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G260" xr:uid="{98041684-60AD-4B6B-B652-1A806A9CDDBF}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="طاولات"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G260" xr:uid="{98041684-60AD-4B6B-B652-1A806A9CDDBF}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E116" r:id="rId1" display="https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/115.jpeg" xr:uid="{9549F0E1-BCB2-4457-9DDF-9A7137E9809C}"/>
@@ -8446,100 +8434,96 @@
     <hyperlink ref="E143" r:id="rId49" xr:uid="{592B83CC-6C24-4C9A-AAB1-D25A97E2220D}"/>
     <hyperlink ref="E139" r:id="rId50" xr:uid="{E96C3DF6-B0BA-4DD2-8401-6FE8FF78E1D8}"/>
     <hyperlink ref="E144" r:id="rId51" xr:uid="{4DA3BC06-0E1A-4D26-A8ED-2303829FD5FB}"/>
-    <hyperlink ref="E179" r:id="rId52" xr:uid="{2DC37099-0C06-406F-8A78-C69FFEA5DBB9}"/>
-    <hyperlink ref="E165" r:id="rId53" xr:uid="{1406B533-E76F-4E34-AEBE-CF214A7A4389}"/>
-    <hyperlink ref="E154" r:id="rId54" xr:uid="{D8BC583F-75DE-48E8-84D8-313520EDD275}"/>
-    <hyperlink ref="E164" r:id="rId55" xr:uid="{F22A5A62-CFCB-4E14-8ADE-F666F077FE8F}"/>
-    <hyperlink ref="E155" r:id="rId56" xr:uid="{E5A8AD74-B362-4370-9CB6-127E4FDDA652}"/>
-    <hyperlink ref="E166" r:id="rId57" xr:uid="{344A5451-1D20-4D86-B2FD-DCCBF038B68E}"/>
-    <hyperlink ref="E167" r:id="rId58" xr:uid="{4684B8AB-4658-45A8-8378-1FF9C9D07A91}"/>
-    <hyperlink ref="E169" r:id="rId59" xr:uid="{0A8E772D-D766-41DF-A561-C4B167E6CD7F}"/>
-    <hyperlink ref="E168" r:id="rId60" xr:uid="{07A5DA01-AA25-4321-8DEB-90F00A3DB313}"/>
-    <hyperlink ref="E170" r:id="rId61" xr:uid="{7FC9C8E6-7312-4CCE-996E-BBE18A6BBA37}"/>
-    <hyperlink ref="E171" r:id="rId62" xr:uid="{A3B6B3F2-D1A2-4B4D-9DF1-BB8FBD2AC74E}"/>
-    <hyperlink ref="E173" r:id="rId63" xr:uid="{F41D57C4-0208-4802-9E33-EB7FAC5DC42F}"/>
-    <hyperlink ref="E163" r:id="rId64" xr:uid="{A1656B3B-E843-4CFF-8457-A07FA703A871}"/>
-    <hyperlink ref="E172" r:id="rId65" xr:uid="{3BF37B87-3FCA-40E3-BAA1-26618A9AB59F}"/>
-    <hyperlink ref="E176" r:id="rId66" xr:uid="{0D273B19-2A25-4B47-BED7-1E9E42A3CC6A}"/>
-    <hyperlink ref="E175" r:id="rId67" xr:uid="{0A92071F-0FEE-40F1-AE4D-71CFAFA58AE6}"/>
-    <hyperlink ref="E178" r:id="rId68" xr:uid="{B0F7CFA9-14B3-4864-9997-B66A2327C2BE}"/>
-    <hyperlink ref="E174" r:id="rId69" xr:uid="{EF5AFCDF-E1C7-4660-8E58-CB6D5AA622CF}"/>
-    <hyperlink ref="E177" r:id="rId70" xr:uid="{1EAB560C-F888-4CFF-8D2A-3FE9E7C34344}"/>
-    <hyperlink ref="E59" r:id="rId71" xr:uid="{862616CF-DC50-4252-A2A5-6C2A8F0D492C}"/>
-    <hyperlink ref="E2" r:id="rId72" xr:uid="{25368976-30AE-4ECC-9DB6-21DA8763251B}"/>
-    <hyperlink ref="E180" r:id="rId73" xr:uid="{7CF036D5-67DF-41BA-98A1-AEDBC49EB72B}"/>
-    <hyperlink ref="E181" r:id="rId74" xr:uid="{412F2EA4-2FB8-4051-885B-2F397F55D297}"/>
-    <hyperlink ref="E182" r:id="rId75" xr:uid="{12E3E6DB-3A38-482A-982A-445A23E5AFD8}"/>
-    <hyperlink ref="E183" r:id="rId76" xr:uid="{C8599419-DA6E-41D3-906B-3435D7A96A74}"/>
-    <hyperlink ref="E184" r:id="rId77" xr:uid="{502D6EEA-4D5E-4839-8A56-DEA8D357B77D}"/>
-    <hyperlink ref="E185" r:id="rId78" xr:uid="{824213CB-2ACD-4390-B1D4-D1A2A2A3835A}"/>
-    <hyperlink ref="E186" r:id="rId79" xr:uid="{40DDCF2D-C69A-405D-A087-C990A148A15C}"/>
-    <hyperlink ref="E187" r:id="rId80" xr:uid="{6E3A694F-0939-492C-8AB5-CF313A97A946}"/>
-    <hyperlink ref="E188" r:id="rId81" xr:uid="{F4F2B958-D3F8-4899-988A-67C1AB5205BC}"/>
-    <hyperlink ref="E189" r:id="rId82" xr:uid="{80782243-3334-4C34-BDB8-026447ECC239}"/>
-    <hyperlink ref="E190" r:id="rId83" xr:uid="{A452E1CF-7D32-41A6-9665-66B81DE27499}"/>
-    <hyperlink ref="E191" r:id="rId84" xr:uid="{6CEDFEB8-CB83-4F0D-B2AD-21BBDD9B0F4B}"/>
-    <hyperlink ref="E192" r:id="rId85" xr:uid="{702633F9-C26A-4C65-A831-34A29E588A8F}"/>
-    <hyperlink ref="E194" r:id="rId86" xr:uid="{B33D162E-45C9-4281-9FFF-577408A6EDB2}"/>
-    <hyperlink ref="E195" r:id="rId87" xr:uid="{DE19B830-C7D4-4D2A-8AB1-A5668A6E03FB}"/>
-    <hyperlink ref="E196" r:id="rId88" xr:uid="{7C93EE81-C318-452E-BBC1-DCFE023FAD3F}"/>
-    <hyperlink ref="E197" r:id="rId89" xr:uid="{6300310A-48DC-488D-A1FD-23E873045355}"/>
-    <hyperlink ref="E198" r:id="rId90" xr:uid="{CA699900-3D2B-4884-875C-E9D2E47BEE3C}"/>
-    <hyperlink ref="E199" r:id="rId91" xr:uid="{376D7A2E-7E4C-4360-BF85-5168C3C685D7}"/>
-    <hyperlink ref="E200" r:id="rId92" xr:uid="{AB9D8F8B-3898-4372-B0E9-A053F1265878}"/>
-    <hyperlink ref="E201" r:id="rId93" xr:uid="{F2BCF522-1846-4815-87FA-CD83C387BD9A}"/>
-    <hyperlink ref="E203" r:id="rId94" xr:uid="{F1164EA5-2F2A-4E6A-B2A2-1492B5482B98}"/>
-    <hyperlink ref="E204" r:id="rId95" xr:uid="{F02FBCD4-428A-427F-9C98-F3900F8C8FB3}"/>
-    <hyperlink ref="E205" r:id="rId96" xr:uid="{D6F29053-91E6-4208-95DF-36B129B829A4}"/>
-    <hyperlink ref="E206" r:id="rId97" xr:uid="{B4C4E458-D6F2-46B9-988B-9B7CCFE7CA77}"/>
-    <hyperlink ref="E207" r:id="rId98" xr:uid="{E42CF963-CB15-45AB-93C7-58361B5A229D}"/>
-    <hyperlink ref="E208" r:id="rId99" xr:uid="{AF0C32B5-13EE-496B-BF0D-1FEF312C7323}"/>
-    <hyperlink ref="E209" r:id="rId100" xr:uid="{1EF9D6B8-F3B5-479B-8CEC-77186651BB99}"/>
-    <hyperlink ref="E210" r:id="rId101" xr:uid="{DDA72F8C-C135-42EF-B570-5B03127B420C}"/>
-    <hyperlink ref="E212" r:id="rId102" xr:uid="{4B320933-3CF5-47A0-8182-AF344587D7E5}"/>
-    <hyperlink ref="E213" r:id="rId103" xr:uid="{A093705E-2126-42D4-9472-BA86B757AB65}"/>
-    <hyperlink ref="E214" r:id="rId104" xr:uid="{AABBA42E-B426-405E-A049-A6941FE8C16D}"/>
-    <hyperlink ref="E215" r:id="rId105" xr:uid="{69D673EE-4F12-4F9A-A362-65786557DF51}"/>
-    <hyperlink ref="E216" r:id="rId106" xr:uid="{8AB9C893-8492-41AC-BA5D-7C59601A96DD}"/>
-    <hyperlink ref="E217" r:id="rId107" xr:uid="{4BEEA27D-FCEC-4510-9F9E-0BFCEB23E308}"/>
-    <hyperlink ref="E218" r:id="rId108" xr:uid="{4CCEA639-4833-4B73-9FD7-7D39B76548F8}"/>
-    <hyperlink ref="E219" r:id="rId109" xr:uid="{ACE6DC43-9F33-4FB2-A2FD-00FED624C823}"/>
-    <hyperlink ref="E221" r:id="rId110" xr:uid="{E763B5EE-E263-44E0-A226-09B0A56576F2}"/>
-    <hyperlink ref="E222" r:id="rId111" xr:uid="{565AEB14-1F19-478B-876F-0AA877D27033}"/>
-    <hyperlink ref="E223" r:id="rId112" xr:uid="{2BADA365-742E-4AD1-B995-43869021841D}"/>
-    <hyperlink ref="E224" r:id="rId113" xr:uid="{9EB40FC5-018C-4159-BD5F-730B636D6745}"/>
-    <hyperlink ref="E225" r:id="rId114" xr:uid="{1FB4BD7B-6230-4535-8810-3490840640E6}"/>
-    <hyperlink ref="E226" r:id="rId115" xr:uid="{C01EB9DC-D91C-4C07-8726-0EAD7AA2B77F}"/>
-    <hyperlink ref="E227" r:id="rId116" xr:uid="{D13CA7CF-6E50-4B8D-8309-7A9F14C1A86E}"/>
-    <hyperlink ref="E228" r:id="rId117" xr:uid="{CB41DC05-F064-401E-893C-316DE1E40F2B}"/>
-    <hyperlink ref="E230" r:id="rId118" xr:uid="{144DD6F8-98C9-4EE1-B2A6-11C5E4FBAE67}"/>
-    <hyperlink ref="E231" r:id="rId119" xr:uid="{54956990-6A6E-4761-99AB-46DF32AE447F}"/>
-    <hyperlink ref="E232" r:id="rId120" xr:uid="{527BC068-330D-4352-927C-0EA644B38895}"/>
-    <hyperlink ref="E233" r:id="rId121" xr:uid="{398E4125-310B-4A8D-8F52-E0DCA1BE08D1}"/>
-    <hyperlink ref="E234" r:id="rId122" xr:uid="{1A499FAE-3035-4D01-AA13-5499B684B4F9}"/>
-    <hyperlink ref="E235" r:id="rId123" xr:uid="{CA280778-5C8B-4F76-8D76-B791F140BBE7}"/>
-    <hyperlink ref="E236" r:id="rId124" xr:uid="{341040F1-3B87-4F25-8AE2-080EB3EF314B}"/>
-    <hyperlink ref="E237" r:id="rId125" xr:uid="{CF540B81-AD77-459D-8132-B02BEDB98F1B}"/>
-    <hyperlink ref="E239" r:id="rId126" xr:uid="{0FD39196-B353-4546-9DBA-AD6D67DB4E47}"/>
-    <hyperlink ref="E240" r:id="rId127" xr:uid="{713ED13E-E73A-468D-B6B7-0E31941E1FFC}"/>
-    <hyperlink ref="E241" r:id="rId128" xr:uid="{6E27DEFF-6A1F-44DD-9AD8-CF0E868288AD}"/>
-    <hyperlink ref="E242" r:id="rId129" xr:uid="{BCC4F6D4-642E-4192-8499-BF59CDB47EBA}"/>
-    <hyperlink ref="E243" r:id="rId130" xr:uid="{CC8ADBF8-D4D4-48C6-9B61-F5318F4B06E6}"/>
-    <hyperlink ref="E244" r:id="rId131" xr:uid="{C8D9D1AD-41DA-4CF0-ACF1-88C1834FD125}"/>
-    <hyperlink ref="E245" r:id="rId132" xr:uid="{E7D62319-4140-45C3-9E90-8963C2A3090F}"/>
-    <hyperlink ref="E246" r:id="rId133" xr:uid="{D6A6D0ED-1383-44BA-A068-D7653539AAE4}"/>
-    <hyperlink ref="E248" r:id="rId134" xr:uid="{F0325C78-8C01-4C99-866E-4B745B83A3FF}"/>
-    <hyperlink ref="E249" r:id="rId135" xr:uid="{0BA2EB03-A645-49C2-BB67-6C4757565E82}"/>
-    <hyperlink ref="E250" r:id="rId136" xr:uid="{FDFA0613-F247-46D0-A88B-E6F6AE5E5A50}"/>
-    <hyperlink ref="E251" r:id="rId137" xr:uid="{057D666D-3772-4B27-B7ED-F4E0ABDE3AE4}"/>
-    <hyperlink ref="E252" r:id="rId138" xr:uid="{407BED3B-EF77-41A5-B8F7-E408E031242B}"/>
-    <hyperlink ref="E253" r:id="rId139" xr:uid="{73E3DE29-1EE5-4ECB-B5BC-37864B33F898}"/>
-    <hyperlink ref="E254" r:id="rId140" xr:uid="{24275325-8AE2-4899-8E48-D0717AC8CA7D}"/>
-    <hyperlink ref="E255" r:id="rId141" xr:uid="{6D928180-8AA1-4463-BBD2-97B261953C89}"/>
-    <hyperlink ref="E257" r:id="rId142" xr:uid="{678CFD0A-557C-4EE2-9ACE-9F5195ACA5A8}"/>
-    <hyperlink ref="E258" r:id="rId143" xr:uid="{D6AC0E13-2F87-48D1-A4D0-D9BAEB1E68E3}"/>
-    <hyperlink ref="E259" r:id="rId144" xr:uid="{5728F092-DAB2-476F-A11F-CC4CA7FE88BB}"/>
-    <hyperlink ref="E260" r:id="rId145" xr:uid="{451646C2-0BF4-4D56-9C47-57DAAEFDF034}"/>
+    <hyperlink ref="E178" r:id="rId52" xr:uid="{2DC37099-0C06-406F-8A78-C69FFEA5DBB9}"/>
+    <hyperlink ref="E154" r:id="rId53" xr:uid="{E5A8AD74-B362-4370-9CB6-127E4FDDA652}"/>
+    <hyperlink ref="E165" r:id="rId54" xr:uid="{344A5451-1D20-4D86-B2FD-DCCBF038B68E}"/>
+    <hyperlink ref="E166" r:id="rId55" xr:uid="{4684B8AB-4658-45A8-8378-1FF9C9D07A91}"/>
+    <hyperlink ref="E168" r:id="rId56" xr:uid="{0A8E772D-D766-41DF-A561-C4B167E6CD7F}"/>
+    <hyperlink ref="E167" r:id="rId57" xr:uid="{07A5DA01-AA25-4321-8DEB-90F00A3DB313}"/>
+    <hyperlink ref="E169" r:id="rId58" xr:uid="{7FC9C8E6-7312-4CCE-996E-BBE18A6BBA37}"/>
+    <hyperlink ref="E170" r:id="rId59" xr:uid="{A3B6B3F2-D1A2-4B4D-9DF1-BB8FBD2AC74E}"/>
+    <hyperlink ref="E172" r:id="rId60" xr:uid="{F41D57C4-0208-4802-9E33-EB7FAC5DC42F}"/>
+    <hyperlink ref="E171" r:id="rId61" xr:uid="{3BF37B87-3FCA-40E3-BAA1-26618A9AB59F}"/>
+    <hyperlink ref="E175" r:id="rId62" xr:uid="{0D273B19-2A25-4B47-BED7-1E9E42A3CC6A}"/>
+    <hyperlink ref="E174" r:id="rId63" xr:uid="{0A92071F-0FEE-40F1-AE4D-71CFAFA58AE6}"/>
+    <hyperlink ref="E177" r:id="rId64" xr:uid="{B0F7CFA9-14B3-4864-9997-B66A2327C2BE}"/>
+    <hyperlink ref="E173" r:id="rId65" xr:uid="{EF5AFCDF-E1C7-4660-8E58-CB6D5AA622CF}"/>
+    <hyperlink ref="E176" r:id="rId66" xr:uid="{1EAB560C-F888-4CFF-8D2A-3FE9E7C34344}"/>
+    <hyperlink ref="E59" r:id="rId67" xr:uid="{862616CF-DC50-4252-A2A5-6C2A8F0D492C}"/>
+    <hyperlink ref="E2" r:id="rId68" xr:uid="{25368976-30AE-4ECC-9DB6-21DA8763251B}"/>
+    <hyperlink ref="E179" r:id="rId69" xr:uid="{7CF036D5-67DF-41BA-98A1-AEDBC49EB72B}"/>
+    <hyperlink ref="E180" r:id="rId70" xr:uid="{412F2EA4-2FB8-4051-885B-2F397F55D297}"/>
+    <hyperlink ref="E181" r:id="rId71" xr:uid="{12E3E6DB-3A38-482A-982A-445A23E5AFD8}"/>
+    <hyperlink ref="E182" r:id="rId72" xr:uid="{C8599419-DA6E-41D3-906B-3435D7A96A74}"/>
+    <hyperlink ref="E183" r:id="rId73" xr:uid="{502D6EEA-4D5E-4839-8A56-DEA8D357B77D}"/>
+    <hyperlink ref="E184" r:id="rId74" xr:uid="{824213CB-2ACD-4390-B1D4-D1A2A2A3835A}"/>
+    <hyperlink ref="E185" r:id="rId75" xr:uid="{40DDCF2D-C69A-405D-A087-C990A148A15C}"/>
+    <hyperlink ref="E186" r:id="rId76" xr:uid="{6E3A694F-0939-492C-8AB5-CF313A97A946}"/>
+    <hyperlink ref="E187" r:id="rId77" xr:uid="{F4F2B958-D3F8-4899-988A-67C1AB5205BC}"/>
+    <hyperlink ref="E188" r:id="rId78" xr:uid="{80782243-3334-4C34-BDB8-026447ECC239}"/>
+    <hyperlink ref="E189" r:id="rId79" xr:uid="{A452E1CF-7D32-41A6-9665-66B81DE27499}"/>
+    <hyperlink ref="E190" r:id="rId80" xr:uid="{6CEDFEB8-CB83-4F0D-B2AD-21BBDD9B0F4B}"/>
+    <hyperlink ref="E191" r:id="rId81" xr:uid="{702633F9-C26A-4C65-A831-34A29E588A8F}"/>
+    <hyperlink ref="E193" r:id="rId82" xr:uid="{B33D162E-45C9-4281-9FFF-577408A6EDB2}"/>
+    <hyperlink ref="E194" r:id="rId83" xr:uid="{DE19B830-C7D4-4D2A-8AB1-A5668A6E03FB}"/>
+    <hyperlink ref="E195" r:id="rId84" xr:uid="{7C93EE81-C318-452E-BBC1-DCFE023FAD3F}"/>
+    <hyperlink ref="E196" r:id="rId85" xr:uid="{6300310A-48DC-488D-A1FD-23E873045355}"/>
+    <hyperlink ref="E197" r:id="rId86" xr:uid="{CA699900-3D2B-4884-875C-E9D2E47BEE3C}"/>
+    <hyperlink ref="E198" r:id="rId87" xr:uid="{376D7A2E-7E4C-4360-BF85-5168C3C685D7}"/>
+    <hyperlink ref="E199" r:id="rId88" xr:uid="{AB9D8F8B-3898-4372-B0E9-A053F1265878}"/>
+    <hyperlink ref="E200" r:id="rId89" xr:uid="{F2BCF522-1846-4815-87FA-CD83C387BD9A}"/>
+    <hyperlink ref="E202" r:id="rId90" xr:uid="{F1164EA5-2F2A-4E6A-B2A2-1492B5482B98}"/>
+    <hyperlink ref="E203" r:id="rId91" xr:uid="{F02FBCD4-428A-427F-9C98-F3900F8C8FB3}"/>
+    <hyperlink ref="E204" r:id="rId92" xr:uid="{D6F29053-91E6-4208-95DF-36B129B829A4}"/>
+    <hyperlink ref="E205" r:id="rId93" xr:uid="{B4C4E458-D6F2-46B9-988B-9B7CCFE7CA77}"/>
+    <hyperlink ref="E206" r:id="rId94" xr:uid="{E42CF963-CB15-45AB-93C7-58361B5A229D}"/>
+    <hyperlink ref="E207" r:id="rId95" xr:uid="{AF0C32B5-13EE-496B-BF0D-1FEF312C7323}"/>
+    <hyperlink ref="E208" r:id="rId96" xr:uid="{1EF9D6B8-F3B5-479B-8CEC-77186651BB99}"/>
+    <hyperlink ref="E209" r:id="rId97" xr:uid="{DDA72F8C-C135-42EF-B570-5B03127B420C}"/>
+    <hyperlink ref="E211" r:id="rId98" xr:uid="{4B320933-3CF5-47A0-8182-AF344587D7E5}"/>
+    <hyperlink ref="E212" r:id="rId99" xr:uid="{A093705E-2126-42D4-9472-BA86B757AB65}"/>
+    <hyperlink ref="E213" r:id="rId100" xr:uid="{AABBA42E-B426-405E-A049-A6941FE8C16D}"/>
+    <hyperlink ref="E214" r:id="rId101" xr:uid="{69D673EE-4F12-4F9A-A362-65786557DF51}"/>
+    <hyperlink ref="E215" r:id="rId102" xr:uid="{8AB9C893-8492-41AC-BA5D-7C59601A96DD}"/>
+    <hyperlink ref="E216" r:id="rId103" xr:uid="{4BEEA27D-FCEC-4510-9F9E-0BFCEB23E308}"/>
+    <hyperlink ref="E217" r:id="rId104" xr:uid="{4CCEA639-4833-4B73-9FD7-7D39B76548F8}"/>
+    <hyperlink ref="E218" r:id="rId105" xr:uid="{ACE6DC43-9F33-4FB2-A2FD-00FED624C823}"/>
+    <hyperlink ref="E220" r:id="rId106" xr:uid="{E763B5EE-E263-44E0-A226-09B0A56576F2}"/>
+    <hyperlink ref="E221" r:id="rId107" xr:uid="{565AEB14-1F19-478B-876F-0AA877D27033}"/>
+    <hyperlink ref="E222" r:id="rId108" xr:uid="{2BADA365-742E-4AD1-B995-43869021841D}"/>
+    <hyperlink ref="E223" r:id="rId109" xr:uid="{9EB40FC5-018C-4159-BD5F-730B636D6745}"/>
+    <hyperlink ref="E224" r:id="rId110" xr:uid="{1FB4BD7B-6230-4535-8810-3490840640E6}"/>
+    <hyperlink ref="E225" r:id="rId111" xr:uid="{C01EB9DC-D91C-4C07-8726-0EAD7AA2B77F}"/>
+    <hyperlink ref="E226" r:id="rId112" xr:uid="{D13CA7CF-6E50-4B8D-8309-7A9F14C1A86E}"/>
+    <hyperlink ref="E227" r:id="rId113" xr:uid="{CB41DC05-F064-401E-893C-316DE1E40F2B}"/>
+    <hyperlink ref="E229" r:id="rId114" xr:uid="{144DD6F8-98C9-4EE1-B2A6-11C5E4FBAE67}"/>
+    <hyperlink ref="E230" r:id="rId115" xr:uid="{54956990-6A6E-4761-99AB-46DF32AE447F}"/>
+    <hyperlink ref="E231" r:id="rId116" xr:uid="{527BC068-330D-4352-927C-0EA644B38895}"/>
+    <hyperlink ref="E232" r:id="rId117" xr:uid="{398E4125-310B-4A8D-8F52-E0DCA1BE08D1}"/>
+    <hyperlink ref="E233" r:id="rId118" xr:uid="{1A499FAE-3035-4D01-AA13-5499B684B4F9}"/>
+    <hyperlink ref="E234" r:id="rId119" xr:uid="{CA280778-5C8B-4F76-8D76-B791F140BBE7}"/>
+    <hyperlink ref="E235" r:id="rId120" xr:uid="{341040F1-3B87-4F25-8AE2-080EB3EF314B}"/>
+    <hyperlink ref="E236" r:id="rId121" xr:uid="{CF540B81-AD77-459D-8132-B02BEDB98F1B}"/>
+    <hyperlink ref="E238" r:id="rId122" xr:uid="{0FD39196-B353-4546-9DBA-AD6D67DB4E47}"/>
+    <hyperlink ref="E239" r:id="rId123" xr:uid="{713ED13E-E73A-468D-B6B7-0E31941E1FFC}"/>
+    <hyperlink ref="E240" r:id="rId124" xr:uid="{6E27DEFF-6A1F-44DD-9AD8-CF0E868288AD}"/>
+    <hyperlink ref="E241" r:id="rId125" xr:uid="{BCC4F6D4-642E-4192-8499-BF59CDB47EBA}"/>
+    <hyperlink ref="E242" r:id="rId126" xr:uid="{CC8ADBF8-D4D4-48C6-9B61-F5318F4B06E6}"/>
+    <hyperlink ref="E243" r:id="rId127" xr:uid="{C8D9D1AD-41DA-4CF0-ACF1-88C1834FD125}"/>
+    <hyperlink ref="E244" r:id="rId128" xr:uid="{E7D62319-4140-45C3-9E90-8963C2A3090F}"/>
+    <hyperlink ref="E245" r:id="rId129" xr:uid="{D6A6D0ED-1383-44BA-A068-D7653539AAE4}"/>
+    <hyperlink ref="E247" r:id="rId130" xr:uid="{F0325C78-8C01-4C99-866E-4B745B83A3FF}"/>
+    <hyperlink ref="E248" r:id="rId131" xr:uid="{0BA2EB03-A645-49C2-BB67-6C4757565E82}"/>
+    <hyperlink ref="E249" r:id="rId132" xr:uid="{FDFA0613-F247-46D0-A88B-E6F6AE5E5A50}"/>
+    <hyperlink ref="E250" r:id="rId133" xr:uid="{057D666D-3772-4B27-B7ED-F4E0ABDE3AE4}"/>
+    <hyperlink ref="E251" r:id="rId134" xr:uid="{407BED3B-EF77-41A5-B8F7-E408E031242B}"/>
+    <hyperlink ref="E252" r:id="rId135" xr:uid="{73E3DE29-1EE5-4ECB-B5BC-37864B33F898}"/>
+    <hyperlink ref="E253" r:id="rId136" xr:uid="{24275325-8AE2-4899-8E48-D0717AC8CA7D}"/>
+    <hyperlink ref="E254" r:id="rId137" xr:uid="{6D928180-8AA1-4463-BBD2-97B261953C89}"/>
+    <hyperlink ref="E256" r:id="rId138" xr:uid="{678CFD0A-557C-4EE2-9ACE-9F5195ACA5A8}"/>
+    <hyperlink ref="E257" r:id="rId139" xr:uid="{D6AC0E13-2F87-48D1-A4D0-D9BAEB1E68E3}"/>
+    <hyperlink ref="E258" r:id="rId140" xr:uid="{5728F092-DAB2-476F-A11F-CC4CA7FE88BB}"/>
+    <hyperlink ref="E259" r:id="rId141" xr:uid="{451646C2-0BF4-4D56-9C47-57DAAEFDF034}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Gallery.xlsx
+++ b/Gallery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelaziz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B67F4CD-4997-4624-A51C-5A6534A5C070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CBB6F4-8712-4FB1-9332-70581245081E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1413,6 +1413,9 @@
     <t>Tortoise shell boxes</t>
   </si>
   <si>
+    <t>لوحة فنية مغربي سوق بسكاليت</t>
+  </si>
+  <si>
     <t>French pure brass candlestick</t>
   </si>
   <si>
@@ -1486,9 +1489,6 @@
   </si>
   <si>
     <t xml:space="preserve">لوحة اية الكرسي مصقبة </t>
-  </si>
-  <si>
-    <t>لوحة فنية كغربي سوق بسكاليت</t>
   </si>
   <si>
     <t>Green opaline vases white base</t>
@@ -2399,9 +2399,9 @@
   <dimension ref="A1:G264"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E165" sqref="E165"/>
+      <selection pane="bottomLeft" activeCell="H150" sqref="H150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2528,7 +2528,7 @@
         <v>193</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2735,7 +2735,7 @@
         <v>207</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2758,7 +2758,7 @@
         <v>207</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3333,7 +3333,7 @@
         <v>193</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3747,7 +3747,7 @@
         <v>198</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -4598,7 +4598,7 @@
         <v>199</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -6024,7 +6024,7 @@
         <v>199</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -6495,7 +6495,7 @@
         <v>413</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D178" s="18">
         <v>300</v>
@@ -6518,13 +6518,13 @@
         <v>424</v>
       </c>
       <c r="C179" s="13" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D179" s="18">
         <v>1200</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F179" s="15" t="s">
         <v>217</v>
@@ -6541,13 +6541,13 @@
         <v>437</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D180" s="20">
         <v>500</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F180" t="s">
         <v>230</v>
@@ -6570,7 +6570,7 @@
         <v>2300</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F181" t="s">
         <v>199</v>
@@ -6593,7 +6593,7 @@
         <v>1400</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F182" t="s">
         <v>198</v>
@@ -6616,7 +6616,7 @@
         <v>1575</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F183" t="s">
         <v>231</v>
@@ -6639,7 +6639,7 @@
         <v>1485</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F184" t="s">
         <v>231</v>
@@ -6662,7 +6662,7 @@
         <v>1260</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F185" t="s">
         <v>231</v>
@@ -6685,7 +6685,7 @@
         <v>1215</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F186" t="s">
         <v>231</v>
@@ -6708,7 +6708,7 @@
         <v>1440</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F187" t="s">
         <v>231</v>
@@ -6731,7 +6731,7 @@
         <v>1395</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F188" t="s">
         <v>231</v>
@@ -6754,7 +6754,7 @@
         <v>810</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F189" t="s">
         <v>231</v>
@@ -6777,7 +6777,7 @@
         <v>1575</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F190" t="s">
         <v>231</v>
@@ -6800,7 +6800,7 @@
         <v>1170</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F191" t="s">
         <v>231</v>
@@ -6823,7 +6823,7 @@
         <v>810</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F192" t="s">
         <v>231</v>
@@ -6846,7 +6846,7 @@
         <v>855</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F193" s="3" t="s">
         <v>231</v>
@@ -6863,13 +6863,13 @@
         <v>438</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D194" s="21">
         <v>1260</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F194" s="3" t="s">
         <v>231</v>
@@ -6886,13 +6886,13 @@
         <v>438</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D195" s="21">
         <v>1330</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F195" s="3" t="s">
         <v>231</v>
@@ -6909,13 +6909,13 @@
         <v>438</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D196" s="21">
         <v>665</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F196" s="3" t="s">
         <v>231</v>
@@ -6932,13 +6932,13 @@
         <v>438</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D197" s="21">
         <v>1085</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F197" s="3" t="s">
         <v>231</v>
@@ -6955,13 +6955,13 @@
         <v>438</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D198" s="21">
         <v>875</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F198" s="3" t="s">
         <v>231</v>
@@ -6978,13 +6978,13 @@
         <v>438</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D199" s="21">
         <v>1645</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F199" s="3" t="s">
         <v>231</v>
@@ -7001,13 +7001,13 @@
         <v>438</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D200" s="21">
         <v>980</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F200" s="3" t="s">
         <v>231</v>
@@ -7024,13 +7024,13 @@
         <v>438</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D201" s="21">
         <v>1015</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F201" s="3" t="s">
         <v>231</v>
@@ -7047,13 +7047,13 @@
         <v>438</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D202" s="21">
         <v>595</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F202" s="3" t="s">
         <v>231</v>
@@ -7070,13 +7070,13 @@
         <v>438</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D203" s="21">
         <v>910</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F203" s="3" t="s">
         <v>231</v>
@@ -7093,13 +7093,13 @@
         <v>438</v>
       </c>
       <c r="C204" s="13" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D204" s="22">
         <v>595</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F204" s="13" t="s">
         <v>231</v>
@@ -7122,7 +7122,7 @@
         <v>768</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F205" s="3" t="s">
         <v>231</v>
@@ -7145,7 +7145,7 @@
         <v>1120</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F206" s="3" t="s">
         <v>231</v>
@@ -7168,7 +7168,7 @@
         <v>1856</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F207" s="3" t="s">
         <v>231</v>
@@ -7191,7 +7191,7 @@
         <v>864</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F208" s="3" t="s">
         <v>231</v>
@@ -7214,7 +7214,7 @@
         <v>1280</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F209" s="3" t="s">
         <v>231</v>
@@ -7237,7 +7237,7 @@
         <v>896</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F210" s="3" t="s">
         <v>231</v>
@@ -7260,7 +7260,7 @@
         <v>2112</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F211" s="3" t="s">
         <v>231</v>
@@ -7283,7 +7283,7 @@
         <v>1888</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F212" s="3" t="s">
         <v>231</v>
@@ -7306,7 +7306,7 @@
         <v>800</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F213" s="3" t="s">
         <v>231</v>
@@ -7329,7 +7329,7 @@
         <v>1088</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F214" s="3" t="s">
         <v>231</v>
@@ -7352,7 +7352,7 @@
         <v>800</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F215" s="3" t="s">
         <v>231</v>
@@ -7375,7 +7375,7 @@
         <v>800</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F216" s="13" t="s">
         <v>231</v>
@@ -7398,7 +7398,7 @@
         <v>950</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F217" s="3" t="s">
         <v>231</v>
@@ -7421,7 +7421,7 @@
         <v>576</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F218" s="3" t="s">
         <v>231</v>
@@ -7444,7 +7444,7 @@
         <v>925</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F219" s="3" t="s">
         <v>231</v>
@@ -7467,7 +7467,7 @@
         <v>725</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F220" s="3" t="s">
         <v>231</v>
@@ -7490,7 +7490,7 @@
         <v>750</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F221" s="3" t="s">
         <v>231</v>
@@ -7513,7 +7513,7 @@
         <v>1100</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F222" s="3" t="s">
         <v>231</v>
@@ -7536,7 +7536,7 @@
         <v>1225</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F223" s="13" t="s">
         <v>231</v>
@@ -7556,7 +7556,7 @@
         <v>495</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F224" s="3" t="s">
         <v>231</v>
@@ -7576,7 +7576,7 @@
         <v>950</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F225" s="3" t="s">
         <v>231</v>
@@ -7593,13 +7593,13 @@
         <v>438</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D226" s="21">
         <v>2345</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F226" s="3" t="s">
         <v>231</v>
@@ -7616,13 +7616,13 @@
         <v>438</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D227" s="21">
         <v>2380</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F227" s="3" t="s">
         <v>231</v>
@@ -7639,13 +7639,13 @@
         <v>438</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D228" s="21">
         <v>3570</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F228" s="3" t="s">
         <v>231</v>
@@ -7662,13 +7662,13 @@
         <v>438</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D229" s="21">
         <v>1645</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F229" s="3" t="s">
         <v>231</v>
@@ -7685,13 +7685,13 @@
         <v>438</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D230" s="21">
         <v>1610</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F230" s="3" t="s">
         <v>231</v>
@@ -7708,13 +7708,13 @@
         <v>438</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D231" s="21">
         <v>1120</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F231" s="3" t="s">
         <v>231</v>
@@ -7731,13 +7731,13 @@
         <v>438</v>
       </c>
       <c r="C232" s="13" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D232" s="22">
         <v>945</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F232" s="13" t="s">
         <v>231</v>
@@ -7760,7 +7760,7 @@
         <v>1990</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F233" s="3" t="s">
         <v>231</v>
@@ -7783,7 +7783,7 @@
         <v>770</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F234" s="3" t="s">
         <v>231</v>
@@ -7806,7 +7806,7 @@
         <v>1190</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F235" s="3" t="s">
         <v>231</v>
@@ -7829,7 +7829,7 @@
         <v>940</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F236" s="3" t="s">
         <v>231</v>
@@ -7852,7 +7852,7 @@
         <v>1040</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F237" s="3" t="s">
         <v>231</v>
@@ -7875,7 +7875,7 @@
         <v>880</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F238" s="3" t="s">
         <v>231</v>
@@ -7898,7 +7898,7 @@
         <v>540</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F239" s="3" t="s">
         <v>231</v>
@@ -7921,7 +7921,7 @@
         <v>800</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F240" s="3" t="s">
         <v>231</v>
@@ -7944,7 +7944,7 @@
         <v>1670</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F241" s="3" t="s">
         <v>231</v>
@@ -7967,7 +7967,7 @@
         <v>2550</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F242" s="13" t="s">
         <v>231</v>
@@ -7990,7 +7990,7 @@
         <v>2400</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F243" s="3" t="s">
         <v>231</v>
@@ -8007,13 +8007,13 @@
         <v>438</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D244" s="21">
         <v>1410</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F244" s="3" t="s">
         <v>231</v>
@@ -8030,13 +8030,13 @@
         <v>438</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D245" s="21">
         <v>480</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F245" s="3" t="s">
         <v>231</v>
@@ -8059,7 +8059,7 @@
         <v>5625</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F246" s="3" t="s">
         <v>231</v>
@@ -8082,7 +8082,7 @@
         <v>540</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F247" s="3" t="s">
         <v>231</v>
@@ -8105,7 +8105,7 @@
         <v>750</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F248" s="3" t="s">
         <v>231</v>
@@ -8128,7 +8128,7 @@
         <v>1200</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F249" s="3" t="s">
         <v>231</v>
@@ -8151,7 +8151,7 @@
         <v>1000</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F250" s="3" t="s">
         <v>231</v>
@@ -8174,7 +8174,7 @@
         <v>1800</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F251" s="3" t="s">
         <v>231</v>
@@ -8197,7 +8197,7 @@
         <v>1500</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F252" s="3" t="s">
         <v>231</v>
@@ -8220,7 +8220,7 @@
         <v>700</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F253" s="3" t="s">
         <v>231</v>
@@ -8243,7 +8243,7 @@
         <v>940</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F254" s="3" t="s">
         <v>231</v>
@@ -8266,7 +8266,7 @@
         <v>1300</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F255" s="3" t="s">
         <v>231</v>
@@ -8289,7 +8289,7 @@
         <v>2000</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F256" s="3" t="s">
         <v>231</v>
@@ -8312,7 +8312,7 @@
         <v>1400</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F257" s="3" t="s">
         <v>231</v>
@@ -8335,7 +8335,7 @@
         <v>2560</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F258" s="3" t="s">
         <v>231</v>
@@ -8358,7 +8358,7 @@
         <v>116</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F259" s="3" t="s">
         <v>231</v>

--- a/Gallery.xlsx
+++ b/Gallery.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelaziz\Downloads\06102024-items need to check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D4C943-2070-4C2C-8AC9-5B1FABD10ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC913B17-34AF-4155-B73E-7C3211E505CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="1632" windowWidth="13800" windowHeight="6384" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$260</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$262</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -3115,34 +3115,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3165,77 +3165,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3572,12 +3502,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98041684-60AD-4B6B-B652-1A806A9CDDBF}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G263"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F267" sqref="F267"/>
+      <selection pane="bottomLeft" activeCell="D263" sqref="D263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3615,7 +3546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="41.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>739</v>
       </c>
@@ -3638,7 +3569,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="55.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>740</v>
       </c>
@@ -3661,7 +3592,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="55.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>741</v>
       </c>
@@ -3684,7 +3615,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="55.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>742</v>
       </c>
@@ -3707,7 +3638,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="55.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>743</v>
       </c>
@@ -3730,7 +3661,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="41.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>744</v>
       </c>
@@ -3753,7 +3684,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="41.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>745</v>
       </c>
@@ -3776,7 +3707,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="41.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>746</v>
       </c>
@@ -3787,7 +3718,7 @@
         <v>385</v>
       </c>
       <c r="D9" s="2">
-        <v>900.00000000000011</v>
+        <v>900</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
@@ -3799,7 +3730,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="55.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>747</v>
       </c>
@@ -3810,7 +3741,7 @@
         <v>386</v>
       </c>
       <c r="D10" s="2">
-        <v>2500.0000000000005</v>
+        <v>2500</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>15</v>
@@ -3822,7 +3753,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="41.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>748</v>
       </c>
@@ -3845,7 +3776,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="41.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>749</v>
       </c>
@@ -3856,7 +3787,7 @@
         <v>476</v>
       </c>
       <c r="D12" s="2">
-        <v>1750.0000000000002</v>
+        <v>1750</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>17</v>
@@ -3868,7 +3799,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="41.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>750</v>
       </c>
@@ -3879,7 +3810,7 @@
         <v>477</v>
       </c>
       <c r="D13" s="2">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>18</v>
@@ -3891,7 +3822,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>751</v>
       </c>
@@ -3914,7 +3845,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>752</v>
       </c>
@@ -3937,7 +3868,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>753</v>
       </c>
@@ -3960,7 +3891,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>754</v>
       </c>
@@ -3971,7 +3902,7 @@
         <v>481</v>
       </c>
       <c r="D17" s="2">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>216</v>
@@ -3983,7 +3914,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>755</v>
       </c>
@@ -4006,7 +3937,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>756</v>
       </c>
@@ -4029,7 +3960,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>757</v>
       </c>
@@ -4052,7 +3983,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>758</v>
       </c>
@@ -4063,7 +3994,7 @@
         <v>489</v>
       </c>
       <c r="D21" s="2">
-        <v>1750.0000000000002</v>
+        <v>1750</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>220</v>
@@ -4075,7 +4006,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>759</v>
       </c>
@@ -4098,7 +4029,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>760</v>
       </c>
@@ -4121,7 +4052,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>761</v>
       </c>
@@ -4132,7 +4063,7 @@
         <v>490</v>
       </c>
       <c r="D24" s="2">
-        <v>2500.0000000000005</v>
+        <v>2500</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>223</v>
@@ -4144,7 +4075,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>762</v>
       </c>
@@ -4167,7 +4098,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>763</v>
       </c>
@@ -4190,7 +4121,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>764</v>
       </c>
@@ -4201,7 +4132,7 @@
         <v>470</v>
       </c>
       <c r="D27" s="2">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>226</v>
@@ -4213,7 +4144,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>765</v>
       </c>
@@ -4224,7 +4155,7 @@
         <v>492</v>
       </c>
       <c r="D28" s="2">
-        <v>2500.0000000000005</v>
+        <v>2500</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>227</v>
@@ -4236,7 +4167,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>766</v>
       </c>
@@ -4259,7 +4190,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>767</v>
       </c>
@@ -4270,7 +4201,7 @@
         <v>494</v>
       </c>
       <c r="D30" s="2">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>229</v>
@@ -4282,7 +4213,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>768</v>
       </c>
@@ -4305,7 +4236,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>769</v>
       </c>
@@ -4316,7 +4247,7 @@
         <v>496</v>
       </c>
       <c r="D32" s="2">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>231</v>
@@ -4328,7 +4259,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>770</v>
       </c>
@@ -4351,7 +4282,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>771</v>
       </c>
@@ -4374,7 +4305,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>772</v>
       </c>
@@ -4397,7 +4328,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>773</v>
       </c>
@@ -4408,7 +4339,7 @@
         <v>421</v>
       </c>
       <c r="D36" s="2">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>235</v>
@@ -4420,7 +4351,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>774</v>
       </c>
@@ -4431,7 +4362,7 @@
         <v>422</v>
       </c>
       <c r="D37" s="2">
-        <v>900.00000000000011</v>
+        <v>900</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>236</v>
@@ -4443,7 +4374,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>775</v>
       </c>
@@ -4466,7 +4397,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>776</v>
       </c>
@@ -4489,7 +4420,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>777</v>
       </c>
@@ -4512,7 +4443,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>778</v>
       </c>
@@ -4523,7 +4454,7 @@
         <v>501</v>
       </c>
       <c r="D41" s="2">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>239</v>
@@ -4535,7 +4466,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>779</v>
       </c>
@@ -4546,7 +4477,7 @@
         <v>424</v>
       </c>
       <c r="D42" s="2">
-        <v>2500.0000000000005</v>
+        <v>2500</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>240</v>
@@ -4558,7 +4489,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>780</v>
       </c>
@@ -4581,7 +4512,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>781</v>
       </c>
@@ -4592,7 +4523,7 @@
         <v>502</v>
       </c>
       <c r="D44" s="2">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>242</v>
@@ -4604,7 +4535,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>782</v>
       </c>
@@ -4627,7 +4558,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>783</v>
       </c>
@@ -4650,7 +4581,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>784</v>
       </c>
@@ -4673,7 +4604,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>785</v>
       </c>
@@ -4684,7 +4615,7 @@
         <v>427</v>
       </c>
       <c r="D48" s="2">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>246</v>
@@ -4696,7 +4627,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>786</v>
       </c>
@@ -4719,7 +4650,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>787</v>
       </c>
@@ -4742,7 +4673,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>788</v>
       </c>
@@ -4765,7 +4696,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>789</v>
       </c>
@@ -4788,7 +4719,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>790</v>
       </c>
@@ -4811,7 +4742,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>791</v>
       </c>
@@ -4834,7 +4765,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>792</v>
       </c>
@@ -4845,7 +4776,7 @@
         <v>513</v>
       </c>
       <c r="D55" s="2">
-        <v>600.00000000000011</v>
+        <v>600</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>254</v>
@@ -4857,7 +4788,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>793</v>
       </c>
@@ -4868,7 +4799,7 @@
         <v>514</v>
       </c>
       <c r="D56" s="2">
-        <v>950.00000000000011</v>
+        <v>950</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>252</v>
@@ -4880,7 +4811,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>794</v>
       </c>
@@ -4903,7 +4834,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>795</v>
       </c>
@@ -4926,7 +4857,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>796</v>
       </c>
@@ -4949,7 +4880,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>797</v>
       </c>
@@ -4972,7 +4903,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>798</v>
       </c>
@@ -4983,7 +4914,7 @@
         <v>521</v>
       </c>
       <c r="D61" s="2">
-        <v>900.00000000000011</v>
+        <v>900</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>259</v>
@@ -4995,7 +4926,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>799</v>
       </c>
@@ -5006,7 +4937,7 @@
         <v>522</v>
       </c>
       <c r="D62" s="2">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>260</v>
@@ -5018,7 +4949,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>800</v>
       </c>
@@ -5029,7 +4960,7 @@
         <v>523</v>
       </c>
       <c r="D63" s="2">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>261</v>
@@ -5041,7 +4972,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>801</v>
       </c>
@@ -5052,7 +4983,7 @@
         <v>524</v>
       </c>
       <c r="D64" s="2">
-        <v>600.00000000000011</v>
+        <v>600</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>262</v>
@@ -5064,7 +4995,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>802</v>
       </c>
@@ -5087,7 +5018,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>803</v>
       </c>
@@ -5098,7 +5029,7 @@
         <v>526</v>
       </c>
       <c r="D66" s="2">
-        <v>850.00000000000011</v>
+        <v>850</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>264</v>
@@ -5110,7 +5041,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>804</v>
       </c>
@@ -5121,7 +5052,7 @@
         <v>527</v>
       </c>
       <c r="D67" s="2">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>265</v>
@@ -5133,7 +5064,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>805</v>
       </c>
@@ -5144,7 +5075,7 @@
         <v>528</v>
       </c>
       <c r="D68" s="2">
-        <v>900.00000000000011</v>
+        <v>900</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>630</v>
@@ -5156,7 +5087,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>806</v>
       </c>
@@ -5167,7 +5098,7 @@
         <v>529</v>
       </c>
       <c r="D69" s="2">
-        <v>300.00000000000006</v>
+        <v>300</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>266</v>
@@ -5179,7 +5110,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>807</v>
       </c>
@@ -5190,7 +5121,7 @@
         <v>530</v>
       </c>
       <c r="D70" s="2">
-        <v>1800.0000000000002</v>
+        <v>1800</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>267</v>
@@ -5202,7 +5133,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>808</v>
       </c>
@@ -5213,7 +5144,7 @@
         <v>531</v>
       </c>
       <c r="D71" s="2">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>268</v>
@@ -5225,7 +5156,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>809</v>
       </c>
@@ -5248,7 +5179,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>810</v>
       </c>
@@ -5271,7 +5202,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>811</v>
       </c>
@@ -5282,7 +5213,7 @@
         <v>534</v>
       </c>
       <c r="D74" s="2">
-        <v>12500.000000000002</v>
+        <v>12500</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>271</v>
@@ -5294,7 +5225,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>812</v>
       </c>
@@ -5317,7 +5248,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>813</v>
       </c>
@@ -5340,7 +5271,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>814</v>
       </c>
@@ -5363,7 +5294,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>815</v>
       </c>
@@ -5386,7 +5317,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>816</v>
       </c>
@@ -5397,7 +5328,7 @@
         <v>537</v>
       </c>
       <c r="D79" s="2">
-        <v>2500.0000000000005</v>
+        <v>2500</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>276</v>
@@ -5409,7 +5340,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>817</v>
       </c>
@@ -5432,7 +5363,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>818</v>
       </c>
@@ -5455,7 +5386,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>819</v>
       </c>
@@ -5478,7 +5409,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>820</v>
       </c>
@@ -5501,7 +5432,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>821</v>
       </c>
@@ -5512,7 +5443,7 @@
         <v>431</v>
       </c>
       <c r="D84" s="2">
-        <v>600.00000000000011</v>
+        <v>600</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>281</v>
@@ -5524,7 +5455,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>822</v>
       </c>
@@ -5535,7 +5466,7 @@
         <v>541</v>
       </c>
       <c r="D85" s="2">
-        <v>600.00000000000011</v>
+        <v>600</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>282</v>
@@ -5547,7 +5478,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>823</v>
       </c>
@@ -5558,7 +5489,7 @@
         <v>542</v>
       </c>
       <c r="D86" s="2">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>283</v>
@@ -5570,7 +5501,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>824</v>
       </c>
@@ -5581,7 +5512,7 @@
         <v>543</v>
       </c>
       <c r="D87" s="2">
-        <v>1700.0000000000002</v>
+        <v>1700</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>285</v>
@@ -5593,7 +5524,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>825</v>
       </c>
@@ -5604,7 +5535,7 @@
         <v>432</v>
       </c>
       <c r="D88" s="2">
-        <v>300.00000000000006</v>
+        <v>300</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>284</v>
@@ -5616,7 +5547,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>826</v>
       </c>
@@ -5639,7 +5570,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>827</v>
       </c>
@@ -5662,7 +5593,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>828</v>
       </c>
@@ -5685,7 +5616,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>829</v>
       </c>
@@ -5708,7 +5639,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>830</v>
       </c>
@@ -5719,7 +5650,7 @@
         <v>548</v>
       </c>
       <c r="D93" s="2">
-        <v>3500.0000000000005</v>
+        <v>3500</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>290</v>
@@ -5731,7 +5662,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>831</v>
       </c>
@@ -5742,7 +5673,7 @@
         <v>549</v>
       </c>
       <c r="D94" s="2">
-        <v>20000.000000000004</v>
+        <v>20000</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>291</v>
@@ -5754,7 +5685,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>832</v>
       </c>
@@ -5777,7 +5708,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>833</v>
       </c>
@@ -5788,7 +5719,7 @@
         <v>551</v>
       </c>
       <c r="D96" s="2">
-        <v>2500.0000000000005</v>
+        <v>2500</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>293</v>
@@ -5800,7 +5731,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>834</v>
       </c>
@@ -5823,7 +5754,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>835</v>
       </c>
@@ -5846,7 +5777,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>836</v>
       </c>
@@ -5869,7 +5800,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>837</v>
       </c>
@@ -5892,7 +5823,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>838</v>
       </c>
@@ -5903,7 +5834,7 @@
         <v>555</v>
       </c>
       <c r="D101" s="2">
-        <v>3500.0000000000005</v>
+        <v>3500</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>298</v>
@@ -5915,7 +5846,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>839</v>
       </c>
@@ -5938,7 +5869,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>840</v>
       </c>
@@ -5949,7 +5880,7 @@
         <v>557</v>
       </c>
       <c r="D103" s="2">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>300</v>
@@ -5961,7 +5892,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>841</v>
       </c>
@@ -5972,7 +5903,7 @@
         <v>436</v>
       </c>
       <c r="D104" s="2">
-        <v>300.00000000000006</v>
+        <v>300</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>301</v>
@@ -5984,7 +5915,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>842</v>
       </c>
@@ -5995,7 +5926,7 @@
         <v>437</v>
       </c>
       <c r="D105" s="2">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>302</v>
@@ -6007,7 +5938,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>843</v>
       </c>
@@ -6018,7 +5949,7 @@
         <v>558</v>
       </c>
       <c r="D106" s="2">
-        <v>850.00000000000011</v>
+        <v>850</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>303</v>
@@ -6030,7 +5961,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>844</v>
       </c>
@@ -6053,7 +5984,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>845</v>
       </c>
@@ -6064,7 +5995,7 @@
         <v>438</v>
       </c>
       <c r="D108" s="2">
-        <v>2500.0000000000005</v>
+        <v>2500</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>305</v>
@@ -6076,7 +6007,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>846</v>
       </c>
@@ -6099,7 +6030,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>847</v>
       </c>
@@ -6122,7 +6053,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>848</v>
       </c>
@@ -6145,7 +6076,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>849</v>
       </c>
@@ -6168,7 +6099,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>850</v>
       </c>
@@ -6191,7 +6122,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>851</v>
       </c>
@@ -6214,7 +6145,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>852</v>
       </c>
@@ -6237,7 +6168,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>853</v>
       </c>
@@ -6260,7 +6191,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>854</v>
       </c>
@@ -6283,7 +6214,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>855</v>
       </c>
@@ -6294,7 +6225,7 @@
         <v>567</v>
       </c>
       <c r="D118" s="2">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>315</v>
@@ -6306,7 +6237,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>856</v>
       </c>
@@ -6329,7 +6260,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>857</v>
       </c>
@@ -6352,7 +6283,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>858</v>
       </c>
@@ -6363,7 +6294,7 @@
         <v>570</v>
       </c>
       <c r="D121" s="2">
-        <v>2500.0000000000005</v>
+        <v>2500</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>318</v>
@@ -6375,7 +6306,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>859</v>
       </c>
@@ -6398,7 +6329,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>860</v>
       </c>
@@ -6421,7 +6352,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>861</v>
       </c>
@@ -6444,7 +6375,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>862</v>
       </c>
@@ -6467,7 +6398,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>863</v>
       </c>
@@ -6478,7 +6409,7 @@
         <v>575</v>
       </c>
       <c r="D126" s="2">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>323</v>
@@ -6490,7 +6421,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>864</v>
       </c>
@@ -6501,7 +6432,7 @@
         <v>576</v>
       </c>
       <c r="D127" s="2">
-        <v>5000.0000000000009</v>
+        <v>5000</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>324</v>
@@ -6513,7 +6444,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>865</v>
       </c>
@@ -6536,7 +6467,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>866</v>
       </c>
@@ -6559,7 +6490,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>867</v>
       </c>
@@ -6582,7 +6513,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>868</v>
       </c>
@@ -6593,7 +6524,7 @@
         <v>579</v>
       </c>
       <c r="D131" s="2">
-        <v>300.00000000000006</v>
+        <v>300</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>328</v>
@@ -6605,7 +6536,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>869</v>
       </c>
@@ -6628,7 +6559,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>870</v>
       </c>
@@ -6651,7 +6582,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>871</v>
       </c>
@@ -6674,7 +6605,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>872</v>
       </c>
@@ -6697,7 +6628,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>873</v>
       </c>
@@ -6720,7 +6651,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>874</v>
       </c>
@@ -6743,7 +6674,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>875</v>
       </c>
@@ -6766,7 +6697,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>876</v>
       </c>
@@ -6777,7 +6708,7 @@
         <v>582</v>
       </c>
       <c r="D139" s="2">
-        <v>900.00000000000011</v>
+        <v>900</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>336</v>
@@ -6789,7 +6720,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>877</v>
       </c>
@@ -6812,7 +6743,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>878</v>
       </c>
@@ -6835,7 +6766,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>879</v>
       </c>
@@ -6858,7 +6789,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>880</v>
       </c>
@@ -6881,7 +6812,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>881</v>
       </c>
@@ -6904,7 +6835,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>882</v>
       </c>
@@ -6927,7 +6858,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>883</v>
       </c>
@@ -6950,7 +6881,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>884</v>
       </c>
@@ -6973,7 +6904,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>885</v>
       </c>
@@ -6996,7 +6927,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>886</v>
       </c>
@@ -7019,7 +6950,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>887</v>
       </c>
@@ -7042,7 +6973,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>888</v>
       </c>
@@ -7065,7 +6996,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>889</v>
       </c>
@@ -7088,7 +7019,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>890</v>
       </c>
@@ -7111,7 +7042,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>891</v>
       </c>
@@ -7122,7 +7053,7 @@
         <v>594</v>
       </c>
       <c r="D154" s="2">
-        <v>2500.0000000000005</v>
+        <v>2500</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>351</v>
@@ -7134,7 +7065,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>892</v>
       </c>
@@ -7145,7 +7076,7 @@
         <v>595</v>
       </c>
       <c r="D155" s="2">
-        <v>600.00000000000011</v>
+        <v>600</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>356</v>
@@ -7157,7 +7088,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>893</v>
       </c>
@@ -7180,7 +7111,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>894</v>
       </c>
@@ -7203,7 +7134,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>895</v>
       </c>
@@ -7226,7 +7157,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>896</v>
       </c>
@@ -7237,7 +7168,7 @@
         <v>599</v>
       </c>
       <c r="D159" s="2">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>355</v>
@@ -7249,7 +7180,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>897</v>
       </c>
@@ -7260,7 +7191,7 @@
         <v>600</v>
       </c>
       <c r="D160" s="2">
-        <v>600.00000000000011</v>
+        <v>600</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>352</v>
@@ -7272,7 +7203,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>898</v>
       </c>
@@ -7295,7 +7226,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>899</v>
       </c>
@@ -7318,7 +7249,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>900</v>
       </c>
@@ -7341,7 +7272,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>901</v>
       </c>
@@ -7352,7 +7283,7 @@
         <v>604</v>
       </c>
       <c r="D164" s="2">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>360</v>
@@ -7364,7 +7295,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>902</v>
       </c>
@@ -7387,7 +7318,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>903</v>
       </c>
@@ -7398,7 +7329,7 @@
         <v>606</v>
       </c>
       <c r="D166" s="2">
-        <v>300.00000000000006</v>
+        <v>300</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>362</v>
@@ -7410,7 +7341,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
         <v>904</v>
       </c>
@@ -7433,7 +7364,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>905</v>
       </c>
@@ -7456,7 +7387,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
         <v>906</v>
       </c>
@@ -7467,7 +7398,7 @@
         <v>609</v>
       </c>
       <c r="D169" s="2">
-        <v>300.00000000000006</v>
+        <v>300</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>365</v>
@@ -7479,7 +7410,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>907</v>
       </c>
@@ -7502,7 +7433,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>908</v>
       </c>
@@ -7513,7 +7444,7 @@
         <v>612</v>
       </c>
       <c r="D171" s="2">
-        <v>150.00000000000003</v>
+        <v>150</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>367</v>
@@ -7525,7 +7456,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
         <v>909</v>
       </c>
@@ -7536,7 +7467,7 @@
         <v>613</v>
       </c>
       <c r="D172" s="2">
-        <v>150.00000000000003</v>
+        <v>150</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>368</v>
@@ -7548,7 +7479,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>910</v>
       </c>
@@ -7571,7 +7502,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
         <v>911</v>
       </c>
@@ -7594,7 +7525,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>912</v>
       </c>
@@ -7617,7 +7548,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>913</v>
       </c>
@@ -7628,7 +7559,7 @@
         <v>617</v>
       </c>
       <c r="D176" s="2">
-        <v>2500.0000000000005</v>
+        <v>2500</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>372</v>
@@ -7640,7 +7571,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>914</v>
       </c>
@@ -7674,7 +7605,7 @@
         <v>443</v>
       </c>
       <c r="D178" s="2">
-        <v>300.00000000000006</v>
+        <v>300</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>374</v>
@@ -7686,7 +7617,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
         <v>916</v>
       </c>
@@ -7709,7 +7640,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>917</v>
       </c>
@@ -7732,7 +7663,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>918</v>
       </c>
@@ -7755,7 +7686,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>919</v>
       </c>
@@ -7778,7 +7709,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
         <v>920</v>
       </c>
@@ -7801,7 +7732,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>921</v>
       </c>
@@ -7824,7 +7755,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
         <v>922</v>
       </c>
@@ -7847,7 +7778,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>923</v>
       </c>
@@ -7870,7 +7801,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>924</v>
       </c>
@@ -7893,7 +7824,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>925</v>
       </c>
@@ -7916,7 +7847,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>926</v>
       </c>
@@ -7939,7 +7870,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>927</v>
       </c>
@@ -7962,7 +7893,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>928</v>
       </c>
@@ -7985,7 +7916,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
         <v>929</v>
       </c>
@@ -8008,7 +7939,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
         <v>930</v>
       </c>
@@ -8031,7 +7962,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>931</v>
       </c>
@@ -8054,7 +7985,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
         <v>932</v>
       </c>
@@ -8077,7 +8008,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
         <v>933</v>
       </c>
@@ -8100,7 +8031,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
         <v>934</v>
       </c>
@@ -8123,7 +8054,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>935</v>
       </c>
@@ -8146,7 +8077,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>936</v>
       </c>
@@ -8169,7 +8100,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
         <v>937</v>
       </c>
@@ -8192,7 +8123,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>938</v>
       </c>
@@ -8215,7 +8146,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
         <v>939</v>
       </c>
@@ -8238,7 +8169,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>940</v>
       </c>
@@ -8261,7 +8192,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>941</v>
       </c>
@@ -8284,7 +8215,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>942</v>
       </c>
@@ -8307,7 +8238,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
         <v>943</v>
       </c>
@@ -8330,7 +8261,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>944</v>
       </c>
@@ -8353,7 +8284,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>945</v>
       </c>
@@ -8376,7 +8307,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
         <v>946</v>
       </c>
@@ -8399,7 +8330,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>947</v>
       </c>
@@ -8422,7 +8353,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
         <v>948</v>
       </c>
@@ -8445,7 +8376,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
         <v>949</v>
       </c>
@@ -8468,7 +8399,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
         <v>950</v>
       </c>
@@ -8491,7 +8422,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
         <v>951</v>
       </c>
@@ -8514,7 +8445,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>952</v>
       </c>
@@ -8537,7 +8468,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
         <v>953</v>
       </c>
@@ -8560,7 +8491,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>954</v>
       </c>
@@ -8583,7 +8514,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
         <v>955</v>
       </c>
@@ -8606,7 +8537,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
         <v>956</v>
       </c>
@@ -8629,7 +8560,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
         <v>957</v>
       </c>
@@ -8652,7 +8583,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
         <v>958</v>
       </c>
@@ -8675,7 +8606,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
         <v>959</v>
       </c>
@@ -8698,7 +8629,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
         <v>960</v>
       </c>
@@ -8719,7 +8650,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
         <v>961</v>
       </c>
@@ -8740,7 +8671,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
         <v>962</v>
       </c>
@@ -8763,7 +8694,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
         <v>963</v>
       </c>
@@ -8786,7 +8717,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
         <v>964</v>
       </c>
@@ -8809,7 +8740,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
         <v>965</v>
       </c>
@@ -8832,7 +8763,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
         <v>966</v>
       </c>
@@ -8855,7 +8786,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
         <v>967</v>
       </c>
@@ -8878,7 +8809,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
         <v>968</v>
       </c>
@@ -8901,7 +8832,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
         <v>969</v>
       </c>
@@ -8924,7 +8855,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
         <v>970</v>
       </c>
@@ -8947,7 +8878,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
         <v>971</v>
       </c>
@@ -8970,7 +8901,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
         <v>972</v>
       </c>
@@ -8993,7 +8924,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
         <v>973</v>
       </c>
@@ -9016,7 +8947,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
         <v>974</v>
       </c>
@@ -9039,7 +8970,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
         <v>975</v>
       </c>
@@ -9062,7 +8993,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
         <v>976</v>
       </c>
@@ -9085,7 +9016,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
         <v>977</v>
       </c>
@@ -9108,7 +9039,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
         <v>978</v>
       </c>
@@ -9131,7 +9062,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
         <v>979</v>
       </c>
@@ -9154,7 +9085,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
         <v>980</v>
       </c>
@@ -9177,7 +9108,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
         <v>981</v>
       </c>
@@ -9200,7 +9131,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
         <v>982</v>
       </c>
@@ -9223,7 +9154,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
         <v>983</v>
       </c>
@@ -9246,7 +9177,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
         <v>984</v>
       </c>
@@ -9269,7 +9200,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
         <v>985</v>
       </c>
@@ -9292,7 +9223,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="6" t="s">
         <v>986</v>
       </c>
@@ -9315,7 +9246,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
         <v>987</v>
       </c>
@@ -9338,7 +9269,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="6" t="s">
         <v>988</v>
       </c>
@@ -9361,7 +9292,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
         <v>989</v>
       </c>
@@ -9384,7 +9315,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="6" t="s">
         <v>990</v>
       </c>
@@ -9407,7 +9338,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
         <v>991</v>
       </c>
@@ -9430,7 +9361,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
         <v>992</v>
       </c>
@@ -9453,7 +9384,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
         <v>993</v>
       </c>
@@ -9476,7 +9407,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="257" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
         <v>994</v>
       </c>
@@ -9499,7 +9430,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="6" t="s">
         <v>995</v>
       </c>
@@ -9522,7 +9453,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
         <v>996</v>
       </c>
@@ -9545,7 +9476,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="s">
         <v>997</v>
       </c>
@@ -9568,7 +9499,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
         <v>998</v>
       </c>
@@ -9591,7 +9522,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="12" t="s">
         <v>999</v>
       </c>
@@ -9619,20 +9550,27 @@
       <c r="E263" s="10"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G262" xr:uid="{98041684-60AD-4B6B-B652-1A806A9CDDBF}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="شمعدان نحاس صافي فرنسي"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="14"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G258">
+    <cfRule type="duplicateValues" dxfId="3" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G262">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G258">
-    <cfRule type="duplicateValues" dxfId="2" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E116" r:id="rId1" display="https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/115.jpeg" xr:uid="{9549F0E1-BCB2-4457-9DDF-9A7137E9809C}"/>

--- a/Gallery.xlsx
+++ b/Gallery.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelaziz\Downloads\06102024-items need to check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC913B17-34AF-4155-B73E-7C3211E505CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997048FA-6645-4381-9814-5E673CE018F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="1632" windowWidth="13800" windowHeight="6384" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -3502,13 +3502,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98041684-60AD-4B6B-B652-1A806A9CDDBF}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G263"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D263" sqref="D263"/>
+      <selection pane="bottomLeft" activeCell="K249" sqref="K249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3546,7 +3545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="41.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>739</v>
       </c>
@@ -3569,7 +3568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="55.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>740</v>
       </c>
@@ -3580,7 +3579,7 @@
         <v>471</v>
       </c>
       <c r="D3" s="2">
-        <v>1750.0000000000002</v>
+        <v>1750</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>4</v>
@@ -3592,7 +3591,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="55.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>741</v>
       </c>
@@ -3615,7 +3614,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="55.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>742</v>
       </c>
@@ -3638,7 +3637,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="55.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>743</v>
       </c>
@@ -3661,7 +3660,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="41.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>744</v>
       </c>
@@ -3684,7 +3683,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="41.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>745</v>
       </c>
@@ -3707,7 +3706,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="41.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>746</v>
       </c>
@@ -3730,7 +3729,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="55.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>747</v>
       </c>
@@ -3753,7 +3752,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="41.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>748</v>
       </c>
@@ -3776,7 +3775,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="41.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>749</v>
       </c>
@@ -3799,7 +3798,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="41.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>750</v>
       </c>
@@ -3822,7 +3821,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>751</v>
       </c>
@@ -3845,7 +3844,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>752</v>
       </c>
@@ -3868,7 +3867,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>753</v>
       </c>
@@ -3891,7 +3890,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>754</v>
       </c>
@@ -3914,7 +3913,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>755</v>
       </c>
@@ -3937,7 +3936,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>756</v>
       </c>
@@ -3960,7 +3959,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>757</v>
       </c>
@@ -3983,7 +3982,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>758</v>
       </c>
@@ -4006,7 +4005,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>759</v>
       </c>
@@ -4029,7 +4028,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>760</v>
       </c>
@@ -4052,7 +4051,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>761</v>
       </c>
@@ -4075,7 +4074,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>762</v>
       </c>
@@ -4098,7 +4097,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>763</v>
       </c>
@@ -4121,7 +4120,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>764</v>
       </c>
@@ -4144,7 +4143,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>765</v>
       </c>
@@ -4167,7 +4166,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>766</v>
       </c>
@@ -4190,7 +4189,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>767</v>
       </c>
@@ -4213,7 +4212,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>768</v>
       </c>
@@ -4236,7 +4235,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>769</v>
       </c>
@@ -4259,7 +4258,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>770</v>
       </c>
@@ -4282,7 +4281,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>771</v>
       </c>
@@ -4305,7 +4304,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>772</v>
       </c>
@@ -4328,7 +4327,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>773</v>
       </c>
@@ -4351,7 +4350,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>774</v>
       </c>
@@ -4374,7 +4373,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>775</v>
       </c>
@@ -4397,7 +4396,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>776</v>
       </c>
@@ -4420,7 +4419,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>777</v>
       </c>
@@ -4443,7 +4442,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>778</v>
       </c>
@@ -4466,7 +4465,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>779</v>
       </c>
@@ -4489,7 +4488,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>780</v>
       </c>
@@ -4512,7 +4511,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>781</v>
       </c>
@@ -4535,7 +4534,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>782</v>
       </c>
@@ -4558,7 +4557,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>783</v>
       </c>
@@ -4581,7 +4580,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>784</v>
       </c>
@@ -4604,7 +4603,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>785</v>
       </c>
@@ -4627,7 +4626,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>786</v>
       </c>
@@ -4638,7 +4637,7 @@
         <v>505</v>
       </c>
       <c r="D49" s="2">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>247</v>
@@ -4650,7 +4649,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>787</v>
       </c>
@@ -4673,7 +4672,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>788</v>
       </c>
@@ -4696,7 +4695,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>789</v>
       </c>
@@ -4719,7 +4718,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>790</v>
       </c>
@@ -4742,7 +4741,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>791</v>
       </c>
@@ -4765,7 +4764,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>792</v>
       </c>
@@ -4788,7 +4787,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>793</v>
       </c>
@@ -4811,7 +4810,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>794</v>
       </c>
@@ -4834,7 +4833,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>795</v>
       </c>
@@ -4857,7 +4856,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>796</v>
       </c>
@@ -4880,7 +4879,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>797</v>
       </c>
@@ -4903,7 +4902,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>798</v>
       </c>
@@ -4926,7 +4925,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>799</v>
       </c>
@@ -4949,7 +4948,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>800</v>
       </c>
@@ -4972,7 +4971,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>801</v>
       </c>
@@ -4995,7 +4994,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>802</v>
       </c>
@@ -5018,7 +5017,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>803</v>
       </c>
@@ -5041,7 +5040,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>804</v>
       </c>
@@ -5064,7 +5063,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>805</v>
       </c>
@@ -5087,7 +5086,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>806</v>
       </c>
@@ -5110,7 +5109,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>807</v>
       </c>
@@ -5133,7 +5132,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>808</v>
       </c>
@@ -5156,7 +5155,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>809</v>
       </c>
@@ -5179,7 +5178,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>810</v>
       </c>
@@ -5202,7 +5201,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>811</v>
       </c>
@@ -5225,7 +5224,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>812</v>
       </c>
@@ -5248,7 +5247,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>813</v>
       </c>
@@ -5271,7 +5270,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>814</v>
       </c>
@@ -5294,7 +5293,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>815</v>
       </c>
@@ -5317,7 +5316,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>816</v>
       </c>
@@ -5340,7 +5339,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>817</v>
       </c>
@@ -5363,7 +5362,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>818</v>
       </c>
@@ -5386,7 +5385,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>819</v>
       </c>
@@ -5409,7 +5408,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>820</v>
       </c>
@@ -5432,7 +5431,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>821</v>
       </c>
@@ -5455,7 +5454,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>822</v>
       </c>
@@ -5478,7 +5477,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>823</v>
       </c>
@@ -5501,7 +5500,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>824</v>
       </c>
@@ -5524,7 +5523,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>825</v>
       </c>
@@ -5547,7 +5546,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>826</v>
       </c>
@@ -5570,7 +5569,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>827</v>
       </c>
@@ -5593,7 +5592,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>828</v>
       </c>
@@ -5616,7 +5615,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>829</v>
       </c>
@@ -5639,7 +5638,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>830</v>
       </c>
@@ -5662,7 +5661,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>831</v>
       </c>
@@ -5685,7 +5684,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>832</v>
       </c>
@@ -5708,7 +5707,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>833</v>
       </c>
@@ -5731,7 +5730,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>834</v>
       </c>
@@ -5754,7 +5753,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>835</v>
       </c>
@@ -5777,7 +5776,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>836</v>
       </c>
@@ -5800,7 +5799,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>837</v>
       </c>
@@ -5823,7 +5822,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>838</v>
       </c>
@@ -5846,7 +5845,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>839</v>
       </c>
@@ -5869,7 +5868,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>840</v>
       </c>
@@ -5892,7 +5891,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>841</v>
       </c>
@@ -5915,7 +5914,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>842</v>
       </c>
@@ -5938,7 +5937,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>843</v>
       </c>
@@ -5961,7 +5960,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>844</v>
       </c>
@@ -5984,7 +5983,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>845</v>
       </c>
@@ -6007,7 +6006,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>846</v>
       </c>
@@ -6030,7 +6029,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>847</v>
       </c>
@@ -6053,7 +6052,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>848</v>
       </c>
@@ -6076,7 +6075,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>849</v>
       </c>
@@ -6099,7 +6098,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>850</v>
       </c>
@@ -6122,7 +6121,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>851</v>
       </c>
@@ -6145,7 +6144,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>852</v>
       </c>
@@ -6168,7 +6167,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>853</v>
       </c>
@@ -6191,7 +6190,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>854</v>
       </c>
@@ -6214,7 +6213,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>855</v>
       </c>
@@ -6237,7 +6236,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>856</v>
       </c>
@@ -6260,7 +6259,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>857</v>
       </c>
@@ -6283,7 +6282,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>858</v>
       </c>
@@ -6306,7 +6305,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>859</v>
       </c>
@@ -6329,7 +6328,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>860</v>
       </c>
@@ -6352,7 +6351,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>861</v>
       </c>
@@ -6375,7 +6374,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>862</v>
       </c>
@@ -6398,7 +6397,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>863</v>
       </c>
@@ -6421,7 +6420,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>864</v>
       </c>
@@ -6444,7 +6443,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>865</v>
       </c>
@@ -6467,7 +6466,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>866</v>
       </c>
@@ -6490,7 +6489,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>867</v>
       </c>
@@ -6513,7 +6512,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>868</v>
       </c>
@@ -6536,7 +6535,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>869</v>
       </c>
@@ -6559,7 +6558,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>870</v>
       </c>
@@ -6582,7 +6581,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>871</v>
       </c>
@@ -6605,7 +6604,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>872</v>
       </c>
@@ -6628,7 +6627,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>873</v>
       </c>
@@ -6651,7 +6650,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>874</v>
       </c>
@@ -6674,7 +6673,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>875</v>
       </c>
@@ -6697,7 +6696,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>876</v>
       </c>
@@ -6720,7 +6719,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>877</v>
       </c>
@@ -6743,7 +6742,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>878</v>
       </c>
@@ -6766,7 +6765,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>879</v>
       </c>
@@ -6789,7 +6788,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>880</v>
       </c>
@@ -6812,7 +6811,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>881</v>
       </c>
@@ -6835,7 +6834,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>882</v>
       </c>
@@ -6858,7 +6857,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>883</v>
       </c>
@@ -6881,7 +6880,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>884</v>
       </c>
@@ -6904,7 +6903,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>885</v>
       </c>
@@ -6927,7 +6926,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>886</v>
       </c>
@@ -6950,7 +6949,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>887</v>
       </c>
@@ -6973,7 +6972,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>888</v>
       </c>
@@ -6996,7 +6995,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>889</v>
       </c>
@@ -7019,7 +7018,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>890</v>
       </c>
@@ -7042,7 +7041,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>891</v>
       </c>
@@ -7065,7 +7064,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>892</v>
       </c>
@@ -7088,7 +7087,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>893</v>
       </c>
@@ -7111,7 +7110,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>894</v>
       </c>
@@ -7134,7 +7133,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>895</v>
       </c>
@@ -7157,7 +7156,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>896</v>
       </c>
@@ -7180,7 +7179,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>897</v>
       </c>
@@ -7203,7 +7202,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>898</v>
       </c>
@@ -7226,7 +7225,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>899</v>
       </c>
@@ -7249,7 +7248,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>900</v>
       </c>
@@ -7272,7 +7271,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>901</v>
       </c>
@@ -7295,7 +7294,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>902</v>
       </c>
@@ -7318,7 +7317,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>903</v>
       </c>
@@ -7341,7 +7340,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
         <v>904</v>
       </c>
@@ -7364,7 +7363,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>905</v>
       </c>
@@ -7387,7 +7386,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
         <v>906</v>
       </c>
@@ -7410,7 +7409,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>907</v>
       </c>
@@ -7433,7 +7432,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>908</v>
       </c>
@@ -7456,7 +7455,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
         <v>909</v>
       </c>
@@ -7479,7 +7478,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>910</v>
       </c>
@@ -7502,7 +7501,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
         <v>911</v>
       </c>
@@ -7525,7 +7524,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>912</v>
       </c>
@@ -7548,7 +7547,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>913</v>
       </c>
@@ -7571,7 +7570,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>914</v>
       </c>
@@ -7617,7 +7616,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
         <v>916</v>
       </c>
@@ -7640,7 +7639,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>917</v>
       </c>
@@ -7663,7 +7662,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>918</v>
       </c>
@@ -7686,7 +7685,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>919</v>
       </c>
@@ -7709,7 +7708,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
         <v>920</v>
       </c>
@@ -7732,7 +7731,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>921</v>
       </c>
@@ -7755,7 +7754,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
         <v>922</v>
       </c>
@@ -7778,7 +7777,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>923</v>
       </c>
@@ -7801,7 +7800,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>924</v>
       </c>
@@ -7824,7 +7823,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>925</v>
       </c>
@@ -7847,7 +7846,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>926</v>
       </c>
@@ -7870,7 +7869,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>927</v>
       </c>
@@ -7893,7 +7892,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>928</v>
       </c>
@@ -7916,7 +7915,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
         <v>929</v>
       </c>
@@ -7939,7 +7938,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
         <v>930</v>
       </c>
@@ -7962,7 +7961,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>931</v>
       </c>
@@ -7985,7 +7984,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
         <v>932</v>
       </c>
@@ -8008,7 +8007,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
         <v>933</v>
       </c>
@@ -8031,7 +8030,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
         <v>934</v>
       </c>
@@ -8054,7 +8053,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>935</v>
       </c>
@@ -8077,7 +8076,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>936</v>
       </c>
@@ -8100,7 +8099,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
         <v>937</v>
       </c>
@@ -8123,7 +8122,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>938</v>
       </c>
@@ -8146,7 +8145,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
         <v>939</v>
       </c>
@@ -8169,7 +8168,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>940</v>
       </c>
@@ -8192,7 +8191,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>941</v>
       </c>
@@ -8215,7 +8214,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>942</v>
       </c>
@@ -8238,7 +8237,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
         <v>943</v>
       </c>
@@ -8261,7 +8260,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>944</v>
       </c>
@@ -8284,7 +8283,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>945</v>
       </c>
@@ -8307,7 +8306,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
         <v>946</v>
       </c>
@@ -8330,7 +8329,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>947</v>
       </c>
@@ -8353,7 +8352,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
         <v>948</v>
       </c>
@@ -8376,7 +8375,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
         <v>949</v>
       </c>
@@ -8399,7 +8398,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
         <v>950</v>
       </c>
@@ -8422,7 +8421,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
         <v>951</v>
       </c>
@@ -8445,7 +8444,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>952</v>
       </c>
@@ -8468,7 +8467,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
         <v>953</v>
       </c>
@@ -8491,7 +8490,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>954</v>
       </c>
@@ -8514,7 +8513,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
         <v>955</v>
       </c>
@@ -8537,7 +8536,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
         <v>956</v>
       </c>
@@ -8560,7 +8559,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
         <v>957</v>
       </c>
@@ -8583,7 +8582,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
         <v>958</v>
       </c>
@@ -8606,7 +8605,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
         <v>959</v>
       </c>
@@ -8629,7 +8628,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
         <v>960</v>
       </c>
@@ -8650,7 +8649,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
         <v>961</v>
       </c>
@@ -8671,7 +8670,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
         <v>962</v>
       </c>
@@ -8694,7 +8693,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
         <v>963</v>
       </c>
@@ -8717,7 +8716,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
         <v>964</v>
       </c>
@@ -8740,7 +8739,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
         <v>965</v>
       </c>
@@ -8763,7 +8762,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
         <v>966</v>
       </c>
@@ -8786,7 +8785,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
         <v>967</v>
       </c>
@@ -8809,7 +8808,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
         <v>968</v>
       </c>
@@ -8832,7 +8831,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
         <v>969</v>
       </c>
@@ -8855,7 +8854,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
         <v>970</v>
       </c>
@@ -8878,7 +8877,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
         <v>971</v>
       </c>
@@ -8901,7 +8900,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
         <v>972</v>
       </c>
@@ -8924,7 +8923,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
         <v>973</v>
       </c>
@@ -8947,7 +8946,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
         <v>974</v>
       </c>
@@ -8970,7 +8969,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
         <v>975</v>
       </c>
@@ -8993,7 +8992,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
         <v>976</v>
       </c>
@@ -9016,7 +9015,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
         <v>977</v>
       </c>
@@ -9039,7 +9038,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
         <v>978</v>
       </c>
@@ -9062,7 +9061,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
         <v>979</v>
       </c>
@@ -9085,7 +9084,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
         <v>980</v>
       </c>
@@ -9108,7 +9107,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
         <v>981</v>
       </c>
@@ -9131,7 +9130,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
         <v>982</v>
       </c>
@@ -9154,7 +9153,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
         <v>983</v>
       </c>
@@ -9177,7 +9176,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
         <v>984</v>
       </c>
@@ -9200,7 +9199,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
         <v>985</v>
       </c>
@@ -9223,7 +9222,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A249" s="6" t="s">
         <v>986</v>
       </c>
@@ -9246,7 +9245,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
         <v>987</v>
       </c>
@@ -9269,7 +9268,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A251" s="6" t="s">
         <v>988</v>
       </c>
@@ -9292,7 +9291,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
         <v>989</v>
       </c>
@@ -9315,7 +9314,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A253" s="6" t="s">
         <v>990</v>
       </c>
@@ -9338,7 +9337,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
         <v>991</v>
       </c>
@@ -9361,7 +9360,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
         <v>992</v>
       </c>
@@ -9384,7 +9383,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
         <v>993</v>
       </c>
@@ -9407,7 +9406,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="257" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
         <v>994</v>
       </c>
@@ -9430,7 +9429,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A258" s="6" t="s">
         <v>995</v>
       </c>
@@ -9453,7 +9452,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
         <v>996</v>
       </c>
@@ -9476,7 +9475,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="s">
         <v>997</v>
       </c>
@@ -9499,7 +9498,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
         <v>998</v>
       </c>
@@ -9522,7 +9521,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="12" t="s">
         <v>999</v>
       </c>
@@ -9550,13 +9549,7 @@
       <c r="E263" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G262" xr:uid="{98041684-60AD-4B6B-B652-1A806A9CDDBF}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="شمعدان نحاس صافي فرنسي"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G262" xr:uid="{98041684-60AD-4B6B-B652-1A806A9CDDBF}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="5" priority="14"/>

--- a/Gallery.xlsx
+++ b/Gallery.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelaziz\Downloads\06102024-items need to check\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelaziz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997048FA-6645-4381-9814-5E673CE018F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43598ED-2CCF-4B1C-AF8A-3A975AD294DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="998">
   <si>
     <t>Number</t>
   </si>
@@ -1863,9 +1863,6 @@
     <t>Decorated White Perfume Vase</t>
   </si>
   <si>
-    <t>طقم كراسي خشبية هندية / 4</t>
-  </si>
-  <si>
     <t>Small rose vase</t>
   </si>
   <si>
@@ -2211,27 +2208,9 @@
     <t>عقود كهرمان خام 77</t>
   </si>
   <si>
-    <t>لوحة فنية مغربي عمودي تشكيلي كبير 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كأس اوبالين زهري مصور فرنسي كبير </t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">خنجر مغربي عاج </t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
     <t>ثرية احمر فرنسي نحاس</t>
   </si>
   <si>
-    <t>900</t>
-  </si>
-  <si>
     <t>خناجر</t>
   </si>
   <si>
@@ -3031,13 +3010,25 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/Logo2.png</t>
+  </si>
+  <si>
+    <t>لوحة فنية مغربي عمودي تشكيلي كبير  1</t>
+  </si>
+  <si>
+    <t>كأس اوبالين زهري مصور فرنسي كبير</t>
+  </si>
+  <si>
+    <t>خنجر مغربي عاج</t>
+  </si>
+  <si>
+    <t>طقم كراسي خسبية هندية / 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3067,8 +3058,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3078,6 +3077,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3110,7 +3133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3120,12 +3143,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3154,18 +3171,119 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3505,21 +3623,21 @@
   <dimension ref="A1:G263"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K249" sqref="K249"/>
+      <selection pane="bottomLeft" activeCell="E275" sqref="E275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.296875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="11.09765625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="10.8984375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="7.3984375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="12" style="8" customWidth="1"/>
-    <col min="6" max="6" width="9.69921875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="32.8984375" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="11"/>
+    <col min="1" max="1" width="23.296875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.09765625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.69921875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="32.8984375" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
@@ -3532,7 +3650,7 @@
       <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -3541,22 +3659,22 @@
       <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>739</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="D2" s="2">
-        <v>3000</v>
+      <c r="D2" s="19">
+        <v>2000</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
@@ -3564,22 +3682,22 @@
       <c r="F2" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>740</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="D3" s="2">
-        <v>1750</v>
+      <c r="D3" s="15">
+        <v>1750.0000000000002</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>4</v>
@@ -3587,21 +3705,21 @@
       <c r="F3" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>741</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="15">
         <v>500</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -3610,21 +3728,21 @@
       <c r="F4" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>742</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="15">
         <v>500</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -3633,21 +3751,21 @@
       <c r="F5" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="17" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>743</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="15">
         <v>1500</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -3656,21 +3774,21 @@
       <c r="F6" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="15">
         <v>800</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -3679,21 +3797,21 @@
       <c r="F7" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="15">
         <v>1600</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -3702,22 +3820,22 @@
       <c r="F8" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>746</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="D9" s="2">
-        <v>900</v>
+      <c r="D9" s="15">
+        <v>900.00000000000011</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
@@ -3725,22 +3843,22 @@
       <c r="F9" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>747</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="D10" s="2">
-        <v>2500</v>
+      <c r="D10" s="15">
+        <v>2500.0000000000005</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>15</v>
@@ -3748,21 +3866,21 @@
       <c r="F10" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>748</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="15">
         <v>3000</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -3771,22 +3889,22 @@
       <c r="F11" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="17" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>749</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="D12" s="2">
-        <v>1750</v>
+      <c r="D12" s="15">
+        <v>1750.0000000000002</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>17</v>
@@ -3794,22 +3912,22 @@
       <c r="F12" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>750</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="D13" s="2">
-        <v>1200</v>
+      <c r="D13" s="15">
+        <v>1200.0000000000002</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>18</v>
@@ -3817,21 +3935,21 @@
       <c r="F13" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>751</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>398</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="15">
         <v>900</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -3840,21 +3958,21 @@
       <c r="F14" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="17" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>752</v>
-      </c>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>398</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="15">
         <v>500</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -3863,21 +3981,21 @@
       <c r="F15" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="17" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>753</v>
-      </c>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>388</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="15">
         <v>1500</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -3886,22 +4004,22 @@
       <c r="F16" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="17" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>754</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>488</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="D17" s="2">
-        <v>1200</v>
+      <c r="D17" s="15">
+        <v>1200.0000000000002</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>216</v>
@@ -3909,21 +4027,21 @@
       <c r="F17" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="17" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>755</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>377</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="15">
         <v>1000</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -3932,21 +4050,21 @@
       <c r="F18" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>390</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="15">
         <v>2000</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -3955,21 +4073,21 @@
       <c r="F19" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="17" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>757</v>
-      </c>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>375</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="15">
         <v>750</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -3978,22 +4096,22 @@
       <c r="F20" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>758</v>
-      </c>
-      <c r="B21" s="7" t="s">
+      <c r="A21" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>378</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="D21" s="2">
-        <v>1750</v>
+      <c r="D21" s="15">
+        <v>1750.0000000000002</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>220</v>
@@ -4001,21 +4119,21 @@
       <c r="F21" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>759</v>
-      </c>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>375</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="15">
         <v>1400</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -4024,21 +4142,21 @@
       <c r="F22" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="17" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>760</v>
-      </c>
-      <c r="B23" s="7" t="s">
+      <c r="A23" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>375</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="15">
         <v>700</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -4047,22 +4165,22 @@
       <c r="F23" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="17" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>761</v>
-      </c>
-      <c r="B24" s="7" t="s">
+      <c r="A24" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>378</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="D24" s="2">
-        <v>2500</v>
+      <c r="D24" s="15">
+        <v>2500.0000000000005</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>223</v>
@@ -4070,21 +4188,21 @@
       <c r="F24" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="17" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>762</v>
-      </c>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>391</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="15">
         <v>1500</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -4093,21 +4211,21 @@
       <c r="F25" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>632</v>
+      <c r="G25" s="17" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="B26" s="7" t="s">
+      <c r="A26" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>391</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="15">
         <v>1500</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -4116,22 +4234,22 @@
       <c r="F26" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>633</v>
+      <c r="G26" s="17" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>764</v>
-      </c>
-      <c r="B27" s="7" t="s">
+      <c r="A27" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>375</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="D27" s="2">
-        <v>1200</v>
+      <c r="D27" s="15">
+        <v>1200.0000000000002</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>226</v>
@@ -4139,22 +4257,22 @@
       <c r="F27" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="17" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>765</v>
-      </c>
-      <c r="B28" s="7" t="s">
+      <c r="A28" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>376</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="D28" s="2">
-        <v>2500</v>
+      <c r="D28" s="15">
+        <v>2500.0000000000005</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>227</v>
@@ -4162,21 +4280,21 @@
       <c r="F28" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>766</v>
-      </c>
-      <c r="B29" s="7" t="s">
+      <c r="A29" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>378</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="15">
         <v>3000</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -4185,22 +4303,22 @@
       <c r="F29" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>767</v>
-      </c>
-      <c r="B30" s="7" t="s">
+      <c r="A30" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>395</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="D30" s="2">
-        <v>1200</v>
+      <c r="D30" s="15">
+        <v>1200.0000000000002</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>229</v>
@@ -4208,21 +4326,21 @@
       <c r="F30" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>768</v>
-      </c>
-      <c r="B31" s="7" t="s">
+      <c r="A31" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>377</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="15">
         <v>800</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -4231,22 +4349,22 @@
       <c r="F31" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="17" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>769</v>
-      </c>
-      <c r="B32" s="7" t="s">
+      <c r="A32" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>397</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="D32" s="2">
-        <v>1200</v>
+      <c r="D32" s="15">
+        <v>1200.0000000000002</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>231</v>
@@ -4254,21 +4372,21 @@
       <c r="F32" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="B33" s="7" t="s">
+      <c r="A33" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>392</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="15">
         <v>3000</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -4277,21 +4395,21 @@
       <c r="F33" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>771</v>
-      </c>
-      <c r="B34" s="7" t="s">
+      <c r="A34" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>377</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="15">
         <v>700</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -4300,21 +4418,21 @@
       <c r="F34" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>772</v>
-      </c>
-      <c r="B35" s="7" t="s">
+      <c r="A35" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>390</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="15">
         <v>1000</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -4323,22 +4441,22 @@
       <c r="F35" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>773</v>
-      </c>
-      <c r="B36" s="7" t="s">
+      <c r="A36" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>375</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="D36" s="2">
-        <v>1200</v>
+      <c r="D36" s="15">
+        <v>1200.0000000000002</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>235</v>
@@ -4346,22 +4464,22 @@
       <c r="F36" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="17" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>774</v>
-      </c>
-      <c r="B37" s="7" t="s">
+      <c r="A37" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>375</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="D37" s="2">
-        <v>900</v>
+      <c r="D37" s="15">
+        <v>900.00000000000011</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>236</v>
@@ -4369,21 +4487,21 @@
       <c r="F37" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="17" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>775</v>
-      </c>
-      <c r="B38" s="7" t="s">
+      <c r="A38" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>391</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="15">
         <v>1500</v>
       </c>
       <c r="E38" s="2" t="s">
@@ -4392,21 +4510,21 @@
       <c r="F38" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="17" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="B39" s="7" t="s">
+      <c r="A39" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>391</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="15">
         <v>1500</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -4415,45 +4533,45 @@
       <c r="F39" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>777</v>
-      </c>
-      <c r="B40" s="7" t="s">
+      <c r="A40" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>377</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="15">
         <v>500</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="17" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>778</v>
-      </c>
-      <c r="B41" s="7" t="s">
+      <c r="A41" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>390</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="D41" s="2">
-        <v>1200</v>
+      <c r="D41" s="15">
+        <v>1200.0000000000002</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>239</v>
@@ -4461,22 +4579,22 @@
       <c r="F41" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="17" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>779</v>
-      </c>
-      <c r="B42" s="7" t="s">
+      <c r="A42" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>396</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="D42" s="2">
-        <v>2500</v>
+      <c r="D42" s="15">
+        <v>2500.0000000000005</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>240</v>
@@ -4484,21 +4602,21 @@
       <c r="F42" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G42" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="B43" s="7" t="s">
+      <c r="A43" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>507</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="15">
         <v>2200</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -4507,22 +4625,22 @@
       <c r="F43" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="17" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>781</v>
-      </c>
-      <c r="B44" s="7" t="s">
+      <c r="A44" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>394</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="D44" s="2">
-        <v>1200</v>
+      <c r="D44" s="15">
+        <v>1200.0000000000002</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>242</v>
@@ -4530,21 +4648,21 @@
       <c r="F44" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" s="17" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>782</v>
-      </c>
-      <c r="B45" s="7" t="s">
+      <c r="A45" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>375</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="15">
         <v>2000</v>
       </c>
       <c r="E45" s="2" t="s">
@@ -4553,21 +4671,21 @@
       <c r="F45" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G45" s="17" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>783</v>
-      </c>
-      <c r="B46" s="7" t="s">
+      <c r="A46" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>375</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="15">
         <v>1000</v>
       </c>
       <c r="E46" s="2" t="s">
@@ -4576,21 +4694,21 @@
       <c r="F46" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G46" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>784</v>
-      </c>
-      <c r="B47" s="7" t="s">
+      <c r="A47" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>375</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="15">
         <v>1100</v>
       </c>
       <c r="E47" s="2" t="s">
@@ -4599,22 +4717,22 @@
       <c r="F47" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G47" s="17" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>785</v>
-      </c>
-      <c r="B48" s="7" t="s">
+      <c r="A48" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>396</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="D48" s="2">
-        <v>1200</v>
+      <c r="D48" s="15">
+        <v>1200.0000000000002</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>246</v>
@@ -4622,22 +4740,22 @@
       <c r="F48" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G48" s="17" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>786</v>
-      </c>
-      <c r="B49" s="7" t="s">
+      <c r="A49" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>487</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="D49" s="2">
-        <v>1200</v>
+      <c r="D49" s="15">
+        <v>1200.0000000000002</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>247</v>
@@ -4645,21 +4763,21 @@
       <c r="F49" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G49" s="17" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>787</v>
-      </c>
-      <c r="B50" s="7" t="s">
+      <c r="A50" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>508</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="15">
         <v>2000</v>
       </c>
       <c r="E50" s="2" t="s">
@@ -4668,21 +4786,21 @@
       <c r="F50" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="G50" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>788</v>
-      </c>
-      <c r="B51" s="7" t="s">
+      <c r="A51" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>519</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="15">
         <v>400</v>
       </c>
       <c r="E51" s="2" t="s">
@@ -4691,21 +4809,21 @@
       <c r="F51" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G51" s="17" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
-        <v>789</v>
-      </c>
-      <c r="B52" s="7" t="s">
+      <c r="A52" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>398</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="15">
         <v>800</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -4714,21 +4832,21 @@
       <c r="F52" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G52" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
-        <v>790</v>
-      </c>
-      <c r="B53" s="7" t="s">
+      <c r="A53" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>398</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="15">
         <v>800</v>
       </c>
       <c r="E53" s="2" t="s">
@@ -4737,21 +4855,21 @@
       <c r="F53" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="G53" s="17" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
-        <v>791</v>
-      </c>
-      <c r="B54" s="7" t="s">
+      <c r="A54" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>377</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="15">
         <v>3500</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -4760,22 +4878,22 @@
       <c r="F54" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="G54" s="17" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
-        <v>792</v>
-      </c>
-      <c r="B55" s="7" t="s">
+      <c r="A55" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>375</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="D55" s="2">
-        <v>600</v>
+      <c r="D55" s="15">
+        <v>600.00000000000011</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>254</v>
@@ -4783,22 +4901,22 @@
       <c r="F55" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="G55" s="17" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
-        <v>793</v>
-      </c>
-      <c r="B56" s="7" t="s">
+      <c r="A56" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>375</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="D56" s="2">
-        <v>950</v>
+      <c r="D56" s="15">
+        <v>950.00000000000011</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>252</v>
@@ -4806,21 +4924,21 @@
       <c r="F56" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="G56" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
-        <v>794</v>
-      </c>
-      <c r="B57" s="7" t="s">
+      <c r="A57" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>399</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="15">
         <v>4000</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -4829,21 +4947,21 @@
       <c r="F57" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="G57" s="17" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>795</v>
-      </c>
-      <c r="B58" s="7" t="s">
+      <c r="A58" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>520</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="15">
         <v>4000</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -4852,21 +4970,21 @@
       <c r="F58" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="G58" s="17" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>796</v>
-      </c>
-      <c r="B59" s="7" t="s">
+      <c r="A59" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>389</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="15">
         <v>2500</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -4875,21 +4993,21 @@
       <c r="F59" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G59" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
-        <v>797</v>
-      </c>
-      <c r="B60" s="7" t="s">
+      <c r="A60" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>400</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="15">
         <v>4000</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -4898,22 +5016,22 @@
       <c r="F60" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" s="17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
-        <v>798</v>
-      </c>
-      <c r="B61" s="7" t="s">
+      <c r="A61" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>400</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="D61" s="2">
-        <v>900</v>
+      <c r="D61" s="15">
+        <v>900.00000000000011</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>259</v>
@@ -4921,22 +5039,22 @@
       <c r="F61" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G61" s="17" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
-        <v>799</v>
-      </c>
-      <c r="B62" s="7" t="s">
+      <c r="A62" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>400</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="D62" s="2">
-        <v>1200</v>
+      <c r="D62" s="15">
+        <v>1200.0000000000002</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>260</v>
@@ -4944,22 +5062,22 @@
       <c r="F62" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G62" s="17" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
-        <v>800</v>
-      </c>
-      <c r="B63" s="7" t="s">
+      <c r="A63" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>377</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="D63" s="2">
-        <v>1200</v>
+      <c r="D63" s="15">
+        <v>1200.0000000000002</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>261</v>
@@ -4967,22 +5085,22 @@
       <c r="F63" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="G63" s="17" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
-        <v>801</v>
-      </c>
-      <c r="B64" s="7" t="s">
+      <c r="A64" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>401</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="D64" s="2">
-        <v>600</v>
+      <c r="D64" s="15">
+        <v>600.00000000000011</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>262</v>
@@ -4990,21 +5108,21 @@
       <c r="F64" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="G64" s="17" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
-        <v>802</v>
-      </c>
-      <c r="B65" s="7" t="s">
+      <c r="A65" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>402</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="15">
         <v>4500</v>
       </c>
       <c r="E65" s="1" t="s">
@@ -5013,22 +5131,22 @@
       <c r="F65" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G65" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
-        <v>803</v>
-      </c>
-      <c r="B66" s="7" t="s">
+      <c r="A66" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>375</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="D66" s="2">
-        <v>850</v>
+      <c r="D66" s="15">
+        <v>850.00000000000011</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>264</v>
@@ -5036,22 +5154,22 @@
       <c r="F66" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="G66" s="17" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
-        <v>804</v>
-      </c>
-      <c r="B67" s="7" t="s">
+      <c r="A67" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>375</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="D67" s="2">
-        <v>1200</v>
+      <c r="D67" s="15">
+        <v>1200.0000000000002</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>265</v>
@@ -5059,45 +5177,45 @@
       <c r="F67" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="G67" s="17" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
-        <v>805</v>
-      </c>
-      <c r="B68" s="7" t="s">
+      <c r="A68" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>375</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="D68" s="2">
-        <v>900</v>
+      <c r="D68" s="15">
+        <v>900.00000000000011</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="G68" s="17" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
-        <v>806</v>
-      </c>
-      <c r="B69" s="7" t="s">
+      <c r="A69" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>375</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="D69" s="2">
-        <v>300</v>
+      <c r="D69" s="15">
+        <v>300.00000000000006</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>266</v>
@@ -5105,22 +5223,22 @@
       <c r="F69" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="G69" s="17" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
-        <v>807</v>
-      </c>
-      <c r="B70" s="7" t="s">
+      <c r="A70" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>375</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="D70" s="2">
-        <v>1800</v>
+      <c r="D70" s="15">
+        <v>1800.0000000000002</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>267</v>
@@ -5128,22 +5246,22 @@
       <c r="F70" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="G70" s="17" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
-        <v>808</v>
-      </c>
-      <c r="B71" s="7" t="s">
+      <c r="A71" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>375</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="D71" s="2">
-        <v>1200</v>
+      <c r="D71" s="15">
+        <v>1200.0000000000002</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>268</v>
@@ -5151,21 +5269,21 @@
       <c r="F71" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="G71" s="17" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
-        <v>809</v>
-      </c>
-      <c r="B72" s="7" t="s">
+      <c r="A72" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>375</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="15">
         <v>1600</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -5174,21 +5292,21 @@
       <c r="F72" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="G72" s="17" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
-        <v>810</v>
-      </c>
-      <c r="B73" s="7" t="s">
+      <c r="A73" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>375</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="15">
         <v>2000</v>
       </c>
       <c r="E73" s="1" t="s">
@@ -5197,22 +5315,22 @@
       <c r="F73" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G73" s="2" t="s">
-        <v>631</v>
+      <c r="G73" s="17" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
-        <v>811</v>
-      </c>
-      <c r="B74" s="7" t="s">
+      <c r="A74" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>403</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="D74" s="2">
-        <v>12500</v>
+      <c r="D74" s="15">
+        <v>12500.000000000002</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>271</v>
@@ -5220,21 +5338,21 @@
       <c r="F74" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="G74" s="17" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
-        <v>812</v>
-      </c>
-      <c r="B75" s="7" t="s">
+      <c r="A75" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>398</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="15">
         <v>800</v>
       </c>
       <c r="E75" s="1" t="s">
@@ -5243,21 +5361,21 @@
       <c r="F75" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="G75" s="17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
-        <v>813</v>
-      </c>
-      <c r="B76" s="7" t="s">
+      <c r="A76" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>398</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="15">
         <v>600</v>
       </c>
       <c r="E76" s="1" t="s">
@@ -5266,21 +5384,21 @@
       <c r="F76" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="G76" s="17" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
-        <v>814</v>
-      </c>
-      <c r="B77" s="7" t="s">
+      <c r="A77" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>394</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="15">
         <v>750</v>
       </c>
       <c r="E77" s="1" t="s">
@@ -5289,22 +5407,22 @@
       <c r="F77" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="G77" s="17" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
-        <v>815</v>
-      </c>
-      <c r="B78" s="7" t="s">
+      <c r="A78" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>390</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="D78" s="2">
-        <v>750</v>
+      <c r="D78" s="19">
+        <v>500</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>275</v>
@@ -5312,22 +5430,22 @@
       <c r="F78" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="G78" s="17" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
-        <v>816</v>
-      </c>
-      <c r="B79" s="7" t="s">
+      <c r="A79" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>488</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="D79" s="2">
-        <v>2500</v>
+      <c r="D79" s="15">
+        <v>2500.0000000000005</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>276</v>
@@ -5335,21 +5453,21 @@
       <c r="F79" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="G79" s="17" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
-        <v>817</v>
-      </c>
-      <c r="B80" s="7" t="s">
+      <c r="A80" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>375</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="15">
         <v>1500</v>
       </c>
       <c r="E80" s="1" t="s">
@@ -5358,22 +5476,22 @@
       <c r="F80" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="G80" s="17" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
-        <v>818</v>
-      </c>
-      <c r="B81" s="7" t="s">
+      <c r="A81" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>545</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="D81" s="2">
-        <v>1400</v>
+      <c r="D81" s="19">
+        <v>750</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>278</v>
@@ -5381,21 +5499,21 @@
       <c r="F81" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="G81" s="17" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
-        <v>819</v>
-      </c>
-      <c r="B82" s="7" t="s">
+      <c r="A82" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>390</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="15">
         <v>350</v>
       </c>
       <c r="E82" s="1" t="s">
@@ -5404,21 +5522,21 @@
       <c r="F82" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="G82" s="17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
-        <v>820</v>
-      </c>
-      <c r="B83" s="7" t="s">
+      <c r="A83" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>375</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="15">
         <v>750</v>
       </c>
       <c r="E83" s="1" t="s">
@@ -5427,22 +5545,22 @@
       <c r="F83" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="G83" s="17" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
-        <v>821</v>
-      </c>
-      <c r="B84" s="7" t="s">
+      <c r="A84" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>546</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="D84" s="2">
-        <v>600</v>
+      <c r="D84" s="15">
+        <v>600.00000000000011</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>281</v>
@@ -5450,22 +5568,22 @@
       <c r="F84" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="G84" s="17" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
-        <v>822</v>
-      </c>
-      <c r="B85" s="7" t="s">
+      <c r="A85" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>390</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="D85" s="2">
-        <v>600</v>
+      <c r="D85" s="15">
+        <v>600.00000000000011</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>282</v>
@@ -5473,22 +5591,22 @@
       <c r="F85" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="G85" s="17" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="B86" s="7" t="s">
+      <c r="A86" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>404</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="D86" s="2">
-        <v>1200</v>
+      <c r="D86" s="15">
+        <v>1200.0000000000002</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>283</v>
@@ -5496,22 +5614,22 @@
       <c r="F86" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="G86" s="17" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
-        <v>824</v>
-      </c>
-      <c r="B87" s="7" t="s">
+      <c r="A87" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>375</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="D87" s="2">
-        <v>1700</v>
+      <c r="D87" s="15">
+        <v>1700.0000000000002</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>285</v>
@@ -5519,22 +5637,22 @@
       <c r="F87" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="G87" s="17" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
-        <v>825</v>
-      </c>
-      <c r="B88" s="7" t="s">
+      <c r="A88" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>390</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="D88" s="2">
-        <v>300</v>
+      <c r="D88" s="15">
+        <v>300.00000000000006</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>284</v>
@@ -5542,21 +5660,21 @@
       <c r="F88" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="G88" s="17" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
-        <v>826</v>
-      </c>
-      <c r="B89" s="7" t="s">
+      <c r="A89" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>391</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89" s="15">
         <v>500</v>
       </c>
       <c r="E89" s="1" t="s">
@@ -5565,21 +5683,21 @@
       <c r="F89" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G89" s="2" t="s">
+      <c r="G89" s="17" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="s">
-        <v>827</v>
-      </c>
-      <c r="B90" s="7" t="s">
+      <c r="A90" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>398</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90" s="15">
         <v>400</v>
       </c>
       <c r="E90" s="1" t="s">
@@ -5588,21 +5706,21 @@
       <c r="F90" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="G90" s="17" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
-        <v>828</v>
-      </c>
-      <c r="B91" s="7" t="s">
+      <c r="A91" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>405</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="15">
         <v>2750</v>
       </c>
       <c r="E91" s="1" t="s">
@@ -5611,21 +5729,21 @@
       <c r="F91" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="G91" s="17" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
-        <v>829</v>
-      </c>
-      <c r="B92" s="7" t="s">
+      <c r="A92" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>406</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="15">
         <v>3750</v>
       </c>
       <c r="E92" s="1" t="s">
@@ -5634,22 +5752,22 @@
       <c r="F92" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="G92" s="17" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
-        <v>830</v>
-      </c>
-      <c r="B93" s="7" t="s">
+      <c r="A93" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>407</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="D93" s="2">
-        <v>3500</v>
+      <c r="D93" s="15">
+        <v>3500.0000000000005</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>290</v>
@@ -5657,22 +5775,22 @@
       <c r="F93" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G93" s="2" t="s">
+      <c r="G93" s="17" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
-        <v>831</v>
-      </c>
-      <c r="B94" s="7" t="s">
+      <c r="A94" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>387</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="D94" s="2">
-        <v>20000</v>
+      <c r="D94" s="15">
+        <v>20000.000000000004</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>291</v>
@@ -5680,21 +5798,21 @@
       <c r="F94" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="G94" s="2" t="s">
+      <c r="G94" s="17" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
-        <v>832</v>
-      </c>
-      <c r="B95" s="7" t="s">
+      <c r="A95" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>387</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95" s="15">
         <v>800</v>
       </c>
       <c r="E95" s="1" t="s">
@@ -5703,22 +5821,22 @@
       <c r="F95" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G95" s="2" t="s">
+      <c r="G95" s="17" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
-        <v>833</v>
-      </c>
-      <c r="B96" s="7" t="s">
+      <c r="A96" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="B96" s="5" t="s">
         <v>387</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="D96" s="2">
-        <v>2500</v>
+      <c r="D96" s="15">
+        <v>2500.0000000000005</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>293</v>
@@ -5726,21 +5844,21 @@
       <c r="F96" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G96" s="2" t="s">
+      <c r="G96" s="17" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
-        <v>834</v>
-      </c>
-      <c r="B97" s="7" t="s">
+      <c r="A97" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>408</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97" s="15">
         <v>3000</v>
       </c>
       <c r="E97" s="1" t="s">
@@ -5749,21 +5867,21 @@
       <c r="F97" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G97" s="2" t="s">
+      <c r="G97" s="17" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="B98" s="7" t="s">
+      <c r="A98" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="B98" s="5" t="s">
         <v>387</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98" s="15">
         <v>750</v>
       </c>
       <c r="E98" s="1" t="s">
@@ -5772,21 +5890,21 @@
       <c r="F98" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G98" s="2" t="s">
+      <c r="G98" s="17" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
-        <v>836</v>
-      </c>
-      <c r="B99" s="7" t="s">
+      <c r="A99" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>409</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D99" s="15">
         <v>350</v>
       </c>
       <c r="E99" s="2" t="s">
@@ -5795,21 +5913,21 @@
       <c r="F99" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G99" s="2" t="s">
+      <c r="G99" s="17" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="B100" s="7" t="s">
+      <c r="A100" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>410</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D100" s="15">
         <v>4000</v>
       </c>
       <c r="E100" s="2" t="s">
@@ -5818,22 +5936,22 @@
       <c r="F100" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="G100" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="B101" s="7" t="s">
+      <c r="A101" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>410</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="D101" s="2">
-        <v>3500</v>
+      <c r="D101" s="15">
+        <v>3500.0000000000005</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>298</v>
@@ -5841,21 +5959,21 @@
       <c r="F101" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="G101" s="2" t="s">
+      <c r="G101" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
-        <v>839</v>
-      </c>
-      <c r="B102" s="7" t="s">
+      <c r="A102" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="B102" s="5" t="s">
         <v>388</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D102" s="15">
         <v>2800</v>
       </c>
       <c r="E102" s="1" t="s">
@@ -5864,22 +5982,22 @@
       <c r="F102" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G102" s="2" t="s">
+      <c r="G102" s="17" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="6" t="s">
-        <v>840</v>
-      </c>
-      <c r="B103" s="7" t="s">
+      <c r="A103" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>375</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D103" s="2">
-        <v>1200</v>
+      <c r="D103" s="15">
+        <v>1200.0000000000002</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>300</v>
@@ -5887,22 +6005,22 @@
       <c r="F103" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G103" s="2" t="s">
+      <c r="G103" s="17" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
-        <v>841</v>
-      </c>
-      <c r="B104" s="7" t="s">
+      <c r="A104" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>411</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="D104" s="2">
-        <v>300</v>
+      <c r="D104" s="15">
+        <v>300.00000000000006</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>301</v>
@@ -5910,22 +6028,22 @@
       <c r="F104" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G104" s="2" t="s">
+      <c r="G104" s="17" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="6" t="s">
-        <v>842</v>
-      </c>
-      <c r="B105" s="7" t="s">
+      <c r="A105" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>390</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="D105" s="2">
-        <v>1200</v>
+      <c r="D105" s="15">
+        <v>1200.0000000000002</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>302</v>
@@ -5933,22 +6051,22 @@
       <c r="F105" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G105" s="2" t="s">
+      <c r="G105" s="17" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="6" t="s">
-        <v>843</v>
-      </c>
-      <c r="B106" s="7" t="s">
+      <c r="A106" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="B106" s="5" t="s">
         <v>400</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="D106" s="2">
-        <v>850</v>
+      <c r="D106" s="15">
+        <v>850.00000000000011</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>303</v>
@@ -5956,21 +6074,21 @@
       <c r="F106" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G106" s="2" t="s">
+      <c r="G106" s="17" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="6" t="s">
-        <v>844</v>
-      </c>
-      <c r="B107" s="7" t="s">
+      <c r="A107" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="B107" s="5" t="s">
         <v>375</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107" s="15">
         <v>400</v>
       </c>
       <c r="E107" s="1" t="s">
@@ -5979,22 +6097,22 @@
       <c r="F107" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G107" s="2" t="s">
+      <c r="G107" s="17" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="6" t="s">
-        <v>845</v>
-      </c>
-      <c r="B108" s="7" t="s">
+      <c r="A108" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="B108" s="5" t="s">
         <v>393</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="D108" s="2">
-        <v>2500</v>
+      <c r="D108" s="15">
+        <v>2500.0000000000005</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>305</v>
@@ -6002,21 +6120,21 @@
       <c r="F108" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="G108" s="2" t="s">
+      <c r="G108" s="17" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="6" t="s">
-        <v>846</v>
-      </c>
-      <c r="B109" s="7" t="s">
+      <c r="A109" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="B109" s="5" t="s">
         <v>390</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109" s="15">
         <v>1000</v>
       </c>
       <c r="E109" s="2" t="s">
@@ -6025,21 +6143,21 @@
       <c r="F109" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G109" s="2" t="s">
+      <c r="G109" s="17" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="6" t="s">
-        <v>847</v>
-      </c>
-      <c r="B110" s="7" t="s">
+      <c r="A110" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="B110" s="5" t="s">
         <v>390</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D110" s="15">
         <v>400</v>
       </c>
       <c r="E110" s="2" t="s">
@@ -6048,21 +6166,21 @@
       <c r="F110" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G110" s="2" t="s">
+      <c r="G110" s="17" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="6" t="s">
-        <v>848</v>
-      </c>
-      <c r="B111" s="7" t="s">
+      <c r="A111" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="B111" s="5" t="s">
         <v>390</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D111" s="15">
         <v>1000</v>
       </c>
       <c r="E111" s="2" t="s">
@@ -6071,21 +6189,21 @@
       <c r="F111" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G111" s="2" t="s">
+      <c r="G111" s="17" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="6" t="s">
-        <v>849</v>
-      </c>
-      <c r="B112" s="7" t="s">
+      <c r="A112" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="B112" s="5" t="s">
         <v>390</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="D112" s="2">
+      <c r="D112" s="15">
         <v>750</v>
       </c>
       <c r="E112" s="2" t="s">
@@ -6094,21 +6212,21 @@
       <c r="F112" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="G112" s="2" t="s">
+      <c r="G112" s="17" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="6" t="s">
-        <v>850</v>
-      </c>
-      <c r="B113" s="7" t="s">
+      <c r="A113" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="B113" s="5" t="s">
         <v>403</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D113" s="15">
         <v>4000</v>
       </c>
       <c r="E113" s="1" t="s">
@@ -6117,21 +6235,21 @@
       <c r="F113" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="G113" s="2" t="s">
+      <c r="G113" s="17" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="6" t="s">
-        <v>851</v>
-      </c>
-      <c r="B114" s="7" t="s">
+      <c r="A114" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="B114" s="5" t="s">
         <v>407</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D114" s="15">
         <v>3000</v>
       </c>
       <c r="E114" s="1" t="s">
@@ -6140,21 +6258,21 @@
       <c r="F114" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="G114" s="2" t="s">
+      <c r="G114" s="17" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="6" t="s">
-        <v>852</v>
-      </c>
-      <c r="B115" s="7" t="s">
+      <c r="A115" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="B115" s="5" t="s">
         <v>388</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D115" s="15">
         <v>2000</v>
       </c>
       <c r="E115" s="1" t="s">
@@ -6163,21 +6281,21 @@
       <c r="F115" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G115" s="2" t="s">
+      <c r="G115" s="17" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="6" t="s">
-        <v>853</v>
-      </c>
-      <c r="B116" s="7" t="s">
+      <c r="A116" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="B116" s="5" t="s">
         <v>388</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="D116" s="2">
+      <c r="D116" s="15">
         <v>4000</v>
       </c>
       <c r="E116" s="1" t="s">
@@ -6186,21 +6304,21 @@
       <c r="F116" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G116" s="2" t="s">
+      <c r="G116" s="17" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="6" t="s">
-        <v>854</v>
-      </c>
-      <c r="B117" s="7" t="s">
+      <c r="A117" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="B117" s="5" t="s">
         <v>388</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="D117" s="2">
+      <c r="D117" s="15">
         <v>1800</v>
       </c>
       <c r="E117" s="2" t="s">
@@ -6209,22 +6327,22 @@
       <c r="F117" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G117" s="2" t="s">
+      <c r="G117" s="17" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="6" t="s">
-        <v>855</v>
-      </c>
-      <c r="B118" s="7" t="s">
+      <c r="A118" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="B118" s="5" t="s">
         <v>388</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="D118" s="2">
-        <v>1200</v>
+      <c r="D118" s="15">
+        <v>1200.0000000000002</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>315</v>
@@ -6232,21 +6350,21 @@
       <c r="F118" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G118" s="2" t="s">
+      <c r="G118" s="17" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="6" t="s">
-        <v>856</v>
-      </c>
-      <c r="B119" s="7" t="s">
+      <c r="A119" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="B119" s="5" t="s">
         <v>388</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="D119" s="2">
+      <c r="D119" s="15">
         <v>800</v>
       </c>
       <c r="E119" s="2" t="s">
@@ -6255,21 +6373,21 @@
       <c r="F119" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G119" s="2" t="s">
+      <c r="G119" s="17" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="6" t="s">
-        <v>857</v>
-      </c>
-      <c r="B120" s="7" t="s">
+      <c r="A120" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="B120" s="5" t="s">
         <v>388</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="D120" s="2">
+      <c r="D120" s="15">
         <v>250</v>
       </c>
       <c r="E120" s="2" t="s">
@@ -6278,22 +6396,22 @@
       <c r="F120" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G120" s="2" t="s">
+      <c r="G120" s="17" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="6" t="s">
-        <v>858</v>
-      </c>
-      <c r="B121" s="7" t="s">
+      <c r="A121" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="B121" s="5" t="s">
         <v>388</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="D121" s="2">
-        <v>2500</v>
+      <c r="D121" s="15">
+        <v>2500.0000000000005</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>318</v>
@@ -6301,21 +6419,21 @@
       <c r="F121" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G121" s="2" t="s">
+      <c r="G121" s="17" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="6" t="s">
-        <v>859</v>
-      </c>
-      <c r="B122" s="7" t="s">
+      <c r="A122" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="B122" s="5" t="s">
         <v>388</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="D122" s="2">
+      <c r="D122" s="15">
         <v>800</v>
       </c>
       <c r="E122" s="2" t="s">
@@ -6324,21 +6442,21 @@
       <c r="F122" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G122" s="2" t="s">
+      <c r="G122" s="17" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="6" t="s">
-        <v>860</v>
-      </c>
-      <c r="B123" s="7" t="s">
+      <c r="A123" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="B123" s="5" t="s">
         <v>388</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="D123" s="2">
+      <c r="D123" s="15">
         <v>800</v>
       </c>
       <c r="E123" s="2" t="s">
@@ -6347,21 +6465,21 @@
       <c r="F123" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G123" s="2" t="s">
+      <c r="G123" s="17" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="6" t="s">
-        <v>861</v>
-      </c>
-      <c r="B124" s="7" t="s">
+      <c r="A124" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="B124" s="5" t="s">
         <v>388</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="D124" s="2">
+      <c r="D124" s="15">
         <v>500</v>
       </c>
       <c r="E124" s="2" t="s">
@@ -6370,21 +6488,21 @@
       <c r="F124" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G124" s="2" t="s">
+      <c r="G124" s="17" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="6" t="s">
-        <v>862</v>
-      </c>
-      <c r="B125" s="7" t="s">
+      <c r="A125" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="B125" s="5" t="s">
         <v>410</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="D125" s="2">
+      <c r="D125" s="15">
         <v>2000</v>
       </c>
       <c r="E125" s="2" t="s">
@@ -6393,22 +6511,22 @@
       <c r="F125" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="G125" s="2" t="s">
+      <c r="G125" s="17" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="6" t="s">
-        <v>863</v>
-      </c>
-      <c r="B126" s="7" t="s">
+      <c r="A126" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="B126" s="5" t="s">
         <v>398</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="D126" s="2">
-        <v>1200</v>
+      <c r="D126" s="15">
+        <v>1200.0000000000002</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>323</v>
@@ -6416,22 +6534,22 @@
       <c r="F126" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G126" s="2" t="s">
+      <c r="G126" s="17" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="6" t="s">
-        <v>864</v>
-      </c>
-      <c r="B127" s="7" t="s">
+      <c r="A127" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="B127" s="5" t="s">
         <v>397</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="D127" s="2">
-        <v>5000</v>
+      <c r="D127" s="15">
+        <v>5000.0000000000009</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>324</v>
@@ -6439,21 +6557,21 @@
       <c r="F127" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G127" s="2" t="s">
+      <c r="G127" s="17" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="6" t="s">
-        <v>865</v>
-      </c>
-      <c r="B128" s="7" t="s">
+      <c r="A128" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="B128" s="5" t="s">
         <v>397</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="D128" s="2">
+      <c r="D128" s="15">
         <v>2000</v>
       </c>
       <c r="E128" s="2" t="s">
@@ -6462,21 +6580,21 @@
       <c r="F128" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G128" s="2" t="s">
+      <c r="G128" s="17" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="6" t="s">
-        <v>866</v>
-      </c>
-      <c r="B129" s="7" t="s">
+      <c r="A129" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="B129" s="5" t="s">
         <v>413</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="D129" s="2">
+      <c r="D129" s="15">
         <v>1500</v>
       </c>
       <c r="E129" s="2" t="s">
@@ -6485,21 +6603,21 @@
       <c r="F129" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G129" s="2" t="s">
+      <c r="G129" s="17" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="6" t="s">
-        <v>867</v>
-      </c>
-      <c r="B130" s="7" t="s">
+      <c r="A130" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="B130" s="5" t="s">
         <v>390</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="D130" s="2">
+      <c r="D130" s="15">
         <v>6000</v>
       </c>
       <c r="E130" s="2" t="s">
@@ -6508,22 +6626,22 @@
       <c r="F130" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G130" s="2" t="s">
+      <c r="G130" s="17" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="6" t="s">
-        <v>868</v>
-      </c>
-      <c r="B131" s="7" t="s">
+      <c r="A131" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="B131" s="5" t="s">
         <v>375</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="D131" s="2">
-        <v>300</v>
+      <c r="D131" s="15">
+        <v>300.00000000000006</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>328</v>
@@ -6531,21 +6649,21 @@
       <c r="F131" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G131" s="2" t="s">
+      <c r="G131" s="17" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="6" t="s">
-        <v>869</v>
-      </c>
-      <c r="B132" s="7" t="s">
+      <c r="A132" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="B132" s="5" t="s">
         <v>397</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="D132" s="2">
+      <c r="D132" s="15">
         <v>800</v>
       </c>
       <c r="E132" s="1" t="s">
@@ -6554,21 +6672,21 @@
       <c r="F132" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G132" s="2" t="s">
+      <c r="G132" s="17" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="B133" s="7" t="s">
+      <c r="A133" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="B133" s="5" t="s">
         <v>387</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="D133" s="2">
+      <c r="D133" s="15">
         <v>2000</v>
       </c>
       <c r="E133" s="2" t="s">
@@ -6577,21 +6695,21 @@
       <c r="F133" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G133" s="2" t="s">
+      <c r="G133" s="17" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="6" t="s">
-        <v>871</v>
-      </c>
-      <c r="B134" s="7" t="s">
+      <c r="A134" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="B134" s="5" t="s">
         <v>387</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="D134" s="2">
+      <c r="D134" s="15">
         <v>700</v>
       </c>
       <c r="E134" s="1" t="s">
@@ -6600,21 +6718,21 @@
       <c r="F134" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G134" s="2" t="s">
-        <v>727</v>
+      <c r="G134" s="15" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="6" t="s">
-        <v>872</v>
-      </c>
-      <c r="B135" s="7" t="s">
+      <c r="A135" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="B135" s="5" t="s">
         <v>387</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="D135" s="2">
+      <c r="D135" s="15">
         <v>700</v>
       </c>
       <c r="E135" s="1" t="s">
@@ -6623,21 +6741,21 @@
       <c r="F135" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G135" s="2" t="s">
-        <v>634</v>
+      <c r="G135" s="17" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="6" t="s">
-        <v>873</v>
-      </c>
-      <c r="B136" s="7" t="s">
+      <c r="A136" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="B136" s="5" t="s">
         <v>387</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="D136" s="2">
+      <c r="D136" s="15">
         <v>700</v>
       </c>
       <c r="E136" s="1" t="s">
@@ -6646,21 +6764,21 @@
       <c r="F136" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G136" s="2" t="s">
-        <v>635</v>
+      <c r="G136" s="17" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="6" t="s">
-        <v>874</v>
-      </c>
-      <c r="B137" s="7" t="s">
+      <c r="A137" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="B137" s="5" t="s">
         <v>387</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="D137" s="2">
+      <c r="D137" s="15">
         <v>700</v>
       </c>
       <c r="E137" s="1" t="s">
@@ -6669,21 +6787,21 @@
       <c r="F137" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G137" s="2" t="s">
-        <v>636</v>
+      <c r="G137" s="17" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="6" t="s">
-        <v>875</v>
-      </c>
-      <c r="B138" s="7" t="s">
+      <c r="A138" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="B138" s="5" t="s">
         <v>387</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="D138" s="2">
+      <c r="D138" s="15">
         <v>700</v>
       </c>
       <c r="E138" s="1" t="s">
@@ -6692,22 +6810,22 @@
       <c r="F138" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G138" s="2" t="s">
-        <v>637</v>
+      <c r="G138" s="17" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="6" t="s">
-        <v>876</v>
-      </c>
-      <c r="B139" s="7" t="s">
+      <c r="A139" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="B139" s="5" t="s">
         <v>387</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="D139" s="2">
-        <v>900</v>
+      <c r="D139" s="15">
+        <v>900.00000000000011</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>336</v>
@@ -6715,21 +6833,21 @@
       <c r="F139" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G139" s="2" t="s">
-        <v>638</v>
+      <c r="G139" s="17" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="6" t="s">
-        <v>877</v>
-      </c>
-      <c r="B140" s="7" t="s">
+      <c r="A140" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="B140" s="5" t="s">
         <v>387</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="D140" s="2">
+      <c r="D140" s="15">
         <v>700</v>
       </c>
       <c r="E140" s="1" t="s">
@@ -6738,21 +6856,21 @@
       <c r="F140" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G140" s="2" t="s">
-        <v>639</v>
+      <c r="G140" s="17" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="6" t="s">
-        <v>878</v>
-      </c>
-      <c r="B141" s="7" t="s">
+      <c r="A141" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="B141" s="5" t="s">
         <v>387</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="D141" s="2">
+      <c r="D141" s="15">
         <v>700</v>
       </c>
       <c r="E141" s="1" t="s">
@@ -6761,21 +6879,21 @@
       <c r="F141" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G141" s="2" t="s">
-        <v>640</v>
+      <c r="G141" s="17" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="6" t="s">
-        <v>879</v>
-      </c>
-      <c r="B142" s="7" t="s">
+      <c r="A142" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="B142" s="5" t="s">
         <v>387</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="D142" s="2">
+      <c r="D142" s="15">
         <v>700</v>
       </c>
       <c r="E142" s="1" t="s">
@@ -6784,21 +6902,21 @@
       <c r="F142" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G142" s="2" t="s">
-        <v>641</v>
+      <c r="G142" s="17" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="6" t="s">
-        <v>880</v>
-      </c>
-      <c r="B143" s="7" t="s">
+      <c r="A143" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="B143" s="5" t="s">
         <v>387</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="D143" s="2">
+      <c r="D143" s="15">
         <v>700</v>
       </c>
       <c r="E143" s="1" t="s">
@@ -6807,21 +6925,21 @@
       <c r="F143" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G143" s="2" t="s">
-        <v>642</v>
+      <c r="G143" s="17" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="6" t="s">
-        <v>881</v>
-      </c>
-      <c r="B144" s="7" t="s">
+      <c r="A144" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="B144" s="5" t="s">
         <v>387</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="D144" s="2">
+      <c r="D144" s="15">
         <v>700</v>
       </c>
       <c r="E144" s="1" t="s">
@@ -6830,21 +6948,21 @@
       <c r="F144" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G144" s="2" t="s">
-        <v>643</v>
+      <c r="G144" s="17" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="6" t="s">
-        <v>882</v>
-      </c>
-      <c r="B145" s="7" t="s">
+      <c r="A145" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="B145" s="5" t="s">
         <v>387</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="D145" s="2">
+      <c r="D145" s="15">
         <v>1400</v>
       </c>
       <c r="E145" s="1" t="s">
@@ -6853,21 +6971,21 @@
       <c r="F145" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G145" s="2" t="s">
-        <v>644</v>
+      <c r="G145" s="17" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="6" t="s">
-        <v>883</v>
-      </c>
-      <c r="B146" s="7" t="s">
+      <c r="A146" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="B146" s="5" t="s">
         <v>387</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="D146" s="2">
+      <c r="D146" s="15">
         <v>700</v>
       </c>
       <c r="E146" s="1" t="s">
@@ -6876,21 +6994,21 @@
       <c r="F146" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G146" s="2" t="s">
-        <v>645</v>
+      <c r="G146" s="17" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="6" t="s">
-        <v>884</v>
-      </c>
-      <c r="B147" s="7" t="s">
+      <c r="A147" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="B147" s="5" t="s">
         <v>387</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="D147" s="2">
+      <c r="D147" s="15">
         <v>700</v>
       </c>
       <c r="E147" s="1" t="s">
@@ -6899,21 +7017,21 @@
       <c r="F147" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G147" s="2" t="s">
-        <v>646</v>
+      <c r="G147" s="17" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="6" t="s">
-        <v>885</v>
-      </c>
-      <c r="B148" s="7" t="s">
+      <c r="A148" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="B148" s="5" t="s">
         <v>387</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="D148" s="2">
+      <c r="D148" s="15">
         <v>700</v>
       </c>
       <c r="E148" s="1" t="s">
@@ -6922,21 +7040,21 @@
       <c r="F148" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G148" s="2" t="s">
-        <v>647</v>
+      <c r="G148" s="17" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="6" t="s">
-        <v>886</v>
-      </c>
-      <c r="B149" s="7" t="s">
+      <c r="A149" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="B149" s="5" t="s">
         <v>387</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="D149" s="2">
+      <c r="D149" s="15">
         <v>700</v>
       </c>
       <c r="E149" s="1" t="s">
@@ -6945,21 +7063,21 @@
       <c r="F149" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G149" s="2" t="s">
+      <c r="G149" s="17" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="6" t="s">
-        <v>887</v>
-      </c>
-      <c r="B150" s="7" t="s">
+      <c r="A150" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="B150" s="5" t="s">
         <v>387</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="D150" s="2">
+      <c r="D150" s="15">
         <v>500</v>
       </c>
       <c r="E150" s="1" t="s">
@@ -6968,21 +7086,21 @@
       <c r="F150" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G150" s="2" t="s">
+      <c r="G150" s="17" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="B151" s="7" t="s">
+      <c r="A151" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="B151" s="5" t="s">
         <v>387</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="D151" s="2">
+      <c r="D151" s="15">
         <v>800</v>
       </c>
       <c r="E151" s="1" t="s">
@@ -6991,21 +7109,21 @@
       <c r="F151" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G151" s="2" t="s">
+      <c r="G151" s="17" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="6" t="s">
-        <v>889</v>
-      </c>
-      <c r="B152" s="7" t="s">
+      <c r="A152" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="B152" s="5" t="s">
         <v>387</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="D152" s="2">
+      <c r="D152" s="15">
         <v>800</v>
       </c>
       <c r="E152" s="1" t="s">
@@ -7014,21 +7132,21 @@
       <c r="F152" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G152" s="2" t="s">
+      <c r="G152" s="17" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="6" t="s">
-        <v>890</v>
-      </c>
-      <c r="B153" s="7" t="s">
+      <c r="A153" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="B153" s="5" t="s">
         <v>387</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="D153" s="2">
+      <c r="D153" s="15">
         <v>350</v>
       </c>
       <c r="E153" s="1" t="s">
@@ -7037,22 +7155,22 @@
       <c r="F153" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G153" s="2" t="s">
+      <c r="G153" s="17" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="6" t="s">
-        <v>891</v>
-      </c>
-      <c r="B154" s="7" t="s">
+      <c r="A154" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="B154" s="5" t="s">
         <v>387</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="D154" s="2">
-        <v>2500</v>
+      <c r="D154" s="15">
+        <v>2500.0000000000005</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>351</v>
@@ -7060,22 +7178,22 @@
       <c r="F154" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G154" s="2" t="s">
+      <c r="G154" s="17" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="6" t="s">
-        <v>892</v>
-      </c>
-      <c r="B155" s="7" t="s">
+      <c r="A155" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="B155" s="5" t="s">
         <v>387</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="D155" s="2">
-        <v>600</v>
+      <c r="D155" s="15">
+        <v>600.00000000000011</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>356</v>
@@ -7083,21 +7201,21 @@
       <c r="F155" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G155" s="2" t="s">
+      <c r="G155" s="17" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="6" t="s">
-        <v>893</v>
-      </c>
-      <c r="B156" s="7" t="s">
+      <c r="A156" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="B156" s="5" t="s">
         <v>387</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="D156" s="2">
+      <c r="D156" s="15">
         <v>700</v>
       </c>
       <c r="E156" s="1" t="s">
@@ -7106,21 +7224,21 @@
       <c r="F156" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G156" s="2" t="s">
-        <v>648</v>
+      <c r="G156" s="17" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="6" t="s">
-        <v>894</v>
-      </c>
-      <c r="B157" s="7" t="s">
+      <c r="A157" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="B157" s="5" t="s">
         <v>387</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="D157" s="2">
+      <c r="D157" s="15">
         <v>700</v>
       </c>
       <c r="E157" s="1" t="s">
@@ -7129,21 +7247,21 @@
       <c r="F157" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G157" s="2" t="s">
+      <c r="G157" s="17" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="6" t="s">
-        <v>895</v>
-      </c>
-      <c r="B158" s="7" t="s">
+      <c r="A158" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="B158" s="5" t="s">
         <v>408</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="D158" s="2">
+      <c r="D158" s="15">
         <v>750</v>
       </c>
       <c r="E158" s="1" t="s">
@@ -7152,22 +7270,22 @@
       <c r="F158" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G158" s="2" t="s">
-        <v>649</v>
+      <c r="G158" s="17" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="6" t="s">
-        <v>896</v>
-      </c>
-      <c r="B159" s="7" t="s">
+      <c r="A159" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="B159" s="5" t="s">
         <v>387</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="D159" s="2">
-        <v>1200</v>
+      <c r="D159" s="15">
+        <v>1200.0000000000002</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>355</v>
@@ -7175,22 +7293,22 @@
       <c r="F159" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G159" s="2" t="s">
+      <c r="G159" s="17" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="6" t="s">
-        <v>897</v>
-      </c>
-      <c r="B160" s="7" t="s">
+      <c r="A160" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="B160" s="5" t="s">
         <v>387</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="D160" s="2">
-        <v>600</v>
+      <c r="D160" s="15">
+        <v>600.00000000000011</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>352</v>
@@ -7198,21 +7316,21 @@
       <c r="F160" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G160" s="2" t="s">
+      <c r="G160" s="17" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="6" t="s">
-        <v>898</v>
-      </c>
-      <c r="B161" s="7" t="s">
+      <c r="A161" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="B161" s="5" t="s">
         <v>377</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="D161" s="2">
+      <c r="D161" s="15">
         <v>750</v>
       </c>
       <c r="E161" s="1" t="s">
@@ -7221,21 +7339,21 @@
       <c r="F161" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G161" s="2" t="s">
+      <c r="G161" s="17" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="6" t="s">
-        <v>899</v>
-      </c>
-      <c r="B162" s="7" t="s">
+      <c r="A162" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="B162" s="5" t="s">
         <v>414</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="D162" s="2">
+      <c r="D162" s="15">
         <v>800</v>
       </c>
       <c r="E162" s="1" t="s">
@@ -7244,21 +7362,21 @@
       <c r="F162" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G162" s="2" t="s">
+      <c r="G162" s="17" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="6" t="s">
-        <v>900</v>
-      </c>
-      <c r="B163" s="7" t="s">
+      <c r="A163" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="B163" s="5" t="s">
         <v>403</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="D163" s="2">
+      <c r="D163" s="15">
         <v>1500</v>
       </c>
       <c r="E163" s="1" t="s">
@@ -7267,22 +7385,22 @@
       <c r="F163" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="G163" s="2" t="s">
+      <c r="G163" s="17" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="6" t="s">
-        <v>901</v>
-      </c>
-      <c r="B164" s="7" t="s">
+      <c r="A164" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="B164" s="5" t="s">
         <v>403</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="D164" s="2">
-        <v>1200</v>
+      <c r="D164" s="15">
+        <v>1200.0000000000002</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>360</v>
@@ -7290,21 +7408,21 @@
       <c r="F164" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="G164" s="2" t="s">
+      <c r="G164" s="17" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="6" t="s">
-        <v>902</v>
-      </c>
-      <c r="B165" s="7" t="s">
+      <c r="A165" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="B165" s="5" t="s">
         <v>375</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="D165" s="2">
+      <c r="D165" s="15">
         <v>1500</v>
       </c>
       <c r="E165" s="1" t="s">
@@ -7313,22 +7431,22 @@
       <c r="F165" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G165" s="2" t="s">
+      <c r="G165" s="17" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A166" s="6" t="s">
-        <v>903</v>
-      </c>
-      <c r="B166" s="7" t="s">
+      <c r="A166" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="B166" s="5" t="s">
         <v>415</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="D166" s="2">
-        <v>300</v>
+      <c r="D166" s="15">
+        <v>300.00000000000006</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>362</v>
@@ -7336,21 +7454,21 @@
       <c r="F166" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="G166" s="2" t="s">
+      <c r="G166" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="6" t="s">
-        <v>904</v>
-      </c>
-      <c r="B167" s="7" t="s">
+      <c r="A167" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="B167" s="5" t="s">
         <v>400</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="D167" s="2">
+      <c r="D167" s="15">
         <v>400</v>
       </c>
       <c r="E167" s="1" t="s">
@@ -7359,21 +7477,21 @@
       <c r="F167" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G167" s="2" t="s">
+      <c r="G167" s="17" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="6" t="s">
-        <v>905</v>
-      </c>
-      <c r="B168" s="7" t="s">
+      <c r="A168" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="B168" s="5" t="s">
         <v>400</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="D168" s="2">
+      <c r="D168" s="15">
         <v>500</v>
       </c>
       <c r="E168" s="1" t="s">
@@ -7382,22 +7500,22 @@
       <c r="F168" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G168" s="2" t="s">
+      <c r="G168" s="17" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="6" t="s">
-        <v>906</v>
-      </c>
-      <c r="B169" s="7" t="s">
+      <c r="A169" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="B169" s="5" t="s">
         <v>416</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="D169" s="2">
-        <v>300</v>
+      <c r="D169" s="15">
+        <v>300.00000000000006</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>365</v>
@@ -7405,21 +7523,21 @@
       <c r="F169" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G169" s="2" t="s">
+      <c r="G169" s="17" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="6" t="s">
-        <v>907</v>
-      </c>
-      <c r="B170" s="7" t="s">
+      <c r="A170" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="B170" s="5" t="s">
         <v>375</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="D170" s="2">
+      <c r="D170" s="15">
         <v>400</v>
       </c>
       <c r="E170" s="1" t="s">
@@ -7428,22 +7546,22 @@
       <c r="F170" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G170" s="2" t="s">
+      <c r="G170" s="17" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="6" t="s">
-        <v>908</v>
-      </c>
-      <c r="B171" s="7" t="s">
+      <c r="A171" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="B171" s="5" t="s">
         <v>375</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="D171" s="2">
-        <v>150</v>
+        <v>611</v>
+      </c>
+      <c r="D171" s="15">
+        <v>150.00000000000003</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>367</v>
@@ -7451,22 +7569,22 @@
       <c r="F171" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G171" s="2" t="s">
+      <c r="G171" s="17" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="6" t="s">
-        <v>909</v>
-      </c>
-      <c r="B172" s="7" t="s">
+      <c r="A172" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="B172" s="5" t="s">
         <v>416</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="D172" s="2">
-        <v>150</v>
+        <v>612</v>
+      </c>
+      <c r="D172" s="15">
+        <v>150.00000000000003</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>368</v>
@@ -7474,21 +7592,21 @@
       <c r="F172" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G172" s="2" t="s">
+      <c r="G172" s="17" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="6" t="s">
-        <v>910</v>
-      </c>
-      <c r="B173" s="7" t="s">
+      <c r="A173" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="B173" s="5" t="s">
         <v>401</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="D173" s="2">
+        <v>613</v>
+      </c>
+      <c r="D173" s="15">
         <v>100</v>
       </c>
       <c r="E173" s="1" t="s">
@@ -7497,21 +7615,21 @@
       <c r="F173" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G173" s="2" t="s">
+      <c r="G173" s="17" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="6" t="s">
-        <v>911</v>
-      </c>
-      <c r="B174" s="7" t="s">
+      <c r="A174" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="B174" s="5" t="s">
         <v>417</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="D174" s="2">
+        <v>614</v>
+      </c>
+      <c r="D174" s="15">
         <v>4000</v>
       </c>
       <c r="E174" s="1" t="s">
@@ -7520,21 +7638,21 @@
       <c r="F174" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="G174" s="2" t="s">
+      <c r="G174" s="17" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="6" t="s">
-        <v>912</v>
-      </c>
-      <c r="B175" s="7" t="s">
+      <c r="A175" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="B175" s="5" t="s">
         <v>417</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="D175" s="2">
+        <v>615</v>
+      </c>
+      <c r="D175" s="15">
         <v>1500</v>
       </c>
       <c r="E175" s="1" t="s">
@@ -7543,22 +7661,22 @@
       <c r="F175" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="G175" s="2" t="s">
+      <c r="G175" s="17" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="6" t="s">
-        <v>913</v>
-      </c>
-      <c r="B176" s="7" t="s">
+      <c r="A176" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="B176" s="5" t="s">
         <v>417</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="D176" s="2">
-        <v>2500</v>
+        <v>616</v>
+      </c>
+      <c r="D176" s="15">
+        <v>2500.0000000000005</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>372</v>
@@ -7566,21 +7684,21 @@
       <c r="F176" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="G176" s="2" t="s">
+      <c r="G176" s="17" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="6" t="s">
-        <v>914</v>
-      </c>
-      <c r="B177" s="7" t="s">
+      <c r="A177" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="B177" s="5" t="s">
         <v>394</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="D177" s="2">
+        <v>617</v>
+      </c>
+      <c r="D177" s="15">
         <v>500</v>
       </c>
       <c r="E177" s="1" t="s">
@@ -7589,22 +7707,22 @@
       <c r="F177" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G177" s="2" t="s">
+      <c r="G177" s="17" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="6" t="s">
-        <v>915</v>
-      </c>
-      <c r="B178" s="7" t="s">
+      <c r="A178" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="B178" s="5" t="s">
         <v>394</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D178" s="2">
-        <v>300</v>
+      <c r="D178" s="15">
+        <v>300.00000000000006</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>374</v>
@@ -7612,21 +7730,21 @@
       <c r="F178" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G178" s="2" t="s">
+      <c r="G178" s="17" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="6" t="s">
-        <v>916</v>
-      </c>
-      <c r="B179" s="7" t="s">
+      <c r="A179" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="B179" s="5" t="s">
         <v>418</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D179" s="2">
+      <c r="D179" s="15">
         <v>500</v>
       </c>
       <c r="E179" s="1" t="s">
@@ -7635,22 +7753,22 @@
       <c r="F179" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G179" s="2" t="s">
+      <c r="G179" s="17" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="6" t="s">
-        <v>917</v>
-      </c>
-      <c r="B180" s="7" t="s">
+      <c r="A180" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="B180" s="5" t="s">
         <v>387</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="D180" s="2">
-        <v>2300</v>
+        <v>618</v>
+      </c>
+      <c r="D180" s="19">
+        <v>2800</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>451</v>
@@ -7658,21 +7776,21 @@
       <c r="F180" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G180" s="2" t="s">
+      <c r="G180" s="17" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="6" t="s">
-        <v>918</v>
-      </c>
-      <c r="B181" s="7" t="s">
+      <c r="A181" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="B181" s="5" t="s">
         <v>380</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="D181" s="2">
+        <v>619</v>
+      </c>
+      <c r="D181" s="15">
         <v>1400</v>
       </c>
       <c r="E181" s="1" t="s">
@@ -7681,21 +7799,21 @@
       <c r="F181" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G181" s="2" t="s">
+      <c r="G181" s="17" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A182" s="6" t="s">
-        <v>919</v>
-      </c>
-      <c r="B182" s="7" t="s">
+      <c r="A182" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="B182" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="D182" s="2">
+        <v>620</v>
+      </c>
+      <c r="D182" s="15">
         <v>1575</v>
       </c>
       <c r="E182" s="1" t="s">
@@ -7704,21 +7822,21 @@
       <c r="F182" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G182" s="2" t="s">
-        <v>650</v>
+      <c r="G182" s="17" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A183" s="6" t="s">
-        <v>920</v>
-      </c>
-      <c r="B183" s="7" t="s">
+      <c r="A183" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="B183" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="D183" s="2">
+        <v>620</v>
+      </c>
+      <c r="D183" s="15">
         <v>1485</v>
       </c>
       <c r="E183" s="1" t="s">
@@ -7727,21 +7845,21 @@
       <c r="F183" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G183" s="2" t="s">
-        <v>651</v>
+      <c r="G183" s="17" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A184" s="6" t="s">
-        <v>921</v>
-      </c>
-      <c r="B184" s="7" t="s">
+      <c r="A184" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="B184" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="D184" s="2">
+        <v>620</v>
+      </c>
+      <c r="D184" s="15">
         <v>1260</v>
       </c>
       <c r="E184" s="1" t="s">
@@ -7750,21 +7868,21 @@
       <c r="F184" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G184" s="2" t="s">
-        <v>652</v>
+      <c r="G184" s="17" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A185" s="6" t="s">
-        <v>922</v>
-      </c>
-      <c r="B185" s="7" t="s">
+      <c r="A185" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="B185" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="D185" s="2">
+        <v>620</v>
+      </c>
+      <c r="D185" s="20">
         <v>900</v>
       </c>
       <c r="E185" s="1" t="s">
@@ -7773,21 +7891,21 @@
       <c r="F185" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G185" s="2" t="s">
-        <v>653</v>
+      <c r="G185" s="17" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A186" s="6" t="s">
-        <v>923</v>
-      </c>
-      <c r="B186" s="7" t="s">
+      <c r="A186" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="B186" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="D186" s="2">
+        <v>620</v>
+      </c>
+      <c r="D186" s="15">
         <v>1440</v>
       </c>
       <c r="E186" s="1" t="s">
@@ -7796,21 +7914,21 @@
       <c r="F186" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G186" s="2" t="s">
-        <v>654</v>
+      <c r="G186" s="17" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A187" s="6" t="s">
-        <v>924</v>
-      </c>
-      <c r="B187" s="7" t="s">
+      <c r="A187" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="B187" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="D187" s="2">
+        <v>620</v>
+      </c>
+      <c r="D187" s="15">
         <v>1395</v>
       </c>
       <c r="E187" s="1" t="s">
@@ -7819,21 +7937,21 @@
       <c r="F187" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G187" s="2" t="s">
-        <v>655</v>
+      <c r="G187" s="17" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A188" s="6" t="s">
-        <v>925</v>
-      </c>
-      <c r="B188" s="7" t="s">
+      <c r="A188" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="B188" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="D188" s="2">
+        <v>620</v>
+      </c>
+      <c r="D188" s="15">
         <v>810</v>
       </c>
       <c r="E188" s="1" t="s">
@@ -7842,21 +7960,21 @@
       <c r="F188" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G188" s="2" t="s">
-        <v>656</v>
+      <c r="G188" s="17" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A189" s="6" t="s">
-        <v>926</v>
-      </c>
-      <c r="B189" s="7" t="s">
+      <c r="A189" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="B189" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="D189" s="2">
+        <v>620</v>
+      </c>
+      <c r="D189" s="15">
         <v>1575</v>
       </c>
       <c r="E189" s="1" t="s">
@@ -7865,21 +7983,21 @@
       <c r="F189" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G189" s="2" t="s">
-        <v>657</v>
+      <c r="G189" s="17" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A190" s="6" t="s">
-        <v>927</v>
-      </c>
-      <c r="B190" s="7" t="s">
+      <c r="A190" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="B190" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="D190" s="2">
+        <v>620</v>
+      </c>
+      <c r="D190" s="15">
         <v>1170</v>
       </c>
       <c r="E190" s="1" t="s">
@@ -7888,21 +8006,21 @@
       <c r="F190" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G190" s="2" t="s">
-        <v>658</v>
+      <c r="G190" s="17" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A191" s="6" t="s">
-        <v>928</v>
-      </c>
-      <c r="B191" s="7" t="s">
+      <c r="A191" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="B191" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="D191" s="2">
+        <v>620</v>
+      </c>
+      <c r="D191" s="15">
         <v>810</v>
       </c>
       <c r="E191" s="1" t="s">
@@ -7911,22 +8029,22 @@
       <c r="F191" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G191" s="2" t="s">
-        <v>659</v>
+      <c r="G191" s="17" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A192" s="6" t="s">
-        <v>929</v>
-      </c>
-      <c r="B192" s="7" t="s">
+      <c r="A192" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="B192" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="D192" s="2">
-        <v>855</v>
+        <v>620</v>
+      </c>
+      <c r="D192" s="19">
+        <v>925</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>454</v>
@@ -7934,21 +8052,21 @@
       <c r="F192" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G192" s="2" t="s">
-        <v>660</v>
+      <c r="G192" s="17" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A193" s="6" t="s">
-        <v>930</v>
-      </c>
-      <c r="B193" s="7" t="s">
+      <c r="A193" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="B193" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="D193" s="2">
+      <c r="D193" s="15">
         <v>1260</v>
       </c>
       <c r="E193" s="1" t="s">
@@ -7957,21 +8075,21 @@
       <c r="F193" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G193" s="2" t="s">
-        <v>661</v>
+      <c r="G193" s="17" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A194" s="6" t="s">
-        <v>931</v>
-      </c>
-      <c r="B194" s="7" t="s">
+      <c r="A194" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="B194" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="D194" s="2">
+      <c r="D194" s="15">
         <v>1330</v>
       </c>
       <c r="E194" s="1" t="s">
@@ -7980,21 +8098,21 @@
       <c r="F194" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G194" s="2" t="s">
-        <v>662</v>
+      <c r="G194" s="17" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A195" s="6" t="s">
-        <v>932</v>
-      </c>
-      <c r="B195" s="7" t="s">
+      <c r="A195" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="B195" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="D195" s="2">
+      <c r="D195" s="15">
         <v>665</v>
       </c>
       <c r="E195" s="1" t="s">
@@ -8003,21 +8121,21 @@
       <c r="F195" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G195" s="2" t="s">
-        <v>663</v>
+      <c r="G195" s="17" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A196" s="6" t="s">
-        <v>933</v>
-      </c>
-      <c r="B196" s="7" t="s">
+      <c r="A196" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="B196" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="D196" s="2">
+      <c r="D196" s="15">
         <v>1085</v>
       </c>
       <c r="E196" s="1" t="s">
@@ -8026,21 +8144,21 @@
       <c r="F196" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G196" s="2" t="s">
-        <v>664</v>
+      <c r="G196" s="17" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A197" s="6" t="s">
-        <v>934</v>
-      </c>
-      <c r="B197" s="7" t="s">
+      <c r="A197" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="B197" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="D197" s="2">
+      <c r="D197" s="15">
         <v>875</v>
       </c>
       <c r="E197" s="1" t="s">
@@ -8049,21 +8167,21 @@
       <c r="F197" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G197" s="2" t="s">
-        <v>665</v>
+      <c r="G197" s="17" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A198" s="6" t="s">
-        <v>935</v>
-      </c>
-      <c r="B198" s="7" t="s">
+      <c r="A198" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="B198" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="D198" s="2">
+      <c r="D198" s="15">
         <v>1645</v>
       </c>
       <c r="E198" s="1" t="s">
@@ -8072,21 +8190,21 @@
       <c r="F198" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G198" s="2" t="s">
-        <v>666</v>
+      <c r="G198" s="17" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A199" s="6" t="s">
-        <v>936</v>
-      </c>
-      <c r="B199" s="7" t="s">
+      <c r="A199" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="B199" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="D199" s="2">
+      <c r="D199" s="15">
         <v>980</v>
       </c>
       <c r="E199" s="1" t="s">
@@ -8095,21 +8213,21 @@
       <c r="F199" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G199" s="2" t="s">
-        <v>667</v>
+      <c r="G199" s="17" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A200" s="6" t="s">
-        <v>937</v>
-      </c>
-      <c r="B200" s="7" t="s">
+      <c r="A200" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="B200" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="D200" s="2">
+      <c r="D200" s="15">
         <v>1015</v>
       </c>
       <c r="E200" s="1" t="s">
@@ -8118,21 +8236,21 @@
       <c r="F200" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G200" s="2" t="s">
-        <v>668</v>
+      <c r="G200" s="17" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A201" s="6" t="s">
-        <v>938</v>
-      </c>
-      <c r="B201" s="7" t="s">
+      <c r="A201" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="B201" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="D201" s="2">
+      <c r="D201" s="15">
         <v>595</v>
       </c>
       <c r="E201" s="1" t="s">
@@ -8141,21 +8259,21 @@
       <c r="F201" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G201" s="2" t="s">
-        <v>669</v>
+      <c r="G201" s="17" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A202" s="6" t="s">
-        <v>939</v>
-      </c>
-      <c r="B202" s="7" t="s">
+      <c r="A202" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="B202" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="D202" s="2">
+      <c r="D202" s="15">
         <v>910</v>
       </c>
       <c r="E202" s="1" t="s">
@@ -8164,21 +8282,21 @@
       <c r="F202" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G202" s="2" t="s">
-        <v>670</v>
+      <c r="G202" s="17" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A203" s="6" t="s">
-        <v>940</v>
-      </c>
-      <c r="B203" s="7" t="s">
+      <c r="A203" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="B203" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="D203" s="2">
+      <c r="D203" s="15">
         <v>595</v>
       </c>
       <c r="E203" s="1" t="s">
@@ -8187,21 +8305,21 @@
       <c r="F203" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G203" s="2" t="s">
-        <v>671</v>
+      <c r="G203" s="17" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A204" s="6" t="s">
-        <v>941</v>
-      </c>
-      <c r="B204" s="7" t="s">
+      <c r="A204" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="B204" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="D204" s="2">
+        <v>621</v>
+      </c>
+      <c r="D204" s="15">
         <v>768</v>
       </c>
       <c r="E204" s="1" t="s">
@@ -8210,21 +8328,21 @@
       <c r="F204" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G204" s="2" t="s">
-        <v>672</v>
+      <c r="G204" s="17" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A205" s="6" t="s">
-        <v>942</v>
-      </c>
-      <c r="B205" s="7" t="s">
+      <c r="A205" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="B205" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="D205" s="2">
+        <v>621</v>
+      </c>
+      <c r="D205" s="15">
         <v>1120</v>
       </c>
       <c r="E205" s="1" t="s">
@@ -8233,21 +8351,21 @@
       <c r="F205" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G205" s="2" t="s">
-        <v>673</v>
+      <c r="G205" s="17" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A206" s="6" t="s">
-        <v>943</v>
-      </c>
-      <c r="B206" s="7" t="s">
+      <c r="A206" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="B206" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="D206" s="2">
+        <v>621</v>
+      </c>
+      <c r="D206" s="15">
         <v>1856</v>
       </c>
       <c r="E206" s="1" t="s">
@@ -8256,21 +8374,21 @@
       <c r="F206" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G206" s="2" t="s">
-        <v>674</v>
+      <c r="G206" s="17" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A207" s="6" t="s">
-        <v>944</v>
-      </c>
-      <c r="B207" s="7" t="s">
+      <c r="A207" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="B207" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="D207" s="2">
+        <v>621</v>
+      </c>
+      <c r="D207" s="15">
         <v>864</v>
       </c>
       <c r="E207" s="1" t="s">
@@ -8279,21 +8397,21 @@
       <c r="F207" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G207" s="2" t="s">
-        <v>675</v>
+      <c r="G207" s="17" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A208" s="6" t="s">
-        <v>945</v>
-      </c>
-      <c r="B208" s="7" t="s">
+      <c r="A208" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="B208" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="D208" s="2">
+        <v>621</v>
+      </c>
+      <c r="D208" s="15">
         <v>1280</v>
       </c>
       <c r="E208" s="1" t="s">
@@ -8302,21 +8420,21 @@
       <c r="F208" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G208" s="2" t="s">
-        <v>676</v>
+      <c r="G208" s="17" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A209" s="6" t="s">
-        <v>946</v>
-      </c>
-      <c r="B209" s="7" t="s">
+      <c r="A209" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="B209" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="D209" s="2">
+        <v>621</v>
+      </c>
+      <c r="D209" s="15">
         <v>896</v>
       </c>
       <c r="E209" s="1" t="s">
@@ -8325,21 +8443,21 @@
       <c r="F209" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G209" s="2" t="s">
-        <v>677</v>
+      <c r="G209" s="17" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A210" s="6" t="s">
-        <v>947</v>
-      </c>
-      <c r="B210" s="7" t="s">
+      <c r="A210" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="B210" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="D210" s="2">
+        <v>621</v>
+      </c>
+      <c r="D210" s="15">
         <v>2112</v>
       </c>
       <c r="E210" s="1" t="s">
@@ -8348,21 +8466,21 @@
       <c r="F210" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G210" s="2" t="s">
-        <v>678</v>
+      <c r="G210" s="17" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A211" s="6" t="s">
-        <v>948</v>
-      </c>
-      <c r="B211" s="7" t="s">
+      <c r="A211" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="B211" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="D211" s="2">
+        <v>621</v>
+      </c>
+      <c r="D211" s="15">
         <v>1888</v>
       </c>
       <c r="E211" s="1" t="s">
@@ -8371,21 +8489,21 @@
       <c r="F211" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G211" s="2" t="s">
-        <v>679</v>
+      <c r="G211" s="17" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A212" s="6" t="s">
-        <v>949</v>
-      </c>
-      <c r="B212" s="7" t="s">
+      <c r="A212" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="B212" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="D212" s="2">
+        <v>621</v>
+      </c>
+      <c r="D212" s="21">
         <v>1125</v>
       </c>
       <c r="E212" s="1" t="s">
@@ -8394,21 +8512,21 @@
       <c r="F212" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G212" s="2" t="s">
-        <v>680</v>
+      <c r="G212" s="17" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A213" s="6" t="s">
-        <v>950</v>
-      </c>
-      <c r="B213" s="7" t="s">
+      <c r="A213" s="4" t="s">
+        <v>943</v>
+      </c>
+      <c r="B213" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="D213" s="2">
+        <v>621</v>
+      </c>
+      <c r="D213" s="15">
         <v>1088</v>
       </c>
       <c r="E213" s="1" t="s">
@@ -8417,21 +8535,21 @@
       <c r="F213" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G213" s="2" t="s">
-        <v>681</v>
+      <c r="G213" s="17" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A214" s="6" t="s">
-        <v>951</v>
-      </c>
-      <c r="B214" s="7" t="s">
+      <c r="A214" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="B214" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="D214" s="2">
+        <v>621</v>
+      </c>
+      <c r="D214" s="15">
         <v>800</v>
       </c>
       <c r="E214" s="1" t="s">
@@ -8440,21 +8558,21 @@
       <c r="F214" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G214" s="2" t="s">
-        <v>682</v>
+      <c r="G214" s="17" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A215" s="6" t="s">
-        <v>952</v>
-      </c>
-      <c r="B215" s="7" t="s">
+      <c r="A215" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="B215" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="D215" s="2">
+        <v>621</v>
+      </c>
+      <c r="D215" s="15">
         <v>800</v>
       </c>
       <c r="E215" s="1" t="s">
@@ -8463,21 +8581,21 @@
       <c r="F215" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G215" s="2" t="s">
-        <v>683</v>
+      <c r="G215" s="17" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A216" s="6" t="s">
-        <v>953</v>
-      </c>
-      <c r="B216" s="7" t="s">
+      <c r="A216" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="B216" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="D216" s="2">
+        <v>622</v>
+      </c>
+      <c r="D216" s="15">
         <v>950</v>
       </c>
       <c r="E216" s="1" t="s">
@@ -8486,21 +8604,21 @@
       <c r="F216" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G216" s="2" t="s">
-        <v>684</v>
+      <c r="G216" s="17" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A217" s="6" t="s">
-        <v>954</v>
-      </c>
-      <c r="B217" s="7" t="s">
+      <c r="A217" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="B217" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="D217" s="2">
+        <v>622</v>
+      </c>
+      <c r="D217" s="15">
         <v>576</v>
       </c>
       <c r="E217" s="1" t="s">
@@ -8509,21 +8627,21 @@
       <c r="F217" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G217" s="2" t="s">
-        <v>685</v>
+      <c r="G217" s="17" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A218" s="6" t="s">
-        <v>955</v>
-      </c>
-      <c r="B218" s="7" t="s">
+      <c r="A218" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="B218" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="D218" s="2">
+        <v>622</v>
+      </c>
+      <c r="D218" s="15">
         <v>925</v>
       </c>
       <c r="E218" s="1" t="s">
@@ -8532,21 +8650,21 @@
       <c r="F218" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G218" s="2" t="s">
-        <v>686</v>
+      <c r="G218" s="17" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A219" s="6" t="s">
-        <v>956</v>
-      </c>
-      <c r="B219" s="7" t="s">
+      <c r="A219" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="B219" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="D219" s="2">
+        <v>622</v>
+      </c>
+      <c r="D219" s="15">
         <v>725</v>
       </c>
       <c r="E219" s="1" t="s">
@@ -8555,21 +8673,21 @@
       <c r="F219" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G219" s="2" t="s">
-        <v>687</v>
+      <c r="G219" s="17" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A220" s="6" t="s">
-        <v>957</v>
-      </c>
-      <c r="B220" s="7" t="s">
+      <c r="A220" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="B220" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="D220" s="2">
+        <v>622</v>
+      </c>
+      <c r="D220" s="15">
         <v>750</v>
       </c>
       <c r="E220" s="1" t="s">
@@ -8578,21 +8696,21 @@
       <c r="F220" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G220" s="2" t="s">
-        <v>688</v>
+      <c r="G220" s="17" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A221" s="6" t="s">
-        <v>958</v>
-      </c>
-      <c r="B221" s="7" t="s">
+      <c r="A221" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="B221" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="D221" s="2">
+        <v>622</v>
+      </c>
+      <c r="D221" s="15">
         <v>1100</v>
       </c>
       <c r="E221" s="1" t="s">
@@ -8601,21 +8719,21 @@
       <c r="F221" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G221" s="2" t="s">
-        <v>689</v>
+      <c r="G221" s="17" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A222" s="6" t="s">
-        <v>959</v>
-      </c>
-      <c r="B222" s="7" t="s">
+      <c r="A222" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="B222" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="D222" s="2">
+        <v>622</v>
+      </c>
+      <c r="D222" s="15">
         <v>1225</v>
       </c>
       <c r="E222" s="1" t="s">
@@ -8624,19 +8742,19 @@
       <c r="F222" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G222" s="2" t="s">
-        <v>690</v>
+      <c r="G222" s="17" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A223" s="6" t="s">
-        <v>960</v>
-      </c>
-      <c r="B223" s="7" t="s">
+      <c r="A223" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="B223" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C223" s="2"/>
-      <c r="D223" s="2">
+      <c r="D223" s="15">
         <v>495</v>
       </c>
       <c r="E223" s="1" t="s">
@@ -8645,19 +8763,19 @@
       <c r="F223" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G223" s="2" t="s">
-        <v>691</v>
+      <c r="G223" s="17" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A224" s="6" t="s">
-        <v>961</v>
-      </c>
-      <c r="B224" s="7" t="s">
+      <c r="A224" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="B224" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C224" s="2"/>
-      <c r="D224" s="2">
+      <c r="D224" s="15">
         <v>950</v>
       </c>
       <c r="E224" s="1" t="s">
@@ -8666,21 +8784,21 @@
       <c r="F224" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G224" s="2" t="s">
-        <v>692</v>
+      <c r="G224" s="17" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A225" s="6" t="s">
-        <v>962</v>
-      </c>
-      <c r="B225" s="7" t="s">
+      <c r="A225" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="B225" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="D225" s="2">
+      <c r="D225" s="15">
         <v>2345</v>
       </c>
       <c r="E225" s="1" t="s">
@@ -8689,21 +8807,21 @@
       <c r="F225" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G225" s="2" t="s">
-        <v>693</v>
+      <c r="G225" s="17" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A226" s="6" t="s">
-        <v>963</v>
-      </c>
-      <c r="B226" s="7" t="s">
+      <c r="A226" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="B226" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="D226" s="2">
+      <c r="D226" s="15">
         <v>2380</v>
       </c>
       <c r="E226" s="1" t="s">
@@ -8712,21 +8830,21 @@
       <c r="F226" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G226" s="2" t="s">
-        <v>694</v>
+      <c r="G226" s="17" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A227" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="B227" s="7" t="s">
+      <c r="A227" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="B227" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="D227" s="2">
+      <c r="D227" s="15">
         <v>3570</v>
       </c>
       <c r="E227" s="1" t="s">
@@ -8735,21 +8853,21 @@
       <c r="F227" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G227" s="2" t="s">
-        <v>695</v>
+      <c r="G227" s="17" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A228" s="6" t="s">
-        <v>965</v>
-      </c>
-      <c r="B228" s="7" t="s">
+      <c r="A228" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="B228" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="D228" s="2">
+      <c r="D228" s="15">
         <v>1645</v>
       </c>
       <c r="E228" s="1" t="s">
@@ -8758,21 +8876,21 @@
       <c r="F228" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G228" s="2" t="s">
-        <v>696</v>
+      <c r="G228" s="17" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A229" s="6" t="s">
-        <v>966</v>
-      </c>
-      <c r="B229" s="7" t="s">
+      <c r="A229" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="B229" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="D229" s="2">
+      <c r="D229" s="15">
         <v>1610</v>
       </c>
       <c r="E229" s="1" t="s">
@@ -8781,21 +8899,21 @@
       <c r="F229" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G229" s="2" t="s">
-        <v>697</v>
+      <c r="G229" s="17" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A230" s="6" t="s">
-        <v>967</v>
-      </c>
-      <c r="B230" s="7" t="s">
+      <c r="A230" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="B230" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="D230" s="2">
+      <c r="D230" s="21">
         <v>1600</v>
       </c>
       <c r="E230" s="1" t="s">
@@ -8804,21 +8922,21 @@
       <c r="F230" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G230" s="2" t="s">
-        <v>698</v>
+      <c r="G230" s="17" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A231" s="6" t="s">
-        <v>968</v>
-      </c>
-      <c r="B231" s="7" t="s">
+      <c r="A231" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="B231" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="D231" s="2">
+      <c r="D231" s="15">
         <v>945</v>
       </c>
       <c r="E231" s="1" t="s">
@@ -8827,21 +8945,21 @@
       <c r="F231" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G231" s="2" t="s">
-        <v>699</v>
+      <c r="G231" s="17" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A232" s="6" t="s">
-        <v>969</v>
-      </c>
-      <c r="B232" s="7" t="s">
+      <c r="A232" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="B232" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="D232" s="2">
+        <v>623</v>
+      </c>
+      <c r="D232" s="15">
         <v>1990</v>
       </c>
       <c r="E232" s="1" t="s">
@@ -8850,21 +8968,21 @@
       <c r="F232" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G232" s="2" t="s">
-        <v>700</v>
+      <c r="G232" s="17" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A233" s="6" t="s">
-        <v>970</v>
-      </c>
-      <c r="B233" s="7" t="s">
+      <c r="A233" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="B233" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="D233" s="2">
+        <v>624</v>
+      </c>
+      <c r="D233" s="21">
         <v>1700</v>
       </c>
       <c r="E233" s="1" t="s">
@@ -8873,21 +8991,21 @@
       <c r="F233" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G233" s="2" t="s">
-        <v>701</v>
+      <c r="G233" s="17" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A234" s="6" t="s">
-        <v>971</v>
-      </c>
-      <c r="B234" s="7" t="s">
+      <c r="A234" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="B234" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="D234" s="2">
+        <v>624</v>
+      </c>
+      <c r="D234" s="15">
         <v>1190</v>
       </c>
       <c r="E234" s="1" t="s">
@@ -8896,21 +9014,21 @@
       <c r="F234" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G234" s="2" t="s">
-        <v>702</v>
+      <c r="G234" s="17" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A235" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="B235" s="7" t="s">
+      <c r="A235" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="B235" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="D235" s="2">
+        <v>624</v>
+      </c>
+      <c r="D235" s="15">
         <v>940</v>
       </c>
       <c r="E235" s="1" t="s">
@@ -8919,22 +9037,22 @@
       <c r="F235" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G235" s="2" t="s">
-        <v>703</v>
+      <c r="G235" s="17" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A236" s="6" t="s">
-        <v>973</v>
-      </c>
-      <c r="B236" s="7" t="s">
+      <c r="A236" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="B236" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="D236" s="2">
-        <v>1040</v>
+        <v>624</v>
+      </c>
+      <c r="D236" s="19">
+        <v>600</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>453</v>
@@ -8942,22 +9060,22 @@
       <c r="F236" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G236" s="2" t="s">
-        <v>704</v>
+      <c r="G236" s="17" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A237" s="6" t="s">
-        <v>974</v>
-      </c>
-      <c r="B237" s="7" t="s">
+      <c r="A237" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="B237" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="D237" s="2">
-        <v>880</v>
+        <v>624</v>
+      </c>
+      <c r="D237" s="19">
+        <v>400</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>454</v>
@@ -8965,22 +9083,22 @@
       <c r="F237" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G237" s="2" t="s">
-        <v>705</v>
+      <c r="G237" s="17" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A238" s="6" t="s">
-        <v>975</v>
-      </c>
-      <c r="B238" s="7" t="s">
+      <c r="A238" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="B238" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="D238" s="2">
-        <v>540</v>
+        <v>624</v>
+      </c>
+      <c r="D238" s="19">
+        <v>250</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>455</v>
@@ -8988,22 +9106,22 @@
       <c r="F238" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G238" s="2" t="s">
-        <v>706</v>
+      <c r="G238" s="17" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A239" s="6" t="s">
-        <v>976</v>
-      </c>
-      <c r="B239" s="7" t="s">
+      <c r="A239" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="B239" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="D239" s="2">
-        <v>800</v>
+        <v>624</v>
+      </c>
+      <c r="D239" s="19">
+        <v>500</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>456</v>
@@ -9011,22 +9129,22 @@
       <c r="F239" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G239" s="2" t="s">
-        <v>707</v>
+      <c r="G239" s="17" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A240" s="6" t="s">
-        <v>977</v>
-      </c>
-      <c r="B240" s="7" t="s">
+      <c r="A240" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="B240" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="D240" s="2">
-        <v>1670</v>
+        <v>624</v>
+      </c>
+      <c r="D240" s="19">
+        <v>900</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>457</v>
@@ -9034,22 +9152,22 @@
       <c r="F240" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G240" s="2" t="s">
-        <v>708</v>
+      <c r="G240" s="17" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A241" s="6" t="s">
-        <v>978</v>
-      </c>
-      <c r="B241" s="7" t="s">
+      <c r="A241" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="B241" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="D241" s="2">
-        <v>2550</v>
+        <v>624</v>
+      </c>
+      <c r="D241" s="19">
+        <v>3500</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>458</v>
@@ -9057,21 +9175,21 @@
       <c r="F241" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G241" s="2" t="s">
-        <v>709</v>
+      <c r="G241" s="17" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A242" s="6" t="s">
-        <v>979</v>
-      </c>
-      <c r="B242" s="7" t="s">
+      <c r="A242" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="B242" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="D242" s="2">
+        <v>624</v>
+      </c>
+      <c r="D242" s="15">
         <v>2400</v>
       </c>
       <c r="E242" s="1" t="s">
@@ -9080,21 +9198,21 @@
       <c r="F242" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G242" s="2" t="s">
-        <v>710</v>
+      <c r="G242" s="17" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A243" s="6" t="s">
-        <v>980</v>
-      </c>
-      <c r="B243" s="7" t="s">
+      <c r="A243" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="B243" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="D243" s="2">
+      <c r="D243" s="21">
         <v>2500</v>
       </c>
       <c r="E243" s="1" t="s">
@@ -9103,21 +9221,21 @@
       <c r="F243" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G243" s="2" t="s">
-        <v>711</v>
+      <c r="G243" s="17" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A244" s="6" t="s">
-        <v>981</v>
-      </c>
-      <c r="B244" s="7" t="s">
+      <c r="A244" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="B244" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="D244" s="2">
+      <c r="D244" s="21">
         <v>800</v>
       </c>
       <c r="E244" s="1" t="s">
@@ -9126,22 +9244,22 @@
       <c r="F244" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G244" s="2" t="s">
-        <v>712</v>
+      <c r="G244" s="17" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A245" s="6" t="s">
-        <v>982</v>
-      </c>
-      <c r="B245" s="7" t="s">
+      <c r="A245" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="B245" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="D245" s="2">
-        <v>5625</v>
+        <v>625</v>
+      </c>
+      <c r="D245" s="19">
+        <v>2800</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>453</v>
@@ -9149,22 +9267,22 @@
       <c r="F245" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G245" s="2" t="s">
-        <v>713</v>
+      <c r="G245" s="17" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A246" s="6" t="s">
-        <v>983</v>
-      </c>
-      <c r="B246" s="7" t="s">
+      <c r="A246" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="B246" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="D246" s="2">
-        <v>540</v>
+        <v>625</v>
+      </c>
+      <c r="D246" s="19">
+        <v>800</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>454</v>
@@ -9172,21 +9290,21 @@
       <c r="F246" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G246" s="2" t="s">
-        <v>714</v>
+      <c r="G246" s="17" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A247" s="6" t="s">
-        <v>984</v>
-      </c>
-      <c r="B247" s="7" t="s">
+      <c r="A247" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="B247" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="D247" s="2">
+        <v>625</v>
+      </c>
+      <c r="D247" s="15">
         <v>750</v>
       </c>
       <c r="E247" s="1" t="s">
@@ -9195,21 +9313,21 @@
       <c r="F247" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G247" s="2" t="s">
-        <v>715</v>
+      <c r="G247" s="17" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A248" s="6" t="s">
-        <v>985</v>
-      </c>
-      <c r="B248" s="7" t="s">
+      <c r="A248" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="B248" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="D248" s="2">
+        <v>626</v>
+      </c>
+      <c r="D248" s="15">
         <v>1200</v>
       </c>
       <c r="E248" s="1" t="s">
@@ -9218,22 +9336,22 @@
       <c r="F248" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G248" s="2" t="s">
-        <v>716</v>
+      <c r="G248" s="17" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A249" s="6" t="s">
-        <v>986</v>
-      </c>
-      <c r="B249" s="7" t="s">
+      <c r="A249" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="B249" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="D249" s="2">
-        <v>1000</v>
+        <v>626</v>
+      </c>
+      <c r="D249" s="19">
+        <v>600</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>457</v>
@@ -9241,21 +9359,21 @@
       <c r="F249" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G249" s="2" t="s">
-        <v>717</v>
+      <c r="G249" s="17" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A250" s="6" t="s">
-        <v>987</v>
-      </c>
-      <c r="B250" s="7" t="s">
+      <c r="A250" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="B250" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="D250" s="2">
+        <v>626</v>
+      </c>
+      <c r="D250" s="15">
         <v>1800</v>
       </c>
       <c r="E250" s="1" t="s">
@@ -9264,21 +9382,21 @@
       <c r="F250" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G250" s="2" t="s">
-        <v>718</v>
+      <c r="G250" s="17" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A251" s="6" t="s">
-        <v>988</v>
-      </c>
-      <c r="B251" s="7" t="s">
+      <c r="A251" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="B251" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="D251" s="2">
+        <v>626</v>
+      </c>
+      <c r="D251" s="15">
         <v>1500</v>
       </c>
       <c r="E251" s="1" t="s">
@@ -9287,21 +9405,21 @@
       <c r="F251" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G251" s="2" t="s">
-        <v>719</v>
+      <c r="G251" s="17" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A252" s="6" t="s">
-        <v>989</v>
-      </c>
-      <c r="B252" s="7" t="s">
+      <c r="A252" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="B252" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="D252" s="2">
+        <v>626</v>
+      </c>
+      <c r="D252" s="15">
         <v>700</v>
       </c>
       <c r="E252" s="1" t="s">
@@ -9310,22 +9428,22 @@
       <c r="F252" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G252" s="2" t="s">
-        <v>720</v>
+      <c r="G252" s="17" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A253" s="6" t="s">
-        <v>990</v>
-      </c>
-      <c r="B253" s="7" t="s">
+      <c r="A253" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="B253" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="D253" s="2">
-        <v>940</v>
+        <v>626</v>
+      </c>
+      <c r="D253" s="15">
+        <v>500</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>461</v>
@@ -9333,22 +9451,22 @@
       <c r="F253" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G253" s="2" t="s">
-        <v>721</v>
+      <c r="G253" s="17" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A254" s="6" t="s">
-        <v>991</v>
-      </c>
-      <c r="B254" s="7" t="s">
+      <c r="A254" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="B254" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="D254" s="2">
-        <v>1300</v>
+        <v>626</v>
+      </c>
+      <c r="D254" s="19">
+        <v>1000</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>453</v>
@@ -9356,21 +9474,21 @@
       <c r="F254" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G254" s="2" t="s">
-        <v>722</v>
+      <c r="G254" s="17" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A255" s="6" t="s">
-        <v>992</v>
-      </c>
-      <c r="B255" s="7" t="s">
+      <c r="A255" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="B255" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="D255" s="2">
+        <v>627</v>
+      </c>
+      <c r="D255" s="15">
         <v>2000</v>
       </c>
       <c r="E255" s="1" t="s">
@@ -9379,22 +9497,22 @@
       <c r="F255" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G255" s="2" t="s">
-        <v>723</v>
+      <c r="G255" s="17" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="256" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A256" s="6" t="s">
-        <v>993</v>
-      </c>
-      <c r="B256" s="7" t="s">
+      <c r="A256" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="B256" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="D256" s="2">
-        <v>1400</v>
+        <v>627</v>
+      </c>
+      <c r="D256" s="15">
+        <v>700</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>455</v>
@@ -9402,22 +9520,22 @@
       <c r="F256" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G256" s="2" t="s">
-        <v>724</v>
+      <c r="G256" s="17" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A257" s="6" t="s">
-        <v>994</v>
-      </c>
-      <c r="B257" s="7" t="s">
+      <c r="A257" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="B257" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="D257" s="2">
-        <v>2560</v>
+        <v>627</v>
+      </c>
+      <c r="D257" s="19">
+        <v>500</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>456</v>
@@ -9425,22 +9543,22 @@
       <c r="F257" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G257" s="2" t="s">
-        <v>725</v>
+      <c r="G257" s="17" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A258" s="6" t="s">
-        <v>995</v>
-      </c>
-      <c r="B258" s="7" t="s">
+      <c r="A258" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="B258" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="D258" s="2">
-        <v>100</v>
+        <v>627</v>
+      </c>
+      <c r="D258" s="19">
+        <v>300</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>457</v>
@@ -9448,122 +9566,140 @@
       <c r="F258" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G258" s="2" t="s">
-        <v>726</v>
+      <c r="G258" s="17" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A259" s="6" t="s">
-        <v>996</v>
+      <c r="A259" s="4" t="s">
+        <v>989</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>401</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="D259" s="6" t="s">
         <v>729</v>
       </c>
+      <c r="D259" s="19">
+        <v>800</v>
+      </c>
       <c r="E259" s="1" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G259" s="2" t="s">
+      <c r="G259" s="15" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="B260" s="2" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A260" s="6" t="s">
-        <v>997</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>735</v>
-      </c>
       <c r="C260" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="D260" s="6" t="s">
-        <v>731</v>
+        <v>730</v>
+      </c>
+      <c r="D260" s="19">
+        <v>5000</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="G260" s="2" t="s">
-        <v>730</v>
+        <v>727</v>
+      </c>
+      <c r="G260" s="15" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A261" s="6" t="s">
-        <v>998</v>
+      <c r="A261" s="4" t="s">
+        <v>991</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>417</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="D261" s="6" t="s">
-        <v>733</v>
+        <v>731</v>
+      </c>
+      <c r="D261" s="19">
+        <v>900</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="G261" s="2" t="s">
-        <v>732</v>
+      <c r="G261" s="17" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A262" s="12" t="s">
-        <v>999</v>
-      </c>
-      <c r="B262" s="13" t="s">
+      <c r="A262" s="10" t="s">
+        <v>992</v>
+      </c>
+      <c r="B262" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="C262" s="14" t="s">
+      <c r="C262" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="D262" s="15">
+      <c r="D262" s="19">
         <v>1200</v>
       </c>
-      <c r="E262" s="16" t="s">
+      <c r="E262" s="13" t="s">
         <v>449</v>
       </c>
-      <c r="F262" s="14" t="s">
+      <c r="F262" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="G262" s="14" t="s">
-        <v>611</v>
+      <c r="G262" s="15" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A263" s="6"/>
-      <c r="E263" s="10"/>
+      <c r="A263" s="4"/>
+      <c r="E263" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G262" xr:uid="{98041684-60AD-4B6B-B652-1A806A9CDDBF}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G258">
-    <cfRule type="duplicateValues" dxfId="3" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G262">
+    <cfRule type="duplicateValues" dxfId="10" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G134">
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G259">
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G260">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G262">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="26"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E116" r:id="rId1" display="https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/115.jpeg" xr:uid="{9549F0E1-BCB2-4457-9DDF-9A7137E9809C}"/>

--- a/Gallery.xlsx
+++ b/Gallery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelaziz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43598ED-2CCF-4B1C-AF8A-3A975AD294DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB56FB1-69ED-4417-B382-37141CA23933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="1000">
   <si>
     <t>Number</t>
   </si>
@@ -3009,9 +3009,6 @@
     <t>1000000262</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/Logo2.png</t>
-  </si>
-  <si>
     <t>لوحة فنية مغربي عمودي تشكيلي كبير  1</t>
   </si>
   <si>
@@ -3022,6 +3019,15 @@
   </si>
   <si>
     <t>طقم كراسي خسبية هندية / 4</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/261.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/260.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/259.jpeg</t>
   </si>
 </sst>
 </file>
@@ -3133,7 +3139,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3188,6 +3194,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3625,7 +3634,7 @@
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E275" sqref="E275"/>
+      <selection pane="bottomLeft" activeCell="E269" sqref="E269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6719,7 +6728,7 @@
         <v>180</v>
       </c>
       <c r="G134" s="15" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -9583,14 +9592,14 @@
       <c r="D259" s="19">
         <v>800</v>
       </c>
-      <c r="E259" s="1" t="s">
-        <v>993</v>
+      <c r="E259" s="22" t="s">
+        <v>999</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>191</v>
       </c>
       <c r="G259" s="15" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -9606,14 +9615,14 @@
       <c r="D260" s="19">
         <v>5000</v>
       </c>
-      <c r="E260" s="1" t="s">
-        <v>993</v>
+      <c r="E260" s="22" t="s">
+        <v>998</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>727</v>
       </c>
       <c r="G260" s="15" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -9629,8 +9638,8 @@
       <c r="D261" s="19">
         <v>900</v>
       </c>
-      <c r="E261" s="2" t="s">
-        <v>993</v>
+      <c r="E261" s="22" t="s">
+        <v>997</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>210</v>
@@ -9659,7 +9668,7 @@
         <v>198</v>
       </c>
       <c r="G262" s="15" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -9843,6 +9852,9 @@
     <hyperlink ref="E257" r:id="rId139" xr:uid="{5728F092-DAB2-476F-A11F-CC4CA7FE88BB}"/>
     <hyperlink ref="E258" r:id="rId140" xr:uid="{451646C2-0BF4-4D56-9C47-57DAAEFDF034}"/>
     <hyperlink ref="E262" r:id="rId141" xr:uid="{EC9B3D09-D20A-41B8-819A-21A9B2D96CB9}"/>
+    <hyperlink ref="E261" r:id="rId142" xr:uid="{97A24CAF-0D42-404D-ACE8-E1F97CA8E4A8}"/>
+    <hyperlink ref="E260" r:id="rId143" xr:uid="{7D139951-9CB1-4E71-9200-799E4B3BCCA8}"/>
+    <hyperlink ref="E259" r:id="rId144" xr:uid="{8B5CE89F-018E-42D1-9E39-9AE11D7A0812}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Gallery.xlsx
+++ b/Gallery.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelaziz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB56FB1-69ED-4417-B382-37141CA23933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8DDE82-9433-4295-9D3D-147AE5052B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -3632,9 +3632,9 @@
   <dimension ref="A1:G263"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E269" sqref="E269"/>
+      <selection pane="bottomLeft" activeCell="D179" sqref="D179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3706,7 +3706,7 @@
         <v>471</v>
       </c>
       <c r="D3" s="15">
-        <v>1750.0000000000002</v>
+        <v>1750</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>4</v>
@@ -3844,7 +3844,7 @@
         <v>385</v>
       </c>
       <c r="D9" s="15">
-        <v>900.00000000000011</v>
+        <v>900</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
@@ -3867,7 +3867,7 @@
         <v>386</v>
       </c>
       <c r="D10" s="15">
-        <v>2500.0000000000005</v>
+        <v>2500</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>15</v>
@@ -3913,7 +3913,7 @@
         <v>476</v>
       </c>
       <c r="D12" s="15">
-        <v>1750.0000000000002</v>
+        <v>1750</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>17</v>
@@ -3936,7 +3936,7 @@
         <v>477</v>
       </c>
       <c r="D13" s="15">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>18</v>
@@ -4028,7 +4028,7 @@
         <v>481</v>
       </c>
       <c r="D17" s="15">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>216</v>
@@ -4120,7 +4120,7 @@
         <v>489</v>
       </c>
       <c r="D21" s="15">
-        <v>1750.0000000000002</v>
+        <v>1750</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>220</v>
@@ -4189,7 +4189,7 @@
         <v>490</v>
       </c>
       <c r="D24" s="15">
-        <v>2500.0000000000005</v>
+        <v>2500</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>223</v>
@@ -4258,7 +4258,7 @@
         <v>470</v>
       </c>
       <c r="D27" s="15">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>226</v>
@@ -4281,7 +4281,7 @@
         <v>492</v>
       </c>
       <c r="D28" s="15">
-        <v>2500.0000000000005</v>
+        <v>2500</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>227</v>
@@ -4373,7 +4373,7 @@
         <v>496</v>
       </c>
       <c r="D32" s="15">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>231</v>
@@ -4465,7 +4465,7 @@
         <v>421</v>
       </c>
       <c r="D36" s="15">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>235</v>
@@ -4488,7 +4488,7 @@
         <v>422</v>
       </c>
       <c r="D37" s="15">
-        <v>900.00000000000011</v>
+        <v>900</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>236</v>
@@ -4580,7 +4580,7 @@
         <v>501</v>
       </c>
       <c r="D41" s="15">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>239</v>
@@ -4603,7 +4603,7 @@
         <v>424</v>
       </c>
       <c r="D42" s="15">
-        <v>2500.0000000000005</v>
+        <v>2500</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>240</v>
@@ -4649,7 +4649,7 @@
         <v>502</v>
       </c>
       <c r="D44" s="15">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>242</v>
@@ -4741,7 +4741,7 @@
         <v>427</v>
       </c>
       <c r="D48" s="15">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>246</v>
@@ -4764,7 +4764,7 @@
         <v>505</v>
       </c>
       <c r="D49" s="15">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>247</v>
@@ -4902,7 +4902,7 @@
         <v>513</v>
       </c>
       <c r="D55" s="15">
-        <v>600.00000000000011</v>
+        <v>600</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>254</v>
@@ -4925,7 +4925,7 @@
         <v>514</v>
       </c>
       <c r="D56" s="15">
-        <v>950.00000000000011</v>
+        <v>950</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>252</v>
@@ -5040,7 +5040,7 @@
         <v>521</v>
       </c>
       <c r="D61" s="15">
-        <v>900.00000000000011</v>
+        <v>900</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>259</v>
@@ -5063,7 +5063,7 @@
         <v>522</v>
       </c>
       <c r="D62" s="15">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>260</v>
@@ -5086,7 +5086,7 @@
         <v>523</v>
       </c>
       <c r="D63" s="15">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>261</v>
@@ -5109,7 +5109,7 @@
         <v>524</v>
       </c>
       <c r="D64" s="15">
-        <v>600.00000000000011</v>
+        <v>600</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>262</v>
@@ -5155,7 +5155,7 @@
         <v>526</v>
       </c>
       <c r="D66" s="15">
-        <v>850.00000000000011</v>
+        <v>850</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>264</v>
@@ -5178,7 +5178,7 @@
         <v>527</v>
       </c>
       <c r="D67" s="15">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>265</v>
@@ -5201,7 +5201,7 @@
         <v>528</v>
       </c>
       <c r="D68" s="15">
-        <v>900.00000000000011</v>
+        <v>900</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>629</v>
@@ -5224,7 +5224,7 @@
         <v>529</v>
       </c>
       <c r="D69" s="15">
-        <v>300.00000000000006</v>
+        <v>300</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>266</v>
@@ -5247,7 +5247,7 @@
         <v>530</v>
       </c>
       <c r="D70" s="15">
-        <v>1800.0000000000002</v>
+        <v>1800</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>267</v>
@@ -5270,7 +5270,7 @@
         <v>531</v>
       </c>
       <c r="D71" s="15">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>268</v>
@@ -5339,7 +5339,7 @@
         <v>534</v>
       </c>
       <c r="D74" s="15">
-        <v>12500.000000000002</v>
+        <v>12500</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>271</v>
@@ -5454,7 +5454,7 @@
         <v>537</v>
       </c>
       <c r="D79" s="15">
-        <v>2500.0000000000005</v>
+        <v>2500</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>276</v>
@@ -5569,7 +5569,7 @@
         <v>431</v>
       </c>
       <c r="D84" s="15">
-        <v>600.00000000000011</v>
+        <v>600</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>281</v>
@@ -5592,7 +5592,7 @@
         <v>541</v>
       </c>
       <c r="D85" s="15">
-        <v>600.00000000000011</v>
+        <v>600</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>282</v>
@@ -5615,7 +5615,7 @@
         <v>542</v>
       </c>
       <c r="D86" s="15">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>283</v>
@@ -5638,7 +5638,7 @@
         <v>543</v>
       </c>
       <c r="D87" s="15">
-        <v>1700.0000000000002</v>
+        <v>1700</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>285</v>
@@ -5661,7 +5661,7 @@
         <v>432</v>
       </c>
       <c r="D88" s="15">
-        <v>300.00000000000006</v>
+        <v>300</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>284</v>
@@ -5776,7 +5776,7 @@
         <v>548</v>
       </c>
       <c r="D93" s="15">
-        <v>3500.0000000000005</v>
+        <v>3500</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>290</v>
@@ -5799,7 +5799,7 @@
         <v>549</v>
       </c>
       <c r="D94" s="15">
-        <v>20000.000000000004</v>
+        <v>20000</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>291</v>
@@ -5845,7 +5845,7 @@
         <v>551</v>
       </c>
       <c r="D96" s="15">
-        <v>2500.0000000000005</v>
+        <v>2500</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>293</v>
@@ -5960,7 +5960,7 @@
         <v>555</v>
       </c>
       <c r="D101" s="15">
-        <v>3500.0000000000005</v>
+        <v>3500</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>298</v>
@@ -6006,7 +6006,7 @@
         <v>557</v>
       </c>
       <c r="D103" s="15">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>300</v>
@@ -6029,7 +6029,7 @@
         <v>436</v>
       </c>
       <c r="D104" s="15">
-        <v>300.00000000000006</v>
+        <v>300</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>301</v>
@@ -6052,7 +6052,7 @@
         <v>437</v>
       </c>
       <c r="D105" s="15">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>302</v>
@@ -6075,7 +6075,7 @@
         <v>558</v>
       </c>
       <c r="D106" s="15">
-        <v>850.00000000000011</v>
+        <v>850</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>303</v>
@@ -6121,7 +6121,7 @@
         <v>438</v>
       </c>
       <c r="D108" s="15">
-        <v>2500.0000000000005</v>
+        <v>2500</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>305</v>
@@ -6351,7 +6351,7 @@
         <v>567</v>
       </c>
       <c r="D118" s="15">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>315</v>
@@ -6420,7 +6420,7 @@
         <v>570</v>
       </c>
       <c r="D121" s="15">
-        <v>2500.0000000000005</v>
+        <v>2500</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>318</v>
@@ -6535,7 +6535,7 @@
         <v>575</v>
       </c>
       <c r="D126" s="15">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>323</v>
@@ -6558,7 +6558,7 @@
         <v>576</v>
       </c>
       <c r="D127" s="15">
-        <v>5000.0000000000009</v>
+        <v>5000</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>324</v>
@@ -6650,7 +6650,7 @@
         <v>579</v>
       </c>
       <c r="D131" s="15">
-        <v>300.00000000000006</v>
+        <v>300</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>328</v>
@@ -6834,7 +6834,7 @@
         <v>582</v>
       </c>
       <c r="D139" s="15">
-        <v>900.00000000000011</v>
+        <v>900</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>336</v>
@@ -6903,7 +6903,7 @@
         <v>585</v>
       </c>
       <c r="D142" s="15">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>339</v>
@@ -6972,7 +6972,7 @@
         <v>587</v>
       </c>
       <c r="D145" s="15">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>342</v>
@@ -7179,7 +7179,7 @@
         <v>594</v>
       </c>
       <c r="D154" s="15">
-        <v>2500.0000000000005</v>
+        <v>2500</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>351</v>
@@ -7202,7 +7202,7 @@
         <v>595</v>
       </c>
       <c r="D155" s="15">
-        <v>600.00000000000011</v>
+        <v>600</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>356</v>
@@ -7294,7 +7294,7 @@
         <v>599</v>
       </c>
       <c r="D159" s="15">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>355</v>
@@ -7317,7 +7317,7 @@
         <v>600</v>
       </c>
       <c r="D160" s="15">
-        <v>600.00000000000011</v>
+        <v>600</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>352</v>
@@ -7409,7 +7409,7 @@
         <v>604</v>
       </c>
       <c r="D164" s="15">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>360</v>
@@ -7455,7 +7455,7 @@
         <v>606</v>
       </c>
       <c r="D166" s="15">
-        <v>300.00000000000006</v>
+        <v>300</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>362</v>
@@ -7524,7 +7524,7 @@
         <v>609</v>
       </c>
       <c r="D169" s="15">
-        <v>300.00000000000006</v>
+        <v>300</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>365</v>
@@ -7570,7 +7570,7 @@
         <v>611</v>
       </c>
       <c r="D171" s="15">
-        <v>150.00000000000003</v>
+        <v>150</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>367</v>
@@ -7593,7 +7593,7 @@
         <v>612</v>
       </c>
       <c r="D172" s="15">
-        <v>150.00000000000003</v>
+        <v>150</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>368</v>
@@ -7685,7 +7685,7 @@
         <v>616</v>
       </c>
       <c r="D176" s="15">
-        <v>2500.0000000000005</v>
+        <v>2500</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>372</v>
@@ -7731,7 +7731,7 @@
         <v>443</v>
       </c>
       <c r="D178" s="15">
-        <v>300.00000000000006</v>
+        <v>300</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>374</v>
@@ -9682,33 +9682,29 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
     <cfRule type="duplicateValues" dxfId="13" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G258">
-    <cfRule type="duplicateValues" dxfId="12" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G134">
+    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G259">
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G260">
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G262">
-    <cfRule type="duplicateValues" dxfId="10" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G134">
-    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G259">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G260">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G262">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E116" r:id="rId1" display="https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/115.jpeg" xr:uid="{9549F0E1-BCB2-4457-9DDF-9A7137E9809C}"/>

--- a/Gallery.xlsx
+++ b/Gallery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelaziz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8DDE82-9433-4295-9D3D-147AE5052B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1663EAD1-8834-4B8B-8B29-886D7DE8EAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3631,10 +3631,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98041684-60AD-4B6B-B652-1A806A9CDDBF}">
   <dimension ref="A1:G263"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D179" sqref="D179"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4327,7 +4327,7 @@
         <v>494</v>
       </c>
       <c r="D30" s="15">
-        <v>1200.0000000000002</v>
+        <v>1200</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>229</v>

--- a/Gallery.xlsx
+++ b/Gallery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelaziz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1663EAD1-8834-4B8B-8B29-886D7DE8EAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A84A342-BD90-44B5-893F-4E316DBC1BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="1077">
   <si>
     <t>Number</t>
   </si>
@@ -3028,6 +3028,237 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/259.jpeg</t>
+  </si>
+  <si>
+    <t>سبح مرجان اسود (87*20)</t>
+  </si>
+  <si>
+    <t>سبح أسود اسماء الله الحسنى</t>
+  </si>
+  <si>
+    <t>سبح لوبان حجم وسط مع شرابة برتقالي عريض</t>
+  </si>
+  <si>
+    <t>غليون كهرب حجم كبير مع غطاء</t>
+  </si>
+  <si>
+    <t>غليون خشب  شكل اسد و كهرمان حجم متوسط</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غليون خشب لامع وكهرمان </t>
+  </si>
+  <si>
+    <t>غليون خشب مطفي وكهرمان</t>
+  </si>
+  <si>
+    <t>غليون خشب ابيض و كهرمان</t>
+  </si>
+  <si>
+    <t>فلتر سجائر كهرب وخشب مع رئسية ذهبية</t>
+  </si>
+  <si>
+    <t>فلتر سجائر كهرب وخشب مع رئسية بيضاء محروقة</t>
+  </si>
+  <si>
+    <t>فلتر سجائر كهرب وخشب  مع رئسية بيضاء</t>
+  </si>
+  <si>
+    <t>فلتر سجائر كهرب كامل مع رئسية ذهبية حجم صغير  مع غطاء</t>
+  </si>
+  <si>
+    <t>فلتر سجائر كهرمان فضة وخشب مع غطاء</t>
+  </si>
+  <si>
+    <t>فاتر سجائر خشبي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صحن مرسوم أحصنة </t>
+  </si>
+  <si>
+    <t>صحن مسوم غزلان</t>
+  </si>
+  <si>
+    <t>أسوارة مغربية مزخرف كبير</t>
+  </si>
+  <si>
+    <t>أسوارة مغربية مزخرف صغير</t>
+  </si>
+  <si>
+    <t>طاولة شيطرنج خشب</t>
+  </si>
+  <si>
+    <t>1000000263</t>
+  </si>
+  <si>
+    <t>1000000264</t>
+  </si>
+  <si>
+    <t>1000000265</t>
+  </si>
+  <si>
+    <t>1000000266</t>
+  </si>
+  <si>
+    <t>1000000267</t>
+  </si>
+  <si>
+    <t>1000000268</t>
+  </si>
+  <si>
+    <t>1000000269</t>
+  </si>
+  <si>
+    <t>1000000270</t>
+  </si>
+  <si>
+    <t>1000000271</t>
+  </si>
+  <si>
+    <t>1000000272</t>
+  </si>
+  <si>
+    <t>1000000273</t>
+  </si>
+  <si>
+    <t>1000000274</t>
+  </si>
+  <si>
+    <t>1000000275</t>
+  </si>
+  <si>
+    <t>1000000276</t>
+  </si>
+  <si>
+    <t>1000000277</t>
+  </si>
+  <si>
+    <t>1000000278</t>
+  </si>
+  <si>
+    <t>1000000279</t>
+  </si>
+  <si>
+    <t>1000000280</t>
+  </si>
+  <si>
+    <t>1000000281</t>
+  </si>
+  <si>
+    <t>غلايين و فلاتر</t>
+  </si>
+  <si>
+    <t>أساور</t>
+  </si>
+  <si>
+    <t>Black Coral Tasbih (87*20)</t>
+  </si>
+  <si>
+    <t>Black Tasbih of the Most Beautiful Names of Allah</t>
+  </si>
+  <si>
+    <t>Luban Tasbih Medium Size with Wide Orange Tassel</t>
+  </si>
+  <si>
+    <t>Large Electric Pipe with Cover</t>
+  </si>
+  <si>
+    <t>Medium Size Lion and Amber Wooden Pipe</t>
+  </si>
+  <si>
+    <t>Glossy Wood and Amber Pipe</t>
+  </si>
+  <si>
+    <t>Matte Wood and Amber Pipe</t>
+  </si>
+  <si>
+    <t>White Wood and Amber Pipe</t>
+  </si>
+  <si>
+    <t>Electric and Wood Cigarette Filter with Golden Head</t>
+  </si>
+  <si>
+    <t>Electric and Wood Cigarette Filter with Burnt White Head</t>
+  </si>
+  <si>
+    <t>Electric and Wood Cigarette Filter with White Head</t>
+  </si>
+  <si>
+    <t>Complete Electric Cigarette Filter with Golden Head Small Size with Cover</t>
+  </si>
+  <si>
+    <t>Silver and Wood Amber Cigarette Filter with Cover</t>
+  </si>
+  <si>
+    <t>Wooden Cigarette Warmer</t>
+  </si>
+  <si>
+    <t>Horse Painted Plate</t>
+  </si>
+  <si>
+    <t>Deer Painted Plate</t>
+  </si>
+  <si>
+    <t>Large Decorated Moroccan Bracelet</t>
+  </si>
+  <si>
+    <t>Small Decorated Moroccan Bracelet</t>
+  </si>
+  <si>
+    <t>Wooden Chess Table</t>
+  </si>
+  <si>
+    <t>Swimming and necklaces</t>
+  </si>
+  <si>
+    <t>Pipes and filters</t>
+  </si>
+  <si>
+    <t>Bracelets</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/263.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/264.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/265.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/266.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/267.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/269.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/270.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/272.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/274.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/276.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/278.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/279.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/280.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/281.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/282.jpeg</t>
   </si>
 </sst>
 </file>
@@ -3111,7 +3342,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3134,12 +3365,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3197,6 +3439,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3629,12 +3872,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98041684-60AD-4B6B-B652-1A806A9CDDBF}">
-  <dimension ref="A1:G263"/>
+  <dimension ref="A1:G281"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="E282" sqref="E282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9672,8 +9915,441 @@
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A263" s="4"/>
-      <c r="E263" s="8"/>
+      <c r="A263" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C263" s="6" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D263" s="23">
+        <v>1740</v>
+      </c>
+      <c r="E263" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F263" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="G263" s="18" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" s="7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B264" s="6" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C264" s="6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D264" s="23">
+        <v>750</v>
+      </c>
+      <c r="E264" s="8" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F264" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="G264" s="18" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" s="7" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B265" s="6" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C265" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D265" s="23">
+        <v>270</v>
+      </c>
+      <c r="E265" s="8" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F265" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="G265" s="18" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" s="7" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B266" s="6" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D266" s="23">
+        <v>265</v>
+      </c>
+      <c r="E266" s="8" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F266" s="15" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G266" s="18" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" s="7" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C267" s="6" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D267" s="23">
+        <v>75</v>
+      </c>
+      <c r="E267" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F267" s="15" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G267" s="18" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" s="7" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C268" s="6" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D268" s="23">
+        <v>70</v>
+      </c>
+      <c r="E268" s="8" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F268" s="15" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G268" s="18" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" s="7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B269" s="6" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C269" s="6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D269" s="23">
+        <v>70</v>
+      </c>
+      <c r="E269" s="8" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F269" s="15" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G269" s="18" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" s="7" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B270" s="6" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C270" s="6" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D270" s="23">
+        <v>70</v>
+      </c>
+      <c r="E270" s="8" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F270" s="15" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G270" s="18" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" s="7" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B271" s="6" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C271" s="6" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D271" s="23">
+        <v>165</v>
+      </c>
+      <c r="E271" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F271" s="15" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G271" s="18" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" s="7" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B272" s="6" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C272" s="6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D272" s="23">
+        <v>75</v>
+      </c>
+      <c r="E272" s="8" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F272" s="15" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G272" s="18" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" s="7" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B273" s="6" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C273" s="6" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D273" s="23">
+        <v>65</v>
+      </c>
+      <c r="E273" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F273" s="15" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G273" s="18" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" s="7" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C274" s="6" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D274" s="23">
+        <v>165</v>
+      </c>
+      <c r="E274" s="8" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F274" s="15" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G274" s="18" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" s="7" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D275" s="23">
+        <v>165</v>
+      </c>
+      <c r="E275" s="8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F275" s="15" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G275" s="18" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" s="7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B276" s="6" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C276" s="6" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D276" s="23">
+        <v>20</v>
+      </c>
+      <c r="E276" s="8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F276" s="15" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G276" s="18" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" s="7" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C277" s="6" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D277" s="23">
+        <v>150</v>
+      </c>
+      <c r="E277" s="8" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F277" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="G277" s="18" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" s="7" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C278" s="6" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D278" s="23">
+        <v>150</v>
+      </c>
+      <c r="E278" s="8" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F278" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="G278" s="18" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" s="7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C279" s="6" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D279" s="23">
+        <v>35</v>
+      </c>
+      <c r="E279" s="8" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F279" s="15" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G279" s="18" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" s="7" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B280" s="6" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C280" s="6" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D280" s="23">
+        <v>35</v>
+      </c>
+      <c r="E280" s="8" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F280" s="15" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G280" s="18" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" s="7" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B281" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C281" s="6" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D281" s="23">
+        <v>730</v>
+      </c>
+      <c r="E281" s="8" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F281" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="G281" s="18" t="s">
+        <v>1018</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -9851,6 +10527,26 @@
     <hyperlink ref="E261" r:id="rId142" xr:uid="{97A24CAF-0D42-404D-ACE8-E1F97CA8E4A8}"/>
     <hyperlink ref="E260" r:id="rId143" xr:uid="{7D139951-9CB1-4E71-9200-799E4B3BCCA8}"/>
     <hyperlink ref="E259" r:id="rId144" xr:uid="{8B5CE89F-018E-42D1-9E39-9AE11D7A0812}"/>
+    <hyperlink ref="E263" r:id="rId145" xr:uid="{A14190F6-1E05-4223-8B83-66CA1A2020E2}"/>
+    <hyperlink ref="E264:E281" r:id="rId146" display="https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/263.jpeg" xr:uid="{6044E9A9-A666-4B25-9928-2ACFB4829384}"/>
+    <hyperlink ref="E264" r:id="rId147" xr:uid="{6DF37B95-4C8F-481E-95B4-7C1331ECC840}"/>
+    <hyperlink ref="E265" r:id="rId148" xr:uid="{6F038E01-C9E4-4D12-BA3B-CE14B3BEE0B6}"/>
+    <hyperlink ref="E266" r:id="rId149" xr:uid="{836B8F48-0720-448C-8FED-EEC3C56B16A1}"/>
+    <hyperlink ref="E267" r:id="rId150" xr:uid="{8F54AF86-FFD1-464E-86FE-DAFDEB9AB7C8}"/>
+    <hyperlink ref="E271" r:id="rId151" xr:uid="{92E0817A-B2A0-4512-B4E8-FA352C2E4990}"/>
+    <hyperlink ref="E268" r:id="rId152" xr:uid="{0E2304D1-44DE-4C21-A464-55B108B93934}"/>
+    <hyperlink ref="E269" r:id="rId153" xr:uid="{D303A1D9-E297-4E4E-BED5-ADC4357A79C1}"/>
+    <hyperlink ref="E270" r:id="rId154" xr:uid="{65DB69A4-415B-4F45-A69C-CCC0F148A38F}"/>
+    <hyperlink ref="E272" r:id="rId155" xr:uid="{4B3BBE89-ED85-417B-8A2C-F0C9C5EA8C9D}"/>
+    <hyperlink ref="E273" r:id="rId156" xr:uid="{04117E0D-3993-4DF5-B3EB-4FBD577D7B21}"/>
+    <hyperlink ref="E274" r:id="rId157" xr:uid="{3A93909D-E467-4769-ABC0-D8A35B514C02}"/>
+    <hyperlink ref="E275" r:id="rId158" xr:uid="{79B6833E-9D89-484E-BE22-9037F76CC375}"/>
+    <hyperlink ref="E276" r:id="rId159" xr:uid="{94DB4C0B-E2AF-4529-A9AC-FC2753D3A3F0}"/>
+    <hyperlink ref="E277" r:id="rId160" xr:uid="{3A11BDC5-6722-4EE3-97C0-2351A80316D7}"/>
+    <hyperlink ref="E278" r:id="rId161" xr:uid="{19C4879A-80B8-4BB8-ADD4-9363CDCE28BC}"/>
+    <hyperlink ref="E279" r:id="rId162" xr:uid="{F9115941-F061-448B-9B1A-C14B392C8274}"/>
+    <hyperlink ref="E280" r:id="rId163" xr:uid="{6F9A8D9D-399A-4FAC-AF94-D1799D5EE200}"/>
+    <hyperlink ref="E281" r:id="rId164" xr:uid="{76474EB2-648C-48DA-B1E9-CB94DC2F6387}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Gallery.xlsx
+++ b/Gallery.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelaziz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A84A342-BD90-44B5-893F-4E316DBC1BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0155F8-A1E7-4130-B6E5-B73E87B64116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="1077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="1082">
   <si>
     <t>Number</t>
   </si>
@@ -3259,6 +3259,21 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/282.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لوح خشب مخطوطات إسلامية كبير </t>
+  </si>
+  <si>
+    <t>لوح خشب مخطوطات إسلامية متوسط</t>
+  </si>
+  <si>
+    <t>Large Islamic manuscript wood panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> panel</t>
+  </si>
+  <si>
+    <t>Medium Islamic manuscript wood panel</t>
   </si>
 </sst>
 </file>
@@ -3381,7 +3396,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3438,6 +3453,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -3872,10 +3903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98041684-60AD-4B6B-B652-1A806A9CDDBF}">
-  <dimension ref="A1:G281"/>
+  <dimension ref="A1:G283"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="E282" sqref="E282"/>
     </sheetView>
@@ -3884,22 +3915,22 @@
   <cols>
     <col min="1" max="1" width="23.296875" style="7" customWidth="1"/>
     <col min="2" max="2" width="11.09765625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.8984375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="84" style="28" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.8984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="6" customWidth="1"/>
     <col min="6" max="6" width="9.69921875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="32.8984375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="51.69921875" style="18" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="24" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="14" t="s">
@@ -3915,14 +3946,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>732</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="25" t="s">
         <v>381</v>
       </c>
       <c r="D2" s="19">
@@ -3938,14 +3969,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>733</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="25" t="s">
         <v>471</v>
       </c>
       <c r="D3" s="15">
@@ -3961,14 +3992,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>734</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="25" t="s">
         <v>472</v>
       </c>
       <c r="D4" s="15">
@@ -3984,14 +4015,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>735</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="25" t="s">
         <v>473</v>
       </c>
       <c r="D5" s="15">
@@ -4007,14 +4038,14 @@
         <v>464</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>736</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="25" t="s">
         <v>382</v>
       </c>
       <c r="D6" s="15">
@@ -4030,14 +4061,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>737</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="25" t="s">
         <v>383</v>
       </c>
       <c r="D7" s="15">
@@ -4053,14 +4084,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>738</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="25" t="s">
         <v>384</v>
       </c>
       <c r="D8" s="15">
@@ -4076,14 +4107,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>739</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="25" t="s">
         <v>385</v>
       </c>
       <c r="D9" s="15">
@@ -4099,14 +4130,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>740</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="25" t="s">
         <v>386</v>
       </c>
       <c r="D10" s="15">
@@ -4122,14 +4153,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>741</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="25" t="s">
         <v>475</v>
       </c>
       <c r="D11" s="15">
@@ -4145,14 +4176,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>742</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="25" t="s">
         <v>476</v>
       </c>
       <c r="D12" s="15">
@@ -4168,14 +4199,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>743</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="25" t="s">
         <v>477</v>
       </c>
       <c r="D13" s="15">
@@ -4198,7 +4229,7 @@
       <c r="B14" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="26" t="s">
         <v>478</v>
       </c>
       <c r="D14" s="15">
@@ -4221,7 +4252,7 @@
       <c r="B15" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="26" t="s">
         <v>479</v>
       </c>
       <c r="D15" s="15">
@@ -4244,7 +4275,7 @@
       <c r="B16" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="26" t="s">
         <v>480</v>
       </c>
       <c r="D16" s="15">
@@ -4267,7 +4298,7 @@
       <c r="B17" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="26" t="s">
         <v>481</v>
       </c>
       <c r="D17" s="15">
@@ -4290,7 +4321,7 @@
       <c r="B18" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="26" t="s">
         <v>482</v>
       </c>
       <c r="D18" s="15">
@@ -4313,7 +4344,7 @@
       <c r="B19" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="26" t="s">
         <v>483</v>
       </c>
       <c r="D19" s="15">
@@ -4336,7 +4367,7 @@
       <c r="B20" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="26" t="s">
         <v>484</v>
       </c>
       <c r="D20" s="15">
@@ -4359,7 +4390,7 @@
       <c r="B21" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="26" t="s">
         <v>489</v>
       </c>
       <c r="D21" s="15">
@@ -4382,7 +4413,7 @@
       <c r="B22" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="26" t="s">
         <v>468</v>
       </c>
       <c r="D22" s="15">
@@ -4405,7 +4436,7 @@
       <c r="B23" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="26" t="s">
         <v>469</v>
       </c>
       <c r="D23" s="15">
@@ -4428,7 +4459,7 @@
       <c r="B24" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="26" t="s">
         <v>490</v>
       </c>
       <c r="D24" s="15">
@@ -4451,7 +4482,7 @@
       <c r="B25" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="26" t="s">
         <v>491</v>
       </c>
       <c r="D25" s="15">
@@ -4474,7 +4505,7 @@
       <c r="B26" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="26" t="s">
         <v>491</v>
       </c>
       <c r="D26" s="15">
@@ -4497,7 +4528,7 @@
       <c r="B27" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="26" t="s">
         <v>470</v>
       </c>
       <c r="D27" s="15">
@@ -4520,7 +4551,7 @@
       <c r="B28" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="26" t="s">
         <v>492</v>
       </c>
       <c r="D28" s="15">
@@ -4543,7 +4574,7 @@
       <c r="B29" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="26" t="s">
         <v>493</v>
       </c>
       <c r="D29" s="15">
@@ -4566,7 +4597,7 @@
       <c r="B30" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="26" t="s">
         <v>494</v>
       </c>
       <c r="D30" s="15">
@@ -4589,7 +4620,7 @@
       <c r="B31" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="26" t="s">
         <v>495</v>
       </c>
       <c r="D31" s="15">
@@ -4612,7 +4643,7 @@
       <c r="B32" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="26" t="s">
         <v>496</v>
       </c>
       <c r="D32" s="15">
@@ -4635,7 +4666,7 @@
       <c r="B33" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="26" t="s">
         <v>497</v>
       </c>
       <c r="D33" s="15">
@@ -4658,7 +4689,7 @@
       <c r="B34" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="26" t="s">
         <v>498</v>
       </c>
       <c r="D34" s="15">
@@ -4681,7 +4712,7 @@
       <c r="B35" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="26" t="s">
         <v>420</v>
       </c>
       <c r="D35" s="15">
@@ -4704,7 +4735,7 @@
       <c r="B36" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="26" t="s">
         <v>421</v>
       </c>
       <c r="D36" s="15">
@@ -4727,7 +4758,7 @@
       <c r="B37" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="26" t="s">
         <v>422</v>
       </c>
       <c r="D37" s="15">
@@ -4750,7 +4781,7 @@
       <c r="B38" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="26" t="s">
         <v>499</v>
       </c>
       <c r="D38" s="15">
@@ -4773,7 +4804,7 @@
       <c r="B39" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="26" t="s">
         <v>423</v>
       </c>
       <c r="D39" s="15">
@@ -4796,7 +4827,7 @@
       <c r="B40" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="26" t="s">
         <v>500</v>
       </c>
       <c r="D40" s="15">
@@ -4819,7 +4850,7 @@
       <c r="B41" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="26" t="s">
         <v>501</v>
       </c>
       <c r="D41" s="15">
@@ -4842,7 +4873,7 @@
       <c r="B42" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="26" t="s">
         <v>424</v>
       </c>
       <c r="D42" s="15">
@@ -4865,7 +4896,7 @@
       <c r="B43" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="26" t="s">
         <v>425</v>
       </c>
       <c r="D43" s="15">
@@ -4888,7 +4919,7 @@
       <c r="B44" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="26" t="s">
         <v>502</v>
       </c>
       <c r="D44" s="15">
@@ -4911,7 +4942,7 @@
       <c r="B45" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="26" t="s">
         <v>503</v>
       </c>
       <c r="D45" s="15">
@@ -4934,7 +4965,7 @@
       <c r="B46" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="26" t="s">
         <v>426</v>
       </c>
       <c r="D46" s="15">
@@ -4957,7 +4988,7 @@
       <c r="B47" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="26" t="s">
         <v>504</v>
       </c>
       <c r="D47" s="15">
@@ -4980,7 +5011,7 @@
       <c r="B48" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="26" t="s">
         <v>427</v>
       </c>
       <c r="D48" s="15">
@@ -5003,7 +5034,7 @@
       <c r="B49" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="26" t="s">
         <v>505</v>
       </c>
       <c r="D49" s="15">
@@ -5026,7 +5057,7 @@
       <c r="B50" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="26" t="s">
         <v>506</v>
       </c>
       <c r="D50" s="15">
@@ -5049,7 +5080,7 @@
       <c r="B51" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="26" t="s">
         <v>509</v>
       </c>
       <c r="D51" s="15">
@@ -5072,7 +5103,7 @@
       <c r="B52" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="26" t="s">
         <v>510</v>
       </c>
       <c r="D52" s="15">
@@ -5095,7 +5126,7 @@
       <c r="B53" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="26" t="s">
         <v>511</v>
       </c>
       <c r="D53" s="15">
@@ -5118,7 +5149,7 @@
       <c r="B54" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="26" t="s">
         <v>512</v>
       </c>
       <c r="D54" s="15">
@@ -5141,7 +5172,7 @@
       <c r="B55" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="26" t="s">
         <v>513</v>
       </c>
       <c r="D55" s="15">
@@ -5164,7 +5195,7 @@
       <c r="B56" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="26" t="s">
         <v>514</v>
       </c>
       <c r="D56" s="15">
@@ -5187,7 +5218,7 @@
       <c r="B57" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="26" t="s">
         <v>515</v>
       </c>
       <c r="D57" s="15">
@@ -5210,7 +5241,7 @@
       <c r="B58" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="26" t="s">
         <v>516</v>
       </c>
       <c r="D58" s="15">
@@ -5233,7 +5264,7 @@
       <c r="B59" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="26" t="s">
         <v>517</v>
       </c>
       <c r="D59" s="15">
@@ -5256,7 +5287,7 @@
       <c r="B60" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="26" t="s">
         <v>518</v>
       </c>
       <c r="D60" s="15">
@@ -5279,7 +5310,7 @@
       <c r="B61" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="26" t="s">
         <v>521</v>
       </c>
       <c r="D61" s="15">
@@ -5302,7 +5333,7 @@
       <c r="B62" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="26" t="s">
         <v>522</v>
       </c>
       <c r="D62" s="15">
@@ -5325,7 +5356,7 @@
       <c r="B63" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="26" t="s">
         <v>523</v>
       </c>
       <c r="D63" s="15">
@@ -5348,7 +5379,7 @@
       <c r="B64" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="26" t="s">
         <v>524</v>
       </c>
       <c r="D64" s="15">
@@ -5371,7 +5402,7 @@
       <c r="B65" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="26" t="s">
         <v>525</v>
       </c>
       <c r="D65" s="15">
@@ -5394,7 +5425,7 @@
       <c r="B66" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="26" t="s">
         <v>526</v>
       </c>
       <c r="D66" s="15">
@@ -5417,7 +5448,7 @@
       <c r="B67" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="26" t="s">
         <v>527</v>
       </c>
       <c r="D67" s="15">
@@ -5440,7 +5471,7 @@
       <c r="B68" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="26" t="s">
         <v>528</v>
       </c>
       <c r="D68" s="15">
@@ -5463,7 +5494,7 @@
       <c r="B69" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="26" t="s">
         <v>529</v>
       </c>
       <c r="D69" s="15">
@@ -5486,7 +5517,7 @@
       <c r="B70" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="26" t="s">
         <v>530</v>
       </c>
       <c r="D70" s="15">
@@ -5509,7 +5540,7 @@
       <c r="B71" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="26" t="s">
         <v>531</v>
       </c>
       <c r="D71" s="15">
@@ -5532,7 +5563,7 @@
       <c r="B72" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="26" t="s">
         <v>532</v>
       </c>
       <c r="D72" s="15">
@@ -5555,7 +5586,7 @@
       <c r="B73" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="26" t="s">
         <v>533</v>
       </c>
       <c r="D73" s="15">
@@ -5578,7 +5609,7 @@
       <c r="B74" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="26" t="s">
         <v>534</v>
       </c>
       <c r="D74" s="15">
@@ -5601,7 +5632,7 @@
       <c r="B75" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="26" t="s">
         <v>535</v>
       </c>
       <c r="D75" s="15">
@@ -5624,7 +5655,7 @@
       <c r="B76" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="26" t="s">
         <v>536</v>
       </c>
       <c r="D76" s="15">
@@ -5647,7 +5678,7 @@
       <c r="B77" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="26" t="s">
         <v>428</v>
       </c>
       <c r="D77" s="15">
@@ -5670,7 +5701,7 @@
       <c r="B78" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="26" t="s">
         <v>429</v>
       </c>
       <c r="D78" s="19">
@@ -5693,7 +5724,7 @@
       <c r="B79" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="26" t="s">
         <v>537</v>
       </c>
       <c r="D79" s="15">
@@ -5716,7 +5747,7 @@
       <c r="B80" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="26" t="s">
         <v>430</v>
       </c>
       <c r="D80" s="15">
@@ -5739,7 +5770,7 @@
       <c r="B81" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="26" t="s">
         <v>538</v>
       </c>
       <c r="D81" s="19">
@@ -5762,7 +5793,7 @@
       <c r="B82" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="26" t="s">
         <v>539</v>
       </c>
       <c r="D82" s="15">
@@ -5785,7 +5816,7 @@
       <c r="B83" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="26" t="s">
         <v>540</v>
       </c>
       <c r="D83" s="15">
@@ -5808,7 +5839,7 @@
       <c r="B84" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="26" t="s">
         <v>431</v>
       </c>
       <c r="D84" s="15">
@@ -5831,7 +5862,7 @@
       <c r="B85" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="26" t="s">
         <v>541</v>
       </c>
       <c r="D85" s="15">
@@ -5854,7 +5885,7 @@
       <c r="B86" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="26" t="s">
         <v>542</v>
       </c>
       <c r="D86" s="15">
@@ -5877,7 +5908,7 @@
       <c r="B87" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="26" t="s">
         <v>543</v>
       </c>
       <c r="D87" s="15">
@@ -5900,7 +5931,7 @@
       <c r="B88" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="26" t="s">
         <v>432</v>
       </c>
       <c r="D88" s="15">
@@ -5923,7 +5954,7 @@
       <c r="B89" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="26" t="s">
         <v>433</v>
       </c>
       <c r="D89" s="15">
@@ -5946,7 +5977,7 @@
       <c r="B90" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="26" t="s">
         <v>544</v>
       </c>
       <c r="D90" s="15">
@@ -5969,7 +6000,7 @@
       <c r="B91" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="26" t="s">
         <v>547</v>
       </c>
       <c r="D91" s="15">
@@ -5992,7 +6023,7 @@
       <c r="B92" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="26" t="s">
         <v>434</v>
       </c>
       <c r="D92" s="15">
@@ -6015,7 +6046,7 @@
       <c r="B93" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="26" t="s">
         <v>548</v>
       </c>
       <c r="D93" s="15">
@@ -6038,7 +6069,7 @@
       <c r="B94" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="26" t="s">
         <v>549</v>
       </c>
       <c r="D94" s="15">
@@ -6061,7 +6092,7 @@
       <c r="B95" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="26" t="s">
         <v>550</v>
       </c>
       <c r="D95" s="15">
@@ -6084,7 +6115,7 @@
       <c r="B96" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="26" t="s">
         <v>551</v>
       </c>
       <c r="D96" s="15">
@@ -6107,7 +6138,7 @@
       <c r="B97" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="26" t="s">
         <v>552</v>
       </c>
       <c r="D97" s="15">
@@ -6130,7 +6161,7 @@
       <c r="B98" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="26" t="s">
         <v>553</v>
       </c>
       <c r="D98" s="15">
@@ -6153,7 +6184,7 @@
       <c r="B99" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="26" t="s">
         <v>554</v>
       </c>
       <c r="D99" s="15">
@@ -6176,7 +6207,7 @@
       <c r="B100" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="26" t="s">
         <v>435</v>
       </c>
       <c r="D100" s="15">
@@ -6199,7 +6230,7 @@
       <c r="B101" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="26" t="s">
         <v>555</v>
       </c>
       <c r="D101" s="15">
@@ -6222,7 +6253,7 @@
       <c r="B102" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="26" t="s">
         <v>556</v>
       </c>
       <c r="D102" s="15">
@@ -6245,7 +6276,7 @@
       <c r="B103" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="26" t="s">
         <v>557</v>
       </c>
       <c r="D103" s="15">
@@ -6268,7 +6299,7 @@
       <c r="B104" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="26" t="s">
         <v>436</v>
       </c>
       <c r="D104" s="15">
@@ -6291,7 +6322,7 @@
       <c r="B105" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="26" t="s">
         <v>437</v>
       </c>
       <c r="D105" s="15">
@@ -6314,7 +6345,7 @@
       <c r="B106" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="26" t="s">
         <v>558</v>
       </c>
       <c r="D106" s="15">
@@ -6337,7 +6368,7 @@
       <c r="B107" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="26" t="s">
         <v>559</v>
       </c>
       <c r="D107" s="15">
@@ -6360,7 +6391,7 @@
       <c r="B108" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="26" t="s">
         <v>438</v>
       </c>
       <c r="D108" s="15">
@@ -6383,7 +6414,7 @@
       <c r="B109" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="26" t="s">
         <v>439</v>
       </c>
       <c r="D109" s="15">
@@ -6406,7 +6437,7 @@
       <c r="B110" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="26" t="s">
         <v>560</v>
       </c>
       <c r="D110" s="15">
@@ -6429,7 +6460,7 @@
       <c r="B111" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="26" t="s">
         <v>561</v>
       </c>
       <c r="D111" s="15">
@@ -6452,7 +6483,7 @@
       <c r="B112" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="26" t="s">
         <v>562</v>
       </c>
       <c r="D112" s="15">
@@ -6475,7 +6506,7 @@
       <c r="B113" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="26" t="s">
         <v>563</v>
       </c>
       <c r="D113" s="15">
@@ -6498,7 +6529,7 @@
       <c r="B114" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="26" t="s">
         <v>564</v>
       </c>
       <c r="D114" s="15">
@@ -6521,7 +6552,7 @@
       <c r="B115" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="26" t="s">
         <v>565</v>
       </c>
       <c r="D115" s="15">
@@ -6544,7 +6575,7 @@
       <c r="B116" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="26" t="s">
         <v>440</v>
       </c>
       <c r="D116" s="15">
@@ -6567,7 +6598,7 @@
       <c r="B117" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="26" t="s">
         <v>566</v>
       </c>
       <c r="D117" s="15">
@@ -6590,7 +6621,7 @@
       <c r="B118" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="26" t="s">
         <v>567</v>
       </c>
       <c r="D118" s="15">
@@ -6613,7 +6644,7 @@
       <c r="B119" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="26" t="s">
         <v>568</v>
       </c>
       <c r="D119" s="15">
@@ -6636,7 +6667,7 @@
       <c r="B120" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="26" t="s">
         <v>569</v>
       </c>
       <c r="D120" s="15">
@@ -6659,7 +6690,7 @@
       <c r="B121" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="26" t="s">
         <v>570</v>
       </c>
       <c r="D121" s="15">
@@ -6682,7 +6713,7 @@
       <c r="B122" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="26" t="s">
         <v>571</v>
       </c>
       <c r="D122" s="15">
@@ -6705,7 +6736,7 @@
       <c r="B123" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="26" t="s">
         <v>572</v>
       </c>
       <c r="D123" s="15">
@@ -6728,7 +6759,7 @@
       <c r="B124" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="26" t="s">
         <v>573</v>
       </c>
       <c r="D124" s="15">
@@ -6751,7 +6782,7 @@
       <c r="B125" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="26" t="s">
         <v>574</v>
       </c>
       <c r="D125" s="15">
@@ -6774,7 +6805,7 @@
       <c r="B126" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="26" t="s">
         <v>575</v>
       </c>
       <c r="D126" s="15">
@@ -6797,7 +6828,7 @@
       <c r="B127" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="26" t="s">
         <v>576</v>
       </c>
       <c r="D127" s="15">
@@ -6820,7 +6851,7 @@
       <c r="B128" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="26" t="s">
         <v>577</v>
       </c>
       <c r="D128" s="15">
@@ -6843,7 +6874,7 @@
       <c r="B129" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="26" t="s">
         <v>578</v>
       </c>
       <c r="D129" s="15">
@@ -6866,7 +6897,7 @@
       <c r="B130" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="26" t="s">
         <v>441</v>
       </c>
       <c r="D130" s="15">
@@ -6889,7 +6920,7 @@
       <c r="B131" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="26" t="s">
         <v>579</v>
       </c>
       <c r="D131" s="15">
@@ -6912,7 +6943,7 @@
       <c r="B132" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="26" t="s">
         <v>580</v>
       </c>
       <c r="D132" s="15">
@@ -6935,7 +6966,7 @@
       <c r="B133" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="26" t="s">
         <v>581</v>
       </c>
       <c r="D133" s="15">
@@ -6958,7 +6989,7 @@
       <c r="B134" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="26" t="s">
         <v>582</v>
       </c>
       <c r="D134" s="15">
@@ -6981,7 +7012,7 @@
       <c r="B135" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="26" t="s">
         <v>582</v>
       </c>
       <c r="D135" s="15">
@@ -7004,7 +7035,7 @@
       <c r="B136" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="26" t="s">
         <v>582</v>
       </c>
       <c r="D136" s="15">
@@ -7027,7 +7058,7 @@
       <c r="B137" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" s="26" t="s">
         <v>582</v>
       </c>
       <c r="D137" s="15">
@@ -7050,7 +7081,7 @@
       <c r="B138" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="26" t="s">
         <v>582</v>
       </c>
       <c r="D138" s="15">
@@ -7073,7 +7104,7 @@
       <c r="B139" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="26" t="s">
         <v>582</v>
       </c>
       <c r="D139" s="15">
@@ -7096,7 +7127,7 @@
       <c r="B140" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="26" t="s">
         <v>583</v>
       </c>
       <c r="D140" s="15">
@@ -7119,7 +7150,7 @@
       <c r="B141" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="26" t="s">
         <v>584</v>
       </c>
       <c r="D141" s="15">
@@ -7142,7 +7173,7 @@
       <c r="B142" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="26" t="s">
         <v>585</v>
       </c>
       <c r="D142" s="15">
@@ -7165,7 +7196,7 @@
       <c r="B143" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="26" t="s">
         <v>586</v>
       </c>
       <c r="D143" s="15">
@@ -7188,7 +7219,7 @@
       <c r="B144" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="26" t="s">
         <v>586</v>
       </c>
       <c r="D144" s="15">
@@ -7211,7 +7242,7 @@
       <c r="B145" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="26" t="s">
         <v>587</v>
       </c>
       <c r="D145" s="15">
@@ -7234,7 +7265,7 @@
       <c r="B146" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="26" t="s">
         <v>588</v>
       </c>
       <c r="D146" s="15">
@@ -7257,7 +7288,7 @@
       <c r="B147" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="26" t="s">
         <v>588</v>
       </c>
       <c r="D147" s="15">
@@ -7280,7 +7311,7 @@
       <c r="B148" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="26" t="s">
         <v>588</v>
       </c>
       <c r="D148" s="15">
@@ -7303,7 +7334,7 @@
       <c r="B149" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="26" t="s">
         <v>589</v>
       </c>
       <c r="D149" s="15">
@@ -7326,7 +7357,7 @@
       <c r="B150" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="26" t="s">
         <v>590</v>
       </c>
       <c r="D150" s="15">
@@ -7349,7 +7380,7 @@
       <c r="B151" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="26" t="s">
         <v>591</v>
       </c>
       <c r="D151" s="15">
@@ -7372,7 +7403,7 @@
       <c r="B152" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="26" t="s">
         <v>592</v>
       </c>
       <c r="D152" s="15">
@@ -7395,7 +7426,7 @@
       <c r="B153" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="26" t="s">
         <v>593</v>
       </c>
       <c r="D153" s="15">
@@ -7418,7 +7449,7 @@
       <c r="B154" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="26" t="s">
         <v>594</v>
       </c>
       <c r="D154" s="15">
@@ -7441,7 +7472,7 @@
       <c r="B155" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" s="26" t="s">
         <v>595</v>
       </c>
       <c r="D155" s="15">
@@ -7464,7 +7495,7 @@
       <c r="B156" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="26" t="s">
         <v>596</v>
       </c>
       <c r="D156" s="15">
@@ -7487,7 +7518,7 @@
       <c r="B157" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C157" s="26" t="s">
         <v>597</v>
       </c>
       <c r="D157" s="15">
@@ -7510,7 +7541,7 @@
       <c r="B158" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C158" s="26" t="s">
         <v>598</v>
       </c>
       <c r="D158" s="15">
@@ -7533,7 +7564,7 @@
       <c r="B159" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="26" t="s">
         <v>599</v>
       </c>
       <c r="D159" s="15">
@@ -7556,7 +7587,7 @@
       <c r="B160" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" s="26" t="s">
         <v>600</v>
       </c>
       <c r="D160" s="15">
@@ -7579,7 +7610,7 @@
       <c r="B161" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="26" t="s">
         <v>601</v>
       </c>
       <c r="D161" s="15">
@@ -7602,7 +7633,7 @@
       <c r="B162" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="26" t="s">
         <v>602</v>
       </c>
       <c r="D162" s="15">
@@ -7625,7 +7656,7 @@
       <c r="B163" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C163" s="26" t="s">
         <v>603</v>
       </c>
       <c r="D163" s="15">
@@ -7648,7 +7679,7 @@
       <c r="B164" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="26" t="s">
         <v>604</v>
       </c>
       <c r="D164" s="15">
@@ -7671,7 +7702,7 @@
       <c r="B165" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C165" s="26" t="s">
         <v>605</v>
       </c>
       <c r="D165" s="15">
@@ -7694,7 +7725,7 @@
       <c r="B166" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="26" t="s">
         <v>606</v>
       </c>
       <c r="D166" s="15">
@@ -7717,7 +7748,7 @@
       <c r="B167" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" s="26" t="s">
         <v>607</v>
       </c>
       <c r="D167" s="15">
@@ -7740,7 +7771,7 @@
       <c r="B168" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="26" t="s">
         <v>608</v>
       </c>
       <c r="D168" s="15">
@@ -7763,7 +7794,7 @@
       <c r="B169" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C169" s="26" t="s">
         <v>609</v>
       </c>
       <c r="D169" s="15">
@@ -7786,7 +7817,7 @@
       <c r="B170" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" s="26" t="s">
         <v>610</v>
       </c>
       <c r="D170" s="15">
@@ -7809,7 +7840,7 @@
       <c r="B171" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C171" s="26" t="s">
         <v>611</v>
       </c>
       <c r="D171" s="15">
@@ -7832,7 +7863,7 @@
       <c r="B172" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C172" s="26" t="s">
         <v>612</v>
       </c>
       <c r="D172" s="15">
@@ -7855,7 +7886,7 @@
       <c r="B173" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C173" s="26" t="s">
         <v>613</v>
       </c>
       <c r="D173" s="15">
@@ -7878,7 +7909,7 @@
       <c r="B174" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" s="26" t="s">
         <v>614</v>
       </c>
       <c r="D174" s="15">
@@ -7901,7 +7932,7 @@
       <c r="B175" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C175" s="26" t="s">
         <v>615</v>
       </c>
       <c r="D175" s="15">
@@ -7924,7 +7955,7 @@
       <c r="B176" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="C176" s="26" t="s">
         <v>616</v>
       </c>
       <c r="D176" s="15">
@@ -7947,7 +7978,7 @@
       <c r="B177" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C177" s="26" t="s">
         <v>617</v>
       </c>
       <c r="D177" s="15">
@@ -7970,7 +8001,7 @@
       <c r="B178" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C178" s="26" t="s">
         <v>443</v>
       </c>
       <c r="D178" s="15">
@@ -7993,7 +8024,7 @@
       <c r="B179" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C179" s="26" t="s">
         <v>445</v>
       </c>
       <c r="D179" s="15">
@@ -8016,7 +8047,7 @@
       <c r="B180" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C180" s="26" t="s">
         <v>618</v>
       </c>
       <c r="D180" s="19">
@@ -8039,7 +8070,7 @@
       <c r="B181" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C181" s="26" t="s">
         <v>619</v>
       </c>
       <c r="D181" s="15">
@@ -8062,7 +8093,7 @@
       <c r="B182" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C182" s="26" t="s">
         <v>620</v>
       </c>
       <c r="D182" s="15">
@@ -8085,7 +8116,7 @@
       <c r="B183" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C183" s="26" t="s">
         <v>620</v>
       </c>
       <c r="D183" s="15">
@@ -8108,7 +8139,7 @@
       <c r="B184" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C184" s="26" t="s">
         <v>620</v>
       </c>
       <c r="D184" s="15">
@@ -8131,7 +8162,7 @@
       <c r="B185" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="C185" s="26" t="s">
         <v>620</v>
       </c>
       <c r="D185" s="20">
@@ -8154,7 +8185,7 @@
       <c r="B186" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="C186" s="26" t="s">
         <v>620</v>
       </c>
       <c r="D186" s="15">
@@ -8177,7 +8208,7 @@
       <c r="B187" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="C187" s="26" t="s">
         <v>620</v>
       </c>
       <c r="D187" s="15">
@@ -8200,7 +8231,7 @@
       <c r="B188" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C188" s="26" t="s">
         <v>620</v>
       </c>
       <c r="D188" s="15">
@@ -8223,7 +8254,7 @@
       <c r="B189" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" s="26" t="s">
         <v>620</v>
       </c>
       <c r="D189" s="15">
@@ -8246,7 +8277,7 @@
       <c r="B190" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C190" s="26" t="s">
         <v>620</v>
       </c>
       <c r="D190" s="15">
@@ -8269,7 +8300,7 @@
       <c r="B191" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C191" s="26" t="s">
         <v>620</v>
       </c>
       <c r="D191" s="15">
@@ -8292,7 +8323,7 @@
       <c r="B192" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C192" s="26" t="s">
         <v>620</v>
       </c>
       <c r="D192" s="19">
@@ -8315,7 +8346,7 @@
       <c r="B193" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C193" s="26" t="s">
         <v>446</v>
       </c>
       <c r="D193" s="15">
@@ -8338,7 +8369,7 @@
       <c r="B194" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C194" s="26" t="s">
         <v>446</v>
       </c>
       <c r="D194" s="15">
@@ -8361,7 +8392,7 @@
       <c r="B195" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="C195" s="26" t="s">
         <v>446</v>
       </c>
       <c r="D195" s="15">
@@ -8384,7 +8415,7 @@
       <c r="B196" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C196" s="26" t="s">
         <v>446</v>
       </c>
       <c r="D196" s="15">
@@ -8407,7 +8438,7 @@
       <c r="B197" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C197" s="26" t="s">
         <v>446</v>
       </c>
       <c r="D197" s="15">
@@ -8430,7 +8461,7 @@
       <c r="B198" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="C198" s="26" t="s">
         <v>446</v>
       </c>
       <c r="D198" s="15">
@@ -8453,7 +8484,7 @@
       <c r="B199" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C199" s="26" t="s">
         <v>446</v>
       </c>
       <c r="D199" s="15">
@@ -8476,7 +8507,7 @@
       <c r="B200" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C200" s="26" t="s">
         <v>446</v>
       </c>
       <c r="D200" s="15">
@@ -8499,7 +8530,7 @@
       <c r="B201" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="C201" s="26" t="s">
         <v>446</v>
       </c>
       <c r="D201" s="15">
@@ -8522,7 +8553,7 @@
       <c r="B202" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C202" s="26" t="s">
         <v>446</v>
       </c>
       <c r="D202" s="15">
@@ -8545,7 +8576,7 @@
       <c r="B203" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="C203" s="26" t="s">
         <v>446</v>
       </c>
       <c r="D203" s="15">
@@ -8568,7 +8599,7 @@
       <c r="B204" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="C204" s="26" t="s">
         <v>621</v>
       </c>
       <c r="D204" s="15">
@@ -8591,7 +8622,7 @@
       <c r="B205" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="C205" s="26" t="s">
         <v>621</v>
       </c>
       <c r="D205" s="15">
@@ -8614,7 +8645,7 @@
       <c r="B206" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="C206" s="26" t="s">
         <v>621</v>
       </c>
       <c r="D206" s="15">
@@ -8637,7 +8668,7 @@
       <c r="B207" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="C207" s="26" t="s">
         <v>621</v>
       </c>
       <c r="D207" s="15">
@@ -8660,7 +8691,7 @@
       <c r="B208" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="C208" s="26" t="s">
         <v>621</v>
       </c>
       <c r="D208" s="15">
@@ -8683,7 +8714,7 @@
       <c r="B209" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="C209" s="26" t="s">
         <v>621</v>
       </c>
       <c r="D209" s="15">
@@ -8706,7 +8737,7 @@
       <c r="B210" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="C210" s="26" t="s">
         <v>621</v>
       </c>
       <c r="D210" s="15">
@@ -8729,7 +8760,7 @@
       <c r="B211" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C211" s="2" t="s">
+      <c r="C211" s="26" t="s">
         <v>621</v>
       </c>
       <c r="D211" s="15">
@@ -8752,7 +8783,7 @@
       <c r="B212" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="C212" s="26" t="s">
         <v>621</v>
       </c>
       <c r="D212" s="21">
@@ -8775,7 +8806,7 @@
       <c r="B213" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="C213" s="26" t="s">
         <v>621</v>
       </c>
       <c r="D213" s="15">
@@ -8798,7 +8829,7 @@
       <c r="B214" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="C214" s="26" t="s">
         <v>621</v>
       </c>
       <c r="D214" s="15">
@@ -8821,7 +8852,7 @@
       <c r="B215" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="C215" s="26" t="s">
         <v>621</v>
       </c>
       <c r="D215" s="15">
@@ -8844,7 +8875,7 @@
       <c r="B216" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C216" s="2" t="s">
+      <c r="C216" s="26" t="s">
         <v>622</v>
       </c>
       <c r="D216" s="15">
@@ -8867,7 +8898,7 @@
       <c r="B217" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="C217" s="26" t="s">
         <v>622</v>
       </c>
       <c r="D217" s="15">
@@ -8890,7 +8921,7 @@
       <c r="B218" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C218" s="2" t="s">
+      <c r="C218" s="26" t="s">
         <v>622</v>
       </c>
       <c r="D218" s="15">
@@ -8913,7 +8944,7 @@
       <c r="B219" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="C219" s="26" t="s">
         <v>622</v>
       </c>
       <c r="D219" s="15">
@@ -8936,7 +8967,7 @@
       <c r="B220" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="C220" s="26" t="s">
         <v>622</v>
       </c>
       <c r="D220" s="15">
@@ -8959,7 +8990,7 @@
       <c r="B221" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="C221" s="26" t="s">
         <v>622</v>
       </c>
       <c r="D221" s="15">
@@ -8982,7 +9013,7 @@
       <c r="B222" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C222" s="2" t="s">
+      <c r="C222" s="26" t="s">
         <v>622</v>
       </c>
       <c r="D222" s="15">
@@ -9005,7 +9036,9 @@
       <c r="B223" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C223" s="2"/>
+      <c r="C223" s="26" t="s">
+        <v>622</v>
+      </c>
       <c r="D223" s="15">
         <v>495</v>
       </c>
@@ -9026,7 +9059,9 @@
       <c r="B224" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C224" s="2"/>
+      <c r="C224" s="26" t="s">
+        <v>622</v>
+      </c>
       <c r="D224" s="15">
         <v>950</v>
       </c>
@@ -9047,7 +9082,7 @@
       <c r="B225" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="C225" s="26" t="s">
         <v>447</v>
       </c>
       <c r="D225" s="15">
@@ -9070,7 +9105,7 @@
       <c r="B226" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="C226" s="26" t="s">
         <v>447</v>
       </c>
       <c r="D226" s="15">
@@ -9093,7 +9128,7 @@
       <c r="B227" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C227" s="2" t="s">
+      <c r="C227" s="26" t="s">
         <v>447</v>
       </c>
       <c r="D227" s="15">
@@ -9116,7 +9151,7 @@
       <c r="B228" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C228" s="2" t="s">
+      <c r="C228" s="26" t="s">
         <v>447</v>
       </c>
       <c r="D228" s="15">
@@ -9139,7 +9174,7 @@
       <c r="B229" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C229" s="2" t="s">
+      <c r="C229" s="26" t="s">
         <v>447</v>
       </c>
       <c r="D229" s="15">
@@ -9162,7 +9197,7 @@
       <c r="B230" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C230" s="2" t="s">
+      <c r="C230" s="26" t="s">
         <v>447</v>
       </c>
       <c r="D230" s="21">
@@ -9185,7 +9220,7 @@
       <c r="B231" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C231" s="2" t="s">
+      <c r="C231" s="26" t="s">
         <v>447</v>
       </c>
       <c r="D231" s="15">
@@ -9208,7 +9243,7 @@
       <c r="B232" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="C232" s="26" t="s">
         <v>623</v>
       </c>
       <c r="D232" s="15">
@@ -9231,7 +9266,7 @@
       <c r="B233" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C233" s="2" t="s">
+      <c r="C233" s="26" t="s">
         <v>624</v>
       </c>
       <c r="D233" s="21">
@@ -9254,7 +9289,7 @@
       <c r="B234" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C234" s="2" t="s">
+      <c r="C234" s="26" t="s">
         <v>624</v>
       </c>
       <c r="D234" s="15">
@@ -9277,7 +9312,7 @@
       <c r="B235" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C235" s="2" t="s">
+      <c r="C235" s="26" t="s">
         <v>624</v>
       </c>
       <c r="D235" s="15">
@@ -9300,7 +9335,7 @@
       <c r="B236" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C236" s="2" t="s">
+      <c r="C236" s="26" t="s">
         <v>624</v>
       </c>
       <c r="D236" s="19">
@@ -9323,7 +9358,7 @@
       <c r="B237" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C237" s="2" t="s">
+      <c r="C237" s="26" t="s">
         <v>624</v>
       </c>
       <c r="D237" s="19">
@@ -9346,7 +9381,7 @@
       <c r="B238" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C238" s="2" t="s">
+      <c r="C238" s="26" t="s">
         <v>624</v>
       </c>
       <c r="D238" s="19">
@@ -9369,7 +9404,7 @@
       <c r="B239" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C239" s="2" t="s">
+      <c r="C239" s="26" t="s">
         <v>624</v>
       </c>
       <c r="D239" s="19">
@@ -9392,7 +9427,7 @@
       <c r="B240" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C240" s="2" t="s">
+      <c r="C240" s="26" t="s">
         <v>624</v>
       </c>
       <c r="D240" s="19">
@@ -9415,7 +9450,7 @@
       <c r="B241" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C241" s="2" t="s">
+      <c r="C241" s="26" t="s">
         <v>624</v>
       </c>
       <c r="D241" s="19">
@@ -9438,7 +9473,7 @@
       <c r="B242" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C242" s="2" t="s">
+      <c r="C242" s="26" t="s">
         <v>624</v>
       </c>
       <c r="D242" s="15">
@@ -9461,7 +9496,7 @@
       <c r="B243" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="C243" s="26" t="s">
         <v>448</v>
       </c>
       <c r="D243" s="21">
@@ -9484,7 +9519,7 @@
       <c r="B244" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C244" s="2" t="s">
+      <c r="C244" s="26" t="s">
         <v>448</v>
       </c>
       <c r="D244" s="21">
@@ -9507,7 +9542,7 @@
       <c r="B245" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C245" s="2" t="s">
+      <c r="C245" s="26" t="s">
         <v>625</v>
       </c>
       <c r="D245" s="19">
@@ -9530,7 +9565,7 @@
       <c r="B246" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C246" s="2" t="s">
+      <c r="C246" s="26" t="s">
         <v>625</v>
       </c>
       <c r="D246" s="19">
@@ -9553,7 +9588,7 @@
       <c r="B247" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C247" s="2" t="s">
+      <c r="C247" s="26" t="s">
         <v>625</v>
       </c>
       <c r="D247" s="15">
@@ -9576,7 +9611,7 @@
       <c r="B248" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C248" s="2" t="s">
+      <c r="C248" s="26" t="s">
         <v>626</v>
       </c>
       <c r="D248" s="15">
@@ -9599,7 +9634,7 @@
       <c r="B249" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C249" s="2" t="s">
+      <c r="C249" s="26" t="s">
         <v>626</v>
       </c>
       <c r="D249" s="19">
@@ -9622,7 +9657,7 @@
       <c r="B250" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C250" s="2" t="s">
+      <c r="C250" s="26" t="s">
         <v>626</v>
       </c>
       <c r="D250" s="15">
@@ -9645,7 +9680,7 @@
       <c r="B251" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C251" s="2" t="s">
+      <c r="C251" s="26" t="s">
         <v>626</v>
       </c>
       <c r="D251" s="15">
@@ -9668,7 +9703,7 @@
       <c r="B252" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C252" s="2" t="s">
+      <c r="C252" s="26" t="s">
         <v>626</v>
       </c>
       <c r="D252" s="15">
@@ -9691,7 +9726,7 @@
       <c r="B253" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C253" s="2" t="s">
+      <c r="C253" s="26" t="s">
         <v>626</v>
       </c>
       <c r="D253" s="15">
@@ -9714,7 +9749,7 @@
       <c r="B254" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C254" s="2" t="s">
+      <c r="C254" s="26" t="s">
         <v>626</v>
       </c>
       <c r="D254" s="19">
@@ -9737,7 +9772,7 @@
       <c r="B255" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C255" s="2" t="s">
+      <c r="C255" s="26" t="s">
         <v>627</v>
       </c>
       <c r="D255" s="15">
@@ -9760,7 +9795,7 @@
       <c r="B256" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C256" s="2" t="s">
+      <c r="C256" s="26" t="s">
         <v>627</v>
       </c>
       <c r="D256" s="15">
@@ -9783,7 +9818,7 @@
       <c r="B257" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C257" s="2" t="s">
+      <c r="C257" s="26" t="s">
         <v>627</v>
       </c>
       <c r="D257" s="19">
@@ -9806,7 +9841,7 @@
       <c r="B258" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C258" s="2" t="s">
+      <c r="C258" s="26" t="s">
         <v>627</v>
       </c>
       <c r="D258" s="19">
@@ -9829,7 +9864,7 @@
       <c r="B259" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C259" s="2" t="s">
+      <c r="C259" s="26" t="s">
         <v>729</v>
       </c>
       <c r="D259" s="19">
@@ -9852,7 +9887,7 @@
       <c r="B260" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="C260" s="2" t="s">
+      <c r="C260" s="26" t="s">
         <v>730</v>
       </c>
       <c r="D260" s="19">
@@ -9875,7 +9910,7 @@
       <c r="B261" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C261" s="2" t="s">
+      <c r="C261" s="26" t="s">
         <v>731</v>
       </c>
       <c r="D261" s="19">
@@ -9898,7 +9933,7 @@
       <c r="B262" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="C262" s="12" t="s">
+      <c r="C262" s="27" t="s">
         <v>444</v>
       </c>
       <c r="D262" s="19">
@@ -9921,7 +9956,7 @@
       <c r="B263" s="6" t="s">
         <v>1059</v>
       </c>
-      <c r="C263" s="6" t="s">
+      <c r="C263" s="28" t="s">
         <v>1040</v>
       </c>
       <c r="D263" s="23">
@@ -9944,7 +9979,7 @@
       <c r="B264" s="6" t="s">
         <v>1059</v>
       </c>
-      <c r="C264" s="6" t="s">
+      <c r="C264" s="28" t="s">
         <v>1041</v>
       </c>
       <c r="D264" s="23">
@@ -9967,7 +10002,7 @@
       <c r="B265" s="6" t="s">
         <v>1059</v>
       </c>
-      <c r="C265" s="6" t="s">
+      <c r="C265" s="28" t="s">
         <v>1042</v>
       </c>
       <c r="D265" s="23">
@@ -9990,7 +10025,7 @@
       <c r="B266" s="6" t="s">
         <v>1060</v>
       </c>
-      <c r="C266" s="6" t="s">
+      <c r="C266" s="28" t="s">
         <v>1043</v>
       </c>
       <c r="D266" s="23">
@@ -10013,7 +10048,7 @@
       <c r="B267" s="6" t="s">
         <v>1060</v>
       </c>
-      <c r="C267" s="6" t="s">
+      <c r="C267" s="28" t="s">
         <v>1044</v>
       </c>
       <c r="D267" s="23">
@@ -10036,7 +10071,7 @@
       <c r="B268" s="6" t="s">
         <v>1060</v>
       </c>
-      <c r="C268" s="6" t="s">
+      <c r="C268" s="28" t="s">
         <v>1045</v>
       </c>
       <c r="D268" s="23">
@@ -10059,7 +10094,7 @@
       <c r="B269" s="6" t="s">
         <v>1060</v>
       </c>
-      <c r="C269" s="6" t="s">
+      <c r="C269" s="28" t="s">
         <v>1046</v>
       </c>
       <c r="D269" s="23">
@@ -10082,7 +10117,7 @@
       <c r="B270" s="6" t="s">
         <v>1060</v>
       </c>
-      <c r="C270" s="6" t="s">
+      <c r="C270" s="28" t="s">
         <v>1047</v>
       </c>
       <c r="D270" s="23">
@@ -10105,7 +10140,7 @@
       <c r="B271" s="6" t="s">
         <v>1060</v>
       </c>
-      <c r="C271" s="6" t="s">
+      <c r="C271" s="28" t="s">
         <v>1048</v>
       </c>
       <c r="D271" s="23">
@@ -10128,7 +10163,7 @@
       <c r="B272" s="6" t="s">
         <v>1060</v>
       </c>
-      <c r="C272" s="6" t="s">
+      <c r="C272" s="28" t="s">
         <v>1049</v>
       </c>
       <c r="D272" s="23">
@@ -10151,7 +10186,7 @@
       <c r="B273" s="6" t="s">
         <v>1060</v>
       </c>
-      <c r="C273" s="6" t="s">
+      <c r="C273" s="28" t="s">
         <v>1050</v>
       </c>
       <c r="D273" s="23">
@@ -10174,7 +10209,7 @@
       <c r="B274" s="6" t="s">
         <v>1060</v>
       </c>
-      <c r="C274" s="6" t="s">
+      <c r="C274" s="28" t="s">
         <v>1051</v>
       </c>
       <c r="D274" s="23">
@@ -10197,7 +10232,7 @@
       <c r="B275" s="6" t="s">
         <v>1060</v>
       </c>
-      <c r="C275" s="6" t="s">
+      <c r="C275" s="28" t="s">
         <v>1052</v>
       </c>
       <c r="D275" s="23">
@@ -10220,7 +10255,7 @@
       <c r="B276" s="6" t="s">
         <v>1060</v>
       </c>
-      <c r="C276" s="6" t="s">
+      <c r="C276" s="28" t="s">
         <v>1053</v>
       </c>
       <c r="D276" s="23">
@@ -10243,7 +10278,7 @@
       <c r="B277" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="C277" s="6" t="s">
+      <c r="C277" s="28" t="s">
         <v>1054</v>
       </c>
       <c r="D277" s="23">
@@ -10266,7 +10301,7 @@
       <c r="B278" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="C278" s="6" t="s">
+      <c r="C278" s="28" t="s">
         <v>1055</v>
       </c>
       <c r="D278" s="23">
@@ -10289,7 +10324,7 @@
       <c r="B279" s="6" t="s">
         <v>1061</v>
       </c>
-      <c r="C279" s="6" t="s">
+      <c r="C279" s="28" t="s">
         <v>1056</v>
       </c>
       <c r="D279" s="23">
@@ -10312,7 +10347,7 @@
       <c r="B280" s="6" t="s">
         <v>1061</v>
       </c>
-      <c r="C280" s="6" t="s">
+      <c r="C280" s="28" t="s">
         <v>1057</v>
       </c>
       <c r="D280" s="23">
@@ -10335,7 +10370,7 @@
       <c r="B281" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="C281" s="6" t="s">
+      <c r="C281" s="28" t="s">
         <v>1058</v>
       </c>
       <c r="D281" s="23">
@@ -10349,6 +10384,40 @@
       </c>
       <c r="G281" s="18" t="s">
         <v>1018</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B282" s="5" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C282" s="28" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D282" s="29">
+        <v>800</v>
+      </c>
+      <c r="F282" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G282" s="18" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B283" s="5" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C283" s="28" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D283">
+        <v>600</v>
+      </c>
+      <c r="F283" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G283" s="18" t="s">
+        <v>1078</v>
       </c>
     </row>
   </sheetData>

--- a/Gallery.xlsx
+++ b/Gallery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelaziz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0155F8-A1E7-4130-B6E5-B73E87B64116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A747AEF7-CA1D-4E50-95F6-3704B7BCFF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="1086">
   <si>
     <t>Number</t>
   </si>
@@ -3274,6 +3274,18 @@
   </si>
   <si>
     <t>Medium Islamic manuscript wood panel</t>
+  </si>
+  <si>
+    <t>1000000282</t>
+  </si>
+  <si>
+    <t>1000000283</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/283.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/284.jpeg</t>
   </si>
 </sst>
 </file>
@@ -3396,7 +3408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3471,6 +3483,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3905,10 +3920,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98041684-60AD-4B6B-B652-1A806A9CDDBF}">
   <dimension ref="A1:G283"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E282" sqref="E282"/>
+      <selection pane="bottomLeft" activeCell="C288" sqref="C288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10387,6 +10402,9 @@
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" s="7" t="s">
+        <v>1082</v>
+      </c>
       <c r="B282" s="5" t="s">
         <v>1080</v>
       </c>
@@ -10396,6 +10414,9 @@
       <c r="D282" s="29">
         <v>800</v>
       </c>
+      <c r="E282" s="30" t="s">
+        <v>1084</v>
+      </c>
       <c r="F282" s="6" t="s">
         <v>180</v>
       </c>
@@ -10404,6 +10425,9 @@
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" s="7" t="s">
+        <v>1083</v>
+      </c>
       <c r="B283" s="5" t="s">
         <v>1080</v>
       </c>
@@ -10412,6 +10436,9 @@
       </c>
       <c r="D283">
         <v>600</v>
+      </c>
+      <c r="E283" s="30" t="s">
+        <v>1085</v>
       </c>
       <c r="F283" s="6" t="s">
         <v>180</v>
@@ -10616,6 +10643,8 @@
     <hyperlink ref="E279" r:id="rId162" xr:uid="{F9115941-F061-448B-9B1A-C14B392C8274}"/>
     <hyperlink ref="E280" r:id="rId163" xr:uid="{6F9A8D9D-399A-4FAC-AF94-D1799D5EE200}"/>
     <hyperlink ref="E281" r:id="rId164" xr:uid="{76474EB2-648C-48DA-B1E9-CB94DC2F6387}"/>
+    <hyperlink ref="E282" r:id="rId165" xr:uid="{4BC0DDC7-300F-4B53-8FDF-0F7B5AE3496F}"/>
+    <hyperlink ref="E283" r:id="rId166" xr:uid="{DB055508-A9D3-4E1D-88DC-90B0C3CE4013}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Gallery.xlsx
+++ b/Gallery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelaziz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A747AEF7-CA1D-4E50-95F6-3704B7BCFF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA9A617-EE94-44FE-BBB4-72FE9B0A5658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,9 +156,6 @@
     <t>بوت اناناس اوبالين ازرق جوز</t>
   </si>
   <si>
-    <t>جوز مصاطر ازرق برفاتانيا شيم</t>
-  </si>
-  <si>
     <t>صحن وزبدية ازرق طقم قطعتين</t>
   </si>
   <si>
@@ -1158,9 +1155,6 @@
     <t>Vases</t>
   </si>
   <si>
-    <t>Gourds</t>
-  </si>
-  <si>
     <t>Plates</t>
   </si>
   <si>
@@ -1173,24 +1167,9 @@
     <t>Sirmats</t>
   </si>
   <si>
-    <t>Bohemian Mozart Vase \ 2</t>
-  </si>
-  <si>
     <t>Bohemian Red Luster Pineapple Pot \ 2</t>
   </si>
   <si>
-    <t>Step Pot Two Layers White Red</t>
-  </si>
-  <si>
-    <t>Step Pot Vases Red White</t>
-  </si>
-  <si>
-    <t>Step Pot Vase Red White</t>
-  </si>
-  <si>
-    <t>Step Pot Pineapple Red White /2</t>
-  </si>
-  <si>
     <t>Paintings</t>
   </si>
   <si>
@@ -1320,9 +1299,6 @@
     <t>French Bohemian red box with silver elephant handle</t>
   </si>
   <si>
-    <t>Green and black opaline walnut</t>
-  </si>
-  <si>
     <t>White transparent opaline cup</t>
   </si>
   <si>
@@ -1470,21 +1446,12 @@
     <t>Moroccan Luban frame small necklace</t>
   </si>
   <si>
-    <t>Bronze horse figurine</t>
-  </si>
-  <si>
-    <t>Opalite blue trophies</t>
-  </si>
-  <si>
     <t>French Limoges porcelain plates</t>
   </si>
   <si>
     <t>French Limoges blue box</t>
   </si>
   <si>
-    <t>White opalite vases</t>
-  </si>
-  <si>
     <t>Boots</t>
   </si>
   <si>
@@ -1500,21 +1467,6 @@
     <t>White opaline pineapple pot</t>
   </si>
   <si>
-    <t>Blue large pineapple walnut pot</t>
-  </si>
-  <si>
-    <t>Blue Russian caesari gardener hookah</t>
-  </si>
-  <si>
-    <t>Blue opaline gourds walnut</t>
-  </si>
-  <si>
-    <t>Blue opaline pineapple pot walnut</t>
-  </si>
-  <si>
-    <t>Blue walnut masatar parvatania shem</t>
-  </si>
-  <si>
     <t>Blue plate and bowl set of 2</t>
   </si>
   <si>
@@ -1527,15 +1479,9 @@
     <t>Pair of pink French porcelain plates</t>
   </si>
   <si>
-    <t>Russian garner flower hookah</t>
-  </si>
-  <si>
     <t>Limoges red porcelain plates\ 2</t>
   </si>
   <si>
-    <t>Limoges box in pink</t>
-  </si>
-  <si>
     <t>Opaline candlestick pair</t>
   </si>
   <si>
@@ -1545,9 +1491,6 @@
     <t>Opaline vases with gazelle head</t>
   </si>
   <si>
-    <t>Green Ottoman stump</t>
-  </si>
-  <si>
     <t>Red Bohemian graffiti pair / 2</t>
   </si>
   <si>
@@ -1557,18 +1500,6 @@
     <t>Graphites</t>
   </si>
   <si>
-    <t>Bohemian red sprinkler nuts /2</t>
-  </si>
-  <si>
-    <t>Moroccan necklace, old frame, blue thread center</t>
-  </si>
-  <si>
-    <t>Moroccan necklace, old frame, black thread center</t>
-  </si>
-  <si>
-    <t>A pair of blue and green French mason plates with pictures</t>
-  </si>
-  <si>
     <t>A transparent decorated Bohemian vase</t>
   </si>
   <si>
@@ -1578,9 +1509,6 @@
     <t>A 5-drawer Syrian wooden consul</t>
   </si>
   <si>
-    <t>A large burgundy Ottoman sarmeh</t>
-  </si>
-  <si>
     <t>A pair of large navy blue graffiti</t>
   </si>
   <si>
@@ -1593,42 +1521,18 @@
     <t>Circles</t>
   </si>
   <si>
-    <t>Bohemian Blue Lanterns Nut</t>
-  </si>
-  <si>
     <t>Large Turquoise Bohemian Lantern</t>
   </si>
   <si>
-    <t>Blue and White Czech Step Boss Nut</t>
-  </si>
-  <si>
     <t>Blue Italian Transparent Base Cup</t>
   </si>
   <si>
     <t>Syrian Shell Mirror Consul</t>
   </si>
   <si>
-    <t>Beige Vertical Painted Opaline Nut</t>
-  </si>
-  <si>
-    <t>French Painted Opaline Nut</t>
-  </si>
-  <si>
-    <t>Medium White and Yellow Flower Painted Opaline Nut</t>
-  </si>
-  <si>
     <t>Green Opaline Vase</t>
   </si>
   <si>
-    <t>White Opaline Nut Gold and Green Flower</t>
-  </si>
-  <si>
-    <t>Yellow opaline walnut, imported</t>
-  </si>
-  <si>
-    <t>Large opaline walnut, pictured</t>
-  </si>
-  <si>
     <t>Large opaline vase, as pictures and website</t>
   </si>
   <si>
@@ -1641,24 +1545,12 @@
     <t>Moroccan Luban frame, various types of stones, small</t>
   </si>
   <si>
-    <t>Lemon graphite walnut</t>
-  </si>
-  <si>
-    <t>Set of 3 pieces of Parvatan walnuts with a plate</t>
-  </si>
-  <si>
     <t>Golden green Bohemian box</t>
   </si>
   <si>
-    <t>Navy walnut Oriental vases</t>
-  </si>
-  <si>
     <t>French navy blue box illustrated with bronze</t>
   </si>
   <si>
-    <t>French Limoges egg walnuts navy blue with bronze</t>
-  </si>
-  <si>
     <t>Set of 3 pieces of meat fat vases</t>
   </si>
   <si>
@@ -1722,9 +1614,6 @@
     <t>Old Syrian display cabinet with mother of pearl</t>
   </si>
   <si>
-    <t>Wool carpet nuts with Iranian silk inlay / 2</t>
-  </si>
-  <si>
     <t>2 rooster figures</t>
   </si>
   <si>
@@ -1752,27 +1641,15 @@
     <t>Turquoise crocodile figurine</t>
   </si>
   <si>
-    <t>Medium Syrian shell mirror nut</t>
-  </si>
-  <si>
     <t>Large frame Moroccan necklace with different stones</t>
   </si>
   <si>
     <t>Large Ottoman sirma silver and silk threads</t>
   </si>
   <si>
-    <t>Black sirmat nut with gold stripes</t>
-  </si>
-  <si>
     <t>Syrian seashell caskets</t>
   </si>
   <si>
-    <t>Copper applique nut</t>
-  </si>
-  <si>
-    <t>French yellow and pink vase nut</t>
-  </si>
-  <si>
     <t>Ottoman sirma silver frame</t>
   </si>
   <si>
@@ -1878,9 +1755,6 @@
     <t>White and blue Parvatan chandelier</t>
   </si>
   <si>
-    <t>White and blue Step Pot chandelier</t>
-  </si>
-  <si>
     <t>French brass candlestick with navy blue picture</t>
   </si>
   <si>
@@ -3039,9 +2913,6 @@
     <t>سبح لوبان حجم وسط مع شرابة برتقالي عريض</t>
   </si>
   <si>
-    <t>غليون كهرب حجم كبير مع غطاء</t>
-  </si>
-  <si>
     <t>غليون خشب  شكل اسد و كهرمان حجم متوسط</t>
   </si>
   <si>
@@ -3054,18 +2925,6 @@
     <t>غليون خشب ابيض و كهرمان</t>
   </si>
   <si>
-    <t>فلتر سجائر كهرب وخشب مع رئسية ذهبية</t>
-  </si>
-  <si>
-    <t>فلتر سجائر كهرب وخشب مع رئسية بيضاء محروقة</t>
-  </si>
-  <si>
-    <t>فلتر سجائر كهرب وخشب  مع رئسية بيضاء</t>
-  </si>
-  <si>
-    <t>فلتر سجائر كهرب كامل مع رئسية ذهبية حجم صغير  مع غطاء</t>
-  </si>
-  <si>
     <t>فلتر سجائر كهرمان فضة وخشب مع غطاء</t>
   </si>
   <si>
@@ -3159,9 +3018,6 @@
     <t>Luban Tasbih Medium Size with Wide Orange Tassel</t>
   </si>
   <si>
-    <t>Large Electric Pipe with Cover</t>
-  </si>
-  <si>
     <t>Medium Size Lion and Amber Wooden Pipe</t>
   </si>
   <si>
@@ -3174,15 +3030,6 @@
     <t>White Wood and Amber Pipe</t>
   </si>
   <si>
-    <t>Electric and Wood Cigarette Filter with Golden Head</t>
-  </si>
-  <si>
-    <t>Electric and Wood Cigarette Filter with Burnt White Head</t>
-  </si>
-  <si>
-    <t>Electric and Wood Cigarette Filter with White Head</t>
-  </si>
-  <si>
     <t>Complete Electric Cigarette Filter with Golden Head Small Size with Cover</t>
   </si>
   <si>
@@ -3286,6 +3133,159 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/284.jpeg</t>
+  </si>
+  <si>
+    <t>غليون كهرمان حجم كبير مع غطاء</t>
+  </si>
+  <si>
+    <t>Large amber pipe with Cover</t>
+  </si>
+  <si>
+    <t>فلتر سجائر كهرمان وخشب مع رئسية ذهبية</t>
+  </si>
+  <si>
+    <t>فلتر سجائر كهرمان وخشب مع رئسية بيضاء محروقة</t>
+  </si>
+  <si>
+    <t>فلتر سجائر كهرمان وخشب  مع رئسية بيضاء</t>
+  </si>
+  <si>
+    <t>فلتر سجائر كهرمان كامل مع رئسية ذهبية حجم صغير  مع غطاء</t>
+  </si>
+  <si>
+    <t>Amber and Wood Cigarette Filter with Golden Head</t>
+  </si>
+  <si>
+    <t>Amber and Wood Cigarette Filter with Burnt White Head</t>
+  </si>
+  <si>
+    <t>Amber and Wood Cigarette Filter with White Head</t>
+  </si>
+  <si>
+    <t>Bohemian Mozart Vases \ 2</t>
+  </si>
+  <si>
+    <t>Stephos Two Layers White Red</t>
+  </si>
+  <si>
+    <t>Stephos Vases Red White</t>
+  </si>
+  <si>
+    <t>Stephos Vase Red White</t>
+  </si>
+  <si>
+    <t>Stephos Pineapple Red White /2</t>
+  </si>
+  <si>
+    <t>White and blue Stephos chandelier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bronze horse </t>
+  </si>
+  <si>
+    <t>Opaline blue trophies</t>
+  </si>
+  <si>
+    <t>White opaline vases</t>
+  </si>
+  <si>
+    <t>Blue Russian gardener hookah</t>
+  </si>
+  <si>
+    <t>Blue opaline karaf</t>
+  </si>
+  <si>
+    <t>karaf</t>
+  </si>
+  <si>
+    <t>Blue opaline pineapple pot</t>
+  </si>
+  <si>
+    <t>جوز ازرق برفاتانيا</t>
+  </si>
+  <si>
+    <t>Blue parvatania</t>
+  </si>
+  <si>
+    <t>Russian gardner flower hookah</t>
+  </si>
+  <si>
+    <t>Limoges pink box</t>
+  </si>
+  <si>
+    <t>Green Ottoman sirma</t>
+  </si>
+  <si>
+    <t>Bohemian red sprinkler pair /2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moroccan necklace, old frame, blue thread </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moroccan necklace, old frame, black thread </t>
+  </si>
+  <si>
+    <t>A pair of blue and green French maison plates</t>
+  </si>
+  <si>
+    <t>A large burgundy Ottoman sirma</t>
+  </si>
+  <si>
+    <t>Bohemian Blue Lanterns</t>
+  </si>
+  <si>
+    <t>Blue and White Czech Stephos</t>
+  </si>
+  <si>
+    <t>Beige Vertical Painted Opaline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French Painted Opaline </t>
+  </si>
+  <si>
+    <t>Blue large pineapple wal  pot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium White and Yellow Flower Painted Opaline  </t>
+  </si>
+  <si>
+    <t>White Opaline   Gold and Green Flower</t>
+  </si>
+  <si>
+    <t>Yellow opaline wal , imported</t>
+  </si>
+  <si>
+    <t>Large opaline wal , pictured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lemon graphite wal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green and black opaline wal </t>
+  </si>
+  <si>
+    <t>Set of 3 pieces of Parvatan wal s with a plate</t>
+  </si>
+  <si>
+    <t>Navy wal  Oriental vases</t>
+  </si>
+  <si>
+    <t>French Limoges egg wal s navy blue with bronze</t>
+  </si>
+  <si>
+    <t>Wool carpet  s with Iranian silk inlay / 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium Syrian shell mirror  </t>
+  </si>
+  <si>
+    <t>Black sirmat   with gold stripes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copper applique  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">French yellow and pink vase  </t>
   </si>
 </sst>
 </file>
@@ -3408,7 +3408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3485,6 +3485,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3920,20 +3954,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98041684-60AD-4B6B-B652-1A806A9CDDBF}">
   <dimension ref="A1:G283"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C288" sqref="C288"/>
+      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.296875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="11.09765625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="84" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.69921875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="23.296875" style="7" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.09765625" style="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="84" style="28" customWidth="1"/>
+    <col min="4" max="4" width="5.8984375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="6" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.69921875" style="6" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="51.69921875" style="18" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.796875" style="9"/>
   </cols>
@@ -3963,13 +3997,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>732</v>
+        <v>690</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>381</v>
+        <v>1044</v>
       </c>
       <c r="D2" s="19">
         <v>2000</v>
@@ -3978,7 +4012,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>19</v>
@@ -3986,13 +4020,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>733</v>
+        <v>691</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>376</v>
+        <v>1055</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="D3" s="15">
         <v>1750</v>
@@ -4001,7 +4035,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>20</v>
@@ -4009,13 +4043,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>734</v>
+        <v>692</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="D4" s="15">
         <v>500</v>
@@ -4024,7 +4058,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>21</v>
@@ -4032,13 +4066,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>735</v>
+        <v>693</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="D5" s="15">
         <v>500</v>
@@ -4047,21 +4081,21 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>736</v>
+        <v>694</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D6" s="15">
         <v>1500</v>
@@ -4070,7 +4104,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>22</v>
@@ -4078,13 +4112,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>737</v>
+        <v>695</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>383</v>
+        <v>1045</v>
       </c>
       <c r="D7" s="15">
         <v>800</v>
@@ -4093,7 +4127,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>23</v>
@@ -4101,13 +4135,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>738</v>
+        <v>696</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>384</v>
+        <v>1046</v>
       </c>
       <c r="D8" s="15">
         <v>1600</v>
@@ -4116,7 +4150,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>24</v>
@@ -4124,13 +4158,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>739</v>
+        <v>697</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>385</v>
+        <v>1047</v>
       </c>
       <c r="D9" s="15">
         <v>900</v>
@@ -4139,7 +4173,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>25</v>
@@ -4147,13 +4181,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>740</v>
+        <v>698</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>386</v>
+        <v>1048</v>
       </c>
       <c r="D10" s="15">
         <v>2500</v>
@@ -4162,7 +4196,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>26</v>
@@ -4170,13 +4204,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>741</v>
+        <v>699</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="D11" s="15">
         <v>3000</v>
@@ -4185,7 +4219,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>27</v>
@@ -4193,13 +4227,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>742</v>
+        <v>700</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D12" s="15">
         <v>1750</v>
@@ -4208,7 +4242,7 @@
         <v>17</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>28</v>
@@ -4216,13 +4250,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>743</v>
+        <v>701</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="D13" s="15">
         <v>1200</v>
@@ -4231,7 +4265,7 @@
         <v>18</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>29</v>
@@ -4239,68 +4273,68 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>744</v>
+        <v>702</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="D14" s="15">
         <v>900</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>745</v>
+        <v>703</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="D15" s="15">
         <v>500</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>746</v>
+        <v>704</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>480</v>
+        <v>1050</v>
       </c>
       <c r="D16" s="15">
         <v>1500</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>30</v>
@@ -4308,22 +4342,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>747</v>
+        <v>705</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>481</v>
+        <v>1051</v>
       </c>
       <c r="D17" s="15">
         <v>1200</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>31</v>
@@ -4331,22 +4365,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>748</v>
+        <v>706</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="D18" s="15">
         <v>1000</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>32</v>
@@ -4354,22 +4388,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>749</v>
+        <v>707</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="D19" s="15">
         <v>2000</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>33</v>
@@ -4377,22 +4411,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>750</v>
+        <v>708</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>484</v>
+        <v>1052</v>
       </c>
       <c r="D20" s="15">
         <v>750</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G20" s="17" t="s">
         <v>34</v>
@@ -4400,22 +4434,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>751</v>
+        <v>709</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="D21" s="15">
         <v>1750</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>35</v>
@@ -4423,22 +4457,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>752</v>
+        <v>710</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="D22" s="15">
         <v>1400</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G22" s="17" t="s">
         <v>36</v>
@@ -4446,22 +4480,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>753</v>
+        <v>711</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="D23" s="15">
         <v>700</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G23" s="17" t="s">
         <v>37</v>
@@ -4469,22 +4503,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>754</v>
+        <v>712</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>490</v>
+        <v>1071</v>
       </c>
       <c r="D24" s="15">
         <v>2500</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>38</v>
@@ -4492,91 +4526,91 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>755</v>
+        <v>713</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>491</v>
+        <v>1053</v>
       </c>
       <c r="D25" s="15">
         <v>1500</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>631</v>
+        <v>589</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>756</v>
+        <v>714</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>491</v>
+        <v>1053</v>
       </c>
       <c r="D26" s="15">
         <v>1500</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="38" t="s">
+        <v>715</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>462</v>
+      </c>
+      <c r="D27" s="21">
+        <v>1200</v>
+      </c>
+      <c r="E27" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>757</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>470</v>
-      </c>
-      <c r="D27" s="15">
-        <v>1200</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G27" s="17" t="s">
+      <c r="F27" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="G27" s="42" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>758</v>
+        <v>716</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>376</v>
+        <v>1055</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>492</v>
+        <v>1054</v>
       </c>
       <c r="D28" s="15">
         <v>2500</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>40</v>
@@ -4584,22 +4618,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>759</v>
+        <v>717</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>493</v>
+        <v>1056</v>
       </c>
       <c r="D29" s="15">
         <v>3000</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G29" s="17" t="s">
         <v>41</v>
@@ -4607,5844 +4641,5844 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>760</v>
+        <v>718</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>494</v>
+        <v>1058</v>
       </c>
       <c r="D30" s="15">
         <v>1200</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>42</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>761</v>
+        <v>719</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="D31" s="15">
         <v>800</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>762</v>
+        <v>720</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="D32" s="15">
         <v>1200</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>763</v>
+        <v>721</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="D33" s="15">
         <v>3000</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>764</v>
+        <v>722</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="D34" s="15">
         <v>700</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>765</v>
+        <v>723</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D35" s="15">
         <v>1000</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>766</v>
+        <v>724</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D36" s="15">
         <v>1200</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>767</v>
+        <v>725</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D37" s="15">
         <v>900</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>768</v>
+        <v>726</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>499</v>
+        <v>1059</v>
       </c>
       <c r="D38" s="15">
         <v>1500</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>769</v>
+        <v>727</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D39" s="15">
         <v>1500</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>770</v>
+        <v>728</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="D40" s="15">
         <v>500</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>628</v>
+        <v>586</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>771</v>
+        <v>729</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>501</v>
+        <v>1060</v>
       </c>
       <c r="D41" s="15">
         <v>1200</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>772</v>
+        <v>730</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="D42" s="15">
         <v>2500</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>773</v>
+        <v>731</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="D43" s="15">
         <v>2200</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>774</v>
+        <v>732</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="D44" s="15">
         <v>1200</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>775</v>
+        <v>733</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="D45" s="15">
         <v>2000</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>776</v>
+        <v>734</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="D46" s="15">
         <v>1000</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>777</v>
+        <v>735</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="D47" s="15">
         <v>1100</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>778</v>
+        <v>736</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="D48" s="15">
         <v>1200</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>779</v>
+        <v>737</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>505</v>
+        <v>1061</v>
       </c>
       <c r="D49" s="15">
         <v>1200</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>780</v>
+        <v>738</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="D50" s="15">
         <v>2000</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>781</v>
+        <v>739</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>509</v>
+        <v>1062</v>
       </c>
       <c r="D51" s="15">
         <v>400</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>782</v>
+        <v>740</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>510</v>
+        <v>1063</v>
       </c>
       <c r="D52" s="15">
         <v>800</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>783</v>
+        <v>741</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>511</v>
+        <v>1064</v>
       </c>
       <c r="D53" s="15">
         <v>800</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>784</v>
+        <v>742</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>512</v>
+        <v>1065</v>
       </c>
       <c r="D54" s="15">
         <v>3500</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>785</v>
+        <v>743</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>513</v>
+        <v>490</v>
       </c>
       <c r="D55" s="15">
         <v>600</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>786</v>
+        <v>744</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>514</v>
+        <v>491</v>
       </c>
       <c r="D56" s="15">
         <v>950</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>787</v>
+        <v>745</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>515</v>
+        <v>492</v>
       </c>
       <c r="D57" s="15">
         <v>4000</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>788</v>
+        <v>746</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>516</v>
+        <v>1066</v>
       </c>
       <c r="D58" s="15">
         <v>4000</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>789</v>
+        <v>747</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="D59" s="15">
         <v>2500</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>790</v>
+        <v>748</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="D60" s="15">
         <v>4000</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G60" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>791</v>
+        <v>749</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>521</v>
+        <v>1067</v>
       </c>
       <c r="D61" s="15">
         <v>900</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>792</v>
+        <v>750</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>522</v>
+        <v>497</v>
       </c>
       <c r="D62" s="15">
         <v>1200</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G62" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="38" t="s">
+        <v>751</v>
+      </c>
+      <c r="B63" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="C63" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D63" s="21">
+        <v>1200</v>
+      </c>
+      <c r="E63" s="41" t="s">
         <v>260</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G62" s="17" t="s">
+      <c r="F63" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="G63" s="42" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>793</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="C63" s="26" t="s">
-        <v>523</v>
-      </c>
-      <c r="D63" s="15">
-        <v>1200</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G63" s="17" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>794</v>
+        <v>752</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>524</v>
+        <v>498</v>
       </c>
       <c r="D64" s="15">
         <v>600</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>795</v>
+        <v>753</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>525</v>
+        <v>499</v>
       </c>
       <c r="D65" s="15">
         <v>4500</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>796</v>
+        <v>754</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>526</v>
+        <v>1069</v>
       </c>
       <c r="D66" s="15">
         <v>850</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>797</v>
+        <v>755</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>527</v>
+        <v>1070</v>
       </c>
       <c r="D67" s="15">
         <v>1200</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>798</v>
+        <v>756</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>528</v>
+        <v>1072</v>
       </c>
       <c r="D68" s="15">
         <v>900</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>629</v>
+        <v>587</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G68" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>799</v>
+        <v>757</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="D69" s="15">
         <v>300</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G69" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>800</v>
+        <v>758</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>530</v>
+        <v>1073</v>
       </c>
       <c r="D70" s="15">
         <v>1800</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G70" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>801</v>
+        <v>759</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>531</v>
+        <v>1074</v>
       </c>
       <c r="D71" s="15">
         <v>1200</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G71" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>802</v>
+        <v>760</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>532</v>
+        <v>1075</v>
       </c>
       <c r="D72" s="15">
         <v>1600</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>803</v>
+        <v>761</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>533</v>
+        <v>501</v>
       </c>
       <c r="D73" s="15">
         <v>2000</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G73" s="17" t="s">
-        <v>630</v>
+        <v>588</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>804</v>
+        <v>762</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>534</v>
+        <v>502</v>
       </c>
       <c r="D74" s="15">
         <v>12500</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>805</v>
+        <v>763</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>535</v>
+        <v>503</v>
       </c>
       <c r="D75" s="15">
         <v>800</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G75" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>806</v>
+        <v>764</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="D76" s="15">
         <v>600</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G76" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>807</v>
+        <v>765</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D77" s="15">
         <v>750</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G77" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>808</v>
+        <v>766</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C78" s="26" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="D78" s="19">
         <v>500</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G78" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>809</v>
+        <v>767</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="C79" s="26" t="s">
-        <v>537</v>
+        <v>1076</v>
       </c>
       <c r="D79" s="15">
         <v>2500</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G79" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>810</v>
+        <v>768</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>430</v>
+        <v>1077</v>
       </c>
       <c r="D80" s="15">
         <v>1500</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G80" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>811</v>
+        <v>769</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>545</v>
+        <v>509</v>
       </c>
       <c r="C81" s="26" t="s">
-        <v>538</v>
+        <v>1078</v>
       </c>
       <c r="D81" s="19">
         <v>750</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G81" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>812</v>
+        <v>770</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C82" s="26" t="s">
-        <v>539</v>
+        <v>505</v>
       </c>
       <c r="D82" s="15">
         <v>350</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G82" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>813</v>
+        <v>771</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C83" s="26" t="s">
-        <v>540</v>
+        <v>1079</v>
       </c>
       <c r="D83" s="15">
         <v>750</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G83" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>814</v>
+        <v>772</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>546</v>
+        <v>510</v>
       </c>
       <c r="C84" s="26" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="D84" s="15">
         <v>600</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G84" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>815</v>
+        <v>773</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C85" s="26" t="s">
-        <v>541</v>
+        <v>506</v>
       </c>
       <c r="D85" s="15">
         <v>600</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G85" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>816</v>
+        <v>774</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>542</v>
+        <v>1080</v>
       </c>
       <c r="D86" s="15">
         <v>1200</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G86" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>817</v>
+        <v>775</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C87" s="26" t="s">
-        <v>543</v>
+        <v>507</v>
       </c>
       <c r="D87" s="15">
         <v>1700</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G87" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>818</v>
+        <v>776</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C88" s="26" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="D88" s="15">
         <v>300</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G88" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>819</v>
+        <v>777</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C89" s="26" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D89" s="15">
         <v>500</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G89" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>820</v>
+        <v>778</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C90" s="26" t="s">
-        <v>544</v>
+        <v>508</v>
       </c>
       <c r="D90" s="15">
         <v>400</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G90" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>821</v>
+        <v>779</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C91" s="26" t="s">
-        <v>547</v>
+        <v>511</v>
       </c>
       <c r="D91" s="15">
         <v>2750</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G91" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>822</v>
+        <v>780</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C92" s="26" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="D92" s="15">
         <v>3750</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G92" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>823</v>
+        <v>781</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C93" s="26" t="s">
-        <v>548</v>
+        <v>512</v>
       </c>
       <c r="D93" s="15">
         <v>3500</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G93" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>824</v>
+        <v>782</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C94" s="26" t="s">
-        <v>549</v>
+        <v>513</v>
       </c>
       <c r="D94" s="15">
         <v>20000</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G94" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>825</v>
+        <v>783</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C95" s="26" t="s">
-        <v>550</v>
+        <v>514</v>
       </c>
       <c r="D95" s="15">
         <v>800</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G95" s="17" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>826</v>
+        <v>784</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>551</v>
+        <v>515</v>
       </c>
       <c r="D96" s="15">
         <v>2500</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G96" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>827</v>
+        <v>785</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C97" s="26" t="s">
-        <v>552</v>
+        <v>516</v>
       </c>
       <c r="D97" s="15">
         <v>3000</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G97" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>828</v>
+        <v>786</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>553</v>
+        <v>517</v>
       </c>
       <c r="D98" s="15">
         <v>750</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G98" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>829</v>
+        <v>787</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C99" s="26" t="s">
-        <v>554</v>
+        <v>518</v>
       </c>
       <c r="D99" s="15">
         <v>350</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>830</v>
+        <v>788</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C100" s="26" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="D100" s="15">
         <v>4000</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G100" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>831</v>
+        <v>789</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C101" s="26" t="s">
-        <v>555</v>
+        <v>519</v>
       </c>
       <c r="D101" s="15">
         <v>3500</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>832</v>
+        <v>790</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C102" s="26" t="s">
-        <v>556</v>
+        <v>520</v>
       </c>
       <c r="D102" s="15">
         <v>2800</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G102" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>833</v>
+        <v>791</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C103" s="26" t="s">
-        <v>557</v>
+        <v>521</v>
       </c>
       <c r="D103" s="15">
         <v>1200</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G103" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>834</v>
+        <v>792</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C104" s="26" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="D104" s="15">
         <v>300</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G104" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>835</v>
+        <v>793</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C105" s="26" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="D105" s="15">
         <v>1200</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G105" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>836</v>
+        <v>794</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C106" s="26" t="s">
-        <v>558</v>
+        <v>522</v>
       </c>
       <c r="D106" s="15">
         <v>850</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G106" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>837</v>
+        <v>795</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C107" s="26" t="s">
-        <v>559</v>
+        <v>523</v>
       </c>
       <c r="D107" s="15">
         <v>400</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G107" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>838</v>
+        <v>796</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C108" s="26" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="D108" s="15">
         <v>2500</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G108" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>839</v>
+        <v>797</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C109" s="26" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="D109" s="15">
         <v>1000</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G109" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>840</v>
+        <v>798</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C110" s="26" t="s">
-        <v>560</v>
+        <v>524</v>
       </c>
       <c r="D110" s="15">
         <v>400</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G110" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>841</v>
+        <v>799</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C111" s="26" t="s">
-        <v>561</v>
+        <v>525</v>
       </c>
       <c r="D111" s="15">
         <v>1000</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G111" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>842</v>
+        <v>800</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C112" s="26" t="s">
-        <v>562</v>
+        <v>526</v>
       </c>
       <c r="D112" s="15">
         <v>750</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G112" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>843</v>
+        <v>801</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C113" s="26" t="s">
-        <v>563</v>
+        <v>527</v>
       </c>
       <c r="D113" s="15">
         <v>4000</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G113" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>844</v>
+        <v>802</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C114" s="26" t="s">
-        <v>564</v>
+        <v>1081</v>
       </c>
       <c r="D114" s="15">
         <v>3000</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G114" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>845</v>
+        <v>803</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C115" s="26" t="s">
-        <v>565</v>
+        <v>528</v>
       </c>
       <c r="D115" s="15">
         <v>2000</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G115" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>846</v>
+        <v>804</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C116" s="26" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="D116" s="15">
         <v>4000</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G116" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>847</v>
+        <v>805</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C117" s="26" t="s">
-        <v>566</v>
+        <v>529</v>
       </c>
       <c r="D117" s="15">
         <v>1800</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G117" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>848</v>
+        <v>806</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C118" s="26" t="s">
-        <v>567</v>
+        <v>530</v>
       </c>
       <c r="D118" s="15">
         <v>1200</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G118" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>849</v>
+        <v>807</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C119" s="26" t="s">
-        <v>568</v>
+        <v>531</v>
       </c>
       <c r="D119" s="15">
         <v>800</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G119" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>850</v>
+        <v>808</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C120" s="26" t="s">
-        <v>569</v>
+        <v>532</v>
       </c>
       <c r="D120" s="15">
         <v>250</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G120" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>851</v>
+        <v>809</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C121" s="26" t="s">
-        <v>570</v>
+        <v>533</v>
       </c>
       <c r="D121" s="15">
         <v>2500</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G121" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>852</v>
+        <v>810</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C122" s="26" t="s">
-        <v>571</v>
+        <v>534</v>
       </c>
       <c r="D122" s="15">
         <v>800</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G122" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>853</v>
+        <v>811</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C123" s="26" t="s">
-        <v>572</v>
+        <v>535</v>
       </c>
       <c r="D123" s="15">
         <v>800</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G123" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>854</v>
+        <v>812</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C124" s="26" t="s">
-        <v>573</v>
+        <v>536</v>
       </c>
       <c r="D124" s="15">
         <v>500</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G124" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>855</v>
+        <v>813</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C125" s="26" t="s">
-        <v>574</v>
+        <v>1082</v>
       </c>
       <c r="D125" s="15">
         <v>2000</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G125" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>856</v>
+        <v>814</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C126" s="26" t="s">
-        <v>575</v>
+        <v>537</v>
       </c>
       <c r="D126" s="15">
         <v>1200</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G126" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>857</v>
+        <v>815</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C127" s="26" t="s">
-        <v>576</v>
+        <v>538</v>
       </c>
       <c r="D127" s="15">
         <v>5000</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G127" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>858</v>
+        <v>816</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C128" s="26" t="s">
-        <v>577</v>
+        <v>1083</v>
       </c>
       <c r="D128" s="15">
         <v>2000</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G128" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>859</v>
+        <v>817</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C129" s="26" t="s">
-        <v>578</v>
+        <v>539</v>
       </c>
       <c r="D129" s="15">
         <v>1500</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G129" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>860</v>
+        <v>818</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C130" s="26" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="D130" s="15">
         <v>6000</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G130" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>861</v>
+        <v>819</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C131" s="26" t="s">
-        <v>579</v>
+        <v>1084</v>
       </c>
       <c r="D131" s="15">
         <v>300</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G131" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>862</v>
+        <v>820</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C132" s="26" t="s">
-        <v>580</v>
+        <v>1085</v>
       </c>
       <c r="D132" s="15">
         <v>800</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G132" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>863</v>
+        <v>821</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C133" s="26" t="s">
-        <v>581</v>
+        <v>540</v>
       </c>
       <c r="D133" s="15">
         <v>2000</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G133" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>864</v>
+        <v>822</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C134" s="26" t="s">
-        <v>582</v>
+        <v>541</v>
       </c>
       <c r="D134" s="15">
         <v>700</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G134" s="15" t="s">
-        <v>993</v>
+        <v>951</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>865</v>
+        <v>823</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C135" s="26" t="s">
-        <v>582</v>
+        <v>541</v>
       </c>
       <c r="D135" s="15">
         <v>700</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G135" s="17" t="s">
-        <v>633</v>
+        <v>591</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>866</v>
+        <v>824</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C136" s="26" t="s">
-        <v>582</v>
+        <v>541</v>
       </c>
       <c r="D136" s="15">
         <v>700</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G136" s="17" t="s">
-        <v>634</v>
+        <v>592</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>867</v>
+        <v>825</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C137" s="26" t="s">
-        <v>582</v>
+        <v>541</v>
       </c>
       <c r="D137" s="15">
         <v>700</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G137" s="17" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C138" s="26" t="s">
-        <v>582</v>
+        <v>541</v>
       </c>
       <c r="D138" s="15">
         <v>700</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G138" s="17" t="s">
-        <v>636</v>
+        <v>594</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>869</v>
+        <v>827</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C139" s="26" t="s">
-        <v>582</v>
+        <v>541</v>
       </c>
       <c r="D139" s="15">
         <v>900</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G139" s="17" t="s">
-        <v>637</v>
+        <v>595</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>870</v>
+        <v>828</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C140" s="26" t="s">
-        <v>583</v>
+        <v>542</v>
       </c>
       <c r="D140" s="15">
         <v>700</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G140" s="17" t="s">
-        <v>638</v>
+        <v>596</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>871</v>
+        <v>829</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C141" s="26" t="s">
-        <v>584</v>
+        <v>543</v>
       </c>
       <c r="D141" s="15">
         <v>700</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G141" s="17" t="s">
-        <v>639</v>
+        <v>597</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>872</v>
+        <v>830</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C142" s="26" t="s">
-        <v>585</v>
+        <v>544</v>
       </c>
       <c r="D142" s="15">
         <v>1400</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G142" s="17" t="s">
-        <v>640</v>
+        <v>598</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>873</v>
+        <v>831</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C143" s="26" t="s">
-        <v>586</v>
+        <v>545</v>
       </c>
       <c r="D143" s="15">
         <v>700</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G143" s="17" t="s">
-        <v>641</v>
+        <v>599</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>874</v>
+        <v>832</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C144" s="26" t="s">
-        <v>586</v>
+        <v>545</v>
       </c>
       <c r="D144" s="15">
         <v>700</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G144" s="17" t="s">
-        <v>642</v>
+        <v>600</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>875</v>
+        <v>833</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C145" s="26" t="s">
-        <v>587</v>
+        <v>546</v>
       </c>
       <c r="D145" s="15">
         <v>700</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G145" s="17" t="s">
-        <v>643</v>
+        <v>601</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>876</v>
+        <v>834</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C146" s="26" t="s">
-        <v>588</v>
+        <v>547</v>
       </c>
       <c r="D146" s="15">
         <v>700</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G146" s="17" t="s">
-        <v>644</v>
+        <v>602</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>877</v>
+        <v>835</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C147" s="26" t="s">
-        <v>588</v>
+        <v>547</v>
       </c>
       <c r="D147" s="15">
         <v>700</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G147" s="17" t="s">
-        <v>645</v>
+        <v>603</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>878</v>
+        <v>836</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C148" s="26" t="s">
-        <v>588</v>
+        <v>547</v>
       </c>
       <c r="D148" s="15">
         <v>700</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G148" s="17" t="s">
-        <v>646</v>
+        <v>604</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>879</v>
+        <v>837</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C149" s="26" t="s">
-        <v>589</v>
+        <v>548</v>
       </c>
       <c r="D149" s="15">
         <v>700</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G149" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>880</v>
+        <v>838</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C150" s="26" t="s">
-        <v>590</v>
+        <v>549</v>
       </c>
       <c r="D150" s="15">
         <v>500</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G150" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>881</v>
+        <v>839</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C151" s="26" t="s">
-        <v>591</v>
+        <v>550</v>
       </c>
       <c r="D151" s="15">
         <v>800</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G151" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>882</v>
+        <v>840</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C152" s="26" t="s">
-        <v>592</v>
+        <v>551</v>
       </c>
       <c r="D152" s="15">
         <v>800</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G152" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>883</v>
+        <v>841</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C153" s="26" t="s">
-        <v>593</v>
+        <v>552</v>
       </c>
       <c r="D153" s="15">
         <v>350</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G153" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>884</v>
+        <v>842</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C154" s="26" t="s">
-        <v>594</v>
+        <v>553</v>
       </c>
       <c r="D154" s="15">
         <v>2500</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G154" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>885</v>
+        <v>843</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C155" s="26" t="s">
-        <v>595</v>
+        <v>554</v>
       </c>
       <c r="D155" s="15">
         <v>600</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G155" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>886</v>
+        <v>844</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C156" s="26" t="s">
-        <v>596</v>
+        <v>555</v>
       </c>
       <c r="D156" s="15">
         <v>700</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G156" s="17" t="s">
-        <v>647</v>
+        <v>605</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>887</v>
+        <v>845</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C157" s="26" t="s">
-        <v>597</v>
+        <v>556</v>
       </c>
       <c r="D157" s="15">
         <v>700</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G157" s="17" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>888</v>
+        <v>846</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C158" s="26" t="s">
-        <v>598</v>
+        <v>557</v>
       </c>
       <c r="D158" s="15">
         <v>750</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G158" s="17" t="s">
-        <v>648</v>
+        <v>606</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>889</v>
+        <v>847</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C159" s="26" t="s">
-        <v>599</v>
+        <v>558</v>
       </c>
       <c r="D159" s="15">
         <v>1200</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G159" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>890</v>
+        <v>848</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C160" s="26" t="s">
-        <v>600</v>
+        <v>559</v>
       </c>
       <c r="D160" s="15">
         <v>600</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G160" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>891</v>
+        <v>849</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C161" s="26" t="s">
-        <v>601</v>
+        <v>560</v>
       </c>
       <c r="D161" s="15">
         <v>750</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G161" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>892</v>
+        <v>850</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C162" s="26" t="s">
-        <v>602</v>
+        <v>561</v>
       </c>
       <c r="D162" s="15">
         <v>800</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G162" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>893</v>
+        <v>851</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C163" s="26" t="s">
-        <v>603</v>
+        <v>562</v>
       </c>
       <c r="D163" s="15">
         <v>1500</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G163" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>894</v>
+        <v>852</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C164" s="26" t="s">
-        <v>604</v>
+        <v>563</v>
       </c>
       <c r="D164" s="15">
         <v>1200</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G164" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>895</v>
+        <v>853</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C165" s="26" t="s">
-        <v>605</v>
+        <v>564</v>
       </c>
       <c r="D165" s="15">
         <v>1500</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G165" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>896</v>
+        <v>854</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C166" s="26" t="s">
-        <v>606</v>
+        <v>565</v>
       </c>
       <c r="D166" s="15">
         <v>300</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G166" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>897</v>
+        <v>855</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C167" s="26" t="s">
-        <v>607</v>
+        <v>566</v>
       </c>
       <c r="D167" s="15">
         <v>400</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G167" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>898</v>
+        <v>856</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C168" s="26" t="s">
-        <v>608</v>
+        <v>567</v>
       </c>
       <c r="D168" s="15">
         <v>500</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G168" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>899</v>
+        <v>857</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C169" s="26" t="s">
-        <v>609</v>
+        <v>568</v>
       </c>
       <c r="D169" s="15">
         <v>300</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G169" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>900</v>
+        <v>858</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C170" s="26" t="s">
-        <v>610</v>
+        <v>569</v>
       </c>
       <c r="D170" s="15">
         <v>400</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G170" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>901</v>
+        <v>859</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C171" s="26" t="s">
-        <v>611</v>
+        <v>570</v>
       </c>
       <c r="D171" s="15">
         <v>150</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G171" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>902</v>
+        <v>860</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C172" s="26" t="s">
-        <v>612</v>
+        <v>571</v>
       </c>
       <c r="D172" s="15">
         <v>150</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G172" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>903</v>
+        <v>861</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C173" s="26" t="s">
-        <v>613</v>
+        <v>572</v>
       </c>
       <c r="D173" s="15">
         <v>100</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G173" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>904</v>
+        <v>862</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C174" s="26" t="s">
-        <v>614</v>
+        <v>573</v>
       </c>
       <c r="D174" s="15">
         <v>4000</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G174" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>905</v>
+        <v>863</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C175" s="26" t="s">
-        <v>615</v>
+        <v>574</v>
       </c>
       <c r="D175" s="15">
         <v>1500</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G175" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>906</v>
+        <v>864</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C176" s="26" t="s">
-        <v>616</v>
+        <v>1049</v>
       </c>
       <c r="D176" s="15">
         <v>2500</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G176" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>907</v>
+        <v>865</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C177" s="26" t="s">
-        <v>617</v>
+        <v>575</v>
       </c>
       <c r="D177" s="15">
         <v>500</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G177" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>908</v>
+        <v>866</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C178" s="26" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="D178" s="15">
         <v>300</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G178" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>909</v>
+        <v>867</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C179" s="26" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="D179" s="15">
         <v>500</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G179" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>910</v>
+        <v>868</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C180" s="26" t="s">
-        <v>618</v>
+        <v>576</v>
       </c>
       <c r="D180" s="19">
         <v>2800</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G180" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>911</v>
+        <v>869</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C181" s="26" t="s">
-        <v>619</v>
+        <v>577</v>
       </c>
       <c r="D181" s="15">
         <v>1400</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G181" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>912</v>
+        <v>870</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C182" s="26" t="s">
-        <v>620</v>
+        <v>578</v>
       </c>
       <c r="D182" s="15">
         <v>1575</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G182" s="17" t="s">
-        <v>649</v>
+        <v>607</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>913</v>
+        <v>871</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C183" s="26" t="s">
-        <v>620</v>
+        <v>578</v>
       </c>
       <c r="D183" s="15">
         <v>1485</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G183" s="17" t="s">
-        <v>650</v>
+        <v>608</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>914</v>
+        <v>872</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C184" s="26" t="s">
-        <v>620</v>
+        <v>578</v>
       </c>
       <c r="D184" s="15">
         <v>1260</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G184" s="17" t="s">
-        <v>651</v>
+        <v>609</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>915</v>
+        <v>873</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C185" s="26" t="s">
-        <v>620</v>
+        <v>578</v>
       </c>
       <c r="D185" s="20">
         <v>900</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G185" s="17" t="s">
-        <v>652</v>
+        <v>610</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>916</v>
+        <v>874</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C186" s="26" t="s">
-        <v>620</v>
+        <v>578</v>
       </c>
       <c r="D186" s="15">
         <v>1440</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G186" s="17" t="s">
-        <v>653</v>
+        <v>611</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>917</v>
+        <v>875</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C187" s="26" t="s">
-        <v>620</v>
+        <v>578</v>
       </c>
       <c r="D187" s="15">
         <v>1395</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G187" s="17" t="s">
-        <v>654</v>
+        <v>612</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>918</v>
+        <v>876</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C188" s="26" t="s">
-        <v>620</v>
+        <v>578</v>
       </c>
       <c r="D188" s="15">
         <v>810</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G188" s="17" t="s">
-        <v>655</v>
+        <v>613</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>919</v>
+        <v>877</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C189" s="26" t="s">
-        <v>620</v>
+        <v>578</v>
       </c>
       <c r="D189" s="15">
         <v>1575</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G189" s="17" t="s">
-        <v>656</v>
+        <v>614</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>920</v>
+        <v>878</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C190" s="26" t="s">
-        <v>620</v>
+        <v>578</v>
       </c>
       <c r="D190" s="15">
         <v>1170</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G190" s="17" t="s">
-        <v>657</v>
+        <v>615</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>921</v>
+        <v>879</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C191" s="26" t="s">
-        <v>620</v>
+        <v>578</v>
       </c>
       <c r="D191" s="15">
         <v>810</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G191" s="17" t="s">
-        <v>658</v>
+        <v>616</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>922</v>
+        <v>880</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C192" s="26" t="s">
-        <v>620</v>
+        <v>578</v>
       </c>
       <c r="D192" s="19">
         <v>925</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G192" s="17" t="s">
-        <v>659</v>
+        <v>617</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>923</v>
+        <v>881</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C193" s="26" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D193" s="15">
         <v>1260</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G193" s="17" t="s">
-        <v>660</v>
+        <v>618</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>924</v>
+        <v>882</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C194" s="26" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D194" s="15">
         <v>1330</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G194" s="17" t="s">
-        <v>661</v>
+        <v>619</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>925</v>
+        <v>883</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C195" s="26" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D195" s="15">
         <v>665</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G195" s="17" t="s">
-        <v>662</v>
+        <v>620</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>926</v>
+        <v>884</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C196" s="26" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D196" s="15">
         <v>1085</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G196" s="17" t="s">
-        <v>663</v>
+        <v>621</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>927</v>
+        <v>885</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C197" s="26" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D197" s="15">
         <v>875</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G197" s="17" t="s">
-        <v>664</v>
+        <v>622</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>928</v>
+        <v>886</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C198" s="26" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D198" s="15">
         <v>1645</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G198" s="17" t="s">
-        <v>665</v>
+        <v>623</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>929</v>
+        <v>887</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C199" s="26" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D199" s="15">
         <v>980</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G199" s="17" t="s">
-        <v>666</v>
+        <v>624</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>930</v>
+        <v>888</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C200" s="26" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D200" s="15">
         <v>1015</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G200" s="17" t="s">
-        <v>667</v>
+        <v>625</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>931</v>
+        <v>889</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C201" s="26" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D201" s="15">
         <v>595</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G201" s="17" t="s">
-        <v>668</v>
+        <v>626</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>932</v>
+        <v>890</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C202" s="26" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D202" s="15">
         <v>910</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G202" s="17" t="s">
-        <v>669</v>
+        <v>627</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>933</v>
+        <v>891</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C203" s="26" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D203" s="15">
         <v>595</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G203" s="17" t="s">
-        <v>670</v>
+        <v>628</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>934</v>
+        <v>892</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C204" s="26" t="s">
-        <v>621</v>
+        <v>579</v>
       </c>
       <c r="D204" s="15">
         <v>768</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G204" s="17" t="s">
-        <v>671</v>
+        <v>629</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>935</v>
+        <v>893</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C205" s="26" t="s">
-        <v>621</v>
+        <v>579</v>
       </c>
       <c r="D205" s="15">
         <v>1120</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G205" s="17" t="s">
-        <v>672</v>
+        <v>630</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>936</v>
+        <v>894</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C206" s="26" t="s">
-        <v>621</v>
+        <v>579</v>
       </c>
       <c r="D206" s="15">
         <v>1856</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G206" s="17" t="s">
-        <v>673</v>
+        <v>631</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>937</v>
+        <v>895</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C207" s="26" t="s">
-        <v>621</v>
+        <v>579</v>
       </c>
       <c r="D207" s="15">
         <v>864</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G207" s="17" t="s">
-        <v>674</v>
+        <v>632</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>938</v>
+        <v>896</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C208" s="26" t="s">
-        <v>621</v>
+        <v>579</v>
       </c>
       <c r="D208" s="15">
         <v>1280</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G208" s="17" t="s">
-        <v>675</v>
+        <v>633</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>939</v>
+        <v>897</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C209" s="26" t="s">
-        <v>621</v>
+        <v>579</v>
       </c>
       <c r="D209" s="15">
         <v>896</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G209" s="17" t="s">
-        <v>676</v>
+        <v>634</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
-        <v>940</v>
+        <v>898</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C210" s="26" t="s">
-        <v>621</v>
+        <v>579</v>
       </c>
       <c r="D210" s="15">
         <v>2112</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G210" s="17" t="s">
-        <v>677</v>
+        <v>635</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>941</v>
+        <v>899</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C211" s="26" t="s">
-        <v>621</v>
+        <v>579</v>
       </c>
       <c r="D211" s="15">
         <v>1888</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G211" s="17" t="s">
-        <v>678</v>
+        <v>636</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
-        <v>942</v>
+        <v>900</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C212" s="26" t="s">
-        <v>621</v>
+        <v>579</v>
       </c>
       <c r="D212" s="21">
         <v>1125</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G212" s="17" t="s">
-        <v>679</v>
+        <v>637</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>943</v>
+        <v>901</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C213" s="26" t="s">
-        <v>621</v>
+        <v>579</v>
       </c>
       <c r="D213" s="15">
         <v>1088</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G213" s="17" t="s">
-        <v>680</v>
+        <v>638</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>944</v>
+        <v>902</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C214" s="26" t="s">
-        <v>621</v>
+        <v>579</v>
       </c>
       <c r="D214" s="15">
         <v>800</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G214" s="17" t="s">
-        <v>681</v>
+        <v>639</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>945</v>
+        <v>903</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C215" s="26" t="s">
-        <v>621</v>
+        <v>579</v>
       </c>
       <c r="D215" s="15">
         <v>800</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G215" s="17" t="s">
-        <v>682</v>
+        <v>640</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>946</v>
+        <v>904</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C216" s="26" t="s">
-        <v>622</v>
+        <v>580</v>
       </c>
       <c r="D216" s="15">
         <v>950</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G216" s="17" t="s">
-        <v>683</v>
+        <v>641</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>947</v>
+        <v>905</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C217" s="26" t="s">
-        <v>622</v>
+        <v>580</v>
       </c>
       <c r="D217" s="15">
         <v>576</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G217" s="17" t="s">
-        <v>684</v>
+        <v>642</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>948</v>
+        <v>906</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C218" s="26" t="s">
-        <v>622</v>
+        <v>580</v>
       </c>
       <c r="D218" s="15">
         <v>925</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G218" s="17" t="s">
-        <v>685</v>
+        <v>643</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>949</v>
+        <v>907</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C219" s="26" t="s">
-        <v>622</v>
+        <v>580</v>
       </c>
       <c r="D219" s="15">
         <v>725</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G219" s="17" t="s">
-        <v>686</v>
+        <v>644</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
-        <v>950</v>
+        <v>908</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C220" s="26" t="s">
-        <v>622</v>
+        <v>580</v>
       </c>
       <c r="D220" s="15">
         <v>750</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G220" s="17" t="s">
-        <v>687</v>
+        <v>645</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>951</v>
+        <v>909</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C221" s="26" t="s">
-        <v>622</v>
+        <v>580</v>
       </c>
       <c r="D221" s="15">
         <v>1100</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G221" s="17" t="s">
-        <v>688</v>
+        <v>646</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>952</v>
+        <v>910</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C222" s="26" t="s">
-        <v>622</v>
+        <v>580</v>
       </c>
       <c r="D222" s="15">
         <v>1225</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G222" s="17" t="s">
-        <v>689</v>
+        <v>647</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>953</v>
+        <v>911</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C223" s="26" t="s">
-        <v>622</v>
+        <v>580</v>
       </c>
       <c r="D223" s="15">
         <v>495</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G223" s="17" t="s">
-        <v>690</v>
+        <v>648</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>954</v>
+        <v>912</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C224" s="26" t="s">
-        <v>622</v>
+        <v>580</v>
       </c>
       <c r="D224" s="15">
         <v>950</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G224" s="17" t="s">
-        <v>691</v>
+        <v>649</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>955</v>
+        <v>913</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C225" s="26" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="D225" s="15">
         <v>2345</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G225" s="17" t="s">
-        <v>692</v>
+        <v>650</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>956</v>
+        <v>914</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C226" s="26" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="D226" s="15">
         <v>2380</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G226" s="17" t="s">
-        <v>693</v>
+        <v>651</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>957</v>
+        <v>915</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C227" s="26" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="D227" s="15">
         <v>3570</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G227" s="17" t="s">
-        <v>694</v>
+        <v>652</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
-        <v>958</v>
+        <v>916</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C228" s="26" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="D228" s="15">
         <v>1645</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G228" s="17" t="s">
-        <v>695</v>
+        <v>653</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
-        <v>959</v>
+        <v>917</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C229" s="26" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="D229" s="15">
         <v>1610</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G229" s="17" t="s">
-        <v>696</v>
+        <v>654</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
-        <v>960</v>
+        <v>918</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C230" s="26" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="D230" s="21">
         <v>1600</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G230" s="17" t="s">
-        <v>697</v>
+        <v>655</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
-        <v>961</v>
+        <v>919</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C231" s="26" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="D231" s="15">
         <v>945</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G231" s="17" t="s">
-        <v>698</v>
+        <v>656</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
-        <v>962</v>
+        <v>920</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C232" s="26" t="s">
-        <v>623</v>
+        <v>581</v>
       </c>
       <c r="D232" s="15">
         <v>1990</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G232" s="17" t="s">
-        <v>699</v>
+        <v>657</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
-        <v>963</v>
+        <v>921</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C233" s="26" t="s">
-        <v>624</v>
+        <v>582</v>
       </c>
       <c r="D233" s="21">
         <v>1700</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G233" s="17" t="s">
-        <v>700</v>
+        <v>658</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
-        <v>964</v>
+        <v>922</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C234" s="26" t="s">
-        <v>624</v>
+        <v>582</v>
       </c>
       <c r="D234" s="15">
         <v>1190</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G234" s="17" t="s">
-        <v>701</v>
+        <v>659</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
-        <v>965</v>
+        <v>923</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C235" s="26" t="s">
-        <v>624</v>
+        <v>582</v>
       </c>
       <c r="D235" s="15">
         <v>940</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G235" s="17" t="s">
-        <v>702</v>
+        <v>660</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
-        <v>966</v>
+        <v>924</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C236" s="26" t="s">
-        <v>624</v>
+        <v>582</v>
       </c>
       <c r="D236" s="19">
         <v>600</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G236" s="17" t="s">
-        <v>703</v>
+        <v>661</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
-        <v>967</v>
+        <v>925</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C237" s="26" t="s">
-        <v>624</v>
+        <v>582</v>
       </c>
       <c r="D237" s="19">
         <v>400</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G237" s="17" t="s">
-        <v>704</v>
+        <v>662</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
-        <v>968</v>
+        <v>926</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C238" s="26" t="s">
-        <v>624</v>
+        <v>582</v>
       </c>
       <c r="D238" s="19">
         <v>250</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G238" s="17" t="s">
-        <v>705</v>
+        <v>663</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
-        <v>969</v>
+        <v>927</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C239" s="26" t="s">
-        <v>624</v>
+        <v>582</v>
       </c>
       <c r="D239" s="19">
         <v>500</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G239" s="17" t="s">
-        <v>706</v>
+        <v>664</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
-        <v>970</v>
+        <v>928</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C240" s="26" t="s">
-        <v>624</v>
+        <v>582</v>
       </c>
       <c r="D240" s="19">
         <v>900</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G240" s="17" t="s">
-        <v>707</v>
+        <v>665</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>971</v>
+        <v>929</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C241" s="26" t="s">
-        <v>624</v>
+        <v>582</v>
       </c>
       <c r="D241" s="19">
         <v>3500</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G241" s="17" t="s">
-        <v>708</v>
+        <v>666</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
-        <v>972</v>
+        <v>930</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C242" s="26" t="s">
-        <v>624</v>
+        <v>582</v>
       </c>
       <c r="D242" s="15">
         <v>2400</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G242" s="17" t="s">
-        <v>709</v>
+        <v>667</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
-        <v>973</v>
+        <v>931</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C243" s="26" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="D243" s="21">
         <v>2500</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G243" s="17" t="s">
-        <v>710</v>
+        <v>668</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
-        <v>974</v>
+        <v>932</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C244" s="26" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="D244" s="21">
         <v>800</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G244" s="17" t="s">
-        <v>711</v>
+        <v>669</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
-        <v>975</v>
+        <v>933</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C245" s="26" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="D245" s="19">
         <v>2800</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G245" s="17" t="s">
-        <v>712</v>
+        <v>670</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
-        <v>976</v>
+        <v>934</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C246" s="26" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="D246" s="19">
         <v>800</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G246" s="17" t="s">
-        <v>713</v>
+        <v>671</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
-        <v>977</v>
+        <v>935</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C247" s="26" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="D247" s="15">
         <v>750</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G247" s="17" t="s">
-        <v>714</v>
+        <v>672</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
-        <v>978</v>
+        <v>936</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C248" s="26" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="D248" s="15">
         <v>1200</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G248" s="17" t="s">
-        <v>715</v>
+        <v>673</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
-        <v>979</v>
+        <v>937</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C249" s="26" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="D249" s="19">
         <v>600</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G249" s="17" t="s">
-        <v>716</v>
+        <v>674</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
-        <v>980</v>
+        <v>938</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C250" s="26" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="D250" s="15">
         <v>1800</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G250" s="17" t="s">
-        <v>717</v>
+        <v>675</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
-        <v>981</v>
+        <v>939</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C251" s="26" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="D251" s="15">
         <v>1500</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G251" s="17" t="s">
-        <v>718</v>
+        <v>676</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
-        <v>982</v>
+        <v>940</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C252" s="26" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="D252" s="15">
         <v>700</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G252" s="17" t="s">
-        <v>719</v>
+        <v>677</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
-        <v>983</v>
+        <v>941</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C253" s="26" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="D253" s="15">
         <v>500</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G253" s="17" t="s">
-        <v>720</v>
+        <v>678</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
-        <v>984</v>
+        <v>942</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C254" s="26" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="D254" s="19">
         <v>1000</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G254" s="17" t="s">
-        <v>721</v>
+        <v>679</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
-        <v>985</v>
+        <v>943</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C255" s="26" t="s">
-        <v>627</v>
+        <v>585</v>
       </c>
       <c r="D255" s="15">
         <v>2000</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G255" s="17" t="s">
-        <v>722</v>
+        <v>680</v>
       </c>
     </row>
     <row r="256" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
-        <v>986</v>
+        <v>944</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C256" s="26" t="s">
-        <v>627</v>
+        <v>585</v>
       </c>
       <c r="D256" s="15">
         <v>700</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G256" s="17" t="s">
-        <v>723</v>
+        <v>681</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
-        <v>987</v>
+        <v>945</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C257" s="26" t="s">
-        <v>627</v>
+        <v>585</v>
       </c>
       <c r="D257" s="19">
         <v>500</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G257" s="17" t="s">
-        <v>724</v>
+        <v>682</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
-        <v>988</v>
+        <v>946</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C258" s="26" t="s">
-        <v>627</v>
+        <v>585</v>
       </c>
       <c r="D258" s="19">
         <v>300</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G258" s="17" t="s">
-        <v>725</v>
+        <v>683</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
-        <v>989</v>
+        <v>947</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C259" s="26" t="s">
-        <v>729</v>
+        <v>687</v>
       </c>
       <c r="D259" s="19">
         <v>800</v>
       </c>
       <c r="E259" s="22" t="s">
-        <v>999</v>
+        <v>957</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G259" s="15" t="s">
-        <v>994</v>
+        <v>952</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
-        <v>990</v>
+        <v>948</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>728</v>
+        <v>686</v>
       </c>
       <c r="C260" s="26" t="s">
-        <v>730</v>
+        <v>688</v>
       </c>
       <c r="D260" s="19">
         <v>5000</v>
       </c>
       <c r="E260" s="22" t="s">
-        <v>998</v>
+        <v>956</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>727</v>
+        <v>685</v>
       </c>
       <c r="G260" s="15" t="s">
-        <v>995</v>
+        <v>953</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
-        <v>991</v>
+        <v>949</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C261" s="26" t="s">
-        <v>731</v>
+        <v>689</v>
       </c>
       <c r="D261" s="19">
         <v>900</v>
       </c>
       <c r="E261" s="22" t="s">
-        <v>997</v>
+        <v>955</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G261" s="17" t="s">
-        <v>726</v>
+        <v>684</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="10" t="s">
-        <v>992</v>
+        <v>950</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C262" s="27" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="D262" s="19">
         <v>1200</v>
       </c>
       <c r="E262" s="13" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="F262" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G262" s="15" t="s">
-        <v>996</v>
+        <v>954</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
-        <v>1019</v>
+        <v>972</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>1059</v>
+        <v>1008</v>
       </c>
       <c r="C263" s="28" t="s">
-        <v>1040</v>
+        <v>993</v>
       </c>
       <c r="D263" s="23">
         <v>1740</v>
       </c>
       <c r="E263" s="8" t="s">
-        <v>1062</v>
+        <v>1011</v>
       </c>
       <c r="F263" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G263" s="18" t="s">
-        <v>1000</v>
+        <v>958</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
-        <v>1020</v>
+        <v>973</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>1059</v>
+        <v>1008</v>
       </c>
       <c r="C264" s="28" t="s">
-        <v>1041</v>
+        <v>994</v>
       </c>
       <c r="D264" s="23">
         <v>750</v>
       </c>
       <c r="E264" s="8" t="s">
-        <v>1063</v>
+        <v>1012</v>
       </c>
       <c r="F264" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G264" s="18" t="s">
-        <v>1001</v>
+        <v>959</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
-        <v>1021</v>
+        <v>974</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>1059</v>
+        <v>1008</v>
       </c>
       <c r="C265" s="28" t="s">
-        <v>1042</v>
+        <v>995</v>
       </c>
       <c r="D265" s="23">
         <v>270</v>
       </c>
       <c r="E265" s="8" t="s">
-        <v>1064</v>
+        <v>1013</v>
       </c>
       <c r="F265" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G265" s="18" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A266" s="7" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B266" s="6" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C266" s="28" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D266" s="23">
-        <v>265</v>
-      </c>
-      <c r="E266" s="8" t="s">
-        <v>1065</v>
-      </c>
-      <c r="F266" s="15" t="s">
-        <v>1038</v>
-      </c>
-      <c r="G266" s="18" t="s">
-        <v>1003</v>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="31" t="s">
+        <v>975</v>
+      </c>
+      <c r="B266" s="32" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C266" s="33" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D266" s="34">
+        <v>700</v>
+      </c>
+      <c r="E266" s="35" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F266" s="21" t="s">
+        <v>991</v>
+      </c>
+      <c r="G266" s="36" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
-        <v>1023</v>
+        <v>976</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>1060</v>
+        <v>1009</v>
       </c>
       <c r="C267" s="28" t="s">
-        <v>1044</v>
+        <v>996</v>
       </c>
       <c r="D267" s="23">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="E267" s="8" t="s">
-        <v>1066</v>
+        <v>1015</v>
       </c>
       <c r="F267" s="15" t="s">
-        <v>1038</v>
+        <v>991</v>
       </c>
       <c r="G267" s="18" t="s">
-        <v>1004</v>
+        <v>961</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
-        <v>1024</v>
+        <v>977</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>1060</v>
+        <v>1009</v>
       </c>
       <c r="C268" s="28" t="s">
-        <v>1045</v>
+        <v>997</v>
       </c>
       <c r="D268" s="23">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="E268" s="8" t="s">
-        <v>1067</v>
+        <v>1016</v>
       </c>
       <c r="F268" s="15" t="s">
-        <v>1038</v>
+        <v>991</v>
       </c>
       <c r="G268" s="18" t="s">
-        <v>1005</v>
+        <v>962</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
-        <v>1025</v>
+        <v>978</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>1060</v>
+        <v>1009</v>
       </c>
       <c r="C269" s="28" t="s">
-        <v>1046</v>
+        <v>998</v>
       </c>
       <c r="D269" s="23">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="E269" s="8" t="s">
-        <v>1067</v>
+        <v>1016</v>
       </c>
       <c r="F269" s="15" t="s">
-        <v>1038</v>
+        <v>991</v>
       </c>
       <c r="G269" s="18" t="s">
-        <v>1006</v>
+        <v>963</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
-        <v>1026</v>
+        <v>979</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>1060</v>
+        <v>1009</v>
       </c>
       <c r="C270" s="28" t="s">
-        <v>1047</v>
+        <v>999</v>
       </c>
       <c r="D270" s="23">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="E270" s="8" t="s">
-        <v>1067</v>
+        <v>1016</v>
       </c>
       <c r="F270" s="15" t="s">
-        <v>1038</v>
+        <v>991</v>
       </c>
       <c r="G270" s="18" t="s">
-        <v>1007</v>
+        <v>964</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
-        <v>1027</v>
+        <v>980</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>1060</v>
+        <v>1009</v>
       </c>
       <c r="C271" s="28" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="D271" s="23">
-        <v>165</v>
+        <v>350</v>
       </c>
       <c r="E271" s="8" t="s">
-        <v>1066</v>
+        <v>1015</v>
       </c>
       <c r="F271" s="15" t="s">
-        <v>1038</v>
+        <v>991</v>
       </c>
       <c r="G271" s="18" t="s">
-        <v>1008</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
-        <v>1028</v>
+        <v>981</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>1060</v>
+        <v>1009</v>
       </c>
       <c r="C272" s="28" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
       <c r="D272" s="23">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="E272" s="8" t="s">
-        <v>1069</v>
+        <v>1018</v>
       </c>
       <c r="F272" s="15" t="s">
+        <v>991</v>
+      </c>
+      <c r="G272" s="18" t="s">
         <v>1038</v>
-      </c>
-      <c r="G272" s="18" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
-        <v>1029</v>
+        <v>982</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>1060</v>
+        <v>1009</v>
       </c>
       <c r="C273" s="28" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
       <c r="D273" s="23">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="E273" s="8" t="s">
-        <v>1068</v>
+        <v>1017</v>
       </c>
       <c r="F273" s="15" t="s">
-        <v>1038</v>
+        <v>991</v>
       </c>
       <c r="G273" s="18" t="s">
-        <v>1010</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
-        <v>1030</v>
+        <v>983</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>1060</v>
+        <v>1009</v>
       </c>
       <c r="C274" s="28" t="s">
-        <v>1051</v>
+        <v>1000</v>
       </c>
       <c r="D274" s="23">
-        <v>165</v>
+        <v>250</v>
       </c>
       <c r="E274" s="8" t="s">
-        <v>1070</v>
+        <v>1019</v>
       </c>
       <c r="F274" s="15" t="s">
-        <v>1038</v>
+        <v>991</v>
       </c>
       <c r="G274" s="18" t="s">
-        <v>1011</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
-        <v>1031</v>
+        <v>984</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>1060</v>
+        <v>1009</v>
       </c>
       <c r="C275" s="28" t="s">
-        <v>1052</v>
+        <v>1001</v>
       </c>
       <c r="D275" s="23">
         <v>165</v>
       </c>
       <c r="E275" s="8" t="s">
-        <v>1071</v>
+        <v>1020</v>
       </c>
       <c r="F275" s="15" t="s">
-        <v>1038</v>
+        <v>991</v>
       </c>
       <c r="G275" s="18" t="s">
-        <v>1012</v>
+        <v>965</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
-        <v>1032</v>
+        <v>985</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>1060</v>
+        <v>1009</v>
       </c>
       <c r="C276" s="28" t="s">
-        <v>1053</v>
+        <v>1002</v>
       </c>
       <c r="D276" s="23">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E276" s="8" t="s">
-        <v>1071</v>
+        <v>1020</v>
       </c>
       <c r="F276" s="15" t="s">
-        <v>1038</v>
+        <v>991</v>
       </c>
       <c r="G276" s="18" t="s">
-        <v>1013</v>
+        <v>966</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
-        <v>1033</v>
+        <v>986</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C277" s="28" t="s">
-        <v>1054</v>
+        <v>1003</v>
       </c>
       <c r="D277" s="23">
         <v>150</v>
       </c>
       <c r="E277" s="8" t="s">
-        <v>1072</v>
+        <v>1021</v>
       </c>
       <c r="F277" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G277" s="18" t="s">
-        <v>1014</v>
+        <v>967</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
-        <v>1034</v>
+        <v>987</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C278" s="28" t="s">
-        <v>1055</v>
+        <v>1004</v>
       </c>
       <c r="D278" s="23">
         <v>150</v>
       </c>
       <c r="E278" s="8" t="s">
-        <v>1073</v>
+        <v>1022</v>
       </c>
       <c r="F278" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G278" s="18" t="s">
-        <v>1015</v>
+        <v>968</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
-        <v>1035</v>
+        <v>988</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>1061</v>
+        <v>1010</v>
       </c>
       <c r="C279" s="28" t="s">
-        <v>1056</v>
+        <v>1005</v>
       </c>
       <c r="D279" s="23">
         <v>35</v>
       </c>
       <c r="E279" s="8" t="s">
-        <v>1074</v>
+        <v>1023</v>
       </c>
       <c r="F279" s="15" t="s">
-        <v>1039</v>
+        <v>992</v>
       </c>
       <c r="G279" s="18" t="s">
-        <v>1016</v>
+        <v>969</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
-        <v>1036</v>
+        <v>989</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>1061</v>
+        <v>1010</v>
       </c>
       <c r="C280" s="28" t="s">
-        <v>1057</v>
+        <v>1006</v>
       </c>
       <c r="D280" s="23">
         <v>35</v>
       </c>
       <c r="E280" s="8" t="s">
-        <v>1075</v>
+        <v>1024</v>
       </c>
       <c r="F280" s="15" t="s">
-        <v>1039</v>
+        <v>992</v>
       </c>
       <c r="G280" s="18" t="s">
-        <v>1017</v>
+        <v>970</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
-        <v>1037</v>
+        <v>990</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C281" s="28" t="s">
-        <v>1058</v>
+        <v>1007</v>
       </c>
       <c r="D281" s="23">
         <v>730</v>
       </c>
       <c r="E281" s="8" t="s">
-        <v>1076</v>
+        <v>1025</v>
       </c>
       <c r="F281" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G281" s="18" t="s">
-        <v>1018</v>
+        <v>971</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
-        <v>1082</v>
+        <v>1031</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>1080</v>
+        <v>1029</v>
       </c>
       <c r="C282" s="28" t="s">
-        <v>1079</v>
+        <v>1028</v>
       </c>
       <c r="D282" s="29">
         <v>800</v>
       </c>
       <c r="E282" s="30" t="s">
-        <v>1084</v>
+        <v>1033</v>
       </c>
       <c r="F282" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G282" s="18" t="s">
-        <v>1077</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
-        <v>1083</v>
+        <v>1032</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>1080</v>
+        <v>1029</v>
       </c>
       <c r="C283" s="28" t="s">
-        <v>1081</v>
+        <v>1030</v>
       </c>
       <c r="D283">
         <v>600</v>
       </c>
       <c r="E283" s="30" t="s">
-        <v>1085</v>
+        <v>1034</v>
       </c>
       <c r="F283" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G283" s="18" t="s">
-        <v>1078</v>
+        <v>1027</v>
       </c>
     </row>
   </sheetData>

--- a/Gallery.xlsx
+++ b/Gallery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelaziz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA9A617-EE94-44FE-BBB4-72FE9B0A5658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138BC316-15A9-495C-AF6D-D0C2C3ADDAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,17 +18,26 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$262</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="1086">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="1088">
   <si>
     <t>Number</t>
   </si>
@@ -348,9 +357,6 @@
     <t xml:space="preserve">طاولة خشب و نحاس مغربي </t>
   </si>
   <si>
-    <t xml:space="preserve">لوحة خط حميد الغاصي </t>
-  </si>
-  <si>
     <t>جوز عمدان رخام إيطالي مع برونز</t>
   </si>
   <si>
@@ -360,9 +366,6 @@
     <t>جوز مجسم فرنسي برونز جمل استشراق</t>
   </si>
   <si>
-    <t>جوز فازات زعفران مع ابيض ستيب يوت</t>
-  </si>
-  <si>
     <t>مرشات إيراني زعفراني</t>
   </si>
   <si>
@@ -1293,9 +1296,6 @@
     <t>Opaline flower pineapple pot</t>
   </si>
   <si>
-    <t>Sea lion fang candlestick with silver</t>
-  </si>
-  <si>
     <t>French Bohemian red box with silver elephant handle</t>
   </si>
   <si>
@@ -1305,9 +1305,6 @@
     <t>French Limoges navy box</t>
   </si>
   <si>
-    <t>Opaline meat fat hookah</t>
-  </si>
-  <si>
     <t>A pair of Indian chairs with bones Maharaja</t>
   </si>
   <si>
@@ -1338,9 +1335,6 @@
     <t>French pure brass candlestick</t>
   </si>
   <si>
-    <t>Indian wooden chair set / 4</t>
-  </si>
-  <si>
     <t>Silver plated samovar</t>
   </si>
   <si>
@@ -1350,9 +1344,6 @@
     <t>German amber rosary, large Polish cut</t>
   </si>
   <si>
-    <t>Black coral rosary</t>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/179.jpeg</t>
   </si>
   <si>
@@ -1533,9 +1524,6 @@
     <t>Green Opaline Vase</t>
   </si>
   <si>
-    <t>Large opaline vase, as pictures and website</t>
-  </si>
-  <si>
     <t>3-door wardrobe, Syrian Arab workshop, Ottoman era, seashells, 120 years old</t>
   </si>
   <si>
@@ -1551,9 +1539,6 @@
     <t>French navy blue box illustrated with bronze</t>
   </si>
   <si>
-    <t>Set of 3 pieces of meat fat vases</t>
-  </si>
-  <si>
     <t>Small frame with colored crystal stones</t>
   </si>
   <si>
@@ -1572,9 +1557,6 @@
     <t>An old Iranian wool carpet Hazrat Suleiman</t>
   </si>
   <si>
-    <t>A plate of Ayat al-Kursi with a gilded finish</t>
-  </si>
-  <si>
     <t>A plate of handwritten supplications</t>
   </si>
   <si>
@@ -1584,18 +1566,12 @@
     <t>A table of Moroccan wood and brass</t>
   </si>
   <si>
-    <t>A plate of Hamid al-Ghasi calligraphy</t>
-  </si>
-  <si>
     <t>Large antique Syrian mother of pearl mirror</t>
   </si>
   <si>
     <t>French bronze camel orientalist statue</t>
   </si>
   <si>
-    <t>Saffron vases pair with white steppe yote</t>
-  </si>
-  <si>
     <t>Blue lantern pair</t>
   </si>
   <si>
@@ -1623,24 +1599,6 @@
     <t>White elephant figures with wooden base</t>
   </si>
   <si>
-    <t>English porcelain tiger figures</t>
-  </si>
-  <si>
-    <t>Glass turtle figures</t>
-  </si>
-  <si>
-    <t>Elephant figurine gemstone (good stone)</t>
-  </si>
-  <si>
-    <t>Vertical turquoise lizard figurine</t>
-  </si>
-  <si>
-    <t>Horizontal turquoise lizard figurine</t>
-  </si>
-  <si>
-    <t>Turquoise crocodile figurine</t>
-  </si>
-  <si>
     <t>Large frame Moroccan necklace with different stones</t>
   </si>
   <si>
@@ -1686,21 +1644,12 @@
     <t>Moroccan Woman with Pottery Painting</t>
   </si>
   <si>
-    <t>Bird Visit Painting</t>
-  </si>
-  <si>
-    <t>Large Size Moroccan Belli Painting</t>
-  </si>
-  <si>
     <t>Kadoddle Painting</t>
   </si>
   <si>
     <t>Moroccan Square Woman with Jar Gold Frame Painting</t>
   </si>
   <si>
-    <t>Kafrican Souq Biscalet Painting</t>
-  </si>
-  <si>
     <t>Moroccan Wood and Brass Table</t>
   </si>
   <si>
@@ -1713,9 +1662,6 @@
     <t>Moroccan Woman Gold Frame Art Painting</t>
   </si>
   <si>
-    <t>Peru Shell with Small Mirror</t>
-  </si>
-  <si>
     <t>European Cabinet 2 Doors Wood with French Picture</t>
   </si>
   <si>
@@ -1758,12 +1704,6 @@
     <t>French brass candlestick with navy blue picture</t>
   </si>
   <si>
-    <t>Italian Duke Plate / Number 2</t>
-  </si>
-  <si>
-    <t>Ottoman Pink Striped Serma</t>
-  </si>
-  <si>
     <t>Amber Rosary, Cut and Raw Material, Old German</t>
   </si>
   <si>
@@ -1776,18 +1716,6 @@
     <t>Polish amber rosary, half freckled</t>
   </si>
   <si>
-    <t>Tunisian and Moroccan red coral swimming</t>
-  </si>
-  <si>
-    <t>Rosary and turquoise necklace</t>
-  </si>
-  <si>
-    <t>Coral Contracts</t>
-  </si>
-  <si>
-    <t>Raw Amber Contracts</t>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/39.jpeg</t>
   </si>
   <si>
@@ -2091,9 +2019,6 @@
     <t>Daggers</t>
   </si>
   <si>
-    <t>Large French illustrated pink opaline goblet</t>
-  </si>
-  <si>
     <t>Ivory Moroccan dagger</t>
   </si>
   <si>
@@ -2892,9 +2817,6 @@
     <t>خنجر مغربي عاج</t>
   </si>
   <si>
-    <t>طقم كراسي خسبية هندية / 4</t>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/261.jpeg</t>
   </si>
   <si>
@@ -3012,9 +2934,6 @@
     <t>Black Coral Tasbih (87*20)</t>
   </si>
   <si>
-    <t>Black Tasbih of the Most Beautiful Names of Allah</t>
-  </si>
-  <si>
     <t>Luban Tasbih Medium Size with Wide Orange Tassel</t>
   </si>
   <si>
@@ -3030,15 +2949,9 @@
     <t>White Wood and Amber Pipe</t>
   </si>
   <si>
-    <t>Complete Electric Cigarette Filter with Golden Head Small Size with Cover</t>
-  </si>
-  <si>
     <t>Silver and Wood Amber Cigarette Filter with Cover</t>
   </si>
   <si>
-    <t>Wooden Cigarette Warmer</t>
-  </si>
-  <si>
     <t>Horse Painted Plate</t>
   </si>
   <si>
@@ -3054,9 +2967,6 @@
     <t>Wooden Chess Table</t>
   </si>
   <si>
-    <t>Swimming and necklaces</t>
-  </si>
-  <si>
     <t>Pipes and filters</t>
   </si>
   <si>
@@ -3114,15 +3024,9 @@
     <t>لوح خشب مخطوطات إسلامية متوسط</t>
   </si>
   <si>
-    <t>Large Islamic manuscript wood panel</t>
-  </si>
-  <si>
     <t xml:space="preserve"> panel</t>
   </si>
   <si>
-    <t>Medium Islamic manuscript wood panel</t>
-  </si>
-  <si>
     <t>1000000282</t>
   </si>
   <si>
@@ -3243,49 +3147,160 @@
     <t xml:space="preserve">French Painted Opaline </t>
   </si>
   <si>
-    <t>Blue large pineapple wal  pot</t>
-  </si>
-  <si>
     <t xml:space="preserve">Medium White and Yellow Flower Painted Opaline  </t>
   </si>
   <si>
     <t>White Opaline   Gold and Green Flower</t>
   </si>
   <si>
-    <t>Yellow opaline wal , imported</t>
-  </si>
-  <si>
-    <t>Large opaline wal , pictured</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lemon graphite wal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Green and black opaline wal </t>
-  </si>
-  <si>
-    <t>Set of 3 pieces of Parvatan wal s with a plate</t>
-  </si>
-  <si>
-    <t>Navy wal  Oriental vases</t>
-  </si>
-  <si>
-    <t>French Limoges egg wal s navy blue with bronze</t>
-  </si>
-  <si>
-    <t>Wool carpet  s with Iranian silk inlay / 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Medium Syrian shell mirror  </t>
   </si>
   <si>
-    <t>Black sirmat   with gold stripes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Copper applique  </t>
   </si>
   <si>
     <t xml:space="preserve">French yellow and pink vase  </t>
+  </si>
+  <si>
+    <t>Yellow opaline</t>
+  </si>
+  <si>
+    <t>Large opaline</t>
+  </si>
+  <si>
+    <t>Large opaline vase</t>
+  </si>
+  <si>
+    <t>Sea lion candlestick with silver</t>
+  </si>
+  <si>
+    <t>Lemon graphite</t>
+  </si>
+  <si>
+    <t>Green and black opaline</t>
+  </si>
+  <si>
+    <t>Set of 3 pieces of Parvatan with a plate</t>
+  </si>
+  <si>
+    <t>Blue large pineapple  pot</t>
+  </si>
+  <si>
+    <t>Navy  Oriental vases</t>
+  </si>
+  <si>
+    <t>French Limoges eggs navy blue with bronze</t>
+  </si>
+  <si>
+    <t>Opaline white and brown hookah</t>
+  </si>
+  <si>
+    <t>Set of 3 pieces of white and brown vases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A plate of Ayat al-Kursi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">لوحة خط حميد الراسي </t>
+  </si>
+  <si>
+    <t>A plate of Hamid al-rasi calligraphy</t>
+  </si>
+  <si>
+    <t>جوز فازات زعفران مع ابيض ستيب بوت</t>
+  </si>
+  <si>
+    <t>Saffron vases pair with white stephos</t>
+  </si>
+  <si>
+    <t>Wool carpets Iranian silk / 2</t>
+  </si>
+  <si>
+    <t>English porcelain tiger figure</t>
+  </si>
+  <si>
+    <t>Glass turtle figure</t>
+  </si>
+  <si>
+    <t>Elephant figure gemstone (jade stone)</t>
+  </si>
+  <si>
+    <t>Vertical turquoise lizard figure</t>
+  </si>
+  <si>
+    <t>Horizontal turquoise lizard figure</t>
+  </si>
+  <si>
+    <t>Turquoise crocodile figure</t>
+  </si>
+  <si>
+    <t>Black sirma with gold stripes</t>
+  </si>
+  <si>
+    <t>Bird pheasant Painting</t>
+  </si>
+  <si>
+    <t>Large Size Moroccan Belili Painting</t>
+  </si>
+  <si>
+    <t>Souq Biscalet Painting</t>
+  </si>
+  <si>
+    <t>Shell with Small Mirror</t>
+  </si>
+  <si>
+    <t>Italian rooster paintings /  2</t>
+  </si>
+  <si>
+    <t>Ottoman Pink Striped Sirma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisian and Moroccan red coral </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisian and Moroccan red coral  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  and necklaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black coral </t>
+  </si>
+  <si>
+    <t>Black coral</t>
+  </si>
+  <si>
+    <t>turquoise necklace</t>
+  </si>
+  <si>
+    <t>Coral necklace</t>
+  </si>
+  <si>
+    <t>Raw Amber necklace</t>
+  </si>
+  <si>
+    <t>Large French illustrated pink opaline cup</t>
+  </si>
+  <si>
+    <t>Indian wooden tables set / 4</t>
+  </si>
+  <si>
+    <t>طقم طاولات خسبية هندية / 4</t>
+  </si>
+  <si>
+    <t>Black Tasbih of the Names of Allah</t>
+  </si>
+  <si>
+    <t>Complete amber Cigarette Filter with Golden Head Small Size with Cover</t>
+  </si>
+  <si>
+    <t>Wooden Cigarette filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large Islamic manuscript wood </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium Islamic manuscript wood </t>
   </si>
 </sst>
 </file>
@@ -3408,7 +3423,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3519,6 +3534,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3954,10 +3972,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98041684-60AD-4B6B-B652-1A806A9CDDBF}">
   <dimension ref="A1:G283"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
+      <selection pane="bottomLeft" activeCell="D284" sqref="D284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3965,9 +3983,9 @@
     <col min="1" max="1" width="23.296875" style="7" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="11.09765625" style="6" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="84" style="28" customWidth="1"/>
-    <col min="4" max="4" width="5.8984375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="6" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.69921875" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.69921875" style="6" customWidth="1"/>
     <col min="7" max="7" width="51.69921875" style="18" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.796875" style="9"/>
   </cols>
@@ -3997,13 +4015,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>690</v>
+        <v>662</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>1044</v>
+        <v>1009</v>
       </c>
       <c r="D2" s="19">
         <v>2000</v>
@@ -4012,7 +4030,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>19</v>
@@ -4020,13 +4038,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>691</v>
+        <v>663</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1055</v>
+        <v>1020</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="D3" s="15">
         <v>1750</v>
@@ -4035,7 +4053,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>20</v>
@@ -4043,13 +4061,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>692</v>
+        <v>664</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="D4" s="15">
         <v>500</v>
@@ -4058,7 +4076,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>21</v>
@@ -4066,13 +4084,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>693</v>
+        <v>665</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D5" s="15">
         <v>500</v>
@@ -4081,21 +4099,21 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>694</v>
+        <v>666</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D6" s="15">
         <v>1500</v>
@@ -4104,7 +4122,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>22</v>
@@ -4112,13 +4130,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>695</v>
+        <v>667</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>1045</v>
+        <v>1010</v>
       </c>
       <c r="D7" s="15">
         <v>800</v>
@@ -4127,7 +4145,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>23</v>
@@ -4135,13 +4153,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>696</v>
+        <v>668</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>1046</v>
+        <v>1011</v>
       </c>
       <c r="D8" s="15">
         <v>1600</v>
@@ -4150,7 +4168,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>24</v>
@@ -4158,13 +4176,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>697</v>
+        <v>669</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>1047</v>
+        <v>1012</v>
       </c>
       <c r="D9" s="15">
         <v>900</v>
@@ -4173,7 +4191,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>25</v>
@@ -4181,13 +4199,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>698</v>
+        <v>670</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>1048</v>
+        <v>1013</v>
       </c>
       <c r="D10" s="15">
         <v>2500</v>
@@ -4196,7 +4214,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>26</v>
@@ -4204,13 +4222,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>699</v>
+        <v>671</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D11" s="15">
         <v>3000</v>
@@ -4219,7 +4237,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>27</v>
@@ -4227,13 +4245,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>700</v>
+        <v>672</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="D12" s="15">
         <v>1750</v>
@@ -4242,7 +4260,7 @@
         <v>17</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>28</v>
@@ -4250,13 +4268,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D13" s="15">
         <v>1200</v>
@@ -4265,7 +4283,7 @@
         <v>18</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>29</v>
@@ -4273,68 +4291,68 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>702</v>
+        <v>674</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D14" s="15">
         <v>900</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>703</v>
+        <v>675</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="D15" s="15">
         <v>500</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>704</v>
+        <v>676</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>1050</v>
+        <v>1015</v>
       </c>
       <c r="D16" s="15">
         <v>1500</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>30</v>
@@ -4342,22 +4360,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>705</v>
+        <v>677</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>1051</v>
+        <v>1016</v>
       </c>
       <c r="D17" s="15">
         <v>1200</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>31</v>
@@ -4365,22 +4383,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>706</v>
+        <v>678</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D18" s="15">
         <v>1000</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>32</v>
@@ -4388,22 +4406,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>707</v>
+        <v>679</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="D19" s="15">
         <v>2000</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>33</v>
@@ -4411,22 +4429,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>708</v>
+        <v>680</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>1052</v>
+        <v>1017</v>
       </c>
       <c r="D20" s="15">
         <v>750</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G20" s="17" t="s">
         <v>34</v>
@@ -4434,22 +4452,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>709</v>
+        <v>681</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D21" s="15">
         <v>1750</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>35</v>
@@ -4457,22 +4475,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>710</v>
+        <v>682</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="D22" s="15">
         <v>1400</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G22" s="17" t="s">
         <v>36</v>
@@ -4480,22 +4498,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>711</v>
+        <v>683</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D23" s="15">
         <v>700</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G23" s="17" t="s">
         <v>37</v>
@@ -4503,22 +4521,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>712</v>
+        <v>684</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>1071</v>
+        <v>1048</v>
       </c>
       <c r="D24" s="15">
         <v>2500</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>38</v>
@@ -4526,68 +4544,68 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>1053</v>
+        <v>1018</v>
       </c>
       <c r="D25" s="15">
         <v>1500</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>589</v>
+        <v>562</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>714</v>
+        <v>686</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>1053</v>
+        <v>1018</v>
       </c>
       <c r="D26" s="15">
         <v>1500</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>590</v>
+        <v>563</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
-        <v>715</v>
+        <v>687</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="D27" s="21">
         <v>1200</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F27" s="41" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G27" s="42" t="s">
         <v>39</v>
@@ -4595,22 +4613,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>716</v>
+        <v>688</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1055</v>
+        <v>1020</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>1054</v>
+        <v>1019</v>
       </c>
       <c r="D28" s="15">
         <v>2500</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>40</v>
@@ -4618,22 +4636,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>717</v>
+        <v>689</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>1056</v>
+        <v>1021</v>
       </c>
       <c r="D29" s="15">
         <v>3000</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G29" s="17" t="s">
         <v>41</v>
@@ -4641,45 +4659,45 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>718</v>
+        <v>690</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>1058</v>
+        <v>1023</v>
       </c>
       <c r="D30" s="15">
         <v>1200</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>1057</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>719</v>
+        <v>691</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="D31" s="15">
         <v>800</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G31" s="17" t="s">
         <v>42</v>
@@ -4687,22 +4705,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>720</v>
+        <v>692</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="D32" s="15">
         <v>1200</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G32" s="17" t="s">
         <v>43</v>
@@ -4710,22 +4728,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>721</v>
+        <v>693</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="D33" s="15">
         <v>3000</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G33" s="17" t="s">
         <v>44</v>
@@ -4733,22 +4751,22 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>722</v>
+        <v>694</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D34" s="15">
         <v>700</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>45</v>
@@ -4756,22 +4774,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>723</v>
+        <v>695</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D35" s="15">
         <v>1000</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G35" s="17" t="s">
         <v>46</v>
@@ -4779,22 +4797,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>724</v>
+        <v>696</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D36" s="15">
         <v>1200</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G36" s="17" t="s">
         <v>47</v>
@@ -4802,22 +4820,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>725</v>
+        <v>697</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D37" s="15">
         <v>900</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G37" s="17" t="s">
         <v>48</v>
@@ -4825,22 +4843,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>726</v>
+        <v>698</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>1059</v>
+        <v>1024</v>
       </c>
       <c r="D38" s="15">
         <v>1500</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G38" s="17" t="s">
         <v>49</v>
@@ -4848,22 +4866,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>727</v>
+        <v>699</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D39" s="15">
         <v>1500</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G39" s="17" t="s">
         <v>50</v>
@@ -4871,45 +4889,45 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>728</v>
+        <v>700</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D40" s="15">
         <v>500</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>586</v>
+        <v>559</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>729</v>
+        <v>701</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>1060</v>
+        <v>1025</v>
       </c>
       <c r="D41" s="15">
         <v>1200</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G41" s="17" t="s">
         <v>51</v>
@@ -4917,22 +4935,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>730</v>
+        <v>702</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D42" s="15">
         <v>2500</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G42" s="17" t="s">
         <v>52</v>
@@ -4940,22 +4958,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>731</v>
+        <v>703</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D43" s="15">
         <v>2200</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G43" s="17" t="s">
         <v>53</v>
@@ -4963,22 +4981,22 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>732</v>
+        <v>704</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D44" s="15">
         <v>1200</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G44" s="17" t="s">
         <v>54</v>
@@ -4986,22 +5004,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>733</v>
+        <v>705</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D45" s="15">
         <v>2000</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G45" s="17" t="s">
         <v>55</v>
@@ -5009,22 +5027,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>734</v>
+        <v>706</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D46" s="15">
         <v>1000</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G46" s="17" t="s">
         <v>56</v>
@@ -5032,22 +5050,22 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>735</v>
+        <v>707</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D47" s="15">
         <v>1100</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G47" s="17" t="s">
         <v>57</v>
@@ -5055,22 +5073,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>736</v>
+        <v>708</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D48" s="15">
         <v>1200</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G48" s="17" t="s">
         <v>58</v>
@@ -5078,22 +5096,22 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>737</v>
+        <v>709</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>1061</v>
+        <v>1026</v>
       </c>
       <c r="D49" s="15">
         <v>1200</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G49" s="17" t="s">
         <v>59</v>
@@ -5101,22 +5119,22 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>738</v>
+        <v>710</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D50" s="15">
         <v>2000</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G50" s="17" t="s">
         <v>60</v>
@@ -5124,22 +5142,22 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>739</v>
+        <v>711</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>1062</v>
+        <v>1027</v>
       </c>
       <c r="D51" s="15">
         <v>400</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G51" s="17" t="s">
         <v>61</v>
@@ -5147,22 +5165,22 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>740</v>
+        <v>712</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>1063</v>
+        <v>1028</v>
       </c>
       <c r="D52" s="15">
         <v>800</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G52" s="17" t="s">
         <v>63</v>
@@ -5170,22 +5188,22 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>741</v>
+        <v>713</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>1064</v>
+        <v>1029</v>
       </c>
       <c r="D53" s="15">
         <v>800</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G53" s="17" t="s">
         <v>62</v>
@@ -5193,22 +5211,22 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>742</v>
+        <v>714</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>1065</v>
+        <v>1030</v>
       </c>
       <c r="D54" s="15">
         <v>3500</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G54" s="17" t="s">
         <v>65</v>
@@ -5216,22 +5234,22 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>743</v>
+        <v>715</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D55" s="15">
         <v>600</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G55" s="17" t="s">
         <v>66</v>
@@ -5239,22 +5257,22 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>744</v>
+        <v>716</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="D56" s="15">
         <v>950</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G56" s="17" t="s">
         <v>64</v>
@@ -5262,22 +5280,22 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>745</v>
+        <v>717</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D57" s="15">
         <v>4000</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G57" s="17" t="s">
         <v>67</v>
@@ -5285,45 +5303,45 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>746</v>
+        <v>718</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>1066</v>
+        <v>1031</v>
       </c>
       <c r="D58" s="15">
         <v>4000</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>747</v>
+        <v>719</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D59" s="15">
         <v>2500</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G59" s="17" t="s">
         <v>68</v>
@@ -5331,22 +5349,22 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>748</v>
+        <v>720</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D60" s="15">
         <v>4000</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G60" s="17" t="s">
         <v>69</v>
@@ -5354,22 +5372,22 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>749</v>
+        <v>721</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>1067</v>
+        <v>1032</v>
       </c>
       <c r="D61" s="15">
         <v>900</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G61" s="17" t="s">
         <v>70</v>
@@ -5377,22 +5395,22 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>750</v>
+        <v>722</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D62" s="15">
         <v>1200</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G62" s="17" t="s">
         <v>71</v>
@@ -5400,22 +5418,22 @@
     </row>
     <row r="63" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="38" t="s">
-        <v>751</v>
+        <v>723</v>
       </c>
       <c r="B63" s="39" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>1068</v>
+        <v>1033</v>
       </c>
       <c r="D63" s="21">
         <v>1200</v>
       </c>
       <c r="E63" s="41" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F63" s="41" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G63" s="42" t="s">
         <v>72</v>
@@ -5423,22 +5441,22 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>752</v>
+        <v>724</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D64" s="15">
         <v>600</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G64" s="17" t="s">
         <v>73</v>
@@ -5446,22 +5464,22 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>753</v>
+        <v>725</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D65" s="15">
         <v>4500</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G65" s="17" t="s">
         <v>74</v>
@@ -5469,22 +5487,22 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>754</v>
+        <v>726</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>1069</v>
+        <v>1034</v>
       </c>
       <c r="D66" s="15">
         <v>850</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G66" s="17" t="s">
         <v>75</v>
@@ -5492,22 +5510,22 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>755</v>
+        <v>727</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>1070</v>
+        <v>1035</v>
       </c>
       <c r="D67" s="15">
         <v>1200</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G67" s="17" t="s">
         <v>76</v>
@@ -5515,22 +5533,22 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>756</v>
+        <v>728</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>1072</v>
+        <v>1036</v>
       </c>
       <c r="D68" s="15">
         <v>900</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>587</v>
+        <v>560</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G68" s="17" t="s">
         <v>77</v>
@@ -5538,22 +5556,22 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>757</v>
+        <v>729</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="D69" s="15">
         <v>300</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G69" s="17" t="s">
         <v>78</v>
@@ -5561,22 +5579,22 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>758</v>
+        <v>730</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>1073</v>
+        <v>1037</v>
       </c>
       <c r="D70" s="15">
         <v>1800</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G70" s="17" t="s">
         <v>79</v>
@@ -5584,22 +5602,22 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>759</v>
+        <v>731</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>1074</v>
+        <v>1041</v>
       </c>
       <c r="D71" s="15">
         <v>1200</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G71" s="17" t="s">
         <v>80</v>
@@ -5607,22 +5625,22 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>1075</v>
+        <v>1042</v>
       </c>
       <c r="D72" s="15">
         <v>1600</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G72" s="17" t="s">
         <v>81</v>
@@ -5630,45 +5648,45 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>761</v>
+        <v>733</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>501</v>
+        <v>1043</v>
       </c>
       <c r="D73" s="15">
         <v>2000</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G73" s="17" t="s">
-        <v>588</v>
+        <v>561</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>762</v>
+        <v>734</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="D74" s="15">
         <v>12500</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G74" s="17" t="s">
         <v>82</v>
@@ -5676,22 +5694,22 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>763</v>
+        <v>735</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D75" s="15">
         <v>800</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G75" s="17" t="s">
         <v>83</v>
@@ -5699,22 +5717,22 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>764</v>
+        <v>736</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="D76" s="15">
         <v>600</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G76" s="17" t="s">
         <v>84</v>
@@ -5722,22 +5740,22 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>765</v>
+        <v>737</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>421</v>
+        <v>1044</v>
       </c>
       <c r="D77" s="15">
         <v>750</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G77" s="17" t="s">
         <v>85</v>
@@ -5745,22 +5763,22 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>766</v>
+        <v>738</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C78" s="26" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D78" s="19">
         <v>500</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G78" s="17" t="s">
         <v>86</v>
@@ -5768,68 +5786,68 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>767</v>
+        <v>739</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C79" s="26" t="s">
-        <v>1076</v>
+        <v>1045</v>
       </c>
       <c r="D79" s="15">
         <v>2500</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G79" s="17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="C80" s="26" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D80" s="15">
+    <row r="80" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="38" t="s">
+        <v>740</v>
+      </c>
+      <c r="B80" s="39" t="s">
+        <v>372</v>
+      </c>
+      <c r="C80" s="40" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D80" s="21">
         <v>1500</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G80" s="17" t="s">
+      <c r="E80" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="F80" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="G80" s="42" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>769</v>
+        <v>741</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="C81" s="26" t="s">
-        <v>1078</v>
+        <v>1047</v>
       </c>
       <c r="D81" s="19">
         <v>750</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G81" s="17" t="s">
         <v>89</v>
@@ -5837,22 +5855,22 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>770</v>
+        <v>742</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C82" s="26" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D82" s="15">
         <v>350</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G82" s="17" t="s">
         <v>90</v>
@@ -5860,22 +5878,22 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C83" s="26" t="s">
-        <v>1079</v>
+        <v>1049</v>
       </c>
       <c r="D83" s="15">
         <v>750</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G83" s="17" t="s">
         <v>91</v>
@@ -5883,22 +5901,22 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>772</v>
+        <v>744</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="C84" s="26" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D84" s="15">
         <v>600</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G84" s="17" t="s">
         <v>92</v>
@@ -5906,22 +5924,22 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>773</v>
+        <v>745</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C85" s="26" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D85" s="15">
         <v>600</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G85" s="17" t="s">
         <v>93</v>
@@ -5929,22 +5947,22 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>774</v>
+        <v>746</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>1080</v>
+        <v>1050</v>
       </c>
       <c r="D86" s="15">
         <v>1200</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G86" s="17" t="s">
         <v>94</v>
@@ -5952,22 +5970,22 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>775</v>
+        <v>747</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C87" s="26" t="s">
-        <v>507</v>
+        <v>1052</v>
       </c>
       <c r="D87" s="15">
         <v>1700</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G87" s="17" t="s">
         <v>96</v>
@@ -5975,22 +5993,22 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>776</v>
+        <v>748</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C88" s="26" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D88" s="15">
         <v>300</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G88" s="17" t="s">
         <v>95</v>
@@ -5998,22 +6016,22 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>777</v>
+        <v>749</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C89" s="26" t="s">
-        <v>425</v>
+        <v>1051</v>
       </c>
       <c r="D89" s="15">
         <v>500</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G89" s="17" t="s">
         <v>97</v>
@@ -6021,22 +6039,22 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>778</v>
+        <v>750</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C90" s="26" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="D90" s="15">
         <v>400</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G90" s="17" t="s">
         <v>98</v>
@@ -6044,22 +6062,22 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>779</v>
+        <v>751</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C91" s="26" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="D91" s="15">
         <v>2750</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G91" s="17" t="s">
         <v>99</v>
@@ -6067,22 +6085,22 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>780</v>
+        <v>752</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C92" s="26" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D92" s="15">
         <v>3750</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G92" s="17" t="s">
         <v>100</v>
@@ -6090,22 +6108,22 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>781</v>
+        <v>753</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C93" s="26" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D93" s="15">
         <v>3500</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G93" s="17" t="s">
         <v>101</v>
@@ -6113,22 +6131,22 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>782</v>
+        <v>754</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C94" s="26" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="D94" s="15">
         <v>20000</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G94" s="17" t="s">
         <v>102</v>
@@ -6136,45 +6154,45 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>783</v>
+        <v>755</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C95" s="26" t="s">
-        <v>514</v>
+        <v>1053</v>
       </c>
       <c r="D95" s="15">
         <v>800</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G95" s="17" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>784</v>
+        <v>756</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="D96" s="15">
         <v>2500</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G96" s="17" t="s">
         <v>103</v>
@@ -6182,22 +6200,22 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>785</v>
+        <v>757</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C97" s="26" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="D97" s="15">
         <v>3000</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G97" s="17" t="s">
         <v>104</v>
@@ -6205,22 +6223,22 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>786</v>
+        <v>758</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="D98" s="15">
         <v>750</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G98" s="17" t="s">
         <v>105</v>
@@ -6228,4257 +6246,4257 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>787</v>
+        <v>759</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C99" s="26" t="s">
-        <v>518</v>
+        <v>1055</v>
       </c>
       <c r="D99" s="15">
         <v>350</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G99" s="17" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="38" t="s">
+        <v>760</v>
+      </c>
+      <c r="B100" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="C100" s="40" t="s">
+        <v>423</v>
+      </c>
+      <c r="D100" s="21">
+        <v>4000</v>
+      </c>
+      <c r="E100" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="F100" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="G100" s="42" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
-        <v>788</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="C100" s="26" t="s">
-        <v>427</v>
-      </c>
-      <c r="D100" s="15">
-        <v>4000</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G100" s="17" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>789</v>
+        <v>761</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C101" s="26" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="D101" s="15">
         <v>3500</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>790</v>
+        <v>762</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C102" s="26" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="D102" s="15">
         <v>2800</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G102" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>791</v>
+        <v>763</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C103" s="26" t="s">
-        <v>521</v>
+        <v>1057</v>
       </c>
       <c r="D103" s="15">
         <v>1200</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G103" s="17" t="s">
-        <v>110</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>792</v>
+        <v>764</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C104" s="26" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D104" s="15">
         <v>300</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G104" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>793</v>
+        <v>765</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C105" s="26" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D105" s="15">
         <v>1200</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G105" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>794</v>
+        <v>766</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C106" s="26" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="D106" s="15">
         <v>850</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G106" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>795</v>
+        <v>767</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C107" s="26" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="D107" s="15">
         <v>400</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G107" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>796</v>
+        <v>768</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C108" s="26" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D108" s="15">
         <v>2500</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G108" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>797</v>
+        <v>769</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C109" s="26" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D109" s="15">
         <v>1000</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G109" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>798</v>
+        <v>770</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C110" s="26" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="D110" s="15">
         <v>400</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G110" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>799</v>
+        <v>771</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C111" s="26" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="D111" s="15">
         <v>1000</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G111" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>800</v>
+        <v>772</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C112" s="26" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="D112" s="15">
         <v>750</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G112" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>801</v>
+        <v>773</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C113" s="26" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="D113" s="15">
         <v>4000</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G113" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>802</v>
+        <v>774</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C114" s="26" t="s">
-        <v>1081</v>
+        <v>1058</v>
       </c>
       <c r="D114" s="15">
         <v>3000</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G114" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>803</v>
+        <v>775</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C115" s="26" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="D115" s="15">
         <v>2000</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G115" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>804</v>
+        <v>776</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C116" s="26" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D116" s="15">
         <v>4000</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G116" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>805</v>
+        <v>777</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C117" s="26" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="D117" s="15">
         <v>1800</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G117" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>806</v>
+        <v>778</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C118" s="26" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="D118" s="15">
         <v>1200</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G118" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>807</v>
+        <v>779</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C119" s="26" t="s">
-        <v>531</v>
+        <v>1059</v>
       </c>
       <c r="D119" s="15">
         <v>800</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G119" s="17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="C120" s="26" t="s">
-        <v>532</v>
-      </c>
-      <c r="D120" s="15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="38" t="s">
+        <v>780</v>
+      </c>
+      <c r="B120" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="C120" s="40" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D120" s="21">
         <v>250</v>
       </c>
-      <c r="E120" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G120" s="17" t="s">
-        <v>127</v>
+      <c r="E120" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="F120" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="G120" s="42" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>809</v>
+        <v>781</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C121" s="26" t="s">
-        <v>533</v>
+        <v>1061</v>
       </c>
       <c r="D121" s="15">
         <v>2500</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G121" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>810</v>
+        <v>782</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C122" s="26" t="s">
-        <v>534</v>
+        <v>1062</v>
       </c>
       <c r="D122" s="15">
         <v>800</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G122" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>811</v>
+        <v>783</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C123" s="26" t="s">
-        <v>535</v>
+        <v>1063</v>
       </c>
       <c r="D123" s="15">
         <v>800</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G123" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>812</v>
+        <v>784</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C124" s="26" t="s">
-        <v>536</v>
+        <v>1064</v>
       </c>
       <c r="D124" s="15">
         <v>500</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G124" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>813</v>
+        <v>785</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C125" s="26" t="s">
-        <v>1082</v>
+        <v>1038</v>
       </c>
       <c r="D125" s="15">
         <v>2000</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G125" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>814</v>
+        <v>786</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C126" s="26" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
       <c r="D126" s="15">
         <v>1200</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G126" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>815</v>
+        <v>787</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C127" s="26" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="D127" s="15">
         <v>5000</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G127" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>816</v>
+        <v>788</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C128" s="26" t="s">
-        <v>1083</v>
+        <v>1065</v>
       </c>
       <c r="D128" s="15">
         <v>2000</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G128" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>817</v>
+        <v>789</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C129" s="26" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="D129" s="15">
         <v>1500</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G129" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>818</v>
+        <v>790</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C130" s="26" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D130" s="15">
         <v>6000</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G130" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>819</v>
+        <v>791</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C131" s="26" t="s">
-        <v>1084</v>
+        <v>1039</v>
       </c>
       <c r="D131" s="15">
         <v>300</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G131" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>820</v>
+        <v>792</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C132" s="26" t="s">
-        <v>1085</v>
+        <v>1040</v>
       </c>
       <c r="D132" s="15">
         <v>800</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G132" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>821</v>
+        <v>793</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C133" s="26" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="D133" s="15">
         <v>2000</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G133" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>822</v>
+        <v>794</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C134" s="26" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="D134" s="15">
         <v>700</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G134" s="15" t="s">
-        <v>951</v>
+        <v>923</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>823</v>
+        <v>795</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C135" s="26" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="D135" s="15">
         <v>700</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G135" s="17" t="s">
-        <v>591</v>
+        <v>564</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>824</v>
+        <v>796</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C136" s="26" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="D136" s="15">
         <v>700</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G136" s="17" t="s">
-        <v>592</v>
+        <v>565</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>825</v>
+        <v>797</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C137" s="26" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="D137" s="15">
         <v>700</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G137" s="17" t="s">
-        <v>593</v>
+        <v>566</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>826</v>
+        <v>798</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C138" s="26" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="D138" s="15">
         <v>700</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G138" s="17" t="s">
-        <v>594</v>
+        <v>567</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>827</v>
+        <v>799</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C139" s="26" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="D139" s="15">
         <v>900</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G139" s="17" t="s">
-        <v>595</v>
+        <v>568</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>828</v>
+        <v>800</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C140" s="26" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="D140" s="15">
         <v>700</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G140" s="17" t="s">
-        <v>596</v>
+        <v>569</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>829</v>
+        <v>801</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C141" s="26" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="D141" s="15">
         <v>700</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G141" s="17" t="s">
-        <v>597</v>
+        <v>570</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>830</v>
+        <v>802</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C142" s="26" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
       <c r="D142" s="15">
         <v>1400</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G142" s="17" t="s">
-        <v>598</v>
+        <v>571</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>831</v>
+        <v>803</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C143" s="26" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="D143" s="15">
         <v>700</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G143" s="17" t="s">
-        <v>599</v>
+        <v>572</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>832</v>
+        <v>804</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C144" s="26" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="D144" s="15">
         <v>700</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G144" s="17" t="s">
-        <v>600</v>
+        <v>573</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>833</v>
+        <v>805</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C145" s="26" t="s">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="D145" s="15">
         <v>700</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G145" s="17" t="s">
-        <v>601</v>
+        <v>574</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>834</v>
+        <v>806</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C146" s="26" t="s">
-        <v>547</v>
+        <v>530</v>
       </c>
       <c r="D146" s="15">
         <v>700</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G146" s="17" t="s">
-        <v>602</v>
+        <v>575</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>835</v>
+        <v>807</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C147" s="26" t="s">
-        <v>547</v>
+        <v>530</v>
       </c>
       <c r="D147" s="15">
         <v>700</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G147" s="17" t="s">
-        <v>603</v>
+        <v>576</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>836</v>
+        <v>808</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C148" s="26" t="s">
-        <v>547</v>
+        <v>530</v>
       </c>
       <c r="D148" s="15">
         <v>700</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G148" s="17" t="s">
-        <v>604</v>
+        <v>577</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>837</v>
+        <v>809</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C149" s="26" t="s">
-        <v>548</v>
+        <v>531</v>
       </c>
       <c r="D149" s="15">
         <v>700</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G149" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>838</v>
+        <v>810</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C150" s="26" t="s">
-        <v>549</v>
+        <v>532</v>
       </c>
       <c r="D150" s="15">
         <v>500</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G150" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>839</v>
+        <v>811</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C151" s="26" t="s">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="D151" s="15">
         <v>800</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G151" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>840</v>
+        <v>812</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C152" s="26" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="D152" s="15">
         <v>800</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G152" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>841</v>
+        <v>813</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C153" s="26" t="s">
-        <v>552</v>
+        <v>1066</v>
       </c>
       <c r="D153" s="15">
         <v>350</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G153" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>842</v>
+        <v>814</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C154" s="26" t="s">
-        <v>553</v>
+        <v>1067</v>
       </c>
       <c r="D154" s="15">
         <v>2500</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G154" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>843</v>
+        <v>815</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C155" s="26" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="D155" s="15">
         <v>600</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G155" s="17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>844</v>
+        <v>816</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C156" s="26" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="D156" s="15">
         <v>700</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G156" s="17" t="s">
-        <v>605</v>
+        <v>578</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>845</v>
+        <v>817</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C157" s="26" t="s">
-        <v>556</v>
+        <v>1068</v>
       </c>
       <c r="D157" s="15">
         <v>700</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G157" s="17" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>846</v>
+        <v>818</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C158" s="26" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
       <c r="D158" s="15">
         <v>750</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G158" s="17" t="s">
-        <v>606</v>
+        <v>579</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>847</v>
+        <v>819</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C159" s="26" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
       <c r="D159" s="15">
         <v>1200</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G159" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>848</v>
+        <v>820</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C160" s="26" t="s">
-        <v>559</v>
+        <v>539</v>
       </c>
       <c r="D160" s="15">
         <v>600</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G160" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>849</v>
+        <v>821</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C161" s="26" t="s">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="D161" s="15">
         <v>750</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G161" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>850</v>
+        <v>822</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C162" s="26" t="s">
-        <v>561</v>
+        <v>1069</v>
       </c>
       <c r="D162" s="15">
         <v>800</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G162" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>851</v>
+        <v>823</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C163" s="26" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
       <c r="D163" s="15">
         <v>1500</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G163" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>852</v>
+        <v>824</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C164" s="26" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="D164" s="15">
         <v>1200</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G164" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>853</v>
+        <v>825</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C165" s="26" t="s">
-        <v>564</v>
+        <v>543</v>
       </c>
       <c r="D165" s="15">
         <v>1500</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G165" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>854</v>
+        <v>826</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="C166" s="26" t="s">
-        <v>565</v>
+        <v>406</v>
+      </c>
+      <c r="C166" s="40" t="s">
+        <v>544</v>
       </c>
       <c r="D166" s="15">
         <v>300</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G166" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>855</v>
+        <v>827</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C167" s="26" t="s">
-        <v>566</v>
+        <v>545</v>
       </c>
       <c r="D167" s="15">
         <v>400</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G167" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>856</v>
+        <v>828</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C168" s="26" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
       <c r="D168" s="15">
         <v>500</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G168" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>857</v>
+        <v>829</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C169" s="26" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="D169" s="15">
         <v>300</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G169" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>858</v>
+        <v>830</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C170" s="26" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
       <c r="D170" s="15">
         <v>400</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G170" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>859</v>
+        <v>831</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C171" s="26" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
       <c r="D171" s="15">
         <v>150</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G171" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>860</v>
+        <v>832</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C172" s="26" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
       <c r="D172" s="15">
         <v>150</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G172" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>861</v>
+        <v>833</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C173" s="26" t="s">
-        <v>572</v>
+        <v>551</v>
       </c>
       <c r="D173" s="15">
         <v>100</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G173" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>862</v>
+        <v>834</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C174" s="26" t="s">
-        <v>573</v>
+        <v>552</v>
       </c>
       <c r="D174" s="15">
         <v>4000</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G174" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>863</v>
+        <v>835</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C175" s="26" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="D175" s="15">
         <v>1500</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G175" s="17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>864</v>
+        <v>836</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C176" s="26" t="s">
-        <v>1049</v>
+        <v>1014</v>
       </c>
       <c r="D176" s="15">
         <v>2500</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G176" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>865</v>
+        <v>837</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C177" s="26" t="s">
-        <v>575</v>
+        <v>554</v>
       </c>
       <c r="D177" s="15">
         <v>500</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G177" s="17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>866</v>
+        <v>838</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C178" s="26" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D178" s="15">
         <v>300</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G178" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>867</v>
+        <v>839</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C179" s="26" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D179" s="15">
         <v>500</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G179" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>868</v>
+        <v>840</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C180" s="26" t="s">
-        <v>576</v>
+        <v>1070</v>
       </c>
       <c r="D180" s="19">
         <v>2800</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G180" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>869</v>
+        <v>841</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C181" s="26" t="s">
-        <v>577</v>
+        <v>1071</v>
       </c>
       <c r="D181" s="15">
         <v>1400</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G181" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>870</v>
+        <v>842</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C182" s="26" t="s">
-        <v>578</v>
+        <v>555</v>
       </c>
       <c r="D182" s="15">
         <v>1575</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G182" s="17" t="s">
-        <v>607</v>
+        <v>580</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>871</v>
+        <v>843</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C183" s="26" t="s">
-        <v>578</v>
+        <v>555</v>
       </c>
       <c r="D183" s="15">
         <v>1485</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G183" s="17" t="s">
-        <v>608</v>
+        <v>581</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>872</v>
+        <v>844</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C184" s="26" t="s">
-        <v>578</v>
+        <v>555</v>
       </c>
       <c r="D184" s="15">
         <v>1260</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G184" s="17" t="s">
-        <v>609</v>
+        <v>582</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>873</v>
+        <v>845</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C185" s="26" t="s">
-        <v>578</v>
+        <v>555</v>
       </c>
       <c r="D185" s="20">
         <v>900</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G185" s="17" t="s">
-        <v>610</v>
+        <v>583</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>874</v>
+        <v>846</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C186" s="26" t="s">
-        <v>578</v>
+        <v>555</v>
       </c>
       <c r="D186" s="15">
         <v>1440</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G186" s="17" t="s">
-        <v>611</v>
+        <v>584</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>875</v>
+        <v>847</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C187" s="26" t="s">
-        <v>578</v>
+        <v>555</v>
       </c>
       <c r="D187" s="15">
         <v>1395</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G187" s="17" t="s">
-        <v>612</v>
+        <v>585</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>876</v>
+        <v>848</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C188" s="26" t="s">
-        <v>578</v>
+        <v>555</v>
       </c>
       <c r="D188" s="15">
         <v>810</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G188" s="17" t="s">
-        <v>613</v>
+        <v>586</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>877</v>
+        <v>849</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C189" s="26" t="s">
-        <v>578</v>
+        <v>555</v>
       </c>
       <c r="D189" s="15">
         <v>1575</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G189" s="17" t="s">
-        <v>614</v>
+        <v>587</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>878</v>
+        <v>850</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C190" s="26" t="s">
-        <v>578</v>
+        <v>555</v>
       </c>
       <c r="D190" s="15">
         <v>1170</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G190" s="17" t="s">
-        <v>615</v>
+        <v>588</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>879</v>
+        <v>851</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C191" s="26" t="s">
-        <v>578</v>
+        <v>555</v>
       </c>
       <c r="D191" s="15">
         <v>810</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G191" s="17" t="s">
-        <v>616</v>
+        <v>589</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>880</v>
+        <v>852</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C192" s="26" t="s">
-        <v>578</v>
+        <v>555</v>
       </c>
       <c r="D192" s="19">
         <v>925</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G192" s="17" t="s">
-        <v>617</v>
+        <v>590</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>881</v>
+        <v>853</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C193" s="26" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D193" s="15">
         <v>1260</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G193" s="17" t="s">
-        <v>618</v>
+        <v>591</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>882</v>
+        <v>854</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C194" s="26" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D194" s="15">
         <v>1330</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G194" s="17" t="s">
-        <v>619</v>
+        <v>592</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>883</v>
+        <v>855</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C195" s="26" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D195" s="15">
         <v>665</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G195" s="17" t="s">
-        <v>620</v>
+        <v>593</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>884</v>
+        <v>856</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C196" s="26" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D196" s="15">
         <v>1085</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G196" s="17" t="s">
-        <v>621</v>
+        <v>594</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>885</v>
+        <v>857</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C197" s="26" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D197" s="15">
         <v>875</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G197" s="17" t="s">
-        <v>622</v>
+        <v>595</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>886</v>
+        <v>858</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C198" s="26" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D198" s="15">
         <v>1645</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G198" s="17" t="s">
-        <v>623</v>
+        <v>596</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>887</v>
+        <v>859</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C199" s="26" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D199" s="15">
         <v>980</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G199" s="17" t="s">
-        <v>624</v>
+        <v>597</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>888</v>
+        <v>860</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C200" s="26" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D200" s="15">
         <v>1015</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G200" s="17" t="s">
-        <v>625</v>
+        <v>598</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>889</v>
+        <v>861</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C201" s="26" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D201" s="15">
         <v>595</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G201" s="17" t="s">
-        <v>626</v>
+        <v>599</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>890</v>
+        <v>862</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C202" s="26" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D202" s="15">
         <v>910</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G202" s="17" t="s">
-        <v>627</v>
+        <v>600</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>891</v>
+        <v>863</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C203" s="26" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D203" s="15">
         <v>595</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G203" s="17" t="s">
-        <v>628</v>
+        <v>601</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>892</v>
+        <v>864</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C204" s="26" t="s">
-        <v>579</v>
+        <v>556</v>
       </c>
       <c r="D204" s="15">
         <v>768</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G204" s="17" t="s">
-        <v>629</v>
+        <v>602</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>893</v>
+        <v>865</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C205" s="26" t="s">
-        <v>579</v>
+        <v>556</v>
       </c>
       <c r="D205" s="15">
         <v>1120</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G205" s="17" t="s">
-        <v>630</v>
+        <v>603</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>894</v>
+        <v>866</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C206" s="26" t="s">
-        <v>579</v>
+        <v>556</v>
       </c>
       <c r="D206" s="15">
         <v>1856</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G206" s="17" t="s">
-        <v>631</v>
+        <v>604</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>895</v>
+        <v>867</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C207" s="26" t="s">
-        <v>579</v>
+        <v>556</v>
       </c>
       <c r="D207" s="15">
         <v>864</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G207" s="17" t="s">
-        <v>632</v>
+        <v>605</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>896</v>
+        <v>868</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C208" s="26" t="s">
-        <v>579</v>
+        <v>556</v>
       </c>
       <c r="D208" s="15">
         <v>1280</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G208" s="17" t="s">
-        <v>633</v>
+        <v>606</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>897</v>
+        <v>869</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C209" s="26" t="s">
-        <v>579</v>
+        <v>556</v>
       </c>
       <c r="D209" s="15">
         <v>896</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G209" s="17" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
-        <v>898</v>
+        <v>870</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C210" s="26" t="s">
-        <v>579</v>
+        <v>556</v>
       </c>
       <c r="D210" s="15">
         <v>2112</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G210" s="17" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>899</v>
+        <v>871</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C211" s="26" t="s">
-        <v>579</v>
+        <v>556</v>
       </c>
       <c r="D211" s="15">
         <v>1888</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G211" s="17" t="s">
-        <v>636</v>
+        <v>609</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C212" s="26" t="s">
-        <v>579</v>
+        <v>556</v>
       </c>
       <c r="D212" s="21">
         <v>1125</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G212" s="17" t="s">
-        <v>637</v>
+        <v>610</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>901</v>
+        <v>873</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C213" s="26" t="s">
-        <v>579</v>
+        <v>556</v>
       </c>
       <c r="D213" s="15">
         <v>1088</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G213" s="17" t="s">
-        <v>638</v>
+        <v>611</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C214" s="26" t="s">
-        <v>579</v>
+        <v>556</v>
       </c>
       <c r="D214" s="15">
         <v>800</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G214" s="17" t="s">
-        <v>639</v>
+        <v>612</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>903</v>
+        <v>875</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C215" s="26" t="s">
-        <v>579</v>
+        <v>556</v>
       </c>
       <c r="D215" s="15">
         <v>800</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G215" s="17" t="s">
-        <v>640</v>
+        <v>613</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>904</v>
+        <v>876</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C216" s="26" t="s">
-        <v>580</v>
+        <v>557</v>
       </c>
       <c r="D216" s="15">
         <v>950</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G216" s="17" t="s">
-        <v>641</v>
+        <v>614</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>905</v>
+        <v>877</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C217" s="26" t="s">
-        <v>580</v>
+        <v>557</v>
       </c>
       <c r="D217" s="15">
         <v>576</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G217" s="17" t="s">
-        <v>642</v>
+        <v>615</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>906</v>
+        <v>878</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C218" s="26" t="s">
-        <v>580</v>
+        <v>557</v>
       </c>
       <c r="D218" s="15">
         <v>925</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G218" s="17" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>907</v>
+        <v>879</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C219" s="26" t="s">
-        <v>580</v>
+        <v>557</v>
       </c>
       <c r="D219" s="15">
         <v>725</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G219" s="17" t="s">
-        <v>644</v>
+        <v>617</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
-        <v>908</v>
+        <v>880</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C220" s="26" t="s">
-        <v>580</v>
+        <v>557</v>
       </c>
       <c r="D220" s="15">
         <v>750</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G220" s="17" t="s">
-        <v>645</v>
+        <v>618</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>909</v>
+        <v>881</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C221" s="26" t="s">
-        <v>580</v>
+        <v>557</v>
       </c>
       <c r="D221" s="15">
         <v>1100</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G221" s="17" t="s">
-        <v>646</v>
+        <v>619</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>910</v>
+        <v>882</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C222" s="26" t="s">
-        <v>580</v>
+        <v>557</v>
       </c>
       <c r="D222" s="15">
         <v>1225</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G222" s="17" t="s">
-        <v>647</v>
+        <v>620</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>911</v>
+        <v>883</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C223" s="26" t="s">
-        <v>580</v>
+        <v>557</v>
       </c>
       <c r="D223" s="15">
         <v>495</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G223" s="17" t="s">
-        <v>648</v>
+        <v>621</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>912</v>
+        <v>884</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C224" s="26" t="s">
-        <v>580</v>
+        <v>557</v>
       </c>
       <c r="D224" s="15">
         <v>950</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G224" s="17" t="s">
-        <v>649</v>
+        <v>622</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>913</v>
+        <v>885</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C225" s="26" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D225" s="15">
         <v>2345</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G225" s="17" t="s">
-        <v>650</v>
+        <v>623</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>914</v>
+        <v>886</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C226" s="26" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D226" s="15">
         <v>2380</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G226" s="17" t="s">
-        <v>651</v>
+        <v>624</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>915</v>
+        <v>887</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C227" s="26" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D227" s="15">
         <v>3570</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G227" s="17" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
-        <v>916</v>
+        <v>888</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C228" s="26" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D228" s="15">
         <v>1645</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G228" s="17" t="s">
-        <v>653</v>
+        <v>626</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
-        <v>917</v>
+        <v>889</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C229" s="26" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D229" s="15">
         <v>1610</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G229" s="17" t="s">
-        <v>654</v>
+        <v>627</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
-        <v>918</v>
+        <v>890</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C230" s="26" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D230" s="21">
         <v>1600</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G230" s="17" t="s">
-        <v>655</v>
+        <v>628</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
-        <v>919</v>
+        <v>891</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C231" s="26" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D231" s="15">
         <v>945</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G231" s="17" t="s">
-        <v>656</v>
+        <v>629</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
-        <v>920</v>
+        <v>892</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C232" s="26" t="s">
-        <v>581</v>
+        <v>558</v>
       </c>
       <c r="D232" s="15">
         <v>1990</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G232" s="17" t="s">
-        <v>657</v>
+        <v>630</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
-        <v>921</v>
+        <v>893</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C233" s="26" t="s">
-        <v>582</v>
+        <v>1072</v>
       </c>
       <c r="D233" s="21">
         <v>1700</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G233" s="17" t="s">
-        <v>658</v>
+        <v>631</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
-        <v>922</v>
+        <v>894</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C234" s="26" t="s">
-        <v>582</v>
+        <v>1072</v>
       </c>
       <c r="D234" s="15">
         <v>1190</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G234" s="17" t="s">
-        <v>659</v>
+        <v>632</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
-        <v>923</v>
+        <v>895</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C235" s="26" t="s">
-        <v>582</v>
+        <v>1072</v>
       </c>
       <c r="D235" s="15">
         <v>940</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G235" s="17" t="s">
-        <v>660</v>
+        <v>633</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
-        <v>924</v>
+        <v>896</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C236" s="26" t="s">
-        <v>582</v>
+        <v>1073</v>
       </c>
       <c r="D236" s="19">
         <v>600</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G236" s="17" t="s">
-        <v>661</v>
+        <v>634</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
-        <v>925</v>
+        <v>897</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C237" s="26" t="s">
-        <v>582</v>
+        <v>1073</v>
       </c>
       <c r="D237" s="19">
         <v>400</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G237" s="17" t="s">
-        <v>662</v>
+        <v>635</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
-        <v>926</v>
+        <v>898</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C238" s="26" t="s">
-        <v>582</v>
+        <v>1073</v>
       </c>
       <c r="D238" s="19">
         <v>250</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G238" s="17" t="s">
-        <v>663</v>
+        <v>636</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
-        <v>927</v>
+        <v>899</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C239" s="26" t="s">
-        <v>582</v>
+        <v>1073</v>
       </c>
       <c r="D239" s="19">
         <v>500</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G239" s="17" t="s">
-        <v>664</v>
+        <v>637</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
-        <v>928</v>
+        <v>900</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C240" s="26" t="s">
-        <v>582</v>
+        <v>1073</v>
       </c>
       <c r="D240" s="19">
         <v>900</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G240" s="17" t="s">
-        <v>665</v>
+        <v>638</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>929</v>
+        <v>901</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C241" s="26" t="s">
-        <v>582</v>
+        <v>1073</v>
       </c>
       <c r="D241" s="19">
         <v>3500</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G241" s="17" t="s">
-        <v>666</v>
+        <v>639</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
-        <v>930</v>
+        <v>902</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C242" s="26" t="s">
-        <v>582</v>
+        <v>1073</v>
       </c>
       <c r="D242" s="15">
         <v>2400</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G242" s="17" t="s">
-        <v>667</v>
+        <v>640</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
-        <v>931</v>
+        <v>903</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C243" s="26" t="s">
-        <v>440</v>
+        <v>1075</v>
       </c>
       <c r="D243" s="21">
         <v>2500</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G243" s="17" t="s">
-        <v>668</v>
+        <v>641</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
-        <v>932</v>
+        <v>904</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C244" s="26" t="s">
-        <v>440</v>
+        <v>1076</v>
       </c>
       <c r="D244" s="21">
         <v>800</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G244" s="17" t="s">
-        <v>669</v>
+        <v>642</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
-        <v>933</v>
+        <v>905</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C245" s="26" t="s">
-        <v>583</v>
+        <v>1077</v>
       </c>
       <c r="D245" s="19">
         <v>2800</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G245" s="17" t="s">
-        <v>670</v>
+        <v>643</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
-        <v>934</v>
+        <v>906</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C246" s="26" t="s">
-        <v>583</v>
+        <v>1077</v>
       </c>
       <c r="D246" s="19">
         <v>800</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G246" s="17" t="s">
-        <v>671</v>
+        <v>644</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
-        <v>935</v>
+        <v>907</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C247" s="26" t="s">
-        <v>583</v>
+        <v>1077</v>
       </c>
       <c r="D247" s="15">
         <v>750</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G247" s="17" t="s">
-        <v>672</v>
+        <v>645</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C248" s="26" t="s">
-        <v>584</v>
+        <v>1078</v>
       </c>
       <c r="D248" s="15">
         <v>1200</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G248" s="17" t="s">
-        <v>673</v>
+        <v>646</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C249" s="26" t="s">
-        <v>584</v>
+        <v>1078</v>
       </c>
       <c r="D249" s="19">
         <v>600</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G249" s="17" t="s">
-        <v>674</v>
+        <v>647</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C250" s="26" t="s">
-        <v>584</v>
+        <v>1078</v>
       </c>
       <c r="D250" s="15">
         <v>1800</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G250" s="17" t="s">
-        <v>675</v>
+        <v>648</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C251" s="26" t="s">
-        <v>584</v>
+        <v>1078</v>
       </c>
       <c r="D251" s="15">
         <v>1500</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G251" s="17" t="s">
-        <v>676</v>
+        <v>649</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C252" s="26" t="s">
-        <v>584</v>
+        <v>1078</v>
       </c>
       <c r="D252" s="15">
         <v>700</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G252" s="17" t="s">
-        <v>677</v>
+        <v>650</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C253" s="26" t="s">
-        <v>584</v>
+        <v>1078</v>
       </c>
       <c r="D253" s="15">
         <v>500</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G253" s="17" t="s">
-        <v>678</v>
+        <v>651</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
-        <v>942</v>
+        <v>914</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C254" s="26" t="s">
-        <v>584</v>
+        <v>1078</v>
       </c>
       <c r="D254" s="19">
         <v>1000</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G254" s="17" t="s">
-        <v>679</v>
+        <v>652</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
-        <v>943</v>
+        <v>915</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C255" s="26" t="s">
-        <v>585</v>
+        <v>1079</v>
       </c>
       <c r="D255" s="15">
         <v>2000</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G255" s="17" t="s">
-        <v>680</v>
+        <v>653</v>
       </c>
     </row>
     <row r="256" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
-        <v>944</v>
+        <v>916</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C256" s="26" t="s">
-        <v>585</v>
+        <v>1079</v>
       </c>
       <c r="D256" s="15">
         <v>700</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G256" s="17" t="s">
-        <v>681</v>
+        <v>654</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
-        <v>945</v>
+        <v>917</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C257" s="26" t="s">
-        <v>585</v>
+        <v>1079</v>
       </c>
       <c r="D257" s="19">
         <v>500</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G257" s="17" t="s">
-        <v>682</v>
+        <v>655</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
-        <v>946</v>
+        <v>918</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C258" s="26" t="s">
-        <v>585</v>
+        <v>1079</v>
       </c>
       <c r="D258" s="19">
         <v>300</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G258" s="17" t="s">
-        <v>683</v>
+        <v>656</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
-        <v>947</v>
+        <v>919</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C259" s="26" t="s">
-        <v>687</v>
+        <v>1080</v>
       </c>
       <c r="D259" s="19">
         <v>800</v>
       </c>
       <c r="E259" s="22" t="s">
-        <v>957</v>
+        <v>928</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G259" s="15" t="s">
-        <v>952</v>
+        <v>924</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
-        <v>948</v>
+        <v>920</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>686</v>
+        <v>659</v>
       </c>
       <c r="C260" s="26" t="s">
-        <v>688</v>
+        <v>660</v>
       </c>
       <c r="D260" s="19">
         <v>5000</v>
       </c>
       <c r="E260" s="22" t="s">
-        <v>956</v>
+        <v>927</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>685</v>
+        <v>658</v>
       </c>
       <c r="G260" s="15" t="s">
-        <v>953</v>
+        <v>925</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
-        <v>949</v>
+        <v>921</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C261" s="26" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="D261" s="19">
         <v>900</v>
       </c>
       <c r="E261" s="22" t="s">
-        <v>955</v>
+        <v>926</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G261" s="17" t="s">
-        <v>684</v>
+        <v>657</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="10" t="s">
-        <v>950</v>
+        <v>922</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C262" s="27" t="s">
-        <v>436</v>
+        <v>1081</v>
       </c>
       <c r="D262" s="19">
         <v>1200</v>
       </c>
       <c r="E262" s="13" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F262" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G262" s="15" t="s">
-        <v>954</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
-        <v>972</v>
+        <v>943</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>1008</v>
+        <v>1074</v>
       </c>
       <c r="C263" s="28" t="s">
-        <v>993</v>
+        <v>964</v>
       </c>
       <c r="D263" s="23">
         <v>1740</v>
       </c>
       <c r="E263" s="8" t="s">
-        <v>1011</v>
+        <v>978</v>
       </c>
       <c r="F263" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G263" s="18" t="s">
-        <v>958</v>
+        <v>929</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
-        <v>973</v>
+        <v>944</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>1008</v>
+        <v>1074</v>
       </c>
       <c r="C264" s="28" t="s">
-        <v>994</v>
+        <v>1083</v>
       </c>
       <c r="D264" s="23">
         <v>750</v>
       </c>
       <c r="E264" s="8" t="s">
-        <v>1012</v>
+        <v>979</v>
       </c>
       <c r="F264" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G264" s="18" t="s">
-        <v>959</v>
+        <v>930</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
-        <v>974</v>
+        <v>945</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>1008</v>
+        <v>1074</v>
       </c>
       <c r="C265" s="28" t="s">
-        <v>995</v>
+        <v>965</v>
       </c>
       <c r="D265" s="23">
         <v>270</v>
       </c>
       <c r="E265" s="8" t="s">
-        <v>1013</v>
+        <v>980</v>
       </c>
       <c r="F265" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G265" s="18" t="s">
-        <v>960</v>
+        <v>931</v>
       </c>
     </row>
     <row r="266" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="31" t="s">
-        <v>975</v>
+        <v>946</v>
       </c>
       <c r="B266" s="32" t="s">
-        <v>1009</v>
+        <v>976</v>
       </c>
       <c r="C266" s="33" t="s">
-        <v>1036</v>
+        <v>1001</v>
       </c>
       <c r="D266" s="34">
         <v>700</v>
       </c>
       <c r="E266" s="35" t="s">
-        <v>1014</v>
+        <v>981</v>
       </c>
       <c r="F266" s="21" t="s">
-        <v>991</v>
+        <v>962</v>
       </c>
       <c r="G266" s="36" t="s">
-        <v>1035</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
+        <v>947</v>
+      </c>
+      <c r="B267" s="6" t="s">
         <v>976</v>
       </c>
-      <c r="B267" s="6" t="s">
-        <v>1009</v>
-      </c>
       <c r="C267" s="28" t="s">
-        <v>996</v>
+        <v>966</v>
       </c>
       <c r="D267" s="23">
         <v>300</v>
       </c>
       <c r="E267" s="8" t="s">
-        <v>1015</v>
+        <v>982</v>
       </c>
       <c r="F267" s="15" t="s">
-        <v>991</v>
+        <v>962</v>
       </c>
       <c r="G267" s="18" t="s">
-        <v>961</v>
+        <v>932</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
-        <v>977</v>
+        <v>948</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>1009</v>
+        <v>976</v>
       </c>
       <c r="C268" s="28" t="s">
-        <v>997</v>
+        <v>967</v>
       </c>
       <c r="D268" s="23">
         <v>200</v>
       </c>
       <c r="E268" s="8" t="s">
-        <v>1016</v>
+        <v>983</v>
       </c>
       <c r="F268" s="15" t="s">
-        <v>991</v>
+        <v>962</v>
       </c>
       <c r="G268" s="18" t="s">
-        <v>962</v>
+        <v>933</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
-        <v>978</v>
+        <v>949</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>1009</v>
+        <v>976</v>
       </c>
       <c r="C269" s="28" t="s">
-        <v>998</v>
+        <v>968</v>
       </c>
       <c r="D269" s="23">
         <v>250</v>
       </c>
       <c r="E269" s="8" t="s">
-        <v>1016</v>
+        <v>983</v>
       </c>
       <c r="F269" s="15" t="s">
-        <v>991</v>
+        <v>962</v>
       </c>
       <c r="G269" s="18" t="s">
-        <v>963</v>
+        <v>934</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
-        <v>979</v>
+        <v>950</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>1009</v>
+        <v>976</v>
       </c>
       <c r="C270" s="28" t="s">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="D270" s="23">
         <v>200</v>
       </c>
       <c r="E270" s="8" t="s">
-        <v>1016</v>
+        <v>983</v>
       </c>
       <c r="F270" s="15" t="s">
-        <v>991</v>
+        <v>962</v>
       </c>
       <c r="G270" s="18" t="s">
-        <v>964</v>
+        <v>935</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
-        <v>980</v>
+        <v>951</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>1009</v>
+        <v>976</v>
       </c>
       <c r="C271" s="28" t="s">
-        <v>1041</v>
+        <v>1006</v>
       </c>
       <c r="D271" s="23">
         <v>350</v>
       </c>
       <c r="E271" s="8" t="s">
-        <v>1015</v>
+        <v>982</v>
       </c>
       <c r="F271" s="15" t="s">
-        <v>991</v>
+        <v>962</v>
       </c>
       <c r="G271" s="18" t="s">
-        <v>1037</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
-        <v>981</v>
+        <v>952</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>1009</v>
+        <v>976</v>
       </c>
       <c r="C272" s="28" t="s">
-        <v>1042</v>
+        <v>1007</v>
       </c>
       <c r="D272" s="23">
         <v>200</v>
       </c>
       <c r="E272" s="8" t="s">
-        <v>1018</v>
+        <v>985</v>
       </c>
       <c r="F272" s="15" t="s">
-        <v>991</v>
+        <v>962</v>
       </c>
       <c r="G272" s="18" t="s">
-        <v>1038</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
-        <v>982</v>
+        <v>953</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>1009</v>
+        <v>976</v>
       </c>
       <c r="C273" s="28" t="s">
-        <v>1043</v>
+        <v>1008</v>
       </c>
       <c r="D273" s="23">
         <v>150</v>
       </c>
       <c r="E273" s="8" t="s">
-        <v>1017</v>
+        <v>984</v>
       </c>
       <c r="F273" s="15" t="s">
-        <v>991</v>
+        <v>962</v>
       </c>
       <c r="G273" s="18" t="s">
-        <v>1039</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
-        <v>983</v>
+        <v>954</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>1009</v>
+        <v>976</v>
       </c>
       <c r="C274" s="28" t="s">
-        <v>1000</v>
+        <v>1084</v>
       </c>
       <c r="D274" s="23">
         <v>250</v>
       </c>
       <c r="E274" s="8" t="s">
-        <v>1019</v>
+        <v>986</v>
       </c>
       <c r="F274" s="15" t="s">
-        <v>991</v>
+        <v>962</v>
       </c>
       <c r="G274" s="18" t="s">
-        <v>1040</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
-        <v>984</v>
+        <v>955</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>1009</v>
+        <v>976</v>
       </c>
       <c r="C275" s="28" t="s">
-        <v>1001</v>
+        <v>970</v>
       </c>
       <c r="D275" s="23">
         <v>165</v>
       </c>
       <c r="E275" s="8" t="s">
-        <v>1020</v>
+        <v>987</v>
       </c>
       <c r="F275" s="15" t="s">
-        <v>991</v>
+        <v>962</v>
       </c>
       <c r="G275" s="18" t="s">
-        <v>965</v>
+        <v>936</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
-        <v>985</v>
+        <v>956</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>1009</v>
+        <v>976</v>
       </c>
       <c r="C276" s="28" t="s">
-        <v>1002</v>
+        <v>1085</v>
       </c>
       <c r="D276" s="23">
         <v>100</v>
       </c>
       <c r="E276" s="8" t="s">
-        <v>1020</v>
+        <v>987</v>
       </c>
       <c r="F276" s="15" t="s">
-        <v>991</v>
+        <v>962</v>
       </c>
       <c r="G276" s="18" t="s">
-        <v>966</v>
+        <v>937</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
-        <v>986</v>
+        <v>957</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C277" s="28" t="s">
-        <v>1003</v>
+        <v>971</v>
       </c>
       <c r="D277" s="23">
         <v>150</v>
       </c>
       <c r="E277" s="8" t="s">
-        <v>1021</v>
+        <v>988</v>
       </c>
       <c r="F277" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G277" s="18" t="s">
-        <v>967</v>
+        <v>938</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
-        <v>987</v>
+        <v>958</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C278" s="28" t="s">
-        <v>1004</v>
+        <v>972</v>
       </c>
       <c r="D278" s="23">
         <v>150</v>
       </c>
       <c r="E278" s="8" t="s">
-        <v>1022</v>
+        <v>989</v>
       </c>
       <c r="F278" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G278" s="18" t="s">
-        <v>968</v>
+        <v>939</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
-        <v>988</v>
+        <v>959</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>1010</v>
+        <v>977</v>
       </c>
       <c r="C279" s="28" t="s">
-        <v>1005</v>
+        <v>973</v>
       </c>
       <c r="D279" s="23">
         <v>35</v>
       </c>
       <c r="E279" s="8" t="s">
-        <v>1023</v>
+        <v>990</v>
       </c>
       <c r="F279" s="15" t="s">
-        <v>992</v>
+        <v>963</v>
       </c>
       <c r="G279" s="18" t="s">
-        <v>969</v>
+        <v>940</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
-        <v>989</v>
+        <v>960</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>1010</v>
+        <v>977</v>
       </c>
       <c r="C280" s="28" t="s">
-        <v>1006</v>
+        <v>974</v>
       </c>
       <c r="D280" s="23">
         <v>35</v>
       </c>
       <c r="E280" s="8" t="s">
-        <v>1024</v>
+        <v>991</v>
       </c>
       <c r="F280" s="15" t="s">
-        <v>992</v>
+        <v>963</v>
       </c>
       <c r="G280" s="18" t="s">
-        <v>970</v>
+        <v>941</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
-        <v>990</v>
+        <v>961</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C281" s="28" t="s">
-        <v>1007</v>
+        <v>975</v>
       </c>
       <c r="D281" s="23">
         <v>730</v>
       </c>
       <c r="E281" s="8" t="s">
-        <v>1025</v>
+        <v>992</v>
       </c>
       <c r="F281" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G281" s="18" t="s">
-        <v>971</v>
+        <v>942</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
-        <v>1031</v>
+        <v>996</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>1029</v>
+        <v>995</v>
       </c>
       <c r="C282" s="28" t="s">
-        <v>1028</v>
+        <v>1086</v>
       </c>
       <c r="D282" s="29">
         <v>800</v>
       </c>
       <c r="E282" s="30" t="s">
-        <v>1033</v>
+        <v>998</v>
       </c>
       <c r="F282" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G282" s="18" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
-        <v>1032</v>
+        <v>997</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>1029</v>
+        <v>995</v>
       </c>
       <c r="C283" s="28" t="s">
-        <v>1030</v>
+        <v>1087</v>
       </c>
       <c r="D283">
         <v>600</v>
       </c>
       <c r="E283" s="30" t="s">
-        <v>1034</v>
+        <v>999</v>
       </c>
       <c r="F283" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G283" s="18" t="s">
-        <v>1027</v>
+        <v>994</v>
       </c>
     </row>
   </sheetData>

--- a/Gallery.xlsx
+++ b/Gallery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelaziz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138BC316-15A9-495C-AF6D-D0C2C3ADDAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDB57DB-79F8-445B-A246-6A5A4FCC35AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="1088">
   <si>
     <t>Number</t>
   </si>
@@ -2994,9 +2994,6 @@
     <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/270.jpeg</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/272.jpeg</t>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/274.jpeg</t>
   </si>
   <si>
@@ -3301,6 +3298,9 @@
   </si>
   <si>
     <t xml:space="preserve">Medium Islamic manuscript wood </t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/285.jpeg</t>
   </si>
 </sst>
 </file>
@@ -3972,10 +3972,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98041684-60AD-4B6B-B652-1A806A9CDDBF}">
   <dimension ref="A1:G283"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D284" sqref="D284"/>
+      <selection pane="bottomLeft" activeCell="C280" sqref="C280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4021,7 +4021,7 @@
         <v>372</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D2" s="19">
         <v>2000</v>
@@ -4041,7 +4041,7 @@
         <v>663</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>457</v>
@@ -4136,7 +4136,7 @@
         <v>375</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D7" s="15">
         <v>800</v>
@@ -4159,7 +4159,7 @@
         <v>375</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D8" s="15">
         <v>1600</v>
@@ -4182,7 +4182,7 @@
         <v>372</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D9" s="15">
         <v>900</v>
@@ -4205,7 +4205,7 @@
         <v>375</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D10" s="15">
         <v>2500</v>
@@ -4343,7 +4343,7 @@
         <v>379</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D16" s="15">
         <v>1500</v>
@@ -4366,7 +4366,7 @@
         <v>471</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D17" s="15">
         <v>1200</v>
@@ -4435,7 +4435,7 @@
         <v>372</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D20" s="15">
         <v>750</v>
@@ -4527,7 +4527,7 @@
         <v>374</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D24" s="15">
         <v>2500</v>
@@ -4550,7 +4550,7 @@
         <v>382</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D25" s="15">
         <v>1500</v>
@@ -4573,7 +4573,7 @@
         <v>382</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D26" s="15">
         <v>1500</v>
@@ -4616,10 +4616,10 @@
         <v>688</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D28" s="15">
         <v>2500</v>
@@ -4642,7 +4642,7 @@
         <v>374</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D29" s="15">
         <v>3000</v>
@@ -4665,7 +4665,7 @@
         <v>386</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D30" s="15">
         <v>1200</v>
@@ -4677,7 +4677,7 @@
         <v>182</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -4849,7 +4849,7 @@
         <v>382</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D38" s="15">
         <v>1500</v>
@@ -4918,7 +4918,7 @@
         <v>381</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D41" s="15">
         <v>1200</v>
@@ -5102,7 +5102,7 @@
         <v>470</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D49" s="15">
         <v>1200</v>
@@ -5148,7 +5148,7 @@
         <v>489</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D51" s="15">
         <v>400</v>
@@ -5171,7 +5171,7 @@
         <v>389</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D52" s="15">
         <v>800</v>
@@ -5194,7 +5194,7 @@
         <v>389</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D53" s="15">
         <v>800</v>
@@ -5217,7 +5217,7 @@
         <v>373</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D54" s="15">
         <v>3500</v>
@@ -5309,7 +5309,7 @@
         <v>490</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D58" s="15">
         <v>4000</v>
@@ -5378,7 +5378,7 @@
         <v>391</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D61" s="15">
         <v>900</v>
@@ -5424,7 +5424,7 @@
         <v>373</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D63" s="21">
         <v>1200</v>
@@ -5493,7 +5493,7 @@
         <v>372</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D66" s="15">
         <v>850</v>
@@ -5516,7 +5516,7 @@
         <v>372</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D67" s="15">
         <v>1200</v>
@@ -5539,7 +5539,7 @@
         <v>372</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D68" s="15">
         <v>900</v>
@@ -5585,7 +5585,7 @@
         <v>372</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D70" s="15">
         <v>1800</v>
@@ -5608,7 +5608,7 @@
         <v>372</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D71" s="15">
         <v>1200</v>
@@ -5631,7 +5631,7 @@
         <v>372</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D72" s="15">
         <v>1600</v>
@@ -5654,7 +5654,7 @@
         <v>372</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D73" s="15">
         <v>2000</v>
@@ -5746,7 +5746,7 @@
         <v>385</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D77" s="15">
         <v>750</v>
@@ -5792,7 +5792,7 @@
         <v>471</v>
       </c>
       <c r="C79" s="26" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D79" s="15">
         <v>2500</v>
@@ -5815,7 +5815,7 @@
         <v>372</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D80" s="21">
         <v>1500</v>
@@ -5838,7 +5838,7 @@
         <v>501</v>
       </c>
       <c r="C81" s="26" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D81" s="19">
         <v>750</v>
@@ -5884,7 +5884,7 @@
         <v>372</v>
       </c>
       <c r="C83" s="26" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D83" s="15">
         <v>750</v>
@@ -5953,7 +5953,7 @@
         <v>395</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D86" s="15">
         <v>1200</v>
@@ -5976,7 +5976,7 @@
         <v>372</v>
       </c>
       <c r="C87" s="26" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D87" s="15">
         <v>1700</v>
@@ -6022,7 +6022,7 @@
         <v>382</v>
       </c>
       <c r="C89" s="26" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D89" s="15">
         <v>500</v>
@@ -6160,7 +6160,7 @@
         <v>378</v>
       </c>
       <c r="C95" s="26" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D95" s="15">
         <v>800</v>
@@ -6252,7 +6252,7 @@
         <v>400</v>
       </c>
       <c r="C99" s="26" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D99" s="15">
         <v>350</v>
@@ -6264,7 +6264,7 @@
         <v>177</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="100" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
@@ -6344,7 +6344,7 @@
         <v>372</v>
       </c>
       <c r="C103" s="26" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D103" s="15">
         <v>1200</v>
@@ -6356,7 +6356,7 @@
         <v>174</v>
       </c>
       <c r="G103" s="17" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -6597,7 +6597,7 @@
         <v>398</v>
       </c>
       <c r="C114" s="26" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D114" s="15">
         <v>3000</v>
@@ -6712,7 +6712,7 @@
         <v>379</v>
       </c>
       <c r="C119" s="26" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D119" s="15">
         <v>800</v>
@@ -6735,7 +6735,7 @@
         <v>379</v>
       </c>
       <c r="C120" s="40" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D120" s="21">
         <v>250</v>
@@ -6758,7 +6758,7 @@
         <v>379</v>
       </c>
       <c r="C121" s="26" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D121" s="15">
         <v>2500</v>
@@ -6781,7 +6781,7 @@
         <v>379</v>
       </c>
       <c r="C122" s="26" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D122" s="15">
         <v>800</v>
@@ -6804,7 +6804,7 @@
         <v>379</v>
       </c>
       <c r="C123" s="26" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D123" s="15">
         <v>800</v>
@@ -6827,7 +6827,7 @@
         <v>379</v>
       </c>
       <c r="C124" s="26" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D124" s="15">
         <v>500</v>
@@ -6850,7 +6850,7 @@
         <v>401</v>
       </c>
       <c r="C125" s="26" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D125" s="15">
         <v>2000</v>
@@ -6919,7 +6919,7 @@
         <v>388</v>
       </c>
       <c r="C128" s="26" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D128" s="15">
         <v>2000</v>
@@ -6988,7 +6988,7 @@
         <v>372</v>
       </c>
       <c r="C131" s="26" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D131" s="15">
         <v>300</v>
@@ -7011,7 +7011,7 @@
         <v>388</v>
       </c>
       <c r="C132" s="26" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D132" s="15">
         <v>800</v>
@@ -7494,7 +7494,7 @@
         <v>378</v>
       </c>
       <c r="C153" s="26" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D153" s="15">
         <v>350</v>
@@ -7517,7 +7517,7 @@
         <v>378</v>
       </c>
       <c r="C154" s="26" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D154" s="15">
         <v>2500</v>
@@ -7586,7 +7586,7 @@
         <v>378</v>
       </c>
       <c r="C157" s="26" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D157" s="15">
         <v>700</v>
@@ -7701,7 +7701,7 @@
         <v>405</v>
       </c>
       <c r="C162" s="26" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D162" s="15">
         <v>800</v>
@@ -8023,7 +8023,7 @@
         <v>408</v>
       </c>
       <c r="C176" s="26" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D176" s="15">
         <v>2500</v>
@@ -8115,7 +8115,7 @@
         <v>378</v>
       </c>
       <c r="C180" s="26" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D180" s="19">
         <v>2800</v>
@@ -8138,7 +8138,7 @@
         <v>376</v>
       </c>
       <c r="C181" s="26" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D181" s="15">
         <v>1400</v>
@@ -9334,7 +9334,7 @@
         <v>410</v>
       </c>
       <c r="C233" s="26" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D233" s="21">
         <v>1700</v>
@@ -9357,7 +9357,7 @@
         <v>410</v>
       </c>
       <c r="C234" s="26" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D234" s="15">
         <v>1190</v>
@@ -9380,7 +9380,7 @@
         <v>410</v>
       </c>
       <c r="C235" s="26" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D235" s="15">
         <v>940</v>
@@ -9403,7 +9403,7 @@
         <v>410</v>
       </c>
       <c r="C236" s="26" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D236" s="19">
         <v>600</v>
@@ -9426,7 +9426,7 @@
         <v>410</v>
       </c>
       <c r="C237" s="26" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D237" s="19">
         <v>400</v>
@@ -9449,7 +9449,7 @@
         <v>410</v>
       </c>
       <c r="C238" s="26" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D238" s="19">
         <v>250</v>
@@ -9472,7 +9472,7 @@
         <v>410</v>
       </c>
       <c r="C239" s="26" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D239" s="19">
         <v>500</v>
@@ -9495,7 +9495,7 @@
         <v>410</v>
       </c>
       <c r="C240" s="26" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D240" s="19">
         <v>900</v>
@@ -9518,7 +9518,7 @@
         <v>410</v>
       </c>
       <c r="C241" s="26" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D241" s="19">
         <v>3500</v>
@@ -9541,7 +9541,7 @@
         <v>410</v>
       </c>
       <c r="C242" s="26" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D242" s="15">
         <v>2400</v>
@@ -9564,7 +9564,7 @@
         <v>410</v>
       </c>
       <c r="C243" s="26" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D243" s="21">
         <v>2500</v>
@@ -9587,7 +9587,7 @@
         <v>410</v>
       </c>
       <c r="C244" s="26" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D244" s="21">
         <v>800</v>
@@ -9610,7 +9610,7 @@
         <v>410</v>
       </c>
       <c r="C245" s="26" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D245" s="19">
         <v>2800</v>
@@ -9633,7 +9633,7 @@
         <v>410</v>
       </c>
       <c r="C246" s="26" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D246" s="19">
         <v>800</v>
@@ -9656,7 +9656,7 @@
         <v>410</v>
       </c>
       <c r="C247" s="26" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D247" s="15">
         <v>750</v>
@@ -9679,7 +9679,7 @@
         <v>410</v>
       </c>
       <c r="C248" s="26" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D248" s="15">
         <v>1200</v>
@@ -9702,7 +9702,7 @@
         <v>410</v>
       </c>
       <c r="C249" s="26" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D249" s="19">
         <v>600</v>
@@ -9725,7 +9725,7 @@
         <v>410</v>
       </c>
       <c r="C250" s="26" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D250" s="15">
         <v>1800</v>
@@ -9748,7 +9748,7 @@
         <v>410</v>
       </c>
       <c r="C251" s="26" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D251" s="15">
         <v>1500</v>
@@ -9771,7 +9771,7 @@
         <v>410</v>
       </c>
       <c r="C252" s="26" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D252" s="15">
         <v>700</v>
@@ -9794,7 +9794,7 @@
         <v>410</v>
       </c>
       <c r="C253" s="26" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D253" s="15">
         <v>500</v>
@@ -9817,7 +9817,7 @@
         <v>410</v>
       </c>
       <c r="C254" s="26" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D254" s="19">
         <v>1000</v>
@@ -9840,7 +9840,7 @@
         <v>410</v>
       </c>
       <c r="C255" s="26" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D255" s="15">
         <v>2000</v>
@@ -9863,7 +9863,7 @@
         <v>410</v>
       </c>
       <c r="C256" s="26" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D256" s="15">
         <v>700</v>
@@ -9886,7 +9886,7 @@
         <v>410</v>
       </c>
       <c r="C257" s="26" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D257" s="19">
         <v>500</v>
@@ -9909,7 +9909,7 @@
         <v>410</v>
       </c>
       <c r="C258" s="26" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D258" s="19">
         <v>300</v>
@@ -9932,7 +9932,7 @@
         <v>392</v>
       </c>
       <c r="C259" s="26" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D259" s="19">
         <v>800</v>
@@ -10001,7 +10001,7 @@
         <v>396</v>
       </c>
       <c r="C262" s="27" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D262" s="19">
         <v>1200</v>
@@ -10013,7 +10013,7 @@
         <v>195</v>
       </c>
       <c r="G262" s="15" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -10021,7 +10021,7 @@
         <v>943</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C263" s="28" t="s">
         <v>964</v>
@@ -10044,10 +10044,10 @@
         <v>944</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C264" s="28" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D264" s="23">
         <v>750</v>
@@ -10067,7 +10067,7 @@
         <v>945</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C265" s="28" t="s">
         <v>965</v>
@@ -10093,7 +10093,7 @@
         <v>976</v>
       </c>
       <c r="C266" s="33" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D266" s="34">
         <v>700</v>
@@ -10105,7 +10105,7 @@
         <v>962</v>
       </c>
       <c r="G266" s="36" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -10138,7 +10138,7 @@
       <c r="B268" s="6" t="s">
         <v>976</v>
       </c>
-      <c r="C268" s="28" t="s">
+      <c r="C268" s="33" t="s">
         <v>967</v>
       </c>
       <c r="D268" s="23">
@@ -10168,7 +10168,7 @@
         <v>250</v>
       </c>
       <c r="E269" s="8" t="s">
-        <v>983</v>
+        <v>1087</v>
       </c>
       <c r="F269" s="15" t="s">
         <v>962</v>
@@ -10191,7 +10191,7 @@
         <v>200</v>
       </c>
       <c r="E270" s="8" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="F270" s="15" t="s">
         <v>962</v>
@@ -10208,7 +10208,7 @@
         <v>976</v>
       </c>
       <c r="C271" s="28" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D271" s="23">
         <v>350</v>
@@ -10220,7 +10220,7 @@
         <v>962</v>
       </c>
       <c r="G271" s="18" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
@@ -10231,19 +10231,17 @@
         <v>976</v>
       </c>
       <c r="C272" s="28" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D272" s="23">
         <v>200</v>
       </c>
-      <c r="E272" s="8" t="s">
-        <v>985</v>
-      </c>
+      <c r="E272" s="8"/>
       <c r="F272" s="15" t="s">
         <v>962</v>
       </c>
       <c r="G272" s="18" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
@@ -10254,7 +10252,7 @@
         <v>976</v>
       </c>
       <c r="C273" s="28" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D273" s="23">
         <v>150</v>
@@ -10266,7 +10264,7 @@
         <v>962</v>
       </c>
       <c r="G273" s="18" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
@@ -10277,19 +10275,19 @@
         <v>976</v>
       </c>
       <c r="C274" s="28" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D274" s="23">
         <v>250</v>
       </c>
       <c r="E274" s="8" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F274" s="15" t="s">
         <v>962</v>
       </c>
       <c r="G274" s="18" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
@@ -10306,7 +10304,7 @@
         <v>165</v>
       </c>
       <c r="E275" s="8" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F275" s="15" t="s">
         <v>962</v>
@@ -10323,13 +10321,13 @@
         <v>976</v>
       </c>
       <c r="C276" s="28" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D276" s="23">
         <v>100</v>
       </c>
       <c r="E276" s="8" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F276" s="15" t="s">
         <v>962</v>
@@ -10352,7 +10350,7 @@
         <v>150</v>
       </c>
       <c r="E277" s="8" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F277" s="15" t="s">
         <v>171</v>
@@ -10375,7 +10373,7 @@
         <v>150</v>
       </c>
       <c r="E278" s="8" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F278" s="15" t="s">
         <v>171</v>
@@ -10398,7 +10396,7 @@
         <v>35</v>
       </c>
       <c r="E279" s="8" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F279" s="15" t="s">
         <v>963</v>
@@ -10421,7 +10419,7 @@
         <v>35</v>
       </c>
       <c r="E280" s="8" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F280" s="15" t="s">
         <v>963</v>
@@ -10444,7 +10442,7 @@
         <v>730</v>
       </c>
       <c r="E281" s="8" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F281" s="15" t="s">
         <v>198</v>
@@ -10455,48 +10453,48 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C282" s="28" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D282" s="29">
         <v>800</v>
       </c>
       <c r="E282" s="30" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F282" s="6" t="s">
         <v>177</v>
       </c>
       <c r="G282" s="18" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C283" s="28" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D283">
         <v>600</v>
       </c>
       <c r="E283" s="30" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F283" s="6" t="s">
         <v>177</v>
       </c>
       <c r="G283" s="18" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
   </sheetData>
@@ -10676,27 +10674,24 @@
     <hyperlink ref="E260" r:id="rId143" xr:uid="{7D139951-9CB1-4E71-9200-799E4B3BCCA8}"/>
     <hyperlink ref="E259" r:id="rId144" xr:uid="{8B5CE89F-018E-42D1-9E39-9AE11D7A0812}"/>
     <hyperlink ref="E263" r:id="rId145" xr:uid="{A14190F6-1E05-4223-8B83-66CA1A2020E2}"/>
-    <hyperlink ref="E264:E281" r:id="rId146" display="https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/263.jpeg" xr:uid="{6044E9A9-A666-4B25-9928-2ACFB4829384}"/>
-    <hyperlink ref="E264" r:id="rId147" xr:uid="{6DF37B95-4C8F-481E-95B4-7C1331ECC840}"/>
-    <hyperlink ref="E265" r:id="rId148" xr:uid="{6F038E01-C9E4-4D12-BA3B-CE14B3BEE0B6}"/>
-    <hyperlink ref="E266" r:id="rId149" xr:uid="{836B8F48-0720-448C-8FED-EEC3C56B16A1}"/>
-    <hyperlink ref="E267" r:id="rId150" xr:uid="{8F54AF86-FFD1-464E-86FE-DAFDEB9AB7C8}"/>
-    <hyperlink ref="E271" r:id="rId151" xr:uid="{92E0817A-B2A0-4512-B4E8-FA352C2E4990}"/>
-    <hyperlink ref="E268" r:id="rId152" xr:uid="{0E2304D1-44DE-4C21-A464-55B108B93934}"/>
-    <hyperlink ref="E269" r:id="rId153" xr:uid="{D303A1D9-E297-4E4E-BED5-ADC4357A79C1}"/>
-    <hyperlink ref="E270" r:id="rId154" xr:uid="{65DB69A4-415B-4F45-A69C-CCC0F148A38F}"/>
-    <hyperlink ref="E272" r:id="rId155" xr:uid="{4B3BBE89-ED85-417B-8A2C-F0C9C5EA8C9D}"/>
-    <hyperlink ref="E273" r:id="rId156" xr:uid="{04117E0D-3993-4DF5-B3EB-4FBD577D7B21}"/>
-    <hyperlink ref="E274" r:id="rId157" xr:uid="{3A93909D-E467-4769-ABC0-D8A35B514C02}"/>
-    <hyperlink ref="E275" r:id="rId158" xr:uid="{79B6833E-9D89-484E-BE22-9037F76CC375}"/>
-    <hyperlink ref="E276" r:id="rId159" xr:uid="{94DB4C0B-E2AF-4529-A9AC-FC2753D3A3F0}"/>
-    <hyperlink ref="E277" r:id="rId160" xr:uid="{3A11BDC5-6722-4EE3-97C0-2351A80316D7}"/>
-    <hyperlink ref="E278" r:id="rId161" xr:uid="{19C4879A-80B8-4BB8-ADD4-9363CDCE28BC}"/>
-    <hyperlink ref="E279" r:id="rId162" xr:uid="{F9115941-F061-448B-9B1A-C14B392C8274}"/>
-    <hyperlink ref="E280" r:id="rId163" xr:uid="{6F9A8D9D-399A-4FAC-AF94-D1799D5EE200}"/>
-    <hyperlink ref="E281" r:id="rId164" xr:uid="{76474EB2-648C-48DA-B1E9-CB94DC2F6387}"/>
-    <hyperlink ref="E282" r:id="rId165" xr:uid="{4BC0DDC7-300F-4B53-8FDF-0F7B5AE3496F}"/>
-    <hyperlink ref="E283" r:id="rId166" xr:uid="{DB055508-A9D3-4E1D-88DC-90B0C3CE4013}"/>
+    <hyperlink ref="E264" r:id="rId146" xr:uid="{6DF37B95-4C8F-481E-95B4-7C1331ECC840}"/>
+    <hyperlink ref="E265" r:id="rId147" xr:uid="{6F038E01-C9E4-4D12-BA3B-CE14B3BEE0B6}"/>
+    <hyperlink ref="E266" r:id="rId148" xr:uid="{836B8F48-0720-448C-8FED-EEC3C56B16A1}"/>
+    <hyperlink ref="E267" r:id="rId149" xr:uid="{8F54AF86-FFD1-464E-86FE-DAFDEB9AB7C8}"/>
+    <hyperlink ref="E271" r:id="rId150" xr:uid="{92E0817A-B2A0-4512-B4E8-FA352C2E4990}"/>
+    <hyperlink ref="E268" r:id="rId151" xr:uid="{0E2304D1-44DE-4C21-A464-55B108B93934}"/>
+    <hyperlink ref="E269" r:id="rId152" xr:uid="{D303A1D9-E297-4E4E-BED5-ADC4357A79C1}"/>
+    <hyperlink ref="E273" r:id="rId153" xr:uid="{04117E0D-3993-4DF5-B3EB-4FBD577D7B21}"/>
+    <hyperlink ref="E274" r:id="rId154" xr:uid="{3A93909D-E467-4769-ABC0-D8A35B514C02}"/>
+    <hyperlink ref="E275" r:id="rId155" xr:uid="{79B6833E-9D89-484E-BE22-9037F76CC375}"/>
+    <hyperlink ref="E276" r:id="rId156" xr:uid="{94DB4C0B-E2AF-4529-A9AC-FC2753D3A3F0}"/>
+    <hyperlink ref="E277" r:id="rId157" xr:uid="{3A11BDC5-6722-4EE3-97C0-2351A80316D7}"/>
+    <hyperlink ref="E278" r:id="rId158" xr:uid="{19C4879A-80B8-4BB8-ADD4-9363CDCE28BC}"/>
+    <hyperlink ref="E279" r:id="rId159" xr:uid="{F9115941-F061-448B-9B1A-C14B392C8274}"/>
+    <hyperlink ref="E280" r:id="rId160" xr:uid="{6F9A8D9D-399A-4FAC-AF94-D1799D5EE200}"/>
+    <hyperlink ref="E281" r:id="rId161" xr:uid="{76474EB2-648C-48DA-B1E9-CB94DC2F6387}"/>
+    <hyperlink ref="E282" r:id="rId162" xr:uid="{4BC0DDC7-300F-4B53-8FDF-0F7B5AE3496F}"/>
+    <hyperlink ref="E283" r:id="rId163" xr:uid="{DB055508-A9D3-4E1D-88DC-90B0C3CE4013}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Gallery.xlsx
+++ b/Gallery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelaziz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDB57DB-79F8-445B-A246-6A5A4FCC35AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA34BD12-7ABE-45B8-8262-9DC54C18B5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="1089">
   <si>
     <t>Number</t>
   </si>
@@ -3301,6 +3301,9 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/285.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/286.jpeg</t>
   </si>
 </sst>
 </file>
@@ -3423,7 +3426,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3497,7 +3500,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3972,10 +3974,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98041684-60AD-4B6B-B652-1A806A9CDDBF}">
   <dimension ref="A1:G283"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C280" sqref="C280"/>
+      <selection pane="bottomLeft" activeCell="G268" sqref="G268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4588,26 +4590,26 @@
         <v>563</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="s">
+    <row r="27" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="37" t="s">
         <v>687</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="38" t="s">
         <v>372</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="39" t="s">
         <v>456</v>
       </c>
       <c r="D27" s="21">
         <v>1200</v>
       </c>
-      <c r="E27" s="41" t="s">
+      <c r="E27" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="F27" s="41" t="s">
+      <c r="F27" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="G27" s="42" t="s">
+      <c r="G27" s="41" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5416,26 +5418,26 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="38" t="s">
+    <row r="63" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="37" t="s">
         <v>723</v>
       </c>
-      <c r="B63" s="39" t="s">
+      <c r="B63" s="38" t="s">
         <v>373</v>
       </c>
-      <c r="C63" s="40" t="s">
+      <c r="C63" s="39" t="s">
         <v>1032</v>
       </c>
       <c r="D63" s="21">
         <v>1200</v>
       </c>
-      <c r="E63" s="41" t="s">
+      <c r="E63" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="F63" s="41" t="s">
+      <c r="F63" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="G63" s="42" t="s">
+      <c r="G63" s="41" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5807,26 +5809,26 @@
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="38" t="s">
+    <row r="80" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="37" t="s">
         <v>740</v>
       </c>
-      <c r="B80" s="39" t="s">
+      <c r="B80" s="38" t="s">
         <v>372</v>
       </c>
-      <c r="C80" s="40" t="s">
+      <c r="C80" s="39" t="s">
         <v>1045</v>
       </c>
       <c r="D80" s="21">
         <v>1500</v>
       </c>
-      <c r="E80" s="43" t="s">
+      <c r="E80" s="42" t="s">
         <v>274</v>
       </c>
-      <c r="F80" s="41" t="s">
+      <c r="F80" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="G80" s="42" t="s">
+      <c r="G80" s="41" t="s">
         <v>88</v>
       </c>
     </row>
@@ -6267,26 +6269,26 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="38" t="s">
+    <row r="100" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="37" t="s">
         <v>760</v>
       </c>
-      <c r="B100" s="39" t="s">
+      <c r="B100" s="38" t="s">
         <v>401</v>
       </c>
-      <c r="C100" s="40" t="s">
+      <c r="C100" s="39" t="s">
         <v>423</v>
       </c>
       <c r="D100" s="21">
         <v>4000</v>
       </c>
-      <c r="E100" s="41" t="s">
+      <c r="E100" s="40" t="s">
         <v>294</v>
       </c>
-      <c r="F100" s="41" t="s">
+      <c r="F100" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="G100" s="42" t="s">
+      <c r="G100" s="41" t="s">
         <v>106</v>
       </c>
     </row>
@@ -6727,26 +6729,26 @@
         <v>124</v>
       </c>
     </row>
-    <row r="120" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="38" t="s">
+    <row r="120" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="37" t="s">
         <v>780</v>
       </c>
-      <c r="B120" s="39" t="s">
+      <c r="B120" s="38" t="s">
         <v>379</v>
       </c>
-      <c r="C120" s="40" t="s">
+      <c r="C120" s="39" t="s">
         <v>1059</v>
       </c>
       <c r="D120" s="21">
         <v>250</v>
       </c>
-      <c r="E120" s="41" t="s">
+      <c r="E120" s="40" t="s">
         <v>314</v>
       </c>
-      <c r="F120" s="41" t="s">
+      <c r="F120" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="G120" s="42" t="s">
+      <c r="G120" s="41" t="s">
         <v>125</v>
       </c>
     </row>
@@ -7792,7 +7794,7 @@
       <c r="B166" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="C166" s="40" t="s">
+      <c r="C166" s="39" t="s">
         <v>544</v>
       </c>
       <c r="D166" s="15">
@@ -10085,26 +10087,26 @@
         <v>931</v>
       </c>
     </row>
-    <row r="266" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="31" t="s">
+    <row r="266" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="30" t="s">
         <v>946</v>
       </c>
-      <c r="B266" s="32" t="s">
+      <c r="B266" s="31" t="s">
         <v>976</v>
       </c>
-      <c r="C266" s="33" t="s">
+      <c r="C266" s="32" t="s">
         <v>1000</v>
       </c>
-      <c r="D266" s="34">
+      <c r="D266" s="33">
         <v>700</v>
       </c>
-      <c r="E266" s="35" t="s">
+      <c r="E266" s="34" t="s">
         <v>981</v>
       </c>
       <c r="F266" s="21" t="s">
         <v>962</v>
       </c>
-      <c r="G266" s="36" t="s">
+      <c r="G266" s="35" t="s">
         <v>999</v>
       </c>
     </row>
@@ -10138,7 +10140,7 @@
       <c r="B268" s="6" t="s">
         <v>976</v>
       </c>
-      <c r="C268" s="33" t="s">
+      <c r="C268" s="32" t="s">
         <v>967</v>
       </c>
       <c r="D268" s="23">
@@ -10236,7 +10238,9 @@
       <c r="D272" s="23">
         <v>200</v>
       </c>
-      <c r="E272" s="8"/>
+      <c r="E272" s="8" t="s">
+        <v>1088</v>
+      </c>
       <c r="F272" s="15" t="s">
         <v>962</v>
       </c>
@@ -10461,10 +10465,10 @@
       <c r="C282" s="28" t="s">
         <v>1085</v>
       </c>
-      <c r="D282" s="29">
+      <c r="D282" s="23">
         <v>800</v>
       </c>
-      <c r="E282" s="30" t="s">
+      <c r="E282" s="29" t="s">
         <v>997</v>
       </c>
       <c r="F282" s="6" t="s">
@@ -10487,7 +10491,7 @@
       <c r="D283">
         <v>600</v>
       </c>
-      <c r="E283" s="30" t="s">
+      <c r="E283" s="29" t="s">
         <v>998</v>
       </c>
       <c r="F283" s="6" t="s">
@@ -10692,6 +10696,7 @@
     <hyperlink ref="E281" r:id="rId161" xr:uid="{76474EB2-648C-48DA-B1E9-CB94DC2F6387}"/>
     <hyperlink ref="E282" r:id="rId162" xr:uid="{4BC0DDC7-300F-4B53-8FDF-0F7B5AE3496F}"/>
     <hyperlink ref="E283" r:id="rId163" xr:uid="{DB055508-A9D3-4E1D-88DC-90B0C3CE4013}"/>
+    <hyperlink ref="E272" r:id="rId164" xr:uid="{4A73A650-2E02-43BA-BDC5-CA16382E8FB7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Gallery.xlsx
+++ b/Gallery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelaziz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA34BD12-7ABE-45B8-8262-9DC54C18B5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A3CEA9-38F7-45A5-958D-600E8D9766F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="1090">
   <si>
     <t>Number</t>
   </si>
@@ -3304,6 +3304,9 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/286.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/287.jpeg</t>
   </si>
 </sst>
 </file>
@@ -3977,7 +3980,7 @@
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G268" sqref="G268"/>
+      <selection pane="bottomLeft" activeCell="G270" sqref="G270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10308,7 +10311,7 @@
         <v>165</v>
       </c>
       <c r="E275" s="8" t="s">
-        <v>986</v>
+        <v>1089</v>
       </c>
       <c r="F275" s="15" t="s">
         <v>962</v>

--- a/Gallery.xlsx
+++ b/Gallery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelaziz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A3CEA9-38F7-45A5-958D-600E8D9766F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C536C231-D941-4817-9375-EEF399FFCC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="1090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="1091">
   <si>
     <t>Number</t>
   </si>
@@ -3307,6 +3307,9 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/287.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/288.jpeg</t>
   </si>
 </sst>
 </file>
@@ -3977,10 +3980,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98041684-60AD-4B6B-B652-1A806A9CDDBF}">
   <dimension ref="A1:G283"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G270" sqref="G270"/>
+      <selection pane="bottomLeft" activeCell="E271" sqref="E271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10219,7 +10222,7 @@
         <v>350</v>
       </c>
       <c r="E271" s="8" t="s">
-        <v>982</v>
+        <v>1090</v>
       </c>
       <c r="F271" s="15" t="s">
         <v>962</v>

--- a/Gallery.xlsx
+++ b/Gallery.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelaziz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C536C231-D941-4817-9375-EEF399FFCC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5099DB9F-9580-404F-97F5-3B8C6099E589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="1091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="1186">
   <si>
     <t>Number</t>
   </si>
@@ -3310,6 +3310,291 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/288.jpeg</t>
+  </si>
+  <si>
+    <t>عكاز خشب يد اخضر</t>
+  </si>
+  <si>
+    <t>عكاز خشب اسود حجر كهرمان</t>
+  </si>
+  <si>
+    <t>عكاز خشب اسود راس اسد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عكاز خشب بني </t>
+  </si>
+  <si>
+    <t>عكاز خشب ناب فيل</t>
+  </si>
+  <si>
+    <t>عكاز خشب يد اسود ة صدف</t>
+  </si>
+  <si>
+    <t>عكاز خشب بني مع فيروز مذهب</t>
+  </si>
+  <si>
+    <t>عكاز اسود راس فهد</t>
+  </si>
+  <si>
+    <t>عكاز خشب بني مزخرف اسود و ازرق</t>
+  </si>
+  <si>
+    <t>فازة بوهيمي كحلي كبير مورد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مجسم كرستال طائر </t>
+  </si>
+  <si>
+    <t>مجسم كرستال ببغاء</t>
+  </si>
+  <si>
+    <t>مجسم كرستال دولفين دوم</t>
+  </si>
+  <si>
+    <t>بيضة اوز احمر مزخرف ذهبي</t>
+  </si>
+  <si>
+    <t>بيضة اوز اخضر مزخرف ذهبي</t>
+  </si>
+  <si>
+    <t>صندوق مزخرف فراشات</t>
+  </si>
+  <si>
+    <t>صندوق مصور الثور الاسباني</t>
+  </si>
+  <si>
+    <t>مبسم ارجيلة كهرمان مع فضة ازرق عثماني</t>
+  </si>
+  <si>
+    <t>مبسم ارجيلة كهرمان  ابيض صغير</t>
+  </si>
+  <si>
+    <t>مبسم ارجيلة كهرمان خشب و فضة كبير</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حجر كهرمان الماني </t>
+  </si>
+  <si>
+    <t>عكازات</t>
+  </si>
+  <si>
+    <t>بيضات</t>
+  </si>
+  <si>
+    <t>Green Wooden Crutch</t>
+  </si>
+  <si>
+    <t>Black Wooden Crutch Amber Stone</t>
+  </si>
+  <si>
+    <t>Black Wooden Crutch Lion Head</t>
+  </si>
+  <si>
+    <t>Brown Wooden Crutch</t>
+  </si>
+  <si>
+    <t>Elephant Tusk Wooden Crutch</t>
+  </si>
+  <si>
+    <t>Black Wooden Crutch Shell</t>
+  </si>
+  <si>
+    <t>Brown Wooden Crutch with Gilded Turquoise</t>
+  </si>
+  <si>
+    <t>Black Wooden Crutch Leopard Head</t>
+  </si>
+  <si>
+    <t>Black and Blue Decorated Brown Wooden Crutch</t>
+  </si>
+  <si>
+    <t>Large Navy Blue Bohemian Vase with Flower</t>
+  </si>
+  <si>
+    <t>Crystal Bird Statue</t>
+  </si>
+  <si>
+    <t>Crystal Parrot Statue</t>
+  </si>
+  <si>
+    <t>Crystal Dolphin Dome Statue</t>
+  </si>
+  <si>
+    <t>Golden Decorated Red Goose Egg</t>
+  </si>
+  <si>
+    <t>Golden Decorated Green Goose Egg</t>
+  </si>
+  <si>
+    <t>Butterfly Decorated Box</t>
+  </si>
+  <si>
+    <t>Spanish Bull Picture Box</t>
+  </si>
+  <si>
+    <t>Ottoman Blue Amber Hookah Mouthpiece</t>
+  </si>
+  <si>
+    <t>Small White Amber Hookah Mouthpiece</t>
+  </si>
+  <si>
+    <t>Large Silver Amber Hookah Mouthpiece</t>
+  </si>
+  <si>
+    <t>German Amber Stone</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/289.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/290.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/291.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/292.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/293.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/294.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/295.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/296.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/297.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/298.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/299.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/300.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/301.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/302.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/303.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/304.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/305.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/306.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/307.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/308.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/309.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/310.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/311.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/312.jpeg</t>
+  </si>
+  <si>
+    <t>1000000284</t>
+  </si>
+  <si>
+    <t>1000000285</t>
+  </si>
+  <si>
+    <t>1000000286</t>
+  </si>
+  <si>
+    <t>1000000287</t>
+  </si>
+  <si>
+    <t>1000000288</t>
+  </si>
+  <si>
+    <t>1000000289</t>
+  </si>
+  <si>
+    <t>1000000290</t>
+  </si>
+  <si>
+    <t>1000000291</t>
+  </si>
+  <si>
+    <t>1000000292</t>
+  </si>
+  <si>
+    <t>1000000293</t>
+  </si>
+  <si>
+    <t>1000000294</t>
+  </si>
+  <si>
+    <t>1000000295</t>
+  </si>
+  <si>
+    <t>1000000296</t>
+  </si>
+  <si>
+    <t>1000000297</t>
+  </si>
+  <si>
+    <t>1000000298</t>
+  </si>
+  <si>
+    <t>1000000299</t>
+  </si>
+  <si>
+    <t>1000000300</t>
+  </si>
+  <si>
+    <t>1000000301</t>
+  </si>
+  <si>
+    <t>1000000302</t>
+  </si>
+  <si>
+    <t>1000000303</t>
+  </si>
+  <si>
+    <t>1000000304</t>
+  </si>
+  <si>
+    <t>1000000305</t>
+  </si>
+  <si>
+    <t>1000000306</t>
+  </si>
+  <si>
+    <t>1000000307</t>
+  </si>
+  <si>
+    <t>1000000308</t>
+  </si>
+  <si>
+    <t>Crutches</t>
+  </si>
+  <si>
+    <t>necklaces</t>
   </si>
 </sst>
 </file>
@@ -3978,19 +4263,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98041684-60AD-4B6B-B652-1A806A9CDDBF}">
-  <dimension ref="A1:G283"/>
+  <dimension ref="A1:G308"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E271" sqref="E271"/>
+      <selection pane="bottomLeft" activeCell="B196" sqref="B196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.296875" style="7" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="11.09765625" style="6" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="84" style="28" customWidth="1"/>
+    <col min="1" max="1" width="23.296875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.09765625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="52.59765625" style="28" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="6" customWidth="1"/>
     <col min="6" max="6" width="9.69921875" style="6" customWidth="1"/>
@@ -10507,12 +10792,569 @@
         <v>993</v>
       </c>
     </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" s="7" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C284" s="28" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D284">
+        <v>150</v>
+      </c>
+      <c r="E284" s="29" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F284" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G284" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" s="7" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C285" s="28" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D285">
+        <v>690</v>
+      </c>
+      <c r="E285" s="29" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F285" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G285" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" s="7" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B286" s="6" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C286" s="28" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D286">
+        <v>620</v>
+      </c>
+      <c r="E286" s="29" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F286" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G286" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" s="7" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B287" s="6" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C287" s="28" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D287">
+        <v>420</v>
+      </c>
+      <c r="E287" s="29" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F287" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G287" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" s="7" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B288" s="6" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C288" s="28" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D288">
+        <v>320</v>
+      </c>
+      <c r="E288" s="29" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F288" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G288" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" s="7" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B289" s="6" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C289" s="28" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D289">
+        <v>290</v>
+      </c>
+      <c r="E289" s="29" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F289" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G289" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B290" s="6" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C290" s="28" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D290">
+        <v>420</v>
+      </c>
+      <c r="E290" s="29" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F290" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G290" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" s="7" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B291" s="6" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C291" s="28" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D291">
+        <v>290</v>
+      </c>
+      <c r="E291" s="29" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F291" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G291" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" s="7" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B292" s="6" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C292" s="28" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D292">
+        <v>230</v>
+      </c>
+      <c r="E292" s="29" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F292" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G292" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" s="7" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B293" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C293" s="28" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D293">
+        <v>420</v>
+      </c>
+      <c r="E293" s="29" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F293" t="s">
+        <v>174</v>
+      </c>
+      <c r="G293" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" s="7" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B294" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C294" s="28" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D294">
+        <v>190</v>
+      </c>
+      <c r="E294" s="29" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F294" t="s">
+        <v>178</v>
+      </c>
+      <c r="G294" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" s="7" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B295" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C295" s="28" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D295">
+        <v>190</v>
+      </c>
+      <c r="E295" s="29" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F295" t="s">
+        <v>178</v>
+      </c>
+      <c r="G295" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" s="7" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B296" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C296" s="28" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D296">
+        <v>190</v>
+      </c>
+      <c r="E296" s="29" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F296" t="s">
+        <v>178</v>
+      </c>
+      <c r="G296" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" s="7" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B297" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C297" s="28" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D297">
+        <v>220</v>
+      </c>
+      <c r="E297" s="29" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F297" t="s">
+        <v>178</v>
+      </c>
+      <c r="G297" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" s="7" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B298" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C298" s="28" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D298">
+        <v>220</v>
+      </c>
+      <c r="E298" s="29" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F298" t="s">
+        <v>178</v>
+      </c>
+      <c r="G298" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" s="7" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B299" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C299" s="28" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D299">
+        <v>220</v>
+      </c>
+      <c r="E299" s="29" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F299" t="s">
+        <v>178</v>
+      </c>
+      <c r="G299" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300" s="7" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B300" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C300" s="28" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D300">
+        <v>170</v>
+      </c>
+      <c r="E300" s="29" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F300" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G300" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301" s="7" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B301" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C301" s="28" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D301">
+        <v>170</v>
+      </c>
+      <c r="E301" s="29" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F301" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G301" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302" s="7" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B302" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C302" s="28" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D302">
+        <v>350</v>
+      </c>
+      <c r="E302" s="29" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F302" t="s">
+        <v>180</v>
+      </c>
+      <c r="G302" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303" s="7" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B303" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C303" s="28" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D303">
+        <v>360</v>
+      </c>
+      <c r="E303" s="29" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F303" t="s">
+        <v>180</v>
+      </c>
+      <c r="G303" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304" s="7" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B304" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C304" s="28" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D304">
+        <v>295</v>
+      </c>
+      <c r="E304" s="29" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F304" t="s">
+        <v>194</v>
+      </c>
+      <c r="G304" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305" s="7" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B305" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C305" s="28" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D305">
+        <v>190</v>
+      </c>
+      <c r="E305" s="29" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F305" t="s">
+        <v>194</v>
+      </c>
+      <c r="G305" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" s="7" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B306" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C306" s="28" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D306">
+        <v>420</v>
+      </c>
+      <c r="E306" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F306" t="s">
+        <v>194</v>
+      </c>
+      <c r="G306" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307" s="7" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B307" s="6" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C307" s="28" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D307">
+        <v>1200</v>
+      </c>
+      <c r="E307" s="29" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F307" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="G307" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308" s="7" t="s">
+        <v>1183</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="14" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
+  <conditionalFormatting sqref="G1:G283 G308:G1048576">
     <cfRule type="duplicateValues" dxfId="13" priority="22"/>
     <cfRule type="duplicateValues" dxfId="12" priority="26"/>
   </conditionalFormatting>
@@ -10703,6 +11545,31 @@
     <hyperlink ref="E282" r:id="rId162" xr:uid="{4BC0DDC7-300F-4B53-8FDF-0F7B5AE3496F}"/>
     <hyperlink ref="E283" r:id="rId163" xr:uid="{DB055508-A9D3-4E1D-88DC-90B0C3CE4013}"/>
     <hyperlink ref="E272" r:id="rId164" xr:uid="{4A73A650-2E02-43BA-BDC5-CA16382E8FB7}"/>
+    <hyperlink ref="E284" r:id="rId165" xr:uid="{515258B9-1C53-4DE3-8C2D-2DF36EEC1055}"/>
+    <hyperlink ref="E285:E307" r:id="rId166" display="https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/289.jpeg" xr:uid="{13609C26-65E1-4457-8E2B-3F92E35E6323}"/>
+    <hyperlink ref="E285" r:id="rId167" xr:uid="{44E97DB9-4359-4CE4-BAE0-BFB19EB91A3D}"/>
+    <hyperlink ref="E286" r:id="rId168" xr:uid="{9B21ABFF-28F5-4EC6-A7FF-E7A35A7C480B}"/>
+    <hyperlink ref="E287" r:id="rId169" xr:uid="{C788BC57-D1B8-4FDC-9EF6-A1A606E551C1}"/>
+    <hyperlink ref="E288" r:id="rId170" xr:uid="{83F1E377-79CB-4D07-B31B-EE58723CFAAB}"/>
+    <hyperlink ref="E289" r:id="rId171" xr:uid="{5F7B6C5F-88E7-45AE-BFF4-01522972AD56}"/>
+    <hyperlink ref="E290" r:id="rId172" xr:uid="{78C69C0C-E293-4EBC-B90E-A576A6E322E2}"/>
+    <hyperlink ref="E291" r:id="rId173" xr:uid="{A8506344-AC89-4493-9CF9-A06377A55534}"/>
+    <hyperlink ref="E292" r:id="rId174" xr:uid="{34F9DB8E-94C5-4635-A1D0-07D00DD8F066}"/>
+    <hyperlink ref="E293" r:id="rId175" xr:uid="{AC88F9B4-E5AF-4056-A151-A833175D1DD3}"/>
+    <hyperlink ref="E294" r:id="rId176" xr:uid="{F67573FE-848C-4E9D-B0F2-74EE09B6AF30}"/>
+    <hyperlink ref="E295" r:id="rId177" xr:uid="{24FEE8AC-FA29-4206-8E9E-3B9AF0B5C999}"/>
+    <hyperlink ref="E296" r:id="rId178" xr:uid="{68A0301D-1D91-475A-BECC-E69B6E851776}"/>
+    <hyperlink ref="E297" r:id="rId179" xr:uid="{A1A1FED2-C47A-48AE-9A8A-C053F12030A6}"/>
+    <hyperlink ref="E298" r:id="rId180" xr:uid="{36626834-2EEB-4386-ADE9-BBDDEDE49477}"/>
+    <hyperlink ref="E299" r:id="rId181" xr:uid="{A058CE73-2440-4D6E-882A-B5ABBC9147D5}"/>
+    <hyperlink ref="E300" r:id="rId182" xr:uid="{B78588A8-0938-4C99-B3F1-D5FEA6559B5D}"/>
+    <hyperlink ref="E301" r:id="rId183" xr:uid="{235CD54E-70F0-4D46-8D15-B6DB65D446C9}"/>
+    <hyperlink ref="E302" r:id="rId184" xr:uid="{619A2FCF-D1E0-45EF-9A95-76E3E5791446}"/>
+    <hyperlink ref="E303" r:id="rId185" xr:uid="{2E51E71E-BF87-411F-AC42-B8E1F6ED6A2E}"/>
+    <hyperlink ref="E304" r:id="rId186" xr:uid="{8E681414-F17E-403A-A3B6-47CD74506D14}"/>
+    <hyperlink ref="E305" r:id="rId187" xr:uid="{028D67FD-594F-4886-B7D6-3D8A891ED9C8}"/>
+    <hyperlink ref="E306" r:id="rId188" xr:uid="{87A47364-26B0-4247-8B1C-F54CC520ADD7}"/>
+    <hyperlink ref="E307" r:id="rId189" xr:uid="{234F367A-E8ED-4CEB-A7C5-FB6DEF3F85FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Gallery.xlsx
+++ b/Gallery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelaziz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5099DB9F-9580-404F-97F5-3B8C6099E589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9DAC80-761B-4538-B68F-B3A77BB5E1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="1186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="1185">
   <si>
     <t>Number</t>
   </si>
@@ -3586,9 +3586,6 @@
   </si>
   <si>
     <t>1000000307</t>
-  </si>
-  <si>
-    <t>1000000308</t>
   </si>
   <si>
     <t>Crutches</t>
@@ -4263,12 +4260,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98041684-60AD-4B6B-B652-1A806A9CDDBF}">
-  <dimension ref="A1:G308"/>
+  <dimension ref="A1:G307"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B196" sqref="B196"/>
+      <selection pane="bottomLeft" activeCell="C312" sqref="C312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10797,7 +10794,7 @@
         <v>1159</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C284" s="28" t="s">
         <v>1114</v>
@@ -10820,7 +10817,7 @@
         <v>1160</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C285" s="28" t="s">
         <v>1115</v>
@@ -10843,7 +10840,7 @@
         <v>1161</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C286" s="28" t="s">
         <v>1116</v>
@@ -10866,7 +10863,7 @@
         <v>1162</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C287" s="28" t="s">
         <v>1117</v>
@@ -10889,7 +10886,7 @@
         <v>1163</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C288" s="28" t="s">
         <v>1118</v>
@@ -10912,7 +10909,7 @@
         <v>1164</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C289" s="28" t="s">
         <v>1119</v>
@@ -10935,7 +10932,7 @@
         <v>1165</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C290" s="28" t="s">
         <v>1120</v>
@@ -10958,7 +10955,7 @@
         <v>1166</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C291" s="28" t="s">
         <v>1121</v>
@@ -10981,7 +10978,7 @@
         <v>1167</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C292" s="28" t="s">
         <v>1122</v>
@@ -11326,7 +11323,7 @@
         <v>1182</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C307" s="28" t="s">
         <v>1134</v>
@@ -11342,11 +11339,6 @@
       </c>
       <c r="G307" t="s">
         <v>1111</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A308" s="7" t="s">
-        <v>1183</v>
       </c>
     </row>
   </sheetData>
